--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E59873A8-458C-4008-A6F7-58F08532E9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F65912-9197-47A6-AEA4-74B5020DA1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H77Dyno" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="408">
   <si>
     <t>Episode</t>
   </si>
@@ -1034,12 +1034,222 @@
   </si>
   <si>
     <t>Passat</t>
+  </si>
+  <si>
+    <t>2.4 V6</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Hameln</t>
+  </si>
+  <si>
+    <t>A4 Avant</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>Alpina Software</t>
+  </si>
+  <si>
+    <t>525i</t>
+  </si>
+  <si>
+    <t>A4 (Coupe)</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AltenKirchen</t>
+  </si>
+  <si>
+    <t>16V</t>
+  </si>
+  <si>
+    <t>Probe</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Oldenburg</t>
+  </si>
+  <si>
+    <t>320i</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Wolfenbüttel</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
+    <t>Z3 Coupe</t>
+  </si>
+  <si>
+    <t>3.0i</t>
+  </si>
+  <si>
+    <t>Ascona (A)</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Groß-Gerau</t>
+  </si>
+  <si>
+    <t>Polo  (Harlekin)</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>Germersheim</t>
+  </si>
+  <si>
+    <t>MX5</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>HGN</t>
+  </si>
+  <si>
+    <t>Hagenow</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
+    <t>Rockenhausen</t>
+  </si>
+  <si>
+    <t>Corsa (D)</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>E36 (Coupe)</t>
+  </si>
+  <si>
+    <t>MTK</t>
+  </si>
+  <si>
+    <t>Main-Taunus-Kreis</t>
+  </si>
+  <si>
+    <t>Ascona (B)</t>
+  </si>
+  <si>
+    <t>Astra (F) 16V Motor, Nockenwellen</t>
+  </si>
+  <si>
+    <t>Altenkirchen</t>
+  </si>
+  <si>
+    <t>Polo (16.1 GTI)</t>
+  </si>
+  <si>
+    <t>Vogelsberg</t>
+  </si>
+  <si>
+    <t>Twingo (RS)</t>
+  </si>
+  <si>
+    <t>Ansaugung</t>
+  </si>
+  <si>
+    <t>E38 (7er)</t>
+  </si>
+  <si>
+    <t>Motor vom V8 744er, Getriebe vom 335er</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>Westerwald</t>
+  </si>
+  <si>
+    <t>BWM</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>Drehzahlbegrenzer regelt bei 6000 u/min ab .. / Bosch bzw. BEGU (Serie) bei 6.600</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>Monschau</t>
+  </si>
+  <si>
+    <t>Golf II (Fire &amp; Ice)</t>
+  </si>
+  <si>
+    <t>Nockenwelle, Fächerkrümmer</t>
+  </si>
+  <si>
+    <t>MZG</t>
+  </si>
+  <si>
+    <t>Merzig-Wadern</t>
+  </si>
+  <si>
+    <t>R5 (Campus)</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>13 Toyota</t>
+  </si>
+  <si>
+    <t>Siegen</t>
+  </si>
+  <si>
+    <t>Celica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1881,11 +2091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y96" sqref="Y96"/>
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6251,6 +6461,1124 @@
         <v>450</v>
       </c>
     </row>
+    <row r="97" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L98" s="3">
+        <v>193</v>
+      </c>
+      <c r="M98" s="1">
+        <v>157902</v>
+      </c>
+      <c r="N98" s="3">
+        <v>1997</v>
+      </c>
+      <c r="U98" s="3">
+        <v>199.8</v>
+      </c>
+      <c r="V98" s="3">
+        <v>6139</v>
+      </c>
+      <c r="W98" s="3">
+        <v>246.8</v>
+      </c>
+      <c r="X98" s="3">
+        <v>3317</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD98" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C99" s="4">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G99" t="s">
+        <v>343</v>
+      </c>
+      <c r="K99" t="s">
+        <v>87</v>
+      </c>
+      <c r="L99" s="3">
+        <v>192</v>
+      </c>
+      <c r="M99" s="1">
+        <v>230457</v>
+      </c>
+      <c r="N99" s="3">
+        <v>2001</v>
+      </c>
+      <c r="U99" s="3">
+        <v>184.9</v>
+      </c>
+      <c r="V99" s="3">
+        <v>6357</v>
+      </c>
+      <c r="W99" s="3">
+        <v>224.2</v>
+      </c>
+      <c r="X99" s="3">
+        <v>5031</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD99" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C100" s="4">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>58</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J100">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
+        <v>136</v>
+      </c>
+      <c r="N100" s="3">
+        <v>1998</v>
+      </c>
+      <c r="U100" s="3">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="V100" s="3">
+        <v>5641</v>
+      </c>
+      <c r="W100" s="3">
+        <v>180.3</v>
+      </c>
+      <c r="X100" s="3">
+        <v>4273</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD100" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C101" s="4">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G101" t="s">
+        <v>348</v>
+      </c>
+      <c r="L101" s="3">
+        <v>115</v>
+      </c>
+      <c r="M101" s="1">
+        <v>125000</v>
+      </c>
+      <c r="U101" s="3">
+        <v>115</v>
+      </c>
+      <c r="V101" s="3">
+        <v>5687</v>
+      </c>
+      <c r="W101" s="3">
+        <v>164.5</v>
+      </c>
+      <c r="X101" s="3">
+        <v>4485</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD101" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C102" s="4">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L102" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>131.9</v>
+      </c>
+      <c r="R102" s="3">
+        <v>6101</v>
+      </c>
+      <c r="S102" s="3">
+        <v>174.5</v>
+      </c>
+      <c r="T102" s="3">
+        <v>4833</v>
+      </c>
+      <c r="U102" s="3">
+        <v>138.5</v>
+      </c>
+      <c r="V102" s="3">
+        <v>5991</v>
+      </c>
+      <c r="W102" s="3">
+        <v>175.7</v>
+      </c>
+      <c r="X102" s="3">
+        <v>4759</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD102" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C103" s="4">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K103" t="s">
+        <v>87</v>
+      </c>
+      <c r="L103" s="3">
+        <v>75</v>
+      </c>
+      <c r="M103" s="1">
+        <v>319175</v>
+      </c>
+      <c r="N103" s="3">
+        <v>1993</v>
+      </c>
+      <c r="U103" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="V103" s="3">
+        <v>5784</v>
+      </c>
+      <c r="W103" s="3">
+        <v>118.8</v>
+      </c>
+      <c r="X103" s="3">
+        <v>4161</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD103" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C104" s="4">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L104" s="3">
+        <v>231</v>
+      </c>
+      <c r="N104" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U104" s="3">
+        <v>181.1</v>
+      </c>
+      <c r="V104" s="3">
+        <v>5773</v>
+      </c>
+      <c r="W104" s="3">
+        <v>252.1</v>
+      </c>
+      <c r="X104" s="3">
+        <v>3230</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD104" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C105" s="4">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L105" s="3">
+        <v>161</v>
+      </c>
+      <c r="U105" s="3">
+        <v>164.3</v>
+      </c>
+      <c r="V105" s="3">
+        <v>5464</v>
+      </c>
+      <c r="W105" s="3">
+        <v>238.4</v>
+      </c>
+      <c r="X105" s="3">
+        <v>4417</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD105" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C106" s="4">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L106" s="3">
+        <v>60</v>
+      </c>
+      <c r="U106" s="3">
+        <v>56.5</v>
+      </c>
+      <c r="V106" s="3">
+        <v>5661</v>
+      </c>
+      <c r="W106" s="3">
+        <v>91.1</v>
+      </c>
+      <c r="X106" s="3">
+        <v>2920</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD106" s="4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C108" s="4">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>304</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="L108" s="3">
+        <v>115</v>
+      </c>
+      <c r="M108" s="1">
+        <v>161880</v>
+      </c>
+      <c r="O108">
+        <v>1992</v>
+      </c>
+      <c r="U108" s="3">
+        <v>114</v>
+      </c>
+      <c r="V108" s="3">
+        <v>6690</v>
+      </c>
+      <c r="W108" s="3">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="X108" s="3">
+        <v>5566</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD108" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C109" s="4">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L109" s="3">
+        <v>150</v>
+      </c>
+      <c r="M109" s="1">
+        <v>139573</v>
+      </c>
+      <c r="U109" s="3">
+        <v>149</v>
+      </c>
+      <c r="V109" s="3">
+        <v>5964</v>
+      </c>
+      <c r="W109" s="3">
+        <v>222.9</v>
+      </c>
+      <c r="X109" s="3">
+        <v>2712</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD109" s="4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="110" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C110" s="4">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="4">
+        <v>80</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J110">
+        <v>5</v>
+      </c>
+      <c r="L110" s="3">
+        <v>115</v>
+      </c>
+      <c r="U110" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="V110" s="3">
+        <v>5698</v>
+      </c>
+      <c r="W110" s="3">
+        <v>142.9</v>
+      </c>
+      <c r="X110" s="3">
+        <v>3869</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD110" s="4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="111" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C111" s="4">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L111" s="3">
+        <v>125</v>
+      </c>
+      <c r="N111" s="3">
+        <v>2009</v>
+      </c>
+      <c r="U111" s="3">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="V111" s="3">
+        <v>4367</v>
+      </c>
+      <c r="W111" s="3">
+        <v>342.6</v>
+      </c>
+      <c r="X111" s="3">
+        <v>2835</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD111" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C112" s="4">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G112" t="s">
+        <v>348</v>
+      </c>
+      <c r="L112" s="3">
+        <v>140</v>
+      </c>
+      <c r="M112" s="1">
+        <v>253556</v>
+      </c>
+      <c r="N112" s="3">
+        <v>1996</v>
+      </c>
+      <c r="U112" s="3">
+        <v>142.1</v>
+      </c>
+      <c r="V112" s="3">
+        <v>6309</v>
+      </c>
+      <c r="W112" s="3">
+        <v>178.4</v>
+      </c>
+      <c r="X112" s="3">
+        <v>4439</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD112" s="4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C113" s="4">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G113" t="s">
+        <v>382</v>
+      </c>
+      <c r="L113" s="3">
+        <v>150</v>
+      </c>
+      <c r="M113" s="1">
+        <v>78455</v>
+      </c>
+      <c r="N113" s="3">
+        <v>1975</v>
+      </c>
+      <c r="U113" s="3">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="V113" s="3">
+        <v>6237</v>
+      </c>
+      <c r="W113" s="3">
+        <v>203.5</v>
+      </c>
+      <c r="X113" s="3">
+        <v>4854</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD113" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C114" s="4">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G114" t="s">
+        <v>348</v>
+      </c>
+      <c r="L114" s="3">
+        <v>120</v>
+      </c>
+      <c r="M114" s="1">
+        <v>195000</v>
+      </c>
+      <c r="U114" s="3">
+        <v>122.5</v>
+      </c>
+      <c r="V114" s="3">
+        <v>6436</v>
+      </c>
+      <c r="W114" s="3">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="X114" s="3">
+        <v>3056</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD114" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C115" s="4">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G115" t="s">
+        <v>387</v>
+      </c>
+      <c r="L115" s="3">
+        <v>133</v>
+      </c>
+      <c r="M115" s="1">
+        <v>135609</v>
+      </c>
+      <c r="U115" s="3">
+        <v>135</v>
+      </c>
+      <c r="V115" s="3">
+        <v>6889</v>
+      </c>
+      <c r="W115" s="3">
+        <v>159.6</v>
+      </c>
+      <c r="X115" s="3">
+        <v>4454</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD115" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C116" s="4">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G116" t="s">
+        <v>389</v>
+      </c>
+      <c r="J116">
+        <v>8</v>
+      </c>
+      <c r="K116" t="s">
+        <v>32</v>
+      </c>
+      <c r="L116" s="3">
+        <v>286</v>
+      </c>
+      <c r="M116" s="1">
+        <v>195370</v>
+      </c>
+      <c r="N116" s="3">
+        <v>1998</v>
+      </c>
+      <c r="U116" s="3">
+        <v>297.3</v>
+      </c>
+      <c r="V116" s="3">
+        <v>5736</v>
+      </c>
+      <c r="W116" s="3">
+        <v>437.7</v>
+      </c>
+      <c r="X116" s="3">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="117" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C117" s="4">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>392</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G117" t="s">
+        <v>395</v>
+      </c>
+      <c r="J117">
+        <v>6</v>
+      </c>
+      <c r="L117" s="3">
+        <v>150</v>
+      </c>
+      <c r="M117" s="1">
+        <v>181786</v>
+      </c>
+      <c r="N117" s="3">
+        <v>1980</v>
+      </c>
+      <c r="U117" s="3">
+        <v>135</v>
+      </c>
+      <c r="V117" s="3">
+        <v>5997</v>
+      </c>
+      <c r="W117" s="3">
+        <v>179.9</v>
+      </c>
+      <c r="X117" s="3">
+        <v>2927</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD117" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C118" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G118" t="s">
+        <v>399</v>
+      </c>
+      <c r="L118" s="3">
+        <v>90</v>
+      </c>
+      <c r="M118" s="1">
+        <v>31700</v>
+      </c>
+      <c r="N118" s="3">
+        <v>1990</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>97.2</v>
+      </c>
+      <c r="R118" s="3">
+        <v>5787</v>
+      </c>
+      <c r="S118" s="3">
+        <v>138.5</v>
+      </c>
+      <c r="T118" s="3">
+        <v>3356</v>
+      </c>
+      <c r="U118" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="V118" s="3">
+        <v>5816</v>
+      </c>
+      <c r="W118" s="3">
+        <v>138.6</v>
+      </c>
+      <c r="X118" s="3">
+        <v>3307</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD118" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C119" s="4">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>236</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L119" s="3">
+        <v>45</v>
+      </c>
+      <c r="M119" s="1">
+        <v>183400</v>
+      </c>
+      <c r="N119" s="3">
+        <v>1993</v>
+      </c>
+      <c r="U119" s="3">
+        <v>48.8</v>
+      </c>
+      <c r="V119" s="3">
+        <v>5884</v>
+      </c>
+      <c r="W119" s="3">
+        <v>66</v>
+      </c>
+      <c r="X119" s="3">
+        <v>4232</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD119" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C120" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L120" s="3">
+        <v>143</v>
+      </c>
+      <c r="N120" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>131.9</v>
+      </c>
+      <c r="R120" s="3">
+        <v>6716</v>
+      </c>
+      <c r="S120" s="3">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="T120" s="3">
+        <v>6716</v>
+      </c>
+      <c r="U120" s="3">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="V120" s="3">
+        <v>6652</v>
+      </c>
+      <c r="W120" s="3">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="X120" s="3">
+        <v>6288</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD120" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F65912-9197-47A6-AEA4-74B5020DA1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043652C1-4D57-4F58-B684-9B22C4E4BDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="459">
   <si>
     <t>Episode</t>
   </si>
@@ -1237,13 +1237,166 @@
     <t>SI</t>
   </si>
   <si>
-    <t>13 Toyota</t>
-  </si>
-  <si>
     <t>Siegen</t>
   </si>
   <si>
     <t>Celica</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Nordfriesland</t>
+  </si>
+  <si>
+    <t>740GL</t>
+  </si>
+  <si>
+    <t>Käfer (Caprio)</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Pinneberg</t>
+  </si>
+  <si>
+    <t>Ami Version, Nockenwellen,Hubraumerweiterung</t>
+  </si>
+  <si>
+    <t>Honda CRX ED9 16Z5</t>
+  </si>
+  <si>
+    <t>Detra</t>
+  </si>
+  <si>
+    <t>WEL</t>
+  </si>
+  <si>
+    <t>Limburg-Weilburg</t>
+  </si>
+  <si>
+    <t>1602 (Cabrio)</t>
+  </si>
+  <si>
+    <t>HAM</t>
+  </si>
+  <si>
+    <t>Hamm</t>
+  </si>
+  <si>
+    <t>1.8i</t>
+  </si>
+  <si>
+    <t>Motor vom E30</t>
+  </si>
+  <si>
+    <t>DIL</t>
+  </si>
+  <si>
+    <t>Lahn-Dill-Kreis</t>
+  </si>
+  <si>
+    <t>UH</t>
+  </si>
+  <si>
+    <t>Unstrut-Hainich-Kreis</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>1.6t</t>
+  </si>
+  <si>
+    <t>Messung nicht möglich (ESP)</t>
+  </si>
+  <si>
+    <t>1.8t</t>
+  </si>
+  <si>
+    <t>Motor Skoda Fabia (1U)</t>
+  </si>
+  <si>
+    <t>Derby GT</t>
+  </si>
+  <si>
+    <t>HX</t>
+  </si>
+  <si>
+    <t>Höxter</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>Geilenkirchen</t>
+  </si>
+  <si>
+    <t>Golf II G60</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>NSU</t>
+  </si>
+  <si>
+    <t>TTS</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Mettmann</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Civic</t>
+  </si>
+  <si>
+    <t>1.4ERD</t>
+  </si>
+  <si>
+    <t>Dichtung entfernt somit 90PS Serie</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>Mainz-Bingen</t>
+  </si>
+  <si>
+    <t>Calibra</t>
+  </si>
+  <si>
+    <t>2.0 16V Ecotec</t>
+  </si>
+  <si>
+    <t>Dortmud</t>
+  </si>
+  <si>
+    <t>Peugeot</t>
+  </si>
+  <si>
+    <t>207 RC</t>
+  </si>
+  <si>
+    <t>Downpipe</t>
+  </si>
+  <si>
+    <t>Michas Auto</t>
   </si>
 </sst>
 </file>
@@ -2092,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE121"/>
+  <dimension ref="A1:AE138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7519,11 +7672,14 @@
       </c>
     </row>
     <row r="120" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C120" s="4" t="s">
-        <v>405</v>
+      <c r="C120" s="4">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>193</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>225</v>
@@ -7562,7 +7718,7 @@
         <v>404</v>
       </c>
       <c r="AA120" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AB120" t="s">
         <v>45</v>
@@ -7577,6 +7733,835 @@
     <row r="121" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C122" s="4">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>85</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J122">
+        <v>4</v>
+      </c>
+      <c r="L122" s="3">
+        <v>113</v>
+      </c>
+      <c r="M122" s="1">
+        <v>424795</v>
+      </c>
+      <c r="U122" s="3">
+        <v>107.1</v>
+      </c>
+      <c r="V122" s="3">
+        <v>5799</v>
+      </c>
+      <c r="W122" s="3">
+        <v>182</v>
+      </c>
+      <c r="X122" s="3">
+        <v>2651</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD122" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="123" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C123" s="4">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>47</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G123" t="s">
+        <v>414</v>
+      </c>
+      <c r="L123" s="3">
+        <v>50</v>
+      </c>
+      <c r="M123" s="1">
+        <v>34805</v>
+      </c>
+      <c r="N123" s="3">
+        <v>1976</v>
+      </c>
+      <c r="U123" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="V123" s="3">
+        <v>4413</v>
+      </c>
+      <c r="W123" s="3">
+        <v>122.3</v>
+      </c>
+      <c r="X123" s="3">
+        <v>2690</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD123" s="4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C124" s="4">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>65</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G124" t="s">
+        <v>415</v>
+      </c>
+      <c r="L124" s="3">
+        <v>124</v>
+      </c>
+      <c r="M124" s="1">
+        <v>32146</v>
+      </c>
+      <c r="N124" s="3">
+        <v>1989</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>125.4</v>
+      </c>
+      <c r="R124" s="3">
+        <v>7012</v>
+      </c>
+      <c r="S124" s="3">
+        <v>134.6</v>
+      </c>
+      <c r="T124" s="3">
+        <v>6084</v>
+      </c>
+      <c r="U124" s="3">
+        <v>124</v>
+      </c>
+      <c r="V124" s="3">
+        <v>7028</v>
+      </c>
+      <c r="W124" s="3">
+        <v>133.5</v>
+      </c>
+      <c r="X124" s="3">
+        <v>6136</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD124" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C125" s="4">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L125" s="3">
+        <v>101</v>
+      </c>
+      <c r="U125" s="3">
+        <v>95.4</v>
+      </c>
+      <c r="V125" s="3">
+        <v>6222</v>
+      </c>
+      <c r="W125" s="3">
+        <v>135.5</v>
+      </c>
+      <c r="X125" s="3">
+        <v>2637</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD125" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C126" s="4">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L126" s="3">
+        <v>150</v>
+      </c>
+      <c r="N126" s="3">
+        <v>1969</v>
+      </c>
+      <c r="U126" s="3">
+        <v>144.5</v>
+      </c>
+      <c r="V126" s="3">
+        <v>6129</v>
+      </c>
+      <c r="W126" s="3">
+        <v>185.6</v>
+      </c>
+      <c r="X126" s="3">
+        <v>4432</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD126" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C127" s="4">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1502</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G127" t="s">
+        <v>423</v>
+      </c>
+      <c r="L127" s="3">
+        <v>115</v>
+      </c>
+      <c r="M127" s="1">
+        <v>89820</v>
+      </c>
+      <c r="U127" s="3">
+        <v>124.6</v>
+      </c>
+      <c r="V127" s="3">
+        <v>6424</v>
+      </c>
+      <c r="W127" s="3">
+        <v>151.9</v>
+      </c>
+      <c r="X127" s="3">
+        <v>4820</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD127" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C128" s="4">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L128" s="3">
+        <v>192</v>
+      </c>
+      <c r="Q128" s="3">
+        <v>182.5</v>
+      </c>
+      <c r="R128" s="3">
+        <v>6399</v>
+      </c>
+      <c r="S128" s="3">
+        <v>222.6</v>
+      </c>
+      <c r="T128" s="3">
+        <v>4766</v>
+      </c>
+      <c r="U128" s="3">
+        <v>134.1</v>
+      </c>
+      <c r="V128" s="3">
+        <v>6421</v>
+      </c>
+      <c r="W128" s="3">
+        <v>196.8</v>
+      </c>
+      <c r="X128" s="3">
+        <v>3455</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD128" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C129" s="4">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>117</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G129" t="s">
+        <v>430</v>
+      </c>
+      <c r="L129" s="3">
+        <v>122</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD129" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="130" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C130" s="4">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>47</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G130" t="s">
+        <v>432</v>
+      </c>
+      <c r="L130" s="3">
+        <v>200</v>
+      </c>
+      <c r="U130" s="3">
+        <v>197.7</v>
+      </c>
+      <c r="V130" s="3">
+        <v>5671</v>
+      </c>
+      <c r="W130" s="3">
+        <v>273.7</v>
+      </c>
+      <c r="X130" s="3">
+        <v>5033</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD130" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C131" s="4">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>47</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L131" s="3">
+        <v>75</v>
+      </c>
+      <c r="N131" s="3">
+        <v>1990</v>
+      </c>
+      <c r="U131" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="V131" s="3">
+        <v>3850</v>
+      </c>
+      <c r="W131" s="3">
+        <v>145</v>
+      </c>
+      <c r="X131" s="3">
+        <v>3340</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD131" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C132" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>47</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="L132" s="3">
+        <v>160</v>
+      </c>
+      <c r="M132" s="1">
+        <v>191000</v>
+      </c>
+      <c r="U132" s="3">
+        <v>161.6</v>
+      </c>
+      <c r="V132" s="3">
+        <v>5894</v>
+      </c>
+      <c r="W132" s="3">
+        <v>215.6</v>
+      </c>
+      <c r="X132" s="3">
+        <v>4082</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD132" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C133" s="4">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L133" s="3">
+        <v>150</v>
+      </c>
+      <c r="U133" s="3">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="V133" s="3">
+        <v>6397</v>
+      </c>
+      <c r="W133" s="3">
+        <v>180.9</v>
+      </c>
+      <c r="X133" s="3">
+        <v>5006</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD133" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C134" s="4">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>441</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="L134" s="3">
+        <v>75</v>
+      </c>
+      <c r="M134" s="1">
+        <v>27760</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>83.2</v>
+      </c>
+      <c r="R134" s="3">
+        <v>6745</v>
+      </c>
+      <c r="S134" s="3">
+        <v>97.4</v>
+      </c>
+      <c r="T134" s="3">
+        <v>5389</v>
+      </c>
+      <c r="U134" s="3">
+        <v>88.5</v>
+      </c>
+      <c r="V134" s="3">
+        <v>6758</v>
+      </c>
+      <c r="W134" s="3">
+        <v>101</v>
+      </c>
+      <c r="X134" s="3">
+        <v>5483</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD134" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C135" s="4">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>446</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G135" t="s">
+        <v>449</v>
+      </c>
+      <c r="L135" s="3">
+        <v>75</v>
+      </c>
+      <c r="U135" s="3">
+        <v>98.1</v>
+      </c>
+      <c r="V135" s="3">
+        <v>6635</v>
+      </c>
+      <c r="W135" s="3">
+        <v>122.3</v>
+      </c>
+      <c r="X135" s="3">
+        <v>4976</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD135" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C136" s="4">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L136" s="3">
+        <v>136</v>
+      </c>
+      <c r="U136" s="3">
+        <v>132.6</v>
+      </c>
+      <c r="V136" s="3">
+        <v>5876</v>
+      </c>
+      <c r="W136" s="3">
+        <v>180.2</v>
+      </c>
+      <c r="X136" s="3">
+        <v>4757</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD136" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C137" s="4">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>455</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G137" t="s">
+        <v>457</v>
+      </c>
+      <c r="L137" s="3">
+        <v>174</v>
+      </c>
+      <c r="M137" s="1">
+        <v>129364</v>
+      </c>
+      <c r="N137" s="3">
+        <v>2008</v>
+      </c>
+      <c r="U137" s="3">
+        <v>198.2</v>
+      </c>
+      <c r="V137" s="3">
+        <v>5768</v>
+      </c>
+      <c r="W137" s="3">
+        <v>285.2</v>
+      </c>
+      <c r="X137" s="3">
+        <v>4096</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA137" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C138" s="4">
+        <v>17</v>
+      </c>
+      <c r="D138" t="s">
+        <v>58</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G138" t="s">
+        <v>458</v>
+      </c>
+      <c r="J138">
+        <v>5</v>
+      </c>
+      <c r="L138" s="3">
+        <v>136</v>
+      </c>
+      <c r="M138" s="1">
+        <v>222676</v>
+      </c>
+      <c r="U138" s="3">
+        <v>101</v>
+      </c>
+      <c r="V138" s="3">
+        <v>5461</v>
+      </c>
+      <c r="W138" s="3">
+        <v>160.9</v>
+      </c>
+      <c r="X138" s="3">
+        <v>2964</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC138" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD138" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6938F038-C601-46EA-B4C5-214078F351FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCAA3D0-1259-4ACD-BCDB-D5AA9E36E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="511">
   <si>
     <t>Episode</t>
   </si>
@@ -133,12 +133,6 @@
     <t>Opel</t>
   </si>
   <si>
-    <t>Vectra B</t>
-  </si>
-  <si>
-    <t>2.2 (Z22SE)</t>
-  </si>
-  <si>
     <t>Caravan Sport</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Escort MK-III</t>
   </si>
   <si>
-    <t>1.6 Vergaser</t>
-  </si>
-  <si>
     <t>SO</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>T4</t>
   </si>
   <si>
-    <t>2.5D</t>
-  </si>
-  <si>
     <t>Diesel</t>
   </si>
   <si>
@@ -181,12 +169,6 @@
     <t>Recklinghausen</t>
   </si>
   <si>
-    <t>E30</t>
-  </si>
-  <si>
-    <t>318is</t>
-  </si>
-  <si>
     <t>Mehrventiler 16v</t>
   </si>
   <si>
@@ -202,15 +184,9 @@
     <t>80 (B3)</t>
   </si>
   <si>
-    <t>1.8S Vergaser</t>
-  </si>
-  <si>
     <t>Golf</t>
   </si>
   <si>
-    <t>GTI 16V</t>
-  </si>
-  <si>
     <t>GLA</t>
   </si>
   <si>
@@ -223,9 +199,6 @@
     <t>Cooper</t>
   </si>
   <si>
-    <t>1.6 Sauger</t>
-  </si>
-  <si>
     <t>FB</t>
   </si>
   <si>
@@ -253,9 +226,6 @@
     <t>Golf IV</t>
   </si>
   <si>
-    <t>1.8 Turbo</t>
-  </si>
-  <si>
     <t>K03 1BAR</t>
   </si>
   <si>
@@ -265,9 +235,6 @@
     <t>Gummersbach</t>
   </si>
   <si>
-    <t>528i</t>
-  </si>
-  <si>
     <t>VB</t>
   </si>
   <si>
@@ -544,12 +511,6 @@
     <t>AT</t>
   </si>
   <si>
-    <t>E36</t>
-  </si>
-  <si>
-    <t>325 TDS</t>
-  </si>
-  <si>
     <t>1.5 BAR Ladedruck</t>
   </si>
   <si>
@@ -574,9 +535,6 @@
     <t>Aalen</t>
   </si>
   <si>
-    <t>E34</t>
-  </si>
-  <si>
     <t>M50</t>
   </si>
   <si>
@@ -607,12 +565,6 @@
     <t>16V, Fächerkrümmer, Auspuffanlage</t>
   </si>
   <si>
-    <t>E46</t>
-  </si>
-  <si>
-    <t>328i</t>
-  </si>
-  <si>
     <t>Kaufpreis 2.700, Software, Nockenwelle vom 330, Ansaugbrücken</t>
   </si>
   <si>
@@ -721,12 +673,6 @@
     <t>Unna</t>
   </si>
   <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>3.5CSI</t>
-  </si>
-  <si>
     <t>Renault</t>
   </si>
   <si>
@@ -751,12 +697,6 @@
     <t>Tecklenburg</t>
   </si>
   <si>
-    <t>S60</t>
-  </si>
-  <si>
-    <t>2.4 Turbo</t>
-  </si>
-  <si>
     <t>Rechtslenker (Kaufpreis 2.500€)</t>
   </si>
   <si>
@@ -769,18 +709,12 @@
     <t>Niederösterreich</t>
   </si>
   <si>
-    <t>525TDS</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
     <t>Aachen</t>
   </si>
   <si>
-    <t>Golf I</t>
-  </si>
-  <si>
     <t>1.2 Bar</t>
   </si>
   <si>
@@ -847,12 +781,6 @@
     <t>Viechtach</t>
   </si>
   <si>
-    <t>320D</t>
-  </si>
-  <si>
-    <t>523i</t>
-  </si>
-  <si>
     <t>AW</t>
   </si>
   <si>
@@ -862,9 +790,6 @@
     <t>Kaufpreis 800€</t>
   </si>
   <si>
-    <t>323i</t>
-  </si>
-  <si>
     <t>8V (Kaufpreis 1.200€  bei 65.000km vor 6 1/2 Jahren)</t>
   </si>
   <si>
@@ -1033,9 +958,6 @@
     <t>Passat</t>
   </si>
   <si>
-    <t>2.4 V6</t>
-  </si>
-  <si>
     <t>HM</t>
   </si>
   <si>
@@ -1051,9 +973,6 @@
     <t>Alpina Software</t>
   </si>
   <si>
-    <t>525i</t>
-  </si>
-  <si>
     <t>A4 (Coupe)</t>
   </si>
   <si>
@@ -1075,9 +994,6 @@
     <t>Oldenburg</t>
   </si>
   <si>
-    <t>320i</t>
-  </si>
-  <si>
     <t>WF</t>
   </si>
   <si>
@@ -1090,12 +1006,6 @@
     <t>Braunschweig</t>
   </si>
   <si>
-    <t>Z3 Coupe</t>
-  </si>
-  <si>
-    <t>3.0i</t>
-  </si>
-  <si>
     <t>Ascona (A)</t>
   </si>
   <si>
@@ -1153,9 +1063,6 @@
     <t>1.7</t>
   </si>
   <si>
-    <t>E36 (Coupe)</t>
-  </si>
-  <si>
     <t>MTK</t>
   </si>
   <si>
@@ -1198,12 +1105,6 @@
     <t>BWM</t>
   </si>
   <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
     <t>Drehzahlbegrenzer regelt bei 6000 u/min ab .. / Bosch bzw. BEGU (Serie) bei 6.600</t>
   </si>
   <si>
@@ -1402,9 +1303,6 @@
     <t>Heppenheim</t>
   </si>
   <si>
-    <t>190E</t>
-  </si>
-  <si>
     <t>CUX</t>
   </si>
   <si>
@@ -1414,12 +1312,6 @@
     <t>Golf III GT</t>
   </si>
   <si>
-    <t>323ti</t>
-  </si>
-  <si>
-    <t>E36 Compact</t>
-  </si>
-  <si>
     <t>FRI</t>
   </si>
   <si>
@@ -1432,12 +1324,6 @@
     <t>Wuppertal</t>
   </si>
   <si>
-    <t>Golv IV</t>
-  </si>
-  <si>
-    <t>1.9TDI</t>
-  </si>
-  <si>
     <t>2 Steuergeräte zum Testen</t>
   </si>
   <si>
@@ -1474,7 +1360,199 @@
     <t>Lippstadt</t>
   </si>
   <si>
-    <t>2.0VTEC</t>
+    <t>HSK</t>
+  </si>
+  <si>
+    <t>Hochsauerlandkreis</t>
+  </si>
+  <si>
+    <t>Corolla (E11)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>Käfer (1200)</t>
+  </si>
+  <si>
+    <t>Aufgebort, stehender Doppelvergaser</t>
+  </si>
+  <si>
+    <t>Maverick</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Heidekreis</t>
+  </si>
+  <si>
+    <t>Hiedersachsen</t>
+  </si>
+  <si>
+    <t>E36 323i</t>
+  </si>
+  <si>
+    <t>E39 525i</t>
+  </si>
+  <si>
+    <t>E12 525</t>
+  </si>
+  <si>
+    <t>E36 318is (Coupe)</t>
+  </si>
+  <si>
+    <t>Z3 i Coupe</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>E36 320i</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>E39 523i</t>
+  </si>
+  <si>
+    <t>E46 320d</t>
+  </si>
+  <si>
+    <t>E34 520i</t>
+  </si>
+  <si>
+    <t>Golf I Turbo</t>
+  </si>
+  <si>
+    <t>E39 525tds</t>
+  </si>
+  <si>
+    <t>S60 Turbo</t>
+  </si>
+  <si>
+    <t>E9 3.5csi</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>E46 328i</t>
+  </si>
+  <si>
+    <t>E34 525</t>
+  </si>
+  <si>
+    <t>E36 325tds</t>
+  </si>
+  <si>
+    <t>E39 528</t>
+  </si>
+  <si>
+    <t>E39 528i</t>
+  </si>
+  <si>
+    <t>Golf IV Turbo</t>
+  </si>
+  <si>
+    <t>E30 318is</t>
+  </si>
+  <si>
+    <t>E39 520i</t>
+  </si>
+  <si>
+    <t>E36 323ti (Compact) Compact</t>
+  </si>
+  <si>
+    <t>190 190e</t>
+  </si>
+  <si>
+    <t>2 GTI 16V</t>
+  </si>
+  <si>
+    <t>80 S (B3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vectra B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Z22SE)</t>
+  </si>
+  <si>
+    <t>Civic VTEC</t>
+  </si>
+  <si>
+    <t>Golf IV TDI</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>Bad Homburg</t>
+  </si>
+  <si>
+    <t>Vokswagen</t>
+  </si>
+  <si>
+    <t>Lupo 1.4 16V</t>
+  </si>
+  <si>
+    <t>Fächerkrümmer, Nockenwelle</t>
+  </si>
+  <si>
+    <t>Exeo ST D</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Gießen</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Münster</t>
+  </si>
+  <si>
+    <t>Focus tdci</t>
+  </si>
+  <si>
+    <t>R107 SL560 (Cabrio)</t>
+  </si>
+  <si>
+    <t>US Import</t>
+  </si>
+  <si>
+    <t>90 (B3) Coupe 20V</t>
+  </si>
+  <si>
+    <t>GT86</t>
+  </si>
+  <si>
+    <t>Boxer</t>
+  </si>
+  <si>
+    <t>Nockenwelle, Auspuffanlage</t>
+  </si>
+  <si>
+    <t>KEH</t>
+  </si>
+  <si>
+    <t>Kelheim</t>
+  </si>
+  <si>
+    <t>T4 TD</t>
   </si>
 </sst>
 </file>
@@ -2323,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE149"/>
+  <dimension ref="A1:AE163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
+      <selection activeCell="W163" sqref="W163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,13 +2543,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="4">
-        <v>190</v>
+        <v>106</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>460</v>
+        <v>342</v>
       </c>
       <c r="L5" s="3">
         <v>122</v>
@@ -2492,16 +2570,16 @@
         <v>2573</v>
       </c>
       <c r="Z5" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="AA5" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="AB5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD5" s="4">
         <v>280</v>
@@ -2512,13 +2590,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L6" s="3">
         <v>90</v>
@@ -2536,16 +2614,16 @@
         <v>2612</v>
       </c>
       <c r="Z6" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="AA6" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="AB6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD6" s="4">
         <v>320</v>
@@ -2559,10 +2637,10 @@
         <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>464</v>
+        <v>211</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -2591,16 +2669,16 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L8" s="3">
         <v>69</v>
@@ -2621,16 +2699,16 @@
         <v>3703</v>
       </c>
       <c r="Z8" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="AA8" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="AB8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD8" s="4">
         <v>280</v>
@@ -2641,13 +2719,13 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L9" s="3">
         <v>125</v>
@@ -2680,16 +2758,16 @@
         <v>4871</v>
       </c>
       <c r="Z9" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="AA9" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="AB9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD9" s="4">
         <v>50</v>
@@ -2700,19 +2778,19 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>471</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L10" s="3">
         <v>131</v>
@@ -2753,10 +2831,10 @@
         <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="L11" s="3">
         <v>144</v>
@@ -2777,16 +2855,16 @@
         <v>4451</v>
       </c>
       <c r="Z11" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="AA11" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="AB11" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="AC11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD11" s="4">
         <v>240</v>
@@ -2797,19 +2875,19 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L12" s="3">
         <v>231</v>
@@ -2833,16 +2911,16 @@
         <v>3668</v>
       </c>
       <c r="Z12" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="AA12" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="AB12" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="AC12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD12" s="4">
         <v>45</v>
@@ -2853,13 +2931,13 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L13" s="3">
         <v>112</v>
@@ -2880,16 +2958,16 @@
         <v>3270</v>
       </c>
       <c r="Z13" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="AA13" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="AB13" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD13" s="4">
         <v>320</v>
@@ -2900,13 +2978,13 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>484</v>
+        <v>147</v>
       </c>
       <c r="M14" s="1">
         <v>102890</v>
@@ -2924,16 +3002,16 @@
         <v>6592</v>
       </c>
       <c r="Z14" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="AA14" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="AB14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD14" s="4">
         <v>75</v>
@@ -2952,10 +3030,10 @@
         <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>482</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>31</v>
@@ -3005,16 +3083,19 @@
         <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>37</v>
+        <v>487</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>205</v>
+      </c>
+      <c r="G17" t="s">
+        <v>488</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L17" s="3">
         <v>170</v>
@@ -3040,13 +3121,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>31</v>
@@ -3070,16 +3151,16 @@
         <v>3177</v>
       </c>
       <c r="Z18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD18" s="4">
         <v>47</v>
@@ -3090,16 +3171,16 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L19" s="3">
         <v>88</v>
@@ -3120,16 +3201,16 @@
         <v>2470</v>
       </c>
       <c r="Z19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AA19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AB19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD19" s="4">
         <v>36</v>
@@ -3143,13 +3224,13 @@
         <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>53</v>
+        <v>481</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>31</v>
@@ -3174,16 +3255,16 @@
         <v>4820</v>
       </c>
       <c r="Z20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AA20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AB20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD20" s="4">
         <v>85</v>
@@ -3194,13 +3275,13 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>59</v>
+        <v>486</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="L21" s="3">
         <v>88</v>
@@ -3223,13 +3304,10 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="U22" s="3">
         <v>134.4</v>
@@ -3244,16 +3322,16 @@
         <v>5494</v>
       </c>
       <c r="Z22" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AB22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD22" s="4">
         <v>49</v>
@@ -3269,13 +3347,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="L24" s="3">
         <v>116</v>
@@ -3299,16 +3377,16 @@
         <v>4619</v>
       </c>
       <c r="Z24" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AC24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD24" s="4">
         <v>250</v>
@@ -3319,16 +3397,16 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L25" s="3">
         <v>60</v>
@@ -3358,16 +3436,16 @@
         <v>3597</v>
       </c>
       <c r="Z25" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AA25" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AC25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD25" s="4">
         <v>490</v>
@@ -3378,16 +3456,16 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>76</v>
+        <v>480</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L26" s="3">
         <v>200</v>
@@ -3405,16 +3483,16 @@
         <v>3383</v>
       </c>
       <c r="Z26" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AA26" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD26" s="4">
         <v>77</v>
@@ -3428,10 +3506,10 @@
         <v>28</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>29</v>
+        <v>479</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="J27">
         <v>6</v>
@@ -3455,16 +3533,16 @@
         <v>399</v>
       </c>
       <c r="Z27" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="AA27" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AB27" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD27" s="4">
         <v>250</v>
@@ -3475,13 +3553,13 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L28" s="3">
         <v>239</v>
@@ -3502,16 +3580,16 @@
         <v>4717</v>
       </c>
       <c r="Z28" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD28" s="4">
         <v>85</v>
@@ -3522,16 +3600,16 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L29" s="3">
         <v>252</v>
@@ -3561,16 +3639,16 @@
         <v>3828</v>
       </c>
       <c r="Z29" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD29" s="4">
         <v>100</v>
@@ -3581,16 +3659,16 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L30" s="3">
         <v>165</v>
@@ -3611,16 +3689,16 @@
         <v>3056</v>
       </c>
       <c r="Z30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AA30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="AB30" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AC30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD30" s="4">
         <v>550</v>
@@ -3636,16 +3714,16 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L32" s="3">
         <v>101</v>
@@ -3678,16 +3756,16 @@
         <v>3382</v>
       </c>
       <c r="Z32" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AA32" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AB32" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AC32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD32" s="4">
         <v>520</v>
@@ -3698,16 +3776,16 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="L33" s="3">
         <v>75</v>
@@ -3736,16 +3814,16 @@
         <v>28</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="2">
-        <v>528</v>
+        <v>478</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L34" s="3">
         <v>193</v>
@@ -3766,16 +3844,16 @@
         <v>4807</v>
       </c>
       <c r="Z34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AA34" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD34" s="4">
         <v>120</v>
@@ -3786,13 +3864,13 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L35" s="3">
         <v>50</v>
@@ -3813,16 +3891,16 @@
         <v>3438</v>
       </c>
       <c r="Z35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD35" s="4">
         <v>47</v>
@@ -3838,13 +3916,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L37" s="3">
         <v>101</v>
@@ -3865,16 +3943,16 @@
         <v>4580</v>
       </c>
       <c r="Z37" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA37" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AB37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD37" s="4">
         <v>0</v>
@@ -3885,19 +3963,19 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J38">
         <v>5</v>
@@ -3924,16 +4002,16 @@
         <v>4213</v>
       </c>
       <c r="Z38" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA38" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AB38" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD38" s="4">
         <v>150</v>
@@ -3944,16 +4022,16 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L39" s="3">
         <v>90</v>
@@ -3974,16 +4052,16 @@
         <v>2517</v>
       </c>
       <c r="Z39" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA39" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AB39" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD39" s="4">
         <v>150</v>
@@ -3994,16 +4072,16 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E40" s="4">
         <v>156</v>
       </c>
       <c r="G40" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I40" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L40" s="3">
         <v>150</v>
@@ -4021,16 +4099,16 @@
         <v>3712</v>
       </c>
       <c r="Z40" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AA40" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AB40" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AC40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD40" s="4">
         <v>474</v>
@@ -4041,16 +4119,16 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K41" t="s">
         <v>32</v>
@@ -4074,16 +4152,16 @@
         <v>1793</v>
       </c>
       <c r="Z41" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="AA41" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AB41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD41" s="4">
         <v>90</v>
@@ -4094,16 +4172,16 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="L42" s="3">
         <v>174</v>
@@ -4136,16 +4214,16 @@
         <v>3163</v>
       </c>
       <c r="Z42" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="AA42" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="AB42" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AC42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD42" s="4">
         <v>165</v>
@@ -4156,13 +4234,13 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="K43" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L43" s="3">
         <v>306</v>
@@ -4180,16 +4258,16 @@
         <v>3968</v>
       </c>
       <c r="Z43" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="AA43" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AB43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD43" s="4">
         <v>55</v>
@@ -4200,16 +4278,16 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G44" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L44" s="3">
         <v>50</v>
@@ -4230,16 +4308,16 @@
         <v>2870</v>
       </c>
       <c r="Z44" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AA44" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AB44" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AC44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD44" s="4">
         <v>484</v>
@@ -4250,16 +4328,16 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G45" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L45" s="3">
         <v>120</v>
@@ -4277,16 +4355,16 @@
         <v>2615</v>
       </c>
       <c r="Z45" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AA45" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AB45" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AC45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD45" s="4">
         <v>484</v>
@@ -4297,16 +4375,16 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G46" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J46">
         <v>5</v>
@@ -4333,16 +4411,16 @@
         <v>3322</v>
       </c>
       <c r="Z46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AB46" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AC46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD46" s="4">
         <v>250</v>
@@ -4353,16 +4431,16 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J47">
         <v>5</v>
@@ -4389,16 +4467,16 @@
         <v>3342</v>
       </c>
       <c r="Z47" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="AA47" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AB47" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AC47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD47" s="4">
         <v>500</v>
@@ -4414,16 +4492,16 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L49" s="3">
         <v>115</v>
@@ -4459,16 +4537,16 @@
         <v>2754</v>
       </c>
       <c r="Z49" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="AA49" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AB49" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD49" s="4">
         <v>300</v>
@@ -4479,13 +4557,13 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L50" s="3">
         <v>113</v>
@@ -4506,16 +4584,16 @@
         <v>3665</v>
       </c>
       <c r="Z50" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AA50" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="AB50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD50" s="4">
         <v>60</v>
@@ -4529,13 +4607,13 @@
         <v>36</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="L51" s="3">
         <v>403</v>
@@ -4565,16 +4643,16 @@
         <v>4886</v>
       </c>
       <c r="Z51" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AA51" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AB51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD51" s="4">
         <v>45</v>
@@ -4585,19 +4663,19 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
       <c r="K52" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L52" s="3">
         <v>115</v>
@@ -4618,16 +4696,16 @@
         <v>2620</v>
       </c>
       <c r="Z52" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AA52" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="AB52" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AC52" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AD52" s="4">
         <v>1250</v>
@@ -4641,16 +4719,16 @@
         <v>28</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>174</v>
+        <v>477</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="G53" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L53" s="3">
         <v>143</v>
@@ -4668,7 +4746,7 @@
         <v>2608</v>
       </c>
       <c r="Z53" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.25">
@@ -4676,13 +4754,13 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -4706,13 +4784,13 @@
         <v>2918</v>
       </c>
       <c r="AA54" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AB54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD54" s="4">
         <v>0</v>
@@ -4723,10 +4801,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J55">
         <v>6</v>
@@ -4750,16 +4828,16 @@
         <v>3519</v>
       </c>
       <c r="Z55" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="AA55" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AB55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD55" s="4">
         <v>90</v>
@@ -4770,13 +4848,13 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J56">
         <v>6</v>
@@ -4800,16 +4878,16 @@
         <v>4676</v>
       </c>
       <c r="Z56" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AA56" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AB56" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AC56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD56" s="4">
         <v>470</v>
@@ -4823,13 +4901,13 @@
         <v>28</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F57" s="2">
-        <v>525</v>
+        <v>476</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="G57" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L57" s="3">
         <v>192</v>
@@ -4847,16 +4925,16 @@
         <v>4869</v>
       </c>
       <c r="Z57" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="AA57" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AB57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD57" s="4">
         <v>75</v>
@@ -4870,13 +4948,13 @@
         <v>28</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I58" t="s">
         <v>174</v>
-      </c>
-      <c r="F58" s="2">
-        <v>320</v>
-      </c>
-      <c r="I58" t="s">
-        <v>188</v>
       </c>
       <c r="M58" s="1">
         <v>224629</v>
@@ -4894,16 +4972,16 @@
         <v>4801</v>
       </c>
       <c r="Z58" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="AA58" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AB58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD58" s="4">
         <v>75</v>
@@ -4914,10 +4992,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L59" s="3">
         <v>122</v>
@@ -4950,16 +5028,16 @@
         <v>2800</v>
       </c>
       <c r="Z59" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="AA59" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AB59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD59" s="4">
         <v>75</v>
@@ -4973,13 +5051,13 @@
         <v>36</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="L60" s="3">
         <v>403</v>
@@ -5009,16 +5087,16 @@
         <v>4964</v>
       </c>
       <c r="Z60" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AA60" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AB60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD60" s="4">
         <v>45</v>
@@ -5034,13 +5112,13 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G62" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L62" s="3">
         <v>140</v>
@@ -5058,16 +5136,16 @@
         <v>4252</v>
       </c>
       <c r="Z62" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AB62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD62" s="4">
         <v>100</v>
@@ -5078,10 +5156,10 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="L63" s="3">
         <v>140</v>
@@ -5111,16 +5189,16 @@
         <v>4239</v>
       </c>
       <c r="Z63" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AA63" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC63" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD63" s="4">
         <v>77</v>
@@ -5134,13 +5212,13 @@
         <v>28</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>195</v>
+        <v>475</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G64" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="L64" s="3">
         <v>193</v>
@@ -5161,16 +5239,16 @@
         <v>3481</v>
       </c>
       <c r="Z64" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="AA64" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="AB64" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AC64" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD64" s="4">
         <v>250</v>
@@ -5181,16 +5259,16 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G65" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="M65" s="1">
         <v>112011</v>
@@ -5220,16 +5298,16 @@
         <v>3744</v>
       </c>
       <c r="Z65" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="AA65" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AB65" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AC65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD65" s="4">
         <v>320</v>
@@ -5240,10 +5318,10 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J66">
         <v>6</v>
@@ -5264,16 +5342,16 @@
         <v>3593</v>
       </c>
       <c r="Z66" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="AA66" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="AB66" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC66" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD66" s="4">
         <v>220</v>
@@ -5284,10 +5362,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="L67" s="3">
         <v>75</v>
@@ -5308,16 +5386,16 @@
         <v>2645</v>
       </c>
       <c r="Z67" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="AA67" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="AB67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC67" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD67" s="4">
         <v>45</v>
@@ -5331,10 +5409,10 @@
         <v>36</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="L68" s="3">
         <v>192</v>
@@ -5355,16 +5433,16 @@
         <v>3874</v>
       </c>
       <c r="Z68" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="AA68" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="AB68" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD68" s="4">
         <v>250</v>
@@ -5375,13 +5453,13 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G69" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="L69" s="3">
         <v>231</v>
@@ -5427,10 +5505,10 @@
         <v>36</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="L71" s="3">
         <v>65</v>
@@ -5454,16 +5532,16 @@
         <v>4180</v>
       </c>
       <c r="Z71" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="AA71" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="AB71" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="AC71" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD71" s="4">
         <v>320</v>
@@ -5474,13 +5552,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="J72">
         <v>5</v>
@@ -5504,16 +5582,16 @@
         <v>3305</v>
       </c>
       <c r="Z72" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AA72" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="AB72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC72" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD72" s="4">
         <v>75</v>
@@ -5527,10 +5605,10 @@
         <v>28</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>233</v>
+        <v>473</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>234</v>
+        <v>474</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -5557,16 +5635,16 @@
         <v>3679</v>
       </c>
       <c r="Z73" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="AA73" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AB73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC73" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD73" s="4">
         <v>20</v>
@@ -5577,13 +5655,13 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="L74" s="3">
         <v>95</v>
@@ -5619,16 +5697,16 @@
         <v>3933</v>
       </c>
       <c r="Z74" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="AA74" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="AB74" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AC74" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD74" s="4">
         <v>550</v>
@@ -5639,16 +5717,16 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G75" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="L75" s="3">
         <v>174</v>
@@ -5674,16 +5752,16 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>243</v>
+        <v>472</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="G76" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="J76">
         <v>5</v>
@@ -5710,16 +5788,16 @@
         <v>3316</v>
       </c>
       <c r="Z76" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="AA76" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="AB76" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC76" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD76" s="4">
         <v>105</v>
@@ -5733,13 +5811,13 @@
         <v>28</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>29</v>
+        <v>471</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J77">
         <v>6</v>
@@ -5775,16 +5853,16 @@
         <v>2642</v>
       </c>
       <c r="Z77" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="AA77" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="AB77" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="AC77" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AD77" s="4">
         <v>950</v>
@@ -5800,16 +5878,16 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>252</v>
+        <v>470</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="G79" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="L79" s="3">
         <v>160</v>
@@ -5839,16 +5917,16 @@
         <v>4373</v>
       </c>
       <c r="Z79" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="AA79" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="AB79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC79" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD79" s="4">
         <v>160</v>
@@ -5859,16 +5937,16 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="G80" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="L80" s="3">
         <v>211</v>
@@ -5889,16 +5967,16 @@
         <v>3139</v>
       </c>
       <c r="Z80" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="AA80" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="AB80" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC80" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD80" s="4">
         <v>37</v>
@@ -5909,13 +5987,13 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L81" s="3">
         <v>69</v>
@@ -5936,16 +6014,16 @@
         <v>2626</v>
       </c>
       <c r="Z81" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="AA81" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="AB81" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="AC81" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD81" s="4">
         <v>270</v>
@@ -5959,13 +6037,13 @@
         <v>36</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="L82" s="3">
         <v>110</v>
@@ -5983,16 +6061,16 @@
         <v>3949</v>
       </c>
       <c r="Z82" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="AA82" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="AB82" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="AC82" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD82" s="4">
         <v>630</v>
@@ -6003,16 +6081,16 @@
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G83" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="L83" s="3">
         <v>140</v>
@@ -6033,16 +6111,16 @@
         <v>3185</v>
       </c>
       <c r="Z83" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="AA83" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="AB83" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC83" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD83" s="4">
         <v>220</v>
@@ -6053,13 +6131,13 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="L84" s="3">
         <v>150</v>
@@ -6080,16 +6158,16 @@
         <v>4875</v>
       </c>
       <c r="Z84" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="AA84" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="AB84" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD84" s="4">
         <v>220</v>
@@ -6103,10 +6181,10 @@
         <v>28</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>184</v>
+        <v>469</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="L85" s="3">
         <v>150</v>
@@ -6136,16 +6214,16 @@
         <v>4402</v>
       </c>
       <c r="Z85" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AA85" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="AB85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC85" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD85" s="4">
         <v>60</v>
@@ -6159,10 +6237,10 @@
         <v>36</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="L86" s="3">
         <v>204</v>
@@ -6183,16 +6261,16 @@
         <v>4923</v>
       </c>
       <c r="Z86" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="AA86" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="AB86" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC86" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD86" s="4">
         <v>220</v>
@@ -6206,10 +6284,10 @@
         <v>28</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>195</v>
+        <v>468</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="L87" s="3">
         <v>150</v>
@@ -6233,16 +6311,16 @@
         <v>2445</v>
       </c>
       <c r="Z87" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="AA87" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="AB87" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="AC87" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD87" s="4">
         <v>600</v>
@@ -6256,13 +6334,13 @@
         <v>28</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>29</v>
+        <v>467</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="K88" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L88" s="3">
         <v>170</v>
@@ -6283,16 +6361,16 @@
         <v>1879</v>
       </c>
       <c r="Z88" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AA88" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="AB88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC88" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD88" s="4">
         <v>60</v>
@@ -6306,16 +6384,16 @@
         <v>28</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>174</v>
+        <v>458</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="G89" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="K89" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L89" s="3">
         <v>170</v>
@@ -6348,16 +6426,16 @@
         <v>4616</v>
       </c>
       <c r="Z89" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="AA89" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="AB89" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AC89" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD89" s="4">
         <v>150</v>
@@ -6368,16 +6446,16 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G90" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="L90" s="3">
         <v>90</v>
@@ -6398,16 +6476,16 @@
         <v>2516</v>
       </c>
       <c r="Z90" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="AA90" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AB90" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC90" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD90" s="4">
         <v>20</v>
@@ -6423,16 +6501,16 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="K92" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L92" s="3">
         <v>150</v>
@@ -6465,16 +6543,16 @@
         <v>3224</v>
       </c>
       <c r="Z92" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="AA92" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="AB92" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC92" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD92" s="4">
         <v>125</v>
@@ -6485,19 +6563,19 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K93" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L93" s="3">
         <v>140</v>
@@ -6518,16 +6596,16 @@
         <v>3233</v>
       </c>
       <c r="Z93" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="AA93" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="AB93" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC93" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD93" s="4">
         <v>170</v>
@@ -6538,16 +6616,16 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="G94" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="L94" s="3">
         <v>210</v>
@@ -6568,16 +6646,16 @@
         <v>5636</v>
       </c>
       <c r="Z94" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="AA94" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="AB94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC94" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD94" s="4">
         <v>105</v>
@@ -6591,7 +6669,7 @@
         <v>36</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="L95" s="3">
         <v>150</v>
@@ -6612,16 +6690,16 @@
         <v>4965</v>
       </c>
       <c r="Z95" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="AA95" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="AB95" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="AC95" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD95" s="4">
         <v>220</v>
@@ -6632,10 +6710,10 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L96" s="3">
         <v>82</v>
@@ -6656,16 +6734,16 @@
         <v>2311</v>
       </c>
       <c r="Z96" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="AA96" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="AB96" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="AC96" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD96" s="4">
         <v>220</v>
@@ -6676,10 +6754,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="L97" s="3">
         <v>90</v>
@@ -6700,16 +6778,16 @@
         <v>3161</v>
       </c>
       <c r="Z97" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="AA97" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="AB97" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="AC97" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD97" s="4">
         <v>570</v>
@@ -6720,13 +6798,13 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L98" s="3">
         <v>80</v>
@@ -6750,16 +6828,16 @@
         <v>4117</v>
       </c>
       <c r="Z98" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AA98" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AB98" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC98" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD98" s="4">
         <v>100</v>
@@ -6770,13 +6848,13 @@
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L99" s="3">
         <v>90</v>
@@ -6797,16 +6875,16 @@
         <v>3056</v>
       </c>
       <c r="Z99" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="AA99" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="AB99" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="AC99" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD99" s="4">
         <v>320</v>
@@ -6817,13 +6895,13 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="L100" s="3">
         <v>160</v>
@@ -6847,16 +6925,16 @@
         <v>2488</v>
       </c>
       <c r="Z100" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA100" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB100" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AC100" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD100" s="4">
         <v>370</v>
@@ -6867,13 +6945,13 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L101" s="3">
         <v>75</v>
@@ -6897,16 +6975,16 @@
         <v>4503</v>
       </c>
       <c r="Z101" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="AA101" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AB101" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AC101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD101" s="4">
         <v>320</v>
@@ -6920,25 +6998,25 @@
         <v>36</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="G102" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="L102" s="3">
         <v>115</v>
       </c>
       <c r="Z102" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="AA102" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="AB102" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AC102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD102" s="4">
         <v>350</v>
@@ -6952,13 +7030,13 @@
         <v>36</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="L103" s="3">
         <v>60</v>
@@ -6967,16 +7045,16 @@
         <v>93000</v>
       </c>
       <c r="Z103" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="AA103" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="AB103" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AC103" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD103" s="4">
         <v>350</v>
@@ -6989,14 +7067,17 @@
       <c r="D104" t="s">
         <v>28</v>
       </c>
+      <c r="E104" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>324</v>
+        <v>466</v>
       </c>
       <c r="G104" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="K104" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L104" s="3">
         <v>286</v>
@@ -7020,16 +7101,16 @@
         <v>3851</v>
       </c>
       <c r="Z104" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AA104" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AB104" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AC104" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD104" s="4">
         <v>490</v>
@@ -7040,13 +7121,13 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="L105" s="3">
         <v>69</v>
@@ -7067,16 +7148,16 @@
         <v>4216</v>
       </c>
       <c r="Z105" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="AA105" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="AB105" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AC105" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD105" s="4">
         <v>320</v>
@@ -7087,13 +7168,13 @@
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K106" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L106" s="3">
         <v>225</v>
@@ -7114,16 +7195,16 @@
         <v>5675</v>
       </c>
       <c r="Z106" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="AA106" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="AB106" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC106" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD106" s="4">
         <v>85</v>
@@ -7134,13 +7215,13 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="G107" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="L107" s="3">
         <v>170</v>
@@ -7161,16 +7242,16 @@
         <v>3409</v>
       </c>
       <c r="Z107" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="AA107" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="AB107" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="AC107" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD107" s="4">
         <v>450</v>
@@ -7186,13 +7267,16 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
+      </c>
+      <c r="G109" t="s">
+        <v>465</v>
       </c>
       <c r="L109" s="3">
         <v>193</v>
@@ -7216,16 +7300,16 @@
         <v>3317</v>
       </c>
       <c r="Z109" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="AA109" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="AB109" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC109" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD109" s="4">
         <v>180</v>
@@ -7239,16 +7323,16 @@
         <v>28</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>29</v>
+        <v>459</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>343</v>
+        <v>211</v>
       </c>
       <c r="G110" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="K110" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L110" s="3">
         <v>192</v>
@@ -7272,16 +7356,16 @@
         <v>5031</v>
       </c>
       <c r="Z110" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="AA110" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="AB110" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="AC110" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD110" s="4">
         <v>320</v>
@@ -7292,10 +7376,10 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="J111">
         <v>5</v>
@@ -7319,16 +7403,16 @@
         <v>4273</v>
       </c>
       <c r="Z111" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="AA111" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AB111" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC111" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD111" s="4">
         <v>90</v>
@@ -7339,16 +7423,16 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G112" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="L112" s="3">
         <v>115</v>
@@ -7369,16 +7453,16 @@
         <v>4485</v>
       </c>
       <c r="Z112" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="AA112" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="AB112" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AC112" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD112" s="4">
         <v>160</v>
@@ -7392,10 +7476,10 @@
         <v>28</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>174</v>
+        <v>464</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="L113" s="3">
         <v>150</v>
@@ -7425,16 +7509,16 @@
         <v>4759</v>
       </c>
       <c r="Z113" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="AA113" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="AB113" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC113" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD113" s="4">
         <v>240</v>
@@ -7448,13 +7532,13 @@
         <v>36</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K114" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L114" s="3">
         <v>75</v>
@@ -7478,16 +7562,16 @@
         <v>4161</v>
       </c>
       <c r="Z114" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="AA114" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="AB114" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC114" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD114" s="4">
         <v>280</v>
@@ -7501,10 +7585,10 @@
         <v>28</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="L115" s="3">
         <v>231</v>
@@ -7525,16 +7609,16 @@
         <v>3230</v>
       </c>
       <c r="Z115" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="AA115" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="AB115" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AC115" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD115" s="4">
         <v>280</v>
@@ -7548,10 +7632,10 @@
         <v>36</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="L116" s="3">
         <v>161</v>
@@ -7569,16 +7653,16 @@
         <v>4417</v>
       </c>
       <c r="Z116" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="AA116" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="AB116" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC116" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD116" s="4">
         <v>100</v>
@@ -7589,13 +7673,13 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="L117" s="3">
         <v>60</v>
@@ -7613,16 +7697,16 @@
         <v>2920</v>
       </c>
       <c r="Z117" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="AA117" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="AB117" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AC117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD117" s="4">
         <v>251</v>
@@ -7638,10 +7722,10 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="L119" s="3">
         <v>115</v>
@@ -7665,16 +7749,16 @@
         <v>5566</v>
       </c>
       <c r="Z119" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="AA119" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="AB119" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AC119" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD119" s="4">
         <v>350</v>
@@ -7685,13 +7769,13 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="L120" s="3">
         <v>150</v>
@@ -7712,16 +7796,16 @@
         <v>2712</v>
       </c>
       <c r="Z120" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AA120" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AB120" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AC120" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD120" s="4">
         <v>490</v>
@@ -7732,13 +7816,13 @@
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E121" s="4">
         <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="J121">
         <v>5</v>
@@ -7759,16 +7843,16 @@
         <v>3869</v>
       </c>
       <c r="Z121" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="AA121" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AB121" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="AC121" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD121" s="4">
         <v>430</v>
@@ -7782,13 +7866,13 @@
         <v>36</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L122" s="3">
         <v>125</v>
@@ -7809,16 +7893,16 @@
         <v>2835</v>
       </c>
       <c r="Z122" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="AA122" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="AB122" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AC122" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD122" s="4">
         <v>320</v>
@@ -7832,13 +7916,13 @@
         <v>28</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>377</v>
+        <v>461</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="G123" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="L123" s="3">
         <v>140</v>
@@ -7862,16 +7946,16 @@
         <v>4439</v>
       </c>
       <c r="Z123" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AA123" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AB123" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AC123" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD123" s="4">
         <v>490</v>
@@ -7885,10 +7969,10 @@
         <v>36</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="G124" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="L124" s="3">
         <v>150</v>
@@ -7912,16 +7996,16 @@
         <v>4854</v>
       </c>
       <c r="Z124" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="AA124" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="AB124" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AC124" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD124" s="4">
         <v>230</v>
@@ -7932,13 +8016,13 @@
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="G125" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="L125" s="3">
         <v>120</v>
@@ -7959,16 +8043,16 @@
         <v>3056</v>
       </c>
       <c r="Z125" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="AA125" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="AB125" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AC125" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD125" s="4">
         <v>150</v>
@@ -7979,13 +8063,13 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="G126" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="L126" s="3">
         <v>133</v>
@@ -8006,16 +8090,16 @@
         <v>4454</v>
       </c>
       <c r="Z126" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="AA126" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="AB126" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AC126" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD126" s="4">
         <v>230</v>
@@ -8029,10 +8113,10 @@
         <v>28</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="G127" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="J127">
         <v>8</v>
@@ -8067,16 +8151,16 @@
         <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>392</v>
+        <v>211</v>
       </c>
       <c r="G128" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="J128">
         <v>6</v>
@@ -8103,16 +8187,16 @@
         <v>2927</v>
       </c>
       <c r="Z128" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="AA128" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="AB128" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AC128" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD128" s="4">
         <v>180</v>
@@ -8123,16 +8207,16 @@
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G129" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="L129" s="3">
         <v>90</v>
@@ -8168,16 +8252,16 @@
         <v>3307</v>
       </c>
       <c r="Z129" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="AA129" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="AB129" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC129" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD129" s="4">
         <v>180</v>
@@ -8188,13 +8272,13 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="L130" s="3">
         <v>45</v>
@@ -8218,16 +8302,16 @@
         <v>4232</v>
       </c>
       <c r="Z130" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="AA130" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="AB130" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="AC130" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD130" s="4">
         <v>320</v>
@@ -8238,13 +8322,13 @@
         <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L131" s="3">
         <v>143</v>
@@ -8277,16 +8361,16 @@
         <v>6288</v>
       </c>
       <c r="Z131" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="AA131" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="AB131" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC131" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD131" s="4">
         <v>110</v>
@@ -8302,13 +8386,13 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J133">
         <v>4</v>
@@ -8332,16 +8416,16 @@
         <v>2651</v>
       </c>
       <c r="Z133" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="AA133" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="AB133" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AC133" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD133" s="4">
         <v>480</v>
@@ -8352,16 +8436,16 @@
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G134" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="L134" s="3">
         <v>50</v>
@@ -8385,16 +8469,16 @@
         <v>2690</v>
       </c>
       <c r="Z134" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="AA134" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="AB134" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AC134" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD134" s="4">
         <v>370</v>
@@ -8405,13 +8489,13 @@
         <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G135" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="L135" s="3">
         <v>124</v>
@@ -8447,16 +8531,16 @@
         <v>6136</v>
       </c>
       <c r="Z135" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="AA135" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="AB135" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AC135" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD135" s="4">
         <v>150</v>
@@ -8467,13 +8551,13 @@
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L136" s="3">
         <v>101</v>
@@ -8491,16 +8575,16 @@
         <v>2637</v>
       </c>
       <c r="Z136" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="AA136" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="AB136" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AC136" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD136" s="4">
         <v>180</v>
@@ -8514,10 +8598,10 @@
         <v>28</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L137" s="3">
         <v>150</v>
@@ -8538,16 +8622,16 @@
         <v>4432</v>
       </c>
       <c r="Z137" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AA137" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AB137" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC137" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD137" s="4">
         <v>49</v>
@@ -8564,10 +8648,10 @@
         <v>1502</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="G138" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="L138" s="3">
         <v>115</v>
@@ -8588,16 +8672,16 @@
         <v>4820</v>
       </c>
       <c r="Z138" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="AA138" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="AB138" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC138" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD138" s="4">
         <v>40</v>
@@ -8611,10 +8695,10 @@
         <v>28</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>29</v>
+        <v>459</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>343</v>
+        <v>211</v>
       </c>
       <c r="L139" s="3">
         <v>192</v>
@@ -8644,16 +8728,16 @@
         <v>3455</v>
       </c>
       <c r="Z139" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="AA139" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="AB139" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AC139" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD139" s="4">
         <v>180</v>
@@ -8664,31 +8748,31 @@
         <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="G140" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="L140" s="3">
         <v>122</v>
       </c>
       <c r="Z140" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="AA140" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="AB140" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="AC140" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD140" s="4">
         <v>260</v>
@@ -8699,16 +8783,16 @@
         <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="G141" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="L141" s="3">
         <v>200</v>
@@ -8726,16 +8810,16 @@
         <v>5033</v>
       </c>
       <c r="Z141" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA141" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB141" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AC141" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD141" s="4">
         <v>360</v>
@@ -8746,13 +8830,13 @@
         <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L142" s="3">
         <v>75</v>
@@ -8773,16 +8857,16 @@
         <v>3340</v>
       </c>
       <c r="Z142" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="AA142" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="AB142" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD142" s="4">
         <v>170</v>
@@ -8793,10 +8877,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="L143" s="3">
         <v>160</v>
@@ -8817,16 +8901,16 @@
         <v>4082</v>
       </c>
       <c r="Z143" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="AA143" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="AB143" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC143" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD143" s="4">
         <v>140</v>
@@ -8861,30 +8945,30 @@
         <v>5006</v>
       </c>
       <c r="Z144" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="AA144" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="AB144" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="AC144" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD144" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="145" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C145" s="4">
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="L145" s="3">
         <v>75</v>
@@ -8917,36 +9001,36 @@
         <v>5483</v>
       </c>
       <c r="Z145" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AA145" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AB145" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC145" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD145" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C146" s="4">
         <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="G146" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="L146" s="3">
         <v>75</v>
@@ -8964,22 +9048,22 @@
         <v>4976</v>
       </c>
       <c r="Z146" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="AA146" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="AB146" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="AC146" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD146" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="147" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C147" s="4">
         <v>15</v>
       </c>
@@ -8987,10 +9071,10 @@
         <v>36</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="L147" s="3">
         <v>136</v>
@@ -9008,36 +9092,36 @@
         <v>4757</v>
       </c>
       <c r="Z147" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="AA147" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="AB147" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AC147" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD147" s="4">
         <v>270</v>
       </c>
     </row>
-    <row r="148" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C148" s="4">
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="G148" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="L148" s="3">
         <v>174</v>
@@ -9061,33 +9145,33 @@
         <v>4096</v>
       </c>
       <c r="Z148" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA148" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="AB148" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC148" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD148" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C149" s="4">
         <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="G149" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="J149">
         <v>5</v>
@@ -9111,19 +9195,659 @@
         <v>2964</v>
       </c>
       <c r="Z149" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA149" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AB149" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC149" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD149" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C151" s="4">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>178</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L151" s="3">
+        <v>110</v>
+      </c>
+      <c r="M151" s="1">
+        <v>225000</v>
+      </c>
+      <c r="U151" s="3">
+        <v>107.7</v>
+      </c>
+      <c r="V151" s="3">
+        <v>6177</v>
+      </c>
+      <c r="W151" s="3">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="X151" s="3">
+        <v>4639</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>447</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD151" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C152" s="4">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G152" t="s">
+        <v>452</v>
+      </c>
+      <c r="L152" s="3">
+        <v>60</v>
+      </c>
+      <c r="N152" s="3">
+        <v>1970</v>
+      </c>
+      <c r="U152" s="3">
+        <v>60.5</v>
+      </c>
+      <c r="V152" s="3">
+        <v>4449</v>
+      </c>
+      <c r="W152" s="3">
+        <v>110.5</v>
+      </c>
+      <c r="X152" s="3">
+        <v>3045</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD152" s="4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="153" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C153" s="4">
+        <v>3</v>
+      </c>
+      <c r="D153" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G153" t="s">
+        <v>454</v>
+      </c>
+      <c r="L153" s="3">
+        <v>124</v>
+      </c>
+      <c r="M153" s="1">
+        <v>190000</v>
+      </c>
+      <c r="U153" s="3">
+        <v>125.6</v>
+      </c>
+      <c r="V153" s="3">
+        <v>5153</v>
+      </c>
+      <c r="W153" s="3">
+        <v>202.7</v>
+      </c>
+      <c r="X153" s="3">
+        <v>3464</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD153" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C154" s="4">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L154" s="3">
+        <v>170</v>
+      </c>
+      <c r="Q154" s="3">
+        <v>175.1</v>
+      </c>
+      <c r="R154" s="3">
+        <v>5630</v>
+      </c>
+      <c r="S154" s="3">
+        <v>239.6</v>
+      </c>
+      <c r="T154" s="3">
+        <v>4562</v>
+      </c>
+      <c r="U154" s="3">
+        <v>177.1</v>
+      </c>
+      <c r="V154" s="3">
+        <v>5471</v>
+      </c>
+      <c r="W154" s="3">
+        <v>243.3</v>
+      </c>
+      <c r="X154" s="3">
+        <v>4596</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD154" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C155" s="4">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>493</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G155" t="s">
+        <v>495</v>
+      </c>
+      <c r="L155" s="3">
+        <v>101</v>
+      </c>
+      <c r="M155" s="1">
+        <v>211427</v>
+      </c>
+      <c r="N155" s="3">
+        <v>1999</v>
+      </c>
+      <c r="U155" s="3">
+        <v>95.6</v>
+      </c>
+      <c r="V155" s="3">
+        <v>5829</v>
+      </c>
+      <c r="W155" s="3">
+        <v>124.6</v>
+      </c>
+      <c r="X155" s="3">
+        <v>4466</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD155" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="156" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C156" s="4">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>89</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L156" s="3">
+        <v>143</v>
+      </c>
+      <c r="M156" s="1">
+        <v>162910</v>
+      </c>
+      <c r="U156" s="3">
+        <v>150.1</v>
+      </c>
+      <c r="V156" s="3">
+        <v>4178</v>
+      </c>
+      <c r="W156" s="3">
+        <v>348.6</v>
+      </c>
+      <c r="X156" s="3">
+        <v>2142</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD156" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C157" s="4">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J157">
+        <v>6</v>
+      </c>
+      <c r="L157" s="3">
+        <v>150</v>
+      </c>
+      <c r="M157" s="1">
+        <v>141785</v>
+      </c>
+      <c r="U157" s="3">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="V157" s="3">
+        <v>6417</v>
+      </c>
+      <c r="W157" s="3">
+        <v>185</v>
+      </c>
+      <c r="X157" s="3">
+        <v>3887</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD157" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C158" s="4">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>38</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L158" s="3">
+        <v>150</v>
+      </c>
+      <c r="U158" s="3">
+        <v>215.3</v>
+      </c>
+      <c r="V158" s="3">
+        <v>3708</v>
+      </c>
+      <c r="W158" s="3">
+        <v>450.8</v>
+      </c>
+      <c r="X158" s="3">
+        <v>2120</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD158" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C159" s="4">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>106</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G159" t="s">
+        <v>503</v>
+      </c>
+      <c r="K159" t="s">
+        <v>76</v>
+      </c>
+      <c r="L159" s="3">
+        <v>230</v>
+      </c>
+      <c r="M159" s="1">
+        <v>111023</v>
+      </c>
+      <c r="U159" s="3">
+        <v>218.4</v>
+      </c>
+      <c r="V159" s="3">
+        <v>5862</v>
+      </c>
+      <c r="W159" s="3">
+        <v>304.39999999999998</v>
+      </c>
+      <c r="X159" s="3">
+        <v>4091</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD159" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="160" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C160" s="4">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>52</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J160">
+        <v>5</v>
+      </c>
+      <c r="L160" s="3">
+        <v>170</v>
+      </c>
+      <c r="M160" s="1">
+        <v>46133</v>
+      </c>
+      <c r="U160" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="V160" s="3">
+        <v>6187</v>
+      </c>
+      <c r="W160" s="3">
+        <v>205.3</v>
+      </c>
+      <c r="X160" s="3">
+        <v>4712</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD160" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C161" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>178</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G161" t="s">
+        <v>506</v>
+      </c>
+      <c r="L161" s="3">
+        <v>200</v>
+      </c>
+      <c r="M161" s="1">
+        <v>79220</v>
+      </c>
+      <c r="Q161" s="3">
+        <v>187.5</v>
+      </c>
+      <c r="R161" s="3">
+        <v>7191</v>
+      </c>
+      <c r="S161" s="3">
+        <v>197.4</v>
+      </c>
+      <c r="T161" s="3">
+        <v>5031</v>
+      </c>
+      <c r="U161" s="3">
+        <v>194</v>
+      </c>
+      <c r="V161" s="3">
+        <v>7513</v>
+      </c>
+      <c r="W161" s="3">
+        <v>196</v>
+      </c>
+      <c r="X161" s="3">
+        <v>6484</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD161" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C162" s="4">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G162" t="s">
+        <v>507</v>
+      </c>
+      <c r="L162" s="3">
+        <v>193</v>
+      </c>
+      <c r="M162" s="1">
+        <v>275342</v>
+      </c>
+      <c r="N162" s="3">
+        <v>1999</v>
+      </c>
+      <c r="U162" s="3">
+        <v>217.4</v>
+      </c>
+      <c r="V162" s="3">
+        <v>6862</v>
+      </c>
+      <c r="W162" s="3">
+        <v>262.2</v>
+      </c>
+      <c r="X162" s="3">
+        <v>3693</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD162" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C163" s="4">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>44</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J163">
+        <v>5</v>
+      </c>
+      <c r="L163" s="3">
+        <v>102</v>
+      </c>
+      <c r="M163" s="1">
+        <v>395432</v>
+      </c>
+      <c r="U163" s="3">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="V163" s="3">
+        <v>4132</v>
+      </c>
+      <c r="W163" s="3">
+        <v>312.3</v>
+      </c>
+      <c r="X163" s="3">
+        <v>2967</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD163" s="4">
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCAA3D0-1259-4ACD-BCDB-D5AA9E36E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB9CEFB-ED0B-4B5E-B832-8FA6ECE1194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="555">
   <si>
     <t>Episode</t>
   </si>
@@ -1553,6 +1553,138 @@
   </si>
   <si>
     <t>T4 TD</t>
+  </si>
+  <si>
+    <t>BÜR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Büren </t>
+  </si>
+  <si>
+    <t>C123 230SE</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>306 (Cabrio)</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Bamberg</t>
+  </si>
+  <si>
+    <t>Omega (B)</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>Brake</t>
+  </si>
+  <si>
+    <t>(Cabrio)</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kassel</t>
+  </si>
+  <si>
+    <t>T4 (Caravelle)</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Ahaus</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Primera STW</t>
+  </si>
+  <si>
+    <t>Fächerkrümmer, Ansaugung</t>
+  </si>
+  <si>
+    <t>Käfer</t>
+  </si>
+  <si>
+    <t>Udo Becker Motor</t>
+  </si>
+  <si>
+    <t>Golf II GTI</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>Coupe Turbo 20V</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Pirmasens</t>
+  </si>
+  <si>
+    <t>Rekord ( C ) 1900 Coupe</t>
+  </si>
+  <si>
+    <t>2.0E Motor</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Landsberg Lech</t>
+  </si>
+  <si>
+    <t>Astra (F) Cabrio</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>Seelow</t>
+  </si>
+  <si>
+    <t>Viper SRT</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Remscheid</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>964 (C2) Cabrio</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bergheim</t>
+  </si>
+  <si>
+    <t>E34 540i Touring</t>
   </si>
 </sst>
 </file>
@@ -2401,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE163"/>
+  <dimension ref="A1:AE191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
-      <selection activeCell="W163" sqref="W163"/>
+    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9697,7 +9829,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="161" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C161" s="4">
         <v>11</v>
       </c>
@@ -9750,7 +9882,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="162" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C162" s="4">
         <v>12</v>
       </c>
@@ -9800,7 +9932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C163" s="4">
         <v>13</v>
       </c>
@@ -9848,6 +9980,815 @@
       </c>
       <c r="AD163" s="4">
         <v>550</v>
+      </c>
+    </row>
+    <row r="164" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C165" s="4">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>106</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L165" s="3">
+        <v>136</v>
+      </c>
+      <c r="M165" s="1">
+        <v>202677</v>
+      </c>
+      <c r="N165" s="3">
+        <v>1981</v>
+      </c>
+      <c r="U165" s="3">
+        <v>121.5</v>
+      </c>
+      <c r="V165" s="3">
+        <v>5644</v>
+      </c>
+      <c r="W165" s="3">
+        <v>172.2</v>
+      </c>
+      <c r="X165" s="3">
+        <v>3870</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD165" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="166" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C166" s="4">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>421</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="L166" s="3">
+        <v>110</v>
+      </c>
+      <c r="M166" s="1">
+        <v>203227</v>
+      </c>
+      <c r="N166" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U166" s="3">
+        <v>118.9</v>
+      </c>
+      <c r="V166" s="3">
+        <v>5613</v>
+      </c>
+      <c r="W166" s="3">
+        <v>166.5</v>
+      </c>
+      <c r="X166" s="3">
+        <v>3564</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>515</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD166" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="167" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C167" s="4">
+        <v>3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>57</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L167" s="3">
+        <v>63</v>
+      </c>
+      <c r="N167" s="3">
+        <v>1992</v>
+      </c>
+      <c r="U167" s="3">
+        <v>58.4</v>
+      </c>
+      <c r="V167" s="3">
+        <v>5085</v>
+      </c>
+      <c r="W167" s="3">
+        <v>90.1</v>
+      </c>
+      <c r="X167" s="3">
+        <v>3378</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD167" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="168" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C168" s="4">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L168" s="3">
+        <v>170</v>
+      </c>
+      <c r="M168" s="1">
+        <v>102379</v>
+      </c>
+      <c r="U168" s="3">
+        <v>175.3</v>
+      </c>
+      <c r="V168" s="3">
+        <v>6258</v>
+      </c>
+      <c r="W168" s="3">
+        <v>227.2</v>
+      </c>
+      <c r="X168" s="3">
+        <v>3560</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD168" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C169" s="4">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>52</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J169">
+        <v>5</v>
+      </c>
+      <c r="L169" s="3">
+        <v>133</v>
+      </c>
+      <c r="M169" s="1">
+        <v>165259</v>
+      </c>
+      <c r="N169" s="3">
+        <v>1992</v>
+      </c>
+      <c r="U169" s="3">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="V169" s="3">
+        <v>5682</v>
+      </c>
+      <c r="W169" s="3">
+        <v>180.9</v>
+      </c>
+      <c r="X169" s="3">
+        <v>3918</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD169" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C170" s="4">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>44</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G170" t="s">
+        <v>465</v>
+      </c>
+      <c r="J170">
+        <v>6</v>
+      </c>
+      <c r="K170" t="s">
+        <v>76</v>
+      </c>
+      <c r="L170" s="3">
+        <v>204</v>
+      </c>
+      <c r="M170" s="1">
+        <v>143867</v>
+      </c>
+      <c r="Q170" s="3">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="R170" s="3">
+        <v>5871</v>
+      </c>
+      <c r="S170" s="3">
+        <v>228</v>
+      </c>
+      <c r="T170" s="3">
+        <v>3531</v>
+      </c>
+      <c r="U170" s="3">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="V170" s="3">
+        <v>6892</v>
+      </c>
+      <c r="W170" s="3">
+        <v>233</v>
+      </c>
+      <c r="X170" s="3">
+        <v>3662</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD170" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C171" s="4">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>528</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G171" t="s">
+        <v>530</v>
+      </c>
+      <c r="L171" s="3">
+        <v>180</v>
+      </c>
+      <c r="M171" s="1">
+        <v>167098</v>
+      </c>
+      <c r="N171" s="3">
+        <v>1998</v>
+      </c>
+      <c r="Q171" s="3">
+        <v>146.9</v>
+      </c>
+      <c r="R171" s="3">
+        <v>6470</v>
+      </c>
+      <c r="S171" s="3">
+        <v>169.6</v>
+      </c>
+      <c r="T171" s="3">
+        <v>5320</v>
+      </c>
+      <c r="U171" s="3">
+        <v>146.5</v>
+      </c>
+      <c r="V171" s="3">
+        <v>6576</v>
+      </c>
+      <c r="W171" s="3">
+        <v>167.3</v>
+      </c>
+      <c r="X171" s="3">
+        <v>5246</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD171" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="172" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C172" s="4">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G172" t="s">
+        <v>532</v>
+      </c>
+      <c r="M172" s="1">
+        <v>49878</v>
+      </c>
+      <c r="U172" s="3">
+        <v>106.9</v>
+      </c>
+      <c r="V172" s="3">
+        <v>5845</v>
+      </c>
+      <c r="W172" s="3">
+        <v>142.6</v>
+      </c>
+      <c r="X172" s="3">
+        <v>4809</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C173" s="4">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>44</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="L173" s="3">
+        <v>112</v>
+      </c>
+      <c r="M173" s="1">
+        <v>195095</v>
+      </c>
+      <c r="N173" s="3">
+        <v>1986</v>
+      </c>
+      <c r="U173" s="3">
+        <v>102.1</v>
+      </c>
+      <c r="V173" s="3">
+        <v>5600</v>
+      </c>
+      <c r="W173" s="3">
+        <v>152.9</v>
+      </c>
+      <c r="X173" s="3">
+        <v>3262</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C174" s="4">
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>534</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J174">
+        <v>5</v>
+      </c>
+      <c r="L174" s="3">
+        <v>220</v>
+      </c>
+      <c r="U174" s="3">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="V174" s="3">
+        <v>5976</v>
+      </c>
+      <c r="W174" s="3">
+        <v>344.2</v>
+      </c>
+      <c r="X174" s="3">
+        <v>3592</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD174" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C175" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>36</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G175" t="s">
+        <v>539</v>
+      </c>
+      <c r="L175" s="3">
+        <v>110</v>
+      </c>
+      <c r="M175" s="1">
+        <v>95991</v>
+      </c>
+      <c r="N175" s="3">
+        <v>1968</v>
+      </c>
+      <c r="U175" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="V175" s="3">
+        <v>4831</v>
+      </c>
+      <c r="W175" s="3">
+        <v>153.9</v>
+      </c>
+      <c r="X175" s="3">
+        <v>2962</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD175" s="4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="176" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C176" s="4">
+        <v>12</v>
+      </c>
+      <c r="D176" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L176" s="3">
+        <v>115</v>
+      </c>
+      <c r="U176" s="3">
+        <v>118.6</v>
+      </c>
+      <c r="V176" s="3">
+        <v>5516</v>
+      </c>
+      <c r="W176" s="3">
+        <v>170</v>
+      </c>
+      <c r="X176" s="3">
+        <v>4691</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD176" s="4">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="177" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C177" s="4">
+        <v>13</v>
+      </c>
+      <c r="D177" t="s">
+        <v>543</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J177">
+        <v>10</v>
+      </c>
+      <c r="L177" s="3">
+        <v>400</v>
+      </c>
+      <c r="U177" s="3">
+        <v>393.3</v>
+      </c>
+      <c r="V177" s="3">
+        <v>5870</v>
+      </c>
+      <c r="W177" s="3">
+        <v>534.70000000000005</v>
+      </c>
+      <c r="X177" s="3">
+        <v>4648</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD177" s="4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="178" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C178" s="4">
+        <v>14</v>
+      </c>
+      <c r="D178" t="s">
+        <v>534</v>
+      </c>
+      <c r="E178" s="4">
+        <v>130</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J178">
+        <v>6</v>
+      </c>
+      <c r="L178" s="3">
+        <v>165</v>
+      </c>
+      <c r="M178" s="1">
+        <v>47138</v>
+      </c>
+      <c r="N178" s="3">
+        <v>1971</v>
+      </c>
+      <c r="U178" s="3">
+        <v>157.9</v>
+      </c>
+      <c r="V178" s="3">
+        <v>5981</v>
+      </c>
+      <c r="W178" s="3">
+        <v>228.3</v>
+      </c>
+      <c r="X178" s="3">
+        <v>3493</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD178" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C179" s="4">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>197</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="L179" s="3">
+        <v>250</v>
+      </c>
+      <c r="M179" s="1">
+        <v>191769</v>
+      </c>
+      <c r="U179" s="3">
+        <v>237.5</v>
+      </c>
+      <c r="V179" s="3">
+        <v>6201</v>
+      </c>
+      <c r="W179" s="3">
+        <v>294.2</v>
+      </c>
+      <c r="X179" s="3">
+        <v>5051</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD179" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C180" s="4">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="J180">
+        <v>8</v>
+      </c>
+      <c r="L180" s="3">
+        <v>286</v>
+      </c>
+      <c r="M180" s="1">
+        <v>224154</v>
+      </c>
+      <c r="U180" s="3">
+        <v>273.2</v>
+      </c>
+      <c r="V180" s="3">
+        <v>6181</v>
+      </c>
+      <c r="W180" s="3">
+        <v>370.5</v>
+      </c>
+      <c r="X180" s="3">
+        <v>4272</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD180" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C182" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C183" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C184" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C185" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C186" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C187" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C188" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C189" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C190" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C191" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB9CEFB-ED0B-4B5E-B832-8FA6ECE1194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D29E6-A880-4070-A3A0-ED939D033EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="585">
   <si>
     <t>Episode</t>
   </si>
@@ -1685,6 +1685,96 @@
   </si>
   <si>
     <t>E34 540i Touring</t>
+  </si>
+  <si>
+    <t>Alfasud</t>
+  </si>
+  <si>
+    <t>Alfetta</t>
+  </si>
+  <si>
+    <t>Sierra Cosworth Turbo</t>
+  </si>
+  <si>
+    <t>HOL</t>
+  </si>
+  <si>
+    <t>Holzminden</t>
+  </si>
+  <si>
+    <t>Vento</t>
+  </si>
+  <si>
+    <t>Golf III (Cabrio)</t>
+  </si>
+  <si>
+    <t>TDO</t>
+  </si>
+  <si>
+    <t>Torgau</t>
+  </si>
+  <si>
+    <t>Fächerkrümmer, GTI Steuergerät</t>
+  </si>
+  <si>
+    <t>Golf 1 Cariolet</t>
+  </si>
+  <si>
+    <t>Xedos 6</t>
+  </si>
+  <si>
+    <t>Sierra 2.9i Ghia</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Bielefeld</t>
+  </si>
+  <si>
+    <t>XE Motor 16V</t>
+  </si>
+  <si>
+    <t>Kadett ( E )</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Moers</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>Cabrio</t>
+  </si>
+  <si>
+    <t>Chiptuning</t>
+  </si>
+  <si>
+    <t>Passat (Carat)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Frankfurt / Main</t>
+  </si>
+  <si>
+    <t>E46 330 Cabrio</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>CRX</t>
+  </si>
+  <si>
+    <t>Facherkrümmer</t>
   </si>
 </sst>
 </file>
@@ -2533,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE191"/>
+  <dimension ref="A1:AE206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="B169" workbookViewId="0">
+      <selection activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,9 +2635,10 @@
     <col min="5" max="5" width="11.42578125" style="4"/>
     <col min="6" max="6" width="11.42578125" style="2"/>
     <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="1.85546875" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="3" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
@@ -2604,7 +2695,7 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K3" t="s">
@@ -2774,7 +2865,7 @@
       <c r="F7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>6</v>
       </c>
       <c r="L7" s="3">
@@ -3015,7 +3106,7 @@
       <c r="F12" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>8</v>
       </c>
       <c r="K12" t="s">
@@ -3170,7 +3261,7 @@
       <c r="H16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>6</v>
       </c>
       <c r="K16" t="s">
@@ -3643,7 +3734,7 @@
       <c r="F27" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>6</v>
       </c>
       <c r="L27" s="3">
@@ -3737,7 +3828,7 @@
       <c r="E29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>5</v>
       </c>
       <c r="K29" t="s">
@@ -4109,7 +4200,7 @@
       <c r="H38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>5</v>
       </c>
       <c r="K38" t="s">
@@ -4518,7 +4609,7 @@
       <c r="G46" t="s">
         <v>138</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>5</v>
       </c>
       <c r="L46" s="3">
@@ -4574,7 +4665,7 @@
       <c r="G47" t="s">
         <v>142</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>5</v>
       </c>
       <c r="L47" s="3">
@@ -4803,7 +4894,7 @@
       <c r="F52" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>5</v>
       </c>
       <c r="K52" t="s">
@@ -4894,7 +4985,7 @@
       <c r="F54" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>5</v>
       </c>
       <c r="L54" s="3">
@@ -4938,7 +5029,7 @@
       <c r="E55" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>6</v>
       </c>
       <c r="L55" s="3">
@@ -4988,7 +5079,7 @@
       <c r="F56" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>6</v>
       </c>
       <c r="L56" s="3">
@@ -5455,7 +5546,7 @@
       <c r="E66" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="3">
         <v>6</v>
       </c>
       <c r="L66" s="3">
@@ -5692,7 +5783,7 @@
       <c r="F72" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="3">
         <v>5</v>
       </c>
       <c r="L72" s="3">
@@ -5742,7 +5833,7 @@
       <c r="F73" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="3">
         <v>6</v>
       </c>
       <c r="L73" s="3">
@@ -5895,7 +5986,7 @@
       <c r="G76" t="s">
         <v>225</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="3">
         <v>5</v>
       </c>
       <c r="K76" t="s">
@@ -5951,7 +6042,7 @@
       <c r="H77" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="3">
         <v>6</v>
       </c>
       <c r="L77" s="3">
@@ -7513,7 +7604,7 @@
       <c r="E111" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="3">
         <v>5</v>
       </c>
       <c r="L111" s="3">
@@ -7956,7 +8047,7 @@
       <c r="F121" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="3">
         <v>5</v>
       </c>
       <c r="L121" s="3">
@@ -8250,7 +8341,7 @@
       <c r="G127" t="s">
         <v>357</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="3">
         <v>8</v>
       </c>
       <c r="K127" t="s">
@@ -8294,7 +8385,7 @@
       <c r="G128" t="s">
         <v>361</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="3">
         <v>6</v>
       </c>
       <c r="L128" s="3">
@@ -8526,7 +8617,7 @@
       <c r="F133" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="3">
         <v>4</v>
       </c>
       <c r="L133" s="3">
@@ -9305,7 +9396,7 @@
       <c r="G149" t="s">
         <v>424</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="3">
         <v>5</v>
       </c>
       <c r="L149" s="3">
@@ -9660,7 +9751,7 @@
       <c r="F157" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="3">
         <v>6</v>
       </c>
       <c r="L157" s="3">
@@ -9795,7 +9886,7 @@
       <c r="E160" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="3">
         <v>5</v>
       </c>
       <c r="L160" s="3">
@@ -9948,7 +10039,7 @@
       <c r="H163" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="3">
         <v>5</v>
       </c>
       <c r="L163" s="3">
@@ -10176,7 +10267,7 @@
       <c r="E169" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="3">
         <v>5</v>
       </c>
       <c r="L169" s="3">
@@ -10229,7 +10320,7 @@
       <c r="G170" t="s">
         <v>465</v>
       </c>
-      <c r="J170">
+      <c r="J170" s="3">
         <v>6</v>
       </c>
       <c r="K170" t="s">
@@ -10441,7 +10532,7 @@
       <c r="F174" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J174">
+      <c r="J174" s="3">
         <v>5</v>
       </c>
       <c r="L174" s="3">
@@ -10570,7 +10661,7 @@
       <c r="F177" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="3">
         <v>10</v>
       </c>
       <c r="L177" s="3">
@@ -10614,7 +10705,7 @@
       <c r="F178" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="3">
         <v>6</v>
       </c>
       <c r="L178" s="3">
@@ -10702,7 +10793,7 @@
       <c r="F180" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="J180">
+      <c r="J180" s="3">
         <v>8</v>
       </c>
       <c r="L180" s="3">
@@ -10745,49 +10836,704 @@
       <c r="C182" s="4">
         <v>1</v>
       </c>
+      <c r="D182" t="s">
+        <v>114</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L182" s="3">
+        <v>115</v>
+      </c>
+      <c r="M182" s="1"/>
+      <c r="N182" s="3">
+        <v>1976</v>
+      </c>
+      <c r="U182" s="3">
+        <v>95.4</v>
+      </c>
+      <c r="V182" s="3">
+        <v>5294</v>
+      </c>
+      <c r="W182" s="3">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="X182" s="3">
+        <v>2806</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD182" s="4">
+        <v>300</v>
+      </c>
     </row>
     <row r="183" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C183" s="4">
         <v>2</v>
       </c>
+      <c r="D183" t="s">
+        <v>114</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L183" s="3">
+        <v>63</v>
+      </c>
+      <c r="M183" s="1">
+        <v>44000</v>
+      </c>
+      <c r="N183" s="3">
+        <v>1976</v>
+      </c>
+      <c r="U183" s="3">
+        <v>59.3</v>
+      </c>
+      <c r="V183" s="3">
+        <v>6069</v>
+      </c>
+      <c r="W183" s="3">
+        <v>95.5</v>
+      </c>
+      <c r="X183" s="3">
+        <v>3420</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD183" s="4">
+        <v>300</v>
+      </c>
     </row>
     <row r="184" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C184" s="4">
         <v>3</v>
       </c>
+      <c r="D184" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L184" s="3">
+        <v>204</v>
+      </c>
+      <c r="U184" s="3">
+        <v>186.4</v>
+      </c>
+      <c r="V184" s="3">
+        <v>5896</v>
+      </c>
+      <c r="W184" s="3">
+        <v>246.7</v>
+      </c>
+      <c r="X184" s="3">
+        <v>3937</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD184" s="4">
+        <v>65</v>
+      </c>
     </row>
     <row r="185" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C185" s="4">
         <v>4</v>
       </c>
+      <c r="D185" t="s">
+        <v>44</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L185" s="3">
+        <v>75</v>
+      </c>
+      <c r="U185" s="3">
+        <v>85.1</v>
+      </c>
+      <c r="V185" s="3">
+        <v>5378</v>
+      </c>
+      <c r="W185" s="3">
+        <v>138.6</v>
+      </c>
+      <c r="X185" s="3">
+        <v>2684</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>559</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD185" s="4">
+        <v>170</v>
+      </c>
     </row>
     <row r="186" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C186" s="4">
         <v>5</v>
       </c>
+      <c r="D186" t="s">
+        <v>44</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L186" s="3">
+        <v>115</v>
+      </c>
+      <c r="U186" s="3">
+        <v>108.4</v>
+      </c>
+      <c r="V186" s="3">
+        <v>4986</v>
+      </c>
+      <c r="W186" s="3">
+        <v>174.8</v>
+      </c>
+      <c r="X186" s="3">
+        <v>2668</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>559</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD186" s="4">
+        <v>170</v>
+      </c>
     </row>
     <row r="187" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C187" s="4">
         <v>6</v>
       </c>
+      <c r="D187" t="s">
+        <v>44</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G187" t="s">
+        <v>564</v>
+      </c>
+      <c r="L187" s="3">
+        <v>98</v>
+      </c>
+      <c r="N187" s="3">
+        <v>1991</v>
+      </c>
+      <c r="U187" s="3">
+        <v>113</v>
+      </c>
+      <c r="V187" s="3">
+        <v>4931</v>
+      </c>
+      <c r="W187" s="3">
+        <v>176.5</v>
+      </c>
+      <c r="X187" s="3">
+        <v>3461</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD187" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="188" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C188" s="4">
         <v>7</v>
       </c>
+      <c r="D188" t="s">
+        <v>278</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J188" s="3">
+        <v>6</v>
+      </c>
+      <c r="L188" s="3">
+        <v>120</v>
+      </c>
+      <c r="U188" s="3">
+        <v>125.8</v>
+      </c>
+      <c r="V188" s="3">
+        <v>6851</v>
+      </c>
+      <c r="W188" s="3">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="X188" s="3">
+        <v>4015</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD188" s="4">
+        <v>240</v>
+      </c>
     </row>
     <row r="189" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C189" s="4">
         <v>8</v>
       </c>
+      <c r="D189" t="s">
+        <v>38</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J189" s="3">
+        <v>6</v>
+      </c>
+      <c r="L189" s="3">
+        <v>145</v>
+      </c>
+      <c r="N189" s="3">
+        <v>1991</v>
+      </c>
+      <c r="U189" s="3">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="V189" s="3">
+        <v>5729</v>
+      </c>
+      <c r="W189" s="3">
+        <v>220.7</v>
+      </c>
+      <c r="X189" s="3">
+        <v>3360</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD189" s="4">
+        <v>55</v>
+      </c>
     </row>
     <row r="190" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C190" s="4">
         <v>9</v>
       </c>
+      <c r="D190" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G190" t="s">
+        <v>570</v>
+      </c>
+      <c r="L190" s="3">
+        <v>174</v>
+      </c>
+      <c r="Q190" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R190" s="3">
+        <v>6975</v>
+      </c>
+      <c r="S190" s="3">
+        <v>173.9</v>
+      </c>
+      <c r="T190" s="3">
+        <v>6001</v>
+      </c>
+      <c r="U190" s="3">
+        <v>158.5</v>
+      </c>
+      <c r="V190" s="3">
+        <v>6836</v>
+      </c>
+      <c r="W190" s="3">
+        <v>172.4</v>
+      </c>
+      <c r="X190" s="3">
+        <v>5964</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>569</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD190" s="4">
+        <v>120</v>
+      </c>
     </row>
     <row r="191" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C191" s="4">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>52</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J191" s="3">
+        <v>6</v>
+      </c>
+      <c r="K191" t="s">
+        <v>76</v>
+      </c>
+      <c r="L191" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q191" s="3">
+        <v>127.2</v>
+      </c>
+      <c r="R191" s="3">
+        <v>5310</v>
+      </c>
+      <c r="S191" s="3">
+        <v>179.5</v>
+      </c>
+      <c r="T191" s="3">
+        <v>4910</v>
+      </c>
+      <c r="U191" s="3">
+        <v>126.7</v>
+      </c>
+      <c r="V191" s="3">
+        <v>5343</v>
+      </c>
+      <c r="W191" s="3">
+        <v>195.6</v>
+      </c>
+      <c r="X191" s="3">
+        <v>3897</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>572</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD191" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C192" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s">
+        <v>74</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G192" t="s">
+        <v>576</v>
+      </c>
+      <c r="J192" s="3">
+        <v>5</v>
+      </c>
+      <c r="L192" s="3">
+        <v>193</v>
+      </c>
+      <c r="M192" s="1">
+        <v>210000</v>
+      </c>
+      <c r="N192" s="3">
+        <v>1999</v>
+      </c>
+      <c r="U192" s="3">
+        <v>210.4</v>
+      </c>
+      <c r="V192" s="3">
+        <v>5364</v>
+      </c>
+      <c r="W192" s="3">
+        <v>354.2</v>
+      </c>
+      <c r="X192" s="3">
+        <v>3358</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD192" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C193" s="4">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>44</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J193" s="3">
+        <v>5</v>
+      </c>
+      <c r="L193" s="3">
+        <v>115</v>
+      </c>
+      <c r="U193" s="3">
+        <v>100.2</v>
+      </c>
+      <c r="V193" s="3">
+        <v>5836</v>
+      </c>
+      <c r="W193" s="3">
+        <v>142.9</v>
+      </c>
+      <c r="X193" s="3">
+        <v>3297</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD193" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C194" s="4">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="L194" s="3">
+        <v>230</v>
+      </c>
+      <c r="U194" s="3">
+        <v>215.8</v>
+      </c>
+      <c r="V194" s="3">
+        <v>6273</v>
+      </c>
+      <c r="W194" s="3">
+        <v>282.8</v>
+      </c>
+      <c r="X194" s="3">
+        <v>3651</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD194" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C195" s="4">
+        <v>14</v>
+      </c>
+      <c r="D195" t="s">
+        <v>412</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G195" t="s">
+        <v>584</v>
+      </c>
+      <c r="L195" s="3">
+        <v>124</v>
+      </c>
+      <c r="M195" s="1">
+        <v>174221</v>
+      </c>
+      <c r="U195" s="3">
+        <v>132.4</v>
+      </c>
+      <c r="V195" s="3">
+        <v>7221</v>
+      </c>
+      <c r="W195" s="3">
+        <v>140.6</v>
+      </c>
+      <c r="X195" s="3">
+        <v>6051</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>582</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD195" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C197" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C198" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C199" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C200" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C201" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C202" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C203" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C204" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C205" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C206" s="4">
         <v>10</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D29E6-A880-4070-A3A0-ED939D033EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD49B079-AAB5-41F9-8ABA-391EACF7BA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="596">
   <si>
     <t>Episode</t>
   </si>
@@ -1775,6 +1775,39 @@
   </si>
   <si>
     <t>Facherkrümmer</t>
+  </si>
+  <si>
+    <t>E36 328i</t>
+  </si>
+  <si>
+    <t>Corrado G60</t>
+  </si>
+  <si>
+    <t>Focus ST</t>
+  </si>
+  <si>
+    <t>Ladeluftkühler, Downpipe</t>
+  </si>
+  <si>
+    <t>Golf II GTI 16V</t>
+  </si>
+  <si>
+    <t>Aufgebohrt auf 1.9 Liter, Nockenwellen, Einspritzungen</t>
+  </si>
+  <si>
+    <t>AUR</t>
+  </si>
+  <si>
+    <t>Aurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passat B2 (32B) </t>
+  </si>
+  <si>
+    <t>Abgaskrümmer, 2. Messung ohne Luftfilter</t>
+  </si>
+  <si>
+    <t>2. Motor ist 120.000 gelaufen</t>
   </si>
 </sst>
 </file>
@@ -2623,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE206"/>
+  <dimension ref="A1:AE318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B169" workbookViewId="0">
-      <selection activeCell="D206" sqref="D206"/>
+    <sheetView tabSelected="1" topLeftCell="B295" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11537,6 +11570,501 @@
         <v>10</v>
       </c>
     </row>
+    <row r="207" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C306" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C307" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C308" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C309" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C310" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C311" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C313" s="4">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>28</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J313" s="3">
+        <v>6</v>
+      </c>
+      <c r="L313" s="3">
+        <v>193</v>
+      </c>
+      <c r="U313" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V313" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W313" s="3">
+        <v>250</v>
+      </c>
+      <c r="X313" s="3">
+        <v>4813</v>
+      </c>
+      <c r="Z313" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA313" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB313" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD313" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="314" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C314" s="4">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>44</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L314" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q314" s="3">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="R314" s="3">
+        <v>25980</v>
+      </c>
+      <c r="S314" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="T314" s="3">
+        <v>4710</v>
+      </c>
+      <c r="U314" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="V314" s="3">
+        <v>6026</v>
+      </c>
+      <c r="W314" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="X314" s="3">
+        <v>4748</v>
+      </c>
+      <c r="Z314" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB314" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD314" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="315" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C315" s="4">
+        <v>3</v>
+      </c>
+      <c r="D315" t="s">
+        <v>38</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G315" t="s">
+        <v>588</v>
+      </c>
+      <c r="L315" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q315" s="3">
+        <v>268.3</v>
+      </c>
+      <c r="R315" s="3">
+        <v>5341</v>
+      </c>
+      <c r="S315" s="3">
+        <v>440.9</v>
+      </c>
+      <c r="T315" s="3">
+        <v>2638</v>
+      </c>
+      <c r="U315" s="3">
+        <v>268.2</v>
+      </c>
+      <c r="V315" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W315" s="3">
+        <v>448.9</v>
+      </c>
+      <c r="X315" s="3">
+        <v>2646</v>
+      </c>
+      <c r="Z315" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD315" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C316" s="4">
+        <v>4</v>
+      </c>
+      <c r="D316" t="s">
+        <v>44</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G316" t="s">
+        <v>590</v>
+      </c>
+      <c r="L316" s="3">
+        <v>139</v>
+      </c>
+      <c r="N316" s="3">
+        <v>1986</v>
+      </c>
+      <c r="Q316" s="3">
+        <v>209.1</v>
+      </c>
+      <c r="R316" s="3">
+        <v>7791</v>
+      </c>
+      <c r="S316" s="3">
+        <v>212</v>
+      </c>
+      <c r="T316" s="3">
+        <v>5755</v>
+      </c>
+      <c r="U316" s="3">
+        <v>208</v>
+      </c>
+      <c r="V316" s="3">
+        <v>7966</v>
+      </c>
+      <c r="W316" s="3">
+        <v>213.2</v>
+      </c>
+      <c r="X316" s="3">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="317" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C317" s="4">
+        <v>5</v>
+      </c>
+      <c r="D317" t="s">
+        <v>44</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G317" t="s">
+        <v>594</v>
+      </c>
+      <c r="L317" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q317" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="R317" s="3">
+        <v>5085</v>
+      </c>
+      <c r="S317" s="3">
+        <v>160.1</v>
+      </c>
+      <c r="T317" s="3">
+        <v>3668</v>
+      </c>
+      <c r="U317" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="V317" s="3">
+        <v>4993</v>
+      </c>
+      <c r="W317" s="3">
+        <v>159.5</v>
+      </c>
+      <c r="X317" s="3">
+        <v>3305</v>
+      </c>
+      <c r="Z317" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB317" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD317" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="318" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C318" s="4">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>178</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G318" t="s">
+        <v>595</v>
+      </c>
+      <c r="L318" s="3">
+        <v>116</v>
+      </c>
+      <c r="M318" s="1">
+        <v>325000</v>
+      </c>
+      <c r="Q318" s="3">
+        <v>109.7</v>
+      </c>
+      <c r="R318" s="3">
+        <v>6570</v>
+      </c>
+      <c r="S318" s="3">
+        <v>130</v>
+      </c>
+      <c r="T318" s="3">
+        <v>5181</v>
+      </c>
+      <c r="U318" s="3">
+        <v>111.1</v>
+      </c>
+      <c r="V318" s="3">
+        <v>6500</v>
+      </c>
+      <c r="W318" s="3">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="X318" s="3">
+        <v>5179</v>
+      </c>
+      <c r="Z318" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB318" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD318" s="4">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD49B079-AAB5-41F9-8ABA-391EACF7BA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084BE03-0765-42FB-9C0A-A1D4AAF9CE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="632">
   <si>
     <t>Episode</t>
   </si>
@@ -1808,6 +1808,114 @@
   </si>
   <si>
     <t>2. Motor ist 120.000 gelaufen</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>200SX</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Düsseldorf</t>
+  </si>
+  <si>
+    <t>W124 320E</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>W124</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>Lübeck</t>
+  </si>
+  <si>
+    <t>Halle77 Auto</t>
+  </si>
+  <si>
+    <t>Cabriolet</t>
+  </si>
+  <si>
+    <t>Polo GTI 1.6 16V (6N1)</t>
+  </si>
+  <si>
+    <t>Kopfbearebitung, Sportluftfilter</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
+    <t>90 2.3E</t>
+  </si>
+  <si>
+    <t>Megane RS</t>
+  </si>
+  <si>
+    <t>2. Messung mit Race Chip Box</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Rinteln</t>
+  </si>
+  <si>
+    <t>528 Motor, Nockenwelle</t>
+  </si>
+  <si>
+    <t>E28 520</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Osnabrück</t>
+  </si>
+  <si>
+    <t>Coupe GT 20V</t>
+  </si>
+  <si>
+    <t>RS2 Turbolader</t>
+  </si>
+  <si>
+    <t>LEV</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>R5 GTE</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Gelsenkirchen</t>
+  </si>
+  <si>
+    <t>Astra ( J )</t>
+  </si>
+  <si>
+    <t>Polo R WRC</t>
+  </si>
+  <si>
+    <t>328i</t>
   </si>
 </sst>
 </file>
@@ -2656,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE318"/>
+  <dimension ref="A1:AE334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B295" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11670,398 +11778,1053 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>3</v>
       </c>
     </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B305">
+      <c r="C305" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="306" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C306" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C307" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C308" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C309" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C310" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C311" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B312">
-        <v>1</v>
+      <c r="C312" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C313" s="4">
-        <v>1</v>
-      </c>
-      <c r="D313" t="s">
-        <v>28</v>
-      </c>
-      <c r="E313" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J313" s="3">
-        <v>6</v>
-      </c>
-      <c r="L313" s="3">
-        <v>193</v>
-      </c>
-      <c r="U313" s="3">
-        <v>196.4</v>
-      </c>
-      <c r="V313" s="3">
-        <v>6004</v>
-      </c>
-      <c r="W313" s="3">
-        <v>250</v>
-      </c>
-      <c r="X313" s="3">
-        <v>4813</v>
-      </c>
-      <c r="Z313" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA313" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB313" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD313" s="4">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C314" s="4">
+      <c r="B314">
         <v>2</v>
-      </c>
-      <c r="D314" t="s">
-        <v>44</v>
-      </c>
-      <c r="E314" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L314" s="3">
-        <v>160</v>
-      </c>
-      <c r="Q314" s="3">
-        <v>161.19999999999999</v>
-      </c>
-      <c r="R314" s="3">
-        <v>25980</v>
-      </c>
-      <c r="S314" s="3">
-        <v>212.9</v>
-      </c>
-      <c r="T314" s="3">
-        <v>4710</v>
-      </c>
-      <c r="U314" s="3">
-        <v>162.9</v>
-      </c>
-      <c r="V314" s="3">
-        <v>6026</v>
-      </c>
-      <c r="W314" s="3">
-        <v>216.6</v>
-      </c>
-      <c r="X314" s="3">
-        <v>4748</v>
-      </c>
-      <c r="Z314" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA314" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB314" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD314" s="4">
-        <v>180</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C315" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>38</v>
+        <v>528</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G315" t="s">
-        <v>588</v>
+        <v>208</v>
       </c>
       <c r="L315" s="3">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="Q315" s="3">
-        <v>268.3</v>
+        <v>184.2</v>
       </c>
       <c r="R315" s="3">
-        <v>5341</v>
+        <v>6393</v>
       </c>
       <c r="S315" s="3">
-        <v>440.9</v>
+        <v>236.7</v>
       </c>
       <c r="T315" s="3">
-        <v>2638</v>
+        <v>4499</v>
       </c>
       <c r="U315" s="3">
-        <v>268.2</v>
+        <v>186.4</v>
       </c>
       <c r="V315" s="3">
-        <v>5400</v>
+        <v>6385</v>
       </c>
       <c r="W315" s="3">
-        <v>448.9</v>
+        <v>234.9</v>
       </c>
       <c r="X315" s="3">
-        <v>2646</v>
+        <v>4542</v>
       </c>
       <c r="Z315" t="s">
-        <v>215</v>
+        <v>596</v>
       </c>
       <c r="AA315" t="s">
-        <v>216</v>
+        <v>597</v>
       </c>
       <c r="AB315" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AD315" s="4">
-        <v>20</v>
+        <v>385</v>
       </c>
     </row>
     <row r="316" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C316" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D316" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G316" t="s">
-        <v>590</v>
+        <v>602</v>
+      </c>
+      <c r="K316" t="s">
+        <v>76</v>
       </c>
       <c r="L316" s="3">
-        <v>139</v>
-      </c>
-      <c r="N316" s="3">
-        <v>1986</v>
+        <v>220</v>
       </c>
       <c r="Q316" s="3">
-        <v>209.1</v>
+        <v>167</v>
       </c>
       <c r="R316" s="3">
-        <v>7791</v>
+        <v>6189</v>
       </c>
       <c r="S316" s="3">
-        <v>212</v>
+        <v>226.7</v>
       </c>
       <c r="T316" s="3">
-        <v>5755</v>
+        <v>3026</v>
       </c>
       <c r="U316" s="3">
-        <v>208</v>
+        <v>167.6</v>
       </c>
       <c r="V316" s="3">
-        <v>7966</v>
+        <v>6627</v>
       </c>
       <c r="W316" s="3">
-        <v>213.2</v>
+        <v>232</v>
       </c>
       <c r="X316" s="3">
-        <v>5807</v>
+        <v>3046</v>
+      </c>
+      <c r="Z316" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA316" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB316" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD316" s="4">
+        <v>75</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C317" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D317" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>207</v>
+        <v>603</v>
       </c>
       <c r="G317" t="s">
-        <v>594</v>
+        <v>606</v>
+      </c>
+      <c r="K317" t="s">
+        <v>76</v>
       </c>
       <c r="L317" s="3">
-        <v>85</v>
-      </c>
-      <c r="Q317" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="R317" s="3">
-        <v>5085</v>
-      </c>
-      <c r="S317" s="3">
-        <v>160.1</v>
-      </c>
-      <c r="T317" s="3">
-        <v>3668</v>
+        <v>180</v>
       </c>
       <c r="U317" s="3">
-        <v>96.9</v>
+        <v>160.6</v>
       </c>
       <c r="V317" s="3">
-        <v>4993</v>
+        <v>5334</v>
       </c>
       <c r="W317" s="3">
-        <v>159.5</v>
+        <v>200.5</v>
       </c>
       <c r="X317" s="3">
-        <v>3305</v>
+        <v>4806</v>
       </c>
       <c r="Z317" t="s">
-        <v>591</v>
+        <v>104</v>
       </c>
       <c r="AA317" t="s">
-        <v>592</v>
+        <v>105</v>
       </c>
       <c r="AB317" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD317" s="4">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C318" s="4">
+        <v>4</v>
+      </c>
+      <c r="D318" t="s">
+        <v>52</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J318" s="3">
         <v>6</v>
       </c>
-      <c r="D318" t="s">
+      <c r="L318" s="3">
+        <v>150</v>
+      </c>
+      <c r="M318" s="1">
+        <v>293000</v>
+      </c>
+      <c r="U318" s="3">
+        <v>142.4</v>
+      </c>
+      <c r="V318" s="3">
+        <v>4907</v>
+      </c>
+      <c r="W318" s="3">
+        <v>234.4</v>
+      </c>
+      <c r="X318" s="3">
+        <v>3859</v>
+      </c>
+      <c r="Z318" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB318" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD318" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="319" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C319" s="4">
+        <v>5</v>
+      </c>
+      <c r="D319" t="s">
+        <v>44</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G319" t="s">
+        <v>609</v>
+      </c>
+      <c r="L319" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q319" s="3">
+        <v>122</v>
+      </c>
+      <c r="R319" s="3">
+        <v>6640</v>
+      </c>
+      <c r="S319" s="3">
+        <v>149.1</v>
+      </c>
+      <c r="T319" s="3">
+        <v>3067</v>
+      </c>
+      <c r="U319" s="3">
+        <v>130.1</v>
+      </c>
+      <c r="V319" s="3">
+        <v>6687</v>
+      </c>
+      <c r="W319" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="X319" s="3">
+        <v>3043</v>
+      </c>
+      <c r="Z319" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA319" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB319" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD319" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="320" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C320" s="4">
+        <v>6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>52</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J320" s="3">
+        <v>5</v>
+      </c>
+      <c r="K320" t="s">
+        <v>76</v>
+      </c>
+      <c r="L320" s="3">
+        <v>136</v>
+      </c>
+      <c r="U320" s="3">
+        <v>115.1</v>
+      </c>
+      <c r="V320" s="3">
+        <v>6028</v>
+      </c>
+      <c r="W320" s="3">
+        <v>169.6</v>
+      </c>
+      <c r="X320" s="3">
+        <v>2501</v>
+      </c>
+      <c r="Z320" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA320" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC320" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD320" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="321" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C321" s="4">
+        <v>7</v>
+      </c>
+      <c r="D321" t="s">
+        <v>217</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G321" t="s">
+        <v>615</v>
+      </c>
+      <c r="L321" s="3">
+        <v>265</v>
+      </c>
+      <c r="Q321" s="3">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="R321" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S321" s="3">
+        <v>375.1</v>
+      </c>
+      <c r="T321" s="3">
+        <v>3212</v>
+      </c>
+      <c r="U321" s="3">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="V321" s="3">
+        <v>5525</v>
+      </c>
+      <c r="W321" s="3">
+        <v>398.7</v>
+      </c>
+      <c r="X321" s="3">
+        <v>3621</v>
+      </c>
+      <c r="Z321" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA321" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB321" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD321" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="322" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C322" s="4">
+        <v>8</v>
+      </c>
+      <c r="D322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G322" t="s">
+        <v>618</v>
+      </c>
+      <c r="L322" s="3">
+        <v>129</v>
+      </c>
+      <c r="U322" s="3">
+        <v>181</v>
+      </c>
+      <c r="V322" s="3">
+        <v>5896</v>
+      </c>
+      <c r="W322" s="3">
+        <v>233</v>
+      </c>
+      <c r="X322" s="3">
+        <v>5296</v>
+      </c>
+      <c r="Z322" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB322" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD322" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="323" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C323" s="4">
+        <v>9</v>
+      </c>
+      <c r="D323" t="s">
+        <v>52</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G323" t="s">
+        <v>623</v>
+      </c>
+      <c r="J323" s="3">
+        <v>5</v>
+      </c>
+      <c r="U323" s="3">
+        <v>227.8</v>
+      </c>
+      <c r="V323" s="3">
+        <v>5921</v>
+      </c>
+      <c r="W323" s="3">
+        <v>343</v>
+      </c>
+      <c r="X323" s="3">
+        <v>4521</v>
+      </c>
+      <c r="Z323" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA323" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB323" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD323" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="324" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C324" s="4">
+        <v>10</v>
+      </c>
+      <c r="D324" t="s">
+        <v>217</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="L324" s="3">
+        <v>135</v>
+      </c>
+      <c r="U324" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="V324" s="3">
+        <v>6587</v>
+      </c>
+      <c r="W324" s="3">
+        <v>148.5</v>
+      </c>
+      <c r="X324" s="3">
+        <v>4539</v>
+      </c>
+      <c r="Z324" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA324" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB324" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD324" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="325" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C325" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s">
+        <v>36</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G325" t="s">
+        <v>576</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L325" s="3">
+        <v>131</v>
+      </c>
+      <c r="Q325" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R325" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S325" s="3">
+        <v>348.9</v>
+      </c>
+      <c r="T325" s="3">
+        <v>2359</v>
+      </c>
+      <c r="U325" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V325" s="3">
+        <v>4049</v>
+      </c>
+      <c r="W325" s="3">
+        <v>350.3</v>
+      </c>
+      <c r="X325" s="3">
+        <v>2430</v>
+      </c>
+      <c r="Z325" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA325" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB325" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD325" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="326" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C326" s="4">
+        <v>12</v>
+      </c>
+      <c r="D326" t="s">
+        <v>44</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G326" t="s">
+        <v>576</v>
+      </c>
+      <c r="L326" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q326" s="3">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R326" s="3">
+        <v>6258</v>
+      </c>
+      <c r="S326" s="3">
+        <v>449.1</v>
+      </c>
+      <c r="T326" s="3">
+        <v>3927</v>
+      </c>
+      <c r="U326" s="3">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="V326" s="3">
+        <v>6376</v>
+      </c>
+      <c r="W326" s="3">
+        <v>447.1</v>
+      </c>
+      <c r="X326" s="3">
+        <v>3904</v>
+      </c>
+      <c r="Z326" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA326" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB326" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD326" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="327" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C327" s="4">
+        <v>13</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K327" t="s">
+        <v>76</v>
+      </c>
+      <c r="L327" s="3">
+        <v>193</v>
+      </c>
+      <c r="U327" s="3">
+        <v>205</v>
+      </c>
+      <c r="W327" s="3">
+        <v>240</v>
+      </c>
+      <c r="Z327" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA327" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB327" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD327" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C329" s="4">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J329" s="3">
+        <v>6</v>
+      </c>
+      <c r="L329" s="3">
+        <v>193</v>
+      </c>
+      <c r="U329" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V329" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W329" s="3">
+        <v>250</v>
+      </c>
+      <c r="X329" s="3">
+        <v>4813</v>
+      </c>
+      <c r="Z329" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB329" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD329" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="330" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C330" s="4">
+        <v>2</v>
+      </c>
+      <c r="D330" t="s">
+        <v>44</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L330" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q330" s="3">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="R330" s="3">
+        <v>25980</v>
+      </c>
+      <c r="S330" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="T330" s="3">
+        <v>4710</v>
+      </c>
+      <c r="U330" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="V330" s="3">
+        <v>6026</v>
+      </c>
+      <c r="W330" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="X330" s="3">
+        <v>4748</v>
+      </c>
+      <c r="Z330" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA330" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB330" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD330" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="331" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C331" s="4">
+        <v>3</v>
+      </c>
+      <c r="D331" t="s">
+        <v>38</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G331" t="s">
+        <v>588</v>
+      </c>
+      <c r="L331" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q331" s="3">
+        <v>268.3</v>
+      </c>
+      <c r="R331" s="3">
+        <v>5341</v>
+      </c>
+      <c r="S331" s="3">
+        <v>440.9</v>
+      </c>
+      <c r="T331" s="3">
+        <v>2638</v>
+      </c>
+      <c r="U331" s="3">
+        <v>268.2</v>
+      </c>
+      <c r="V331" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W331" s="3">
+        <v>448.9</v>
+      </c>
+      <c r="X331" s="3">
+        <v>2646</v>
+      </c>
+      <c r="Z331" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA331" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB331" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD331" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C332" s="4">
+        <v>4</v>
+      </c>
+      <c r="D332" t="s">
+        <v>44</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G332" t="s">
+        <v>590</v>
+      </c>
+      <c r="L332" s="3">
+        <v>139</v>
+      </c>
+      <c r="N332" s="3">
+        <v>1986</v>
+      </c>
+      <c r="Q332" s="3">
+        <v>209.1</v>
+      </c>
+      <c r="R332" s="3">
+        <v>7791</v>
+      </c>
+      <c r="S332" s="3">
+        <v>212</v>
+      </c>
+      <c r="T332" s="3">
+        <v>5755</v>
+      </c>
+      <c r="U332" s="3">
+        <v>208</v>
+      </c>
+      <c r="V332" s="3">
+        <v>7966</v>
+      </c>
+      <c r="W332" s="3">
+        <v>213.2</v>
+      </c>
+      <c r="X332" s="3">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="333" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C333" s="4">
+        <v>5</v>
+      </c>
+      <c r="D333" t="s">
+        <v>44</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G333" t="s">
+        <v>594</v>
+      </c>
+      <c r="L333" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q333" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="R333" s="3">
+        <v>5085</v>
+      </c>
+      <c r="S333" s="3">
+        <v>160.1</v>
+      </c>
+      <c r="T333" s="3">
+        <v>3668</v>
+      </c>
+      <c r="U333" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="V333" s="3">
+        <v>4993</v>
+      </c>
+      <c r="W333" s="3">
+        <v>159.5</v>
+      </c>
+      <c r="X333" s="3">
+        <v>3305</v>
+      </c>
+      <c r="Z333" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB333" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD333" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="334" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C334" s="4">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
         <v>178</v>
       </c>
-      <c r="E318" s="4" t="s">
+      <c r="E334" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F318" s="2" t="s">
+      <c r="F334" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G334" t="s">
         <v>595</v>
       </c>
-      <c r="L318" s="3">
+      <c r="L334" s="3">
         <v>116</v>
       </c>
-      <c r="M318" s="1">
+      <c r="M334" s="1">
         <v>325000</v>
       </c>
-      <c r="Q318" s="3">
+      <c r="Q334" s="3">
         <v>109.7</v>
       </c>
-      <c r="R318" s="3">
+      <c r="R334" s="3">
         <v>6570</v>
       </c>
-      <c r="S318" s="3">
+      <c r="S334" s="3">
         <v>130</v>
       </c>
-      <c r="T318" s="3">
+      <c r="T334" s="3">
         <v>5181</v>
       </c>
-      <c r="U318" s="3">
+      <c r="U334" s="3">
         <v>111.1</v>
       </c>
-      <c r="V318" s="3">
+      <c r="V334" s="3">
         <v>6500</v>
       </c>
-      <c r="W318" s="3">
+      <c r="W334" s="3">
         <v>132.30000000000001</v>
       </c>
-      <c r="X318" s="3">
+      <c r="X334" s="3">
         <v>5179</v>
       </c>
-      <c r="Z318" t="s">
+      <c r="Z334" t="s">
         <v>47</v>
       </c>
-      <c r="AA318" t="s">
+      <c r="AA334" t="s">
         <v>48</v>
       </c>
-      <c r="AB318" t="s">
+      <c r="AB334" t="s">
         <v>42</v>
       </c>
-      <c r="AD318" s="4">
+      <c r="AD334" s="4">
         <v>36</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084BE03-0765-42FB-9C0A-A1D4AAF9CE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A1B50F-58A1-46F0-AB23-8521EC7B8281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="649">
   <si>
     <t>Episode</t>
   </si>
@@ -1916,6 +1916,57 @@
   </si>
   <si>
     <t>328i</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>Halle</t>
+  </si>
+  <si>
+    <t>Chipsatz, Downpipe</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>200 10V Turbo</t>
+  </si>
+  <si>
+    <t>Golf VII GTI</t>
+  </si>
+  <si>
+    <t>Focus RS</t>
+  </si>
+  <si>
+    <t>Golf IV 16V (Variant)</t>
+  </si>
+  <si>
+    <t>A3 TDI</t>
+  </si>
+  <si>
+    <t>HER</t>
+  </si>
+  <si>
+    <t>Herne</t>
+  </si>
+  <si>
+    <t>C43 AMG</t>
+  </si>
+  <si>
+    <t>1.6 CRX Motor</t>
+  </si>
+  <si>
+    <t>C55 T AMG</t>
+  </si>
+  <si>
+    <t>E24 635 CSI</t>
+  </si>
+  <si>
+    <t>Dinslaken</t>
+  </si>
+  <si>
+    <t>335i</t>
   </si>
 </sst>
 </file>
@@ -2764,10 +2815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE334"/>
+  <dimension ref="A1:AE344"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="C312" sqref="C312"/>
+      <selection activeCell="H323" sqref="H323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11813,1018 +11864,1535 @@
         <v>4</v>
       </c>
     </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303">
-        <v>3</v>
+      <c r="C303" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C304" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C305" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C306" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C307" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C308" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C309" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C310" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C311" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C312" s="4">
-        <v>9</v>
+      <c r="B312">
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C313" s="4">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>197</v>
+      </c>
+      <c r="E313" s="4">
+        <v>968</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="L313" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q313" s="3">
+        <v>213.8</v>
+      </c>
+      <c r="R313" s="3">
+        <v>6430</v>
+      </c>
+      <c r="S313" s="3">
+        <v>272.3</v>
+      </c>
+      <c r="T313" s="3">
+        <v>4390</v>
+      </c>
+      <c r="U313" s="3">
+        <v>216.9</v>
+      </c>
+      <c r="V313" s="3">
+        <v>6411</v>
+      </c>
+      <c r="W313" s="3">
+        <v>276.2</v>
+      </c>
+      <c r="X313" s="3">
+        <v>4383</v>
+      </c>
+      <c r="Z313" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA313" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB313" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD313" s="4">
+        <v>400</v>
       </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B314">
+      <c r="C314" s="4">
         <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>52</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G314" t="s">
+        <v>634</v>
+      </c>
+      <c r="L314" s="3">
+        <v>165</v>
+      </c>
+      <c r="U314" s="3">
+        <v>205.7</v>
+      </c>
+      <c r="V314" s="3">
+        <v>5632</v>
+      </c>
+      <c r="W314" s="3">
+        <v>328.8</v>
+      </c>
+      <c r="X314" s="3">
+        <v>3799</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C315" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D315" t="s">
-        <v>528</v>
+        <v>44</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>598</v>
+        <v>637</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="L315" s="3">
-        <v>169</v>
-      </c>
-      <c r="Q315" s="3">
-        <v>184.2</v>
-      </c>
-      <c r="R315" s="3">
-        <v>6393</v>
-      </c>
-      <c r="S315" s="3">
-        <v>236.7</v>
-      </c>
-      <c r="T315" s="3">
-        <v>4499</v>
+        <v>230</v>
       </c>
       <c r="U315" s="3">
-        <v>186.4</v>
+        <v>243.4</v>
       </c>
       <c r="V315" s="3">
-        <v>6385</v>
+        <v>5400</v>
       </c>
       <c r="W315" s="3">
-        <v>234.9</v>
+        <v>354.6</v>
       </c>
       <c r="X315" s="3">
-        <v>4542</v>
+        <v>3056</v>
       </c>
       <c r="Z315" t="s">
-        <v>596</v>
+        <v>446</v>
       </c>
       <c r="AA315" t="s">
-        <v>597</v>
+        <v>447</v>
       </c>
       <c r="AB315" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AD315" s="4">
-        <v>385</v>
+        <v>70</v>
       </c>
     </row>
     <row r="316" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C316" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D316" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K316" t="s">
-        <v>76</v>
+        <v>211</v>
+      </c>
+      <c r="J316" s="3">
+        <v>5</v>
       </c>
       <c r="L316" s="3">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Q316" s="3">
-        <v>167</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="R316" s="3">
-        <v>6189</v>
+        <v>6190</v>
       </c>
       <c r="S316" s="3">
-        <v>226.7</v>
+        <v>404.5</v>
       </c>
       <c r="T316" s="3">
-        <v>3026</v>
+        <v>4616</v>
       </c>
       <c r="U316" s="3">
-        <v>167.6</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="V316" s="3">
-        <v>6627</v>
+        <v>6708</v>
       </c>
       <c r="W316" s="3">
-        <v>232</v>
+        <v>405.5</v>
       </c>
       <c r="X316" s="3">
-        <v>3046</v>
+        <v>4650</v>
       </c>
       <c r="Z316" t="s">
-        <v>599</v>
+        <v>446</v>
       </c>
       <c r="AA316" t="s">
-        <v>600</v>
+        <v>447</v>
       </c>
       <c r="AB316" t="s">
         <v>42</v>
       </c>
       <c r="AD316" s="4">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C317" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D317" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G317" t="s">
-        <v>606</v>
-      </c>
-      <c r="K317" t="s">
-        <v>76</v>
+        <v>639</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="L317" s="3">
-        <v>180</v>
+        <v>75</v>
+      </c>
+      <c r="M317" s="1">
+        <v>226000</v>
+      </c>
+      <c r="Q317" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="R317" s="3">
+        <v>5116</v>
+      </c>
+      <c r="S317" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="T317" s="3">
+        <v>3629</v>
       </c>
       <c r="U317" s="3">
-        <v>160.6</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V317" s="3">
-        <v>5334</v>
+        <v>4943</v>
       </c>
       <c r="W317" s="3">
-        <v>200.5</v>
+        <v>115.9</v>
       </c>
       <c r="X317" s="3">
-        <v>4806</v>
+        <v>3522</v>
       </c>
       <c r="Z317" t="s">
-        <v>104</v>
+        <v>446</v>
       </c>
       <c r="AA317" t="s">
-        <v>105</v>
+        <v>447</v>
       </c>
       <c r="AB317" t="s">
         <v>42</v>
       </c>
       <c r="AD317" s="4">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C318" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D318" t="s">
         <v>52</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J318" s="3">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="L318" s="3">
         <v>150</v>
       </c>
-      <c r="M318" s="1">
-        <v>293000</v>
-      </c>
       <c r="U318" s="3">
-        <v>142.4</v>
+        <v>186.1</v>
       </c>
       <c r="V318" s="3">
-        <v>4907</v>
+        <v>3265</v>
       </c>
       <c r="W318" s="3">
-        <v>234.4</v>
+        <v>451.4</v>
       </c>
       <c r="X318" s="3">
-        <v>3859</v>
+        <v>2059</v>
       </c>
       <c r="Z318" t="s">
-        <v>604</v>
+        <v>189</v>
       </c>
       <c r="AA318" t="s">
-        <v>605</v>
+        <v>190</v>
       </c>
       <c r="AB318" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="AD318" s="4">
-        <v>413</v>
+        <v>220</v>
       </c>
     </row>
     <row r="319" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C319" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D319" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G319" t="s">
-        <v>609</v>
+        <v>643</v>
+      </c>
+      <c r="J319" s="3">
+        <v>8</v>
+      </c>
+      <c r="K319" t="s">
+        <v>76</v>
       </c>
       <c r="L319" s="3">
-        <v>120</v>
+        <v>306</v>
+      </c>
+      <c r="M319" s="1">
+        <v>303000</v>
       </c>
       <c r="Q319" s="3">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="R319" s="3">
-        <v>6640</v>
+        <v>5970</v>
       </c>
       <c r="S319" s="3">
-        <v>149.1</v>
+        <v>339.7</v>
       </c>
       <c r="T319" s="3">
-        <v>3067</v>
+        <v>3305</v>
       </c>
       <c r="U319" s="3">
-        <v>130.1</v>
+        <v>247.9</v>
       </c>
       <c r="V319" s="3">
-        <v>6687</v>
+        <v>6245</v>
       </c>
       <c r="W319" s="3">
-        <v>154.9</v>
+        <v>342.5</v>
       </c>
       <c r="X319" s="3">
-        <v>3043</v>
+        <v>3314</v>
       </c>
       <c r="Z319" t="s">
-        <v>552</v>
+        <v>641</v>
       </c>
       <c r="AA319" t="s">
-        <v>553</v>
+        <v>642</v>
       </c>
       <c r="AB319" t="s">
         <v>42</v>
       </c>
       <c r="AD319" s="4">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="320" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C320" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D320" t="s">
-        <v>52</v>
+        <v>412</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J320" s="3">
-        <v>5</v>
-      </c>
-      <c r="K320" t="s">
-        <v>76</v>
+        <v>207</v>
+      </c>
+      <c r="G320" t="s">
+        <v>644</v>
       </c>
       <c r="L320" s="3">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="U320" s="3">
-        <v>115.1</v>
+        <v>137</v>
       </c>
       <c r="V320" s="3">
-        <v>6028</v>
+        <v>7319</v>
       </c>
       <c r="W320" s="3">
-        <v>169.6</v>
+        <v>134.5</v>
       </c>
       <c r="X320" s="3">
-        <v>2501</v>
-      </c>
-      <c r="Z320" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA320" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC320" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD320" s="4">
-        <v>650</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="321" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C321" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D321" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>614</v>
+        <v>645</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G321" t="s">
-        <v>615</v>
+        <v>635</v>
+      </c>
+      <c r="J321" s="3">
+        <v>8</v>
       </c>
       <c r="L321" s="3">
-        <v>265</v>
-      </c>
-      <c r="Q321" s="3">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="R321" s="3">
-        <v>6022</v>
-      </c>
-      <c r="S321" s="3">
-        <v>375.1</v>
-      </c>
-      <c r="T321" s="3">
-        <v>3212</v>
+        <v>367</v>
       </c>
       <c r="U321" s="3">
-        <v>283.60000000000002</v>
+        <v>312.8</v>
       </c>
       <c r="V321" s="3">
-        <v>5525</v>
+        <v>6550</v>
       </c>
       <c r="W321" s="3">
-        <v>398.7</v>
+        <v>410.4</v>
       </c>
       <c r="X321" s="3">
-        <v>3621</v>
+        <v>4479</v>
       </c>
       <c r="Z321" t="s">
-        <v>400</v>
+        <v>156</v>
       </c>
       <c r="AA321" t="s">
-        <v>401</v>
+        <v>157</v>
       </c>
       <c r="AB321" t="s">
         <v>42</v>
       </c>
       <c r="AD321" s="4">
-        <v>170</v>
+        <v>45</v>
       </c>
     </row>
     <row r="322" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C322" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D322" t="s">
         <v>28</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>619</v>
+        <v>646</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="G322" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="L322" s="3">
-        <v>129</v>
+        <v>220</v>
+      </c>
+      <c r="N322" s="3">
+        <v>1981</v>
       </c>
       <c r="U322" s="3">
-        <v>181</v>
+        <v>190.7</v>
       </c>
       <c r="V322" s="3">
-        <v>5896</v>
+        <v>6165</v>
       </c>
       <c r="W322" s="3">
-        <v>233</v>
+        <v>280.89999999999998</v>
       </c>
       <c r="X322" s="3">
-        <v>5296</v>
+        <v>4193</v>
       </c>
       <c r="Z322" t="s">
-        <v>616</v>
+        <v>104</v>
       </c>
       <c r="AA322" t="s">
-        <v>617</v>
+        <v>105</v>
       </c>
       <c r="AB322" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD322" s="4">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C323" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D323" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G323" t="s">
-        <v>623</v>
+        <v>474</v>
       </c>
       <c r="J323" s="3">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L323" s="3">
+        <v>306</v>
+      </c>
+      <c r="Q323" s="3">
+        <v>336.6</v>
+      </c>
+      <c r="R323" s="3">
+        <v>5778</v>
+      </c>
+      <c r="S323" s="3">
+        <v>550</v>
+      </c>
+      <c r="T323" s="3">
+        <v>4222</v>
       </c>
       <c r="U323" s="3">
-        <v>227.8</v>
+        <v>341.5</v>
       </c>
       <c r="V323" s="3">
-        <v>5921</v>
+        <v>4394</v>
       </c>
       <c r="W323" s="3">
-        <v>343</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="X323" s="3">
-        <v>4521</v>
+        <v>4310</v>
       </c>
       <c r="Z323" t="s">
-        <v>620</v>
+        <v>305</v>
       </c>
       <c r="AA323" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="AB323" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD323" s="4">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="324" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C324" s="4">
-        <v>10</v>
-      </c>
-      <c r="D324" t="s">
-        <v>217</v>
-      </c>
-      <c r="E324" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="L324" s="3">
-        <v>135</v>
-      </c>
-      <c r="U324" s="3">
-        <v>133.4</v>
-      </c>
-      <c r="V324" s="3">
-        <v>6587</v>
-      </c>
-      <c r="W324" s="3">
-        <v>148.5</v>
-      </c>
-      <c r="X324" s="3">
-        <v>4539</v>
-      </c>
-      <c r="Z324" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA324" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB324" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD324" s="4">
-        <v>80</v>
+      <c r="B324">
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C325" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D325" t="s">
-        <v>36</v>
+        <v>528</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G325" t="s">
-        <v>576</v>
-      </c>
-      <c r="H325" s="3" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="L325" s="3">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="Q325" s="3">
-        <v>158.69999999999999</v>
+        <v>184.2</v>
       </c>
       <c r="R325" s="3">
-        <v>4020</v>
+        <v>6393</v>
       </c>
       <c r="S325" s="3">
-        <v>348.9</v>
+        <v>236.7</v>
       </c>
       <c r="T325" s="3">
-        <v>2359</v>
+        <v>4499</v>
       </c>
       <c r="U325" s="3">
-        <v>160.6</v>
+        <v>186.4</v>
       </c>
       <c r="V325" s="3">
-        <v>4049</v>
+        <v>6385</v>
       </c>
       <c r="W325" s="3">
-        <v>350.3</v>
+        <v>234.9</v>
       </c>
       <c r="X325" s="3">
-        <v>2430</v>
+        <v>4542</v>
       </c>
       <c r="Z325" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="AA325" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="AB325" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AD325" s="4">
-        <v>40</v>
+        <v>385</v>
       </c>
     </row>
     <row r="326" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C326" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D326" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G326" t="s">
-        <v>576</v>
+        <v>602</v>
+      </c>
+      <c r="K326" t="s">
+        <v>76</v>
       </c>
       <c r="L326" s="3">
         <v>220</v>
       </c>
       <c r="Q326" s="3">
-        <v>309.60000000000002</v>
+        <v>167</v>
       </c>
       <c r="R326" s="3">
-        <v>6258</v>
+        <v>6189</v>
       </c>
       <c r="S326" s="3">
-        <v>449.1</v>
+        <v>226.7</v>
       </c>
       <c r="T326" s="3">
-        <v>3927</v>
+        <v>3026</v>
       </c>
       <c r="U326" s="3">
-        <v>308.89999999999998</v>
+        <v>167.6</v>
       </c>
       <c r="V326" s="3">
-        <v>6376</v>
+        <v>6627</v>
       </c>
       <c r="W326" s="3">
-        <v>447.1</v>
+        <v>232</v>
       </c>
       <c r="X326" s="3">
-        <v>3904</v>
+        <v>3046</v>
       </c>
       <c r="Z326" t="s">
-        <v>156</v>
+        <v>599</v>
       </c>
       <c r="AA326" t="s">
-        <v>157</v>
+        <v>600</v>
       </c>
       <c r="AB326" t="s">
         <v>42</v>
       </c>
       <c r="AD326" s="4">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="327" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C327" s="4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D327" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="F327" s="2" t="s">
-        <v>209</v>
+        <v>603</v>
+      </c>
+      <c r="G327" t="s">
+        <v>606</v>
       </c>
       <c r="K327" t="s">
         <v>76</v>
       </c>
       <c r="L327" s="3">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="U327" s="3">
-        <v>205</v>
+        <v>160.6</v>
+      </c>
+      <c r="V327" s="3">
+        <v>5334</v>
       </c>
       <c r="W327" s="3">
-        <v>240</v>
+        <v>200.5</v>
+      </c>
+      <c r="X327" s="3">
+        <v>4806</v>
       </c>
       <c r="Z327" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="AA327" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="AB327" t="s">
         <v>42</v>
       </c>
       <c r="AD327" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B328">
-        <v>1</v>
+      <c r="C328" s="4">
+        <v>4</v>
+      </c>
+      <c r="D328" t="s">
+        <v>52</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J328" s="3">
+        <v>6</v>
+      </c>
+      <c r="L328" s="3">
+        <v>150</v>
+      </c>
+      <c r="M328" s="1">
+        <v>293000</v>
+      </c>
+      <c r="U328" s="3">
+        <v>142.4</v>
+      </c>
+      <c r="V328" s="3">
+        <v>4907</v>
+      </c>
+      <c r="W328" s="3">
+        <v>234.4</v>
+      </c>
+      <c r="X328" s="3">
+        <v>3859</v>
+      </c>
+      <c r="Z328" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB328" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD328" s="4">
+        <v>413</v>
       </c>
     </row>
     <row r="329" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C329" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D329" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J329" s="3">
-        <v>6</v>
+        <v>207</v>
+      </c>
+      <c r="G329" t="s">
+        <v>609</v>
       </c>
       <c r="L329" s="3">
-        <v>193</v>
+        <v>120</v>
+      </c>
+      <c r="Q329" s="3">
+        <v>122</v>
+      </c>
+      <c r="R329" s="3">
+        <v>6640</v>
+      </c>
+      <c r="S329" s="3">
+        <v>149.1</v>
+      </c>
+      <c r="T329" s="3">
+        <v>3067</v>
       </c>
       <c r="U329" s="3">
-        <v>196.4</v>
+        <v>130.1</v>
       </c>
       <c r="V329" s="3">
-        <v>6004</v>
+        <v>6687</v>
       </c>
       <c r="W329" s="3">
-        <v>250</v>
+        <v>154.9</v>
       </c>
       <c r="X329" s="3">
-        <v>4813</v>
+        <v>3043</v>
       </c>
       <c r="Z329" t="s">
-        <v>69</v>
+        <v>552</v>
       </c>
       <c r="AA329" t="s">
-        <v>70</v>
+        <v>553</v>
       </c>
       <c r="AB329" t="s">
         <v>42</v>
       </c>
       <c r="AD329" s="4">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="330" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C330" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D330" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>208</v>
+        <v>373</v>
+      </c>
+      <c r="J330" s="3">
+        <v>5</v>
+      </c>
+      <c r="K330" t="s">
+        <v>76</v>
       </c>
       <c r="L330" s="3">
-        <v>160</v>
-      </c>
-      <c r="Q330" s="3">
-        <v>161.19999999999999</v>
-      </c>
-      <c r="R330" s="3">
-        <v>25980</v>
-      </c>
-      <c r="S330" s="3">
-        <v>212.9</v>
-      </c>
-      <c r="T330" s="3">
-        <v>4710</v>
+        <v>136</v>
       </c>
       <c r="U330" s="3">
-        <v>162.9</v>
+        <v>115.1</v>
       </c>
       <c r="V330" s="3">
-        <v>6026</v>
+        <v>6028</v>
       </c>
       <c r="W330" s="3">
-        <v>216.6</v>
+        <v>169.6</v>
       </c>
       <c r="X330" s="3">
-        <v>4748</v>
+        <v>2501</v>
       </c>
       <c r="Z330" t="s">
-        <v>312</v>
+        <v>610</v>
       </c>
       <c r="AA330" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB330" t="s">
-        <v>112</v>
+        <v>612</v>
+      </c>
+      <c r="AC330" t="s">
+        <v>611</v>
       </c>
       <c r="AD330" s="4">
-        <v>180</v>
+        <v>650</v>
       </c>
     </row>
     <row r="331" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C331" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D331" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G331" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="L331" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="Q331" s="3">
-        <v>268.3</v>
+        <v>266.89999999999998</v>
       </c>
       <c r="R331" s="3">
-        <v>5341</v>
+        <v>6022</v>
       </c>
       <c r="S331" s="3">
-        <v>440.9</v>
+        <v>375.1</v>
       </c>
       <c r="T331" s="3">
-        <v>2638</v>
+        <v>3212</v>
       </c>
       <c r="U331" s="3">
-        <v>268.2</v>
+        <v>283.60000000000002</v>
       </c>
       <c r="V331" s="3">
-        <v>5400</v>
+        <v>5525</v>
       </c>
       <c r="W331" s="3">
-        <v>448.9</v>
+        <v>398.7</v>
       </c>
       <c r="X331" s="3">
-        <v>2646</v>
+        <v>3621</v>
       </c>
       <c r="Z331" t="s">
-        <v>215</v>
+        <v>400</v>
       </c>
       <c r="AA331" t="s">
-        <v>216</v>
+        <v>401</v>
       </c>
       <c r="AB331" t="s">
         <v>42</v>
       </c>
       <c r="AD331" s="4">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="332" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C332" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D332" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>208</v>
+        <v>619</v>
       </c>
       <c r="G332" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="L332" s="3">
-        <v>139</v>
-      </c>
-      <c r="N332" s="3">
-        <v>1986</v>
-      </c>
-      <c r="Q332" s="3">
-        <v>209.1</v>
-      </c>
-      <c r="R332" s="3">
-        <v>7791</v>
-      </c>
-      <c r="S332" s="3">
-        <v>212</v>
-      </c>
-      <c r="T332" s="3">
-        <v>5755</v>
+        <v>129</v>
       </c>
       <c r="U332" s="3">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="V332" s="3">
-        <v>7966</v>
+        <v>5896</v>
       </c>
       <c r="W332" s="3">
-        <v>213.2</v>
+        <v>233</v>
       </c>
       <c r="X332" s="3">
-        <v>5807</v>
+        <v>5296</v>
+      </c>
+      <c r="Z332" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA332" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB332" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD332" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="333" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C333" s="4">
+        <v>9</v>
+      </c>
+      <c r="D333" t="s">
+        <v>52</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G333" t="s">
+        <v>623</v>
+      </c>
+      <c r="J333" s="3">
         <v>5</v>
       </c>
-      <c r="D333" t="s">
-        <v>44</v>
-      </c>
-      <c r="E333" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G333" t="s">
-        <v>594</v>
-      </c>
-      <c r="L333" s="3">
-        <v>85</v>
-      </c>
-      <c r="Q333" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="R333" s="3">
-        <v>5085</v>
-      </c>
-      <c r="S333" s="3">
-        <v>160.1</v>
-      </c>
-      <c r="T333" s="3">
-        <v>3668</v>
-      </c>
       <c r="U333" s="3">
-        <v>96.9</v>
+        <v>227.8</v>
       </c>
       <c r="V333" s="3">
-        <v>4993</v>
+        <v>5921</v>
       </c>
       <c r="W333" s="3">
-        <v>159.5</v>
+        <v>343</v>
       </c>
       <c r="X333" s="3">
-        <v>3305</v>
+        <v>4521</v>
       </c>
       <c r="Z333" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="AA333" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="AB333" t="s">
         <v>112</v>
       </c>
       <c r="AD333" s="4">
-        <v>280</v>
+        <v>130</v>
       </c>
     </row>
     <row r="334" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C334" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D334" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G334" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="L334" s="3">
-        <v>116</v>
-      </c>
-      <c r="M334" s="1">
-        <v>325000</v>
-      </c>
-      <c r="Q334" s="3">
-        <v>109.7</v>
-      </c>
-      <c r="R334" s="3">
-        <v>6570</v>
-      </c>
-      <c r="S334" s="3">
-        <v>130</v>
-      </c>
-      <c r="T334" s="3">
-        <v>5181</v>
+        <v>135</v>
       </c>
       <c r="U334" s="3">
-        <v>111.1</v>
+        <v>133.4</v>
       </c>
       <c r="V334" s="3">
-        <v>6500</v>
+        <v>6587</v>
       </c>
       <c r="W334" s="3">
-        <v>132.30000000000001</v>
+        <v>148.5</v>
       </c>
       <c r="X334" s="3">
-        <v>5179</v>
+        <v>4539</v>
       </c>
       <c r="Z334" t="s">
-        <v>47</v>
+        <v>624</v>
       </c>
       <c r="AA334" t="s">
-        <v>48</v>
+        <v>625</v>
       </c>
       <c r="AB334" t="s">
         <v>42</v>
       </c>
       <c r="AD334" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="335" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C335" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s">
+        <v>36</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G335" t="s">
+        <v>576</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L335" s="3">
+        <v>131</v>
+      </c>
+      <c r="Q335" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R335" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S335" s="3">
+        <v>348.9</v>
+      </c>
+      <c r="T335" s="3">
+        <v>2359</v>
+      </c>
+      <c r="U335" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V335" s="3">
+        <v>4049</v>
+      </c>
+      <c r="W335" s="3">
+        <v>350.3</v>
+      </c>
+      <c r="X335" s="3">
+        <v>2430</v>
+      </c>
+      <c r="Z335" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB335" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD335" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="336" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C336" s="4">
+        <v>12</v>
+      </c>
+      <c r="D336" t="s">
+        <v>44</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G336" t="s">
+        <v>576</v>
+      </c>
+      <c r="L336" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q336" s="3">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R336" s="3">
+        <v>6258</v>
+      </c>
+      <c r="S336" s="3">
+        <v>449.1</v>
+      </c>
+      <c r="T336" s="3">
+        <v>3927</v>
+      </c>
+      <c r="U336" s="3">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="V336" s="3">
+        <v>6376</v>
+      </c>
+      <c r="W336" s="3">
+        <v>447.1</v>
+      </c>
+      <c r="X336" s="3">
+        <v>3904</v>
+      </c>
+      <c r="Z336" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA336" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB336" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD336" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C337" s="4">
+        <v>13</v>
+      </c>
+      <c r="D337" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K337" t="s">
+        <v>76</v>
+      </c>
+      <c r="L337" s="3">
+        <v>193</v>
+      </c>
+      <c r="U337" s="3">
+        <v>205</v>
+      </c>
+      <c r="W337" s="3">
+        <v>240</v>
+      </c>
+      <c r="Z337" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA337" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB337" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD337" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C339" s="4">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J339" s="3">
+        <v>6</v>
+      </c>
+      <c r="L339" s="3">
+        <v>193</v>
+      </c>
+      <c r="U339" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V339" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W339" s="3">
+        <v>250</v>
+      </c>
+      <c r="X339" s="3">
+        <v>4813</v>
+      </c>
+      <c r="Z339" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB339" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD339" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="340" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C340" s="4">
+        <v>2</v>
+      </c>
+      <c r="D340" t="s">
+        <v>44</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L340" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q340" s="3">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="R340" s="3">
+        <v>25980</v>
+      </c>
+      <c r="S340" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="T340" s="3">
+        <v>4710</v>
+      </c>
+      <c r="U340" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="V340" s="3">
+        <v>6026</v>
+      </c>
+      <c r="W340" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="X340" s="3">
+        <v>4748</v>
+      </c>
+      <c r="Z340" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB340" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD340" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="341" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C341" s="4">
+        <v>3</v>
+      </c>
+      <c r="D341" t="s">
+        <v>38</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G341" t="s">
+        <v>588</v>
+      </c>
+      <c r="L341" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q341" s="3">
+        <v>268.3</v>
+      </c>
+      <c r="R341" s="3">
+        <v>5341</v>
+      </c>
+      <c r="S341" s="3">
+        <v>440.9</v>
+      </c>
+      <c r="T341" s="3">
+        <v>2638</v>
+      </c>
+      <c r="U341" s="3">
+        <v>268.2</v>
+      </c>
+      <c r="V341" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W341" s="3">
+        <v>448.9</v>
+      </c>
+      <c r="X341" s="3">
+        <v>2646</v>
+      </c>
+      <c r="Z341" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB341" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD341" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C342" s="4">
+        <v>4</v>
+      </c>
+      <c r="D342" t="s">
+        <v>44</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G342" t="s">
+        <v>590</v>
+      </c>
+      <c r="L342" s="3">
+        <v>139</v>
+      </c>
+      <c r="N342" s="3">
+        <v>1986</v>
+      </c>
+      <c r="Q342" s="3">
+        <v>209.1</v>
+      </c>
+      <c r="R342" s="3">
+        <v>7791</v>
+      </c>
+      <c r="S342" s="3">
+        <v>212</v>
+      </c>
+      <c r="T342" s="3">
+        <v>5755</v>
+      </c>
+      <c r="U342" s="3">
+        <v>208</v>
+      </c>
+      <c r="V342" s="3">
+        <v>7966</v>
+      </c>
+      <c r="W342" s="3">
+        <v>213.2</v>
+      </c>
+      <c r="X342" s="3">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="343" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C343" s="4">
+        <v>5</v>
+      </c>
+      <c r="D343" t="s">
+        <v>44</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G343" t="s">
+        <v>594</v>
+      </c>
+      <c r="L343" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q343" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="R343" s="3">
+        <v>5085</v>
+      </c>
+      <c r="S343" s="3">
+        <v>160.1</v>
+      </c>
+      <c r="T343" s="3">
+        <v>3668</v>
+      </c>
+      <c r="U343" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="V343" s="3">
+        <v>4993</v>
+      </c>
+      <c r="W343" s="3">
+        <v>159.5</v>
+      </c>
+      <c r="X343" s="3">
+        <v>3305</v>
+      </c>
+      <c r="Z343" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA343" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB343" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD343" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="344" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C344" s="4">
+        <v>6</v>
+      </c>
+      <c r="D344" t="s">
+        <v>178</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G344" t="s">
+        <v>595</v>
+      </c>
+      <c r="L344" s="3">
+        <v>116</v>
+      </c>
+      <c r="M344" s="1">
+        <v>325000</v>
+      </c>
+      <c r="Q344" s="3">
+        <v>109.7</v>
+      </c>
+      <c r="R344" s="3">
+        <v>6570</v>
+      </c>
+      <c r="S344" s="3">
+        <v>130</v>
+      </c>
+      <c r="T344" s="3">
+        <v>5181</v>
+      </c>
+      <c r="U344" s="3">
+        <v>111.1</v>
+      </c>
+      <c r="V344" s="3">
+        <v>6500</v>
+      </c>
+      <c r="W344" s="3">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="X344" s="3">
+        <v>5179</v>
+      </c>
+      <c r="Z344" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD344" s="4">
         <v>36</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gfneducation-my.sharepoint.com/personal/thorsten_oje_gfn_education/Documents/Dokumente/projects/Halle77Dyno/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2084BE03-0765-42FB-9C0A-A1D4AAF9CE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{2084BE03-0765-42FB-9C0A-A1D4AAF9CE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E1003F-E4BF-47CB-A804-D72C9049E9AF}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="420" windowWidth="21600" windowHeight="12588" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H77Dyno" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="633">
   <si>
     <t>Episode</t>
   </si>
@@ -1916,6 +1917,9 @@
   </si>
   <si>
     <t>328i</t>
+  </si>
+  <si>
+    <t>E38 (740i)</t>
   </si>
 </sst>
 </file>
@@ -2766,41 +2770,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="C312" sqref="C312"/>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:L334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="4.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4"/>
-    <col min="6" max="6" width="11.42578125" style="2"/>
-    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="1.85546875" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.7109375" customWidth="1"/>
-    <col min="26" max="26" width="4.7109375" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" customWidth="1"/>
-    <col min="30" max="30" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="4"/>
+    <col min="6" max="6" width="11.44140625" style="2"/>
+    <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="1.88671875" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.5546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="7.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.6640625" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="5.5546875" customWidth="1"/>
+    <col min="30" max="30" width="16.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>1</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2897,12 +2901,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C5" s="4">
         <v>1</v>
       </c>
@@ -2949,7 +2953,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C6" s="4">
         <v>2</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>3</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
         <v>4</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>5</v>
       </c>
@@ -3137,7 +3141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>6</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>7</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>8</v>
       </c>
@@ -3290,7 +3294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>9</v>
       </c>
@@ -3337,7 +3341,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
         <v>10</v>
       </c>
@@ -3381,12 +3385,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
         <v>1</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>4677</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>2</v>
       </c>
@@ -3480,7 +3484,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>3</v>
       </c>
@@ -3530,7 +3534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>4</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C20" s="4">
         <v>5</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C21" s="4">
         <v>6</v>
       </c>
@@ -3663,7 +3667,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C22" s="4">
         <v>7</v>
       </c>
@@ -3701,12 +3705,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C24" s="4">
         <v>1</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C25" s="4">
         <v>2</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C26" s="4">
         <v>3</v>
       </c>
@@ -3862,7 +3866,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>4</v>
       </c>
@@ -3912,7 +3916,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C28" s="4">
         <v>5</v>
       </c>
@@ -3959,7 +3963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>6</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C30" s="4">
         <v>7</v>
       </c>
@@ -4068,12 +4072,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C32" s="4">
         <v>1</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C33" s="4">
         <v>2</v>
       </c>
@@ -4170,7 +4174,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C34" s="4">
         <v>3</v>
       </c>
@@ -4223,7 +4227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C35" s="4">
         <v>4</v>
       </c>
@@ -4270,12 +4274,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C37" s="4">
         <v>1</v>
       </c>
@@ -4322,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C38" s="4">
         <v>2</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C39" s="4">
         <v>3</v>
       </c>
@@ -4431,7 +4435,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C40" s="4">
         <v>4</v>
       </c>
@@ -4478,7 +4482,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C41" s="4">
         <v>5</v>
       </c>
@@ -4531,7 +4535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C42" s="4">
         <v>6</v>
       </c>
@@ -4593,7 +4597,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C43" s="4">
         <v>7</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C44" s="4">
         <v>8</v>
       </c>
@@ -4687,7 +4691,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C45" s="4">
         <v>9</v>
       </c>
@@ -4734,7 +4738,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C46" s="4">
         <v>10</v>
       </c>
@@ -4790,7 +4794,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C47" s="4">
         <v>11</v>
       </c>
@@ -4846,12 +4850,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C49" s="4">
         <v>1</v>
       </c>
@@ -4916,7 +4920,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C50" s="4">
         <v>2</v>
       </c>
@@ -4963,7 +4967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C51" s="4">
         <v>3</v>
       </c>
@@ -5022,7 +5026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C52" s="4">
         <v>4</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C53" s="4">
         <v>5</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C54" s="4">
         <v>6</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C55" s="4">
         <v>7</v>
       </c>
@@ -5207,7 +5211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C56" s="4">
         <v>8</v>
       </c>
@@ -5257,7 +5261,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C57" s="4">
         <v>9</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C58" s="4">
         <v>10</v>
       </c>
@@ -5351,7 +5355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C59" s="4">
         <v>11</v>
       </c>
@@ -5407,7 +5411,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C60" s="4">
         <v>12</v>
       </c>
@@ -5466,12 +5470,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C62" s="4">
         <v>1</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C63" s="4">
         <v>2</v>
       </c>
@@ -5568,7 +5572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C64" s="4">
         <v>3</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C65" s="4">
         <v>4</v>
       </c>
@@ -5677,7 +5681,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C66" s="4">
         <v>5</v>
       </c>
@@ -5721,7 +5725,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C67" s="4">
         <v>6</v>
       </c>
@@ -5765,7 +5769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C68" s="4">
         <v>7</v>
       </c>
@@ -5812,7 +5816,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C69" s="4">
         <v>8</v>
       </c>
@@ -5856,12 +5860,12 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C71" s="4">
         <v>1</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C72" s="4">
         <v>2</v>
       </c>
@@ -5961,7 +5965,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C73" s="4">
         <v>3</v>
       </c>
@@ -6014,7 +6018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C74" s="4">
         <v>4</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C75" s="4">
         <v>5</v>
       </c>
@@ -6111,7 +6115,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C76" s="4">
         <v>6</v>
       </c>
@@ -6167,7 +6171,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C77" s="4">
         <v>7</v>
       </c>
@@ -6232,12 +6236,12 @@
         <v>950</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C79" s="4">
         <v>1</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C80" s="4">
         <v>2</v>
       </c>
@@ -6346,7 +6350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C82" s="4">
         <v>4</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C83" s="4">
         <v>5</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C84" s="4">
         <v>6</v>
       </c>
@@ -6537,7 +6541,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C85" s="4">
         <v>7</v>
       </c>
@@ -6593,7 +6597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C86" s="4">
         <v>8</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C87" s="4">
         <v>9</v>
       </c>
@@ -6690,7 +6694,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C88" s="4">
         <v>10</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C89" s="4">
         <v>11</v>
       </c>
@@ -6805,7 +6809,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C90" s="4">
         <v>12</v>
       </c>
@@ -6855,12 +6859,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C92" s="4">
         <v>1</v>
       </c>
@@ -6922,7 +6926,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C93" s="4">
         <v>2</v>
       </c>
@@ -6975,7 +6979,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C94" s="4">
         <v>3</v>
       </c>
@@ -7025,7 +7029,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C95" s="4">
         <v>4</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C96" s="4">
         <v>5</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C97" s="4">
         <v>6</v>
       </c>
@@ -7157,7 +7161,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="98" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C98" s="4">
         <v>7</v>
       </c>
@@ -7207,7 +7211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C99" s="4">
         <v>8</v>
       </c>
@@ -7254,7 +7258,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C100" s="4">
         <v>9</v>
       </c>
@@ -7304,7 +7308,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C101" s="4">
         <v>10</v>
       </c>
@@ -7354,7 +7358,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C102" s="4">
         <v>11</v>
       </c>
@@ -7386,7 +7390,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C103" s="4">
         <v>12</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C104" s="4">
         <v>13</v>
       </c>
@@ -7480,7 +7484,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C105" s="4">
         <v>14</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C106" s="4">
         <v>15</v>
       </c>
@@ -7574,7 +7578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C107" s="4">
         <v>16</v>
       </c>
@@ -7621,12 +7625,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C109" s="4">
         <v>1</v>
       </c>
@@ -7679,7 +7683,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C110" s="4">
         <v>2</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="111" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C111" s="4">
         <v>3</v>
       </c>
@@ -7782,7 +7786,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C112" s="4">
         <v>4</v>
       </c>
@@ -7832,7 +7836,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C113" s="4">
         <v>5</v>
       </c>
@@ -7888,7 +7892,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C114" s="4">
         <v>6</v>
       </c>
@@ -7941,7 +7945,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="115" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C115" s="4">
         <v>7</v>
       </c>
@@ -7988,7 +7992,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C116" s="4">
         <v>8</v>
       </c>
@@ -8032,7 +8036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C117" s="4">
         <v>9</v>
       </c>
@@ -8076,12 +8080,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C119" s="4">
         <v>1</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="120" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C120" s="4">
         <v>2</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="121" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C121" s="4">
         <v>3</v>
       </c>
@@ -8222,7 +8226,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="122" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C122" s="4">
         <v>4</v>
       </c>
@@ -8272,7 +8276,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="123" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C123" s="4">
         <v>5</v>
       </c>
@@ -8325,7 +8329,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="124" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C124" s="4">
         <v>6</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C125" s="4">
         <v>7</v>
       </c>
@@ -8422,7 +8426,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C126" s="4">
         <v>8</v>
       </c>
@@ -8469,7 +8473,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C127" s="4">
         <v>9</v>
       </c>
@@ -8510,7 +8514,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="128" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C128" s="4">
         <v>10</v>
       </c>
@@ -8566,7 +8570,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="129" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C129" s="4">
         <v>11</v>
       </c>
@@ -8631,7 +8635,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C130" s="4">
         <v>12</v>
       </c>
@@ -8681,7 +8685,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C131" s="4">
         <v>13</v>
       </c>
@@ -8740,12 +8744,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C133" s="4">
         <v>1</v>
       </c>
@@ -8795,7 +8799,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="134" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C134" s="4">
         <v>2</v>
       </c>
@@ -8848,7 +8852,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="135" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C135" s="4">
         <v>3</v>
       </c>
@@ -8910,7 +8914,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C136" s="4">
         <v>4</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C137" s="4">
         <v>5</v>
       </c>
@@ -9001,7 +9005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C138" s="4">
         <v>6</v>
       </c>
@@ -9051,7 +9055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C139" s="4">
         <v>7</v>
       </c>
@@ -9107,7 +9111,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C140" s="4">
         <v>8</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="141" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C141" s="4">
         <v>9</v>
       </c>
@@ -9189,7 +9193,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="142" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C142" s="4">
         <v>10</v>
       </c>
@@ -9236,7 +9240,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="143" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C143" s="4">
         <v>11</v>
       </c>
@@ -9280,7 +9284,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C144" s="4">
         <v>12</v>
       </c>
@@ -9324,7 +9328,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="145" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C145" s="4">
         <v>13</v>
       </c>
@@ -9380,7 +9384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C146" s="4">
         <v>14</v>
       </c>
@@ -9427,7 +9431,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="147" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C147" s="4">
         <v>15</v>
       </c>
@@ -9471,7 +9475,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="148" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C148" s="4">
         <v>16</v>
       </c>
@@ -9524,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C149" s="4">
         <v>17</v>
       </c>
@@ -9574,12 +9578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C151" s="4">
         <v>1</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="152" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C152" s="4">
         <v>2</v>
       </c>
@@ -9676,7 +9680,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="153" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C153" s="4">
         <v>3</v>
       </c>
@@ -9726,7 +9730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C154" s="4">
         <v>4</v>
       </c>
@@ -9782,7 +9786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C155" s="4">
         <v>5</v>
       </c>
@@ -9832,7 +9836,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="156" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C156" s="4">
         <v>6</v>
       </c>
@@ -9879,7 +9883,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C157" s="4">
         <v>7</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C158" s="4">
         <v>8</v>
       </c>
@@ -9970,7 +9974,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="159" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C159" s="4">
         <v>9</v>
       </c>
@@ -10017,7 +10021,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="160" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C160" s="4">
         <v>10</v>
       </c>
@@ -10061,7 +10065,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="161" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C161" s="4">
         <v>11</v>
       </c>
@@ -10114,7 +10118,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="162" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C162" s="4">
         <v>12</v>
       </c>
@@ -10164,7 +10168,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C163" s="4">
         <v>13</v>
       </c>
@@ -10214,12 +10218,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="164" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C165" s="4">
         <v>1</v>
       </c>
@@ -10266,7 +10270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="166" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C166" s="4">
         <v>2</v>
       </c>
@@ -10310,7 +10314,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="167" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C167" s="4">
         <v>3</v>
       </c>
@@ -10354,7 +10358,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="168" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C168" s="4">
         <v>4</v>
       </c>
@@ -10398,7 +10402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C169" s="4">
         <v>5</v>
       </c>
@@ -10445,7 +10449,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="170" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C170" s="4">
         <v>6</v>
       </c>
@@ -10510,7 +10514,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C171" s="4">
         <v>7</v>
       </c>
@@ -10572,7 +10576,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C172" s="4">
         <v>8</v>
       </c>
@@ -10616,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C173" s="4">
         <v>9</v>
       </c>
@@ -10660,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C174" s="4">
         <v>10</v>
       </c>
@@ -10698,7 +10702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="175" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C175" s="4">
         <v>11</v>
       </c>
@@ -10748,7 +10752,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="176" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C176" s="4">
         <v>12</v>
       </c>
@@ -10789,7 +10793,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="177" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C177" s="4">
         <v>13</v>
       </c>
@@ -10833,7 +10837,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="178" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C178" s="4">
         <v>14</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="179" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C179" s="4">
         <v>15</v>
       </c>
@@ -10921,7 +10925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C180" s="4">
         <v>16</v>
       </c>
@@ -10968,12 +10972,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="181" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B181">
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C182" s="4">
         <v>1</v>
       </c>
@@ -11018,7 +11022,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="183" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C183" s="4">
         <v>2</v>
       </c>
@@ -11065,7 +11069,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="184" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C184" s="4">
         <v>3</v>
       </c>
@@ -11106,7 +11110,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="185" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C185" s="4">
         <v>4</v>
       </c>
@@ -11147,7 +11151,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C186" s="4">
         <v>5</v>
       </c>
@@ -11188,7 +11192,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C187" s="4">
         <v>6</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="188" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C188" s="4">
         <v>7</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="189" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C189" s="4">
         <v>8</v>
       </c>
@@ -11326,7 +11330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C190" s="4">
         <v>9</v>
       </c>
@@ -11382,7 +11386,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="191" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C191" s="4">
         <v>10</v>
       </c>
@@ -11441,7 +11445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C192" s="4">
         <v>11</v>
       </c>
@@ -11491,7 +11495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="193" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C193" s="4">
         <v>12</v>
       </c>
@@ -11535,7 +11539,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="194" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C194" s="4">
         <v>13</v>
       </c>
@@ -11576,7 +11580,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="195" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C195" s="4">
         <v>14</v>
       </c>
@@ -11623,257 +11627,257 @@
         <v>300</v>
       </c>
     </row>
-    <row r="196" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C197" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C198" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C199" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C200" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C201" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C202" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C203" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C204" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C205" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C206" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B207">
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218">
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228">
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237">
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246">
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254">
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261">
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263">
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265">
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267">
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269">
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271">
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273">
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275">
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277">
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279">
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281">
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283">
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285">
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287">
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B289">
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B291">
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B293">
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B295">
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B297">
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B299">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B301">
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B303">
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C304" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C305" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C306" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C307" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C308" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C309" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C310" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C311" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C312" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C313" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B314">
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C315" s="4">
         <v>1</v>
       </c>
@@ -11926,7 +11930,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="316" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C316" s="4">
         <v>2</v>
       </c>
@@ -11982,7 +11986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="317" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C317" s="4">
         <v>3</v>
       </c>
@@ -12026,7 +12030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C318" s="4">
         <v>4</v>
       </c>
@@ -12073,7 +12077,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="319" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C319" s="4">
         <v>5</v>
       </c>
@@ -12129,7 +12133,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="320" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C320" s="4">
         <v>6</v>
       </c>
@@ -12176,7 +12180,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="321" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C321" s="4">
         <v>7</v>
       </c>
@@ -12232,7 +12236,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="322" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C322" s="4">
         <v>8</v>
       </c>
@@ -12273,7 +12277,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="323" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C323" s="4">
         <v>9</v>
       </c>
@@ -12317,7 +12321,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="324" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C324" s="4">
         <v>10</v>
       </c>
@@ -12355,7 +12359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="325" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C325" s="4">
         <v>11</v>
       </c>
@@ -12414,7 +12418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="326" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C326" s="4">
         <v>12</v>
       </c>
@@ -12470,7 +12474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="327" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C327" s="4">
         <v>13</v>
       </c>
@@ -12508,12 +12512,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B328">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C329" s="4">
         <v>1</v>
       </c>
@@ -12557,7 +12561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="330" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C330" s="4">
         <v>2</v>
       </c>
@@ -12610,7 +12614,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="331" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C331" s="4">
         <v>3</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C332" s="4">
         <v>4</v>
       </c>
@@ -12713,7 +12717,7 @@
         <v>5807</v>
       </c>
     </row>
-    <row r="333" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C333" s="4">
         <v>5</v>
       </c>
@@ -12769,7 +12773,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="334" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C334" s="4">
         <v>6</v>
       </c>
@@ -12832,4 +12836,3370 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B84CD20-8426-4B06-B241-7E5093E1B4E0}">
+  <dimension ref="A1:I211"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="8" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s">
+        <v>465</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="3">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="3">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s">
+        <v>623</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="G29" s="3">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s">
+        <v>618</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="I30" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="I32" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="I33" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="G34" s="3">
+        <v>8</v>
+      </c>
+      <c r="I34" s="3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="I35" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="I37" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="I39" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="G40" s="3">
+        <v>6</v>
+      </c>
+      <c r="I40" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="I41" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="I42" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s">
+        <v>357</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="G43" s="3">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="I44" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="G46" s="3">
+        <v>6</v>
+      </c>
+      <c r="I46" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="I49" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="3">
+        <v>6</v>
+      </c>
+      <c r="I50" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="I51" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="G52" s="3">
+        <v>6</v>
+      </c>
+      <c r="I52" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="I53" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="I54" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="I55" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="G56" s="3">
+        <v>6</v>
+      </c>
+      <c r="I56" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="I57" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>360</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" t="s">
+        <v>507</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="I58" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>543</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="G59" s="3">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>534</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="G60" s="3">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>534</v>
+      </c>
+      <c r="B61" s="4">
+        <v>130</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="G61" s="3">
+        <v>6</v>
+      </c>
+      <c r="I61" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="I62" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="I63" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="I64" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="I65" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D66" t="s">
+        <v>454</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="I66" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="I67" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="I68" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="G69" s="3">
+        <v>6</v>
+      </c>
+      <c r="I69" s="3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>588</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="I70" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="E71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>412</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>412</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D73" t="s">
+        <v>415</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="I73" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>412</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" t="s">
+        <v>584</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="I74" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="I75" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="G76" s="3">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="I77" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="G78" s="3">
+        <v>6</v>
+      </c>
+      <c r="I78" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="I79" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="I80" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>278</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="E81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="I81" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>278</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="G82" s="3">
+        <v>6</v>
+      </c>
+      <c r="I82" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="I83" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="G84" s="3">
+        <v>8</v>
+      </c>
+      <c r="H84" t="s">
+        <v>76</v>
+      </c>
+      <c r="I84" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" s="3">
+        <v>5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D87" t="s">
+        <v>396</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="I87" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s">
+        <v>503</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" t="s">
+        <v>76</v>
+      </c>
+      <c r="I88" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="I89" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s">
+        <v>606</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" t="s">
+        <v>76</v>
+      </c>
+      <c r="I91" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="I92" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D93" t="s">
+        <v>236</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="I93" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s">
+        <v>381</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="I94" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="I95" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="E96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="I96" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>528</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" t="s">
+        <v>530</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="I97" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>528</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="I98" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="E99" s="3"/>
+      <c r="G99" s="3">
+        <v>6</v>
+      </c>
+      <c r="I99" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>407</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="E100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="I100" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="I101" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" t="s">
+        <v>488</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="I102" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" t="s">
+        <v>155</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="I103" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" t="s">
+        <v>177</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="I104" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="I105" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="I106" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>36</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="I107" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="I108" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>36</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="E109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="I109" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s">
+        <v>294</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="I110" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="I111" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>36</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" t="s">
+        <v>76</v>
+      </c>
+      <c r="I112" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="I113" s="3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>36</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="I114" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s">
+        <v>350</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="I115" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="I116" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="I117" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D118" t="s">
+        <v>539</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="I118" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="I119" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D120" t="s">
+        <v>570</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="I120" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D121" t="s">
+        <v>576</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="I121" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>421</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" t="s">
+        <v>423</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="I122" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>421</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="E123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="I123" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D124" t="s">
+        <v>85</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="I124" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>197</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s">
+        <v>199</v>
+      </c>
+      <c r="E125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="I125" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="I126" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="I127" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>217</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s">
+        <v>355</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="I128" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>217</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="I129" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>217</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" t="s">
+        <v>615</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="I130" s="3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>217</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="E131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="I131" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>89</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132" t="s">
+        <v>91</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="I132" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>89</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="I133" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>303</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="I134" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" t="s">
+        <v>180</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="I135" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="E136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="I136" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>178</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="I137" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>178</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="I138" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" t="s">
+        <v>506</v>
+      </c>
+      <c r="E139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="I139" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D140" t="s">
+        <v>595</v>
+      </c>
+      <c r="E140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="I140" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>493</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D141" t="s">
+        <v>495</v>
+      </c>
+      <c r="E141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="I141" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="I142" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" t="s">
+        <v>76</v>
+      </c>
+      <c r="I143" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D144" t="s">
+        <v>434</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" s="3"/>
+      <c r="I144" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="I145" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G146" s="3"/>
+      <c r="I146" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>44</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" t="s">
+        <v>63</v>
+      </c>
+      <c r="G147" s="3"/>
+      <c r="I147" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D148" t="s">
+        <v>68</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="I148" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E149" s="3"/>
+      <c r="F149" t="s">
+        <v>96</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="I149" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="I150" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="I151" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="I152" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" t="s">
+        <v>32</v>
+      </c>
+      <c r="I153" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>44</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D154" t="s">
+        <v>148</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="I154" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>44</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="G155" s="3">
+        <v>5</v>
+      </c>
+      <c r="H155" t="s">
+        <v>76</v>
+      </c>
+      <c r="I155" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" t="s">
+        <v>186</v>
+      </c>
+      <c r="E156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="I156" s="3"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="G157" s="3">
+        <v>5</v>
+      </c>
+      <c r="I157" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D158" t="s">
+        <v>222</v>
+      </c>
+      <c r="E158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="I158" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>44</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D159" t="s">
+        <v>231</v>
+      </c>
+      <c r="E159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="I159" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>44</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="I160" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>44</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D161" t="s">
+        <v>221</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="I161" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>44</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" t="s">
+        <v>247</v>
+      </c>
+      <c r="E162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="I162" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D163" t="s">
+        <v>267</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="I163" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="E164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="I164" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>44</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="I165" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="I166" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>44</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" t="s">
+        <v>310</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="I167" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="I168" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>44</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" t="s">
+        <v>320</v>
+      </c>
+      <c r="E169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="I169" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>44</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D170" t="s">
+        <v>365</v>
+      </c>
+      <c r="E170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="I170" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>44</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D171" t="s">
+        <v>380</v>
+      </c>
+      <c r="E171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="I171" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>44</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D172" t="s">
+        <v>398</v>
+      </c>
+      <c r="E172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="I172" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>44</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="E173" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G173" s="3"/>
+      <c r="I173" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>44</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="E174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="I174" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>44</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D175" t="s">
+        <v>452</v>
+      </c>
+      <c r="E175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="I175" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>44</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G176" s="3">
+        <v>5</v>
+      </c>
+      <c r="I176" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>44</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D177" t="s">
+        <v>465</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="G177" s="3">
+        <v>6</v>
+      </c>
+      <c r="H177" t="s">
+        <v>76</v>
+      </c>
+      <c r="I177" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>44</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D178" t="s">
+        <v>532</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="I178" s="3"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>44</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="E179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="I179" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>44</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="I180" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>44</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="I181" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>44</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D182" t="s">
+        <v>564</v>
+      </c>
+      <c r="E182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="I182" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="G183" s="3">
+        <v>5</v>
+      </c>
+      <c r="I183" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>44</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D184" t="s">
+        <v>609</v>
+      </c>
+      <c r="E184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="I184" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>44</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D185" t="s">
+        <v>576</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="I185" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>44</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="I186" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>44</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D187" t="s">
+        <v>590</v>
+      </c>
+      <c r="E187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="I187" s="3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>44</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D188" t="s">
+        <v>594</v>
+      </c>
+      <c r="E188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="I188" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>74</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="E189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" t="s">
+        <v>76</v>
+      </c>
+      <c r="I189" s="3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>74</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="E190" s="3"/>
+      <c r="G190" s="3">
+        <v>5</v>
+      </c>
+      <c r="H190" t="s">
+        <v>76</v>
+      </c>
+      <c r="I190" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>74</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D191" t="s">
+        <v>225</v>
+      </c>
+      <c r="E191" s="3"/>
+      <c r="G191" s="3">
+        <v>5</v>
+      </c>
+      <c r="H191" t="s">
+        <v>32</v>
+      </c>
+      <c r="I191" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>74</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G192" s="3"/>
+      <c r="H192" t="s">
+        <v>76</v>
+      </c>
+      <c r="I192" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>74</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="E193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" t="s">
+        <v>76</v>
+      </c>
+      <c r="I193" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>74</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E194" s="3"/>
+      <c r="G194" s="3">
+        <v>4</v>
+      </c>
+      <c r="I194" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>74</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" t="s">
+        <v>576</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="G195" s="3">
+        <v>5</v>
+      </c>
+      <c r="I195" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B196" s="4"/>
+      <c r="C196" s="2"/>
+      <c r="E196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="I196" s="3"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B197" s="4"/>
+      <c r="C197" s="2"/>
+      <c r="E197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="I197" s="3"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B198" s="4"/>
+      <c r="C198" s="2"/>
+      <c r="E198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="I198" s="3"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B199" s="4"/>
+      <c r="C199" s="2"/>
+      <c r="E199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B200" s="4"/>
+      <c r="C200" s="2"/>
+      <c r="E200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B201" s="4"/>
+      <c r="C201" s="2"/>
+      <c r="E201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="I201" s="3"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B202" s="4"/>
+      <c r="C202" s="2"/>
+      <c r="E202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="I202" s="3"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B203" s="4"/>
+      <c r="C203" s="2"/>
+      <c r="E203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="I203" s="3"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B204" s="4"/>
+      <c r="C204" s="2"/>
+      <c r="E204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="I204" s="3"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B205" s="4"/>
+      <c r="C205" s="2"/>
+      <c r="E205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="I205" s="3"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B206" s="4"/>
+      <c r="C206" s="2"/>
+      <c r="E206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="I206" s="3"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B207" s="4"/>
+      <c r="C207" s="2"/>
+      <c r="E207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="I207" s="3"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B208" s="4"/>
+      <c r="C208" s="2"/>
+      <c r="E208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B209" s="4"/>
+      <c r="C209" s="2"/>
+      <c r="E209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="I209" s="3"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B210" s="4"/>
+      <c r="C210" s="2"/>
+      <c r="E210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="I210" s="3"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B211" s="4"/>
+      <c r="C211" s="2"/>
+      <c r="E211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="I211" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:I58">
+    <sortCondition ref="B25:B58"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A1B50F-58A1-46F0-AB23-8521EC7B8281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A03C7C6-7ED1-440B-BF58-A2D34C9B706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A03C7C6-7ED1-440B-BF58-A2D34C9B706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED0630-A9C4-481C-9289-C666DAF1830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="678">
   <si>
     <t>Episode</t>
   </si>
@@ -1967,6 +1967,93 @@
   </si>
   <si>
     <t>335i</t>
+  </si>
+  <si>
+    <t>Passat (B7) TDI</t>
+  </si>
+  <si>
+    <t>Tuningbox</t>
+  </si>
+  <si>
+    <t>Astra (H) OPC</t>
+  </si>
+  <si>
+    <t>Golf TSI</t>
+  </si>
+  <si>
+    <t>Nadines Papas Auto</t>
+  </si>
+  <si>
+    <t>UP! GTI</t>
+  </si>
+  <si>
+    <t>2. Messung mit Tuningbox</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>1. Messung mit laufender Klimaanlage</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Vogdtlandkreis</t>
+  </si>
+  <si>
+    <t>E46 320D</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>Leistung am Reifen, 2. Messung ohne Trichter</t>
+  </si>
+  <si>
+    <t>ROD</t>
+  </si>
+  <si>
+    <t>Roding</t>
+  </si>
+  <si>
+    <t>Benzinpumpenrelais</t>
+  </si>
+  <si>
+    <t>E30 318i</t>
+  </si>
+  <si>
+    <t>T3 (Carat)</t>
+  </si>
+  <si>
+    <t>3.2 Subaru Motor, Serie 136 PS</t>
+  </si>
+  <si>
+    <t>Jaguar</t>
+  </si>
+  <si>
+    <t>(TD)</t>
+  </si>
+  <si>
+    <t>HMÜ</t>
+  </si>
+  <si>
+    <t>Hannover-Muünden</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>Offenbach</t>
+  </si>
+  <si>
+    <t>Fächerkrümmer</t>
   </si>
 </sst>
 </file>
@@ -2815,10 +2902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE344"/>
+  <dimension ref="A1:AE348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="H323" sqref="H323"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="W315" sqref="W315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11829,1397 +11916,1829 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C302" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>44</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G302" t="s">
+        <v>650</v>
+      </c>
+      <c r="K302" t="s">
+        <v>76</v>
+      </c>
+      <c r="L302" s="3">
+        <v>140</v>
+      </c>
+      <c r="Q302" s="3">
+        <v>154.6</v>
+      </c>
+      <c r="R302" s="3">
+        <v>39115</v>
+      </c>
+      <c r="S302" s="3">
+        <v>367.9</v>
+      </c>
+      <c r="T302" s="3">
+        <v>2264</v>
+      </c>
+      <c r="U302" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="V302" s="3">
+        <v>3982</v>
+      </c>
+      <c r="W302" s="3">
+        <v>368.3</v>
+      </c>
+      <c r="X302" s="3">
+        <v>2346</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="303" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C303" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>36</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="L303" s="3">
+        <v>241</v>
+      </c>
+      <c r="Q303" s="3">
+        <v>227.4</v>
+      </c>
+      <c r="R303" s="3">
+        <v>5706</v>
+      </c>
+      <c r="S303" s="3">
+        <v>329.2</v>
+      </c>
+      <c r="T303" s="3">
+        <v>3772</v>
+      </c>
+      <c r="U303" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="V303" s="3">
+        <v>5120</v>
+      </c>
+      <c r="W303" s="3">
+        <v>327.39999999999998</v>
+      </c>
+      <c r="X303" s="3">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="304" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C304" s="4">
         <v>3</v>
+      </c>
+      <c r="D304" t="s">
+        <v>44</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G304" t="s">
+        <v>653</v>
+      </c>
+      <c r="L304" s="3">
+        <v>122</v>
+      </c>
+      <c r="M304" s="1">
+        <v>197000</v>
+      </c>
+      <c r="U304" s="3">
+        <v>123.1</v>
+      </c>
+      <c r="V304" s="3">
+        <v>5319</v>
+      </c>
+      <c r="W304" s="3">
+        <v>195</v>
+      </c>
+      <c r="X304" s="3">
+        <v>3891</v>
+      </c>
+      <c r="Z304" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C305" s="4">
         <v>4</v>
       </c>
+      <c r="D305" t="s">
+        <v>44</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="G305" t="s">
+        <v>655</v>
+      </c>
+      <c r="L305" s="3">
+        <v>115</v>
+      </c>
+      <c r="Q305" s="3">
+        <v>126.6</v>
+      </c>
+      <c r="R305" s="3">
+        <v>5245</v>
+      </c>
+      <c r="S305" s="3">
+        <v>225.8</v>
+      </c>
+      <c r="T305" s="3">
+        <v>3364</v>
+      </c>
+      <c r="U305" s="3">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="V305" s="3">
+        <v>5784</v>
+      </c>
+      <c r="W305" s="3">
+        <v>2440</v>
+      </c>
+      <c r="X305" s="3">
+        <v>3011</v>
+      </c>
+      <c r="Z305" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="306" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C306" s="4">
         <v>5</v>
       </c>
+      <c r="D306" t="s">
+        <v>52</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G306" t="s">
+        <v>657</v>
+      </c>
+      <c r="L306" s="3">
+        <v>102</v>
+      </c>
+      <c r="M306" s="1">
+        <v>550881</v>
+      </c>
+      <c r="Q306" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="R306" s="3">
+        <v>5587</v>
+      </c>
+      <c r="S306" s="3">
+        <v>127.1</v>
+      </c>
+      <c r="T306" s="3">
+        <v>4187</v>
+      </c>
+      <c r="U306" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="V306" s="3">
+        <v>5617</v>
+      </c>
+      <c r="W306" s="3">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="X306" s="3">
+        <v>4055</v>
+      </c>
+      <c r="Z306" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C307" s="4">
         <v>6</v>
       </c>
+      <c r="D307" t="s">
+        <v>52</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="J307" s="3">
+        <v>5</v>
+      </c>
+      <c r="L307" s="3">
+        <v>133</v>
+      </c>
+      <c r="Q307" s="3">
+        <v>113.3</v>
+      </c>
+      <c r="R307" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S307" s="3">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="T307" s="3">
+        <v>3992</v>
+      </c>
+      <c r="U307" s="3">
+        <v>117.4</v>
+      </c>
+      <c r="V307" s="3">
+        <v>5951</v>
+      </c>
+      <c r="W307" s="3">
+        <v>168.2</v>
+      </c>
+      <c r="X307" s="3">
+        <v>3955</v>
+      </c>
+      <c r="Z307" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="308" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C308" s="4">
         <v>7</v>
       </c>
+      <c r="D308" t="s">
+        <v>28</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L308" s="3">
+        <v>150</v>
+      </c>
+      <c r="M308" s="1">
+        <v>200000</v>
+      </c>
+      <c r="U308" s="3">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="V308" s="3">
+        <v>3922</v>
+      </c>
+      <c r="W308" s="3">
+        <v>334.3</v>
+      </c>
+      <c r="X308" s="3">
+        <v>2422</v>
+      </c>
+      <c r="Z308" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA308" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB308" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD308" s="4">
+        <v>490</v>
+      </c>
     </row>
     <row r="309" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C309" s="4">
         <v>8</v>
       </c>
+      <c r="D309" t="s">
+        <v>38</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G309" t="s">
+        <v>664</v>
+      </c>
+      <c r="J309" s="3">
+        <v>8</v>
+      </c>
+      <c r="N309" s="3">
+        <v>1969</v>
+      </c>
+      <c r="Q309" s="3">
+        <v>328.3</v>
+      </c>
+      <c r="R309" s="3">
+        <v>4379</v>
+      </c>
+      <c r="S309" s="3">
+        <v>552.79999999999995</v>
+      </c>
+      <c r="T309" s="3">
+        <v>4015</v>
+      </c>
+      <c r="U309" s="3">
+        <v>339.5</v>
+      </c>
+      <c r="V309" s="3">
+        <v>5125</v>
+      </c>
+      <c r="W309" s="3">
+        <v>559.9</v>
+      </c>
+      <c r="X309" s="3">
+        <v>3873</v>
+      </c>
     </row>
     <row r="310" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C310" s="4">
         <v>9</v>
       </c>
+      <c r="D310" t="s">
+        <v>52</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G310" t="s">
+        <v>667</v>
+      </c>
+      <c r="J310" s="3">
+        <v>5</v>
+      </c>
+      <c r="L310" s="3">
+        <v>133</v>
+      </c>
+      <c r="Q310" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="R310" s="3">
+        <v>5214</v>
+      </c>
+      <c r="S310" s="3">
+        <v>163</v>
+      </c>
+      <c r="T310" s="3">
+        <v>3028</v>
+      </c>
+      <c r="U310" s="3">
+        <v>113.6</v>
+      </c>
+      <c r="V310" s="3">
+        <v>5412</v>
+      </c>
+      <c r="W310" s="3">
+        <v>169.7</v>
+      </c>
+      <c r="X310" s="3">
+        <v>3674</v>
+      </c>
+      <c r="Z310" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA310" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB310" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD310" s="4">
+        <v>580</v>
+      </c>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C311" s="4">
         <v>10</v>
       </c>
+      <c r="D311" t="s">
+        <v>28</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J311" s="3">
+        <v>6</v>
+      </c>
+      <c r="L311" s="3">
+        <v>136</v>
+      </c>
+      <c r="Q311" s="3">
+        <v>178.2</v>
+      </c>
+      <c r="R311" s="3">
+        <v>6323</v>
+      </c>
+      <c r="S311" s="3">
+        <v>213.5</v>
+      </c>
+      <c r="T311" s="3">
+        <v>5093</v>
+      </c>
+      <c r="U311" s="3">
+        <v>179.5</v>
+      </c>
+      <c r="V311" s="3">
+        <v>6252</v>
+      </c>
+      <c r="W311" s="3">
+        <v>216.8</v>
+      </c>
+      <c r="X311" s="3">
+        <v>5084</v>
+      </c>
+      <c r="Z311" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B312">
-        <v>3</v>
+      <c r="C312" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s">
+        <v>44</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="G312" t="s">
+        <v>670</v>
+      </c>
+      <c r="L312" s="3">
+        <v>136</v>
+      </c>
+      <c r="U312" s="3">
+        <v>125.1</v>
+      </c>
+      <c r="V312" s="3">
+        <v>5351</v>
+      </c>
+      <c r="W312" s="3">
+        <v>190.2</v>
+      </c>
+      <c r="X312" s="3">
+        <v>4523</v>
+      </c>
+      <c r="Z312" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="313" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C313" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D313" t="s">
-        <v>197</v>
-      </c>
-      <c r="E313" s="4">
-        <v>968</v>
+        <v>671</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>672</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>463</v>
+        <v>602</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L313" s="3">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="Q313" s="3">
-        <v>213.8</v>
+        <v>145.6</v>
       </c>
       <c r="R313" s="3">
-        <v>6430</v>
+        <v>3370</v>
       </c>
       <c r="S313" s="3">
-        <v>272.3</v>
+        <v>383.7</v>
       </c>
       <c r="T313" s="3">
-        <v>4390</v>
+        <v>2295</v>
       </c>
       <c r="U313" s="3">
-        <v>216.9</v>
+        <v>147</v>
       </c>
       <c r="V313" s="3">
-        <v>6411</v>
+        <v>3405</v>
       </c>
       <c r="W313" s="3">
-        <v>276.2</v>
+        <v>386.1</v>
       </c>
       <c r="X313" s="3">
-        <v>4383</v>
+        <v>2295</v>
       </c>
       <c r="Z313" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA313" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB313" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD313" s="4">
-        <v>400</v>
+        <v>64</v>
       </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C314" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D314" t="s">
         <v>52</v>
       </c>
-      <c r="E314" s="4" t="s">
-        <v>636</v>
-      </c>
       <c r="F314" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G314" t="s">
-        <v>634</v>
+        <v>342</v>
       </c>
       <c r="L314" s="3">
-        <v>165</v>
+        <v>131</v>
+      </c>
+      <c r="M314" s="1">
+        <v>300000</v>
       </c>
       <c r="U314" s="3">
-        <v>205.7</v>
+        <v>128.9</v>
       </c>
       <c r="V314" s="3">
-        <v>5632</v>
+        <v>4106</v>
       </c>
       <c r="W314" s="3">
-        <v>328.8</v>
+        <v>317.2</v>
       </c>
       <c r="X314" s="3">
-        <v>3799</v>
+        <v>2094</v>
+      </c>
+      <c r="Z314" t="s">
+        <v>673</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB314" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD314" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C315" s="4">
+        <v>14</v>
+      </c>
+      <c r="D315" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G315" t="s">
+        <v>677</v>
+      </c>
+      <c r="L315" s="3">
+        <v>193</v>
+      </c>
+      <c r="M315" s="1">
+        <v>335000</v>
+      </c>
+      <c r="Q315" s="3">
+        <v>193.1</v>
+      </c>
+      <c r="R315" s="3">
+        <v>6562</v>
+      </c>
+      <c r="S315" s="3">
+        <v>262</v>
+      </c>
+      <c r="T315" s="3">
+        <v>195.3</v>
+      </c>
+      <c r="U315" s="3">
+        <v>195.3</v>
+      </c>
+      <c r="V315" s="3">
+        <v>6605</v>
+      </c>
+      <c r="W315" s="3">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="X315" s="3">
+        <v>3696</v>
+      </c>
+      <c r="Z315" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD315" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="316" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B316">
         <v>3</v>
-      </c>
-      <c r="D315" t="s">
-        <v>44</v>
-      </c>
-      <c r="E315" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L315" s="3">
-        <v>230</v>
-      </c>
-      <c r="U315" s="3">
-        <v>243.4</v>
-      </c>
-      <c r="V315" s="3">
-        <v>5400</v>
-      </c>
-      <c r="W315" s="3">
-        <v>354.6</v>
-      </c>
-      <c r="X315" s="3">
-        <v>3056</v>
-      </c>
-      <c r="Z315" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA315" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB315" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD315" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="316" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C316" s="4">
-        <v>4</v>
-      </c>
-      <c r="D316" t="s">
-        <v>38</v>
-      </c>
-      <c r="E316" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J316" s="3">
-        <v>5</v>
-      </c>
-      <c r="L316" s="3">
-        <v>305</v>
-      </c>
-      <c r="Q316" s="3">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="R316" s="3">
-        <v>6190</v>
-      </c>
-      <c r="S316" s="3">
-        <v>404.5</v>
-      </c>
-      <c r="T316" s="3">
-        <v>4616</v>
-      </c>
-      <c r="U316" s="3">
-        <v>293.10000000000002</v>
-      </c>
-      <c r="V316" s="3">
-        <v>6708</v>
-      </c>
-      <c r="W316" s="3">
-        <v>405.5</v>
-      </c>
-      <c r="X316" s="3">
-        <v>4650</v>
-      </c>
-      <c r="Z316" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA316" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB316" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD316" s="4">
-        <v>70</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C317" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>44</v>
-      </c>
-      <c r="E317" s="4" t="s">
-        <v>639</v>
+        <v>197</v>
+      </c>
+      <c r="E317" s="4">
+        <v>968</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>206</v>
+        <v>463</v>
       </c>
       <c r="L317" s="3">
-        <v>75</v>
-      </c>
-      <c r="M317" s="1">
-        <v>226000</v>
+        <v>240</v>
       </c>
       <c r="Q317" s="3">
-        <v>76.5</v>
+        <v>213.8</v>
       </c>
       <c r="R317" s="3">
-        <v>5116</v>
+        <v>6430</v>
       </c>
       <c r="S317" s="3">
-        <v>115.9</v>
+        <v>272.3</v>
       </c>
       <c r="T317" s="3">
-        <v>3629</v>
+        <v>4390</v>
       </c>
       <c r="U317" s="3">
-        <v>77.099999999999994</v>
+        <v>216.9</v>
       </c>
       <c r="V317" s="3">
-        <v>4943</v>
+        <v>6411</v>
       </c>
       <c r="W317" s="3">
-        <v>115.9</v>
+        <v>276.2</v>
       </c>
       <c r="X317" s="3">
-        <v>3522</v>
+        <v>4383</v>
       </c>
       <c r="Z317" t="s">
-        <v>446</v>
+        <v>632</v>
       </c>
       <c r="AA317" t="s">
-        <v>447</v>
+        <v>633</v>
       </c>
       <c r="AB317" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AD317" s="4">
-        <v>70</v>
+        <v>400</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C318" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D318" t="s">
         <v>52</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>147</v>
+        <v>205</v>
+      </c>
+      <c r="G318" t="s">
+        <v>634</v>
       </c>
       <c r="L318" s="3">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="U318" s="3">
-        <v>186.1</v>
+        <v>205.7</v>
       </c>
       <c r="V318" s="3">
-        <v>3265</v>
+        <v>5632</v>
       </c>
       <c r="W318" s="3">
-        <v>451.4</v>
+        <v>328.8</v>
       </c>
       <c r="X318" s="3">
-        <v>2059</v>
-      </c>
-      <c r="Z318" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA318" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB318" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD318" s="4">
-        <v>220</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="319" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C319" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D319" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="J319" s="3">
-        <v>8</v>
-      </c>
-      <c r="K319" t="s">
-        <v>76</v>
+        <v>637</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L319" s="3">
-        <v>306</v>
-      </c>
-      <c r="M319" s="1">
-        <v>303000</v>
-      </c>
-      <c r="Q319" s="3">
-        <v>248</v>
-      </c>
-      <c r="R319" s="3">
-        <v>5970</v>
-      </c>
-      <c r="S319" s="3">
-        <v>339.7</v>
-      </c>
-      <c r="T319" s="3">
-        <v>3305</v>
+        <v>230</v>
       </c>
       <c r="U319" s="3">
-        <v>247.9</v>
+        <v>243.4</v>
       </c>
       <c r="V319" s="3">
-        <v>6245</v>
+        <v>5400</v>
       </c>
       <c r="W319" s="3">
-        <v>342.5</v>
+        <v>354.6</v>
       </c>
       <c r="X319" s="3">
-        <v>3314</v>
+        <v>3056</v>
       </c>
       <c r="Z319" t="s">
-        <v>641</v>
+        <v>446</v>
       </c>
       <c r="AA319" t="s">
-        <v>642</v>
+        <v>447</v>
       </c>
       <c r="AB319" t="s">
         <v>42</v>
       </c>
       <c r="AD319" s="4">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="320" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C320" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D320" t="s">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>413</v>
+        <v>638</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G320" t="s">
-        <v>644</v>
+        <v>211</v>
+      </c>
+      <c r="J320" s="3">
+        <v>5</v>
       </c>
       <c r="L320" s="3">
-        <v>125</v>
+        <v>305</v>
+      </c>
+      <c r="Q320" s="3">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="R320" s="3">
+        <v>6190</v>
+      </c>
+      <c r="S320" s="3">
+        <v>404.5</v>
+      </c>
+      <c r="T320" s="3">
+        <v>4616</v>
       </c>
       <c r="U320" s="3">
-        <v>137</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="V320" s="3">
-        <v>7319</v>
+        <v>6708</v>
       </c>
       <c r="W320" s="3">
-        <v>134.5</v>
+        <v>405.5</v>
       </c>
       <c r="X320" s="3">
-        <v>7076</v>
+        <v>4650</v>
+      </c>
+      <c r="Z320" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA320" t="s">
+        <v>447</v>
+      </c>
+      <c r="AB320" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD320" s="4">
+        <v>70</v>
       </c>
     </row>
     <row r="321" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C321" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D321" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="J321" s="3">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="L321" s="3">
-        <v>367</v>
+        <v>75</v>
+      </c>
+      <c r="M321" s="1">
+        <v>226000</v>
+      </c>
+      <c r="Q321" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="R321" s="3">
+        <v>5116</v>
+      </c>
+      <c r="S321" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="T321" s="3">
+        <v>3629</v>
       </c>
       <c r="U321" s="3">
-        <v>312.8</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V321" s="3">
-        <v>6550</v>
+        <v>4943</v>
       </c>
       <c r="W321" s="3">
-        <v>410.4</v>
+        <v>115.9</v>
       </c>
       <c r="X321" s="3">
-        <v>4479</v>
+        <v>3522</v>
       </c>
       <c r="Z321" t="s">
-        <v>156</v>
+        <v>446</v>
       </c>
       <c r="AA321" t="s">
-        <v>157</v>
+        <v>447</v>
       </c>
       <c r="AB321" t="s">
         <v>42</v>
       </c>
       <c r="AD321" s="4">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="322" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C322" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G322" t="s">
-        <v>606</v>
+        <v>147</v>
       </c>
       <c r="L322" s="3">
+        <v>150</v>
+      </c>
+      <c r="U322" s="3">
+        <v>186.1</v>
+      </c>
+      <c r="V322" s="3">
+        <v>3265</v>
+      </c>
+      <c r="W322" s="3">
+        <v>451.4</v>
+      </c>
+      <c r="X322" s="3">
+        <v>2059</v>
+      </c>
+      <c r="Z322" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB322" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD322" s="4">
         <v>220</v>
-      </c>
-      <c r="N322" s="3">
-        <v>1981</v>
-      </c>
-      <c r="U322" s="3">
-        <v>190.7</v>
-      </c>
-      <c r="V322" s="3">
-        <v>6165</v>
-      </c>
-      <c r="W322" s="3">
-        <v>280.89999999999998</v>
-      </c>
-      <c r="X322" s="3">
-        <v>4193</v>
-      </c>
-      <c r="Z322" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA322" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB322" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD322" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="323" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C323" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D323" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="F323" s="2" t="s">
-        <v>474</v>
+        <v>643</v>
       </c>
       <c r="J323" s="3">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="K323" t="s">
+        <v>76</v>
       </c>
       <c r="L323" s="3">
         <v>306</v>
       </c>
+      <c r="M323" s="1">
+        <v>303000</v>
+      </c>
       <c r="Q323" s="3">
-        <v>336.6</v>
+        <v>248</v>
       </c>
       <c r="R323" s="3">
-        <v>5778</v>
+        <v>5970</v>
       </c>
       <c r="S323" s="3">
-        <v>550</v>
+        <v>339.7</v>
       </c>
       <c r="T323" s="3">
-        <v>4222</v>
+        <v>3305</v>
       </c>
       <c r="U323" s="3">
-        <v>341.5</v>
+        <v>247.9</v>
       </c>
       <c r="V323" s="3">
-        <v>4394</v>
+        <v>6245</v>
       </c>
       <c r="W323" s="3">
-        <v>557.29999999999995</v>
+        <v>342.5</v>
       </c>
       <c r="X323" s="3">
-        <v>4310</v>
+        <v>3314</v>
       </c>
       <c r="Z323" t="s">
-        <v>305</v>
+        <v>641</v>
       </c>
       <c r="AA323" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AB323" t="s">
         <v>42</v>
       </c>
       <c r="AD323" s="4">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B324">
-        <v>2</v>
+      <c r="C324" s="4">
+        <v>8</v>
+      </c>
+      <c r="D324" t="s">
+        <v>412</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G324" t="s">
+        <v>644</v>
+      </c>
+      <c r="L324" s="3">
+        <v>125</v>
+      </c>
+      <c r="U324" s="3">
+        <v>137</v>
+      </c>
+      <c r="V324" s="3">
+        <v>7319</v>
+      </c>
+      <c r="W324" s="3">
+        <v>134.5</v>
+      </c>
+      <c r="X324" s="3">
+        <v>7076</v>
       </c>
     </row>
     <row r="325" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C325" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D325" t="s">
-        <v>528</v>
+        <v>106</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>598</v>
+        <v>645</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>208</v>
+        <v>635</v>
+      </c>
+      <c r="J325" s="3">
+        <v>8</v>
       </c>
       <c r="L325" s="3">
-        <v>169</v>
-      </c>
-      <c r="Q325" s="3">
-        <v>184.2</v>
-      </c>
-      <c r="R325" s="3">
-        <v>6393</v>
-      </c>
-      <c r="S325" s="3">
-        <v>236.7</v>
-      </c>
-      <c r="T325" s="3">
-        <v>4499</v>
+        <v>367</v>
       </c>
       <c r="U325" s="3">
-        <v>186.4</v>
+        <v>312.8</v>
       </c>
       <c r="V325" s="3">
-        <v>6385</v>
+        <v>6550</v>
       </c>
       <c r="W325" s="3">
-        <v>234.9</v>
+        <v>410.4</v>
       </c>
       <c r="X325" s="3">
-        <v>4542</v>
+        <v>4479</v>
       </c>
       <c r="Z325" t="s">
-        <v>596</v>
+        <v>156</v>
       </c>
       <c r="AA325" t="s">
-        <v>597</v>
+        <v>157</v>
       </c>
       <c r="AB325" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AD325" s="4">
-        <v>385</v>
+        <v>45</v>
       </c>
     </row>
     <row r="326" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C326" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D326" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>601</v>
+        <v>646</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K326" t="s">
-        <v>76</v>
+        <v>474</v>
+      </c>
+      <c r="G326" t="s">
+        <v>606</v>
       </c>
       <c r="L326" s="3">
         <v>220</v>
       </c>
-      <c r="Q326" s="3">
-        <v>167</v>
-      </c>
-      <c r="R326" s="3">
-        <v>6189</v>
-      </c>
-      <c r="S326" s="3">
-        <v>226.7</v>
-      </c>
-      <c r="T326" s="3">
-        <v>3026</v>
+      <c r="N326" s="3">
+        <v>1981</v>
       </c>
       <c r="U326" s="3">
-        <v>167.6</v>
+        <v>190.7</v>
       </c>
       <c r="V326" s="3">
-        <v>6627</v>
+        <v>6165</v>
       </c>
       <c r="W326" s="3">
-        <v>232</v>
+        <v>280.89999999999998</v>
       </c>
       <c r="X326" s="3">
-        <v>3046</v>
+        <v>4193</v>
       </c>
       <c r="Z326" t="s">
-        <v>599</v>
+        <v>104</v>
       </c>
       <c r="AA326" t="s">
-        <v>600</v>
+        <v>105</v>
       </c>
       <c r="AB326" t="s">
         <v>42</v>
       </c>
       <c r="AD326" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C327" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D327" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G327" t="s">
-        <v>606</v>
-      </c>
-      <c r="K327" t="s">
-        <v>76</v>
+        <v>648</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J327" s="3">
+        <v>6</v>
       </c>
       <c r="L327" s="3">
-        <v>180</v>
+        <v>306</v>
+      </c>
+      <c r="Q327" s="3">
+        <v>336.6</v>
+      </c>
+      <c r="R327" s="3">
+        <v>5778</v>
+      </c>
+      <c r="S327" s="3">
+        <v>550</v>
+      </c>
+      <c r="T327" s="3">
+        <v>4222</v>
       </c>
       <c r="U327" s="3">
-        <v>160.6</v>
+        <v>341.5</v>
       </c>
       <c r="V327" s="3">
-        <v>5334</v>
+        <v>4394</v>
       </c>
       <c r="W327" s="3">
-        <v>200.5</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="X327" s="3">
-        <v>4806</v>
+        <v>4310</v>
       </c>
       <c r="Z327" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="AA327" t="s">
-        <v>105</v>
+        <v>647</v>
       </c>
       <c r="AB327" t="s">
         <v>42</v>
       </c>
       <c r="AD327" s="4">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="328" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C328" s="4">
-        <v>4</v>
-      </c>
-      <c r="D328" t="s">
-        <v>52</v>
-      </c>
-      <c r="E328" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F328" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J328" s="3">
-        <v>6</v>
-      </c>
-      <c r="L328" s="3">
-        <v>150</v>
-      </c>
-      <c r="M328" s="1">
-        <v>293000</v>
-      </c>
-      <c r="U328" s="3">
-        <v>142.4</v>
-      </c>
-      <c r="V328" s="3">
-        <v>4907</v>
-      </c>
-      <c r="W328" s="3">
-        <v>234.4</v>
-      </c>
-      <c r="X328" s="3">
-        <v>3859</v>
-      </c>
-      <c r="Z328" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA328" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB328" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD328" s="4">
-        <v>413</v>
+      <c r="B328">
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C329" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>44</v>
+        <v>528</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G329" t="s">
-        <v>609</v>
+        <v>208</v>
       </c>
       <c r="L329" s="3">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="Q329" s="3">
-        <v>122</v>
+        <v>184.2</v>
       </c>
       <c r="R329" s="3">
-        <v>6640</v>
+        <v>6393</v>
       </c>
       <c r="S329" s="3">
-        <v>149.1</v>
+        <v>236.7</v>
       </c>
       <c r="T329" s="3">
-        <v>3067</v>
+        <v>4499</v>
       </c>
       <c r="U329" s="3">
-        <v>130.1</v>
+        <v>186.4</v>
       </c>
       <c r="V329" s="3">
-        <v>6687</v>
+        <v>6385</v>
       </c>
       <c r="W329" s="3">
-        <v>154.9</v>
+        <v>234.9</v>
       </c>
       <c r="X329" s="3">
-        <v>3043</v>
+        <v>4542</v>
       </c>
       <c r="Z329" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="AA329" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="AB329" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AD329" s="4">
-        <v>120</v>
+        <v>385</v>
       </c>
     </row>
     <row r="330" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C330" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D330" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J330" s="3">
-        <v>5</v>
+        <v>602</v>
       </c>
       <c r="K330" t="s">
         <v>76</v>
       </c>
       <c r="L330" s="3">
-        <v>136</v>
+        <v>220</v>
+      </c>
+      <c r="Q330" s="3">
+        <v>167</v>
+      </c>
+      <c r="R330" s="3">
+        <v>6189</v>
+      </c>
+      <c r="S330" s="3">
+        <v>226.7</v>
+      </c>
+      <c r="T330" s="3">
+        <v>3026</v>
       </c>
       <c r="U330" s="3">
-        <v>115.1</v>
+        <v>167.6</v>
       </c>
       <c r="V330" s="3">
-        <v>6028</v>
+        <v>6627</v>
       </c>
       <c r="W330" s="3">
-        <v>169.6</v>
+        <v>232</v>
       </c>
       <c r="X330" s="3">
-        <v>2501</v>
+        <v>3046</v>
       </c>
       <c r="Z330" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="AA330" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC330" t="s">
-        <v>611</v>
+        <v>600</v>
+      </c>
+      <c r="AB330" t="s">
+        <v>42</v>
       </c>
       <c r="AD330" s="4">
-        <v>650</v>
+        <v>75</v>
       </c>
     </row>
     <row r="331" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C331" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D331" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>147</v>
+        <v>603</v>
       </c>
       <c r="G331" t="s">
-        <v>615</v>
+        <v>606</v>
+      </c>
+      <c r="K331" t="s">
+        <v>76</v>
       </c>
       <c r="L331" s="3">
-        <v>265</v>
-      </c>
-      <c r="Q331" s="3">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="R331" s="3">
-        <v>6022</v>
-      </c>
-      <c r="S331" s="3">
-        <v>375.1</v>
-      </c>
-      <c r="T331" s="3">
-        <v>3212</v>
+        <v>180</v>
       </c>
       <c r="U331" s="3">
-        <v>283.60000000000002</v>
+        <v>160.6</v>
       </c>
       <c r="V331" s="3">
-        <v>5525</v>
+        <v>5334</v>
       </c>
       <c r="W331" s="3">
-        <v>398.7</v>
+        <v>200.5</v>
       </c>
       <c r="X331" s="3">
-        <v>3621</v>
+        <v>4806</v>
       </c>
       <c r="Z331" t="s">
-        <v>400</v>
+        <v>104</v>
       </c>
       <c r="AA331" t="s">
-        <v>401</v>
+        <v>105</v>
       </c>
       <c r="AB331" t="s">
         <v>42</v>
       </c>
       <c r="AD331" s="4">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C332" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D332" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G332" t="s">
-        <v>618</v>
+        <v>607</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J332" s="3">
+        <v>6</v>
       </c>
       <c r="L332" s="3">
-        <v>129</v>
+        <v>150</v>
+      </c>
+      <c r="M332" s="1">
+        <v>293000</v>
       </c>
       <c r="U332" s="3">
-        <v>181</v>
+        <v>142.4</v>
       </c>
       <c r="V332" s="3">
-        <v>5896</v>
+        <v>4907</v>
       </c>
       <c r="W332" s="3">
-        <v>233</v>
+        <v>234.4</v>
       </c>
       <c r="X332" s="3">
-        <v>5296</v>
+        <v>3859</v>
       </c>
       <c r="Z332" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="AA332" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="AB332" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="AD332" s="4">
-        <v>170</v>
+        <v>413</v>
       </c>
     </row>
     <row r="333" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C333" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D333" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G333" t="s">
-        <v>623</v>
-      </c>
-      <c r="J333" s="3">
-        <v>5</v>
+        <v>609</v>
+      </c>
+      <c r="L333" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q333" s="3">
+        <v>122</v>
+      </c>
+      <c r="R333" s="3">
+        <v>6640</v>
+      </c>
+      <c r="S333" s="3">
+        <v>149.1</v>
+      </c>
+      <c r="T333" s="3">
+        <v>3067</v>
       </c>
       <c r="U333" s="3">
-        <v>227.8</v>
+        <v>130.1</v>
       </c>
       <c r="V333" s="3">
-        <v>5921</v>
+        <v>6687</v>
       </c>
       <c r="W333" s="3">
-        <v>343</v>
+        <v>154.9</v>
       </c>
       <c r="X333" s="3">
-        <v>4521</v>
+        <v>3043</v>
       </c>
       <c r="Z333" t="s">
-        <v>620</v>
+        <v>552</v>
       </c>
       <c r="AA333" t="s">
-        <v>621</v>
+        <v>553</v>
       </c>
       <c r="AB333" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD333" s="4">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="334" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C334" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D334" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>626</v>
+        <v>613</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J334" s="3">
+        <v>5</v>
+      </c>
+      <c r="K334" t="s">
+        <v>76</v>
       </c>
       <c r="L334" s="3">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U334" s="3">
-        <v>133.4</v>
+        <v>115.1</v>
       </c>
       <c r="V334" s="3">
-        <v>6587</v>
+        <v>6028</v>
       </c>
       <c r="W334" s="3">
-        <v>148.5</v>
+        <v>169.6</v>
       </c>
       <c r="X334" s="3">
-        <v>4539</v>
+        <v>2501</v>
       </c>
       <c r="Z334" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="AA334" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB334" t="s">
-        <v>42</v>
+        <v>612</v>
+      </c>
+      <c r="AC334" t="s">
+        <v>611</v>
       </c>
       <c r="AD334" s="4">
-        <v>80</v>
+        <v>650</v>
       </c>
     </row>
     <row r="335" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C335" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D335" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>346</v>
+        <v>147</v>
       </c>
       <c r="G335" t="s">
-        <v>576</v>
-      </c>
-      <c r="H335" s="3" t="s">
-        <v>46</v>
+        <v>615</v>
       </c>
       <c r="L335" s="3">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="Q335" s="3">
-        <v>158.69999999999999</v>
+        <v>266.89999999999998</v>
       </c>
       <c r="R335" s="3">
-        <v>4020</v>
+        <v>6022</v>
       </c>
       <c r="S335" s="3">
-        <v>348.9</v>
+        <v>375.1</v>
       </c>
       <c r="T335" s="3">
-        <v>2359</v>
+        <v>3212</v>
       </c>
       <c r="U335" s="3">
-        <v>160.6</v>
+        <v>283.60000000000002</v>
       </c>
       <c r="V335" s="3">
-        <v>4049</v>
+        <v>5525</v>
       </c>
       <c r="W335" s="3">
-        <v>350.3</v>
+        <v>398.7</v>
       </c>
       <c r="X335" s="3">
-        <v>2430</v>
+        <v>3621</v>
       </c>
       <c r="Z335" t="s">
-        <v>627</v>
+        <v>400</v>
       </c>
       <c r="AA335" t="s">
-        <v>628</v>
+        <v>401</v>
       </c>
       <c r="AB335" t="s">
         <v>42</v>
       </c>
       <c r="AD335" s="4">
-        <v>40</v>
+        <v>170</v>
       </c>
     </row>
     <row r="336" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C336" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D336" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F336" s="2" t="s">
-        <v>147</v>
+        <v>619</v>
       </c>
       <c r="G336" t="s">
-        <v>576</v>
+        <v>618</v>
       </c>
       <c r="L336" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q336" s="3">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="R336" s="3">
-        <v>6258</v>
-      </c>
-      <c r="S336" s="3">
-        <v>449.1</v>
-      </c>
-      <c r="T336" s="3">
-        <v>3927</v>
+        <v>129</v>
       </c>
       <c r="U336" s="3">
-        <v>308.89999999999998</v>
+        <v>181</v>
       </c>
       <c r="V336" s="3">
-        <v>6376</v>
+        <v>5896</v>
       </c>
       <c r="W336" s="3">
-        <v>447.1</v>
+        <v>233</v>
       </c>
       <c r="X336" s="3">
-        <v>3904</v>
+        <v>5296</v>
       </c>
       <c r="Z336" t="s">
-        <v>156</v>
+        <v>616</v>
       </c>
       <c r="AA336" t="s">
-        <v>157</v>
+        <v>617</v>
       </c>
       <c r="AB336" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD336" s="4">
-        <v>45</v>
+        <v>170</v>
       </c>
     </row>
     <row r="337" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C337" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K337" t="s">
-        <v>76</v>
-      </c>
-      <c r="L337" s="3">
-        <v>193</v>
+        <v>205</v>
+      </c>
+      <c r="G337" t="s">
+        <v>623</v>
+      </c>
+      <c r="J337" s="3">
+        <v>5</v>
       </c>
       <c r="U337" s="3">
-        <v>205</v>
+        <v>227.8</v>
+      </c>
+      <c r="V337" s="3">
+        <v>5921</v>
       </c>
       <c r="W337" s="3">
-        <v>240</v>
+        <v>343</v>
+      </c>
+      <c r="X337" s="3">
+        <v>4521</v>
       </c>
       <c r="Z337" t="s">
-        <v>215</v>
+        <v>620</v>
       </c>
       <c r="AA337" t="s">
-        <v>216</v>
+        <v>621</v>
       </c>
       <c r="AB337" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD337" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="338" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C338" s="4">
+        <v>10</v>
+      </c>
+      <c r="D338" t="s">
+        <v>217</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="L338" s="3">
+        <v>135</v>
+      </c>
+      <c r="U338" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="V338" s="3">
+        <v>6587</v>
+      </c>
+      <c r="W338" s="3">
+        <v>148.5</v>
+      </c>
+      <c r="X338" s="3">
+        <v>4539</v>
+      </c>
+      <c r="Z338" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA338" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB338" t="s">
         <v>42</v>
       </c>
-      <c r="AD337" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="338" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B338">
-        <v>1</v>
+      <c r="AD338" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="339" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C339" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D339" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>585</v>
+        <v>629</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J339" s="3">
-        <v>6</v>
+        <v>346</v>
+      </c>
+      <c r="G339" t="s">
+        <v>576</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L339" s="3">
-        <v>193</v>
+        <v>131</v>
+      </c>
+      <c r="Q339" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R339" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S339" s="3">
+        <v>348.9</v>
+      </c>
+      <c r="T339" s="3">
+        <v>2359</v>
       </c>
       <c r="U339" s="3">
-        <v>196.4</v>
+        <v>160.6</v>
       </c>
       <c r="V339" s="3">
-        <v>6004</v>
+        <v>4049</v>
       </c>
       <c r="W339" s="3">
-        <v>250</v>
+        <v>350.3</v>
       </c>
       <c r="X339" s="3">
-        <v>4813</v>
+        <v>2430</v>
       </c>
       <c r="Z339" t="s">
-        <v>69</v>
+        <v>627</v>
       </c>
       <c r="AA339" t="s">
-        <v>70</v>
+        <v>628</v>
       </c>
       <c r="AB339" t="s">
         <v>42</v>
       </c>
       <c r="AD339" s="4">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="340" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C340" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D340" t="s">
         <v>44</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>586</v>
+        <v>630</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="G340" t="s">
+        <v>576</v>
       </c>
       <c r="L340" s="3">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="Q340" s="3">
-        <v>161.19999999999999</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="R340" s="3">
-        <v>25980</v>
+        <v>6258</v>
       </c>
       <c r="S340" s="3">
-        <v>212.9</v>
+        <v>449.1</v>
       </c>
       <c r="T340" s="3">
-        <v>4710</v>
+        <v>3927</v>
       </c>
       <c r="U340" s="3">
-        <v>162.9</v>
+        <v>308.89999999999998</v>
       </c>
       <c r="V340" s="3">
-        <v>6026</v>
+        <v>6376</v>
       </c>
       <c r="W340" s="3">
-        <v>216.6</v>
+        <v>447.1</v>
       </c>
       <c r="X340" s="3">
-        <v>4748</v>
+        <v>3904</v>
       </c>
       <c r="Z340" t="s">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="AA340" t="s">
-        <v>313</v>
+        <v>157</v>
       </c>
       <c r="AB340" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD340" s="4">
-        <v>180</v>
+        <v>45</v>
       </c>
     </row>
     <row r="341" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C341" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D341" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>587</v>
+        <v>631</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G341" t="s">
-        <v>588</v>
+        <v>209</v>
+      </c>
+      <c r="K341" t="s">
+        <v>76</v>
       </c>
       <c r="L341" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q341" s="3">
-        <v>268.3</v>
-      </c>
-      <c r="R341" s="3">
-        <v>5341</v>
-      </c>
-      <c r="S341" s="3">
-        <v>440.9</v>
-      </c>
-      <c r="T341" s="3">
-        <v>2638</v>
+        <v>193</v>
       </c>
       <c r="U341" s="3">
-        <v>268.2</v>
-      </c>
-      <c r="V341" s="3">
-        <v>5400</v>
+        <v>205</v>
       </c>
       <c r="W341" s="3">
-        <v>448.9</v>
-      </c>
-      <c r="X341" s="3">
-        <v>2646</v>
+        <v>240</v>
       </c>
       <c r="Z341" t="s">
         <v>215</v>
@@ -13235,164 +13754,322 @@
       </c>
     </row>
     <row r="342" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C342" s="4">
-        <v>4</v>
-      </c>
-      <c r="D342" t="s">
-        <v>44</v>
-      </c>
-      <c r="E342" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G342" t="s">
-        <v>590</v>
-      </c>
-      <c r="L342" s="3">
-        <v>139</v>
-      </c>
-      <c r="N342" s="3">
-        <v>1986</v>
-      </c>
-      <c r="Q342" s="3">
-        <v>209.1</v>
-      </c>
-      <c r="R342" s="3">
-        <v>7791</v>
-      </c>
-      <c r="S342" s="3">
-        <v>212</v>
-      </c>
-      <c r="T342" s="3">
-        <v>5755</v>
-      </c>
-      <c r="U342" s="3">
-        <v>208</v>
-      </c>
-      <c r="V342" s="3">
-        <v>7966</v>
-      </c>
-      <c r="W342" s="3">
-        <v>213.2</v>
-      </c>
-      <c r="X342" s="3">
-        <v>5807</v>
+      <c r="B342">
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C343" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D343" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G343" t="s">
-        <v>594</v>
+        <v>209</v>
+      </c>
+      <c r="J343" s="3">
+        <v>6</v>
       </c>
       <c r="L343" s="3">
-        <v>85</v>
-      </c>
-      <c r="Q343" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="R343" s="3">
-        <v>5085</v>
-      </c>
-      <c r="S343" s="3">
-        <v>160.1</v>
-      </c>
-      <c r="T343" s="3">
-        <v>3668</v>
+        <v>193</v>
       </c>
       <c r="U343" s="3">
-        <v>96.9</v>
+        <v>196.4</v>
       </c>
       <c r="V343" s="3">
-        <v>4993</v>
+        <v>6004</v>
       </c>
       <c r="W343" s="3">
-        <v>159.5</v>
+        <v>250</v>
       </c>
       <c r="X343" s="3">
-        <v>3305</v>
+        <v>4813</v>
       </c>
       <c r="Z343" t="s">
-        <v>591</v>
+        <v>69</v>
       </c>
       <c r="AA343" t="s">
-        <v>592</v>
+        <v>70</v>
       </c>
       <c r="AB343" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD343" s="4">
-        <v>280</v>
+        <v>77</v>
       </c>
     </row>
     <row r="344" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C344" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D344" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>372</v>
+        <v>586</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G344" t="s">
+      <c r="L344" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q344" s="3">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="R344" s="3">
+        <v>25980</v>
+      </c>
+      <c r="S344" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="T344" s="3">
+        <v>4710</v>
+      </c>
+      <c r="U344" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="V344" s="3">
+        <v>6026</v>
+      </c>
+      <c r="W344" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="X344" s="3">
+        <v>4748</v>
+      </c>
+      <c r="Z344" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD344" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="345" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C345" s="4">
+        <v>3</v>
+      </c>
+      <c r="D345" t="s">
+        <v>38</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G345" t="s">
+        <v>588</v>
+      </c>
+      <c r="L345" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q345" s="3">
+        <v>268.3</v>
+      </c>
+      <c r="R345" s="3">
+        <v>5341</v>
+      </c>
+      <c r="S345" s="3">
+        <v>440.9</v>
+      </c>
+      <c r="T345" s="3">
+        <v>2638</v>
+      </c>
+      <c r="U345" s="3">
+        <v>268.2</v>
+      </c>
+      <c r="V345" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W345" s="3">
+        <v>448.9</v>
+      </c>
+      <c r="X345" s="3">
+        <v>2646</v>
+      </c>
+      <c r="Z345" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB345" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD345" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C346" s="4">
+        <v>4</v>
+      </c>
+      <c r="D346" t="s">
+        <v>44</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G346" t="s">
+        <v>590</v>
+      </c>
+      <c r="L346" s="3">
+        <v>139</v>
+      </c>
+      <c r="N346" s="3">
+        <v>1986</v>
+      </c>
+      <c r="Q346" s="3">
+        <v>209.1</v>
+      </c>
+      <c r="R346" s="3">
+        <v>7791</v>
+      </c>
+      <c r="S346" s="3">
+        <v>212</v>
+      </c>
+      <c r="T346" s="3">
+        <v>5755</v>
+      </c>
+      <c r="U346" s="3">
+        <v>208</v>
+      </c>
+      <c r="V346" s="3">
+        <v>7966</v>
+      </c>
+      <c r="W346" s="3">
+        <v>213.2</v>
+      </c>
+      <c r="X346" s="3">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="347" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C347" s="4">
+        <v>5</v>
+      </c>
+      <c r="D347" t="s">
+        <v>44</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G347" t="s">
+        <v>594</v>
+      </c>
+      <c r="L347" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q347" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="R347" s="3">
+        <v>5085</v>
+      </c>
+      <c r="S347" s="3">
+        <v>160.1</v>
+      </c>
+      <c r="T347" s="3">
+        <v>3668</v>
+      </c>
+      <c r="U347" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="V347" s="3">
+        <v>4993</v>
+      </c>
+      <c r="W347" s="3">
+        <v>159.5</v>
+      </c>
+      <c r="X347" s="3">
+        <v>3305</v>
+      </c>
+      <c r="Z347" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD347" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="348" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C348" s="4">
+        <v>6</v>
+      </c>
+      <c r="D348" t="s">
+        <v>178</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G348" t="s">
         <v>595</v>
       </c>
-      <c r="L344" s="3">
+      <c r="L348" s="3">
         <v>116</v>
       </c>
-      <c r="M344" s="1">
+      <c r="M348" s="1">
         <v>325000</v>
       </c>
-      <c r="Q344" s="3">
+      <c r="Q348" s="3">
         <v>109.7</v>
       </c>
-      <c r="R344" s="3">
+      <c r="R348" s="3">
         <v>6570</v>
       </c>
-      <c r="S344" s="3">
+      <c r="S348" s="3">
         <v>130</v>
       </c>
-      <c r="T344" s="3">
+      <c r="T348" s="3">
         <v>5181</v>
       </c>
-      <c r="U344" s="3">
+      <c r="U348" s="3">
         <v>111.1</v>
       </c>
-      <c r="V344" s="3">
+      <c r="V348" s="3">
         <v>6500</v>
       </c>
-      <c r="W344" s="3">
+      <c r="W348" s="3">
         <v>132.30000000000001</v>
       </c>
-      <c r="X344" s="3">
+      <c r="X348" s="3">
         <v>5179</v>
       </c>
-      <c r="Z344" t="s">
+      <c r="Z348" t="s">
         <v>47</v>
       </c>
-      <c r="AA344" t="s">
+      <c r="AA348" t="s">
         <v>48</v>
       </c>
-      <c r="AB344" t="s">
+      <c r="AB348" t="s">
         <v>42</v>
       </c>
-      <c r="AD344" s="4">
+      <c r="AD348" s="4">
         <v>36</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED0630-A9C4-481C-9289-C666DAF1830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E7E891-F1FB-4B92-BD3F-C5D9A6973A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="693">
   <si>
     <t>Episode</t>
   </si>
@@ -2054,6 +2054,51 @@
   </si>
   <si>
     <t>Fächerkrümmer</t>
+  </si>
+  <si>
+    <t>Civic Type R (VTEC)</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>Viersen</t>
+  </si>
+  <si>
+    <t>Scirocco GT 2</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Celle</t>
+  </si>
+  <si>
+    <t>330CI Coupe</t>
+  </si>
+  <si>
+    <t>LPG Anlage, 1. Messung auf Gas</t>
+  </si>
+  <si>
+    <t>Astra ( H ) OPC</t>
+  </si>
+  <si>
+    <t>Golf II VR6</t>
+  </si>
+  <si>
+    <t>Passat TDI</t>
+  </si>
+  <si>
+    <t>TT 2.0TFSI</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Skoda</t>
+  </si>
+  <si>
+    <t>Octavia 3 RS</t>
   </si>
 </sst>
 </file>
@@ -2902,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE348"/>
+  <dimension ref="A1:AE357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="W315" sqref="W315"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="G309" sqref="G309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11916,2160 +11961,2600 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B301">
+    <row r="300" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C300" s="4">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>412</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G300" t="s">
+        <v>576</v>
+      </c>
+      <c r="L300" s="3">
+        <v>200</v>
+      </c>
+      <c r="U300" s="3">
+        <v>191.2</v>
+      </c>
+      <c r="V300" s="3">
+        <v>8095</v>
+      </c>
+      <c r="W300" s="3">
+        <v>184</v>
+      </c>
+      <c r="X300" s="3">
+        <v>6394</v>
+      </c>
+      <c r="Z300" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="301" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C301" s="4">
+        <v>2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>44</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L301" s="3">
+        <v>95</v>
+      </c>
+      <c r="Q301" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="R301" s="3">
+        <v>6130</v>
+      </c>
+      <c r="S301" s="3">
+        <v>89.8</v>
+      </c>
+      <c r="T301" s="3">
+        <v>6020</v>
+      </c>
+      <c r="U301" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="V301" s="3">
+        <v>6094</v>
+      </c>
+      <c r="W301" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="X301" s="3">
+        <v>5966</v>
+      </c>
+      <c r="Z301" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA301" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD301" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="302" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C302" s="4">
+        <v>3</v>
+      </c>
+      <c r="D302" t="s">
+        <v>28</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G302" t="s">
+        <v>685</v>
+      </c>
+      <c r="J302" s="3">
+        <v>6</v>
+      </c>
+      <c r="L302" s="3">
+        <v>231</v>
+      </c>
+      <c r="M302" s="1">
+        <v>377473</v>
+      </c>
+      <c r="Q302" s="3">
+        <v>199.6</v>
+      </c>
+      <c r="R302" s="3">
+        <v>6123</v>
+      </c>
+      <c r="S302" s="3">
+        <v>268.2</v>
+      </c>
+      <c r="T302" s="3">
+        <v>3625</v>
+      </c>
+      <c r="U302" s="3">
+        <v>202.2</v>
+      </c>
+      <c r="V302" s="3">
+        <v>6211</v>
+      </c>
+      <c r="W302" s="3">
+        <v>269.60000000000002</v>
+      </c>
+      <c r="X302" s="3">
+        <v>3618</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB302" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD302" s="4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="303" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C303" s="4">
         <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C302" s="4">
-        <v>1</v>
-      </c>
-      <c r="D302" t="s">
-        <v>44</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G302" t="s">
-        <v>650</v>
-      </c>
-      <c r="K302" t="s">
-        <v>76</v>
-      </c>
-      <c r="L302" s="3">
-        <v>140</v>
-      </c>
-      <c r="Q302" s="3">
-        <v>154.6</v>
-      </c>
-      <c r="R302" s="3">
-        <v>39115</v>
-      </c>
-      <c r="S302" s="3">
-        <v>367.9</v>
-      </c>
-      <c r="T302" s="3">
-        <v>2264</v>
-      </c>
-      <c r="U302" s="3">
-        <v>154.9</v>
-      </c>
-      <c r="V302" s="3">
-        <v>3982</v>
-      </c>
-      <c r="W302" s="3">
-        <v>368.3</v>
-      </c>
-      <c r="X302" s="3">
-        <v>2346</v>
-      </c>
-      <c r="Z302" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="303" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C303" s="4">
-        <v>2</v>
       </c>
       <c r="D303" t="s">
         <v>36</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>651</v>
+        <v>686</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G303" t="s">
+        <v>576</v>
       </c>
       <c r="L303" s="3">
-        <v>241</v>
-      </c>
-      <c r="Q303" s="3">
-        <v>227.4</v>
-      </c>
-      <c r="R303" s="3">
-        <v>5706</v>
-      </c>
-      <c r="S303" s="3">
-        <v>329.2</v>
-      </c>
-      <c r="T303" s="3">
-        <v>3772</v>
+        <v>240</v>
       </c>
       <c r="U303" s="3">
-        <v>216.6</v>
+        <v>261.8</v>
       </c>
       <c r="V303" s="3">
-        <v>5120</v>
+        <v>5721</v>
       </c>
       <c r="W303" s="3">
-        <v>327.39999999999998</v>
+        <v>406.3</v>
       </c>
       <c r="X303" s="3">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="304" spans="2:26" x14ac:dyDescent="0.25">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="304" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C304" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D304" t="s">
-        <v>44</v>
-      </c>
-      <c r="E304" s="4" t="s">
-        <v>652</v>
+        <v>52</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="G304" t="s">
-        <v>653</v>
+        <v>424</v>
+      </c>
+      <c r="K304" t="s">
+        <v>76</v>
       </c>
       <c r="L304" s="3">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M304" s="1">
-        <v>197000</v>
+        <v>137872</v>
+      </c>
+      <c r="Q304" s="3">
+        <v>97</v>
+      </c>
+      <c r="R304" s="3">
+        <v>5372</v>
+      </c>
+      <c r="S304" s="3">
+        <v>168.8</v>
+      </c>
+      <c r="T304" s="3">
+        <v>3490</v>
       </c>
       <c r="U304" s="3">
-        <v>123.1</v>
+        <v>97.3</v>
       </c>
       <c r="V304" s="3">
-        <v>5319</v>
+        <v>5749</v>
       </c>
       <c r="W304" s="3">
-        <v>195</v>
+        <v>147.9</v>
       </c>
       <c r="X304" s="3">
-        <v>3891</v>
+        <v>3325</v>
       </c>
       <c r="Z304" t="s">
-        <v>386</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C305" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D305" t="s">
         <v>44</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>654</v>
+        <v>687</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G305" t="s">
-        <v>655</v>
+        <v>209</v>
+      </c>
+      <c r="J305" s="3">
+        <v>6</v>
       </c>
       <c r="L305" s="3">
-        <v>115</v>
-      </c>
-      <c r="Q305" s="3">
-        <v>126.6</v>
-      </c>
-      <c r="R305" s="3">
-        <v>5245</v>
-      </c>
-      <c r="S305" s="3">
-        <v>225.8</v>
-      </c>
-      <c r="T305" s="3">
-        <v>3364</v>
+        <v>174</v>
+      </c>
+      <c r="M305" s="1">
+        <v>320000</v>
+      </c>
+      <c r="N305" s="3">
+        <v>1983</v>
       </c>
       <c r="U305" s="3">
-        <v>138.80000000000001</v>
+        <v>186.8</v>
       </c>
       <c r="V305" s="3">
-        <v>5784</v>
+        <v>5977</v>
       </c>
       <c r="W305" s="3">
-        <v>2440</v>
+        <v>237.9</v>
       </c>
       <c r="X305" s="3">
-        <v>3011</v>
+        <v>4499</v>
       </c>
       <c r="Z305" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="306" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C306" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D306" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G306" t="s">
-        <v>657</v>
+        <v>147</v>
+      </c>
+      <c r="J306" s="3">
+        <v>6</v>
       </c>
       <c r="L306" s="3">
-        <v>102</v>
-      </c>
-      <c r="M306" s="1">
-        <v>550881</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M306" s="1"/>
       <c r="Q306" s="3">
-        <v>90.8</v>
+        <v>158.5</v>
       </c>
       <c r="R306" s="3">
-        <v>5587</v>
+        <v>6233</v>
       </c>
       <c r="S306" s="3">
-        <v>127.1</v>
+        <v>188.2</v>
       </c>
       <c r="T306" s="3">
-        <v>4187</v>
+        <v>4832</v>
       </c>
       <c r="U306" s="3">
-        <v>97.5</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V306" s="3">
-        <v>5617</v>
+        <v>6308</v>
       </c>
       <c r="W306" s="3">
-        <v>137.19999999999999</v>
+        <v>191.7</v>
       </c>
       <c r="X306" s="3">
-        <v>4055</v>
-      </c>
-      <c r="Z306" t="s">
-        <v>152</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C307" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D307" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J307" s="3">
-        <v>5</v>
+        <v>688</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L307" s="3">
-        <v>133</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M307" s="1"/>
       <c r="Q307" s="3">
-        <v>113.3</v>
+        <v>197.4</v>
       </c>
       <c r="R307" s="3">
-        <v>6022</v>
+        <v>4140</v>
       </c>
       <c r="S307" s="3">
-        <v>163.69999999999999</v>
+        <v>445.5</v>
       </c>
       <c r="T307" s="3">
-        <v>3992</v>
+        <v>2125</v>
       </c>
       <c r="U307" s="3">
-        <v>117.4</v>
+        <v>197.4</v>
       </c>
       <c r="V307" s="3">
-        <v>5951</v>
+        <v>4141</v>
       </c>
       <c r="W307" s="3">
-        <v>168.2</v>
+        <v>449.4</v>
       </c>
       <c r="X307" s="3">
-        <v>3955</v>
+        <v>2171</v>
       </c>
       <c r="Z307" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C308" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>660</v>
+        <v>689</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="H308" s="3" t="s">
-        <v>46</v>
+        <v>147</v>
+      </c>
+      <c r="G308" t="s">
+        <v>690</v>
       </c>
       <c r="L308" s="3">
-        <v>150</v>
-      </c>
-      <c r="M308" s="1">
-        <v>200000</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M308" s="1"/>
       <c r="U308" s="3">
-        <v>148.30000000000001</v>
+        <v>226.2</v>
       </c>
       <c r="V308" s="3">
-        <v>3922</v>
+        <v>6399</v>
       </c>
       <c r="W308" s="3">
-        <v>334.3</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="X308" s="3">
-        <v>2422</v>
+        <v>3371</v>
       </c>
       <c r="Z308" t="s">
-        <v>658</v>
-      </c>
-      <c r="AA308" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB308" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD308" s="4">
-        <v>490</v>
+        <v>156</v>
       </c>
     </row>
     <row r="309" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C309" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D309" t="s">
-        <v>38</v>
+        <v>691</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>663</v>
+        <v>147</v>
       </c>
       <c r="G309" t="s">
-        <v>664</v>
-      </c>
-      <c r="J309" s="3">
-        <v>8</v>
-      </c>
-      <c r="N309" s="3">
-        <v>1969</v>
-      </c>
-      <c r="Q309" s="3">
-        <v>328.3</v>
-      </c>
-      <c r="R309" s="3">
-        <v>4379</v>
-      </c>
-      <c r="S309" s="3">
-        <v>552.79999999999995</v>
-      </c>
-      <c r="T309" s="3">
-        <v>4015</v>
+        <v>690</v>
+      </c>
+      <c r="L309" s="3">
+        <v>245</v>
+      </c>
+      <c r="M309" s="1">
+        <v>8000</v>
       </c>
       <c r="U309" s="3">
-        <v>339.5</v>
+        <v>302.3</v>
       </c>
       <c r="V309" s="3">
-        <v>5125</v>
+        <v>6386</v>
       </c>
       <c r="W309" s="3">
-        <v>559.9</v>
+        <v>424.8</v>
       </c>
       <c r="X309" s="3">
-        <v>3873</v>
+        <v>3147</v>
+      </c>
+      <c r="Z309" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="310" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C310" s="4">
-        <v>9</v>
-      </c>
-      <c r="D310" t="s">
-        <v>52</v>
-      </c>
-      <c r="E310" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="G310" t="s">
-        <v>667</v>
-      </c>
-      <c r="J310" s="3">
-        <v>5</v>
-      </c>
-      <c r="L310" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q310" s="3">
-        <v>107.3</v>
-      </c>
-      <c r="R310" s="3">
-        <v>5214</v>
-      </c>
-      <c r="S310" s="3">
-        <v>163</v>
-      </c>
-      <c r="T310" s="3">
-        <v>3028</v>
-      </c>
-      <c r="U310" s="3">
-        <v>113.6</v>
-      </c>
-      <c r="V310" s="3">
-        <v>5412</v>
-      </c>
-      <c r="W310" s="3">
-        <v>169.7</v>
-      </c>
-      <c r="X310" s="3">
-        <v>3674</v>
-      </c>
-      <c r="Z310" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA310" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB310" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD310" s="4">
-        <v>580</v>
+      <c r="B310">
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C311" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J311" s="3">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="G311" t="s">
+        <v>650</v>
+      </c>
+      <c r="K311" t="s">
+        <v>76</v>
       </c>
       <c r="L311" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q311" s="3">
-        <v>178.2</v>
+        <v>154.6</v>
       </c>
       <c r="R311" s="3">
-        <v>6323</v>
+        <v>39115</v>
       </c>
       <c r="S311" s="3">
-        <v>213.5</v>
+        <v>367.9</v>
       </c>
       <c r="T311" s="3">
-        <v>5093</v>
+        <v>2264</v>
       </c>
       <c r="U311" s="3">
-        <v>179.5</v>
+        <v>154.9</v>
       </c>
       <c r="V311" s="3">
-        <v>6252</v>
+        <v>3982</v>
       </c>
       <c r="W311" s="3">
-        <v>216.8</v>
+        <v>368.3</v>
       </c>
       <c r="X311" s="3">
-        <v>5084</v>
+        <v>2346</v>
       </c>
       <c r="Z311" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C312" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D312" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="G312" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="L312" s="3">
-        <v>136</v>
+        <v>241</v>
+      </c>
+      <c r="Q312" s="3">
+        <v>227.4</v>
+      </c>
+      <c r="R312" s="3">
+        <v>5706</v>
+      </c>
+      <c r="S312" s="3">
+        <v>329.2</v>
+      </c>
+      <c r="T312" s="3">
+        <v>3772</v>
       </c>
       <c r="U312" s="3">
-        <v>125.1</v>
+        <v>216.6</v>
       </c>
       <c r="V312" s="3">
-        <v>5351</v>
+        <v>5120</v>
       </c>
       <c r="W312" s="3">
-        <v>190.2</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="X312" s="3">
-        <v>4523</v>
-      </c>
-      <c r="Z312" t="s">
-        <v>104</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="313" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C313" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D313" t="s">
-        <v>671</v>
+        <v>44</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H313" s="3" t="s">
-        <v>46</v>
+        <v>206</v>
+      </c>
+      <c r="G313" t="s">
+        <v>653</v>
       </c>
       <c r="L313" s="3">
-        <v>145</v>
-      </c>
-      <c r="Q313" s="3">
-        <v>145.6</v>
-      </c>
-      <c r="R313" s="3">
-        <v>3370</v>
-      </c>
-      <c r="S313" s="3">
-        <v>383.7</v>
-      </c>
-      <c r="T313" s="3">
-        <v>2295</v>
+        <v>122</v>
+      </c>
+      <c r="M313" s="1">
+        <v>197000</v>
       </c>
       <c r="U313" s="3">
-        <v>147</v>
+        <v>123.1</v>
       </c>
       <c r="V313" s="3">
-        <v>3405</v>
+        <v>5319</v>
       </c>
       <c r="W313" s="3">
-        <v>386.1</v>
+        <v>195</v>
       </c>
       <c r="X313" s="3">
-        <v>2295</v>
+        <v>3891</v>
       </c>
       <c r="Z313" t="s">
-        <v>64</v>
+        <v>386</v>
       </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C314" s="4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D314" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>654</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>342</v>
+        <v>656</v>
+      </c>
+      <c r="G314" t="s">
+        <v>655</v>
       </c>
       <c r="L314" s="3">
-        <v>131</v>
-      </c>
-      <c r="M314" s="1">
-        <v>300000</v>
+        <v>115</v>
+      </c>
+      <c r="Q314" s="3">
+        <v>126.6</v>
+      </c>
+      <c r="R314" s="3">
+        <v>5245</v>
+      </c>
+      <c r="S314" s="3">
+        <v>225.8</v>
+      </c>
+      <c r="T314" s="3">
+        <v>3364</v>
       </c>
       <c r="U314" s="3">
-        <v>128.9</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="V314" s="3">
-        <v>4106</v>
+        <v>5784</v>
       </c>
       <c r="W314" s="3">
-        <v>317.2</v>
+        <v>2440</v>
       </c>
       <c r="X314" s="3">
-        <v>2094</v>
+        <v>3011</v>
       </c>
       <c r="Z314" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA314" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB314" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD314" s="4">
-        <v>180</v>
+        <v>47</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C315" s="4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D315" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>475</v>
+        <v>338</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="G315" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="L315" s="3">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="M315" s="1">
-        <v>335000</v>
+        <v>550881</v>
       </c>
       <c r="Q315" s="3">
-        <v>193.1</v>
+        <v>90.8</v>
       </c>
       <c r="R315" s="3">
-        <v>6562</v>
+        <v>5587</v>
       </c>
       <c r="S315" s="3">
-        <v>262</v>
+        <v>127.1</v>
       </c>
       <c r="T315" s="3">
-        <v>195.3</v>
+        <v>4187</v>
       </c>
       <c r="U315" s="3">
-        <v>195.3</v>
+        <v>97.5</v>
       </c>
       <c r="V315" s="3">
-        <v>6605</v>
+        <v>5617</v>
       </c>
       <c r="W315" s="3">
-        <v>267.60000000000002</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="X315" s="3">
-        <v>3696</v>
+        <v>4055</v>
       </c>
       <c r="Z315" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA315" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB315" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD315" s="4">
-        <v>250</v>
+        <v>152</v>
       </c>
     </row>
     <row r="316" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B316">
-        <v>3</v>
+      <c r="C316" s="4">
+        <v>6</v>
+      </c>
+      <c r="D316" t="s">
+        <v>52</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="J316" s="3">
+        <v>5</v>
+      </c>
+      <c r="L316" s="3">
+        <v>133</v>
+      </c>
+      <c r="Q316" s="3">
+        <v>113.3</v>
+      </c>
+      <c r="R316" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S316" s="3">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="T316" s="3">
+        <v>3992</v>
+      </c>
+      <c r="U316" s="3">
+        <v>117.4</v>
+      </c>
+      <c r="V316" s="3">
+        <v>5951</v>
+      </c>
+      <c r="W316" s="3">
+        <v>168.2</v>
+      </c>
+      <c r="X316" s="3">
+        <v>3955</v>
+      </c>
+      <c r="Z316" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C317" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D317" t="s">
-        <v>197</v>
-      </c>
-      <c r="E317" s="4">
-        <v>968</v>
+        <v>28</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>660</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>463</v>
+        <v>661</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L317" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q317" s="3">
-        <v>213.8</v>
-      </c>
-      <c r="R317" s="3">
-        <v>6430</v>
-      </c>
-      <c r="S317" s="3">
-        <v>272.3</v>
-      </c>
-      <c r="T317" s="3">
-        <v>4390</v>
+        <v>150</v>
+      </c>
+      <c r="M317" s="1">
+        <v>200000</v>
       </c>
       <c r="U317" s="3">
-        <v>216.9</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="V317" s="3">
-        <v>6411</v>
+        <v>3922</v>
       </c>
       <c r="W317" s="3">
-        <v>276.2</v>
+        <v>334.3</v>
       </c>
       <c r="X317" s="3">
-        <v>4383</v>
+        <v>2422</v>
       </c>
       <c r="Z317" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="AA317" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="AB317" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="AD317" s="4">
-        <v>400</v>
+        <v>490</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C318" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D318" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>205</v>
+        <v>663</v>
       </c>
       <c r="G318" t="s">
-        <v>634</v>
-      </c>
-      <c r="L318" s="3">
-        <v>165</v>
+        <v>664</v>
+      </c>
+      <c r="J318" s="3">
+        <v>8</v>
+      </c>
+      <c r="N318" s="3">
+        <v>1969</v>
+      </c>
+      <c r="Q318" s="3">
+        <v>328.3</v>
+      </c>
+      <c r="R318" s="3">
+        <v>4379</v>
+      </c>
+      <c r="S318" s="3">
+        <v>552.79999999999995</v>
+      </c>
+      <c r="T318" s="3">
+        <v>4015</v>
       </c>
       <c r="U318" s="3">
-        <v>205.7</v>
+        <v>339.5</v>
       </c>
       <c r="V318" s="3">
-        <v>5632</v>
+        <v>5125</v>
       </c>
       <c r="W318" s="3">
-        <v>328.8</v>
+        <v>559.9</v>
       </c>
       <c r="X318" s="3">
-        <v>3799</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="319" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C319" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D319" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>147</v>
+        <v>607</v>
+      </c>
+      <c r="G319" t="s">
+        <v>667</v>
+      </c>
+      <c r="J319" s="3">
+        <v>5</v>
       </c>
       <c r="L319" s="3">
-        <v>230</v>
+        <v>133</v>
+      </c>
+      <c r="Q319" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="R319" s="3">
+        <v>5214</v>
+      </c>
+      <c r="S319" s="3">
+        <v>163</v>
+      </c>
+      <c r="T319" s="3">
+        <v>3028</v>
       </c>
       <c r="U319" s="3">
-        <v>243.4</v>
+        <v>113.6</v>
       </c>
       <c r="V319" s="3">
-        <v>5400</v>
+        <v>5412</v>
       </c>
       <c r="W319" s="3">
-        <v>354.6</v>
+        <v>169.7</v>
       </c>
       <c r="X319" s="3">
-        <v>3056</v>
+        <v>3674</v>
       </c>
       <c r="Z319" t="s">
-        <v>446</v>
+        <v>665</v>
       </c>
       <c r="AA319" t="s">
-        <v>447</v>
+        <v>666</v>
       </c>
       <c r="AB319" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AD319" s="4">
-        <v>70</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C320" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D320" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J320" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L320" s="3">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c r="Q320" s="3">
-        <v>294.39999999999998</v>
+        <v>178.2</v>
       </c>
       <c r="R320" s="3">
-        <v>6190</v>
+        <v>6323</v>
       </c>
       <c r="S320" s="3">
-        <v>404.5</v>
+        <v>213.5</v>
       </c>
       <c r="T320" s="3">
-        <v>4616</v>
+        <v>5093</v>
       </c>
       <c r="U320" s="3">
-        <v>293.10000000000002</v>
+        <v>179.5</v>
       </c>
       <c r="V320" s="3">
-        <v>6708</v>
+        <v>6252</v>
       </c>
       <c r="W320" s="3">
-        <v>405.5</v>
+        <v>216.8</v>
       </c>
       <c r="X320" s="3">
-        <v>4650</v>
+        <v>5084</v>
       </c>
       <c r="Z320" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA320" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB320" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD320" s="4">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="321" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C321" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D321" t="s">
         <v>44</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="F321" s="2" t="s">
-        <v>206</v>
+        <v>669</v>
+      </c>
+      <c r="G321" t="s">
+        <v>670</v>
       </c>
       <c r="L321" s="3">
-        <v>75</v>
-      </c>
-      <c r="M321" s="1">
-        <v>226000</v>
-      </c>
-      <c r="Q321" s="3">
-        <v>76.5</v>
-      </c>
-      <c r="R321" s="3">
-        <v>5116</v>
-      </c>
-      <c r="S321" s="3">
-        <v>115.9</v>
-      </c>
-      <c r="T321" s="3">
-        <v>3629</v>
+        <v>136</v>
       </c>
       <c r="U321" s="3">
-        <v>77.099999999999994</v>
+        <v>125.1</v>
       </c>
       <c r="V321" s="3">
-        <v>4943</v>
+        <v>5351</v>
       </c>
       <c r="W321" s="3">
-        <v>115.9</v>
+        <v>190.2</v>
       </c>
       <c r="X321" s="3">
-        <v>3522</v>
+        <v>4523</v>
       </c>
       <c r="Z321" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA321" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB321" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD321" s="4">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="322" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C322" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D322" t="s">
-        <v>52</v>
+        <v>671</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>640</v>
+        <v>672</v>
       </c>
       <c r="F322" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L322" s="3">
+        <v>145</v>
+      </c>
+      <c r="Q322" s="3">
+        <v>145.6</v>
+      </c>
+      <c r="R322" s="3">
+        <v>3370</v>
+      </c>
+      <c r="S322" s="3">
+        <v>383.7</v>
+      </c>
+      <c r="T322" s="3">
+        <v>2295</v>
+      </c>
+      <c r="U322" s="3">
         <v>147</v>
       </c>
-      <c r="L322" s="3">
-        <v>150</v>
-      </c>
-      <c r="U322" s="3">
-        <v>186.1</v>
-      </c>
       <c r="V322" s="3">
-        <v>3265</v>
+        <v>3405</v>
       </c>
       <c r="W322" s="3">
-        <v>451.4</v>
+        <v>386.1</v>
       </c>
       <c r="X322" s="3">
-        <v>2059</v>
+        <v>2295</v>
       </c>
       <c r="Z322" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA322" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB322" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD322" s="4">
-        <v>220</v>
+        <v>64</v>
       </c>
     </row>
     <row r="323" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C323" s="4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D323" t="s">
-        <v>106</v>
-      </c>
-      <c r="E323" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="J323" s="3">
-        <v>8</v>
-      </c>
-      <c r="K323" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="L323" s="3">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="M323" s="1">
-        <v>303000</v>
-      </c>
-      <c r="Q323" s="3">
-        <v>248</v>
-      </c>
-      <c r="R323" s="3">
-        <v>5970</v>
-      </c>
-      <c r="S323" s="3">
-        <v>339.7</v>
-      </c>
-      <c r="T323" s="3">
-        <v>3305</v>
+        <v>300000</v>
       </c>
       <c r="U323" s="3">
-        <v>247.9</v>
+        <v>128.9</v>
       </c>
       <c r="V323" s="3">
-        <v>6245</v>
+        <v>4106</v>
       </c>
       <c r="W323" s="3">
-        <v>342.5</v>
+        <v>317.2</v>
       </c>
       <c r="X323" s="3">
-        <v>3314</v>
+        <v>2094</v>
       </c>
       <c r="Z323" t="s">
-        <v>641</v>
+        <v>673</v>
       </c>
       <c r="AA323" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="AB323" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD323" s="4">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="324" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C324" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D324" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>207</v>
+        <v>475</v>
       </c>
       <c r="G324" t="s">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="L324" s="3">
-        <v>125</v>
+        <v>193</v>
+      </c>
+      <c r="M324" s="1">
+        <v>335000</v>
+      </c>
+      <c r="Q324" s="3">
+        <v>193.1</v>
+      </c>
+      <c r="R324" s="3">
+        <v>6562</v>
+      </c>
+      <c r="S324" s="3">
+        <v>262</v>
+      </c>
+      <c r="T324" s="3">
+        <v>195.3</v>
       </c>
       <c r="U324" s="3">
-        <v>137</v>
+        <v>195.3</v>
       </c>
       <c r="V324" s="3">
-        <v>7319</v>
+        <v>6605</v>
       </c>
       <c r="W324" s="3">
-        <v>134.5</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="X324" s="3">
-        <v>7076</v>
+        <v>3696</v>
+      </c>
+      <c r="Z324" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA324" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB324" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD324" s="4">
+        <v>250</v>
       </c>
     </row>
     <row r="325" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C325" s="4">
-        <v>9</v>
-      </c>
-      <c r="D325" t="s">
-        <v>106</v>
-      </c>
-      <c r="E325" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="F325" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="J325" s="3">
-        <v>8</v>
-      </c>
-      <c r="L325" s="3">
-        <v>367</v>
-      </c>
-      <c r="U325" s="3">
-        <v>312.8</v>
-      </c>
-      <c r="V325" s="3">
-        <v>6550</v>
-      </c>
-      <c r="W325" s="3">
-        <v>410.4</v>
-      </c>
-      <c r="X325" s="3">
-        <v>4479</v>
-      </c>
-      <c r="Z325" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA325" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB325" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD325" s="4">
-        <v>45</v>
+      <c r="B325">
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C326" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D326" t="s">
-        <v>28</v>
-      </c>
-      <c r="E326" s="4" t="s">
-        <v>646</v>
+        <v>197</v>
+      </c>
+      <c r="E326" s="4">
+        <v>968</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G326" t="s">
-        <v>606</v>
+        <v>463</v>
       </c>
       <c r="L326" s="3">
-        <v>220</v>
-      </c>
-      <c r="N326" s="3">
-        <v>1981</v>
+        <v>240</v>
+      </c>
+      <c r="Q326" s="3">
+        <v>213.8</v>
+      </c>
+      <c r="R326" s="3">
+        <v>6430</v>
+      </c>
+      <c r="S326" s="3">
+        <v>272.3</v>
+      </c>
+      <c r="T326" s="3">
+        <v>4390</v>
       </c>
       <c r="U326" s="3">
-        <v>190.7</v>
+        <v>216.9</v>
       </c>
       <c r="V326" s="3">
-        <v>6165</v>
+        <v>6411</v>
       </c>
       <c r="W326" s="3">
-        <v>280.89999999999998</v>
+        <v>276.2</v>
       </c>
       <c r="X326" s="3">
-        <v>4193</v>
+        <v>4383</v>
       </c>
       <c r="Z326" t="s">
-        <v>104</v>
+        <v>632</v>
       </c>
       <c r="AA326" t="s">
-        <v>105</v>
+        <v>633</v>
       </c>
       <c r="AB326" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AD326" s="4">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="327" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C327" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D327" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J327" s="3">
-        <v>6</v>
+        <v>205</v>
+      </c>
+      <c r="G327" t="s">
+        <v>634</v>
       </c>
       <c r="L327" s="3">
-        <v>306</v>
-      </c>
-      <c r="Q327" s="3">
-        <v>336.6</v>
-      </c>
-      <c r="R327" s="3">
-        <v>5778</v>
-      </c>
-      <c r="S327" s="3">
-        <v>550</v>
-      </c>
-      <c r="T327" s="3">
-        <v>4222</v>
+        <v>165</v>
       </c>
       <c r="U327" s="3">
-        <v>341.5</v>
+        <v>205.7</v>
       </c>
       <c r="V327" s="3">
-        <v>4394</v>
+        <v>5632</v>
       </c>
       <c r="W327" s="3">
-        <v>557.29999999999995</v>
+        <v>328.8</v>
       </c>
       <c r="X327" s="3">
-        <v>4310</v>
-      </c>
-      <c r="Z327" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA327" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB327" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="328" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C328" s="4">
+        <v>3</v>
+      </c>
+      <c r="D328" t="s">
+        <v>44</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L328" s="3">
+        <v>230</v>
+      </c>
+      <c r="U328" s="3">
+        <v>243.4</v>
+      </c>
+      <c r="V328" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W328" s="3">
+        <v>354.6</v>
+      </c>
+      <c r="X328" s="3">
+        <v>3056</v>
+      </c>
+      <c r="Z328" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>447</v>
+      </c>
+      <c r="AB328" t="s">
         <v>42</v>
       </c>
-      <c r="AD327" s="4">
+      <c r="AD328" s="4">
         <v>70</v>
-      </c>
-    </row>
-    <row r="328" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B328">
-        <v>2</v>
       </c>
     </row>
     <row r="329" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C329" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D329" t="s">
-        <v>528</v>
+        <v>38</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="J329" s="3">
+        <v>5</v>
       </c>
       <c r="L329" s="3">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="Q329" s="3">
-        <v>184.2</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="R329" s="3">
-        <v>6393</v>
+        <v>6190</v>
       </c>
       <c r="S329" s="3">
-        <v>236.7</v>
+        <v>404.5</v>
       </c>
       <c r="T329" s="3">
-        <v>4499</v>
+        <v>4616</v>
       </c>
       <c r="U329" s="3">
-        <v>186.4</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="V329" s="3">
-        <v>6385</v>
+        <v>6708</v>
       </c>
       <c r="W329" s="3">
-        <v>234.9</v>
+        <v>405.5</v>
       </c>
       <c r="X329" s="3">
-        <v>4542</v>
+        <v>4650</v>
       </c>
       <c r="Z329" t="s">
-        <v>596</v>
+        <v>446</v>
       </c>
       <c r="AA329" t="s">
-        <v>597</v>
+        <v>447</v>
       </c>
       <c r="AB329" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AD329" s="4">
-        <v>385</v>
+        <v>70</v>
       </c>
     </row>
     <row r="330" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C330" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D330" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K330" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="L330" s="3">
-        <v>220</v>
+        <v>75</v>
+      </c>
+      <c r="M330" s="1">
+        <v>226000</v>
       </c>
       <c r="Q330" s="3">
-        <v>167</v>
+        <v>76.5</v>
       </c>
       <c r="R330" s="3">
-        <v>6189</v>
+        <v>5116</v>
       </c>
       <c r="S330" s="3">
-        <v>226.7</v>
+        <v>115.9</v>
       </c>
       <c r="T330" s="3">
-        <v>3026</v>
+        <v>3629</v>
       </c>
       <c r="U330" s="3">
-        <v>167.6</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V330" s="3">
-        <v>6627</v>
+        <v>4943</v>
       </c>
       <c r="W330" s="3">
-        <v>232</v>
+        <v>115.9</v>
       </c>
       <c r="X330" s="3">
-        <v>3046</v>
+        <v>3522</v>
       </c>
       <c r="Z330" t="s">
-        <v>599</v>
+        <v>446</v>
       </c>
       <c r="AA330" t="s">
-        <v>600</v>
+        <v>447</v>
       </c>
       <c r="AB330" t="s">
         <v>42</v>
       </c>
       <c r="AD330" s="4">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="331" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C331" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D331" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G331" t="s">
-        <v>606</v>
-      </c>
-      <c r="K331" t="s">
-        <v>76</v>
+        <v>640</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L331" s="3">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="U331" s="3">
-        <v>160.6</v>
+        <v>186.1</v>
       </c>
       <c r="V331" s="3">
-        <v>5334</v>
+        <v>3265</v>
       </c>
       <c r="W331" s="3">
-        <v>200.5</v>
+        <v>451.4</v>
       </c>
       <c r="X331" s="3">
-        <v>4806</v>
+        <v>2059</v>
       </c>
       <c r="Z331" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="AA331" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="AB331" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD331" s="4">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="332" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C332" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D332" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="J332" s="3">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="K332" t="s">
+        <v>76</v>
       </c>
       <c r="L332" s="3">
-        <v>150</v>
+        <v>306</v>
       </c>
       <c r="M332" s="1">
-        <v>293000</v>
+        <v>303000</v>
+      </c>
+      <c r="Q332" s="3">
+        <v>248</v>
+      </c>
+      <c r="R332" s="3">
+        <v>5970</v>
+      </c>
+      <c r="S332" s="3">
+        <v>339.7</v>
+      </c>
+      <c r="T332" s="3">
+        <v>3305</v>
       </c>
       <c r="U332" s="3">
-        <v>142.4</v>
+        <v>247.9</v>
       </c>
       <c r="V332" s="3">
-        <v>4907</v>
+        <v>6245</v>
       </c>
       <c r="W332" s="3">
-        <v>234.4</v>
+        <v>342.5</v>
       </c>
       <c r="X332" s="3">
-        <v>3859</v>
+        <v>3314</v>
       </c>
       <c r="Z332" t="s">
-        <v>604</v>
+        <v>641</v>
       </c>
       <c r="AA332" t="s">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="AB332" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="AD332" s="4">
-        <v>413</v>
+        <v>30</v>
       </c>
     </row>
     <row r="333" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C333" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D333" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>608</v>
+        <v>413</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G333" t="s">
-        <v>609</v>
+        <v>644</v>
       </c>
       <c r="L333" s="3">
-        <v>120</v>
-      </c>
-      <c r="Q333" s="3">
-        <v>122</v>
-      </c>
-      <c r="R333" s="3">
-        <v>6640</v>
-      </c>
-      <c r="S333" s="3">
-        <v>149.1</v>
-      </c>
-      <c r="T333" s="3">
-        <v>3067</v>
+        <v>125</v>
       </c>
       <c r="U333" s="3">
-        <v>130.1</v>
+        <v>137</v>
       </c>
       <c r="V333" s="3">
-        <v>6687</v>
+        <v>7319</v>
       </c>
       <c r="W333" s="3">
-        <v>154.9</v>
+        <v>134.5</v>
       </c>
       <c r="X333" s="3">
-        <v>3043</v>
-      </c>
-      <c r="Z333" t="s">
-        <v>552</v>
-      </c>
-      <c r="AA333" t="s">
-        <v>553</v>
-      </c>
-      <c r="AB333" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD333" s="4">
-        <v>120</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="334" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C334" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D334" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>373</v>
+        <v>635</v>
       </c>
       <c r="J334" s="3">
-        <v>5</v>
-      </c>
-      <c r="K334" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="L334" s="3">
-        <v>136</v>
+        <v>367</v>
       </c>
       <c r="U334" s="3">
-        <v>115.1</v>
+        <v>312.8</v>
       </c>
       <c r="V334" s="3">
-        <v>6028</v>
+        <v>6550</v>
       </c>
       <c r="W334" s="3">
-        <v>169.6</v>
+        <v>410.4</v>
       </c>
       <c r="X334" s="3">
-        <v>2501</v>
+        <v>4479</v>
       </c>
       <c r="Z334" t="s">
-        <v>610</v>
+        <v>156</v>
       </c>
       <c r="AA334" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC334" t="s">
-        <v>611</v>
+        <v>157</v>
+      </c>
+      <c r="AB334" t="s">
+        <v>42</v>
       </c>
       <c r="AD334" s="4">
-        <v>650</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C335" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D335" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>147</v>
+        <v>474</v>
       </c>
       <c r="G335" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="L335" s="3">
-        <v>265</v>
-      </c>
-      <c r="Q335" s="3">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="R335" s="3">
-        <v>6022</v>
-      </c>
-      <c r="S335" s="3">
-        <v>375.1</v>
-      </c>
-      <c r="T335" s="3">
-        <v>3212</v>
+        <v>220</v>
+      </c>
+      <c r="N335" s="3">
+        <v>1981</v>
       </c>
       <c r="U335" s="3">
-        <v>283.60000000000002</v>
+        <v>190.7</v>
       </c>
       <c r="V335" s="3">
-        <v>5525</v>
+        <v>6165</v>
       </c>
       <c r="W335" s="3">
-        <v>398.7</v>
+        <v>280.89999999999998</v>
       </c>
       <c r="X335" s="3">
-        <v>3621</v>
+        <v>4193</v>
       </c>
       <c r="Z335" t="s">
-        <v>400</v>
+        <v>104</v>
       </c>
       <c r="AA335" t="s">
-        <v>401</v>
+        <v>105</v>
       </c>
       <c r="AB335" t="s">
         <v>42</v>
       </c>
       <c r="AD335" s="4">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C336" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D336" t="s">
         <v>28</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G336" t="s">
-        <v>618</v>
+        <v>648</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J336" s="3">
+        <v>6</v>
       </c>
       <c r="L336" s="3">
-        <v>129</v>
+        <v>306</v>
+      </c>
+      <c r="Q336" s="3">
+        <v>336.6</v>
+      </c>
+      <c r="R336" s="3">
+        <v>5778</v>
+      </c>
+      <c r="S336" s="3">
+        <v>550</v>
+      </c>
+      <c r="T336" s="3">
+        <v>4222</v>
       </c>
       <c r="U336" s="3">
-        <v>181</v>
+        <v>341.5</v>
       </c>
       <c r="V336" s="3">
-        <v>5896</v>
+        <v>4394</v>
       </c>
       <c r="W336" s="3">
-        <v>233</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="X336" s="3">
-        <v>5296</v>
+        <v>4310</v>
       </c>
       <c r="Z336" t="s">
-        <v>616</v>
+        <v>305</v>
       </c>
       <c r="AA336" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="AB336" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD336" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="337" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C337" s="4">
-        <v>9</v>
-      </c>
-      <c r="D337" t="s">
-        <v>52</v>
-      </c>
-      <c r="E337" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G337" t="s">
-        <v>623</v>
-      </c>
-      <c r="J337" s="3">
-        <v>5</v>
-      </c>
-      <c r="U337" s="3">
-        <v>227.8</v>
-      </c>
-      <c r="V337" s="3">
-        <v>5921</v>
-      </c>
-      <c r="W337" s="3">
-        <v>343</v>
-      </c>
-      <c r="X337" s="3">
-        <v>4521</v>
-      </c>
-      <c r="Z337" t="s">
-        <v>620</v>
-      </c>
-      <c r="AA337" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB337" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD337" s="4">
-        <v>130</v>
+      <c r="B337">
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C338" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D338" t="s">
-        <v>217</v>
+        <v>528</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>626</v>
+        <v>598</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="L338" s="3">
-        <v>135</v>
+        <v>169</v>
+      </c>
+      <c r="Q338" s="3">
+        <v>184.2</v>
+      </c>
+      <c r="R338" s="3">
+        <v>6393</v>
+      </c>
+      <c r="S338" s="3">
+        <v>236.7</v>
+      </c>
+      <c r="T338" s="3">
+        <v>4499</v>
       </c>
       <c r="U338" s="3">
-        <v>133.4</v>
+        <v>186.4</v>
       </c>
       <c r="V338" s="3">
-        <v>6587</v>
+        <v>6385</v>
       </c>
       <c r="W338" s="3">
-        <v>148.5</v>
+        <v>234.9</v>
       </c>
       <c r="X338" s="3">
-        <v>4539</v>
+        <v>4542</v>
       </c>
       <c r="Z338" t="s">
-        <v>624</v>
+        <v>596</v>
       </c>
       <c r="AA338" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="AB338" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AD338" s="4">
-        <v>80</v>
+        <v>385</v>
       </c>
     </row>
     <row r="339" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C339" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D339" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G339" t="s">
-        <v>576</v>
-      </c>
-      <c r="H339" s="3" t="s">
-        <v>46</v>
+        <v>602</v>
+      </c>
+      <c r="K339" t="s">
+        <v>76</v>
       </c>
       <c r="L339" s="3">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="Q339" s="3">
-        <v>158.69999999999999</v>
+        <v>167</v>
       </c>
       <c r="R339" s="3">
-        <v>4020</v>
+        <v>6189</v>
       </c>
       <c r="S339" s="3">
-        <v>348.9</v>
+        <v>226.7</v>
       </c>
       <c r="T339" s="3">
-        <v>2359</v>
+        <v>3026</v>
       </c>
       <c r="U339" s="3">
-        <v>160.6</v>
+        <v>167.6</v>
       </c>
       <c r="V339" s="3">
-        <v>4049</v>
+        <v>6627</v>
       </c>
       <c r="W339" s="3">
-        <v>350.3</v>
+        <v>232</v>
       </c>
       <c r="X339" s="3">
-        <v>2430</v>
+        <v>3046</v>
       </c>
       <c r="Z339" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="AA339" t="s">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="AB339" t="s">
         <v>42</v>
       </c>
       <c r="AD339" s="4">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="340" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C340" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D340" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F340" s="2" t="s">
-        <v>147</v>
+        <v>603</v>
       </c>
       <c r="G340" t="s">
-        <v>576</v>
+        <v>606</v>
+      </c>
+      <c r="K340" t="s">
+        <v>76</v>
       </c>
       <c r="L340" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q340" s="3">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="R340" s="3">
-        <v>6258</v>
-      </c>
-      <c r="S340" s="3">
-        <v>449.1</v>
-      </c>
-      <c r="T340" s="3">
-        <v>3927</v>
+        <v>180</v>
       </c>
       <c r="U340" s="3">
-        <v>308.89999999999998</v>
+        <v>160.6</v>
       </c>
       <c r="V340" s="3">
-        <v>6376</v>
+        <v>5334</v>
       </c>
       <c r="W340" s="3">
-        <v>447.1</v>
+        <v>200.5</v>
       </c>
       <c r="X340" s="3">
-        <v>3904</v>
+        <v>4806</v>
       </c>
       <c r="Z340" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="AA340" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="AB340" t="s">
         <v>42</v>
       </c>
       <c r="AD340" s="4">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C341" s="4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D341" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K341" t="s">
-        <v>76</v>
+        <v>574</v>
+      </c>
+      <c r="J341" s="3">
+        <v>6</v>
       </c>
       <c r="L341" s="3">
-        <v>193</v>
+        <v>150</v>
+      </c>
+      <c r="M341" s="1">
+        <v>293000</v>
       </c>
       <c r="U341" s="3">
-        <v>205</v>
+        <v>142.4</v>
+      </c>
+      <c r="V341" s="3">
+        <v>4907</v>
       </c>
       <c r="W341" s="3">
-        <v>240</v>
+        <v>234.4</v>
+      </c>
+      <c r="X341" s="3">
+        <v>3859</v>
       </c>
       <c r="Z341" t="s">
-        <v>215</v>
+        <v>604</v>
       </c>
       <c r="AA341" t="s">
-        <v>216</v>
+        <v>605</v>
       </c>
       <c r="AB341" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD341" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="342" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C342" s="4">
+        <v>5</v>
+      </c>
+      <c r="D342" t="s">
+        <v>44</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G342" t="s">
+        <v>609</v>
+      </c>
+      <c r="L342" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q342" s="3">
+        <v>122</v>
+      </c>
+      <c r="R342" s="3">
+        <v>6640</v>
+      </c>
+      <c r="S342" s="3">
+        <v>149.1</v>
+      </c>
+      <c r="T342" s="3">
+        <v>3067</v>
+      </c>
+      <c r="U342" s="3">
+        <v>130.1</v>
+      </c>
+      <c r="V342" s="3">
+        <v>6687</v>
+      </c>
+      <c r="W342" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="X342" s="3">
+        <v>3043</v>
+      </c>
+      <c r="Z342" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB342" t="s">
         <v>42</v>
       </c>
-      <c r="AD341" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="342" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B342">
-        <v>1</v>
+      <c r="AD342" s="4">
+        <v>120</v>
       </c>
     </row>
     <row r="343" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C343" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="J343" s="3">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="K343" t="s">
+        <v>76</v>
       </c>
       <c r="L343" s="3">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="U343" s="3">
-        <v>196.4</v>
+        <v>115.1</v>
       </c>
       <c r="V343" s="3">
-        <v>6004</v>
+        <v>6028</v>
       </c>
       <c r="W343" s="3">
-        <v>250</v>
+        <v>169.6</v>
       </c>
       <c r="X343" s="3">
-        <v>4813</v>
+        <v>2501</v>
       </c>
       <c r="Z343" t="s">
-        <v>69</v>
+        <v>610</v>
       </c>
       <c r="AA343" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB343" t="s">
-        <v>42</v>
+        <v>612</v>
+      </c>
+      <c r="AC343" t="s">
+        <v>611</v>
       </c>
       <c r="AD343" s="4">
-        <v>77</v>
+        <v>650</v>
       </c>
     </row>
     <row r="344" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C344" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D344" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="G344" t="s">
+        <v>615</v>
       </c>
       <c r="L344" s="3">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="Q344" s="3">
-        <v>161.19999999999999</v>
+        <v>266.89999999999998</v>
       </c>
       <c r="R344" s="3">
-        <v>25980</v>
+        <v>6022</v>
       </c>
       <c r="S344" s="3">
-        <v>212.9</v>
+        <v>375.1</v>
       </c>
       <c r="T344" s="3">
-        <v>4710</v>
+        <v>3212</v>
       </c>
       <c r="U344" s="3">
-        <v>162.9</v>
+        <v>283.60000000000002</v>
       </c>
       <c r="V344" s="3">
-        <v>6026</v>
+        <v>5525</v>
       </c>
       <c r="W344" s="3">
-        <v>216.6</v>
+        <v>398.7</v>
       </c>
       <c r="X344" s="3">
-        <v>4748</v>
+        <v>3621</v>
       </c>
       <c r="Z344" t="s">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="AA344" t="s">
-        <v>313</v>
+        <v>401</v>
       </c>
       <c r="AB344" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD344" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="345" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C345" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D345" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>147</v>
+        <v>619</v>
       </c>
       <c r="G345" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="L345" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q345" s="3">
-        <v>268.3</v>
-      </c>
-      <c r="R345" s="3">
-        <v>5341</v>
-      </c>
-      <c r="S345" s="3">
-        <v>440.9</v>
-      </c>
-      <c r="T345" s="3">
-        <v>2638</v>
+        <v>129</v>
       </c>
       <c r="U345" s="3">
-        <v>268.2</v>
+        <v>181</v>
       </c>
       <c r="V345" s="3">
-        <v>5400</v>
+        <v>5896</v>
       </c>
       <c r="W345" s="3">
-        <v>448.9</v>
+        <v>233</v>
       </c>
       <c r="X345" s="3">
-        <v>2646</v>
+        <v>5296</v>
       </c>
       <c r="Z345" t="s">
-        <v>215</v>
+        <v>616</v>
       </c>
       <c r="AA345" t="s">
-        <v>216</v>
+        <v>617</v>
       </c>
       <c r="AB345" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD345" s="4">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="346" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C346" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D346" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G346" t="s">
-        <v>590</v>
-      </c>
-      <c r="L346" s="3">
-        <v>139</v>
-      </c>
-      <c r="N346" s="3">
-        <v>1986</v>
-      </c>
-      <c r="Q346" s="3">
-        <v>209.1</v>
-      </c>
-      <c r="R346" s="3">
-        <v>7791</v>
-      </c>
-      <c r="S346" s="3">
-        <v>212</v>
-      </c>
-      <c r="T346" s="3">
-        <v>5755</v>
+        <v>623</v>
+      </c>
+      <c r="J346" s="3">
+        <v>5</v>
       </c>
       <c r="U346" s="3">
-        <v>208</v>
+        <v>227.8</v>
       </c>
       <c r="V346" s="3">
-        <v>7966</v>
+        <v>5921</v>
       </c>
       <c r="W346" s="3">
-        <v>213.2</v>
+        <v>343</v>
       </c>
       <c r="X346" s="3">
-        <v>5807</v>
+        <v>4521</v>
+      </c>
+      <c r="Z346" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA346" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB346" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD346" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="347" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C347" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D347" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="F347" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G347" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="L347" s="3">
-        <v>85</v>
-      </c>
-      <c r="Q347" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="R347" s="3">
-        <v>5085</v>
-      </c>
-      <c r="S347" s="3">
-        <v>160.1</v>
-      </c>
-      <c r="T347" s="3">
-        <v>3668</v>
+        <v>135</v>
       </c>
       <c r="U347" s="3">
-        <v>96.9</v>
+        <v>133.4</v>
       </c>
       <c r="V347" s="3">
-        <v>4993</v>
+        <v>6587</v>
       </c>
       <c r="W347" s="3">
-        <v>159.5</v>
+        <v>148.5</v>
       </c>
       <c r="X347" s="3">
-        <v>3305</v>
+        <v>4539</v>
       </c>
       <c r="Z347" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="AA347" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
       <c r="AB347" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD347" s="4">
-        <v>280</v>
+        <v>80</v>
       </c>
     </row>
     <row r="348" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C348" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D348" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>372</v>
+        <v>629</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>208</v>
+        <v>346</v>
       </c>
       <c r="G348" t="s">
-        <v>595</v>
+        <v>576</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L348" s="3">
-        <v>116</v>
-      </c>
-      <c r="M348" s="1">
-        <v>325000</v>
+        <v>131</v>
       </c>
       <c r="Q348" s="3">
-        <v>109.7</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="R348" s="3">
-        <v>6570</v>
+        <v>4020</v>
       </c>
       <c r="S348" s="3">
-        <v>130</v>
+        <v>348.9</v>
       </c>
       <c r="T348" s="3">
-        <v>5181</v>
+        <v>2359</v>
       </c>
       <c r="U348" s="3">
-        <v>111.1</v>
+        <v>160.6</v>
       </c>
       <c r="V348" s="3">
-        <v>6500</v>
+        <v>4049</v>
       </c>
       <c r="W348" s="3">
-        <v>132.30000000000001</v>
+        <v>350.3</v>
       </c>
       <c r="X348" s="3">
-        <v>5179</v>
+        <v>2430</v>
       </c>
       <c r="Z348" t="s">
-        <v>47</v>
+        <v>627</v>
       </c>
       <c r="AA348" t="s">
-        <v>48</v>
+        <v>628</v>
       </c>
       <c r="AB348" t="s">
         <v>42</v>
       </c>
       <c r="AD348" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C349" s="4">
+        <v>12</v>
+      </c>
+      <c r="D349" t="s">
+        <v>44</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G349" t="s">
+        <v>576</v>
+      </c>
+      <c r="L349" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q349" s="3">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R349" s="3">
+        <v>6258</v>
+      </c>
+      <c r="S349" s="3">
+        <v>449.1</v>
+      </c>
+      <c r="T349" s="3">
+        <v>3927</v>
+      </c>
+      <c r="U349" s="3">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="V349" s="3">
+        <v>6376</v>
+      </c>
+      <c r="W349" s="3">
+        <v>447.1</v>
+      </c>
+      <c r="X349" s="3">
+        <v>3904</v>
+      </c>
+      <c r="Z349" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA349" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB349" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD349" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="350" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C350" s="4">
+        <v>13</v>
+      </c>
+      <c r="D350" t="s">
+        <v>28</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K350" t="s">
+        <v>76</v>
+      </c>
+      <c r="L350" s="3">
+        <v>193</v>
+      </c>
+      <c r="U350" s="3">
+        <v>205</v>
+      </c>
+      <c r="W350" s="3">
+        <v>240</v>
+      </c>
+      <c r="Z350" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA350" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB350" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD350" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C352" s="4">
+        <v>1</v>
+      </c>
+      <c r="D352" t="s">
+        <v>28</v>
+      </c>
+      <c r="E352" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J352" s="3">
+        <v>6</v>
+      </c>
+      <c r="L352" s="3">
+        <v>193</v>
+      </c>
+      <c r="U352" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V352" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W352" s="3">
+        <v>250</v>
+      </c>
+      <c r="X352" s="3">
+        <v>4813</v>
+      </c>
+      <c r="Z352" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA352" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB352" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD352" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="353" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C353" s="4">
+        <v>2</v>
+      </c>
+      <c r="D353" t="s">
+        <v>44</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L353" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q353" s="3">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="R353" s="3">
+        <v>25980</v>
+      </c>
+      <c r="S353" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="T353" s="3">
+        <v>4710</v>
+      </c>
+      <c r="U353" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="V353" s="3">
+        <v>6026</v>
+      </c>
+      <c r="W353" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="X353" s="3">
+        <v>4748</v>
+      </c>
+      <c r="Z353" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA353" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB353" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD353" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="354" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C354" s="4">
+        <v>3</v>
+      </c>
+      <c r="D354" t="s">
+        <v>38</v>
+      </c>
+      <c r="E354" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G354" t="s">
+        <v>588</v>
+      </c>
+      <c r="L354" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q354" s="3">
+        <v>268.3</v>
+      </c>
+      <c r="R354" s="3">
+        <v>5341</v>
+      </c>
+      <c r="S354" s="3">
+        <v>440.9</v>
+      </c>
+      <c r="T354" s="3">
+        <v>2638</v>
+      </c>
+      <c r="U354" s="3">
+        <v>268.2</v>
+      </c>
+      <c r="V354" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W354" s="3">
+        <v>448.9</v>
+      </c>
+      <c r="X354" s="3">
+        <v>2646</v>
+      </c>
+      <c r="Z354" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA354" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB354" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD354" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C355" s="4">
+        <v>4</v>
+      </c>
+      <c r="D355" t="s">
+        <v>44</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G355" t="s">
+        <v>590</v>
+      </c>
+      <c r="L355" s="3">
+        <v>139</v>
+      </c>
+      <c r="N355" s="3">
+        <v>1986</v>
+      </c>
+      <c r="Q355" s="3">
+        <v>209.1</v>
+      </c>
+      <c r="R355" s="3">
+        <v>7791</v>
+      </c>
+      <c r="S355" s="3">
+        <v>212</v>
+      </c>
+      <c r="T355" s="3">
+        <v>5755</v>
+      </c>
+      <c r="U355" s="3">
+        <v>208</v>
+      </c>
+      <c r="V355" s="3">
+        <v>7966</v>
+      </c>
+      <c r="W355" s="3">
+        <v>213.2</v>
+      </c>
+      <c r="X355" s="3">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="356" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C356" s="4">
+        <v>5</v>
+      </c>
+      <c r="D356" t="s">
+        <v>44</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G356" t="s">
+        <v>594</v>
+      </c>
+      <c r="L356" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q356" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="R356" s="3">
+        <v>5085</v>
+      </c>
+      <c r="S356" s="3">
+        <v>160.1</v>
+      </c>
+      <c r="T356" s="3">
+        <v>3668</v>
+      </c>
+      <c r="U356" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="V356" s="3">
+        <v>4993</v>
+      </c>
+      <c r="W356" s="3">
+        <v>159.5</v>
+      </c>
+      <c r="X356" s="3">
+        <v>3305</v>
+      </c>
+      <c r="Z356" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA356" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB356" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD356" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="357" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C357" s="4">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>178</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G357" t="s">
+        <v>595</v>
+      </c>
+      <c r="L357" s="3">
+        <v>116</v>
+      </c>
+      <c r="M357" s="1">
+        <v>325000</v>
+      </c>
+      <c r="Q357" s="3">
+        <v>109.7</v>
+      </c>
+      <c r="R357" s="3">
+        <v>6570</v>
+      </c>
+      <c r="S357" s="3">
+        <v>130</v>
+      </c>
+      <c r="T357" s="3">
+        <v>5181</v>
+      </c>
+      <c r="U357" s="3">
+        <v>111.1</v>
+      </c>
+      <c r="V357" s="3">
+        <v>6500</v>
+      </c>
+      <c r="W357" s="3">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="X357" s="3">
+        <v>5179</v>
+      </c>
+      <c r="Z357" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA357" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB357" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD357" s="4">
         <v>36</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E7E891-F1FB-4B92-BD3F-C5D9A6973A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9843A315-4376-4BF2-AC50-8468E3D548CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="718">
   <si>
     <t>Episode</t>
   </si>
@@ -2099,6 +2099,81 @@
   </si>
   <si>
     <t>Octavia 3 RS</t>
+  </si>
+  <si>
+    <t>Performance Paket</t>
+  </si>
+  <si>
+    <t>120D</t>
+  </si>
+  <si>
+    <t>Clio</t>
+  </si>
+  <si>
+    <t>16V, Fächerkrümmer</t>
+  </si>
+  <si>
+    <t>RX 8</t>
+  </si>
+  <si>
+    <t>Wankelmotor</t>
+  </si>
+  <si>
+    <t>Astra ( F ) 16V</t>
+  </si>
+  <si>
+    <t>Cabirolet</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Rastatt</t>
+  </si>
+  <si>
+    <t>A2 (S-Line) 16V</t>
+  </si>
+  <si>
+    <t>Taunus (20M P7)</t>
+  </si>
+  <si>
+    <t>Leon Cupra</t>
+  </si>
+  <si>
+    <t>Passat (3B)</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Starnberg</t>
+  </si>
+  <si>
+    <t>Adam (S)</t>
+  </si>
+  <si>
+    <t>1. Messung mit Tuningbox</t>
+  </si>
+  <si>
+    <t>E46 320d (Cabrio)</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Königs Wusterhusen</t>
+  </si>
+  <si>
+    <t>2. Messung mit Serienladedruck</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>80 (B4) Coupe</t>
+  </si>
+  <si>
+    <t>Mondeo (ST220)</t>
   </si>
 </sst>
 </file>
@@ -2947,10 +3022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE357"/>
+  <dimension ref="A1:AE371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="G309" sqref="G309"/>
+    <sheetView tabSelected="1" topLeftCell="B292" workbookViewId="0">
+      <selection activeCell="S312" sqref="S312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11986,501 +12061,539 @@
         <v>6</v>
       </c>
     </row>
+    <row r="298" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C298" s="4">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>28</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G298" t="s">
+        <v>693</v>
+      </c>
+      <c r="L298" s="3">
+        <v>185</v>
+      </c>
+      <c r="U298" s="3">
+        <v>198.9</v>
+      </c>
+      <c r="V298" s="3">
+        <v>4106</v>
+      </c>
+      <c r="W298" s="3">
+        <v>417.2</v>
+      </c>
+      <c r="X298" s="3">
+        <v>2732</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>446</v>
+      </c>
+    </row>
     <row r="299" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B299">
-        <v>5</v>
+      <c r="C299" s="4">
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>217</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G299" t="s">
+        <v>696</v>
+      </c>
+      <c r="L299" s="3">
+        <v>135</v>
+      </c>
+      <c r="U299" s="3">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="V299" s="3">
+        <v>6642</v>
+      </c>
+      <c r="W299" s="3">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="X299" s="3">
+        <v>6342</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="300" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C300" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D300" t="s">
-        <v>412</v>
+        <v>278</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>147</v>
+        <v>298</v>
       </c>
       <c r="G300" t="s">
-        <v>576</v>
+        <v>698</v>
       </c>
       <c r="L300" s="3">
-        <v>200</v>
+        <v>231</v>
+      </c>
+      <c r="M300" s="1">
+        <v>157115</v>
+      </c>
+      <c r="N300" s="3">
+        <v>2004</v>
       </c>
       <c r="U300" s="3">
-        <v>191.2</v>
+        <v>199.3</v>
       </c>
       <c r="V300" s="3">
-        <v>8095</v>
+        <v>6844</v>
       </c>
       <c r="W300" s="3">
-        <v>184</v>
+        <v>173.9</v>
       </c>
       <c r="X300" s="3">
-        <v>6394</v>
+        <v>7611</v>
       </c>
       <c r="Z300" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="301" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C301" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D301" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>208</v>
       </c>
       <c r="L301" s="3">
-        <v>95</v>
-      </c>
-      <c r="Q301" s="3">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="R301" s="3">
-        <v>6130</v>
-      </c>
-      <c r="S301" s="3">
-        <v>89.8</v>
-      </c>
-      <c r="T301" s="3">
-        <v>6020</v>
+        <v>115</v>
+      </c>
+      <c r="M301" s="1">
+        <v>396000</v>
       </c>
       <c r="U301" s="3">
-        <v>78.7</v>
+        <v>121.6</v>
       </c>
       <c r="V301" s="3">
-        <v>6094</v>
+        <v>6112</v>
       </c>
       <c r="W301" s="3">
-        <v>91.7</v>
+        <v>170.6</v>
       </c>
       <c r="X301" s="3">
-        <v>5966</v>
+        <v>4285</v>
       </c>
       <c r="Z301" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA301" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB301" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD301" s="4">
-        <v>100</v>
+        <v>251</v>
       </c>
     </row>
     <row r="302" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C302" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D302" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G302" t="s">
-        <v>685</v>
-      </c>
-      <c r="J302" s="3">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="L302" s="3">
-        <v>231</v>
-      </c>
-      <c r="M302" s="1">
-        <v>377473</v>
-      </c>
-      <c r="Q302" s="3">
-        <v>199.6</v>
-      </c>
-      <c r="R302" s="3">
-        <v>6123</v>
-      </c>
-      <c r="S302" s="3">
-        <v>268.2</v>
-      </c>
-      <c r="T302" s="3">
-        <v>3625</v>
+        <v>125</v>
       </c>
       <c r="U302" s="3">
-        <v>202.2</v>
+        <v>124.6</v>
       </c>
       <c r="V302" s="3">
-        <v>6211</v>
+        <v>6041</v>
       </c>
       <c r="W302" s="3">
-        <v>269.60000000000002</v>
+        <v>158.5</v>
       </c>
       <c r="X302" s="3">
-        <v>3618</v>
+        <v>3470</v>
       </c>
       <c r="Z302" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="AA302" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="AB302" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="AD302" s="4">
-        <v>252</v>
+        <v>380</v>
       </c>
     </row>
     <row r="303" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C303" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D303" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G303" t="s">
-        <v>576</v>
+        <v>206</v>
       </c>
       <c r="L303" s="3">
-        <v>240</v>
+        <v>75</v>
+      </c>
+      <c r="M303" s="1">
+        <v>464568</v>
       </c>
       <c r="U303" s="3">
-        <v>261.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="V303" s="3">
-        <v>5721</v>
+        <v>5100</v>
       </c>
       <c r="W303" s="3">
-        <v>406.3</v>
+        <v>121.3</v>
       </c>
       <c r="X303" s="3">
-        <v>4044</v>
+        <v>4012</v>
+      </c>
+      <c r="Z303" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="304" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C304" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D304" t="s">
-        <v>52</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G304" t="s">
-        <v>424</v>
-      </c>
-      <c r="K304" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="L304" s="3">
-        <v>113</v>
-      </c>
-      <c r="M304" s="1">
-        <v>137872</v>
+        <v>90</v>
       </c>
       <c r="Q304" s="3">
-        <v>97</v>
+        <v>107.2</v>
       </c>
       <c r="R304" s="3">
-        <v>5372</v>
+        <v>5650</v>
       </c>
       <c r="S304" s="3">
-        <v>168.8</v>
+        <v>147.1</v>
       </c>
       <c r="T304" s="3">
-        <v>3490</v>
+        <v>3736</v>
       </c>
       <c r="U304" s="3">
-        <v>97.3</v>
+        <v>108.5</v>
       </c>
       <c r="V304" s="3">
-        <v>5749</v>
+        <v>5746</v>
       </c>
       <c r="W304" s="3">
-        <v>147.9</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="X304" s="3">
-        <v>3325</v>
+        <v>3810</v>
       </c>
       <c r="Z304" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C305" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D305" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J305" s="3">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="L305" s="3">
-        <v>174</v>
-      </c>
-      <c r="M305" s="1">
-        <v>320000</v>
-      </c>
-      <c r="N305" s="3">
-        <v>1983</v>
+        <v>285</v>
       </c>
       <c r="U305" s="3">
-        <v>186.8</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="V305" s="3">
-        <v>5977</v>
+        <v>5360</v>
       </c>
       <c r="W305" s="3">
-        <v>237.9</v>
+        <v>487</v>
       </c>
       <c r="X305" s="3">
-        <v>4499</v>
-      </c>
-      <c r="Z305" t="s">
-        <v>195</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="306" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C306" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>464</v>
+        <v>706</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J306" s="3">
-        <v>6</v>
+        <v>342</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L306" s="3">
-        <v>150</v>
-      </c>
-      <c r="M306" s="1"/>
-      <c r="Q306" s="3">
-        <v>158.5</v>
-      </c>
-      <c r="R306" s="3">
-        <v>6233</v>
-      </c>
-      <c r="S306" s="3">
-        <v>188.2</v>
-      </c>
-      <c r="T306" s="3">
-        <v>4832</v>
+        <v>116</v>
       </c>
       <c r="U306" s="3">
-        <v>158.30000000000001</v>
+        <v>168.1</v>
       </c>
       <c r="V306" s="3">
-        <v>6308</v>
+        <v>3725</v>
       </c>
       <c r="W306" s="3">
-        <v>191.7</v>
+        <v>369</v>
       </c>
       <c r="X306" s="3">
-        <v>4811</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C307" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D307" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H307" s="3" t="s">
-        <v>46</v>
+        <v>206</v>
+      </c>
+      <c r="G307" t="s">
+        <v>710</v>
       </c>
       <c r="L307" s="3">
-        <v>140</v>
-      </c>
-      <c r="M307" s="1"/>
+        <v>150</v>
+      </c>
       <c r="Q307" s="3">
-        <v>197.4</v>
+        <v>141.4</v>
       </c>
       <c r="R307" s="3">
-        <v>4140</v>
+        <v>5198</v>
       </c>
       <c r="S307" s="3">
-        <v>445.5</v>
+        <v>214.6</v>
       </c>
       <c r="T307" s="3">
-        <v>2125</v>
+        <v>3910</v>
       </c>
       <c r="U307" s="3">
-        <v>197.4</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="V307" s="3">
-        <v>4141</v>
+        <v>5158</v>
       </c>
       <c r="W307" s="3">
-        <v>449.4</v>
+        <v>219.6</v>
       </c>
       <c r="X307" s="3">
-        <v>2171</v>
+        <v>3838</v>
       </c>
       <c r="Z307" t="s">
-        <v>330</v>
+        <v>707</v>
+      </c>
+      <c r="AA307" t="s">
+        <v>708</v>
+      </c>
+      <c r="AB307" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD307" s="4">
+        <v>650</v>
       </c>
     </row>
     <row r="308" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C308" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D308" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G308" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="L308" s="3">
-        <v>200</v>
-      </c>
-      <c r="M308" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="M308" s="1">
+        <v>250000</v>
+      </c>
       <c r="U308" s="3">
-        <v>226.2</v>
+        <v>152.5</v>
       </c>
       <c r="V308" s="3">
-        <v>6399</v>
+        <v>3952</v>
       </c>
       <c r="W308" s="3">
-        <v>319.89999999999998</v>
+        <v>324.8</v>
       </c>
       <c r="X308" s="3">
-        <v>3371</v>
+        <v>2672</v>
       </c>
       <c r="Z308" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C309" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D309" t="s">
-        <v>691</v>
+        <v>38</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="F309" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G309" t="s">
+        <v>714</v>
+      </c>
+      <c r="L309" s="3">
         <v>147</v>
       </c>
-      <c r="G309" t="s">
-        <v>690</v>
-      </c>
-      <c r="L309" s="3">
-        <v>245</v>
-      </c>
-      <c r="M309" s="1">
-        <v>8000</v>
+      <c r="Q309" s="3">
+        <v>178.3</v>
+      </c>
+      <c r="R309" s="3">
+        <v>4540</v>
+      </c>
+      <c r="S309" s="3">
+        <v>315.2</v>
+      </c>
+      <c r="T309" s="3">
+        <v>3784</v>
       </c>
       <c r="U309" s="3">
-        <v>302.3</v>
+        <v>149</v>
       </c>
       <c r="V309" s="3">
-        <v>6386</v>
+        <v>5088</v>
       </c>
       <c r="W309" s="3">
-        <v>424.8</v>
+        <v>256.3</v>
       </c>
       <c r="X309" s="3">
-        <v>3147</v>
+        <v>3222</v>
       </c>
       <c r="Z309" t="s">
-        <v>386</v>
+        <v>712</v>
+      </c>
+      <c r="AA309" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB309" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD309" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="310" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B310">
-        <v>4</v>
+      <c r="C310" s="4">
+        <v>13</v>
+      </c>
+      <c r="D310" t="s">
+        <v>44</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L310" s="3">
+        <v>55</v>
+      </c>
+      <c r="U310" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="V310" s="3">
+        <v>6471</v>
+      </c>
+      <c r="W310" s="3">
+        <v>102.3</v>
+      </c>
+      <c r="X310" s="3">
+        <v>3908</v>
       </c>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C311" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D311" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G311" t="s">
-        <v>650</v>
-      </c>
-      <c r="K311" t="s">
-        <v>76</v>
+        <v>716</v>
+      </c>
+      <c r="J311" s="3">
+        <v>5</v>
       </c>
       <c r="L311" s="3">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q311" s="3">
-        <v>154.6</v>
+        <v>92.1</v>
       </c>
       <c r="R311" s="3">
-        <v>39115</v>
+        <v>3973</v>
       </c>
       <c r="S311" s="3">
-        <v>367.9</v>
+        <v>168.5</v>
       </c>
       <c r="T311" s="3">
-        <v>2264</v>
+        <v>3702</v>
       </c>
       <c r="U311" s="3">
-        <v>154.9</v>
+        <v>94</v>
       </c>
       <c r="V311" s="3">
-        <v>3982</v>
+        <v>4062</v>
       </c>
       <c r="W311" s="3">
-        <v>368.3</v>
+        <v>170.1</v>
       </c>
       <c r="X311" s="3">
-        <v>2346</v>
+        <v>3731</v>
       </c>
       <c r="Z311" t="s">
         <v>110</v>
@@ -12488,1759 +12601,1663 @@
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C312" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D312" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>651</v>
+        <v>717</v>
+      </c>
+      <c r="J312" s="3">
+        <v>6</v>
       </c>
       <c r="L312" s="3">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="Q312" s="3">
-        <v>227.4</v>
+        <v>185.9</v>
       </c>
       <c r="R312" s="3">
-        <v>5706</v>
+        <v>5885</v>
       </c>
       <c r="S312" s="3">
-        <v>329.2</v>
+        <v>230.5</v>
       </c>
       <c r="T312" s="3">
-        <v>3772</v>
+        <v>5266</v>
       </c>
       <c r="U312" s="3">
-        <v>216.6</v>
+        <v>189.3</v>
       </c>
       <c r="V312" s="3">
-        <v>5120</v>
+        <v>5956</v>
       </c>
       <c r="W312" s="3">
-        <v>327.39999999999998</v>
+        <v>236.6</v>
       </c>
       <c r="X312" s="3">
-        <v>3780</v>
+        <v>5217</v>
+      </c>
+      <c r="Z312" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="313" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C313" s="4">
-        <v>3</v>
-      </c>
-      <c r="D313" t="s">
-        <v>44</v>
-      </c>
-      <c r="E313" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G313" t="s">
-        <v>653</v>
-      </c>
-      <c r="L313" s="3">
-        <v>122</v>
-      </c>
-      <c r="M313" s="1">
-        <v>197000</v>
-      </c>
-      <c r="U313" s="3">
-        <v>123.1</v>
-      </c>
-      <c r="V313" s="3">
-        <v>5319</v>
-      </c>
-      <c r="W313" s="3">
-        <v>195</v>
-      </c>
-      <c r="X313" s="3">
-        <v>3891</v>
-      </c>
-      <c r="Z313" t="s">
-        <v>386</v>
+      <c r="B313">
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C314" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>656</v>
+        <v>147</v>
       </c>
       <c r="G314" t="s">
-        <v>655</v>
+        <v>576</v>
       </c>
       <c r="L314" s="3">
-        <v>115</v>
-      </c>
-      <c r="Q314" s="3">
-        <v>126.6</v>
-      </c>
-      <c r="R314" s="3">
-        <v>5245</v>
-      </c>
-      <c r="S314" s="3">
-        <v>225.8</v>
-      </c>
-      <c r="T314" s="3">
-        <v>3364</v>
+        <v>200</v>
       </c>
       <c r="U314" s="3">
-        <v>138.80000000000001</v>
+        <v>191.2</v>
       </c>
       <c r="V314" s="3">
-        <v>5784</v>
+        <v>8095</v>
       </c>
       <c r="W314" s="3">
-        <v>2440</v>
+        <v>184</v>
       </c>
       <c r="X314" s="3">
-        <v>3011</v>
+        <v>6394</v>
       </c>
       <c r="Z314" t="s">
-        <v>47</v>
+        <v>409</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C315" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D315" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>338</v>
+        <v>681</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G315" t="s">
-        <v>657</v>
+        <v>208</v>
       </c>
       <c r="L315" s="3">
-        <v>102</v>
-      </c>
-      <c r="M315" s="1">
-        <v>550881</v>
+        <v>95</v>
       </c>
       <c r="Q315" s="3">
-        <v>90.8</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="R315" s="3">
-        <v>5587</v>
+        <v>6130</v>
       </c>
       <c r="S315" s="3">
-        <v>127.1</v>
+        <v>89.8</v>
       </c>
       <c r="T315" s="3">
-        <v>4187</v>
+        <v>6020</v>
       </c>
       <c r="U315" s="3">
-        <v>97.5</v>
+        <v>78.7</v>
       </c>
       <c r="V315" s="3">
-        <v>5617</v>
+        <v>6094</v>
       </c>
       <c r="W315" s="3">
-        <v>137.19999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="X315" s="3">
-        <v>4055</v>
+        <v>5966</v>
       </c>
       <c r="Z315" t="s">
-        <v>152</v>
+        <v>679</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD315" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="316" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C316" s="4">
+        <v>3</v>
+      </c>
+      <c r="D316" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G316" t="s">
+        <v>685</v>
+      </c>
+      <c r="J316" s="3">
         <v>6</v>
       </c>
-      <c r="D316" t="s">
-        <v>52</v>
-      </c>
-      <c r="E316" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J316" s="3">
-        <v>5</v>
-      </c>
       <c r="L316" s="3">
-        <v>133</v>
+        <v>231</v>
+      </c>
+      <c r="M316" s="1">
+        <v>377473</v>
       </c>
       <c r="Q316" s="3">
-        <v>113.3</v>
+        <v>199.6</v>
       </c>
       <c r="R316" s="3">
-        <v>6022</v>
+        <v>6123</v>
       </c>
       <c r="S316" s="3">
-        <v>163.69999999999999</v>
+        <v>268.2</v>
       </c>
       <c r="T316" s="3">
-        <v>3992</v>
+        <v>3625</v>
       </c>
       <c r="U316" s="3">
-        <v>117.4</v>
+        <v>202.2</v>
       </c>
       <c r="V316" s="3">
-        <v>5951</v>
+        <v>6211</v>
       </c>
       <c r="W316" s="3">
-        <v>168.2</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="X316" s="3">
-        <v>3955</v>
+        <v>3618</v>
       </c>
       <c r="Z316" t="s">
-        <v>386</v>
+        <v>682</v>
+      </c>
+      <c r="AA316" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB316" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD316" s="4">
+        <v>252</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C317" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D317" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="H317" s="3" t="s">
-        <v>46</v>
+        <v>147</v>
+      </c>
+      <c r="G317" t="s">
+        <v>576</v>
       </c>
       <c r="L317" s="3">
-        <v>150</v>
-      </c>
-      <c r="M317" s="1">
-        <v>200000</v>
+        <v>240</v>
       </c>
       <c r="U317" s="3">
-        <v>148.30000000000001</v>
+        <v>261.8</v>
       </c>
       <c r="V317" s="3">
-        <v>3922</v>
+        <v>5721</v>
       </c>
       <c r="W317" s="3">
-        <v>334.3</v>
+        <v>406.3</v>
       </c>
       <c r="X317" s="3">
-        <v>2422</v>
-      </c>
-      <c r="Z317" t="s">
-        <v>658</v>
-      </c>
-      <c r="AA317" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB317" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD317" s="4">
-        <v>490</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C318" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D318" t="s">
-        <v>38</v>
-      </c>
-      <c r="E318" s="4" t="s">
-        <v>662</v>
+        <v>52</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>663</v>
+        <v>147</v>
       </c>
       <c r="G318" t="s">
-        <v>664</v>
-      </c>
-      <c r="J318" s="3">
-        <v>8</v>
-      </c>
-      <c r="N318" s="3">
-        <v>1969</v>
+        <v>424</v>
+      </c>
+      <c r="K318" t="s">
+        <v>76</v>
+      </c>
+      <c r="L318" s="3">
+        <v>113</v>
+      </c>
+      <c r="M318" s="1">
+        <v>137872</v>
       </c>
       <c r="Q318" s="3">
-        <v>328.3</v>
+        <v>97</v>
       </c>
       <c r="R318" s="3">
-        <v>4379</v>
+        <v>5372</v>
       </c>
       <c r="S318" s="3">
-        <v>552.79999999999995</v>
+        <v>168.8</v>
       </c>
       <c r="T318" s="3">
-        <v>4015</v>
+        <v>3490</v>
       </c>
       <c r="U318" s="3">
-        <v>339.5</v>
+        <v>97.3</v>
       </c>
       <c r="V318" s="3">
-        <v>5125</v>
+        <v>5749</v>
       </c>
       <c r="W318" s="3">
-        <v>559.9</v>
+        <v>147.9</v>
       </c>
       <c r="X318" s="3">
-        <v>3873</v>
+        <v>3325</v>
+      </c>
+      <c r="Z318" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="319" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C319" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D319" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="G319" t="s">
-        <v>667</v>
+        <v>687</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="J319" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L319" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q319" s="3">
-        <v>107.3</v>
-      </c>
-      <c r="R319" s="3">
-        <v>5214</v>
-      </c>
-      <c r="S319" s="3">
-        <v>163</v>
-      </c>
-      <c r="T319" s="3">
-        <v>3028</v>
+        <v>174</v>
+      </c>
+      <c r="M319" s="1">
+        <v>320000</v>
+      </c>
+      <c r="N319" s="3">
+        <v>1983</v>
       </c>
       <c r="U319" s="3">
-        <v>113.6</v>
+        <v>186.8</v>
       </c>
       <c r="V319" s="3">
-        <v>5412</v>
+        <v>5977</v>
       </c>
       <c r="W319" s="3">
-        <v>169.7</v>
+        <v>237.9</v>
       </c>
       <c r="X319" s="3">
-        <v>3674</v>
+        <v>4499</v>
       </c>
       <c r="Z319" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA319" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB319" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD319" s="4">
-        <v>580</v>
+        <v>195</v>
       </c>
     </row>
     <row r="320" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C320" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D320" t="s">
         <v>28</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>668</v>
+        <v>464</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="J320" s="3">
         <v>6</v>
       </c>
       <c r="L320" s="3">
-        <v>136</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M320" s="1"/>
       <c r="Q320" s="3">
-        <v>178.2</v>
+        <v>158.5</v>
       </c>
       <c r="R320" s="3">
-        <v>6323</v>
+        <v>6233</v>
       </c>
       <c r="S320" s="3">
-        <v>213.5</v>
+        <v>188.2</v>
       </c>
       <c r="T320" s="3">
-        <v>5093</v>
+        <v>4832</v>
       </c>
       <c r="U320" s="3">
-        <v>179.5</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V320" s="3">
-        <v>6252</v>
+        <v>6308</v>
       </c>
       <c r="W320" s="3">
-        <v>216.8</v>
+        <v>191.7</v>
       </c>
       <c r="X320" s="3">
-        <v>5084</v>
-      </c>
-      <c r="Z320" t="s">
-        <v>152</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="321" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C321" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D321" t="s">
         <v>44</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="G321" t="s">
-        <v>670</v>
+        <v>688</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L321" s="3">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="M321" s="1"/>
+      <c r="Q321" s="3">
+        <v>197.4</v>
+      </c>
+      <c r="R321" s="3">
+        <v>4140</v>
+      </c>
+      <c r="S321" s="3">
+        <v>445.5</v>
+      </c>
+      <c r="T321" s="3">
+        <v>2125</v>
       </c>
       <c r="U321" s="3">
-        <v>125.1</v>
+        <v>197.4</v>
       </c>
       <c r="V321" s="3">
-        <v>5351</v>
+        <v>4141</v>
       </c>
       <c r="W321" s="3">
-        <v>190.2</v>
+        <v>449.4</v>
       </c>
       <c r="X321" s="3">
-        <v>4523</v>
+        <v>2171</v>
       </c>
       <c r="Z321" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
     </row>
     <row r="322" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C322" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D322" t="s">
-        <v>671</v>
+        <v>52</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H322" s="3" t="s">
-        <v>46</v>
+        <v>147</v>
+      </c>
+      <c r="G322" t="s">
+        <v>690</v>
       </c>
       <c r="L322" s="3">
-        <v>145</v>
-      </c>
-      <c r="Q322" s="3">
-        <v>145.6</v>
-      </c>
-      <c r="R322" s="3">
-        <v>3370</v>
-      </c>
-      <c r="S322" s="3">
-        <v>383.7</v>
-      </c>
-      <c r="T322" s="3">
-        <v>2295</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M322" s="1"/>
       <c r="U322" s="3">
-        <v>147</v>
+        <v>226.2</v>
       </c>
       <c r="V322" s="3">
-        <v>3405</v>
+        <v>6399</v>
       </c>
       <c r="W322" s="3">
-        <v>386.1</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="X322" s="3">
-        <v>2295</v>
+        <v>3371</v>
       </c>
       <c r="Z322" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
     </row>
     <row r="323" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C323" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D323" t="s">
-        <v>52</v>
+        <v>691</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>692</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>342</v>
+        <v>147</v>
+      </c>
+      <c r="G323" t="s">
+        <v>690</v>
       </c>
       <c r="L323" s="3">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="M323" s="1">
-        <v>300000</v>
+        <v>8000</v>
       </c>
       <c r="U323" s="3">
-        <v>128.9</v>
+        <v>302.3</v>
       </c>
       <c r="V323" s="3">
-        <v>4106</v>
+        <v>6386</v>
       </c>
       <c r="W323" s="3">
-        <v>317.2</v>
+        <v>424.8</v>
       </c>
       <c r="X323" s="3">
-        <v>2094</v>
+        <v>3147</v>
       </c>
       <c r="Z323" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA323" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB323" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD323" s="4">
-        <v>180</v>
+        <v>386</v>
       </c>
     </row>
     <row r="324" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C324" s="4">
-        <v>14</v>
-      </c>
-      <c r="D324" t="s">
-        <v>28</v>
-      </c>
-      <c r="E324" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="G324" t="s">
-        <v>677</v>
-      </c>
-      <c r="L324" s="3">
-        <v>193</v>
-      </c>
-      <c r="M324" s="1">
-        <v>335000</v>
-      </c>
-      <c r="Q324" s="3">
-        <v>193.1</v>
-      </c>
-      <c r="R324" s="3">
-        <v>6562</v>
-      </c>
-      <c r="S324" s="3">
-        <v>262</v>
-      </c>
-      <c r="T324" s="3">
-        <v>195.3</v>
-      </c>
-      <c r="U324" s="3">
-        <v>195.3</v>
-      </c>
-      <c r="V324" s="3">
-        <v>6605</v>
-      </c>
-      <c r="W324" s="3">
-        <v>267.60000000000002</v>
-      </c>
-      <c r="X324" s="3">
-        <v>3696</v>
-      </c>
-      <c r="Z324" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA324" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB324" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD324" s="4">
-        <v>250</v>
+      <c r="B324">
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B325">
-        <v>3</v>
+      <c r="C325" s="4">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>44</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G325" t="s">
+        <v>650</v>
+      </c>
+      <c r="K325" t="s">
+        <v>76</v>
+      </c>
+      <c r="L325" s="3">
+        <v>140</v>
+      </c>
+      <c r="Q325" s="3">
+        <v>154.6</v>
+      </c>
+      <c r="R325" s="3">
+        <v>39115</v>
+      </c>
+      <c r="S325" s="3">
+        <v>367.9</v>
+      </c>
+      <c r="T325" s="3">
+        <v>2264</v>
+      </c>
+      <c r="U325" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="V325" s="3">
+        <v>3982</v>
+      </c>
+      <c r="W325" s="3">
+        <v>368.3</v>
+      </c>
+      <c r="X325" s="3">
+        <v>2346</v>
+      </c>
+      <c r="Z325" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="326" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C326" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D326" t="s">
-        <v>197</v>
-      </c>
-      <c r="E326" s="4">
-        <v>968</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>463</v>
+        <v>36</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>651</v>
       </c>
       <c r="L326" s="3">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q326" s="3">
-        <v>213.8</v>
+        <v>227.4</v>
       </c>
       <c r="R326" s="3">
-        <v>6430</v>
+        <v>5706</v>
       </c>
       <c r="S326" s="3">
-        <v>272.3</v>
+        <v>329.2</v>
       </c>
       <c r="T326" s="3">
-        <v>4390</v>
+        <v>3772</v>
       </c>
       <c r="U326" s="3">
-        <v>216.9</v>
+        <v>216.6</v>
       </c>
       <c r="V326" s="3">
-        <v>6411</v>
+        <v>5120</v>
       </c>
       <c r="W326" s="3">
-        <v>276.2</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="X326" s="3">
-        <v>4383</v>
-      </c>
-      <c r="Z326" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA326" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB326" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD326" s="4">
-        <v>400</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="327" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C327" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D327" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G327" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="L327" s="3">
-        <v>165</v>
+        <v>122</v>
+      </c>
+      <c r="M327" s="1">
+        <v>197000</v>
       </c>
       <c r="U327" s="3">
-        <v>205.7</v>
+        <v>123.1</v>
       </c>
       <c r="V327" s="3">
-        <v>5632</v>
+        <v>5319</v>
       </c>
       <c r="W327" s="3">
-        <v>328.8</v>
+        <v>195</v>
       </c>
       <c r="X327" s="3">
-        <v>3799</v>
+        <v>3891</v>
+      </c>
+      <c r="Z327" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="328" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C328" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D328" t="s">
         <v>44</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>147</v>
+        <v>656</v>
+      </c>
+      <c r="G328" t="s">
+        <v>655</v>
       </c>
       <c r="L328" s="3">
-        <v>230</v>
+        <v>115</v>
+      </c>
+      <c r="Q328" s="3">
+        <v>126.6</v>
+      </c>
+      <c r="R328" s="3">
+        <v>5245</v>
+      </c>
+      <c r="S328" s="3">
+        <v>225.8</v>
+      </c>
+      <c r="T328" s="3">
+        <v>3364</v>
       </c>
       <c r="U328" s="3">
-        <v>243.4</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="V328" s="3">
-        <v>5400</v>
+        <v>5784</v>
       </c>
       <c r="W328" s="3">
-        <v>354.6</v>
+        <v>2440</v>
       </c>
       <c r="X328" s="3">
-        <v>3056</v>
+        <v>3011</v>
       </c>
       <c r="Z328" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA328" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB328" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD328" s="4">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="329" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C329" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D329" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>638</v>
+        <v>338</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J329" s="3">
-        <v>5</v>
+        <v>207</v>
+      </c>
+      <c r="G329" t="s">
+        <v>657</v>
       </c>
       <c r="L329" s="3">
-        <v>305</v>
+        <v>102</v>
+      </c>
+      <c r="M329" s="1">
+        <v>550881</v>
       </c>
       <c r="Q329" s="3">
-        <v>294.39999999999998</v>
+        <v>90.8</v>
       </c>
       <c r="R329" s="3">
-        <v>6190</v>
+        <v>5587</v>
       </c>
       <c r="S329" s="3">
-        <v>404.5</v>
+        <v>127.1</v>
       </c>
       <c r="T329" s="3">
-        <v>4616</v>
+        <v>4187</v>
       </c>
       <c r="U329" s="3">
-        <v>293.10000000000002</v>
+        <v>97.5</v>
       </c>
       <c r="V329" s="3">
-        <v>6708</v>
+        <v>5617</v>
       </c>
       <c r="W329" s="3">
-        <v>405.5</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="X329" s="3">
-        <v>4650</v>
+        <v>4055</v>
       </c>
       <c r="Z329" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA329" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB329" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD329" s="4">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="330" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C330" s="4">
+        <v>6</v>
+      </c>
+      <c r="D330" t="s">
+        <v>52</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="J330" s="3">
         <v>5</v>
       </c>
-      <c r="D330" t="s">
-        <v>44</v>
-      </c>
-      <c r="E330" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="L330" s="3">
-        <v>75</v>
-      </c>
-      <c r="M330" s="1">
-        <v>226000</v>
+        <v>133</v>
       </c>
       <c r="Q330" s="3">
-        <v>76.5</v>
+        <v>113.3</v>
       </c>
       <c r="R330" s="3">
-        <v>5116</v>
+        <v>6022</v>
       </c>
       <c r="S330" s="3">
-        <v>115.9</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="T330" s="3">
-        <v>3629</v>
+        <v>3992</v>
       </c>
       <c r="U330" s="3">
-        <v>77.099999999999994</v>
+        <v>117.4</v>
       </c>
       <c r="V330" s="3">
-        <v>4943</v>
+        <v>5951</v>
       </c>
       <c r="W330" s="3">
-        <v>115.9</v>
+        <v>168.2</v>
       </c>
       <c r="X330" s="3">
-        <v>3522</v>
+        <v>3955</v>
       </c>
       <c r="Z330" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA330" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB330" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD330" s="4">
-        <v>70</v>
+        <v>386</v>
       </c>
     </row>
     <row r="331" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C331" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D331" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>147</v>
+        <v>661</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L331" s="3">
         <v>150</v>
       </c>
+      <c r="M331" s="1">
+        <v>200000</v>
+      </c>
       <c r="U331" s="3">
-        <v>186.1</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="V331" s="3">
-        <v>3265</v>
+        <v>3922</v>
       </c>
       <c r="W331" s="3">
-        <v>451.4</v>
+        <v>334.3</v>
       </c>
       <c r="X331" s="3">
-        <v>2059</v>
+        <v>2422</v>
       </c>
       <c r="Z331" t="s">
-        <v>189</v>
+        <v>658</v>
       </c>
       <c r="AA331" t="s">
-        <v>190</v>
+        <v>659</v>
       </c>
       <c r="AB331" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="AD331" s="4">
-        <v>220</v>
+        <v>490</v>
       </c>
     </row>
     <row r="332" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C332" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D332" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>643</v>
+        <v>662</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G332" t="s">
+        <v>664</v>
       </c>
       <c r="J332" s="3">
         <v>8</v>
       </c>
-      <c r="K332" t="s">
-        <v>76</v>
-      </c>
-      <c r="L332" s="3">
-        <v>306</v>
-      </c>
-      <c r="M332" s="1">
-        <v>303000</v>
+      <c r="N332" s="3">
+        <v>1969</v>
       </c>
       <c r="Q332" s="3">
-        <v>248</v>
+        <v>328.3</v>
       </c>
       <c r="R332" s="3">
-        <v>5970</v>
+        <v>4379</v>
       </c>
       <c r="S332" s="3">
-        <v>339.7</v>
+        <v>552.79999999999995</v>
       </c>
       <c r="T332" s="3">
-        <v>3305</v>
+        <v>4015</v>
       </c>
       <c r="U332" s="3">
-        <v>247.9</v>
+        <v>339.5</v>
       </c>
       <c r="V332" s="3">
-        <v>6245</v>
+        <v>5125</v>
       </c>
       <c r="W332" s="3">
-        <v>342.5</v>
+        <v>559.9</v>
       </c>
       <c r="X332" s="3">
-        <v>3314</v>
-      </c>
-      <c r="Z332" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA332" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB332" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD332" s="4">
-        <v>30</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="333" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C333" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D333" t="s">
-        <v>412</v>
+        <v>52</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>207</v>
+        <v>607</v>
       </c>
       <c r="G333" t="s">
-        <v>644</v>
+        <v>667</v>
+      </c>
+      <c r="J333" s="3">
+        <v>5</v>
       </c>
       <c r="L333" s="3">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="Q333" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="R333" s="3">
+        <v>5214</v>
+      </c>
+      <c r="S333" s="3">
+        <v>163</v>
+      </c>
+      <c r="T333" s="3">
+        <v>3028</v>
       </c>
       <c r="U333" s="3">
-        <v>137</v>
+        <v>113.6</v>
       </c>
       <c r="V333" s="3">
-        <v>7319</v>
+        <v>5412</v>
       </c>
       <c r="W333" s="3">
-        <v>134.5</v>
+        <v>169.7</v>
       </c>
       <c r="X333" s="3">
-        <v>7076</v>
+        <v>3674</v>
+      </c>
+      <c r="Z333" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB333" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD333" s="4">
+        <v>580</v>
       </c>
     </row>
     <row r="334" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C334" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D334" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>635</v>
+        <v>208</v>
       </c>
       <c r="J334" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L334" s="3">
-        <v>367</v>
+        <v>136</v>
+      </c>
+      <c r="Q334" s="3">
+        <v>178.2</v>
+      </c>
+      <c r="R334" s="3">
+        <v>6323</v>
+      </c>
+      <c r="S334" s="3">
+        <v>213.5</v>
+      </c>
+      <c r="T334" s="3">
+        <v>5093</v>
       </c>
       <c r="U334" s="3">
-        <v>312.8</v>
+        <v>179.5</v>
       </c>
       <c r="V334" s="3">
-        <v>6550</v>
+        <v>6252</v>
       </c>
       <c r="W334" s="3">
-        <v>410.4</v>
+        <v>216.8</v>
       </c>
       <c r="X334" s="3">
-        <v>4479</v>
+        <v>5084</v>
       </c>
       <c r="Z334" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA334" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB334" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD334" s="4">
-        <v>45</v>
+        <v>152</v>
       </c>
     </row>
     <row r="335" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C335" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D335" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>474</v>
+        <v>669</v>
       </c>
       <c r="G335" t="s">
-        <v>606</v>
+        <v>670</v>
       </c>
       <c r="L335" s="3">
-        <v>220</v>
-      </c>
-      <c r="N335" s="3">
-        <v>1981</v>
+        <v>136</v>
       </c>
       <c r="U335" s="3">
-        <v>190.7</v>
+        <v>125.1</v>
       </c>
       <c r="V335" s="3">
-        <v>6165</v>
+        <v>5351</v>
       </c>
       <c r="W335" s="3">
-        <v>280.89999999999998</v>
+        <v>190.2</v>
       </c>
       <c r="X335" s="3">
-        <v>4193</v>
+        <v>4523</v>
       </c>
       <c r="Z335" t="s">
         <v>104</v>
       </c>
-      <c r="AA335" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB335" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD335" s="4">
-        <v>0</v>
-      </c>
     </row>
     <row r="336" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C336" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D336" t="s">
-        <v>28</v>
+        <v>671</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J336" s="3">
-        <v>6</v>
+        <v>602</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L336" s="3">
-        <v>306</v>
+        <v>145</v>
       </c>
       <c r="Q336" s="3">
-        <v>336.6</v>
+        <v>145.6</v>
       </c>
       <c r="R336" s="3">
-        <v>5778</v>
+        <v>3370</v>
       </c>
       <c r="S336" s="3">
-        <v>550</v>
+        <v>383.7</v>
       </c>
       <c r="T336" s="3">
-        <v>4222</v>
+        <v>2295</v>
       </c>
       <c r="U336" s="3">
-        <v>341.5</v>
+        <v>147</v>
       </c>
       <c r="V336" s="3">
-        <v>4394</v>
+        <v>3405</v>
       </c>
       <c r="W336" s="3">
-        <v>557.29999999999995</v>
+        <v>386.1</v>
       </c>
       <c r="X336" s="3">
-        <v>4310</v>
+        <v>2295</v>
       </c>
       <c r="Z336" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA336" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB336" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD336" s="4">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="337" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B337">
-        <v>2</v>
+      <c r="C337" s="4">
+        <v>13</v>
+      </c>
+      <c r="D337" t="s">
+        <v>52</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="L337" s="3">
+        <v>131</v>
+      </c>
+      <c r="M337" s="1">
+        <v>300000</v>
+      </c>
+      <c r="U337" s="3">
+        <v>128.9</v>
+      </c>
+      <c r="V337" s="3">
+        <v>4106</v>
+      </c>
+      <c r="W337" s="3">
+        <v>317.2</v>
+      </c>
+      <c r="X337" s="3">
+        <v>2094</v>
+      </c>
+      <c r="Z337" t="s">
+        <v>673</v>
+      </c>
+      <c r="AA337" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB337" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD337" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="338" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C338" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D338" t="s">
-        <v>528</v>
+        <v>28</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="F338" s="2" t="s">
-        <v>208</v>
+        <v>475</v>
+      </c>
+      <c r="G338" t="s">
+        <v>677</v>
       </c>
       <c r="L338" s="3">
-        <v>169</v>
+        <v>193</v>
+      </c>
+      <c r="M338" s="1">
+        <v>335000</v>
       </c>
       <c r="Q338" s="3">
-        <v>184.2</v>
+        <v>193.1</v>
       </c>
       <c r="R338" s="3">
-        <v>6393</v>
+        <v>6562</v>
       </c>
       <c r="S338" s="3">
-        <v>236.7</v>
+        <v>262</v>
       </c>
       <c r="T338" s="3">
-        <v>4499</v>
+        <v>195.3</v>
       </c>
       <c r="U338" s="3">
-        <v>186.4</v>
+        <v>195.3</v>
       </c>
       <c r="V338" s="3">
-        <v>6385</v>
+        <v>6605</v>
       </c>
       <c r="W338" s="3">
-        <v>234.9</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="X338" s="3">
-        <v>4542</v>
+        <v>3696</v>
       </c>
       <c r="Z338" t="s">
-        <v>596</v>
+        <v>675</v>
       </c>
       <c r="AA338" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="AB338" t="s">
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="AD338" s="4">
-        <v>385</v>
+        <v>250</v>
       </c>
     </row>
     <row r="339" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C339" s="4">
-        <v>2</v>
-      </c>
-      <c r="D339" t="s">
-        <v>106</v>
-      </c>
-      <c r="E339" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="F339" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K339" t="s">
-        <v>76</v>
-      </c>
-      <c r="L339" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q339" s="3">
-        <v>167</v>
-      </c>
-      <c r="R339" s="3">
-        <v>6189</v>
-      </c>
-      <c r="S339" s="3">
-        <v>226.7</v>
-      </c>
-      <c r="T339" s="3">
-        <v>3026</v>
-      </c>
-      <c r="U339" s="3">
-        <v>167.6</v>
-      </c>
-      <c r="V339" s="3">
-        <v>6627</v>
-      </c>
-      <c r="W339" s="3">
-        <v>232</v>
-      </c>
-      <c r="X339" s="3">
-        <v>3046</v>
-      </c>
-      <c r="Z339" t="s">
-        <v>599</v>
-      </c>
-      <c r="AA339" t="s">
-        <v>600</v>
-      </c>
-      <c r="AB339" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD339" s="4">
-        <v>75</v>
+      <c r="B339">
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C340" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D340" t="s">
-        <v>106</v>
-      </c>
-      <c r="E340" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G340" t="s">
-        <v>606</v>
-      </c>
-      <c r="K340" t="s">
-        <v>76</v>
+        <v>197</v>
+      </c>
+      <c r="E340" s="4">
+        <v>968</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="L340" s="3">
-        <v>180</v>
+        <v>240</v>
+      </c>
+      <c r="Q340" s="3">
+        <v>213.8</v>
+      </c>
+      <c r="R340" s="3">
+        <v>6430</v>
+      </c>
+      <c r="S340" s="3">
+        <v>272.3</v>
+      </c>
+      <c r="T340" s="3">
+        <v>4390</v>
       </c>
       <c r="U340" s="3">
-        <v>160.6</v>
+        <v>216.9</v>
       </c>
       <c r="V340" s="3">
-        <v>5334</v>
+        <v>6411</v>
       </c>
       <c r="W340" s="3">
-        <v>200.5</v>
+        <v>276.2</v>
       </c>
       <c r="X340" s="3">
-        <v>4806</v>
+        <v>4383</v>
       </c>
       <c r="Z340" t="s">
-        <v>104</v>
+        <v>632</v>
       </c>
       <c r="AA340" t="s">
-        <v>105</v>
+        <v>633</v>
       </c>
       <c r="AB340" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AD340" s="4">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="341" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C341" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D341" t="s">
         <v>52</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J341" s="3">
-        <v>6</v>
+        <v>205</v>
+      </c>
+      <c r="G341" t="s">
+        <v>634</v>
       </c>
       <c r="L341" s="3">
-        <v>150</v>
-      </c>
-      <c r="M341" s="1">
-        <v>293000</v>
+        <v>165</v>
       </c>
       <c r="U341" s="3">
-        <v>142.4</v>
+        <v>205.7</v>
       </c>
       <c r="V341" s="3">
-        <v>4907</v>
+        <v>5632</v>
       </c>
       <c r="W341" s="3">
-        <v>234.4</v>
+        <v>328.8</v>
       </c>
       <c r="X341" s="3">
-        <v>3859</v>
-      </c>
-      <c r="Z341" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA341" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB341" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD341" s="4">
-        <v>413</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="342" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C342" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D342" t="s">
         <v>44</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G342" t="s">
-        <v>609</v>
+        <v>147</v>
       </c>
       <c r="L342" s="3">
-        <v>120</v>
-      </c>
-      <c r="Q342" s="3">
-        <v>122</v>
-      </c>
-      <c r="R342" s="3">
-        <v>6640</v>
-      </c>
-      <c r="S342" s="3">
-        <v>149.1</v>
-      </c>
-      <c r="T342" s="3">
-        <v>3067</v>
+        <v>230</v>
       </c>
       <c r="U342" s="3">
-        <v>130.1</v>
+        <v>243.4</v>
       </c>
       <c r="V342" s="3">
-        <v>6687</v>
+        <v>5400</v>
       </c>
       <c r="W342" s="3">
-        <v>154.9</v>
+        <v>354.6</v>
       </c>
       <c r="X342" s="3">
-        <v>3043</v>
+        <v>3056</v>
       </c>
       <c r="Z342" t="s">
-        <v>552</v>
+        <v>446</v>
       </c>
       <c r="AA342" t="s">
-        <v>553</v>
+        <v>447</v>
       </c>
       <c r="AB342" t="s">
         <v>42</v>
       </c>
       <c r="AD342" s="4">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="343" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C343" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D343" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>373</v>
+        <v>211</v>
       </c>
       <c r="J343" s="3">
         <v>5</v>
       </c>
-      <c r="K343" t="s">
-        <v>76</v>
-      </c>
       <c r="L343" s="3">
-        <v>136</v>
+        <v>305</v>
+      </c>
+      <c r="Q343" s="3">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="R343" s="3">
+        <v>6190</v>
+      </c>
+      <c r="S343" s="3">
+        <v>404.5</v>
+      </c>
+      <c r="T343" s="3">
+        <v>4616</v>
       </c>
       <c r="U343" s="3">
-        <v>115.1</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="V343" s="3">
-        <v>6028</v>
+        <v>6708</v>
       </c>
       <c r="W343" s="3">
-        <v>169.6</v>
+        <v>405.5</v>
       </c>
       <c r="X343" s="3">
-        <v>2501</v>
+        <v>4650</v>
       </c>
       <c r="Z343" t="s">
-        <v>610</v>
+        <v>446</v>
       </c>
       <c r="AA343" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC343" t="s">
-        <v>611</v>
+        <v>447</v>
+      </c>
+      <c r="AB343" t="s">
+        <v>42</v>
       </c>
       <c r="AD343" s="4">
-        <v>650</v>
+        <v>70</v>
       </c>
     </row>
     <row r="344" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C344" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D344" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G344" t="s">
-        <v>615</v>
+        <v>206</v>
       </c>
       <c r="L344" s="3">
-        <v>265</v>
+        <v>75</v>
+      </c>
+      <c r="M344" s="1">
+        <v>226000</v>
       </c>
       <c r="Q344" s="3">
-        <v>266.89999999999998</v>
+        <v>76.5</v>
       </c>
       <c r="R344" s="3">
-        <v>6022</v>
+        <v>5116</v>
       </c>
       <c r="S344" s="3">
-        <v>375.1</v>
+        <v>115.9</v>
       </c>
       <c r="T344" s="3">
-        <v>3212</v>
+        <v>3629</v>
       </c>
       <c r="U344" s="3">
-        <v>283.60000000000002</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V344" s="3">
-        <v>5525</v>
+        <v>4943</v>
       </c>
       <c r="W344" s="3">
-        <v>398.7</v>
+        <v>115.9</v>
       </c>
       <c r="X344" s="3">
-        <v>3621</v>
+        <v>3522</v>
       </c>
       <c r="Z344" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="AA344" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="AB344" t="s">
         <v>42</v>
       </c>
       <c r="AD344" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="345" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C345" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D345" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G345" t="s">
-        <v>618</v>
+        <v>640</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L345" s="3">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="U345" s="3">
-        <v>181</v>
+        <v>186.1</v>
       </c>
       <c r="V345" s="3">
-        <v>5896</v>
+        <v>3265</v>
       </c>
       <c r="W345" s="3">
-        <v>233</v>
+        <v>451.4</v>
       </c>
       <c r="X345" s="3">
-        <v>5296</v>
+        <v>2059</v>
       </c>
       <c r="Z345" t="s">
-        <v>616</v>
+        <v>189</v>
       </c>
       <c r="AA345" t="s">
-        <v>617</v>
+        <v>190</v>
       </c>
       <c r="AB345" t="s">
         <v>112</v>
       </c>
       <c r="AD345" s="4">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="346" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C346" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D346" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="F346" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G346" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="J346" s="3">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="K346" t="s">
+        <v>76</v>
+      </c>
+      <c r="L346" s="3">
+        <v>306</v>
+      </c>
+      <c r="M346" s="1">
+        <v>303000</v>
+      </c>
+      <c r="Q346" s="3">
+        <v>248</v>
+      </c>
+      <c r="R346" s="3">
+        <v>5970</v>
+      </c>
+      <c r="S346" s="3">
+        <v>339.7</v>
+      </c>
+      <c r="T346" s="3">
+        <v>3305</v>
       </c>
       <c r="U346" s="3">
-        <v>227.8</v>
+        <v>247.9</v>
       </c>
       <c r="V346" s="3">
-        <v>5921</v>
+        <v>6245</v>
       </c>
       <c r="W346" s="3">
-        <v>343</v>
+        <v>342.5</v>
       </c>
       <c r="X346" s="3">
-        <v>4521</v>
+        <v>3314</v>
       </c>
       <c r="Z346" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="AA346" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="AB346" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD346" s="4">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="347" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C347" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D347" t="s">
-        <v>217</v>
+        <v>412</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>626</v>
+        <v>413</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G347" t="s">
+        <v>644</v>
       </c>
       <c r="L347" s="3">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="U347" s="3">
-        <v>133.4</v>
+        <v>137</v>
       </c>
       <c r="V347" s="3">
-        <v>6587</v>
+        <v>7319</v>
       </c>
       <c r="W347" s="3">
-        <v>148.5</v>
+        <v>134.5</v>
       </c>
       <c r="X347" s="3">
-        <v>4539</v>
-      </c>
-      <c r="Z347" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA347" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB347" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD347" s="4">
-        <v>80</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="348" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C348" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D348" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G348" t="s">
-        <v>576</v>
-      </c>
-      <c r="H348" s="3" t="s">
-        <v>46</v>
+        <v>635</v>
+      </c>
+      <c r="J348" s="3">
+        <v>8</v>
       </c>
       <c r="L348" s="3">
-        <v>131</v>
-      </c>
-      <c r="Q348" s="3">
-        <v>158.69999999999999</v>
-      </c>
-      <c r="R348" s="3">
-        <v>4020</v>
-      </c>
-      <c r="S348" s="3">
-        <v>348.9</v>
-      </c>
-      <c r="T348" s="3">
-        <v>2359</v>
+        <v>367</v>
       </c>
       <c r="U348" s="3">
-        <v>160.6</v>
+        <v>312.8</v>
       </c>
       <c r="V348" s="3">
-        <v>4049</v>
+        <v>6550</v>
       </c>
       <c r="W348" s="3">
-        <v>350.3</v>
+        <v>410.4</v>
       </c>
       <c r="X348" s="3">
-        <v>2430</v>
+        <v>4479</v>
       </c>
       <c r="Z348" t="s">
-        <v>627</v>
+        <v>156</v>
       </c>
       <c r="AA348" t="s">
-        <v>628</v>
+        <v>157</v>
       </c>
       <c r="AB348" t="s">
         <v>42</v>
       </c>
       <c r="AD348" s="4">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="349" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C349" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D349" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>147</v>
+        <v>474</v>
       </c>
       <c r="G349" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="L349" s="3">
         <v>220</v>
       </c>
-      <c r="Q349" s="3">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="R349" s="3">
-        <v>6258</v>
-      </c>
-      <c r="S349" s="3">
-        <v>449.1</v>
-      </c>
-      <c r="T349" s="3">
-        <v>3927</v>
+      <c r="N349" s="3">
+        <v>1981</v>
       </c>
       <c r="U349" s="3">
-        <v>308.89999999999998</v>
+        <v>190.7</v>
       </c>
       <c r="V349" s="3">
-        <v>6376</v>
+        <v>6165</v>
       </c>
       <c r="W349" s="3">
-        <v>447.1</v>
+        <v>280.89999999999998</v>
       </c>
       <c r="X349" s="3">
-        <v>3904</v>
+        <v>4193</v>
       </c>
       <c r="Z349" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="AA349" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="AB349" t="s">
         <v>42</v>
       </c>
       <c r="AD349" s="4">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C350" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D350" t="s">
         <v>28</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K350" t="s">
-        <v>76</v>
+        <v>474</v>
+      </c>
+      <c r="J350" s="3">
+        <v>6</v>
       </c>
       <c r="L350" s="3">
-        <v>193</v>
+        <v>306</v>
+      </c>
+      <c r="Q350" s="3">
+        <v>336.6</v>
+      </c>
+      <c r="R350" s="3">
+        <v>5778</v>
+      </c>
+      <c r="S350" s="3">
+        <v>550</v>
+      </c>
+      <c r="T350" s="3">
+        <v>4222</v>
       </c>
       <c r="U350" s="3">
-        <v>205</v>
+        <v>341.5</v>
+      </c>
+      <c r="V350" s="3">
+        <v>4394</v>
       </c>
       <c r="W350" s="3">
-        <v>240</v>
+        <v>557.29999999999995</v>
+      </c>
+      <c r="X350" s="3">
+        <v>4310</v>
       </c>
       <c r="Z350" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="AA350" t="s">
-        <v>216</v>
+        <v>647</v>
       </c>
       <c r="AB350" t="s">
         <v>42</v>
       </c>
       <c r="AD350" s="4">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="351" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="2:30" x14ac:dyDescent="0.25">
@@ -14248,202 +14265,202 @@
         <v>1</v>
       </c>
       <c r="D352" t="s">
-        <v>28</v>
+        <v>528</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J352" s="3">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="L352" s="3">
-        <v>193</v>
+        <v>169</v>
+      </c>
+      <c r="Q352" s="3">
+        <v>184.2</v>
+      </c>
+      <c r="R352" s="3">
+        <v>6393</v>
+      </c>
+      <c r="S352" s="3">
+        <v>236.7</v>
+      </c>
+      <c r="T352" s="3">
+        <v>4499</v>
       </c>
       <c r="U352" s="3">
-        <v>196.4</v>
+        <v>186.4</v>
       </c>
       <c r="V352" s="3">
-        <v>6004</v>
+        <v>6385</v>
       </c>
       <c r="W352" s="3">
-        <v>250</v>
+        <v>234.9</v>
       </c>
       <c r="X352" s="3">
-        <v>4813</v>
+        <v>4542</v>
       </c>
       <c r="Z352" t="s">
-        <v>69</v>
+        <v>596</v>
       </c>
       <c r="AA352" t="s">
-        <v>70</v>
+        <v>597</v>
       </c>
       <c r="AB352" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AD352" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="353" spans="3:30" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="353" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C353" s="4">
         <v>2</v>
       </c>
       <c r="D353" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>208</v>
+        <v>602</v>
+      </c>
+      <c r="K353" t="s">
+        <v>76</v>
       </c>
       <c r="L353" s="3">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="Q353" s="3">
-        <v>161.19999999999999</v>
+        <v>167</v>
       </c>
       <c r="R353" s="3">
-        <v>25980</v>
+        <v>6189</v>
       </c>
       <c r="S353" s="3">
-        <v>212.9</v>
+        <v>226.7</v>
       </c>
       <c r="T353" s="3">
-        <v>4710</v>
+        <v>3026</v>
       </c>
       <c r="U353" s="3">
-        <v>162.9</v>
+        <v>167.6</v>
       </c>
       <c r="V353" s="3">
-        <v>6026</v>
+        <v>6627</v>
       </c>
       <c r="W353" s="3">
-        <v>216.6</v>
+        <v>232</v>
       </c>
       <c r="X353" s="3">
-        <v>4748</v>
+        <v>3046</v>
       </c>
       <c r="Z353" t="s">
-        <v>312</v>
+        <v>599</v>
       </c>
       <c r="AA353" t="s">
-        <v>313</v>
+        <v>600</v>
       </c>
       <c r="AB353" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD353" s="4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="354" spans="3:30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="354" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C354" s="4">
         <v>3</v>
       </c>
       <c r="D354" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="F354" s="2" t="s">
-        <v>147</v>
+        <v>603</v>
       </c>
       <c r="G354" t="s">
-        <v>588</v>
+        <v>606</v>
+      </c>
+      <c r="K354" t="s">
+        <v>76</v>
       </c>
       <c r="L354" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q354" s="3">
-        <v>268.3</v>
-      </c>
-      <c r="R354" s="3">
-        <v>5341</v>
-      </c>
-      <c r="S354" s="3">
-        <v>440.9</v>
-      </c>
-      <c r="T354" s="3">
-        <v>2638</v>
+        <v>180</v>
       </c>
       <c r="U354" s="3">
-        <v>268.2</v>
+        <v>160.6</v>
       </c>
       <c r="V354" s="3">
-        <v>5400</v>
+        <v>5334</v>
       </c>
       <c r="W354" s="3">
-        <v>448.9</v>
+        <v>200.5</v>
       </c>
       <c r="X354" s="3">
-        <v>2646</v>
+        <v>4806</v>
       </c>
       <c r="Z354" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="AA354" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="AB354" t="s">
         <v>42</v>
       </c>
       <c r="AD354" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="355" spans="3:30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C355" s="4">
         <v>4</v>
       </c>
       <c r="D355" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G355" t="s">
-        <v>590</v>
+        <v>574</v>
+      </c>
+      <c r="J355" s="3">
+        <v>6</v>
       </c>
       <c r="L355" s="3">
-        <v>139</v>
-      </c>
-      <c r="N355" s="3">
-        <v>1986</v>
-      </c>
-      <c r="Q355" s="3">
-        <v>209.1</v>
-      </c>
-      <c r="R355" s="3">
-        <v>7791</v>
-      </c>
-      <c r="S355" s="3">
-        <v>212</v>
-      </c>
-      <c r="T355" s="3">
-        <v>5755</v>
+        <v>150</v>
+      </c>
+      <c r="M355" s="1">
+        <v>293000</v>
       </c>
       <c r="U355" s="3">
-        <v>208</v>
+        <v>142.4</v>
       </c>
       <c r="V355" s="3">
-        <v>7966</v>
+        <v>4907</v>
       </c>
       <c r="W355" s="3">
-        <v>213.2</v>
+        <v>234.4</v>
       </c>
       <c r="X355" s="3">
-        <v>5807</v>
-      </c>
-    </row>
-    <row r="356" spans="3:30" x14ac:dyDescent="0.25">
+        <v>3859</v>
+      </c>
+      <c r="Z355" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA355" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB355" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD355" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="356" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C356" s="4">
         <v>5</v>
       </c>
@@ -14451,110 +14468,750 @@
         <v>44</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G356" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="L356" s="3">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="Q356" s="3">
-        <v>98.4</v>
+        <v>122</v>
       </c>
       <c r="R356" s="3">
-        <v>5085</v>
+        <v>6640</v>
       </c>
       <c r="S356" s="3">
-        <v>160.1</v>
+        <v>149.1</v>
       </c>
       <c r="T356" s="3">
-        <v>3668</v>
+        <v>3067</v>
       </c>
       <c r="U356" s="3">
-        <v>96.9</v>
+        <v>130.1</v>
       </c>
       <c r="V356" s="3">
-        <v>4993</v>
+        <v>6687</v>
       </c>
       <c r="W356" s="3">
-        <v>159.5</v>
+        <v>154.9</v>
       </c>
       <c r="X356" s="3">
-        <v>3305</v>
+        <v>3043</v>
       </c>
       <c r="Z356" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
       <c r="AA356" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="AB356" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD356" s="4">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="357" spans="3:30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="357" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C357" s="4">
         <v>6</v>
       </c>
       <c r="D357" t="s">
+        <v>52</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J357" s="3">
+        <v>5</v>
+      </c>
+      <c r="K357" t="s">
+        <v>76</v>
+      </c>
+      <c r="L357" s="3">
+        <v>136</v>
+      </c>
+      <c r="U357" s="3">
+        <v>115.1</v>
+      </c>
+      <c r="V357" s="3">
+        <v>6028</v>
+      </c>
+      <c r="W357" s="3">
+        <v>169.6</v>
+      </c>
+      <c r="X357" s="3">
+        <v>2501</v>
+      </c>
+      <c r="Z357" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA357" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC357" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD357" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="358" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C358" s="4">
+        <v>7</v>
+      </c>
+      <c r="D358" t="s">
+        <v>217</v>
+      </c>
+      <c r="E358" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G358" t="s">
+        <v>615</v>
+      </c>
+      <c r="L358" s="3">
+        <v>265</v>
+      </c>
+      <c r="Q358" s="3">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="R358" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S358" s="3">
+        <v>375.1</v>
+      </c>
+      <c r="T358" s="3">
+        <v>3212</v>
+      </c>
+      <c r="U358" s="3">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="V358" s="3">
+        <v>5525</v>
+      </c>
+      <c r="W358" s="3">
+        <v>398.7</v>
+      </c>
+      <c r="X358" s="3">
+        <v>3621</v>
+      </c>
+      <c r="Z358" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA358" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB358" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD358" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="359" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C359" s="4">
+        <v>8</v>
+      </c>
+      <c r="D359" t="s">
+        <v>28</v>
+      </c>
+      <c r="E359" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G359" t="s">
+        <v>618</v>
+      </c>
+      <c r="L359" s="3">
+        <v>129</v>
+      </c>
+      <c r="U359" s="3">
+        <v>181</v>
+      </c>
+      <c r="V359" s="3">
+        <v>5896</v>
+      </c>
+      <c r="W359" s="3">
+        <v>233</v>
+      </c>
+      <c r="X359" s="3">
+        <v>5296</v>
+      </c>
+      <c r="Z359" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA359" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB359" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD359" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="360" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C360" s="4">
+        <v>9</v>
+      </c>
+      <c r="D360" t="s">
+        <v>52</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G360" t="s">
+        <v>623</v>
+      </c>
+      <c r="J360" s="3">
+        <v>5</v>
+      </c>
+      <c r="U360" s="3">
+        <v>227.8</v>
+      </c>
+      <c r="V360" s="3">
+        <v>5921</v>
+      </c>
+      <c r="W360" s="3">
+        <v>343</v>
+      </c>
+      <c r="X360" s="3">
+        <v>4521</v>
+      </c>
+      <c r="Z360" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA360" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB360" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD360" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="361" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C361" s="4">
+        <v>10</v>
+      </c>
+      <c r="D361" t="s">
+        <v>217</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="L361" s="3">
+        <v>135</v>
+      </c>
+      <c r="U361" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="V361" s="3">
+        <v>6587</v>
+      </c>
+      <c r="W361" s="3">
+        <v>148.5</v>
+      </c>
+      <c r="X361" s="3">
+        <v>4539</v>
+      </c>
+      <c r="Z361" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA361" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB361" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD361" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="362" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C362" s="4">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s">
+        <v>36</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G362" t="s">
+        <v>576</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L362" s="3">
+        <v>131</v>
+      </c>
+      <c r="Q362" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R362" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S362" s="3">
+        <v>348.9</v>
+      </c>
+      <c r="T362" s="3">
+        <v>2359</v>
+      </c>
+      <c r="U362" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V362" s="3">
+        <v>4049</v>
+      </c>
+      <c r="W362" s="3">
+        <v>350.3</v>
+      </c>
+      <c r="X362" s="3">
+        <v>2430</v>
+      </c>
+      <c r="Z362" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA362" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB362" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD362" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="363" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C363" s="4">
+        <v>12</v>
+      </c>
+      <c r="D363" t="s">
+        <v>44</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G363" t="s">
+        <v>576</v>
+      </c>
+      <c r="L363" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q363" s="3">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R363" s="3">
+        <v>6258</v>
+      </c>
+      <c r="S363" s="3">
+        <v>449.1</v>
+      </c>
+      <c r="T363" s="3">
+        <v>3927</v>
+      </c>
+      <c r="U363" s="3">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="V363" s="3">
+        <v>6376</v>
+      </c>
+      <c r="W363" s="3">
+        <v>447.1</v>
+      </c>
+      <c r="X363" s="3">
+        <v>3904</v>
+      </c>
+      <c r="Z363" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA363" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB363" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD363" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="364" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C364" s="4">
+        <v>13</v>
+      </c>
+      <c r="D364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E364" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K364" t="s">
+        <v>76</v>
+      </c>
+      <c r="L364" s="3">
+        <v>193</v>
+      </c>
+      <c r="U364" s="3">
+        <v>205</v>
+      </c>
+      <c r="W364" s="3">
+        <v>240</v>
+      </c>
+      <c r="Z364" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA364" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB364" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD364" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C366" s="4">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J366" s="3">
+        <v>6</v>
+      </c>
+      <c r="L366" s="3">
+        <v>193</v>
+      </c>
+      <c r="U366" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V366" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W366" s="3">
+        <v>250</v>
+      </c>
+      <c r="X366" s="3">
+        <v>4813</v>
+      </c>
+      <c r="Z366" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA366" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB366" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD366" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="367" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C367" s="4">
+        <v>2</v>
+      </c>
+      <c r="D367" t="s">
+        <v>44</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L367" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q367" s="3">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="R367" s="3">
+        <v>25980</v>
+      </c>
+      <c r="S367" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="T367" s="3">
+        <v>4710</v>
+      </c>
+      <c r="U367" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="V367" s="3">
+        <v>6026</v>
+      </c>
+      <c r="W367" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="X367" s="3">
+        <v>4748</v>
+      </c>
+      <c r="Z367" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA367" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB367" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD367" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="368" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C368" s="4">
+        <v>3</v>
+      </c>
+      <c r="D368" t="s">
+        <v>38</v>
+      </c>
+      <c r="E368" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G368" t="s">
+        <v>588</v>
+      </c>
+      <c r="L368" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q368" s="3">
+        <v>268.3</v>
+      </c>
+      <c r="R368" s="3">
+        <v>5341</v>
+      </c>
+      <c r="S368" s="3">
+        <v>440.9</v>
+      </c>
+      <c r="T368" s="3">
+        <v>2638</v>
+      </c>
+      <c r="U368" s="3">
+        <v>268.2</v>
+      </c>
+      <c r="V368" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W368" s="3">
+        <v>448.9</v>
+      </c>
+      <c r="X368" s="3">
+        <v>2646</v>
+      </c>
+      <c r="Z368" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA368" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB368" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD368" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="369" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C369" s="4">
+        <v>4</v>
+      </c>
+      <c r="D369" t="s">
+        <v>44</v>
+      </c>
+      <c r="E369" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G369" t="s">
+        <v>590</v>
+      </c>
+      <c r="L369" s="3">
+        <v>139</v>
+      </c>
+      <c r="N369" s="3">
+        <v>1986</v>
+      </c>
+      <c r="Q369" s="3">
+        <v>209.1</v>
+      </c>
+      <c r="R369" s="3">
+        <v>7791</v>
+      </c>
+      <c r="S369" s="3">
+        <v>212</v>
+      </c>
+      <c r="T369" s="3">
+        <v>5755</v>
+      </c>
+      <c r="U369" s="3">
+        <v>208</v>
+      </c>
+      <c r="V369" s="3">
+        <v>7966</v>
+      </c>
+      <c r="W369" s="3">
+        <v>213.2</v>
+      </c>
+      <c r="X369" s="3">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="370" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C370" s="4">
+        <v>5</v>
+      </c>
+      <c r="D370" t="s">
+        <v>44</v>
+      </c>
+      <c r="E370" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G370" t="s">
+        <v>594</v>
+      </c>
+      <c r="L370" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q370" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="R370" s="3">
+        <v>5085</v>
+      </c>
+      <c r="S370" s="3">
+        <v>160.1</v>
+      </c>
+      <c r="T370" s="3">
+        <v>3668</v>
+      </c>
+      <c r="U370" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="V370" s="3">
+        <v>4993</v>
+      </c>
+      <c r="W370" s="3">
+        <v>159.5</v>
+      </c>
+      <c r="X370" s="3">
+        <v>3305</v>
+      </c>
+      <c r="Z370" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA370" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB370" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD370" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="371" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C371" s="4">
+        <v>6</v>
+      </c>
+      <c r="D371" t="s">
         <v>178</v>
       </c>
-      <c r="E357" s="4" t="s">
+      <c r="E371" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F357" s="2" t="s">
+      <c r="F371" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G357" t="s">
+      <c r="G371" t="s">
         <v>595</v>
       </c>
-      <c r="L357" s="3">
+      <c r="L371" s="3">
         <v>116</v>
       </c>
-      <c r="M357" s="1">
+      <c r="M371" s="1">
         <v>325000</v>
       </c>
-      <c r="Q357" s="3">
+      <c r="Q371" s="3">
         <v>109.7</v>
       </c>
-      <c r="R357" s="3">
+      <c r="R371" s="3">
         <v>6570</v>
       </c>
-      <c r="S357" s="3">
+      <c r="S371" s="3">
         <v>130</v>
       </c>
-      <c r="T357" s="3">
+      <c r="T371" s="3">
         <v>5181</v>
       </c>
-      <c r="U357" s="3">
+      <c r="U371" s="3">
         <v>111.1</v>
       </c>
-      <c r="V357" s="3">
+      <c r="V371" s="3">
         <v>6500</v>
       </c>
-      <c r="W357" s="3">
+      <c r="W371" s="3">
         <v>132.30000000000001</v>
       </c>
-      <c r="X357" s="3">
+      <c r="X371" s="3">
         <v>5179</v>
       </c>
-      <c r="Z357" t="s">
+      <c r="Z371" t="s">
         <v>47</v>
       </c>
-      <c r="AA357" t="s">
+      <c r="AA371" t="s">
         <v>48</v>
       </c>
-      <c r="AB357" t="s">
+      <c r="AB371" t="s">
         <v>42</v>
       </c>
-      <c r="AD357" s="4">
+      <c r="AD371" s="4">
         <v>36</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9843A315-4376-4BF2-AC50-8468E3D548CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD41658F-B143-4AE6-B8EE-20F752866C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="755">
   <si>
     <t>Episode</t>
   </si>
@@ -2174,6 +2174,117 @@
   </si>
   <si>
     <t>Mondeo (ST220)</t>
+  </si>
+  <si>
+    <t>Coupe (B2) 2.3E</t>
+  </si>
+  <si>
+    <t>E30 325i</t>
+  </si>
+  <si>
+    <t>Original 320</t>
+  </si>
+  <si>
+    <t>OAL</t>
+  </si>
+  <si>
+    <t>Ostallgäu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opel </t>
+  </si>
+  <si>
+    <t>1.Messung ohne Luftfilter, 2. Messung mit anderer Software</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>GÖ</t>
+  </si>
+  <si>
+    <t>Göttingen</t>
+  </si>
+  <si>
+    <t>MR2</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Alzey</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Lancer</t>
+  </si>
+  <si>
+    <t>LPG Anlage, 2. Messung auf Gas</t>
+  </si>
+  <si>
+    <t>Öttinger</t>
+  </si>
+  <si>
+    <t>LÖB</t>
+  </si>
+  <si>
+    <t>Löbau</t>
+  </si>
+  <si>
+    <t>T4 (Syncro) Turbo</t>
+  </si>
+  <si>
+    <t>SLS</t>
+  </si>
+  <si>
+    <t>Saarlouis</t>
+  </si>
+  <si>
+    <t>Saab</t>
+  </si>
+  <si>
+    <t>Original 316i (Compact)</t>
+  </si>
+  <si>
+    <t>323Ti</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>Bad Ems</t>
+  </si>
+  <si>
+    <t>E46 330i</t>
+  </si>
+  <si>
+    <t>1. Messung self coded Cruisemode</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanau </t>
+  </si>
+  <si>
+    <t>850 T5-R</t>
+  </si>
+  <si>
+    <t>VEC</t>
+  </si>
+  <si>
+    <t>Vechta</t>
   </si>
 </sst>
 </file>
@@ -3022,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE371"/>
+  <dimension ref="A1:AE387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B292" workbookViewId="0">
-      <selection activeCell="S312" sqref="S312"/>
+    <sheetView tabSelected="1" topLeftCell="B286" workbookViewId="0">
+      <selection activeCell="Y312" sqref="Y312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12056,596 +12167,799 @@
         <v>7</v>
       </c>
     </row>
+    <row r="296" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C296" s="4">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>52</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J296" s="3">
+        <v>5</v>
+      </c>
+      <c r="L296" s="3">
+        <v>136</v>
+      </c>
+      <c r="Q296" s="3">
+        <v>123</v>
+      </c>
+      <c r="R296" s="3">
+        <v>5022</v>
+      </c>
+      <c r="S296" s="3">
+        <v>201.8</v>
+      </c>
+      <c r="T296" s="3">
+        <v>3539</v>
+      </c>
+      <c r="U296" s="3">
+        <v>121.3</v>
+      </c>
+      <c r="V296" s="3">
+        <v>4886</v>
+      </c>
+      <c r="W296" s="3">
+        <v>198.9</v>
+      </c>
+      <c r="X296" s="3">
+        <v>3255</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>523</v>
+      </c>
+    </row>
     <row r="297" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B297">
-        <v>6</v>
+      <c r="C297" s="4">
+        <v>2</v>
+      </c>
+      <c r="D297" t="s">
+        <v>28</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G297" t="s">
+        <v>720</v>
+      </c>
+      <c r="L297" s="3">
+        <v>170</v>
+      </c>
+      <c r="Q297" s="3">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="R297" s="3">
+        <v>5962</v>
+      </c>
+      <c r="S297" s="3">
+        <v>187.8</v>
+      </c>
+      <c r="T297" s="3">
+        <v>4474</v>
+      </c>
+      <c r="U297" s="3">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="V297" s="3">
+        <v>5991</v>
+      </c>
+      <c r="W297" s="3">
+        <v>190.9</v>
+      </c>
+      <c r="X297" s="3">
+        <v>4443</v>
+      </c>
+      <c r="Z297" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="298" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C298" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D298" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>694</v>
+        <v>531</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G298" t="s">
-        <v>693</v>
+        <v>346</v>
       </c>
       <c r="L298" s="3">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="U298" s="3">
-        <v>198.9</v>
+        <v>64.3</v>
       </c>
       <c r="V298" s="3">
-        <v>4106</v>
+        <v>4313</v>
       </c>
       <c r="W298" s="3">
-        <v>417.2</v>
+        <v>123.7</v>
       </c>
       <c r="X298" s="3">
-        <v>2732</v>
+        <v>2182</v>
       </c>
       <c r="Z298" t="s">
-        <v>446</v>
+        <v>568</v>
       </c>
     </row>
     <row r="299" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C299" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D299" t="s">
-        <v>217</v>
+        <v>723</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>695</v>
+        <v>418</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G299" t="s">
-        <v>696</v>
+        <v>211</v>
+      </c>
+      <c r="J299" s="3">
+        <v>6</v>
       </c>
       <c r="L299" s="3">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="U299" s="3">
-        <v>141.19999999999999</v>
+        <v>193.1</v>
       </c>
       <c r="V299" s="3">
-        <v>6642</v>
+        <v>6068</v>
       </c>
       <c r="W299" s="3">
-        <v>153.69999999999999</v>
+        <v>237.4</v>
       </c>
       <c r="X299" s="3">
-        <v>6342</v>
+        <v>4703</v>
       </c>
       <c r="Z299" t="s">
-        <v>552</v>
+        <v>721</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB299" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD299" s="4">
+        <v>630</v>
       </c>
     </row>
     <row r="300" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C300" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D300" t="s">
-        <v>278</v>
+        <v>412</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>697</v>
+        <v>489</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="G300" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="L300" s="3">
-        <v>231</v>
-      </c>
-      <c r="M300" s="1">
-        <v>157115</v>
-      </c>
-      <c r="N300" s="3">
-        <v>2004</v>
+        <v>190</v>
+      </c>
+      <c r="Q300" s="3">
+        <v>185</v>
+      </c>
+      <c r="R300" s="3">
+        <v>6689</v>
+      </c>
+      <c r="S300" s="3">
+        <v>158.1</v>
+      </c>
+      <c r="T300" s="3">
+        <v>7544</v>
       </c>
       <c r="U300" s="3">
-        <v>199.3</v>
+        <v>184.2</v>
       </c>
       <c r="V300" s="3">
-        <v>6844</v>
+        <v>8500</v>
       </c>
       <c r="W300" s="3">
-        <v>173.9</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="X300" s="3">
-        <v>7611</v>
+        <v>7376</v>
       </c>
       <c r="Z300" t="s">
-        <v>432</v>
+        <v>215</v>
       </c>
     </row>
     <row r="301" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C301" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D301" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>208</v>
+        <v>727</v>
       </c>
       <c r="L301" s="3">
-        <v>115</v>
-      </c>
-      <c r="M301" s="1">
-        <v>396000</v>
+        <v>195</v>
+      </c>
+      <c r="Q301" s="3">
+        <v>193.4</v>
+      </c>
+      <c r="R301" s="3">
+        <v>7495</v>
+      </c>
+      <c r="S301" s="3">
+        <v>222.1</v>
+      </c>
+      <c r="T301" s="3">
+        <v>4933</v>
       </c>
       <c r="U301" s="3">
-        <v>121.6</v>
+        <v>191.2</v>
       </c>
       <c r="V301" s="3">
-        <v>6112</v>
+        <v>7157</v>
       </c>
       <c r="W301" s="3">
-        <v>170.6</v>
+        <v>223.4</v>
       </c>
       <c r="X301" s="3">
-        <v>4285</v>
+        <v>4886</v>
       </c>
       <c r="Z301" t="s">
-        <v>251</v>
+        <v>725</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC301" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD301" s="4">
+        <v>640</v>
       </c>
     </row>
     <row r="302" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C302" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D302" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="G302" t="s">
+        <v>677</v>
       </c>
       <c r="L302" s="3">
-        <v>125</v>
-      </c>
-      <c r="U302" s="3">
-        <v>124.6</v>
-      </c>
-      <c r="V302" s="3">
-        <v>6041</v>
-      </c>
-      <c r="W302" s="3">
-        <v>158.5</v>
-      </c>
-      <c r="X302" s="3">
-        <v>3470</v>
+        <v>156</v>
+      </c>
+      <c r="Q302" s="3">
+        <v>161.4</v>
+      </c>
+      <c r="R302" s="3">
+        <v>6432</v>
+      </c>
+      <c r="S302" s="3">
+        <v>201.3</v>
+      </c>
+      <c r="T302" s="3">
+        <v>4502</v>
       </c>
       <c r="Z302" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="AA302" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
       <c r="AB302" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="AD302" s="4">
-        <v>380</v>
+        <v>210</v>
       </c>
     </row>
     <row r="303" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C303" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D303" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>206</v>
+        <v>733</v>
+      </c>
+      <c r="G303" t="s">
+        <v>735</v>
       </c>
       <c r="L303" s="3">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M303" s="1">
-        <v>464568</v>
+        <v>850000</v>
+      </c>
+      <c r="Q303" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="R303" s="3">
+        <v>5620</v>
+      </c>
+      <c r="S303" s="3">
+        <v>127</v>
+      </c>
+      <c r="T303" s="3">
+        <v>2176</v>
       </c>
       <c r="U303" s="3">
-        <v>79.400000000000006</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="V303" s="3">
-        <v>5100</v>
+        <v>553</v>
       </c>
       <c r="W303" s="3">
-        <v>121.3</v>
+        <v>118.3</v>
       </c>
       <c r="X303" s="3">
-        <v>4012</v>
+        <v>2458</v>
       </c>
       <c r="Z303" t="s">
-        <v>599</v>
+        <v>731</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD303" s="4">
+        <v>300</v>
       </c>
     </row>
     <row r="304" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C304" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>704</v>
+        <v>739</v>
+      </c>
+      <c r="G304" t="s">
+        <v>736</v>
+      </c>
+      <c r="J304" s="3">
+        <v>5</v>
       </c>
       <c r="L304" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q304" s="3">
-        <v>107.2</v>
-      </c>
-      <c r="R304" s="3">
-        <v>5650</v>
-      </c>
-      <c r="S304" s="3">
-        <v>147.1</v>
-      </c>
-      <c r="T304" s="3">
-        <v>3736</v>
+        <v>180</v>
       </c>
       <c r="U304" s="3">
-        <v>108.5</v>
+        <v>151.9</v>
       </c>
       <c r="V304" s="3">
-        <v>5746</v>
+        <v>4596</v>
       </c>
       <c r="W304" s="3">
-        <v>148.30000000000001</v>
+        <v>253</v>
       </c>
       <c r="X304" s="3">
-        <v>3810</v>
+        <v>3321</v>
       </c>
       <c r="Z304" t="s">
-        <v>110</v>
+        <v>737</v>
+      </c>
+      <c r="AA304" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB304" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD304" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C305" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D305" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>147</v>
+        <v>607</v>
+      </c>
+      <c r="J305" s="3">
+        <v>5</v>
       </c>
       <c r="L305" s="3">
-        <v>285</v>
+        <v>125</v>
+      </c>
+      <c r="Q305" s="3">
+        <v>119</v>
+      </c>
+      <c r="R305" s="3">
+        <v>5516</v>
+      </c>
+      <c r="S305" s="3">
+        <v>169.3</v>
+      </c>
+      <c r="T305" s="3">
+        <v>3794</v>
       </c>
       <c r="U305" s="3">
-        <v>309.10000000000002</v>
+        <v>117.8</v>
       </c>
       <c r="V305" s="3">
-        <v>5360</v>
+        <v>5647</v>
       </c>
       <c r="W305" s="3">
-        <v>487</v>
+        <v>155</v>
       </c>
       <c r="X305" s="3">
-        <v>4061</v>
+        <v>5079</v>
+      </c>
+      <c r="Z305" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="306" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C306" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D306" t="s">
         <v>44</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>706</v>
+        <v>589</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H306" s="3" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="L306" s="3">
-        <v>116</v>
+        <v>139</v>
+      </c>
+      <c r="M306" s="1">
+        <v>167000</v>
       </c>
       <c r="U306" s="3">
-        <v>168.1</v>
+        <v>141.4</v>
       </c>
       <c r="V306" s="3">
-        <v>3725</v>
+        <v>6603</v>
       </c>
       <c r="W306" s="3">
+        <v>164.2</v>
+      </c>
+      <c r="X306" s="3">
+        <v>5340</v>
+      </c>
+      <c r="Z306" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB306" t="s">
         <v>369</v>
       </c>
-      <c r="X306" s="3">
-        <v>2941</v>
+      <c r="AD306" s="4">
+        <v>350</v>
       </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C307" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D307" t="s">
-        <v>36</v>
-      </c>
-      <c r="E307" s="4" t="s">
-        <v>709</v>
+        <v>742</v>
+      </c>
+      <c r="E307" s="4">
+        <v>95</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="G307" t="s">
-        <v>710</v>
+        <v>748</v>
       </c>
       <c r="L307" s="3">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q307" s="3">
-        <v>141.4</v>
+        <v>201.8</v>
       </c>
       <c r="R307" s="3">
-        <v>5198</v>
+        <v>5839</v>
       </c>
       <c r="S307" s="3">
-        <v>214.6</v>
+        <v>307</v>
       </c>
       <c r="T307" s="3">
-        <v>3910</v>
+        <v>2772</v>
       </c>
       <c r="U307" s="3">
-        <v>145.19999999999999</v>
+        <v>227.5</v>
       </c>
       <c r="V307" s="3">
-        <v>5158</v>
+        <v>5702</v>
       </c>
       <c r="W307" s="3">
-        <v>219.6</v>
+        <v>381</v>
       </c>
       <c r="X307" s="3">
-        <v>3838</v>
-      </c>
-      <c r="Z307" t="s">
-        <v>707</v>
-      </c>
-      <c r="AA307" t="s">
-        <v>708</v>
-      </c>
-      <c r="AB307" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD307" s="4">
-        <v>650</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="308" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C308" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D308" t="s">
         <v>28</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>711</v>
+        <v>744</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="J308" s="3">
+        <v>6</v>
       </c>
       <c r="L308" s="3">
-        <v>150</v>
-      </c>
-      <c r="M308" s="1">
-        <v>250000</v>
+        <v>170</v>
+      </c>
+      <c r="Q308" s="3">
+        <v>173.9</v>
+      </c>
+      <c r="R308" s="3">
+        <v>5780</v>
+      </c>
+      <c r="S308" s="3">
+        <v>226.1</v>
+      </c>
+      <c r="T308" s="3">
+        <v>4666</v>
       </c>
       <c r="U308" s="3">
-        <v>152.5</v>
+        <v>174.6</v>
       </c>
       <c r="V308" s="3">
-        <v>3952</v>
+        <v>5804</v>
       </c>
       <c r="W308" s="3">
-        <v>324.8</v>
+        <v>228.6</v>
       </c>
       <c r="X308" s="3">
-        <v>2672</v>
+        <v>4669</v>
       </c>
       <c r="Z308" t="s">
-        <v>99</v>
+        <v>326</v>
       </c>
     </row>
     <row r="309" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C309" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D309" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G309" t="s">
-        <v>714</v>
+        <v>687</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="L309" s="3">
-        <v>147</v>
-      </c>
-      <c r="Q309" s="3">
-        <v>178.3</v>
-      </c>
-      <c r="R309" s="3">
-        <v>4540</v>
-      </c>
-      <c r="S309" s="3">
-        <v>315.2</v>
-      </c>
-      <c r="T309" s="3">
-        <v>3784</v>
+        <v>174</v>
       </c>
       <c r="U309" s="3">
-        <v>149</v>
+        <v>184.4</v>
       </c>
       <c r="V309" s="3">
-        <v>5088</v>
+        <v>6059</v>
       </c>
       <c r="W309" s="3">
-        <v>256.3</v>
+        <v>247.5</v>
       </c>
       <c r="X309" s="3">
-        <v>3222</v>
+        <v>4445</v>
       </c>
       <c r="Z309" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="AA309" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="AB309" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="AD309" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="310" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C310" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D310" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>298</v>
+        <v>463</v>
       </c>
       <c r="L310" s="3">
-        <v>55</v>
+        <v>231</v>
+      </c>
+      <c r="M310" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q310" s="3">
+        <v>205.8</v>
+      </c>
+      <c r="R310" s="3">
+        <v>6150</v>
+      </c>
+      <c r="S310" s="3">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="T310" s="3">
+        <v>4021</v>
       </c>
       <c r="U310" s="3">
-        <v>75.400000000000006</v>
+        <v>212.3</v>
       </c>
       <c r="V310" s="3">
-        <v>6471</v>
+        <v>6103</v>
       </c>
       <c r="W310" s="3">
-        <v>102.3</v>
+        <v>266.7</v>
       </c>
       <c r="X310" s="3">
-        <v>3908</v>
+        <v>5039</v>
+      </c>
+      <c r="Z310" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C311" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D311" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>716</v>
+        <v>752</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="J311" s="3">
         <v>5</v>
       </c>
       <c r="L311" s="3">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="Q311" s="3">
-        <v>92.1</v>
+        <v>238.9</v>
       </c>
       <c r="R311" s="3">
-        <v>3973</v>
+        <v>5907</v>
       </c>
       <c r="S311" s="3">
-        <v>168.5</v>
+        <v>370.3</v>
       </c>
       <c r="T311" s="3">
-        <v>3702</v>
+        <v>4512</v>
       </c>
       <c r="U311" s="3">
-        <v>94</v>
+        <v>249.1</v>
       </c>
       <c r="V311" s="3">
-        <v>4062</v>
+        <v>4570</v>
       </c>
       <c r="W311" s="3">
-        <v>170.1</v>
+        <v>393.6</v>
       </c>
       <c r="X311" s="3">
-        <v>3731</v>
+        <v>4433</v>
       </c>
       <c r="Z311" t="s">
-        <v>110</v>
+        <v>750</v>
+      </c>
+      <c r="AA311" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB311" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD311" s="4">
+        <v>240</v>
       </c>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C312" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D312" t="s">
-        <v>38</v>
-      </c>
-      <c r="E312" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="J312" s="3">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="E312" s="4">
+        <v>80</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L312" s="3">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="Q312" s="3">
-        <v>185.9</v>
+        <v>104.7</v>
       </c>
       <c r="R312" s="3">
-        <v>5885</v>
+        <v>5285</v>
       </c>
       <c r="S312" s="3">
-        <v>230.5</v>
+        <v>164.4</v>
       </c>
       <c r="T312" s="3">
-        <v>5266</v>
+        <v>3305</v>
       </c>
       <c r="U312" s="3">
-        <v>189.3</v>
+        <v>106.5</v>
       </c>
       <c r="V312" s="3">
-        <v>5956</v>
+        <v>5219</v>
       </c>
       <c r="W312" s="3">
-        <v>236.6</v>
+        <v>167.5</v>
       </c>
       <c r="X312" s="3">
-        <v>5217</v>
+        <v>3223</v>
       </c>
       <c r="Z312" t="s">
-        <v>47</v>
+        <v>753</v>
+      </c>
+      <c r="AA312" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB312" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD312" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="313" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B313">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
@@ -12653,34 +12967,34 @@
         <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G314" t="s">
-        <v>576</v>
+        <v>693</v>
       </c>
       <c r="L314" s="3">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="U314" s="3">
-        <v>191.2</v>
+        <v>198.9</v>
       </c>
       <c r="V314" s="3">
-        <v>8095</v>
+        <v>4106</v>
       </c>
       <c r="W314" s="3">
-        <v>184</v>
+        <v>417.2</v>
       </c>
       <c r="X314" s="3">
-        <v>6394</v>
+        <v>2732</v>
       </c>
       <c r="Z314" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
@@ -12688,52 +13002,34 @@
         <v>2</v>
       </c>
       <c r="D315" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="G315" t="s">
+        <v>696</v>
+      </c>
       <c r="L315" s="3">
-        <v>95</v>
-      </c>
-      <c r="Q315" s="3">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="R315" s="3">
-        <v>6130</v>
-      </c>
-      <c r="S315" s="3">
-        <v>89.8</v>
-      </c>
-      <c r="T315" s="3">
-        <v>6020</v>
+        <v>135</v>
       </c>
       <c r="U315" s="3">
-        <v>78.7</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="V315" s="3">
-        <v>6094</v>
+        <v>6642</v>
       </c>
       <c r="W315" s="3">
-        <v>91.7</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="X315" s="3">
-        <v>5966</v>
+        <v>6342</v>
       </c>
       <c r="Z315" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA315" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB315" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD315" s="4">
-        <v>100</v>
+        <v>552</v>
       </c>
     </row>
     <row r="316" spans="2:30" x14ac:dyDescent="0.25">
@@ -12741,61 +13037,40 @@
         <v>3</v>
       </c>
       <c r="D316" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>463</v>
+        <v>298</v>
       </c>
       <c r="G316" t="s">
-        <v>685</v>
-      </c>
-      <c r="J316" s="3">
-        <v>6</v>
+        <v>698</v>
       </c>
       <c r="L316" s="3">
         <v>231</v>
       </c>
       <c r="M316" s="1">
-        <v>377473</v>
-      </c>
-      <c r="Q316" s="3">
-        <v>199.6</v>
-      </c>
-      <c r="R316" s="3">
-        <v>6123</v>
-      </c>
-      <c r="S316" s="3">
-        <v>268.2</v>
-      </c>
-      <c r="T316" s="3">
-        <v>3625</v>
+        <v>157115</v>
+      </c>
+      <c r="N316" s="3">
+        <v>2004</v>
       </c>
       <c r="U316" s="3">
-        <v>202.2</v>
+        <v>199.3</v>
       </c>
       <c r="V316" s="3">
-        <v>6211</v>
+        <v>6844</v>
       </c>
       <c r="W316" s="3">
-        <v>269.60000000000002</v>
+        <v>173.9</v>
       </c>
       <c r="X316" s="3">
-        <v>3618</v>
+        <v>7611</v>
       </c>
       <c r="Z316" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA316" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB316" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD316" s="4">
-        <v>252</v>
+        <v>432</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
@@ -12806,28 +13081,31 @@
         <v>36</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G317" t="s">
-        <v>576</v>
+        <v>208</v>
       </c>
       <c r="L317" s="3">
-        <v>240</v>
+        <v>115</v>
+      </c>
+      <c r="M317" s="1">
+        <v>396000</v>
       </c>
       <c r="U317" s="3">
-        <v>261.8</v>
+        <v>121.6</v>
       </c>
       <c r="V317" s="3">
-        <v>5721</v>
+        <v>6112</v>
       </c>
       <c r="W317" s="3">
-        <v>406.3</v>
+        <v>170.6</v>
       </c>
       <c r="X317" s="3">
-        <v>4044</v>
+        <v>4285</v>
+      </c>
+      <c r="Z317" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
@@ -12837,47 +13115,38 @@
       <c r="D318" t="s">
         <v>52</v>
       </c>
+      <c r="E318" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="F318" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G318" t="s">
-        <v>424</v>
-      </c>
-      <c r="K318" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="L318" s="3">
-        <v>113</v>
-      </c>
-      <c r="M318" s="1">
-        <v>137872</v>
-      </c>
-      <c r="Q318" s="3">
-        <v>97</v>
-      </c>
-      <c r="R318" s="3">
-        <v>5372</v>
-      </c>
-      <c r="S318" s="3">
-        <v>168.8</v>
-      </c>
-      <c r="T318" s="3">
-        <v>3490</v>
+        <v>125</v>
       </c>
       <c r="U318" s="3">
-        <v>97.3</v>
+        <v>124.6</v>
       </c>
       <c r="V318" s="3">
-        <v>5749</v>
+        <v>6041</v>
       </c>
       <c r="W318" s="3">
-        <v>147.9</v>
+        <v>158.5</v>
       </c>
       <c r="X318" s="3">
-        <v>3325</v>
+        <v>3470</v>
       </c>
       <c r="Z318" t="s">
-        <v>104</v>
+        <v>701</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>702</v>
+      </c>
+      <c r="AB318" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD318" s="4">
+        <v>380</v>
       </c>
     </row>
     <row r="319" spans="2:30" x14ac:dyDescent="0.25">
@@ -12885,40 +13154,34 @@
         <v>6</v>
       </c>
       <c r="D319" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J319" s="3">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="L319" s="3">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="M319" s="1">
-        <v>320000</v>
-      </c>
-      <c r="N319" s="3">
-        <v>1983</v>
+        <v>464568</v>
       </c>
       <c r="U319" s="3">
-        <v>186.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="V319" s="3">
-        <v>5977</v>
+        <v>5100</v>
       </c>
       <c r="W319" s="3">
-        <v>237.9</v>
+        <v>121.3</v>
       </c>
       <c r="X319" s="3">
-        <v>4499</v>
+        <v>4012</v>
       </c>
       <c r="Z319" t="s">
-        <v>195</v>
+        <v>599</v>
       </c>
     </row>
     <row r="320" spans="2:30" x14ac:dyDescent="0.25">
@@ -12926,44 +13189,40 @@
         <v>7</v>
       </c>
       <c r="D320" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F320" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J320" s="3">
-        <v>6</v>
+        <v>704</v>
       </c>
       <c r="L320" s="3">
-        <v>150</v>
-      </c>
-      <c r="M320" s="1"/>
+        <v>90</v>
+      </c>
       <c r="Q320" s="3">
-        <v>158.5</v>
+        <v>107.2</v>
       </c>
       <c r="R320" s="3">
-        <v>6233</v>
+        <v>5650</v>
       </c>
       <c r="S320" s="3">
-        <v>188.2</v>
+        <v>147.1</v>
       </c>
       <c r="T320" s="3">
-        <v>4832</v>
+        <v>3736</v>
       </c>
       <c r="U320" s="3">
-        <v>158.30000000000001</v>
+        <v>108.5</v>
       </c>
       <c r="V320" s="3">
-        <v>6308</v>
+        <v>5746</v>
       </c>
       <c r="W320" s="3">
-        <v>191.7</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="X320" s="3">
-        <v>4811</v>
+        <v>3810</v>
+      </c>
+      <c r="Z320" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="321" spans="2:30" x14ac:dyDescent="0.25">
@@ -12971,47 +13230,28 @@
         <v>8</v>
       </c>
       <c r="D321" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H321" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="L321" s="3">
-        <v>140</v>
-      </c>
-      <c r="M321" s="1"/>
-      <c r="Q321" s="3">
-        <v>197.4</v>
-      </c>
-      <c r="R321" s="3">
-        <v>4140</v>
-      </c>
-      <c r="S321" s="3">
-        <v>445.5</v>
-      </c>
-      <c r="T321" s="3">
-        <v>2125</v>
+        <v>285</v>
       </c>
       <c r="U321" s="3">
-        <v>197.4</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="V321" s="3">
-        <v>4141</v>
+        <v>5360</v>
       </c>
       <c r="W321" s="3">
-        <v>449.4</v>
+        <v>487</v>
       </c>
       <c r="X321" s="3">
-        <v>2171</v>
-      </c>
-      <c r="Z321" t="s">
-        <v>330</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="322" spans="2:30" x14ac:dyDescent="0.25">
@@ -13019,35 +13259,31 @@
         <v>9</v>
       </c>
       <c r="D322" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G322" t="s">
-        <v>690</v>
+        <v>342</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L322" s="3">
-        <v>200</v>
-      </c>
-      <c r="M322" s="1"/>
+        <v>116</v>
+      </c>
       <c r="U322" s="3">
-        <v>226.2</v>
+        <v>168.1</v>
       </c>
       <c r="V322" s="3">
-        <v>6399</v>
+        <v>3725</v>
       </c>
       <c r="W322" s="3">
-        <v>319.89999999999998</v>
+        <v>369</v>
       </c>
       <c r="X322" s="3">
-        <v>3371</v>
-      </c>
-      <c r="Z322" t="s">
-        <v>156</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="323" spans="2:30" x14ac:dyDescent="0.25">
@@ -13055,2163 +13291,2828 @@
         <v>10</v>
       </c>
       <c r="D323" t="s">
-        <v>691</v>
+        <v>36</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="G323" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="L323" s="3">
-        <v>245</v>
-      </c>
-      <c r="M323" s="1">
-        <v>8000</v>
+        <v>150</v>
+      </c>
+      <c r="Q323" s="3">
+        <v>141.4</v>
+      </c>
+      <c r="R323" s="3">
+        <v>5198</v>
+      </c>
+      <c r="S323" s="3">
+        <v>214.6</v>
+      </c>
+      <c r="T323" s="3">
+        <v>3910</v>
       </c>
       <c r="U323" s="3">
-        <v>302.3</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="V323" s="3">
-        <v>6386</v>
+        <v>5158</v>
       </c>
       <c r="W323" s="3">
-        <v>424.8</v>
+        <v>219.6</v>
       </c>
       <c r="X323" s="3">
-        <v>3147</v>
+        <v>3838</v>
       </c>
       <c r="Z323" t="s">
-        <v>386</v>
+        <v>707</v>
+      </c>
+      <c r="AA323" t="s">
+        <v>708</v>
+      </c>
+      <c r="AB323" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD323" s="4">
+        <v>650</v>
       </c>
     </row>
     <row r="324" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B324">
-        <v>4</v>
+      <c r="C324" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s">
+        <v>28</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="L324" s="3">
+        <v>150</v>
+      </c>
+      <c r="M324" s="1">
+        <v>250000</v>
+      </c>
+      <c r="U324" s="3">
+        <v>152.5</v>
+      </c>
+      <c r="V324" s="3">
+        <v>3952</v>
+      </c>
+      <c r="W324" s="3">
+        <v>324.8</v>
+      </c>
+      <c r="X324" s="3">
+        <v>2672</v>
+      </c>
+      <c r="Z324" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="325" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C325" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D325" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="F325" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G325" t="s">
+        <v>714</v>
+      </c>
+      <c r="L325" s="3">
         <v>147</v>
       </c>
-      <c r="G325" t="s">
-        <v>650</v>
-      </c>
-      <c r="K325" t="s">
-        <v>76</v>
-      </c>
-      <c r="L325" s="3">
-        <v>140</v>
-      </c>
       <c r="Q325" s="3">
-        <v>154.6</v>
+        <v>178.3</v>
       </c>
       <c r="R325" s="3">
-        <v>39115</v>
+        <v>4540</v>
       </c>
       <c r="S325" s="3">
-        <v>367.9</v>
+        <v>315.2</v>
       </c>
       <c r="T325" s="3">
-        <v>2264</v>
+        <v>3784</v>
       </c>
       <c r="U325" s="3">
-        <v>154.9</v>
+        <v>149</v>
       </c>
       <c r="V325" s="3">
-        <v>3982</v>
+        <v>5088</v>
       </c>
       <c r="W325" s="3">
-        <v>368.3</v>
+        <v>256.3</v>
       </c>
       <c r="X325" s="3">
-        <v>2346</v>
+        <v>3222</v>
       </c>
       <c r="Z325" t="s">
-        <v>110</v>
+        <v>712</v>
+      </c>
+      <c r="AA325" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB325" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD325" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="326" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C326" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D326" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>651</v>
+        <v>715</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="L326" s="3">
-        <v>241</v>
-      </c>
-      <c r="Q326" s="3">
-        <v>227.4</v>
-      </c>
-      <c r="R326" s="3">
-        <v>5706</v>
-      </c>
-      <c r="S326" s="3">
-        <v>329.2</v>
-      </c>
-      <c r="T326" s="3">
-        <v>3772</v>
+        <v>55</v>
       </c>
       <c r="U326" s="3">
-        <v>216.6</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="V326" s="3">
-        <v>5120</v>
+        <v>6471</v>
       </c>
       <c r="W326" s="3">
-        <v>327.39999999999998</v>
+        <v>102.3</v>
       </c>
       <c r="X326" s="3">
-        <v>3780</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="327" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C327" s="4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D327" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="F327" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G327" t="s">
-        <v>653</v>
+        <v>716</v>
+      </c>
+      <c r="J327" s="3">
+        <v>5</v>
       </c>
       <c r="L327" s="3">
-        <v>122</v>
-      </c>
-      <c r="M327" s="1">
-        <v>197000</v>
+        <v>133</v>
+      </c>
+      <c r="Q327" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="R327" s="3">
+        <v>3973</v>
+      </c>
+      <c r="S327" s="3">
+        <v>168.5</v>
+      </c>
+      <c r="T327" s="3">
+        <v>3702</v>
       </c>
       <c r="U327" s="3">
-        <v>123.1</v>
+        <v>94</v>
       </c>
       <c r="V327" s="3">
-        <v>5319</v>
+        <v>4062</v>
       </c>
       <c r="W327" s="3">
-        <v>195</v>
+        <v>170.1</v>
       </c>
       <c r="X327" s="3">
-        <v>3891</v>
+        <v>3731</v>
       </c>
       <c r="Z327" t="s">
-        <v>386</v>
+        <v>110</v>
       </c>
     </row>
     <row r="328" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C328" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D328" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F328" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G328" t="s">
-        <v>655</v>
+        <v>717</v>
+      </c>
+      <c r="J328" s="3">
+        <v>6</v>
       </c>
       <c r="L328" s="3">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="Q328" s="3">
-        <v>126.6</v>
+        <v>185.9</v>
       </c>
       <c r="R328" s="3">
-        <v>5245</v>
+        <v>5885</v>
       </c>
       <c r="S328" s="3">
-        <v>225.8</v>
+        <v>230.5</v>
       </c>
       <c r="T328" s="3">
-        <v>3364</v>
+        <v>5266</v>
       </c>
       <c r="U328" s="3">
-        <v>138.80000000000001</v>
+        <v>189.3</v>
       </c>
       <c r="V328" s="3">
-        <v>5784</v>
+        <v>5956</v>
       </c>
       <c r="W328" s="3">
-        <v>2440</v>
+        <v>236.6</v>
       </c>
       <c r="X328" s="3">
-        <v>3011</v>
+        <v>5217</v>
       </c>
       <c r="Z328" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="329" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C329" s="4">
+      <c r="B329">
         <v>5</v>
-      </c>
-      <c r="D329" t="s">
-        <v>52</v>
-      </c>
-      <c r="E329" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F329" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G329" t="s">
-        <v>657</v>
-      </c>
-      <c r="L329" s="3">
-        <v>102</v>
-      </c>
-      <c r="M329" s="1">
-        <v>550881</v>
-      </c>
-      <c r="Q329" s="3">
-        <v>90.8</v>
-      </c>
-      <c r="R329" s="3">
-        <v>5587</v>
-      </c>
-      <c r="S329" s="3">
-        <v>127.1</v>
-      </c>
-      <c r="T329" s="3">
-        <v>4187</v>
-      </c>
-      <c r="U329" s="3">
-        <v>97.5</v>
-      </c>
-      <c r="V329" s="3">
-        <v>5617</v>
-      </c>
-      <c r="W329" s="3">
-        <v>137.19999999999999</v>
-      </c>
-      <c r="X329" s="3">
-        <v>4055</v>
-      </c>
-      <c r="Z329" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="330" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C330" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D330" t="s">
-        <v>52</v>
+        <v>412</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J330" s="3">
-        <v>5</v>
+        <v>678</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G330" t="s">
+        <v>576</v>
       </c>
       <c r="L330" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q330" s="3">
-        <v>113.3</v>
-      </c>
-      <c r="R330" s="3">
-        <v>6022</v>
-      </c>
-      <c r="S330" s="3">
-        <v>163.69999999999999</v>
-      </c>
-      <c r="T330" s="3">
-        <v>3992</v>
+        <v>200</v>
       </c>
       <c r="U330" s="3">
-        <v>117.4</v>
+        <v>191.2</v>
       </c>
       <c r="V330" s="3">
-        <v>5951</v>
+        <v>8095</v>
       </c>
       <c r="W330" s="3">
-        <v>168.2</v>
+        <v>184</v>
       </c>
       <c r="X330" s="3">
-        <v>3955</v>
+        <v>6394</v>
       </c>
       <c r="Z330" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="331" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C331" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D331" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="H331" s="3" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="L331" s="3">
-        <v>150</v>
-      </c>
-      <c r="M331" s="1">
-        <v>200000</v>
+        <v>95</v>
+      </c>
+      <c r="Q331" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="R331" s="3">
+        <v>6130</v>
+      </c>
+      <c r="S331" s="3">
+        <v>89.8</v>
+      </c>
+      <c r="T331" s="3">
+        <v>6020</v>
       </c>
       <c r="U331" s="3">
-        <v>148.30000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="V331" s="3">
-        <v>3922</v>
+        <v>6094</v>
       </c>
       <c r="W331" s="3">
-        <v>334.3</v>
+        <v>91.7</v>
       </c>
       <c r="X331" s="3">
-        <v>2422</v>
+        <v>5966</v>
       </c>
       <c r="Z331" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="AA331" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="AB331" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="AD331" s="4">
-        <v>490</v>
+        <v>100</v>
       </c>
     </row>
     <row r="332" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C332" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D332" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>663</v>
+        <v>463</v>
       </c>
       <c r="G332" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="J332" s="3">
-        <v>8</v>
-      </c>
-      <c r="N332" s="3">
-        <v>1969</v>
+        <v>6</v>
+      </c>
+      <c r="L332" s="3">
+        <v>231</v>
+      </c>
+      <c r="M332" s="1">
+        <v>377473</v>
       </c>
       <c r="Q332" s="3">
-        <v>328.3</v>
+        <v>199.6</v>
       </c>
       <c r="R332" s="3">
-        <v>4379</v>
+        <v>6123</v>
       </c>
       <c r="S332" s="3">
-        <v>552.79999999999995</v>
+        <v>268.2</v>
       </c>
       <c r="T332" s="3">
-        <v>4015</v>
+        <v>3625</v>
       </c>
       <c r="U332" s="3">
-        <v>339.5</v>
+        <v>202.2</v>
       </c>
       <c r="V332" s="3">
-        <v>5125</v>
+        <v>6211</v>
       </c>
       <c r="W332" s="3">
-        <v>559.9</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="X332" s="3">
-        <v>3873</v>
+        <v>3618</v>
+      </c>
+      <c r="Z332" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA332" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB332" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD332" s="4">
+        <v>252</v>
       </c>
     </row>
     <row r="333" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C333" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D333" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>607</v>
+        <v>686</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G333" t="s">
-        <v>667</v>
-      </c>
-      <c r="J333" s="3">
-        <v>5</v>
+        <v>576</v>
       </c>
       <c r="L333" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q333" s="3">
-        <v>107.3</v>
-      </c>
-      <c r="R333" s="3">
-        <v>5214</v>
-      </c>
-      <c r="S333" s="3">
-        <v>163</v>
-      </c>
-      <c r="T333" s="3">
-        <v>3028</v>
+        <v>240</v>
       </c>
       <c r="U333" s="3">
-        <v>113.6</v>
+        <v>261.8</v>
       </c>
       <c r="V333" s="3">
-        <v>5412</v>
+        <v>5721</v>
       </c>
       <c r="W333" s="3">
-        <v>169.7</v>
+        <v>406.3</v>
       </c>
       <c r="X333" s="3">
-        <v>3674</v>
-      </c>
-      <c r="Z333" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA333" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB333" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD333" s="4">
-        <v>580</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="334" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C334" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D334" t="s">
-        <v>28</v>
-      </c>
-      <c r="E334" s="4" t="s">
-        <v>668</v>
+        <v>52</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J334" s="3">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="G334" t="s">
+        <v>424</v>
+      </c>
+      <c r="K334" t="s">
+        <v>76</v>
       </c>
       <c r="L334" s="3">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="M334" s="1">
+        <v>137872</v>
       </c>
       <c r="Q334" s="3">
-        <v>178.2</v>
+        <v>97</v>
       </c>
       <c r="R334" s="3">
-        <v>6323</v>
+        <v>5372</v>
       </c>
       <c r="S334" s="3">
-        <v>213.5</v>
+        <v>168.8</v>
       </c>
       <c r="T334" s="3">
-        <v>5093</v>
+        <v>3490</v>
       </c>
       <c r="U334" s="3">
-        <v>179.5</v>
+        <v>97.3</v>
       </c>
       <c r="V334" s="3">
-        <v>6252</v>
+        <v>5749</v>
       </c>
       <c r="W334" s="3">
-        <v>216.8</v>
+        <v>147.9</v>
       </c>
       <c r="X334" s="3">
-        <v>5084</v>
+        <v>3325</v>
       </c>
       <c r="Z334" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
     </row>
     <row r="335" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C335" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D335" t="s">
         <v>44</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="G335" t="s">
-        <v>670</v>
+        <v>687</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J335" s="3">
+        <v>6</v>
       </c>
       <c r="L335" s="3">
-        <v>136</v>
+        <v>174</v>
+      </c>
+      <c r="M335" s="1">
+        <v>320000</v>
+      </c>
+      <c r="N335" s="3">
+        <v>1983</v>
       </c>
       <c r="U335" s="3">
-        <v>125.1</v>
+        <v>186.8</v>
       </c>
       <c r="V335" s="3">
-        <v>5351</v>
+        <v>5977</v>
       </c>
       <c r="W335" s="3">
-        <v>190.2</v>
+        <v>237.9</v>
       </c>
       <c r="X335" s="3">
-        <v>4523</v>
+        <v>4499</v>
       </c>
       <c r="Z335" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
     </row>
     <row r="336" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C336" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D336" t="s">
-        <v>671</v>
+        <v>28</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>672</v>
+        <v>464</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H336" s="3" t="s">
-        <v>46</v>
+        <v>147</v>
+      </c>
+      <c r="J336" s="3">
+        <v>6</v>
       </c>
       <c r="L336" s="3">
-        <v>145</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M336" s="1"/>
       <c r="Q336" s="3">
-        <v>145.6</v>
+        <v>158.5</v>
       </c>
       <c r="R336" s="3">
-        <v>3370</v>
+        <v>6233</v>
       </c>
       <c r="S336" s="3">
-        <v>383.7</v>
+        <v>188.2</v>
       </c>
       <c r="T336" s="3">
-        <v>2295</v>
+        <v>4832</v>
       </c>
       <c r="U336" s="3">
-        <v>147</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V336" s="3">
-        <v>3405</v>
+        <v>6308</v>
       </c>
       <c r="W336" s="3">
-        <v>386.1</v>
+        <v>191.7</v>
       </c>
       <c r="X336" s="3">
-        <v>2295</v>
-      </c>
-      <c r="Z336" t="s">
-        <v>64</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="337" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C337" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D337" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>688</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>342</v>
+        <v>147</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L337" s="3">
-        <v>131</v>
-      </c>
-      <c r="M337" s="1">
-        <v>300000</v>
+        <v>140</v>
+      </c>
+      <c r="M337" s="1"/>
+      <c r="Q337" s="3">
+        <v>197.4</v>
+      </c>
+      <c r="R337" s="3">
+        <v>4140</v>
+      </c>
+      <c r="S337" s="3">
+        <v>445.5</v>
+      </c>
+      <c r="T337" s="3">
+        <v>2125</v>
       </c>
       <c r="U337" s="3">
-        <v>128.9</v>
+        <v>197.4</v>
       </c>
       <c r="V337" s="3">
-        <v>4106</v>
+        <v>4141</v>
       </c>
       <c r="W337" s="3">
-        <v>317.2</v>
+        <v>449.4</v>
       </c>
       <c r="X337" s="3">
-        <v>2094</v>
+        <v>2171</v>
       </c>
       <c r="Z337" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA337" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB337" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD337" s="4">
-        <v>180</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C338" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D338" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>475</v>
+        <v>689</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G338" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="L338" s="3">
-        <v>193</v>
-      </c>
-      <c r="M338" s="1">
-        <v>335000</v>
-      </c>
-      <c r="Q338" s="3">
-        <v>193.1</v>
-      </c>
-      <c r="R338" s="3">
-        <v>6562</v>
-      </c>
-      <c r="S338" s="3">
-        <v>262</v>
-      </c>
-      <c r="T338" s="3">
-        <v>195.3</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M338" s="1"/>
       <c r="U338" s="3">
-        <v>195.3</v>
+        <v>226.2</v>
       </c>
       <c r="V338" s="3">
-        <v>6605</v>
+        <v>6399</v>
       </c>
       <c r="W338" s="3">
-        <v>267.60000000000002</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="X338" s="3">
-        <v>3696</v>
+        <v>3371</v>
       </c>
       <c r="Z338" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA338" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB338" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD338" s="4">
-        <v>250</v>
+        <v>156</v>
       </c>
     </row>
     <row r="339" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B339">
-        <v>3</v>
+      <c r="C339" s="4">
+        <v>10</v>
+      </c>
+      <c r="D339" t="s">
+        <v>691</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G339" t="s">
+        <v>690</v>
+      </c>
+      <c r="L339" s="3">
+        <v>245</v>
+      </c>
+      <c r="M339" s="1">
+        <v>8000</v>
+      </c>
+      <c r="U339" s="3">
+        <v>302.3</v>
+      </c>
+      <c r="V339" s="3">
+        <v>6386</v>
+      </c>
+      <c r="W339" s="3">
+        <v>424.8</v>
+      </c>
+      <c r="X339" s="3">
+        <v>3147</v>
+      </c>
+      <c r="Z339" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="340" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C340" s="4">
-        <v>1</v>
-      </c>
-      <c r="D340" t="s">
-        <v>197</v>
-      </c>
-      <c r="E340" s="4">
-        <v>968</v>
-      </c>
-      <c r="F340" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L340" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q340" s="3">
-        <v>213.8</v>
-      </c>
-      <c r="R340" s="3">
-        <v>6430</v>
-      </c>
-      <c r="S340" s="3">
-        <v>272.3</v>
-      </c>
-      <c r="T340" s="3">
-        <v>4390</v>
-      </c>
-      <c r="U340" s="3">
-        <v>216.9</v>
-      </c>
-      <c r="V340" s="3">
-        <v>6411</v>
-      </c>
-      <c r="W340" s="3">
-        <v>276.2</v>
-      </c>
-      <c r="X340" s="3">
-        <v>4383</v>
-      </c>
-      <c r="Z340" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA340" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB340" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD340" s="4">
-        <v>400</v>
+      <c r="B340">
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C341" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D341" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="G341" t="s">
-        <v>634</v>
+        <v>650</v>
+      </c>
+      <c r="K341" t="s">
+        <v>76</v>
       </c>
       <c r="L341" s="3">
-        <v>165</v>
+        <v>140</v>
+      </c>
+      <c r="Q341" s="3">
+        <v>154.6</v>
+      </c>
+      <c r="R341" s="3">
+        <v>39115</v>
+      </c>
+      <c r="S341" s="3">
+        <v>367.9</v>
+      </c>
+      <c r="T341" s="3">
+        <v>2264</v>
       </c>
       <c r="U341" s="3">
-        <v>205.7</v>
+        <v>154.9</v>
       </c>
       <c r="V341" s="3">
-        <v>5632</v>
+        <v>3982</v>
       </c>
       <c r="W341" s="3">
-        <v>328.8</v>
+        <v>368.3</v>
       </c>
       <c r="X341" s="3">
-        <v>3799</v>
+        <v>2346</v>
+      </c>
+      <c r="Z341" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="342" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C342" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D342" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>147</v>
+        <v>651</v>
       </c>
       <c r="L342" s="3">
-        <v>230</v>
+        <v>241</v>
+      </c>
+      <c r="Q342" s="3">
+        <v>227.4</v>
+      </c>
+      <c r="R342" s="3">
+        <v>5706</v>
+      </c>
+      <c r="S342" s="3">
+        <v>329.2</v>
+      </c>
+      <c r="T342" s="3">
+        <v>3772</v>
       </c>
       <c r="U342" s="3">
-        <v>243.4</v>
+        <v>216.6</v>
       </c>
       <c r="V342" s="3">
-        <v>5400</v>
+        <v>5120</v>
       </c>
       <c r="W342" s="3">
-        <v>354.6</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="X342" s="3">
-        <v>3056</v>
-      </c>
-      <c r="Z342" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA342" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB342" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD342" s="4">
-        <v>70</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="343" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C343" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D343" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J343" s="3">
-        <v>5</v>
+        <v>206</v>
+      </c>
+      <c r="G343" t="s">
+        <v>653</v>
       </c>
       <c r="L343" s="3">
-        <v>305</v>
-      </c>
-      <c r="Q343" s="3">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="R343" s="3">
-        <v>6190</v>
-      </c>
-      <c r="S343" s="3">
-        <v>404.5</v>
-      </c>
-      <c r="T343" s="3">
-        <v>4616</v>
+        <v>122</v>
+      </c>
+      <c r="M343" s="1">
+        <v>197000</v>
       </c>
       <c r="U343" s="3">
-        <v>293.10000000000002</v>
+        <v>123.1</v>
       </c>
       <c r="V343" s="3">
-        <v>6708</v>
+        <v>5319</v>
       </c>
       <c r="W343" s="3">
-        <v>405.5</v>
+        <v>195</v>
       </c>
       <c r="X343" s="3">
-        <v>4650</v>
+        <v>3891</v>
       </c>
       <c r="Z343" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA343" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB343" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD343" s="4">
-        <v>70</v>
+        <v>386</v>
       </c>
     </row>
     <row r="344" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C344" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D344" t="s">
         <v>44</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>206</v>
+        <v>656</v>
+      </c>
+      <c r="G344" t="s">
+        <v>655</v>
       </c>
       <c r="L344" s="3">
-        <v>75</v>
-      </c>
-      <c r="M344" s="1">
-        <v>226000</v>
+        <v>115</v>
       </c>
       <c r="Q344" s="3">
-        <v>76.5</v>
+        <v>126.6</v>
       </c>
       <c r="R344" s="3">
-        <v>5116</v>
+        <v>5245</v>
       </c>
       <c r="S344" s="3">
-        <v>115.9</v>
+        <v>225.8</v>
       </c>
       <c r="T344" s="3">
-        <v>3629</v>
+        <v>3364</v>
       </c>
       <c r="U344" s="3">
-        <v>77.099999999999994</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="V344" s="3">
-        <v>4943</v>
+        <v>5784</v>
       </c>
       <c r="W344" s="3">
-        <v>115.9</v>
+        <v>2440</v>
       </c>
       <c r="X344" s="3">
-        <v>3522</v>
+        <v>3011</v>
       </c>
       <c r="Z344" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA344" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB344" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD344" s="4">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="345" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C345" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D345" t="s">
         <v>52</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>640</v>
+        <v>338</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>147</v>
+        <v>207</v>
+      </c>
+      <c r="G345" t="s">
+        <v>657</v>
       </c>
       <c r="L345" s="3">
-        <v>150</v>
+        <v>102</v>
+      </c>
+      <c r="M345" s="1">
+        <v>550881</v>
+      </c>
+      <c r="Q345" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="R345" s="3">
+        <v>5587</v>
+      </c>
+      <c r="S345" s="3">
+        <v>127.1</v>
+      </c>
+      <c r="T345" s="3">
+        <v>4187</v>
       </c>
       <c r="U345" s="3">
-        <v>186.1</v>
+        <v>97.5</v>
       </c>
       <c r="V345" s="3">
-        <v>3265</v>
+        <v>5617</v>
       </c>
       <c r="W345" s="3">
-        <v>451.4</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="X345" s="3">
-        <v>2059</v>
+        <v>4055</v>
       </c>
       <c r="Z345" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA345" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB345" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD345" s="4">
-        <v>220</v>
+        <v>152</v>
       </c>
     </row>
     <row r="346" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C346" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D346" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="J346" s="3">
-        <v>8</v>
-      </c>
-      <c r="K346" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="L346" s="3">
-        <v>306</v>
-      </c>
-      <c r="M346" s="1">
-        <v>303000</v>
+        <v>133</v>
       </c>
       <c r="Q346" s="3">
-        <v>248</v>
+        <v>113.3</v>
       </c>
       <c r="R346" s="3">
-        <v>5970</v>
+        <v>6022</v>
       </c>
       <c r="S346" s="3">
-        <v>339.7</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="T346" s="3">
-        <v>3305</v>
+        <v>3992</v>
       </c>
       <c r="U346" s="3">
-        <v>247.9</v>
+        <v>117.4</v>
       </c>
       <c r="V346" s="3">
-        <v>6245</v>
+        <v>5951</v>
       </c>
       <c r="W346" s="3">
-        <v>342.5</v>
+        <v>168.2</v>
       </c>
       <c r="X346" s="3">
-        <v>3314</v>
+        <v>3955</v>
       </c>
       <c r="Z346" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA346" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB346" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD346" s="4">
-        <v>30</v>
+        <v>386</v>
       </c>
     </row>
     <row r="347" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C347" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D347" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>413</v>
+        <v>660</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G347" t="s">
-        <v>644</v>
+        <v>661</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L347" s="3">
-        <v>125</v>
+        <v>150</v>
+      </c>
+      <c r="M347" s="1">
+        <v>200000</v>
       </c>
       <c r="U347" s="3">
-        <v>137</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="V347" s="3">
-        <v>7319</v>
+        <v>3922</v>
       </c>
       <c r="W347" s="3">
-        <v>134.5</v>
+        <v>334.3</v>
       </c>
       <c r="X347" s="3">
-        <v>7076</v>
+        <v>2422</v>
+      </c>
+      <c r="Z347" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD347" s="4">
+        <v>490</v>
       </c>
     </row>
     <row r="348" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C348" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D348" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>635</v>
+        <v>663</v>
+      </c>
+      <c r="G348" t="s">
+        <v>664</v>
       </c>
       <c r="J348" s="3">
         <v>8</v>
       </c>
-      <c r="L348" s="3">
-        <v>367</v>
+      <c r="N348" s="3">
+        <v>1969</v>
+      </c>
+      <c r="Q348" s="3">
+        <v>328.3</v>
+      </c>
+      <c r="R348" s="3">
+        <v>4379</v>
+      </c>
+      <c r="S348" s="3">
+        <v>552.79999999999995</v>
+      </c>
+      <c r="T348" s="3">
+        <v>4015</v>
       </c>
       <c r="U348" s="3">
-        <v>312.8</v>
+        <v>339.5</v>
       </c>
       <c r="V348" s="3">
-        <v>6550</v>
+        <v>5125</v>
       </c>
       <c r="W348" s="3">
-        <v>410.4</v>
+        <v>559.9</v>
       </c>
       <c r="X348" s="3">
-        <v>4479</v>
-      </c>
-      <c r="Z348" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA348" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB348" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD348" s="4">
-        <v>45</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="349" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C349" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="F349" s="2" t="s">
-        <v>474</v>
+        <v>607</v>
       </c>
       <c r="G349" t="s">
-        <v>606</v>
+        <v>667</v>
+      </c>
+      <c r="J349" s="3">
+        <v>5</v>
       </c>
       <c r="L349" s="3">
-        <v>220</v>
-      </c>
-      <c r="N349" s="3">
-        <v>1981</v>
+        <v>133</v>
+      </c>
+      <c r="Q349" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="R349" s="3">
+        <v>5214</v>
+      </c>
+      <c r="S349" s="3">
+        <v>163</v>
+      </c>
+      <c r="T349" s="3">
+        <v>3028</v>
       </c>
       <c r="U349" s="3">
-        <v>190.7</v>
+        <v>113.6</v>
       </c>
       <c r="V349" s="3">
-        <v>6165</v>
+        <v>5412</v>
       </c>
       <c r="W349" s="3">
-        <v>280.89999999999998</v>
+        <v>169.7</v>
       </c>
       <c r="X349" s="3">
-        <v>4193</v>
+        <v>3674</v>
       </c>
       <c r="Z349" t="s">
-        <v>104</v>
+        <v>665</v>
       </c>
       <c r="AA349" t="s">
-        <v>105</v>
+        <v>666</v>
       </c>
       <c r="AB349" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AD349" s="4">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="350" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C350" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D350" t="s">
         <v>28</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
       <c r="J350" s="3">
         <v>6</v>
       </c>
       <c r="L350" s="3">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="Q350" s="3">
-        <v>336.6</v>
+        <v>178.2</v>
       </c>
       <c r="R350" s="3">
-        <v>5778</v>
+        <v>6323</v>
       </c>
       <c r="S350" s="3">
-        <v>550</v>
+        <v>213.5</v>
       </c>
       <c r="T350" s="3">
-        <v>4222</v>
+        <v>5093</v>
       </c>
       <c r="U350" s="3">
-        <v>341.5</v>
+        <v>179.5</v>
       </c>
       <c r="V350" s="3">
-        <v>4394</v>
+        <v>6252</v>
       </c>
       <c r="W350" s="3">
-        <v>557.29999999999995</v>
+        <v>216.8</v>
       </c>
       <c r="X350" s="3">
-        <v>4310</v>
+        <v>5084</v>
       </c>
       <c r="Z350" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA350" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB350" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD350" s="4">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="351" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B351">
-        <v>2</v>
+      <c r="C351" s="4">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s">
+        <v>44</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="G351" t="s">
+        <v>670</v>
+      </c>
+      <c r="L351" s="3">
+        <v>136</v>
+      </c>
+      <c r="U351" s="3">
+        <v>125.1</v>
+      </c>
+      <c r="V351" s="3">
+        <v>5351</v>
+      </c>
+      <c r="W351" s="3">
+        <v>190.2</v>
+      </c>
+      <c r="X351" s="3">
+        <v>4523</v>
+      </c>
+      <c r="Z351" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="352" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C352" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D352" t="s">
-        <v>528</v>
+        <v>671</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>208</v>
+        <v>602</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L352" s="3">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q352" s="3">
-        <v>184.2</v>
+        <v>145.6</v>
       </c>
       <c r="R352" s="3">
-        <v>6393</v>
+        <v>3370</v>
       </c>
       <c r="S352" s="3">
-        <v>236.7</v>
+        <v>383.7</v>
       </c>
       <c r="T352" s="3">
-        <v>4499</v>
+        <v>2295</v>
       </c>
       <c r="U352" s="3">
-        <v>186.4</v>
+        <v>147</v>
       </c>
       <c r="V352" s="3">
-        <v>6385</v>
+        <v>3405</v>
       </c>
       <c r="W352" s="3">
-        <v>234.9</v>
+        <v>386.1</v>
       </c>
       <c r="X352" s="3">
-        <v>4542</v>
+        <v>2295</v>
       </c>
       <c r="Z352" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA352" t="s">
-        <v>597</v>
-      </c>
-      <c r="AB352" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD352" s="4">
-        <v>385</v>
+        <v>64</v>
       </c>
     </row>
     <row r="353" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C353" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D353" t="s">
-        <v>106</v>
-      </c>
-      <c r="E353" s="4" t="s">
-        <v>601</v>
+        <v>52</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K353" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="L353" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q353" s="3">
-        <v>167</v>
-      </c>
-      <c r="R353" s="3">
-        <v>6189</v>
-      </c>
-      <c r="S353" s="3">
-        <v>226.7</v>
-      </c>
-      <c r="T353" s="3">
-        <v>3026</v>
+        <v>131</v>
+      </c>
+      <c r="M353" s="1">
+        <v>300000</v>
       </c>
       <c r="U353" s="3">
-        <v>167.6</v>
+        <v>128.9</v>
       </c>
       <c r="V353" s="3">
-        <v>6627</v>
+        <v>4106</v>
       </c>
       <c r="W353" s="3">
-        <v>232</v>
+        <v>317.2</v>
       </c>
       <c r="X353" s="3">
-        <v>3046</v>
+        <v>2094</v>
       </c>
       <c r="Z353" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="AA353" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="AB353" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD353" s="4">
-        <v>75</v>
+        <v>180</v>
       </c>
     </row>
     <row r="354" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C354" s="4">
+        <v>14</v>
+      </c>
+      <c r="D354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G354" t="s">
+        <v>677</v>
+      </c>
+      <c r="L354" s="3">
+        <v>193</v>
+      </c>
+      <c r="M354" s="1">
+        <v>335000</v>
+      </c>
+      <c r="Q354" s="3">
+        <v>193.1</v>
+      </c>
+      <c r="R354" s="3">
+        <v>6562</v>
+      </c>
+      <c r="S354" s="3">
+        <v>262</v>
+      </c>
+      <c r="T354" s="3">
+        <v>195.3</v>
+      </c>
+      <c r="U354" s="3">
+        <v>195.3</v>
+      </c>
+      <c r="V354" s="3">
+        <v>6605</v>
+      </c>
+      <c r="W354" s="3">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="X354" s="3">
+        <v>3696</v>
+      </c>
+      <c r="Z354" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA354" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB354" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD354" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="355" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B355">
         <v>3</v>
-      </c>
-      <c r="D354" t="s">
-        <v>106</v>
-      </c>
-      <c r="E354" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G354" t="s">
-        <v>606</v>
-      </c>
-      <c r="K354" t="s">
-        <v>76</v>
-      </c>
-      <c r="L354" s="3">
-        <v>180</v>
-      </c>
-      <c r="U354" s="3">
-        <v>160.6</v>
-      </c>
-      <c r="V354" s="3">
-        <v>5334</v>
-      </c>
-      <c r="W354" s="3">
-        <v>200.5</v>
-      </c>
-      <c r="X354" s="3">
-        <v>4806</v>
-      </c>
-      <c r="Z354" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA354" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB354" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD354" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C355" s="4">
-        <v>4</v>
-      </c>
-      <c r="D355" t="s">
-        <v>52</v>
-      </c>
-      <c r="E355" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F355" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J355" s="3">
-        <v>6</v>
-      </c>
-      <c r="L355" s="3">
-        <v>150</v>
-      </c>
-      <c r="M355" s="1">
-        <v>293000</v>
-      </c>
-      <c r="U355" s="3">
-        <v>142.4</v>
-      </c>
-      <c r="V355" s="3">
-        <v>4907</v>
-      </c>
-      <c r="W355" s="3">
-        <v>234.4</v>
-      </c>
-      <c r="X355" s="3">
-        <v>3859</v>
-      </c>
-      <c r="Z355" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA355" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB355" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD355" s="4">
-        <v>413</v>
       </c>
     </row>
     <row r="356" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C356" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D356" t="s">
-        <v>44</v>
-      </c>
-      <c r="E356" s="4" t="s">
-        <v>608</v>
+        <v>197</v>
+      </c>
+      <c r="E356" s="4">
+        <v>968</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G356" t="s">
-        <v>609</v>
+        <v>463</v>
       </c>
       <c r="L356" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q356" s="3">
-        <v>122</v>
+        <v>213.8</v>
       </c>
       <c r="R356" s="3">
-        <v>6640</v>
+        <v>6430</v>
       </c>
       <c r="S356" s="3">
-        <v>149.1</v>
+        <v>272.3</v>
       </c>
       <c r="T356" s="3">
-        <v>3067</v>
+        <v>4390</v>
       </c>
       <c r="U356" s="3">
-        <v>130.1</v>
+        <v>216.9</v>
       </c>
       <c r="V356" s="3">
-        <v>6687</v>
+        <v>6411</v>
       </c>
       <c r="W356" s="3">
-        <v>154.9</v>
+        <v>276.2</v>
       </c>
       <c r="X356" s="3">
-        <v>3043</v>
+        <v>4383</v>
       </c>
       <c r="Z356" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
       <c r="AA356" t="s">
-        <v>553</v>
+        <v>633</v>
       </c>
       <c r="AB356" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AD356" s="4">
-        <v>120</v>
+        <v>400</v>
       </c>
     </row>
     <row r="357" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C357" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D357" t="s">
         <v>52</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J357" s="3">
-        <v>5</v>
-      </c>
-      <c r="K357" t="s">
-        <v>76</v>
+        <v>205</v>
+      </c>
+      <c r="G357" t="s">
+        <v>634</v>
       </c>
       <c r="L357" s="3">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="U357" s="3">
-        <v>115.1</v>
+        <v>205.7</v>
       </c>
       <c r="V357" s="3">
-        <v>6028</v>
+        <v>5632</v>
       </c>
       <c r="W357" s="3">
-        <v>169.6</v>
+        <v>328.8</v>
       </c>
       <c r="X357" s="3">
-        <v>2501</v>
-      </c>
-      <c r="Z357" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA357" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC357" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD357" s="4">
-        <v>650</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="358" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C358" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D358" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G358" t="s">
-        <v>615</v>
-      </c>
       <c r="L358" s="3">
-        <v>265</v>
-      </c>
-      <c r="Q358" s="3">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="R358" s="3">
-        <v>6022</v>
-      </c>
-      <c r="S358" s="3">
-        <v>375.1</v>
-      </c>
-      <c r="T358" s="3">
-        <v>3212</v>
+        <v>230</v>
       </c>
       <c r="U358" s="3">
-        <v>283.60000000000002</v>
+        <v>243.4</v>
       </c>
       <c r="V358" s="3">
-        <v>5525</v>
+        <v>5400</v>
       </c>
       <c r="W358" s="3">
-        <v>398.7</v>
+        <v>354.6</v>
       </c>
       <c r="X358" s="3">
-        <v>3621</v>
+        <v>3056</v>
       </c>
       <c r="Z358" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="AA358" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="AB358" t="s">
         <v>42</v>
       </c>
       <c r="AD358" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="359" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C359" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D359" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G359" t="s">
-        <v>618</v>
+        <v>638</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J359" s="3">
+        <v>5</v>
       </c>
       <c r="L359" s="3">
-        <v>129</v>
+        <v>305</v>
+      </c>
+      <c r="Q359" s="3">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="R359" s="3">
+        <v>6190</v>
+      </c>
+      <c r="S359" s="3">
+        <v>404.5</v>
+      </c>
+      <c r="T359" s="3">
+        <v>4616</v>
       </c>
       <c r="U359" s="3">
-        <v>181</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="V359" s="3">
-        <v>5896</v>
+        <v>6708</v>
       </c>
       <c r="W359" s="3">
-        <v>233</v>
+        <v>405.5</v>
       </c>
       <c r="X359" s="3">
-        <v>5296</v>
+        <v>4650</v>
       </c>
       <c r="Z359" t="s">
-        <v>616</v>
+        <v>446</v>
       </c>
       <c r="AA359" t="s">
-        <v>617</v>
+        <v>447</v>
       </c>
       <c r="AB359" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD359" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="360" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C360" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D360" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G360" t="s">
-        <v>623</v>
-      </c>
-      <c r="J360" s="3">
-        <v>5</v>
+        <v>206</v>
+      </c>
+      <c r="L360" s="3">
+        <v>75</v>
+      </c>
+      <c r="M360" s="1">
+        <v>226000</v>
+      </c>
+      <c r="Q360" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="R360" s="3">
+        <v>5116</v>
+      </c>
+      <c r="S360" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="T360" s="3">
+        <v>3629</v>
       </c>
       <c r="U360" s="3">
-        <v>227.8</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V360" s="3">
-        <v>5921</v>
+        <v>4943</v>
       </c>
       <c r="W360" s="3">
-        <v>343</v>
+        <v>115.9</v>
       </c>
       <c r="X360" s="3">
-        <v>4521</v>
+        <v>3522</v>
       </c>
       <c r="Z360" t="s">
-        <v>620</v>
+        <v>446</v>
       </c>
       <c r="AA360" t="s">
-        <v>621</v>
+        <v>447</v>
       </c>
       <c r="AB360" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD360" s="4">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="361" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C361" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D361" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>626</v>
+        <v>640</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L361" s="3">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="U361" s="3">
-        <v>133.4</v>
+        <v>186.1</v>
       </c>
       <c r="V361" s="3">
-        <v>6587</v>
+        <v>3265</v>
       </c>
       <c r="W361" s="3">
-        <v>148.5</v>
+        <v>451.4</v>
       </c>
       <c r="X361" s="3">
-        <v>4539</v>
+        <v>2059</v>
       </c>
       <c r="Z361" t="s">
-        <v>624</v>
+        <v>189</v>
       </c>
       <c r="AA361" t="s">
-        <v>625</v>
+        <v>190</v>
       </c>
       <c r="AB361" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD361" s="4">
-        <v>80</v>
+        <v>220</v>
       </c>
     </row>
     <row r="362" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C362" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D362" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="F362" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G362" t="s">
-        <v>576</v>
-      </c>
-      <c r="H362" s="3" t="s">
-        <v>46</v>
+        <v>643</v>
+      </c>
+      <c r="J362" s="3">
+        <v>8</v>
+      </c>
+      <c r="K362" t="s">
+        <v>76</v>
       </c>
       <c r="L362" s="3">
-        <v>131</v>
+        <v>306</v>
+      </c>
+      <c r="M362" s="1">
+        <v>303000</v>
       </c>
       <c r="Q362" s="3">
-        <v>158.69999999999999</v>
+        <v>248</v>
       </c>
       <c r="R362" s="3">
-        <v>4020</v>
+        <v>5970</v>
       </c>
       <c r="S362" s="3">
-        <v>348.9</v>
+        <v>339.7</v>
       </c>
       <c r="T362" s="3">
-        <v>2359</v>
+        <v>3305</v>
       </c>
       <c r="U362" s="3">
-        <v>160.6</v>
+        <v>247.9</v>
       </c>
       <c r="V362" s="3">
-        <v>4049</v>
+        <v>6245</v>
       </c>
       <c r="W362" s="3">
-        <v>350.3</v>
+        <v>342.5</v>
       </c>
       <c r="X362" s="3">
-        <v>2430</v>
+        <v>3314</v>
       </c>
       <c r="Z362" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="AA362" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="AB362" t="s">
         <v>42</v>
       </c>
       <c r="AD362" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="363" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C363" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D363" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>630</v>
+        <v>413</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="G363" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="L363" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q363" s="3">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="R363" s="3">
-        <v>6258</v>
-      </c>
-      <c r="S363" s="3">
-        <v>449.1</v>
-      </c>
-      <c r="T363" s="3">
-        <v>3927</v>
+        <v>125</v>
       </c>
       <c r="U363" s="3">
-        <v>308.89999999999998</v>
+        <v>137</v>
       </c>
       <c r="V363" s="3">
-        <v>6376</v>
+        <v>7319</v>
       </c>
       <c r="W363" s="3">
-        <v>447.1</v>
+        <v>134.5</v>
       </c>
       <c r="X363" s="3">
-        <v>3904</v>
-      </c>
-      <c r="Z363" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA363" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB363" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD363" s="4">
-        <v>45</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="364" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C364" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D364" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K364" t="s">
-        <v>76</v>
+        <v>635</v>
+      </c>
+      <c r="J364" s="3">
+        <v>8</v>
       </c>
       <c r="L364" s="3">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="U364" s="3">
-        <v>205</v>
+        <v>312.8</v>
+      </c>
+      <c r="V364" s="3">
+        <v>6550</v>
       </c>
       <c r="W364" s="3">
-        <v>240</v>
+        <v>410.4</v>
+      </c>
+      <c r="X364" s="3">
+        <v>4479</v>
       </c>
       <c r="Z364" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="AA364" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="AB364" t="s">
         <v>42</v>
       </c>
       <c r="AD364" s="4">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="365" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B365">
-        <v>1</v>
+      <c r="C365" s="4">
+        <v>10</v>
+      </c>
+      <c r="D365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G365" t="s">
+        <v>606</v>
+      </c>
+      <c r="L365" s="3">
+        <v>220</v>
+      </c>
+      <c r="N365" s="3">
+        <v>1981</v>
+      </c>
+      <c r="U365" s="3">
+        <v>190.7</v>
+      </c>
+      <c r="V365" s="3">
+        <v>6165</v>
+      </c>
+      <c r="W365" s="3">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="X365" s="3">
+        <v>4193</v>
+      </c>
+      <c r="Z365" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA365" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB365" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD365" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C366" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D366" t="s">
         <v>28</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>209</v>
+        <v>474</v>
       </c>
       <c r="J366" s="3">
         <v>6</v>
       </c>
       <c r="L366" s="3">
-        <v>193</v>
+        <v>306</v>
+      </c>
+      <c r="Q366" s="3">
+        <v>336.6</v>
+      </c>
+      <c r="R366" s="3">
+        <v>5778</v>
+      </c>
+      <c r="S366" s="3">
+        <v>550</v>
+      </c>
+      <c r="T366" s="3">
+        <v>4222</v>
       </c>
       <c r="U366" s="3">
-        <v>196.4</v>
+        <v>341.5</v>
       </c>
       <c r="V366" s="3">
-        <v>6004</v>
+        <v>4394</v>
       </c>
       <c r="W366" s="3">
-        <v>250</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="X366" s="3">
-        <v>4813</v>
+        <v>4310</v>
       </c>
       <c r="Z366" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="AA366" t="s">
-        <v>70</v>
+        <v>647</v>
       </c>
       <c r="AB366" t="s">
         <v>42</v>
       </c>
       <c r="AD366" s="4">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="367" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C367" s="4">
+      <c r="B367">
         <v>2</v>
-      </c>
-      <c r="D367" t="s">
-        <v>44</v>
-      </c>
-      <c r="E367" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="F367" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L367" s="3">
-        <v>160</v>
-      </c>
-      <c r="Q367" s="3">
-        <v>161.19999999999999</v>
-      </c>
-      <c r="R367" s="3">
-        <v>25980</v>
-      </c>
-      <c r="S367" s="3">
-        <v>212.9</v>
-      </c>
-      <c r="T367" s="3">
-        <v>4710</v>
-      </c>
-      <c r="U367" s="3">
-        <v>162.9</v>
-      </c>
-      <c r="V367" s="3">
-        <v>6026</v>
-      </c>
-      <c r="W367" s="3">
-        <v>216.6</v>
-      </c>
-      <c r="X367" s="3">
-        <v>4748</v>
-      </c>
-      <c r="Z367" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA367" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB367" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD367" s="4">
-        <v>180</v>
       </c>
     </row>
     <row r="368" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C368" s="4">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>528</v>
+      </c>
+      <c r="E368" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L368" s="3">
+        <v>169</v>
+      </c>
+      <c r="Q368" s="3">
+        <v>184.2</v>
+      </c>
+      <c r="R368" s="3">
+        <v>6393</v>
+      </c>
+      <c r="S368" s="3">
+        <v>236.7</v>
+      </c>
+      <c r="T368" s="3">
+        <v>4499</v>
+      </c>
+      <c r="U368" s="3">
+        <v>186.4</v>
+      </c>
+      <c r="V368" s="3">
+        <v>6385</v>
+      </c>
+      <c r="W368" s="3">
+        <v>234.9</v>
+      </c>
+      <c r="X368" s="3">
+        <v>4542</v>
+      </c>
+      <c r="Z368" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA368" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB368" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD368" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="369" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C369" s="4">
+        <v>2</v>
+      </c>
+      <c r="D369" t="s">
+        <v>106</v>
+      </c>
+      <c r="E369" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K369" t="s">
+        <v>76</v>
+      </c>
+      <c r="L369" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q369" s="3">
+        <v>167</v>
+      </c>
+      <c r="R369" s="3">
+        <v>6189</v>
+      </c>
+      <c r="S369" s="3">
+        <v>226.7</v>
+      </c>
+      <c r="T369" s="3">
+        <v>3026</v>
+      </c>
+      <c r="U369" s="3">
+        <v>167.6</v>
+      </c>
+      <c r="V369" s="3">
+        <v>6627</v>
+      </c>
+      <c r="W369" s="3">
+        <v>232</v>
+      </c>
+      <c r="X369" s="3">
+        <v>3046</v>
+      </c>
+      <c r="Z369" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA369" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB369" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD369" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="370" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C370" s="4">
         <v>3</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D370" t="s">
+        <v>106</v>
+      </c>
+      <c r="E370" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G370" t="s">
+        <v>606</v>
+      </c>
+      <c r="K370" t="s">
+        <v>76</v>
+      </c>
+      <c r="L370" s="3">
+        <v>180</v>
+      </c>
+      <c r="U370" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V370" s="3">
+        <v>5334</v>
+      </c>
+      <c r="W370" s="3">
+        <v>200.5</v>
+      </c>
+      <c r="X370" s="3">
+        <v>4806</v>
+      </c>
+      <c r="Z370" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA370" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB370" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD370" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C371" s="4">
+        <v>4</v>
+      </c>
+      <c r="D371" t="s">
+        <v>52</v>
+      </c>
+      <c r="E371" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J371" s="3">
+        <v>6</v>
+      </c>
+      <c r="L371" s="3">
+        <v>150</v>
+      </c>
+      <c r="M371" s="1">
+        <v>293000</v>
+      </c>
+      <c r="U371" s="3">
+        <v>142.4</v>
+      </c>
+      <c r="V371" s="3">
+        <v>4907</v>
+      </c>
+      <c r="W371" s="3">
+        <v>234.4</v>
+      </c>
+      <c r="X371" s="3">
+        <v>3859</v>
+      </c>
+      <c r="Z371" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA371" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB371" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD371" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="372" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C372" s="4">
+        <v>5</v>
+      </c>
+      <c r="D372" t="s">
+        <v>44</v>
+      </c>
+      <c r="E372" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G372" t="s">
+        <v>609</v>
+      </c>
+      <c r="L372" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q372" s="3">
+        <v>122</v>
+      </c>
+      <c r="R372" s="3">
+        <v>6640</v>
+      </c>
+      <c r="S372" s="3">
+        <v>149.1</v>
+      </c>
+      <c r="T372" s="3">
+        <v>3067</v>
+      </c>
+      <c r="U372" s="3">
+        <v>130.1</v>
+      </c>
+      <c r="V372" s="3">
+        <v>6687</v>
+      </c>
+      <c r="W372" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="X372" s="3">
+        <v>3043</v>
+      </c>
+      <c r="Z372" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA372" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB372" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD372" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="373" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C373" s="4">
+        <v>6</v>
+      </c>
+      <c r="D373" t="s">
+        <v>52</v>
+      </c>
+      <c r="E373" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J373" s="3">
+        <v>5</v>
+      </c>
+      <c r="K373" t="s">
+        <v>76</v>
+      </c>
+      <c r="L373" s="3">
+        <v>136</v>
+      </c>
+      <c r="U373" s="3">
+        <v>115.1</v>
+      </c>
+      <c r="V373" s="3">
+        <v>6028</v>
+      </c>
+      <c r="W373" s="3">
+        <v>169.6</v>
+      </c>
+      <c r="X373" s="3">
+        <v>2501</v>
+      </c>
+      <c r="Z373" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA373" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC373" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD373" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="374" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C374" s="4">
+        <v>7</v>
+      </c>
+      <c r="D374" t="s">
+        <v>217</v>
+      </c>
+      <c r="E374" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G374" t="s">
+        <v>615</v>
+      </c>
+      <c r="L374" s="3">
+        <v>265</v>
+      </c>
+      <c r="Q374" s="3">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="R374" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S374" s="3">
+        <v>375.1</v>
+      </c>
+      <c r="T374" s="3">
+        <v>3212</v>
+      </c>
+      <c r="U374" s="3">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="V374" s="3">
+        <v>5525</v>
+      </c>
+      <c r="W374" s="3">
+        <v>398.7</v>
+      </c>
+      <c r="X374" s="3">
+        <v>3621</v>
+      </c>
+      <c r="Z374" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA374" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB374" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD374" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="375" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C375" s="4">
+        <v>8</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G375" t="s">
+        <v>618</v>
+      </c>
+      <c r="L375" s="3">
+        <v>129</v>
+      </c>
+      <c r="U375" s="3">
+        <v>181</v>
+      </c>
+      <c r="V375" s="3">
+        <v>5896</v>
+      </c>
+      <c r="W375" s="3">
+        <v>233</v>
+      </c>
+      <c r="X375" s="3">
+        <v>5296</v>
+      </c>
+      <c r="Z375" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA375" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB375" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD375" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="376" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C376" s="4">
+        <v>9</v>
+      </c>
+      <c r="D376" t="s">
+        <v>52</v>
+      </c>
+      <c r="E376" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G376" t="s">
+        <v>623</v>
+      </c>
+      <c r="J376" s="3">
+        <v>5</v>
+      </c>
+      <c r="U376" s="3">
+        <v>227.8</v>
+      </c>
+      <c r="V376" s="3">
+        <v>5921</v>
+      </c>
+      <c r="W376" s="3">
+        <v>343</v>
+      </c>
+      <c r="X376" s="3">
+        <v>4521</v>
+      </c>
+      <c r="Z376" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA376" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB376" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD376" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="377" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C377" s="4">
+        <v>10</v>
+      </c>
+      <c r="D377" t="s">
+        <v>217</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="L377" s="3">
+        <v>135</v>
+      </c>
+      <c r="U377" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="V377" s="3">
+        <v>6587</v>
+      </c>
+      <c r="W377" s="3">
+        <v>148.5</v>
+      </c>
+      <c r="X377" s="3">
+        <v>4539</v>
+      </c>
+      <c r="Z377" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA377" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB377" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD377" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="378" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C378" s="4">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s">
+        <v>36</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G378" t="s">
+        <v>576</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L378" s="3">
+        <v>131</v>
+      </c>
+      <c r="Q378" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R378" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S378" s="3">
+        <v>348.9</v>
+      </c>
+      <c r="T378" s="3">
+        <v>2359</v>
+      </c>
+      <c r="U378" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V378" s="3">
+        <v>4049</v>
+      </c>
+      <c r="W378" s="3">
+        <v>350.3</v>
+      </c>
+      <c r="X378" s="3">
+        <v>2430</v>
+      </c>
+      <c r="Z378" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA378" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB378" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD378" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="379" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C379" s="4">
+        <v>12</v>
+      </c>
+      <c r="D379" t="s">
+        <v>44</v>
+      </c>
+      <c r="E379" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G379" t="s">
+        <v>576</v>
+      </c>
+      <c r="L379" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q379" s="3">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R379" s="3">
+        <v>6258</v>
+      </c>
+      <c r="S379" s="3">
+        <v>449.1</v>
+      </c>
+      <c r="T379" s="3">
+        <v>3927</v>
+      </c>
+      <c r="U379" s="3">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="V379" s="3">
+        <v>6376</v>
+      </c>
+      <c r="W379" s="3">
+        <v>447.1</v>
+      </c>
+      <c r="X379" s="3">
+        <v>3904</v>
+      </c>
+      <c r="Z379" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA379" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB379" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD379" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="380" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C380" s="4">
+        <v>13</v>
+      </c>
+      <c r="D380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K380" t="s">
+        <v>76</v>
+      </c>
+      <c r="L380" s="3">
+        <v>193</v>
+      </c>
+      <c r="U380" s="3">
+        <v>205</v>
+      </c>
+      <c r="W380" s="3">
+        <v>240</v>
+      </c>
+      <c r="Z380" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD380" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="381" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C382" s="4">
+        <v>1</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J382" s="3">
+        <v>6</v>
+      </c>
+      <c r="L382" s="3">
+        <v>193</v>
+      </c>
+      <c r="U382" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V382" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W382" s="3">
+        <v>250</v>
+      </c>
+      <c r="X382" s="3">
+        <v>4813</v>
+      </c>
+      <c r="Z382" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA382" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB382" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD382" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="383" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C383" s="4">
+        <v>2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>44</v>
+      </c>
+      <c r="E383" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L383" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q383" s="3">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="R383" s="3">
+        <v>25980</v>
+      </c>
+      <c r="S383" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="T383" s="3">
+        <v>4710</v>
+      </c>
+      <c r="U383" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="V383" s="3">
+        <v>6026</v>
+      </c>
+      <c r="W383" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="X383" s="3">
+        <v>4748</v>
+      </c>
+      <c r="Z383" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA383" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB383" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD383" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="384" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C384" s="4">
+        <v>3</v>
+      </c>
+      <c r="D384" t="s">
         <v>38</v>
       </c>
-      <c r="E368" s="4" t="s">
+      <c r="E384" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F368" s="2" t="s">
+      <c r="F384" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G368" t="s">
+      <c r="G384" t="s">
         <v>588</v>
       </c>
-      <c r="L368" s="3">
+      <c r="L384" s="3">
         <v>250</v>
       </c>
-      <c r="Q368" s="3">
+      <c r="Q384" s="3">
         <v>268.3</v>
       </c>
-      <c r="R368" s="3">
+      <c r="R384" s="3">
         <v>5341</v>
       </c>
-      <c r="S368" s="3">
+      <c r="S384" s="3">
         <v>440.9</v>
       </c>
-      <c r="T368" s="3">
+      <c r="T384" s="3">
         <v>2638</v>
       </c>
-      <c r="U368" s="3">
+      <c r="U384" s="3">
         <v>268.2</v>
       </c>
-      <c r="V368" s="3">
+      <c r="V384" s="3">
         <v>5400</v>
       </c>
-      <c r="W368" s="3">
+      <c r="W384" s="3">
         <v>448.9</v>
       </c>
-      <c r="X368" s="3">
+      <c r="X384" s="3">
         <v>2646</v>
       </c>
-      <c r="Z368" t="s">
+      <c r="Z384" t="s">
         <v>215</v>
       </c>
-      <c r="AA368" t="s">
+      <c r="AA384" t="s">
         <v>216</v>
       </c>
-      <c r="AB368" t="s">
+      <c r="AB384" t="s">
         <v>42</v>
       </c>
-      <c r="AD368" s="4">
+      <c r="AD384" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C369" s="4">
+    <row r="385" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C385" s="4">
         <v>4</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D385" t="s">
         <v>44</v>
       </c>
-      <c r="E369" s="4" t="s">
+      <c r="E385" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="F369" s="2" t="s">
+      <c r="F385" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G369" t="s">
+      <c r="G385" t="s">
         <v>590</v>
       </c>
-      <c r="L369" s="3">
+      <c r="L385" s="3">
         <v>139</v>
       </c>
-      <c r="N369" s="3">
+      <c r="N385" s="3">
         <v>1986</v>
       </c>
-      <c r="Q369" s="3">
+      <c r="Q385" s="3">
         <v>209.1</v>
       </c>
-      <c r="R369" s="3">
+      <c r="R385" s="3">
         <v>7791</v>
       </c>
-      <c r="S369" s="3">
+      <c r="S385" s="3">
         <v>212</v>
       </c>
-      <c r="T369" s="3">
+      <c r="T385" s="3">
         <v>5755</v>
       </c>
-      <c r="U369" s="3">
+      <c r="U385" s="3">
         <v>208</v>
       </c>
-      <c r="V369" s="3">
+      <c r="V385" s="3">
         <v>7966</v>
       </c>
-      <c r="W369" s="3">
+      <c r="W385" s="3">
         <v>213.2</v>
       </c>
-      <c r="X369" s="3">
+      <c r="X385" s="3">
         <v>5807</v>
       </c>
     </row>
-    <row r="370" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C370" s="4">
+    <row r="386" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C386" s="4">
         <v>5</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D386" t="s">
         <v>44</v>
       </c>
-      <c r="E370" s="4" t="s">
+      <c r="E386" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="F370" s="2" t="s">
+      <c r="F386" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G370" t="s">
+      <c r="G386" t="s">
         <v>594</v>
       </c>
-      <c r="L370" s="3">
+      <c r="L386" s="3">
         <v>85</v>
       </c>
-      <c r="Q370" s="3">
+      <c r="Q386" s="3">
         <v>98.4</v>
       </c>
-      <c r="R370" s="3">
+      <c r="R386" s="3">
         <v>5085</v>
       </c>
-      <c r="S370" s="3">
+      <c r="S386" s="3">
         <v>160.1</v>
       </c>
-      <c r="T370" s="3">
+      <c r="T386" s="3">
         <v>3668</v>
       </c>
-      <c r="U370" s="3">
+      <c r="U386" s="3">
         <v>96.9</v>
       </c>
-      <c r="V370" s="3">
+      <c r="V386" s="3">
         <v>4993</v>
       </c>
-      <c r="W370" s="3">
+      <c r="W386" s="3">
         <v>159.5</v>
       </c>
-      <c r="X370" s="3">
+      <c r="X386" s="3">
         <v>3305</v>
       </c>
-      <c r="Z370" t="s">
+      <c r="Z386" t="s">
         <v>591</v>
       </c>
-      <c r="AA370" t="s">
+      <c r="AA386" t="s">
         <v>592</v>
       </c>
-      <c r="AB370" t="s">
+      <c r="AB386" t="s">
         <v>112</v>
       </c>
-      <c r="AD370" s="4">
+      <c r="AD386" s="4">
         <v>280</v>
       </c>
     </row>
-    <row r="371" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C371" s="4">
+    <row r="387" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C387" s="4">
         <v>6</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D387" t="s">
         <v>178</v>
       </c>
-      <c r="E371" s="4" t="s">
+      <c r="E387" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F371" s="2" t="s">
+      <c r="F387" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G371" t="s">
+      <c r="G387" t="s">
         <v>595</v>
       </c>
-      <c r="L371" s="3">
+      <c r="L387" s="3">
         <v>116</v>
       </c>
-      <c r="M371" s="1">
+      <c r="M387" s="1">
         <v>325000</v>
       </c>
-      <c r="Q371" s="3">
+      <c r="Q387" s="3">
         <v>109.7</v>
       </c>
-      <c r="R371" s="3">
+      <c r="R387" s="3">
         <v>6570</v>
       </c>
-      <c r="S371" s="3">
+      <c r="S387" s="3">
         <v>130</v>
       </c>
-      <c r="T371" s="3">
+      <c r="T387" s="3">
         <v>5181</v>
       </c>
-      <c r="U371" s="3">
+      <c r="U387" s="3">
         <v>111.1</v>
       </c>
-      <c r="V371" s="3">
+      <c r="V387" s="3">
         <v>6500</v>
       </c>
-      <c r="W371" s="3">
+      <c r="W387" s="3">
         <v>132.30000000000001</v>
       </c>
-      <c r="X371" s="3">
+      <c r="X387" s="3">
         <v>5179</v>
       </c>
-      <c r="Z371" t="s">
+      <c r="Z387" t="s">
         <v>47</v>
       </c>
-      <c r="AA371" t="s">
+      <c r="AA387" t="s">
         <v>48</v>
       </c>
-      <c r="AB371" t="s">
+      <c r="AB387" t="s">
         <v>42</v>
       </c>
-      <c r="AD371" s="4">
+      <c r="AD387" s="4">
         <v>36</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD41658F-B143-4AE6-B8EE-20F752866C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72230966-62B4-41AB-BD41-6CB36C58E534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="787">
   <si>
     <t>Episode</t>
   </si>
@@ -2285,6 +2285,102 @@
   </si>
   <si>
     <t>Vechta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audi </t>
+  </si>
+  <si>
+    <t>Coupe (A5) TFSI</t>
+  </si>
+  <si>
+    <t>WIT</t>
+  </si>
+  <si>
+    <t>Witten</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Crailsheim</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>A6 (Limosine) Biturbo</t>
+  </si>
+  <si>
+    <t>330ci</t>
+  </si>
+  <si>
+    <t>Drosseldichtung  (90PS)</t>
+  </si>
+  <si>
+    <t>WUG</t>
+  </si>
+  <si>
+    <t>Weißenburg-Gunzenhausen</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>Gifhorn</t>
+  </si>
+  <si>
+    <t>Golf II (Pasadena)</t>
+  </si>
+  <si>
+    <t>(E87) 1</t>
+  </si>
+  <si>
+    <t>Omega (A)</t>
+  </si>
+  <si>
+    <t>Radleistung</t>
+  </si>
+  <si>
+    <t>PLÖ</t>
+  </si>
+  <si>
+    <t>Plön</t>
+  </si>
+  <si>
+    <t>(E91) 330i Touring</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>Hagen</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>ForFour</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>WAN</t>
+  </si>
+  <si>
+    <t>Wanne-Eickel</t>
+  </si>
+  <si>
+    <t>(E36) 323</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>Simmern</t>
+  </si>
+  <si>
+    <t>(E30) 325i</t>
   </si>
 </sst>
 </file>
@@ -2768,7 +2864,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2776,6 +2872,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3133,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE387"/>
+  <dimension ref="A1:AE411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B286" workbookViewId="0">
-      <selection activeCell="Y312" sqref="Y312"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12157,3962 +12256,4615 @@
         <v>9</v>
       </c>
     </row>
+    <row r="292" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C292" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="293" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B293">
-        <v>8</v>
+      <c r="C293" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C294" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B295">
-        <v>7</v>
+      <c r="C295" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C296" s="4">
-        <v>1</v>
-      </c>
-      <c r="D296" t="s">
-        <v>52</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J296" s="3">
         <v>5</v>
-      </c>
-      <c r="L296" s="3">
-        <v>136</v>
-      </c>
-      <c r="Q296" s="3">
-        <v>123</v>
-      </c>
-      <c r="R296" s="3">
-        <v>5022</v>
-      </c>
-      <c r="S296" s="3">
-        <v>201.8</v>
-      </c>
-      <c r="T296" s="3">
-        <v>3539</v>
-      </c>
-      <c r="U296" s="3">
-        <v>121.3</v>
-      </c>
-      <c r="V296" s="3">
-        <v>4886</v>
-      </c>
-      <c r="W296" s="3">
-        <v>198.9</v>
-      </c>
-      <c r="X296" s="3">
-        <v>3255</v>
-      </c>
-      <c r="Z296" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="297" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C297" s="4">
-        <v>2</v>
-      </c>
-      <c r="D297" t="s">
-        <v>28</v>
-      </c>
-      <c r="E297" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G297" t="s">
-        <v>720</v>
-      </c>
-      <c r="L297" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q297" s="3">
-        <v>139.30000000000001</v>
-      </c>
-      <c r="R297" s="3">
-        <v>5962</v>
-      </c>
-      <c r="S297" s="3">
-        <v>187.8</v>
-      </c>
-      <c r="T297" s="3">
-        <v>4474</v>
-      </c>
-      <c r="U297" s="3">
-        <v>140.80000000000001</v>
-      </c>
-      <c r="V297" s="3">
-        <v>5991</v>
-      </c>
-      <c r="W297" s="3">
-        <v>190.9</v>
-      </c>
-      <c r="X297" s="3">
-        <v>4443</v>
-      </c>
-      <c r="Z297" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C298" s="4">
-        <v>3</v>
-      </c>
-      <c r="D298" t="s">
-        <v>44</v>
-      </c>
-      <c r="E298" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="L298" s="3">
-        <v>70</v>
-      </c>
-      <c r="U298" s="3">
-        <v>64.3</v>
-      </c>
-      <c r="V298" s="3">
-        <v>4313</v>
-      </c>
-      <c r="W298" s="3">
-        <v>123.7</v>
-      </c>
-      <c r="X298" s="3">
-        <v>2182</v>
-      </c>
-      <c r="Z298" t="s">
-        <v>568</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C299" s="4">
-        <v>4</v>
-      </c>
-      <c r="D299" t="s">
-        <v>723</v>
-      </c>
-      <c r="E299" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J299" s="3">
-        <v>6</v>
-      </c>
-      <c r="L299" s="3">
-        <v>170</v>
-      </c>
-      <c r="U299" s="3">
-        <v>193.1</v>
-      </c>
-      <c r="V299" s="3">
-        <v>6068</v>
-      </c>
-      <c r="W299" s="3">
-        <v>237.4</v>
-      </c>
-      <c r="X299" s="3">
-        <v>4703</v>
-      </c>
-      <c r="Z299" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA299" t="s">
-        <v>722</v>
-      </c>
-      <c r="AB299" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD299" s="4">
-        <v>630</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C300" s="4">
-        <v>5</v>
-      </c>
-      <c r="D300" t="s">
-        <v>412</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G300" t="s">
-        <v>724</v>
-      </c>
-      <c r="L300" s="3">
-        <v>190</v>
-      </c>
-      <c r="Q300" s="3">
-        <v>185</v>
-      </c>
-      <c r="R300" s="3">
-        <v>6689</v>
-      </c>
-      <c r="S300" s="3">
-        <v>158.1</v>
-      </c>
-      <c r="T300" s="3">
-        <v>7544</v>
-      </c>
-      <c r="U300" s="3">
-        <v>184.2</v>
-      </c>
-      <c r="V300" s="3">
-        <v>8500</v>
-      </c>
-      <c r="W300" s="3">
-        <v>161.30000000000001</v>
-      </c>
-      <c r="X300" s="3">
-        <v>7376</v>
-      </c>
-      <c r="Z300" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C301" s="4">
-        <v>6</v>
-      </c>
-      <c r="D301" t="s">
-        <v>28</v>
-      </c>
-      <c r="E301" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="L301" s="3">
-        <v>195</v>
-      </c>
-      <c r="Q301" s="3">
-        <v>193.4</v>
-      </c>
-      <c r="R301" s="3">
-        <v>7495</v>
-      </c>
-      <c r="S301" s="3">
-        <v>222.1</v>
-      </c>
-      <c r="T301" s="3">
-        <v>4933</v>
-      </c>
-      <c r="U301" s="3">
-        <v>191.2</v>
-      </c>
-      <c r="V301" s="3">
-        <v>7157</v>
-      </c>
-      <c r="W301" s="3">
-        <v>223.4</v>
-      </c>
-      <c r="X301" s="3">
-        <v>4886</v>
-      </c>
-      <c r="Z301" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB301" t="s">
-        <v>726</v>
-      </c>
-      <c r="AC301" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD301" s="4">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="302" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C302" s="4">
-        <v>7</v>
-      </c>
-      <c r="D302" t="s">
-        <v>178</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G302" t="s">
-        <v>677</v>
-      </c>
-      <c r="L302" s="3">
-        <v>156</v>
-      </c>
-      <c r="Q302" s="3">
-        <v>161.4</v>
-      </c>
-      <c r="R302" s="3">
-        <v>6432</v>
-      </c>
-      <c r="S302" s="3">
-        <v>201.3</v>
-      </c>
-      <c r="T302" s="3">
-        <v>4502</v>
-      </c>
-      <c r="Z302" t="s">
-        <v>728</v>
-      </c>
-      <c r="AA302" t="s">
-        <v>729</v>
-      </c>
-      <c r="AB302" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD302" s="4">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C303" s="4">
+      <c r="B303">
         <v>8</v>
-      </c>
-      <c r="D303" t="s">
-        <v>175</v>
-      </c>
-      <c r="E303" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="G303" t="s">
-        <v>735</v>
-      </c>
-      <c r="L303" s="3">
-        <v>90</v>
-      </c>
-      <c r="M303" s="1">
-        <v>850000</v>
-      </c>
-      <c r="Q303" s="3">
-        <v>84.9</v>
-      </c>
-      <c r="R303" s="3">
-        <v>5620</v>
-      </c>
-      <c r="S303" s="3">
-        <v>127</v>
-      </c>
-      <c r="T303" s="3">
-        <v>2176</v>
-      </c>
-      <c r="U303" s="3">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="V303" s="3">
-        <v>553</v>
-      </c>
-      <c r="W303" s="3">
-        <v>118.3</v>
-      </c>
-      <c r="X303" s="3">
-        <v>2458</v>
-      </c>
-      <c r="Z303" t="s">
-        <v>731</v>
-      </c>
-      <c r="AA303" t="s">
-        <v>732</v>
-      </c>
-      <c r="AB303" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD303" s="4">
-        <v>300</v>
       </c>
     </row>
     <row r="304" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C304" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D304" t="s">
-        <v>44</v>
-      </c>
-      <c r="E304" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="G304" t="s">
-        <v>736</v>
-      </c>
-      <c r="J304" s="3">
-        <v>5</v>
+        <v>755</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="L304" s="3">
-        <v>180</v>
+        <v>170</v>
+      </c>
+      <c r="Q304" s="3">
+        <v>198.5</v>
+      </c>
+      <c r="R304" s="3">
+        <v>5691</v>
+      </c>
+      <c r="S304" s="3">
+        <v>309.7</v>
+      </c>
+      <c r="T304" s="3">
+        <v>3550</v>
       </c>
       <c r="U304" s="3">
-        <v>151.9</v>
+        <v>198.5</v>
       </c>
       <c r="V304" s="3">
-        <v>4596</v>
+        <v>5691</v>
       </c>
       <c r="W304" s="3">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="X304" s="3">
-        <v>3321</v>
+        <v>3550</v>
       </c>
       <c r="Z304" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="AA304" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="AB304" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="AD304" s="4">
-        <v>600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C305" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D305" t="s">
-        <v>52</v>
+        <v>755</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J305" s="3">
-        <v>5</v>
+        <v>762</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>761</v>
       </c>
       <c r="L305" s="3">
-        <v>125</v>
-      </c>
-      <c r="Q305" s="3">
-        <v>119</v>
-      </c>
-      <c r="R305" s="3">
-        <v>5516</v>
-      </c>
-      <c r="S305" s="3">
-        <v>169.3</v>
-      </c>
-      <c r="T305" s="3">
-        <v>3794</v>
+        <v>230</v>
       </c>
       <c r="U305" s="3">
-        <v>117.8</v>
+        <v>202.2</v>
       </c>
       <c r="V305" s="3">
-        <v>5647</v>
+        <v>6248</v>
       </c>
       <c r="W305" s="3">
-        <v>155</v>
+        <v>285.5</v>
       </c>
       <c r="X305" s="3">
-        <v>5079</v>
+        <v>2321</v>
       </c>
       <c r="Z305" t="s">
-        <v>599</v>
+        <v>759</v>
+      </c>
+      <c r="AA305" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB305" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD305" s="4">
+        <v>440</v>
       </c>
     </row>
     <row r="306" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C306" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D306" t="s">
         <v>44</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>589</v>
+        <v>95</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="G306" t="s">
+        <v>495</v>
+      </c>
       <c r="L306" s="3">
-        <v>139</v>
-      </c>
-      <c r="M306" s="1">
-        <v>167000</v>
+        <v>98</v>
       </c>
       <c r="U306" s="3">
-        <v>141.4</v>
+        <v>110.8</v>
       </c>
       <c r="V306" s="3">
-        <v>6603</v>
+        <v>5532</v>
       </c>
       <c r="W306" s="3">
-        <v>164.2</v>
+        <v>157.5</v>
       </c>
       <c r="X306" s="3">
-        <v>5340</v>
+        <v>4544</v>
       </c>
       <c r="Z306" t="s">
-        <v>740</v>
-      </c>
-      <c r="AA306" t="s">
-        <v>741</v>
-      </c>
-      <c r="AB306" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD306" s="4">
-        <v>350</v>
+        <v>728</v>
       </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C307" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D307" t="s">
-        <v>742</v>
-      </c>
-      <c r="E307" s="4">
-        <v>95</v>
+        <v>28</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>763</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G307" t="s">
-        <v>748</v>
+        <v>463</v>
       </c>
       <c r="L307" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q307" s="3">
-        <v>201.8</v>
-      </c>
-      <c r="R307" s="3">
-        <v>5839</v>
-      </c>
-      <c r="S307" s="3">
-        <v>307</v>
-      </c>
-      <c r="T307" s="3">
-        <v>2772</v>
+        <v>231</v>
       </c>
       <c r="U307" s="3">
-        <v>227.5</v>
+        <v>220.2</v>
       </c>
       <c r="V307" s="3">
-        <v>5702</v>
+        <v>6391</v>
       </c>
       <c r="W307" s="3">
-        <v>381</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="X307" s="3">
-        <v>3108</v>
+        <v>4838</v>
+      </c>
+      <c r="Z307" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="308" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C308" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
+        <v>412</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="G308" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="J308" s="3">
-        <v>6</v>
+        <v>413</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G308" t="s">
+        <v>764</v>
       </c>
       <c r="L308" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q308" s="3">
-        <v>173.9</v>
-      </c>
-      <c r="R308" s="3">
-        <v>5780</v>
-      </c>
-      <c r="S308" s="3">
-        <v>226.1</v>
-      </c>
-      <c r="T308" s="3">
-        <v>4666</v>
+        <v>75</v>
       </c>
       <c r="U308" s="3">
-        <v>174.6</v>
+        <v>99.3</v>
       </c>
       <c r="V308" s="3">
-        <v>5804</v>
+        <v>6677</v>
       </c>
       <c r="W308" s="3">
-        <v>228.6</v>
+        <v>118.9</v>
       </c>
       <c r="X308" s="3">
-        <v>4669</v>
+        <v>5117</v>
       </c>
       <c r="Z308" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="309" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C309" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D309" t="s">
-        <v>44</v>
-      </c>
-      <c r="E309" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>209</v>
+        <v>755</v>
+      </c>
+      <c r="J309" s="3">
+        <v>5</v>
       </c>
       <c r="L309" s="3">
-        <v>174</v>
+        <v>133</v>
+      </c>
+      <c r="M309" s="1">
+        <v>408000</v>
       </c>
       <c r="U309" s="3">
-        <v>184.4</v>
+        <v>113.3</v>
       </c>
       <c r="V309" s="3">
-        <v>6059</v>
+        <v>5488</v>
       </c>
       <c r="W309" s="3">
-        <v>247.5</v>
+        <v>159.9</v>
       </c>
       <c r="X309" s="3">
-        <v>4445</v>
+        <v>4086</v>
       </c>
       <c r="Z309" t="s">
-        <v>745</v>
+        <v>765</v>
       </c>
       <c r="AA309" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="AB309" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="AD309" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="310" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C310" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D310" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L310" s="3">
-        <v>231</v>
-      </c>
-      <c r="M310" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q310" s="3">
-        <v>205.8</v>
-      </c>
-      <c r="R310" s="3">
-        <v>6150</v>
-      </c>
-      <c r="S310" s="3">
-        <v>256.89999999999998</v>
-      </c>
-      <c r="T310" s="3">
-        <v>4021</v>
+        <v>769</v>
+      </c>
+      <c r="G310" t="s">
+        <v>320</v>
       </c>
       <c r="U310" s="3">
-        <v>212.3</v>
+        <v>167.7</v>
       </c>
       <c r="V310" s="3">
-        <v>6103</v>
+        <v>6970</v>
       </c>
       <c r="W310" s="3">
-        <v>266.7</v>
+        <v>193.3</v>
       </c>
       <c r="X310" s="3">
-        <v>5039</v>
+        <v>5425</v>
       </c>
       <c r="Z310" t="s">
-        <v>47</v>
+        <v>767</v>
+      </c>
+      <c r="AA310" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB310" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD310" s="4">
+        <v>280</v>
       </c>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C311" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D311" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J311" s="3">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="L311" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q311" s="3">
-        <v>238.9</v>
-      </c>
-      <c r="R311" s="3">
-        <v>5907</v>
-      </c>
-      <c r="S311" s="3">
-        <v>370.3</v>
-      </c>
-      <c r="T311" s="3">
-        <v>4512</v>
+        <v>143</v>
       </c>
       <c r="U311" s="3">
-        <v>249.1</v>
+        <v>143.9</v>
       </c>
       <c r="V311" s="3">
-        <v>4570</v>
+        <v>6452</v>
       </c>
       <c r="W311" s="3">
-        <v>393.6</v>
+        <v>185</v>
       </c>
       <c r="X311" s="3">
-        <v>4433</v>
+        <v>4607</v>
       </c>
       <c r="Z311" t="s">
-        <v>750</v>
-      </c>
-      <c r="AA311" t="s">
-        <v>751</v>
-      </c>
-      <c r="AB311" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD311" s="4">
-        <v>240</v>
+        <v>392</v>
       </c>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C312" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D312" t="s">
-        <v>52</v>
-      </c>
-      <c r="E312" s="4">
-        <v>80</v>
+        <v>36</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="F312" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G312" t="s">
+        <v>772</v>
+      </c>
+      <c r="K312" t="s">
+        <v>76</v>
+      </c>
+      <c r="L312" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q312" s="3">
+        <v>120.4</v>
+      </c>
+      <c r="R312" s="3">
+        <v>5218</v>
+      </c>
+      <c r="S312" s="3">
+        <v>179.6</v>
+      </c>
+      <c r="T312" s="3">
+        <v>4313</v>
+      </c>
+      <c r="U312" s="3">
+        <v>120.5</v>
+      </c>
+      <c r="V312" s="3">
+        <v>5218</v>
+      </c>
+      <c r="W312" s="3">
+        <v>176.7</v>
+      </c>
+      <c r="X312" s="3">
+        <v>4385</v>
+      </c>
+      <c r="Z312" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="313" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C313" s="4">
+        <v>10</v>
+      </c>
+      <c r="D313" t="s">
+        <v>114</v>
+      </c>
+      <c r="E313" s="4">
+        <v>155</v>
+      </c>
+      <c r="F313" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L312" s="3">
-        <v>116</v>
-      </c>
-      <c r="Q312" s="3">
-        <v>104.7</v>
-      </c>
-      <c r="R312" s="3">
-        <v>5285</v>
-      </c>
-      <c r="S312" s="3">
-        <v>164.4</v>
-      </c>
-      <c r="T312" s="3">
-        <v>3305</v>
-      </c>
-      <c r="U312" s="3">
-        <v>106.5</v>
-      </c>
-      <c r="V312" s="3">
-        <v>5219</v>
-      </c>
-      <c r="W312" s="3">
-        <v>167.5</v>
-      </c>
-      <c r="X312" s="3">
-        <v>3223</v>
-      </c>
-      <c r="Z312" t="s">
-        <v>753</v>
-      </c>
-      <c r="AA312" t="s">
-        <v>754</v>
-      </c>
-      <c r="AB312" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD312" s="4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="313" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B313">
-        <v>6</v>
+      <c r="G313" t="s">
+        <v>320</v>
+      </c>
+      <c r="L313" s="3">
+        <v>150</v>
+      </c>
+      <c r="U313" s="3">
+        <v>150.5</v>
+      </c>
+      <c r="V313" s="3">
+        <v>6299</v>
+      </c>
+      <c r="W313" s="3">
+        <v>176.1</v>
+      </c>
+      <c r="X313" s="3">
+        <v>3586</v>
+      </c>
+      <c r="Z313" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C314" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D314" t="s">
         <v>28</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>694</v>
+        <v>775</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G314" t="s">
-        <v>693</v>
+        <v>463</v>
+      </c>
+      <c r="J314" s="3">
+        <v>6</v>
       </c>
       <c r="L314" s="3">
-        <v>185</v>
+        <v>272</v>
+      </c>
+      <c r="Q314" s="3">
+        <v>246.6</v>
+      </c>
+      <c r="R314" s="3">
+        <v>6838</v>
+      </c>
+      <c r="S314" s="3">
+        <v>289.8</v>
+      </c>
+      <c r="T314" s="3">
+        <v>3138</v>
       </c>
       <c r="U314" s="3">
-        <v>198.9</v>
+        <v>238.8</v>
       </c>
       <c r="V314" s="3">
-        <v>4106</v>
+        <v>6693</v>
       </c>
       <c r="W314" s="3">
-        <v>417.2</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="X314" s="3">
-        <v>2732</v>
+        <v>3111</v>
       </c>
       <c r="Z314" t="s">
-        <v>446</v>
+        <v>773</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB314" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD314" s="4">
+        <v>445</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C315" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D315" t="s">
-        <v>217</v>
+        <v>778</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G315" t="s">
-        <v>696</v>
+        <v>733</v>
       </c>
       <c r="L315" s="3">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="U315" s="3">
-        <v>141.19999999999999</v>
+        <v>117.5</v>
       </c>
       <c r="V315" s="3">
-        <v>6642</v>
+        <v>6165</v>
       </c>
       <c r="W315" s="3">
-        <v>153.69999999999999</v>
+        <v>154</v>
       </c>
       <c r="X315" s="3">
-        <v>6342</v>
+        <v>4153</v>
       </c>
       <c r="Z315" t="s">
-        <v>552</v>
+        <v>776</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD315" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="316" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C316" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D316" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G316" t="s">
-        <v>698</v>
+        <v>147</v>
       </c>
       <c r="L316" s="3">
-        <v>231</v>
-      </c>
-      <c r="M316" s="1">
-        <v>157115</v>
-      </c>
-      <c r="N316" s="3">
-        <v>2004</v>
+        <v>80</v>
       </c>
       <c r="U316" s="3">
-        <v>199.3</v>
+        <v>108.5</v>
       </c>
       <c r="V316" s="3">
-        <v>6844</v>
+        <v>6081</v>
       </c>
       <c r="W316" s="3">
-        <v>173.9</v>
+        <v>141</v>
       </c>
       <c r="X316" s="3">
-        <v>7611</v>
-      </c>
-      <c r="Z316" t="s">
-        <v>432</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C317" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D317" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>208</v>
+        <v>373</v>
       </c>
       <c r="L317" s="3">
-        <v>115</v>
-      </c>
-      <c r="M317" s="1">
-        <v>396000</v>
+        <v>170</v>
       </c>
       <c r="U317" s="3">
-        <v>121.6</v>
+        <v>168.9</v>
       </c>
       <c r="V317" s="3">
-        <v>6112</v>
+        <v>5778</v>
       </c>
       <c r="W317" s="3">
-        <v>170.6</v>
+        <v>223.1</v>
       </c>
       <c r="X317" s="3">
-        <v>4285</v>
+        <v>4721</v>
       </c>
       <c r="Z317" t="s">
-        <v>251</v>
+        <v>781</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>782</v>
+      </c>
+      <c r="AB317" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD317" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C318" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D318" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L318" s="3">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="U318" s="3">
-        <v>124.6</v>
+        <v>171</v>
       </c>
       <c r="V318" s="3">
-        <v>6041</v>
+        <v>6157</v>
       </c>
       <c r="W318" s="3">
-        <v>158.5</v>
+        <v>213.7</v>
       </c>
       <c r="X318" s="3">
-        <v>3470</v>
+        <v>5203</v>
       </c>
       <c r="Z318" t="s">
-        <v>701</v>
+        <v>784</v>
       </c>
       <c r="AA318" t="s">
-        <v>702</v>
+        <v>785</v>
       </c>
       <c r="AB318" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="AD318" s="4">
-        <v>380</v>
+        <v>250</v>
       </c>
     </row>
     <row r="319" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C319" s="4">
-        <v>6</v>
-      </c>
-      <c r="D319" t="s">
-        <v>52</v>
-      </c>
-      <c r="E319" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L319" s="3">
-        <v>75</v>
-      </c>
-      <c r="M319" s="1">
-        <v>464568</v>
-      </c>
-      <c r="U319" s="3">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="V319" s="3">
-        <v>5100</v>
-      </c>
-      <c r="W319" s="3">
-        <v>121.3</v>
-      </c>
-      <c r="X319" s="3">
-        <v>4012</v>
-      </c>
-      <c r="Z319" t="s">
-        <v>599</v>
+      <c r="B319">
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C320" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>704</v>
+        <v>718</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J320" s="3">
+        <v>5</v>
       </c>
       <c r="L320" s="3">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="Q320" s="3">
-        <v>107.2</v>
+        <v>123</v>
       </c>
       <c r="R320" s="3">
-        <v>5650</v>
+        <v>5022</v>
       </c>
       <c r="S320" s="3">
-        <v>147.1</v>
+        <v>201.8</v>
       </c>
       <c r="T320" s="3">
-        <v>3736</v>
+        <v>3539</v>
       </c>
       <c r="U320" s="3">
-        <v>108.5</v>
+        <v>121.3</v>
       </c>
       <c r="V320" s="3">
-        <v>5746</v>
+        <v>4886</v>
       </c>
       <c r="W320" s="3">
-        <v>148.30000000000001</v>
+        <v>198.9</v>
       </c>
       <c r="X320" s="3">
-        <v>3810</v>
+        <v>3255</v>
       </c>
       <c r="Z320" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="321" spans="2:30" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="321" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C321" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D321" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>147</v>
+        <v>211</v>
+      </c>
+      <c r="G321" t="s">
+        <v>720</v>
       </c>
       <c r="L321" s="3">
-        <v>285</v>
+        <v>170</v>
+      </c>
+      <c r="Q321" s="3">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="R321" s="3">
+        <v>5962</v>
+      </c>
+      <c r="S321" s="3">
+        <v>187.8</v>
+      </c>
+      <c r="T321" s="3">
+        <v>4474</v>
       </c>
       <c r="U321" s="3">
-        <v>309.10000000000002</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="V321" s="3">
-        <v>5360</v>
+        <v>5991</v>
       </c>
       <c r="W321" s="3">
-        <v>487</v>
+        <v>190.9</v>
       </c>
       <c r="X321" s="3">
-        <v>4061</v>
-      </c>
-    </row>
-    <row r="322" spans="2:30" x14ac:dyDescent="0.25">
+        <v>4443</v>
+      </c>
+      <c r="Z321" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="322" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C322" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D322" t="s">
         <v>44</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>706</v>
+        <v>531</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H322" s="3" t="s">
-        <v>46</v>
+        <v>346</v>
       </c>
       <c r="L322" s="3">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="U322" s="3">
-        <v>168.1</v>
+        <v>64.3</v>
       </c>
       <c r="V322" s="3">
-        <v>3725</v>
+        <v>4313</v>
       </c>
       <c r="W322" s="3">
-        <v>369</v>
+        <v>123.7</v>
       </c>
       <c r="X322" s="3">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="323" spans="2:30" x14ac:dyDescent="0.25">
+        <v>2182</v>
+      </c>
+      <c r="Z322" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="323" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C323" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D323" t="s">
-        <v>36</v>
+        <v>723</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>709</v>
+        <v>418</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G323" t="s">
-        <v>710</v>
+        <v>211</v>
+      </c>
+      <c r="J323" s="3">
+        <v>6</v>
       </c>
       <c r="L323" s="3">
-        <v>150</v>
-      </c>
-      <c r="Q323" s="3">
-        <v>141.4</v>
-      </c>
-      <c r="R323" s="3">
-        <v>5198</v>
-      </c>
-      <c r="S323" s="3">
-        <v>214.6</v>
-      </c>
-      <c r="T323" s="3">
-        <v>3910</v>
+        <v>170</v>
       </c>
       <c r="U323" s="3">
-        <v>145.19999999999999</v>
+        <v>193.1</v>
       </c>
       <c r="V323" s="3">
-        <v>5158</v>
+        <v>6068</v>
       </c>
       <c r="W323" s="3">
-        <v>219.6</v>
+        <v>237.4</v>
       </c>
       <c r="X323" s="3">
-        <v>3838</v>
+        <v>4703</v>
       </c>
       <c r="Z323" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="AA323" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="AB323" t="s">
         <v>202</v>
       </c>
       <c r="AD323" s="4">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="324" spans="2:30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="324" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C324" s="4">
+        <v>5</v>
+      </c>
+      <c r="D324" t="s">
+        <v>412</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G324" t="s">
+        <v>724</v>
+      </c>
+      <c r="L324" s="3">
+        <v>190</v>
+      </c>
+      <c r="Q324" s="3">
+        <v>185</v>
+      </c>
+      <c r="R324" s="3">
+        <v>6689</v>
+      </c>
+      <c r="S324" s="3">
+        <v>158.1</v>
+      </c>
+      <c r="T324" s="3">
+        <v>7544</v>
+      </c>
+      <c r="U324" s="3">
+        <v>184.2</v>
+      </c>
+      <c r="V324" s="3">
+        <v>8500</v>
+      </c>
+      <c r="W324" s="3">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="X324" s="3">
+        <v>7376</v>
+      </c>
+      <c r="Z324" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="325" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C325" s="4">
+        <v>6</v>
+      </c>
+      <c r="D325" t="s">
+        <v>28</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="L325" s="3">
+        <v>195</v>
+      </c>
+      <c r="Q325" s="3">
+        <v>193.4</v>
+      </c>
+      <c r="R325" s="3">
+        <v>7495</v>
+      </c>
+      <c r="S325" s="3">
+        <v>222.1</v>
+      </c>
+      <c r="T325" s="3">
+        <v>4933</v>
+      </c>
+      <c r="U325" s="3">
+        <v>191.2</v>
+      </c>
+      <c r="V325" s="3">
+        <v>7157</v>
+      </c>
+      <c r="W325" s="3">
+        <v>223.4</v>
+      </c>
+      <c r="X325" s="3">
+        <v>4886</v>
+      </c>
+      <c r="Z325" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB325" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC325" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD325" s="4">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="326" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C326" s="4">
+        <v>7</v>
+      </c>
+      <c r="D326" t="s">
+        <v>178</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G326" t="s">
+        <v>677</v>
+      </c>
+      <c r="L326" s="3">
+        <v>156</v>
+      </c>
+      <c r="Q326" s="3">
+        <v>161.4</v>
+      </c>
+      <c r="R326" s="3">
+        <v>6432</v>
+      </c>
+      <c r="S326" s="3">
+        <v>201.3</v>
+      </c>
+      <c r="T326" s="3">
+        <v>4502</v>
+      </c>
+      <c r="Z326" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA326" t="s">
+        <v>729</v>
+      </c>
+      <c r="AB326" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD326" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="327" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C327" s="4">
+        <v>8</v>
+      </c>
+      <c r="D327" t="s">
+        <v>175</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G327" t="s">
+        <v>735</v>
+      </c>
+      <c r="L327" s="3">
+        <v>90</v>
+      </c>
+      <c r="M327" s="1">
+        <v>850000</v>
+      </c>
+      <c r="Q327" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="R327" s="3">
+        <v>5620</v>
+      </c>
+      <c r="S327" s="3">
+        <v>127</v>
+      </c>
+      <c r="T327" s="3">
+        <v>2176</v>
+      </c>
+      <c r="U327" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="V327" s="3">
+        <v>553</v>
+      </c>
+      <c r="W327" s="3">
+        <v>118.3</v>
+      </c>
+      <c r="X327" s="3">
+        <v>2458</v>
+      </c>
+      <c r="Z327" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA327" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB327" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD327" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="328" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C328" s="4">
+        <v>9</v>
+      </c>
+      <c r="D328" t="s">
+        <v>44</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="G328" t="s">
+        <v>736</v>
+      </c>
+      <c r="J328" s="3">
+        <v>5</v>
+      </c>
+      <c r="L328" s="3">
+        <v>180</v>
+      </c>
+      <c r="U328" s="3">
+        <v>151.9</v>
+      </c>
+      <c r="V328" s="3">
+        <v>4596</v>
+      </c>
+      <c r="W328" s="3">
+        <v>253</v>
+      </c>
+      <c r="X328" s="3">
+        <v>3321</v>
+      </c>
+      <c r="Z328" t="s">
+        <v>737</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB328" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD328" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="329" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C329" s="4">
+        <v>10</v>
+      </c>
+      <c r="D329" t="s">
+        <v>52</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="J329" s="3">
+        <v>5</v>
+      </c>
+      <c r="L329" s="3">
+        <v>125</v>
+      </c>
+      <c r="Q329" s="3">
+        <v>119</v>
+      </c>
+      <c r="R329" s="3">
+        <v>5516</v>
+      </c>
+      <c r="S329" s="3">
+        <v>169.3</v>
+      </c>
+      <c r="T329" s="3">
+        <v>3794</v>
+      </c>
+      <c r="U329" s="3">
+        <v>117.8</v>
+      </c>
+      <c r="V329" s="3">
+        <v>5647</v>
+      </c>
+      <c r="W329" s="3">
+        <v>155</v>
+      </c>
+      <c r="X329" s="3">
+        <v>5079</v>
+      </c>
+      <c r="Z329" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="330" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C330" s="4">
         <v>11</v>
       </c>
-      <c r="D324" t="s">
-        <v>28</v>
-      </c>
-      <c r="E324" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="L324" s="3">
-        <v>150</v>
-      </c>
-      <c r="M324" s="1">
-        <v>250000</v>
-      </c>
-      <c r="U324" s="3">
-        <v>152.5</v>
-      </c>
-      <c r="V324" s="3">
-        <v>3952</v>
-      </c>
-      <c r="W324" s="3">
-        <v>324.8</v>
-      </c>
-      <c r="X324" s="3">
-        <v>2672</v>
-      </c>
-      <c r="Z324" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="325" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C325" s="4">
+      <c r="D330" t="s">
+        <v>44</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L330" s="3">
+        <v>139</v>
+      </c>
+      <c r="M330" s="1">
+        <v>167000</v>
+      </c>
+      <c r="U330" s="3">
+        <v>141.4</v>
+      </c>
+      <c r="V330" s="3">
+        <v>6603</v>
+      </c>
+      <c r="W330" s="3">
+        <v>164.2</v>
+      </c>
+      <c r="X330" s="3">
+        <v>5340</v>
+      </c>
+      <c r="Z330" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA330" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB330" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD330" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="331" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C331" s="4">
         <v>12</v>
       </c>
-      <c r="D325" t="s">
-        <v>38</v>
-      </c>
-      <c r="E325" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G325" t="s">
-        <v>714</v>
-      </c>
-      <c r="L325" s="3">
-        <v>147</v>
-      </c>
-      <c r="Q325" s="3">
-        <v>178.3</v>
-      </c>
-      <c r="R325" s="3">
-        <v>4540</v>
-      </c>
-      <c r="S325" s="3">
-        <v>315.2</v>
-      </c>
-      <c r="T325" s="3">
-        <v>3784</v>
-      </c>
-      <c r="U325" s="3">
-        <v>149</v>
-      </c>
-      <c r="V325" s="3">
-        <v>5088</v>
-      </c>
-      <c r="W325" s="3">
-        <v>256.3</v>
-      </c>
-      <c r="X325" s="3">
-        <v>3222</v>
-      </c>
-      <c r="Z325" t="s">
-        <v>712</v>
-      </c>
-      <c r="AA325" t="s">
-        <v>713</v>
-      </c>
-      <c r="AB325" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD325" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="326" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C326" s="4">
+      <c r="D331" t="s">
+        <v>742</v>
+      </c>
+      <c r="E331" s="4">
+        <v>95</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G331" t="s">
+        <v>748</v>
+      </c>
+      <c r="L331" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q331" s="3">
+        <v>201.8</v>
+      </c>
+      <c r="R331" s="3">
+        <v>5839</v>
+      </c>
+      <c r="S331" s="3">
+        <v>307</v>
+      </c>
+      <c r="T331" s="3">
+        <v>2772</v>
+      </c>
+      <c r="U331" s="3">
+        <v>227.5</v>
+      </c>
+      <c r="V331" s="3">
+        <v>5702</v>
+      </c>
+      <c r="W331" s="3">
+        <v>381</v>
+      </c>
+      <c r="X331" s="3">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="332" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C332" s="4">
         <v>13</v>
-      </c>
-      <c r="D326" t="s">
-        <v>44</v>
-      </c>
-      <c r="E326" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="L326" s="3">
-        <v>55</v>
-      </c>
-      <c r="U326" s="3">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="V326" s="3">
-        <v>6471</v>
-      </c>
-      <c r="W326" s="3">
-        <v>102.3</v>
-      </c>
-      <c r="X326" s="3">
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="327" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C327" s="4">
-        <v>14</v>
-      </c>
-      <c r="D327" t="s">
-        <v>52</v>
-      </c>
-      <c r="E327" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="J327" s="3">
-        <v>5</v>
-      </c>
-      <c r="L327" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q327" s="3">
-        <v>92.1</v>
-      </c>
-      <c r="R327" s="3">
-        <v>3973</v>
-      </c>
-      <c r="S327" s="3">
-        <v>168.5</v>
-      </c>
-      <c r="T327" s="3">
-        <v>3702</v>
-      </c>
-      <c r="U327" s="3">
-        <v>94</v>
-      </c>
-      <c r="V327" s="3">
-        <v>4062</v>
-      </c>
-      <c r="W327" s="3">
-        <v>170.1</v>
-      </c>
-      <c r="X327" s="3">
-        <v>3731</v>
-      </c>
-      <c r="Z327" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="328" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C328" s="4">
-        <v>15</v>
-      </c>
-      <c r="D328" t="s">
-        <v>38</v>
-      </c>
-      <c r="E328" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="J328" s="3">
-        <v>6</v>
-      </c>
-      <c r="L328" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q328" s="3">
-        <v>185.9</v>
-      </c>
-      <c r="R328" s="3">
-        <v>5885</v>
-      </c>
-      <c r="S328" s="3">
-        <v>230.5</v>
-      </c>
-      <c r="T328" s="3">
-        <v>5266</v>
-      </c>
-      <c r="U328" s="3">
-        <v>189.3</v>
-      </c>
-      <c r="V328" s="3">
-        <v>5956</v>
-      </c>
-      <c r="W328" s="3">
-        <v>236.6</v>
-      </c>
-      <c r="X328" s="3">
-        <v>5217</v>
-      </c>
-      <c r="Z328" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="329" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B329">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="330" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C330" s="4">
-        <v>1</v>
-      </c>
-      <c r="D330" t="s">
-        <v>412</v>
-      </c>
-      <c r="E330" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G330" t="s">
-        <v>576</v>
-      </c>
-      <c r="L330" s="3">
-        <v>200</v>
-      </c>
-      <c r="U330" s="3">
-        <v>191.2</v>
-      </c>
-      <c r="V330" s="3">
-        <v>8095</v>
-      </c>
-      <c r="W330" s="3">
-        <v>184</v>
-      </c>
-      <c r="X330" s="3">
-        <v>6394</v>
-      </c>
-      <c r="Z330" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="331" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C331" s="4">
-        <v>2</v>
-      </c>
-      <c r="D331" t="s">
-        <v>44</v>
-      </c>
-      <c r="E331" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L331" s="3">
-        <v>95</v>
-      </c>
-      <c r="Q331" s="3">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="R331" s="3">
-        <v>6130</v>
-      </c>
-      <c r="S331" s="3">
-        <v>89.8</v>
-      </c>
-      <c r="T331" s="3">
-        <v>6020</v>
-      </c>
-      <c r="U331" s="3">
-        <v>78.7</v>
-      </c>
-      <c r="V331" s="3">
-        <v>6094</v>
-      </c>
-      <c r="W331" s="3">
-        <v>91.7</v>
-      </c>
-      <c r="X331" s="3">
-        <v>5966</v>
-      </c>
-      <c r="Z331" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA331" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB331" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD331" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="332" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C332" s="4">
-        <v>3</v>
       </c>
       <c r="D332" t="s">
         <v>28</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G332" t="s">
-        <v>685</v>
+        <v>373</v>
+      </c>
+      <c r="G332" s="4" t="s">
+        <v>743</v>
       </c>
       <c r="J332" s="3">
         <v>6</v>
       </c>
       <c r="L332" s="3">
+        <v>170</v>
+      </c>
+      <c r="Q332" s="3">
+        <v>173.9</v>
+      </c>
+      <c r="R332" s="3">
+        <v>5780</v>
+      </c>
+      <c r="S332" s="3">
+        <v>226.1</v>
+      </c>
+      <c r="T332" s="3">
+        <v>4666</v>
+      </c>
+      <c r="U332" s="3">
+        <v>174.6</v>
+      </c>
+      <c r="V332" s="3">
+        <v>5804</v>
+      </c>
+      <c r="W332" s="3">
+        <v>228.6</v>
+      </c>
+      <c r="X332" s="3">
+        <v>4669</v>
+      </c>
+      <c r="Z332" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="333" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C333" s="4">
+        <v>14</v>
+      </c>
+      <c r="D333" t="s">
+        <v>44</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L333" s="3">
+        <v>174</v>
+      </c>
+      <c r="U333" s="3">
+        <v>184.4</v>
+      </c>
+      <c r="V333" s="3">
+        <v>6059</v>
+      </c>
+      <c r="W333" s="3">
+        <v>247.5</v>
+      </c>
+      <c r="X333" s="3">
+        <v>4445</v>
+      </c>
+      <c r="Z333" t="s">
+        <v>745</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB333" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD333" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="334" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C334" s="4">
+        <v>15</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="L334" s="3">
         <v>231</v>
       </c>
-      <c r="M332" s="1">
-        <v>377473</v>
-      </c>
-      <c r="Q332" s="3">
-        <v>199.6</v>
-      </c>
-      <c r="R332" s="3">
-        <v>6123</v>
-      </c>
-      <c r="S332" s="3">
-        <v>268.2</v>
-      </c>
-      <c r="T332" s="3">
-        <v>3625</v>
-      </c>
-      <c r="U332" s="3">
-        <v>202.2</v>
-      </c>
-      <c r="V332" s="3">
-        <v>6211</v>
-      </c>
-      <c r="W332" s="3">
-        <v>269.60000000000002</v>
-      </c>
-      <c r="X332" s="3">
-        <v>3618</v>
-      </c>
-      <c r="Z332" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA332" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB332" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD332" s="4">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="333" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C333" s="4">
-        <v>4</v>
-      </c>
-      <c r="D333" t="s">
-        <v>36</v>
-      </c>
-      <c r="E333" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G333" t="s">
-        <v>576</v>
-      </c>
-      <c r="L333" s="3">
+      <c r="M334" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q334" s="3">
+        <v>205.8</v>
+      </c>
+      <c r="R334" s="3">
+        <v>6150</v>
+      </c>
+      <c r="S334" s="3">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="T334" s="3">
+        <v>4021</v>
+      </c>
+      <c r="U334" s="3">
+        <v>212.3</v>
+      </c>
+      <c r="V334" s="3">
+        <v>6103</v>
+      </c>
+      <c r="W334" s="3">
+        <v>266.7</v>
+      </c>
+      <c r="X334" s="3">
+        <v>5039</v>
+      </c>
+      <c r="Z334" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="335" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C335" s="4">
+        <v>16</v>
+      </c>
+      <c r="D335" t="s">
+        <v>74</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J335" s="3">
+        <v>5</v>
+      </c>
+      <c r="L335" s="3">
         <v>240</v>
       </c>
-      <c r="U333" s="3">
-        <v>261.8</v>
-      </c>
-      <c r="V333" s="3">
-        <v>5721</v>
-      </c>
-      <c r="W333" s="3">
-        <v>406.3</v>
-      </c>
-      <c r="X333" s="3">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="334" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C334" s="4">
-        <v>5</v>
-      </c>
-      <c r="D334" t="s">
+      <c r="Q335" s="3">
+        <v>238.9</v>
+      </c>
+      <c r="R335" s="3">
+        <v>5907</v>
+      </c>
+      <c r="S335" s="3">
+        <v>370.3</v>
+      </c>
+      <c r="T335" s="3">
+        <v>4512</v>
+      </c>
+      <c r="U335" s="3">
+        <v>249.1</v>
+      </c>
+      <c r="V335" s="3">
+        <v>4570</v>
+      </c>
+      <c r="W335" s="3">
+        <v>393.6</v>
+      </c>
+      <c r="X335" s="3">
+        <v>4433</v>
+      </c>
+      <c r="Z335" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB335" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD335" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="336" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C336" s="4">
+        <v>17</v>
+      </c>
+      <c r="D336" t="s">
         <v>52</v>
       </c>
-      <c r="F334" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G334" t="s">
-        <v>424</v>
-      </c>
-      <c r="K334" t="s">
-        <v>76</v>
-      </c>
-      <c r="L334" s="3">
-        <v>113</v>
-      </c>
-      <c r="M334" s="1">
-        <v>137872</v>
-      </c>
-      <c r="Q334" s="3">
-        <v>97</v>
-      </c>
-      <c r="R334" s="3">
-        <v>5372</v>
-      </c>
-      <c r="S334" s="3">
-        <v>168.8</v>
-      </c>
-      <c r="T334" s="3">
-        <v>3490</v>
-      </c>
-      <c r="U334" s="3">
-        <v>97.3</v>
-      </c>
-      <c r="V334" s="3">
-        <v>5749</v>
-      </c>
-      <c r="W334" s="3">
-        <v>147.9</v>
-      </c>
-      <c r="X334" s="3">
-        <v>3325</v>
-      </c>
-      <c r="Z334" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="335" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C335" s="4">
-        <v>6</v>
-      </c>
-      <c r="D335" t="s">
-        <v>44</v>
-      </c>
-      <c r="E335" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J335" s="3">
-        <v>6</v>
-      </c>
-      <c r="L335" s="3">
-        <v>174</v>
-      </c>
-      <c r="M335" s="1">
-        <v>320000</v>
-      </c>
-      <c r="N335" s="3">
-        <v>1983</v>
-      </c>
-      <c r="U335" s="3">
-        <v>186.8</v>
-      </c>
-      <c r="V335" s="3">
-        <v>5977</v>
-      </c>
-      <c r="W335" s="3">
-        <v>237.9</v>
-      </c>
-      <c r="X335" s="3">
-        <v>4499</v>
-      </c>
-      <c r="Z335" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="336" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C336" s="4">
-        <v>7</v>
-      </c>
-      <c r="D336" t="s">
-        <v>28</v>
-      </c>
-      <c r="E336" s="4" t="s">
-        <v>464</v>
+      <c r="E336" s="4">
+        <v>80</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J336" s="3">
+      <c r="L336" s="3">
+        <v>116</v>
+      </c>
+      <c r="Q336" s="3">
+        <v>104.7</v>
+      </c>
+      <c r="R336" s="3">
+        <v>5285</v>
+      </c>
+      <c r="S336" s="3">
+        <v>164.4</v>
+      </c>
+      <c r="T336" s="3">
+        <v>3305</v>
+      </c>
+      <c r="U336" s="3">
+        <v>106.5</v>
+      </c>
+      <c r="V336" s="3">
+        <v>5219</v>
+      </c>
+      <c r="W336" s="3">
+        <v>167.5</v>
+      </c>
+      <c r="X336" s="3">
+        <v>3223</v>
+      </c>
+      <c r="Z336" t="s">
+        <v>753</v>
+      </c>
+      <c r="AA336" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB336" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD336" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="337" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B337">
         <v>6</v>
-      </c>
-      <c r="L336" s="3">
-        <v>150</v>
-      </c>
-      <c r="M336" s="1"/>
-      <c r="Q336" s="3">
-        <v>158.5</v>
-      </c>
-      <c r="R336" s="3">
-        <v>6233</v>
-      </c>
-      <c r="S336" s="3">
-        <v>188.2</v>
-      </c>
-      <c r="T336" s="3">
-        <v>4832</v>
-      </c>
-      <c r="U336" s="3">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="V336" s="3">
-        <v>6308</v>
-      </c>
-      <c r="W336" s="3">
-        <v>191.7</v>
-      </c>
-      <c r="X336" s="3">
-        <v>4811</v>
-      </c>
-    </row>
-    <row r="337" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C337" s="4">
-        <v>8</v>
-      </c>
-      <c r="D337" t="s">
-        <v>44</v>
-      </c>
-      <c r="E337" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H337" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L337" s="3">
-        <v>140</v>
-      </c>
-      <c r="M337" s="1"/>
-      <c r="Q337" s="3">
-        <v>197.4</v>
-      </c>
-      <c r="R337" s="3">
-        <v>4140</v>
-      </c>
-      <c r="S337" s="3">
-        <v>445.5</v>
-      </c>
-      <c r="T337" s="3">
-        <v>2125</v>
-      </c>
-      <c r="U337" s="3">
-        <v>197.4</v>
-      </c>
-      <c r="V337" s="3">
-        <v>4141</v>
-      </c>
-      <c r="W337" s="3">
-        <v>449.4</v>
-      </c>
-      <c r="X337" s="3">
-        <v>2171</v>
-      </c>
-      <c r="Z337" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="338" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C338" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D338" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G338" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L338" s="3">
-        <v>200</v>
-      </c>
-      <c r="M338" s="1"/>
+        <v>185</v>
+      </c>
       <c r="U338" s="3">
-        <v>226.2</v>
+        <v>198.9</v>
       </c>
       <c r="V338" s="3">
-        <v>6399</v>
+        <v>4106</v>
       </c>
       <c r="W338" s="3">
-        <v>319.89999999999998</v>
+        <v>417.2</v>
       </c>
       <c r="X338" s="3">
-        <v>3371</v>
+        <v>2732</v>
       </c>
       <c r="Z338" t="s">
-        <v>156</v>
+        <v>446</v>
       </c>
     </row>
     <row r="339" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C339" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D339" t="s">
-        <v>691</v>
+        <v>217</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="G339" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="L339" s="3">
-        <v>245</v>
-      </c>
-      <c r="M339" s="1">
-        <v>8000</v>
+        <v>135</v>
       </c>
       <c r="U339" s="3">
-        <v>302.3</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="V339" s="3">
-        <v>6386</v>
+        <v>6642</v>
       </c>
       <c r="W339" s="3">
-        <v>424.8</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="X339" s="3">
-        <v>3147</v>
+        <v>6342</v>
       </c>
       <c r="Z339" t="s">
-        <v>386</v>
+        <v>552</v>
       </c>
     </row>
     <row r="340" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B340">
-        <v>4</v>
+      <c r="C340" s="4">
+        <v>3</v>
+      </c>
+      <c r="D340" t="s">
+        <v>278</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G340" t="s">
+        <v>698</v>
+      </c>
+      <c r="L340" s="3">
+        <v>231</v>
+      </c>
+      <c r="M340" s="1">
+        <v>157115</v>
+      </c>
+      <c r="N340" s="3">
+        <v>2004</v>
+      </c>
+      <c r="U340" s="3">
+        <v>199.3</v>
+      </c>
+      <c r="V340" s="3">
+        <v>6844</v>
+      </c>
+      <c r="W340" s="3">
+        <v>173.9</v>
+      </c>
+      <c r="X340" s="3">
+        <v>7611</v>
+      </c>
+      <c r="Z340" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="341" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C341" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D341" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>649</v>
+        <v>699</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G341" t="s">
-        <v>650</v>
-      </c>
-      <c r="K341" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="L341" s="3">
-        <v>140</v>
-      </c>
-      <c r="Q341" s="3">
-        <v>154.6</v>
-      </c>
-      <c r="R341" s="3">
-        <v>39115</v>
-      </c>
-      <c r="S341" s="3">
-        <v>367.9</v>
-      </c>
-      <c r="T341" s="3">
-        <v>2264</v>
+        <v>115</v>
+      </c>
+      <c r="M341" s="1">
+        <v>396000</v>
       </c>
       <c r="U341" s="3">
-        <v>154.9</v>
+        <v>121.6</v>
       </c>
       <c r="V341" s="3">
-        <v>3982</v>
+        <v>6112</v>
       </c>
       <c r="W341" s="3">
-        <v>368.3</v>
+        <v>170.6</v>
       </c>
       <c r="X341" s="3">
-        <v>2346</v>
+        <v>4285</v>
       </c>
       <c r="Z341" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
     </row>
     <row r="342" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C342" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D342" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>651</v>
+        <v>700</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="L342" s="3">
-        <v>241</v>
-      </c>
-      <c r="Q342" s="3">
-        <v>227.4</v>
-      </c>
-      <c r="R342" s="3">
-        <v>5706</v>
-      </c>
-      <c r="S342" s="3">
-        <v>329.2</v>
-      </c>
-      <c r="T342" s="3">
-        <v>3772</v>
+        <v>125</v>
       </c>
       <c r="U342" s="3">
-        <v>216.6</v>
+        <v>124.6</v>
       </c>
       <c r="V342" s="3">
-        <v>5120</v>
+        <v>6041</v>
       </c>
       <c r="W342" s="3">
-        <v>327.39999999999998</v>
+        <v>158.5</v>
       </c>
       <c r="X342" s="3">
-        <v>3780</v>
+        <v>3470</v>
+      </c>
+      <c r="Z342" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>702</v>
+      </c>
+      <c r="AB342" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD342" s="4">
+        <v>380</v>
       </c>
     </row>
     <row r="343" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C343" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D343" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>652</v>
+        <v>703</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G343" t="s">
-        <v>653</v>
-      </c>
       <c r="L343" s="3">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="M343" s="1">
-        <v>197000</v>
+        <v>464568</v>
       </c>
       <c r="U343" s="3">
-        <v>123.1</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="V343" s="3">
-        <v>5319</v>
+        <v>5100</v>
       </c>
       <c r="W343" s="3">
-        <v>195</v>
+        <v>121.3</v>
       </c>
       <c r="X343" s="3">
-        <v>3891</v>
+        <v>4012</v>
       </c>
       <c r="Z343" t="s">
-        <v>386</v>
+        <v>599</v>
       </c>
     </row>
     <row r="344" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C344" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D344" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F344" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G344" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="L344" s="3">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="Q344" s="3">
-        <v>126.6</v>
+        <v>107.2</v>
       </c>
       <c r="R344" s="3">
-        <v>5245</v>
+        <v>5650</v>
       </c>
       <c r="S344" s="3">
-        <v>225.8</v>
+        <v>147.1</v>
       </c>
       <c r="T344" s="3">
-        <v>3364</v>
+        <v>3736</v>
       </c>
       <c r="U344" s="3">
-        <v>138.80000000000001</v>
+        <v>108.5</v>
       </c>
       <c r="V344" s="3">
-        <v>5784</v>
+        <v>5746</v>
       </c>
       <c r="W344" s="3">
-        <v>2440</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="X344" s="3">
-        <v>3011</v>
+        <v>3810</v>
       </c>
       <c r="Z344" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C345" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D345" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>338</v>
+        <v>705</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G345" t="s">
-        <v>657</v>
+        <v>147</v>
       </c>
       <c r="L345" s="3">
-        <v>102</v>
-      </c>
-      <c r="M345" s="1">
-        <v>550881</v>
-      </c>
-      <c r="Q345" s="3">
-        <v>90.8</v>
-      </c>
-      <c r="R345" s="3">
-        <v>5587</v>
-      </c>
-      <c r="S345" s="3">
-        <v>127.1</v>
-      </c>
-      <c r="T345" s="3">
-        <v>4187</v>
+        <v>285</v>
       </c>
       <c r="U345" s="3">
-        <v>97.5</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="V345" s="3">
-        <v>5617</v>
+        <v>5360</v>
       </c>
       <c r="W345" s="3">
-        <v>137.19999999999999</v>
+        <v>487</v>
       </c>
       <c r="X345" s="3">
-        <v>4055</v>
-      </c>
-      <c r="Z345" t="s">
-        <v>152</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="346" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C346" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D346" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J346" s="3">
-        <v>5</v>
+        <v>706</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L346" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q346" s="3">
-        <v>113.3</v>
-      </c>
-      <c r="R346" s="3">
-        <v>6022</v>
-      </c>
-      <c r="S346" s="3">
-        <v>163.69999999999999</v>
-      </c>
-      <c r="T346" s="3">
-        <v>3992</v>
+        <v>116</v>
       </c>
       <c r="U346" s="3">
-        <v>117.4</v>
+        <v>168.1</v>
       </c>
       <c r="V346" s="3">
-        <v>5951</v>
+        <v>3725</v>
       </c>
       <c r="W346" s="3">
-        <v>168.2</v>
+        <v>369</v>
       </c>
       <c r="X346" s="3">
-        <v>3955</v>
-      </c>
-      <c r="Z346" t="s">
-        <v>386</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="347" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C347" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="H347" s="3" t="s">
-        <v>46</v>
+        <v>206</v>
+      </c>
+      <c r="G347" t="s">
+        <v>710</v>
       </c>
       <c r="L347" s="3">
         <v>150</v>
       </c>
-      <c r="M347" s="1">
-        <v>200000</v>
+      <c r="Q347" s="3">
+        <v>141.4</v>
+      </c>
+      <c r="R347" s="3">
+        <v>5198</v>
+      </c>
+      <c r="S347" s="3">
+        <v>214.6</v>
+      </c>
+      <c r="T347" s="3">
+        <v>3910</v>
       </c>
       <c r="U347" s="3">
-        <v>148.30000000000001</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="V347" s="3">
-        <v>3922</v>
+        <v>5158</v>
       </c>
       <c r="W347" s="3">
-        <v>334.3</v>
+        <v>219.6</v>
       </c>
       <c r="X347" s="3">
-        <v>2422</v>
+        <v>3838</v>
       </c>
       <c r="Z347" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
       <c r="AA347" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
       <c r="AB347" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="AD347" s="4">
-        <v>490</v>
+        <v>650</v>
       </c>
     </row>
     <row r="348" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C348" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D348" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="G348" t="s">
-        <v>664</v>
-      </c>
-      <c r="J348" s="3">
-        <v>8</v>
-      </c>
-      <c r="N348" s="3">
-        <v>1969</v>
-      </c>
-      <c r="Q348" s="3">
-        <v>328.3</v>
-      </c>
-      <c r="R348" s="3">
-        <v>4379</v>
-      </c>
-      <c r="S348" s="3">
-        <v>552.79999999999995</v>
-      </c>
-      <c r="T348" s="3">
-        <v>4015</v>
+        <v>711</v>
+      </c>
+      <c r="L348" s="3">
+        <v>150</v>
+      </c>
+      <c r="M348" s="1">
+        <v>250000</v>
       </c>
       <c r="U348" s="3">
-        <v>339.5</v>
+        <v>152.5</v>
       </c>
       <c r="V348" s="3">
-        <v>5125</v>
+        <v>3952</v>
       </c>
       <c r="W348" s="3">
-        <v>559.9</v>
+        <v>324.8</v>
       </c>
       <c r="X348" s="3">
-        <v>3873</v>
+        <v>2672</v>
+      </c>
+      <c r="Z348" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="349" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C349" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D349" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>607</v>
+        <v>321</v>
       </c>
       <c r="G349" t="s">
-        <v>667</v>
-      </c>
-      <c r="J349" s="3">
-        <v>5</v>
+        <v>714</v>
       </c>
       <c r="L349" s="3">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="Q349" s="3">
-        <v>107.3</v>
+        <v>178.3</v>
       </c>
       <c r="R349" s="3">
-        <v>5214</v>
+        <v>4540</v>
       </c>
       <c r="S349" s="3">
-        <v>163</v>
+        <v>315.2</v>
       </c>
       <c r="T349" s="3">
-        <v>3028</v>
+        <v>3784</v>
       </c>
       <c r="U349" s="3">
-        <v>113.6</v>
+        <v>149</v>
       </c>
       <c r="V349" s="3">
-        <v>5412</v>
+        <v>5088</v>
       </c>
       <c r="W349" s="3">
-        <v>169.7</v>
+        <v>256.3</v>
       </c>
       <c r="X349" s="3">
-        <v>3674</v>
+        <v>3222</v>
       </c>
       <c r="Z349" t="s">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="AA349" t="s">
-        <v>666</v>
+        <v>713</v>
       </c>
       <c r="AB349" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="AD349" s="4">
-        <v>580</v>
+        <v>500</v>
       </c>
     </row>
     <row r="350" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C350" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J350" s="3">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="L350" s="3">
-        <v>136</v>
-      </c>
-      <c r="Q350" s="3">
-        <v>178.2</v>
-      </c>
-      <c r="R350" s="3">
-        <v>6323</v>
-      </c>
-      <c r="S350" s="3">
-        <v>213.5</v>
-      </c>
-      <c r="T350" s="3">
-        <v>5093</v>
+        <v>55</v>
       </c>
       <c r="U350" s="3">
-        <v>179.5</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="V350" s="3">
-        <v>6252</v>
+        <v>6471</v>
       </c>
       <c r="W350" s="3">
-        <v>216.8</v>
+        <v>102.3</v>
       </c>
       <c r="X350" s="3">
-        <v>5084</v>
-      </c>
-      <c r="Z350" t="s">
-        <v>152</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="351" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C351" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D351" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="G351" t="s">
-        <v>670</v>
+        <v>716</v>
+      </c>
+      <c r="J351" s="3">
+        <v>5</v>
       </c>
       <c r="L351" s="3">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="Q351" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="R351" s="3">
+        <v>3973</v>
+      </c>
+      <c r="S351" s="3">
+        <v>168.5</v>
+      </c>
+      <c r="T351" s="3">
+        <v>3702</v>
       </c>
       <c r="U351" s="3">
-        <v>125.1</v>
+        <v>94</v>
       </c>
       <c r="V351" s="3">
-        <v>5351</v>
+        <v>4062</v>
       </c>
       <c r="W351" s="3">
-        <v>190.2</v>
+        <v>170.1</v>
       </c>
       <c r="X351" s="3">
-        <v>4523</v>
+        <v>3731</v>
       </c>
       <c r="Z351" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="352" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C352" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D352" t="s">
-        <v>671</v>
+        <v>38</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="F352" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H352" s="3" t="s">
-        <v>46</v>
+        <v>717</v>
+      </c>
+      <c r="J352" s="3">
+        <v>6</v>
       </c>
       <c r="L352" s="3">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="Q352" s="3">
-        <v>145.6</v>
+        <v>185.9</v>
       </c>
       <c r="R352" s="3">
-        <v>3370</v>
+        <v>5885</v>
       </c>
       <c r="S352" s="3">
-        <v>383.7</v>
+        <v>230.5</v>
       </c>
       <c r="T352" s="3">
-        <v>2295</v>
+        <v>5266</v>
       </c>
       <c r="U352" s="3">
-        <v>147</v>
+        <v>189.3</v>
       </c>
       <c r="V352" s="3">
-        <v>3405</v>
+        <v>5956</v>
       </c>
       <c r="W352" s="3">
-        <v>386.1</v>
+        <v>236.6</v>
       </c>
       <c r="X352" s="3">
-        <v>2295</v>
+        <v>5217</v>
       </c>
       <c r="Z352" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="353" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C353" s="4">
-        <v>13</v>
-      </c>
-      <c r="D353" t="s">
-        <v>52</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="L353" s="3">
-        <v>131</v>
-      </c>
-      <c r="M353" s="1">
-        <v>300000</v>
-      </c>
-      <c r="U353" s="3">
-        <v>128.9</v>
-      </c>
-      <c r="V353" s="3">
-        <v>4106</v>
-      </c>
-      <c r="W353" s="3">
-        <v>317.2</v>
-      </c>
-      <c r="X353" s="3">
-        <v>2094</v>
-      </c>
-      <c r="Z353" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA353" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB353" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD353" s="4">
-        <v>180</v>
+      <c r="B353">
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C354" s="4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D354" t="s">
-        <v>28</v>
+        <v>412</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>475</v>
+        <v>678</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G354" t="s">
-        <v>677</v>
+        <v>576</v>
       </c>
       <c r="L354" s="3">
-        <v>193</v>
-      </c>
-      <c r="M354" s="1">
-        <v>335000</v>
-      </c>
-      <c r="Q354" s="3">
-        <v>193.1</v>
-      </c>
-      <c r="R354" s="3">
-        <v>6562</v>
-      </c>
-      <c r="S354" s="3">
-        <v>262</v>
-      </c>
-      <c r="T354" s="3">
-        <v>195.3</v>
+        <v>200</v>
       </c>
       <c r="U354" s="3">
-        <v>195.3</v>
+        <v>191.2</v>
       </c>
       <c r="V354" s="3">
-        <v>6605</v>
+        <v>8095</v>
       </c>
       <c r="W354" s="3">
-        <v>267.60000000000002</v>
+        <v>184</v>
       </c>
       <c r="X354" s="3">
-        <v>3696</v>
+        <v>6394</v>
       </c>
       <c r="Z354" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA354" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB354" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD354" s="4">
-        <v>250</v>
+        <v>409</v>
       </c>
     </row>
     <row r="355" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B355">
-        <v>3</v>
+      <c r="C355" s="4">
+        <v>2</v>
+      </c>
+      <c r="D355" t="s">
+        <v>44</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L355" s="3">
+        <v>95</v>
+      </c>
+      <c r="Q355" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="R355" s="3">
+        <v>6130</v>
+      </c>
+      <c r="S355" s="3">
+        <v>89.8</v>
+      </c>
+      <c r="T355" s="3">
+        <v>6020</v>
+      </c>
+      <c r="U355" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="V355" s="3">
+        <v>6094</v>
+      </c>
+      <c r="W355" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="X355" s="3">
+        <v>5966</v>
+      </c>
+      <c r="Z355" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA355" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB355" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD355" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="356" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C356" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D356" t="s">
-        <v>197</v>
-      </c>
-      <c r="E356" s="4">
-        <v>968</v>
+        <v>28</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>463</v>
       </c>
+      <c r="G356" t="s">
+        <v>685</v>
+      </c>
+      <c r="J356" s="3">
+        <v>6</v>
+      </c>
       <c r="L356" s="3">
-        <v>240</v>
+        <v>231</v>
+      </c>
+      <c r="M356" s="1">
+        <v>377473</v>
       </c>
       <c r="Q356" s="3">
-        <v>213.8</v>
+        <v>199.6</v>
       </c>
       <c r="R356" s="3">
-        <v>6430</v>
+        <v>6123</v>
       </c>
       <c r="S356" s="3">
-        <v>272.3</v>
+        <v>268.2</v>
       </c>
       <c r="T356" s="3">
-        <v>4390</v>
+        <v>3625</v>
       </c>
       <c r="U356" s="3">
-        <v>216.9</v>
+        <v>202.2</v>
       </c>
       <c r="V356" s="3">
-        <v>6411</v>
+        <v>6211</v>
       </c>
       <c r="W356" s="3">
-        <v>276.2</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="X356" s="3">
-        <v>4383</v>
+        <v>3618</v>
       </c>
       <c r="Z356" t="s">
-        <v>632</v>
+        <v>682</v>
       </c>
       <c r="AA356" t="s">
-        <v>633</v>
+        <v>683</v>
       </c>
       <c r="AB356" t="s">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="AD356" s="4">
-        <v>400</v>
+        <v>252</v>
       </c>
     </row>
     <row r="357" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C357" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D357" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>636</v>
+        <v>686</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="G357" t="s">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="L357" s="3">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="U357" s="3">
-        <v>205.7</v>
+        <v>261.8</v>
       </c>
       <c r="V357" s="3">
-        <v>5632</v>
+        <v>5721</v>
       </c>
       <c r="W357" s="3">
-        <v>328.8</v>
+        <v>406.3</v>
       </c>
       <c r="X357" s="3">
-        <v>3799</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="358" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C358" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D358" t="s">
-        <v>44</v>
-      </c>
-      <c r="E358" s="4" t="s">
-        <v>637</v>
+        <v>52</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="G358" t="s">
+        <v>424</v>
+      </c>
+      <c r="K358" t="s">
+        <v>76</v>
+      </c>
       <c r="L358" s="3">
-        <v>230</v>
+        <v>113</v>
+      </c>
+      <c r="M358" s="1">
+        <v>137872</v>
+      </c>
+      <c r="Q358" s="3">
+        <v>97</v>
+      </c>
+      <c r="R358" s="3">
+        <v>5372</v>
+      </c>
+      <c r="S358" s="3">
+        <v>168.8</v>
+      </c>
+      <c r="T358" s="3">
+        <v>3490</v>
       </c>
       <c r="U358" s="3">
-        <v>243.4</v>
+        <v>97.3</v>
       </c>
       <c r="V358" s="3">
-        <v>5400</v>
+        <v>5749</v>
       </c>
       <c r="W358" s="3">
-        <v>354.6</v>
+        <v>147.9</v>
       </c>
       <c r="X358" s="3">
-        <v>3056</v>
+        <v>3325</v>
       </c>
       <c r="Z358" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA358" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB358" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD358" s="4">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="359" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C359" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D359" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J359" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L359" s="3">
-        <v>305</v>
-      </c>
-      <c r="Q359" s="3">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="R359" s="3">
-        <v>6190</v>
-      </c>
-      <c r="S359" s="3">
-        <v>404.5</v>
-      </c>
-      <c r="T359" s="3">
-        <v>4616</v>
+        <v>174</v>
+      </c>
+      <c r="M359" s="1">
+        <v>320000</v>
+      </c>
+      <c r="N359" s="3">
+        <v>1983</v>
       </c>
       <c r="U359" s="3">
-        <v>293.10000000000002</v>
+        <v>186.8</v>
       </c>
       <c r="V359" s="3">
-        <v>6708</v>
+        <v>5977</v>
       </c>
       <c r="W359" s="3">
-        <v>405.5</v>
+        <v>237.9</v>
       </c>
       <c r="X359" s="3">
-        <v>4650</v>
+        <v>4499</v>
       </c>
       <c r="Z359" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA359" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB359" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD359" s="4">
-        <v>70</v>
+        <v>195</v>
       </c>
     </row>
     <row r="360" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C360" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D360" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>639</v>
+        <v>464</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>206</v>
+        <v>147</v>
+      </c>
+      <c r="J360" s="3">
+        <v>6</v>
       </c>
       <c r="L360" s="3">
-        <v>75</v>
-      </c>
-      <c r="M360" s="1">
-        <v>226000</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M360" s="1"/>
       <c r="Q360" s="3">
-        <v>76.5</v>
+        <v>158.5</v>
       </c>
       <c r="R360" s="3">
-        <v>5116</v>
+        <v>6233</v>
       </c>
       <c r="S360" s="3">
-        <v>115.9</v>
+        <v>188.2</v>
       </c>
       <c r="T360" s="3">
-        <v>3629</v>
+        <v>4832</v>
       </c>
       <c r="U360" s="3">
-        <v>77.099999999999994</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V360" s="3">
-        <v>4943</v>
+        <v>6308</v>
       </c>
       <c r="W360" s="3">
-        <v>115.9</v>
+        <v>191.7</v>
       </c>
       <c r="X360" s="3">
-        <v>3522</v>
-      </c>
-      <c r="Z360" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA360" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB360" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD360" s="4">
-        <v>70</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="361" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C361" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D361" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>640</v>
+        <v>688</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="H361" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="L361" s="3">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="M361" s="1"/>
+      <c r="Q361" s="3">
+        <v>197.4</v>
+      </c>
+      <c r="R361" s="3">
+        <v>4140</v>
+      </c>
+      <c r="S361" s="3">
+        <v>445.5</v>
+      </c>
+      <c r="T361" s="3">
+        <v>2125</v>
       </c>
       <c r="U361" s="3">
-        <v>186.1</v>
+        <v>197.4</v>
       </c>
       <c r="V361" s="3">
-        <v>3265</v>
+        <v>4141</v>
       </c>
       <c r="W361" s="3">
-        <v>451.4</v>
+        <v>449.4</v>
       </c>
       <c r="X361" s="3">
-        <v>2059</v>
+        <v>2171</v>
       </c>
       <c r="Z361" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA361" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB361" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD361" s="4">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="362" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C362" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D362" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="J362" s="3">
-        <v>8</v>
-      </c>
-      <c r="K362" t="s">
-        <v>76</v>
+        <v>689</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G362" t="s">
+        <v>690</v>
       </c>
       <c r="L362" s="3">
-        <v>306</v>
-      </c>
-      <c r="M362" s="1">
-        <v>303000</v>
-      </c>
-      <c r="Q362" s="3">
-        <v>248</v>
-      </c>
-      <c r="R362" s="3">
-        <v>5970</v>
-      </c>
-      <c r="S362" s="3">
-        <v>339.7</v>
-      </c>
-      <c r="T362" s="3">
-        <v>3305</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M362" s="1"/>
       <c r="U362" s="3">
-        <v>247.9</v>
+        <v>226.2</v>
       </c>
       <c r="V362" s="3">
-        <v>6245</v>
+        <v>6399</v>
       </c>
       <c r="W362" s="3">
-        <v>342.5</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="X362" s="3">
-        <v>3314</v>
+        <v>3371</v>
       </c>
       <c r="Z362" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA362" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB362" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD362" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="363" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C363" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D363" t="s">
-        <v>412</v>
+        <v>691</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>413</v>
+        <v>692</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="G363" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="L363" s="3">
-        <v>125</v>
+        <v>245</v>
+      </c>
+      <c r="M363" s="1">
+        <v>8000</v>
       </c>
       <c r="U363" s="3">
-        <v>137</v>
+        <v>302.3</v>
       </c>
       <c r="V363" s="3">
-        <v>7319</v>
+        <v>6386</v>
       </c>
       <c r="W363" s="3">
-        <v>134.5</v>
+        <v>424.8</v>
       </c>
       <c r="X363" s="3">
-        <v>7076</v>
+        <v>3147</v>
+      </c>
+      <c r="Z363" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="364" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C364" s="4">
-        <v>9</v>
-      </c>
-      <c r="D364" t="s">
-        <v>106</v>
-      </c>
-      <c r="E364" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="F364" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="J364" s="3">
-        <v>8</v>
-      </c>
-      <c r="L364" s="3">
-        <v>367</v>
-      </c>
-      <c r="U364" s="3">
-        <v>312.8</v>
-      </c>
-      <c r="V364" s="3">
-        <v>6550</v>
-      </c>
-      <c r="W364" s="3">
-        <v>410.4</v>
-      </c>
-      <c r="X364" s="3">
-        <v>4479</v>
-      </c>
-      <c r="Z364" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA364" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB364" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD364" s="4">
-        <v>45</v>
+      <c r="B364">
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C365" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D365" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>474</v>
+        <v>147</v>
       </c>
       <c r="G365" t="s">
-        <v>606</v>
+        <v>650</v>
+      </c>
+      <c r="K365" t="s">
+        <v>76</v>
       </c>
       <c r="L365" s="3">
-        <v>220</v>
-      </c>
-      <c r="N365" s="3">
-        <v>1981</v>
+        <v>140</v>
+      </c>
+      <c r="Q365" s="3">
+        <v>154.6</v>
+      </c>
+      <c r="R365" s="3">
+        <v>39115</v>
+      </c>
+      <c r="S365" s="3">
+        <v>367.9</v>
+      </c>
+      <c r="T365" s="3">
+        <v>2264</v>
       </c>
       <c r="U365" s="3">
-        <v>190.7</v>
+        <v>154.9</v>
       </c>
       <c r="V365" s="3">
-        <v>6165</v>
+        <v>3982</v>
       </c>
       <c r="W365" s="3">
-        <v>280.89999999999998</v>
+        <v>368.3</v>
       </c>
       <c r="X365" s="3">
-        <v>4193</v>
+        <v>2346</v>
       </c>
       <c r="Z365" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA365" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB365" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD365" s="4">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="366" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C366" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D366" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="F366" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J366" s="3">
-        <v>6</v>
+        <v>651</v>
       </c>
       <c r="L366" s="3">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="Q366" s="3">
-        <v>336.6</v>
+        <v>227.4</v>
       </c>
       <c r="R366" s="3">
-        <v>5778</v>
+        <v>5706</v>
       </c>
       <c r="S366" s="3">
-        <v>550</v>
+        <v>329.2</v>
       </c>
       <c r="T366" s="3">
-        <v>4222</v>
+        <v>3772</v>
       </c>
       <c r="U366" s="3">
-        <v>341.5</v>
+        <v>216.6</v>
       </c>
       <c r="V366" s="3">
-        <v>4394</v>
+        <v>5120</v>
       </c>
       <c r="W366" s="3">
-        <v>557.29999999999995</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="X366" s="3">
-        <v>4310</v>
-      </c>
-      <c r="Z366" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA366" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB366" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD366" s="4">
-        <v>70</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="367" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B367">
-        <v>2</v>
+      <c r="C367" s="4">
+        <v>3</v>
+      </c>
+      <c r="D367" t="s">
+        <v>44</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G367" t="s">
+        <v>653</v>
+      </c>
+      <c r="L367" s="3">
+        <v>122</v>
+      </c>
+      <c r="M367" s="1">
+        <v>197000</v>
+      </c>
+      <c r="U367" s="3">
+        <v>123.1</v>
+      </c>
+      <c r="V367" s="3">
+        <v>5319</v>
+      </c>
+      <c r="W367" s="3">
+        <v>195</v>
+      </c>
+      <c r="X367" s="3">
+        <v>3891</v>
+      </c>
+      <c r="Z367" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="368" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C368" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D368" t="s">
-        <v>528</v>
+        <v>44</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>598</v>
+        <v>654</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>208</v>
+        <v>656</v>
+      </c>
+      <c r="G368" t="s">
+        <v>655</v>
       </c>
       <c r="L368" s="3">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="Q368" s="3">
-        <v>184.2</v>
+        <v>126.6</v>
       </c>
       <c r="R368" s="3">
-        <v>6393</v>
+        <v>5245</v>
       </c>
       <c r="S368" s="3">
-        <v>236.7</v>
+        <v>225.8</v>
       </c>
       <c r="T368" s="3">
-        <v>4499</v>
+        <v>3364</v>
       </c>
       <c r="U368" s="3">
-        <v>186.4</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="V368" s="3">
-        <v>6385</v>
+        <v>5784</v>
       </c>
       <c r="W368" s="3">
-        <v>234.9</v>
+        <v>2440</v>
       </c>
       <c r="X368" s="3">
-        <v>4542</v>
+        <v>3011</v>
       </c>
       <c r="Z368" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA368" t="s">
-        <v>597</v>
-      </c>
-      <c r="AB368" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD368" s="4">
-        <v>385</v>
+        <v>47</v>
       </c>
     </row>
     <row r="369" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C369" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D369" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K369" t="s">
-        <v>76</v>
+        <v>207</v>
+      </c>
+      <c r="G369" t="s">
+        <v>657</v>
       </c>
       <c r="L369" s="3">
-        <v>220</v>
+        <v>102</v>
+      </c>
+      <c r="M369" s="1">
+        <v>550881</v>
       </c>
       <c r="Q369" s="3">
-        <v>167</v>
+        <v>90.8</v>
       </c>
       <c r="R369" s="3">
-        <v>6189</v>
+        <v>5587</v>
       </c>
       <c r="S369" s="3">
-        <v>226.7</v>
+        <v>127.1</v>
       </c>
       <c r="T369" s="3">
-        <v>3026</v>
+        <v>4187</v>
       </c>
       <c r="U369" s="3">
-        <v>167.6</v>
+        <v>97.5</v>
       </c>
       <c r="V369" s="3">
-        <v>6627</v>
+        <v>5617</v>
       </c>
       <c r="W369" s="3">
-        <v>232</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="X369" s="3">
-        <v>3046</v>
+        <v>4055</v>
       </c>
       <c r="Z369" t="s">
-        <v>599</v>
-      </c>
-      <c r="AA369" t="s">
-        <v>600</v>
-      </c>
-      <c r="AB369" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD369" s="4">
-        <v>75</v>
+        <v>152</v>
       </c>
     </row>
     <row r="370" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C370" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D370" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G370" t="s">
-        <v>606</v>
-      </c>
-      <c r="K370" t="s">
-        <v>76</v>
+        <v>607</v>
+      </c>
+      <c r="J370" s="3">
+        <v>5</v>
       </c>
       <c r="L370" s="3">
-        <v>180</v>
+        <v>133</v>
+      </c>
+      <c r="Q370" s="3">
+        <v>113.3</v>
+      </c>
+      <c r="R370" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S370" s="3">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="T370" s="3">
+        <v>3992</v>
       </c>
       <c r="U370" s="3">
-        <v>160.6</v>
+        <v>117.4</v>
       </c>
       <c r="V370" s="3">
-        <v>5334</v>
+        <v>5951</v>
       </c>
       <c r="W370" s="3">
-        <v>200.5</v>
+        <v>168.2</v>
       </c>
       <c r="X370" s="3">
-        <v>4806</v>
+        <v>3955</v>
       </c>
       <c r="Z370" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA370" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB370" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD370" s="4">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="371" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C371" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D371" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J371" s="3">
-        <v>6</v>
+        <v>661</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L371" s="3">
         <v>150</v>
       </c>
       <c r="M371" s="1">
-        <v>293000</v>
+        <v>200000</v>
       </c>
       <c r="U371" s="3">
-        <v>142.4</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="V371" s="3">
-        <v>4907</v>
+        <v>3922</v>
       </c>
       <c r="W371" s="3">
-        <v>234.4</v>
+        <v>334.3</v>
       </c>
       <c r="X371" s="3">
-        <v>3859</v>
+        <v>2422</v>
       </c>
       <c r="Z371" t="s">
-        <v>604</v>
+        <v>658</v>
       </c>
       <c r="AA371" t="s">
-        <v>605</v>
+        <v>659</v>
       </c>
       <c r="AB371" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AD371" s="4">
-        <v>413</v>
+        <v>490</v>
       </c>
     </row>
     <row r="372" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C372" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D372" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>608</v>
+        <v>662</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>207</v>
+        <v>663</v>
       </c>
       <c r="G372" t="s">
-        <v>609</v>
-      </c>
-      <c r="L372" s="3">
-        <v>120</v>
+        <v>664</v>
+      </c>
+      <c r="J372" s="3">
+        <v>8</v>
+      </c>
+      <c r="N372" s="3">
+        <v>1969</v>
       </c>
       <c r="Q372" s="3">
-        <v>122</v>
+        <v>328.3</v>
       </c>
       <c r="R372" s="3">
-        <v>6640</v>
+        <v>4379</v>
       </c>
       <c r="S372" s="3">
-        <v>149.1</v>
+        <v>552.79999999999995</v>
       </c>
       <c r="T372" s="3">
-        <v>3067</v>
+        <v>4015</v>
       </c>
       <c r="U372" s="3">
-        <v>130.1</v>
+        <v>339.5</v>
       </c>
       <c r="V372" s="3">
-        <v>6687</v>
+        <v>5125</v>
       </c>
       <c r="W372" s="3">
-        <v>154.9</v>
+        <v>559.9</v>
       </c>
       <c r="X372" s="3">
-        <v>3043</v>
-      </c>
-      <c r="Z372" t="s">
-        <v>552</v>
-      </c>
-      <c r="AA372" t="s">
-        <v>553</v>
-      </c>
-      <c r="AB372" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD372" s="4">
-        <v>120</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="373" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C373" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D373" t="s">
         <v>52</v>
       </c>
       <c r="E373" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="F373" s="2" t="s">
-        <v>373</v>
+        <v>607</v>
+      </c>
+      <c r="G373" t="s">
+        <v>667</v>
       </c>
       <c r="J373" s="3">
         <v>5</v>
       </c>
-      <c r="K373" t="s">
-        <v>76</v>
-      </c>
       <c r="L373" s="3">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="Q373" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="R373" s="3">
+        <v>5214</v>
+      </c>
+      <c r="S373" s="3">
+        <v>163</v>
+      </c>
+      <c r="T373" s="3">
+        <v>3028</v>
       </c>
       <c r="U373" s="3">
-        <v>115.1</v>
+        <v>113.6</v>
       </c>
       <c r="V373" s="3">
-        <v>6028</v>
+        <v>5412</v>
       </c>
       <c r="W373" s="3">
-        <v>169.6</v>
+        <v>169.7</v>
       </c>
       <c r="X373" s="3">
-        <v>2501</v>
+        <v>3674</v>
       </c>
       <c r="Z373" t="s">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="AA373" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC373" t="s">
-        <v>611</v>
+        <v>666</v>
+      </c>
+      <c r="AB373" t="s">
+        <v>202</v>
       </c>
       <c r="AD373" s="4">
-        <v>650</v>
+        <v>580</v>
       </c>
     </row>
     <row r="374" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C374" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D374" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>614</v>
+        <v>668</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G374" t="s">
-        <v>615</v>
+        <v>208</v>
+      </c>
+      <c r="J374" s="3">
+        <v>6</v>
       </c>
       <c r="L374" s="3">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="Q374" s="3">
-        <v>266.89999999999998</v>
+        <v>178.2</v>
       </c>
       <c r="R374" s="3">
-        <v>6022</v>
+        <v>6323</v>
       </c>
       <c r="S374" s="3">
-        <v>375.1</v>
+        <v>213.5</v>
       </c>
       <c r="T374" s="3">
-        <v>3212</v>
+        <v>5093</v>
       </c>
       <c r="U374" s="3">
-        <v>283.60000000000002</v>
+        <v>179.5</v>
       </c>
       <c r="V374" s="3">
-        <v>5525</v>
+        <v>6252</v>
       </c>
       <c r="W374" s="3">
-        <v>398.7</v>
+        <v>216.8</v>
       </c>
       <c r="X374" s="3">
-        <v>3621</v>
+        <v>5084</v>
       </c>
       <c r="Z374" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA374" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB374" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD374" s="4">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="375" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C375" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D375" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
       <c r="G375" t="s">
-        <v>618</v>
+        <v>670</v>
       </c>
       <c r="L375" s="3">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="U375" s="3">
-        <v>181</v>
+        <v>125.1</v>
       </c>
       <c r="V375" s="3">
-        <v>5896</v>
+        <v>5351</v>
       </c>
       <c r="W375" s="3">
-        <v>233</v>
+        <v>190.2</v>
       </c>
       <c r="X375" s="3">
-        <v>5296</v>
+        <v>4523</v>
       </c>
       <c r="Z375" t="s">
-        <v>616</v>
-      </c>
-      <c r="AA375" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB375" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD375" s="4">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="376" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C376" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D376" t="s">
-        <v>52</v>
+        <v>671</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>622</v>
+        <v>672</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G376" t="s">
-        <v>623</v>
-      </c>
-      <c r="J376" s="3">
-        <v>5</v>
+        <v>602</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L376" s="3">
+        <v>145</v>
+      </c>
+      <c r="Q376" s="3">
+        <v>145.6</v>
+      </c>
+      <c r="R376" s="3">
+        <v>3370</v>
+      </c>
+      <c r="S376" s="3">
+        <v>383.7</v>
+      </c>
+      <c r="T376" s="3">
+        <v>2295</v>
       </c>
       <c r="U376" s="3">
-        <v>227.8</v>
+        <v>147</v>
       </c>
       <c r="V376" s="3">
-        <v>5921</v>
+        <v>3405</v>
       </c>
       <c r="W376" s="3">
-        <v>343</v>
+        <v>386.1</v>
       </c>
       <c r="X376" s="3">
-        <v>4521</v>
+        <v>2295</v>
       </c>
       <c r="Z376" t="s">
-        <v>620</v>
-      </c>
-      <c r="AA376" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB376" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD376" s="4">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="377" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C377" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D377" t="s">
-        <v>217</v>
-      </c>
-      <c r="E377" s="4" t="s">
-        <v>626</v>
+        <v>52</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="L377" s="3">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="M377" s="1">
+        <v>300000</v>
       </c>
       <c r="U377" s="3">
-        <v>133.4</v>
+        <v>128.9</v>
       </c>
       <c r="V377" s="3">
-        <v>6587</v>
+        <v>4106</v>
       </c>
       <c r="W377" s="3">
-        <v>148.5</v>
+        <v>317.2</v>
       </c>
       <c r="X377" s="3">
-        <v>4539</v>
+        <v>2094</v>
       </c>
       <c r="Z377" t="s">
-        <v>624</v>
+        <v>673</v>
       </c>
       <c r="AA377" t="s">
-        <v>625</v>
+        <v>674</v>
       </c>
       <c r="AB377" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD377" s="4">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="378" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C378" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D378" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="F378" s="2" t="s">
-        <v>346</v>
+        <v>475</v>
       </c>
       <c r="G378" t="s">
-        <v>576</v>
-      </c>
-      <c r="H378" s="3" t="s">
-        <v>46</v>
+        <v>677</v>
       </c>
       <c r="L378" s="3">
-        <v>131</v>
+        <v>193</v>
+      </c>
+      <c r="M378" s="1">
+        <v>335000</v>
       </c>
       <c r="Q378" s="3">
-        <v>158.69999999999999</v>
+        <v>193.1</v>
       </c>
       <c r="R378" s="3">
-        <v>4020</v>
+        <v>6562</v>
       </c>
       <c r="S378" s="3">
-        <v>348.9</v>
+        <v>262</v>
       </c>
       <c r="T378" s="3">
-        <v>2359</v>
+        <v>195.3</v>
       </c>
       <c r="U378" s="3">
-        <v>160.6</v>
+        <v>195.3</v>
       </c>
       <c r="V378" s="3">
-        <v>4049</v>
+        <v>6605</v>
       </c>
       <c r="W378" s="3">
-        <v>350.3</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="X378" s="3">
-        <v>2430</v>
+        <v>3696</v>
       </c>
       <c r="Z378" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="AA378" t="s">
-        <v>628</v>
+        <v>676</v>
       </c>
       <c r="AB378" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AD378" s="4">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="379" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C379" s="4">
-        <v>12</v>
-      </c>
-      <c r="D379" t="s">
-        <v>44</v>
-      </c>
-      <c r="E379" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F379" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G379" t="s">
-        <v>576</v>
-      </c>
-      <c r="L379" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q379" s="3">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="R379" s="3">
-        <v>6258</v>
-      </c>
-      <c r="S379" s="3">
-        <v>449.1</v>
-      </c>
-      <c r="T379" s="3">
-        <v>3927</v>
-      </c>
-      <c r="U379" s="3">
-        <v>308.89999999999998</v>
-      </c>
-      <c r="V379" s="3">
-        <v>6376</v>
-      </c>
-      <c r="W379" s="3">
-        <v>447.1</v>
-      </c>
-      <c r="X379" s="3">
-        <v>3904</v>
-      </c>
-      <c r="Z379" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA379" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB379" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD379" s="4">
-        <v>45</v>
+      <c r="B379">
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C380" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>28</v>
-      </c>
-      <c r="E380" s="4" t="s">
-        <v>631</v>
+        <v>197</v>
+      </c>
+      <c r="E380" s="4">
+        <v>968</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K380" t="s">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="L380" s="3">
-        <v>193</v>
+        <v>240</v>
+      </c>
+      <c r="Q380" s="3">
+        <v>213.8</v>
+      </c>
+      <c r="R380" s="3">
+        <v>6430</v>
+      </c>
+      <c r="S380" s="3">
+        <v>272.3</v>
+      </c>
+      <c r="T380" s="3">
+        <v>4390</v>
       </c>
       <c r="U380" s="3">
+        <v>216.9</v>
+      </c>
+      <c r="V380" s="3">
+        <v>6411</v>
+      </c>
+      <c r="W380" s="3">
+        <v>276.2</v>
+      </c>
+      <c r="X380" s="3">
+        <v>4383</v>
+      </c>
+      <c r="Z380" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD380" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="381" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C381" s="4">
+        <v>2</v>
+      </c>
+      <c r="D381" t="s">
+        <v>52</v>
+      </c>
+      <c r="E381" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F381" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="W380" s="3">
-        <v>240</v>
-      </c>
-      <c r="Z380" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA380" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB380" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD380" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="381" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B381">
-        <v>1</v>
+      <c r="G381" t="s">
+        <v>634</v>
+      </c>
+      <c r="L381" s="3">
+        <v>165</v>
+      </c>
+      <c r="U381" s="3">
+        <v>205.7</v>
+      </c>
+      <c r="V381" s="3">
+        <v>5632</v>
+      </c>
+      <c r="W381" s="3">
+        <v>328.8</v>
+      </c>
+      <c r="X381" s="3">
+        <v>3799</v>
       </c>
     </row>
     <row r="382" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C382" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D382" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>585</v>
+        <v>637</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J382" s="3">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="L382" s="3">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="U382" s="3">
-        <v>196.4</v>
+        <v>243.4</v>
       </c>
       <c r="V382" s="3">
-        <v>6004</v>
+        <v>5400</v>
       </c>
       <c r="W382" s="3">
-        <v>250</v>
+        <v>354.6</v>
       </c>
       <c r="X382" s="3">
-        <v>4813</v>
+        <v>3056</v>
       </c>
       <c r="Z382" t="s">
-        <v>69</v>
+        <v>446</v>
       </c>
       <c r="AA382" t="s">
-        <v>70</v>
+        <v>447</v>
       </c>
       <c r="AB382" t="s">
         <v>42</v>
       </c>
       <c r="AD382" s="4">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="383" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C383" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D383" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>586</v>
+        <v>638</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="J383" s="3">
+        <v>5</v>
       </c>
       <c r="L383" s="3">
-        <v>160</v>
+        <v>305</v>
       </c>
       <c r="Q383" s="3">
-        <v>161.19999999999999</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="R383" s="3">
-        <v>25980</v>
+        <v>6190</v>
       </c>
       <c r="S383" s="3">
-        <v>212.9</v>
+        <v>404.5</v>
       </c>
       <c r="T383" s="3">
-        <v>4710</v>
+        <v>4616</v>
       </c>
       <c r="U383" s="3">
-        <v>162.9</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="V383" s="3">
-        <v>6026</v>
+        <v>6708</v>
       </c>
       <c r="W383" s="3">
-        <v>216.6</v>
+        <v>405.5</v>
       </c>
       <c r="X383" s="3">
-        <v>4748</v>
+        <v>4650</v>
       </c>
       <c r="Z383" t="s">
-        <v>312</v>
+        <v>446</v>
       </c>
       <c r="AA383" t="s">
-        <v>313</v>
+        <v>447</v>
       </c>
       <c r="AB383" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD383" s="4">
-        <v>180</v>
+        <v>70</v>
       </c>
     </row>
     <row r="384" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C384" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D384" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G384" t="s">
-        <v>588</v>
+        <v>206</v>
       </c>
       <c r="L384" s="3">
-        <v>250</v>
+        <v>75</v>
+      </c>
+      <c r="M384" s="1">
+        <v>226000</v>
       </c>
       <c r="Q384" s="3">
-        <v>268.3</v>
+        <v>76.5</v>
       </c>
       <c r="R384" s="3">
-        <v>5341</v>
+        <v>5116</v>
       </c>
       <c r="S384" s="3">
-        <v>440.9</v>
+        <v>115.9</v>
       </c>
       <c r="T384" s="3">
-        <v>2638</v>
+        <v>3629</v>
       </c>
       <c r="U384" s="3">
-        <v>268.2</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V384" s="3">
-        <v>5400</v>
+        <v>4943</v>
       </c>
       <c r="W384" s="3">
-        <v>448.9</v>
+        <v>115.9</v>
       </c>
       <c r="X384" s="3">
-        <v>2646</v>
+        <v>3522</v>
       </c>
       <c r="Z384" t="s">
-        <v>215</v>
+        <v>446</v>
       </c>
       <c r="AA384" t="s">
-        <v>216</v>
+        <v>447</v>
       </c>
       <c r="AB384" t="s">
         <v>42</v>
       </c>
       <c r="AD384" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="385" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C385" s="4">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>52</v>
+      </c>
+      <c r="E385" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L385" s="3">
+        <v>150</v>
+      </c>
+      <c r="U385" s="3">
+        <v>186.1</v>
+      </c>
+      <c r="V385" s="3">
+        <v>3265</v>
+      </c>
+      <c r="W385" s="3">
+        <v>451.4</v>
+      </c>
+      <c r="X385" s="3">
+        <v>2059</v>
+      </c>
+      <c r="Z385" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA385" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB385" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD385" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="386" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C386" s="4">
+        <v>7</v>
+      </c>
+      <c r="D386" t="s">
+        <v>106</v>
+      </c>
+      <c r="E386" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="J386" s="3">
+        <v>8</v>
+      </c>
+      <c r="K386" t="s">
+        <v>76</v>
+      </c>
+      <c r="L386" s="3">
+        <v>306</v>
+      </c>
+      <c r="M386" s="1">
+        <v>303000</v>
+      </c>
+      <c r="Q386" s="3">
+        <v>248</v>
+      </c>
+      <c r="R386" s="3">
+        <v>5970</v>
+      </c>
+      <c r="S386" s="3">
+        <v>339.7</v>
+      </c>
+      <c r="T386" s="3">
+        <v>3305</v>
+      </c>
+      <c r="U386" s="3">
+        <v>247.9</v>
+      </c>
+      <c r="V386" s="3">
+        <v>6245</v>
+      </c>
+      <c r="W386" s="3">
+        <v>342.5</v>
+      </c>
+      <c r="X386" s="3">
+        <v>3314</v>
+      </c>
+      <c r="Z386" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA386" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB386" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD386" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="387" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C387" s="4">
+        <v>8</v>
+      </c>
+      <c r="D387" t="s">
+        <v>412</v>
+      </c>
+      <c r="E387" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G387" t="s">
+        <v>644</v>
+      </c>
+      <c r="L387" s="3">
+        <v>125</v>
+      </c>
+      <c r="U387" s="3">
+        <v>137</v>
+      </c>
+      <c r="V387" s="3">
+        <v>7319</v>
+      </c>
+      <c r="W387" s="3">
+        <v>134.5</v>
+      </c>
+      <c r="X387" s="3">
+        <v>7076</v>
+      </c>
+    </row>
+    <row r="388" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C388" s="4">
+        <v>9</v>
+      </c>
+      <c r="D388" t="s">
+        <v>106</v>
+      </c>
+      <c r="E388" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="J388" s="3">
+        <v>8</v>
+      </c>
+      <c r="L388" s="3">
+        <v>367</v>
+      </c>
+      <c r="U388" s="3">
+        <v>312.8</v>
+      </c>
+      <c r="V388" s="3">
+        <v>6550</v>
+      </c>
+      <c r="W388" s="3">
+        <v>410.4</v>
+      </c>
+      <c r="X388" s="3">
+        <v>4479</v>
+      </c>
+      <c r="Z388" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA388" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB388" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD388" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="389" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C389" s="4">
+        <v>10</v>
+      </c>
+      <c r="D389" t="s">
+        <v>28</v>
+      </c>
+      <c r="E389" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G389" t="s">
+        <v>606</v>
+      </c>
+      <c r="L389" s="3">
+        <v>220</v>
+      </c>
+      <c r="N389" s="3">
+        <v>1981</v>
+      </c>
+      <c r="U389" s="3">
+        <v>190.7</v>
+      </c>
+      <c r="V389" s="3">
+        <v>6165</v>
+      </c>
+      <c r="W389" s="3">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="X389" s="3">
+        <v>4193</v>
+      </c>
+      <c r="Z389" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA389" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB389" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD389" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C390" s="4">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s">
+        <v>28</v>
+      </c>
+      <c r="E390" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J390" s="3">
+        <v>6</v>
+      </c>
+      <c r="L390" s="3">
+        <v>306</v>
+      </c>
+      <c r="Q390" s="3">
+        <v>336.6</v>
+      </c>
+      <c r="R390" s="3">
+        <v>5778</v>
+      </c>
+      <c r="S390" s="3">
+        <v>550</v>
+      </c>
+      <c r="T390" s="3">
+        <v>4222</v>
+      </c>
+      <c r="U390" s="3">
+        <v>341.5</v>
+      </c>
+      <c r="V390" s="3">
+        <v>4394</v>
+      </c>
+      <c r="W390" s="3">
+        <v>557.29999999999995</v>
+      </c>
+      <c r="X390" s="3">
+        <v>4310</v>
+      </c>
+      <c r="Z390" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA390" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB390" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD390" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="391" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C392" s="4">
+        <v>1</v>
+      </c>
+      <c r="D392" t="s">
+        <v>528</v>
+      </c>
+      <c r="E392" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L392" s="3">
+        <v>169</v>
+      </c>
+      <c r="Q392" s="3">
+        <v>184.2</v>
+      </c>
+      <c r="R392" s="3">
+        <v>6393</v>
+      </c>
+      <c r="S392" s="3">
+        <v>236.7</v>
+      </c>
+      <c r="T392" s="3">
+        <v>4499</v>
+      </c>
+      <c r="U392" s="3">
+        <v>186.4</v>
+      </c>
+      <c r="V392" s="3">
+        <v>6385</v>
+      </c>
+      <c r="W392" s="3">
+        <v>234.9</v>
+      </c>
+      <c r="X392" s="3">
+        <v>4542</v>
+      </c>
+      <c r="Z392" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA392" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB392" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD392" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="393" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C393" s="4">
+        <v>2</v>
+      </c>
+      <c r="D393" t="s">
+        <v>106</v>
+      </c>
+      <c r="E393" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K393" t="s">
+        <v>76</v>
+      </c>
+      <c r="L393" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q393" s="3">
+        <v>167</v>
+      </c>
+      <c r="R393" s="3">
+        <v>6189</v>
+      </c>
+      <c r="S393" s="3">
+        <v>226.7</v>
+      </c>
+      <c r="T393" s="3">
+        <v>3026</v>
+      </c>
+      <c r="U393" s="3">
+        <v>167.6</v>
+      </c>
+      <c r="V393" s="3">
+        <v>6627</v>
+      </c>
+      <c r="W393" s="3">
+        <v>232</v>
+      </c>
+      <c r="X393" s="3">
+        <v>3046</v>
+      </c>
+      <c r="Z393" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA393" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB393" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD393" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="394" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C394" s="4">
+        <v>3</v>
+      </c>
+      <c r="D394" t="s">
+        <v>106</v>
+      </c>
+      <c r="E394" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G394" t="s">
+        <v>606</v>
+      </c>
+      <c r="K394" t="s">
+        <v>76</v>
+      </c>
+      <c r="L394" s="3">
+        <v>180</v>
+      </c>
+      <c r="U394" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V394" s="3">
+        <v>5334</v>
+      </c>
+      <c r="W394" s="3">
+        <v>200.5</v>
+      </c>
+      <c r="X394" s="3">
+        <v>4806</v>
+      </c>
+      <c r="Z394" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA394" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB394" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD394" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C395" s="4">
+        <v>4</v>
+      </c>
+      <c r="D395" t="s">
+        <v>52</v>
+      </c>
+      <c r="E395" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J395" s="3">
+        <v>6</v>
+      </c>
+      <c r="L395" s="3">
+        <v>150</v>
+      </c>
+      <c r="M395" s="1">
+        <v>293000</v>
+      </c>
+      <c r="U395" s="3">
+        <v>142.4</v>
+      </c>
+      <c r="V395" s="3">
+        <v>4907</v>
+      </c>
+      <c r="W395" s="3">
+        <v>234.4</v>
+      </c>
+      <c r="X395" s="3">
+        <v>3859</v>
+      </c>
+      <c r="Z395" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA395" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB395" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD395" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="396" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C396" s="4">
+        <v>5</v>
+      </c>
+      <c r="D396" t="s">
+        <v>44</v>
+      </c>
+      <c r="E396" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G396" t="s">
+        <v>609</v>
+      </c>
+      <c r="L396" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q396" s="3">
+        <v>122</v>
+      </c>
+      <c r="R396" s="3">
+        <v>6640</v>
+      </c>
+      <c r="S396" s="3">
+        <v>149.1</v>
+      </c>
+      <c r="T396" s="3">
+        <v>3067</v>
+      </c>
+      <c r="U396" s="3">
+        <v>130.1</v>
+      </c>
+      <c r="V396" s="3">
+        <v>6687</v>
+      </c>
+      <c r="W396" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="X396" s="3">
+        <v>3043</v>
+      </c>
+      <c r="Z396" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA396" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB396" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD396" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="397" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C397" s="4">
+        <v>6</v>
+      </c>
+      <c r="D397" t="s">
+        <v>52</v>
+      </c>
+      <c r="E397" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J397" s="3">
+        <v>5</v>
+      </c>
+      <c r="K397" t="s">
+        <v>76</v>
+      </c>
+      <c r="L397" s="3">
+        <v>136</v>
+      </c>
+      <c r="U397" s="3">
+        <v>115.1</v>
+      </c>
+      <c r="V397" s="3">
+        <v>6028</v>
+      </c>
+      <c r="W397" s="3">
+        <v>169.6</v>
+      </c>
+      <c r="X397" s="3">
+        <v>2501</v>
+      </c>
+      <c r="Z397" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA397" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC397" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD397" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="398" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C398" s="4">
+        <v>7</v>
+      </c>
+      <c r="D398" t="s">
+        <v>217</v>
+      </c>
+      <c r="E398" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G398" t="s">
+        <v>615</v>
+      </c>
+      <c r="L398" s="3">
+        <v>265</v>
+      </c>
+      <c r="Q398" s="3">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="R398" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S398" s="3">
+        <v>375.1</v>
+      </c>
+      <c r="T398" s="3">
+        <v>3212</v>
+      </c>
+      <c r="U398" s="3">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="V398" s="3">
+        <v>5525</v>
+      </c>
+      <c r="W398" s="3">
+        <v>398.7</v>
+      </c>
+      <c r="X398" s="3">
+        <v>3621</v>
+      </c>
+      <c r="Z398" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA398" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB398" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD398" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="399" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C399" s="4">
+        <v>8</v>
+      </c>
+      <c r="D399" t="s">
+        <v>28</v>
+      </c>
+      <c r="E399" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G399" t="s">
+        <v>618</v>
+      </c>
+      <c r="L399" s="3">
+        <v>129</v>
+      </c>
+      <c r="U399" s="3">
+        <v>181</v>
+      </c>
+      <c r="V399" s="3">
+        <v>5896</v>
+      </c>
+      <c r="W399" s="3">
+        <v>233</v>
+      </c>
+      <c r="X399" s="3">
+        <v>5296</v>
+      </c>
+      <c r="Z399" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA399" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB399" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD399" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="400" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C400" s="4">
+        <v>9</v>
+      </c>
+      <c r="D400" t="s">
+        <v>52</v>
+      </c>
+      <c r="E400" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G400" t="s">
+        <v>623</v>
+      </c>
+      <c r="J400" s="3">
+        <v>5</v>
+      </c>
+      <c r="U400" s="3">
+        <v>227.8</v>
+      </c>
+      <c r="V400" s="3">
+        <v>5921</v>
+      </c>
+      <c r="W400" s="3">
+        <v>343</v>
+      </c>
+      <c r="X400" s="3">
+        <v>4521</v>
+      </c>
+      <c r="Z400" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA400" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB400" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD400" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="401" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C401" s="4">
+        <v>10</v>
+      </c>
+      <c r="D401" t="s">
+        <v>217</v>
+      </c>
+      <c r="E401" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="L401" s="3">
+        <v>135</v>
+      </c>
+      <c r="U401" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="V401" s="3">
+        <v>6587</v>
+      </c>
+      <c r="W401" s="3">
+        <v>148.5</v>
+      </c>
+      <c r="X401" s="3">
+        <v>4539</v>
+      </c>
+      <c r="Z401" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA401" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB401" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD401" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="402" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C402" s="4">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s">
+        <v>36</v>
+      </c>
+      <c r="E402" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G402" t="s">
+        <v>576</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L402" s="3">
+        <v>131</v>
+      </c>
+      <c r="Q402" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R402" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S402" s="3">
+        <v>348.9</v>
+      </c>
+      <c r="T402" s="3">
+        <v>2359</v>
+      </c>
+      <c r="U402" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V402" s="3">
+        <v>4049</v>
+      </c>
+      <c r="W402" s="3">
+        <v>350.3</v>
+      </c>
+      <c r="X402" s="3">
+        <v>2430</v>
+      </c>
+      <c r="Z402" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA402" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB402" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD402" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="403" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C403" s="4">
+        <v>12</v>
+      </c>
+      <c r="D403" t="s">
+        <v>44</v>
+      </c>
+      <c r="E403" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G403" t="s">
+        <v>576</v>
+      </c>
+      <c r="L403" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q403" s="3">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R403" s="3">
+        <v>6258</v>
+      </c>
+      <c r="S403" s="3">
+        <v>449.1</v>
+      </c>
+      <c r="T403" s="3">
+        <v>3927</v>
+      </c>
+      <c r="U403" s="3">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="V403" s="3">
+        <v>6376</v>
+      </c>
+      <c r="W403" s="3">
+        <v>447.1</v>
+      </c>
+      <c r="X403" s="3">
+        <v>3904</v>
+      </c>
+      <c r="Z403" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA403" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB403" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD403" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="404" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C404" s="4">
+        <v>13</v>
+      </c>
+      <c r="D404" t="s">
+        <v>28</v>
+      </c>
+      <c r="E404" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K404" t="s">
+        <v>76</v>
+      </c>
+      <c r="L404" s="3">
+        <v>193</v>
+      </c>
+      <c r="U404" s="3">
+        <v>205</v>
+      </c>
+      <c r="W404" s="3">
+        <v>240</v>
+      </c>
+      <c r="Z404" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA404" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB404" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD404" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C385" s="4">
+    <row r="405" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C406" s="4">
+        <v>1</v>
+      </c>
+      <c r="D406" t="s">
+        <v>28</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J406" s="3">
+        <v>6</v>
+      </c>
+      <c r="L406" s="3">
+        <v>193</v>
+      </c>
+      <c r="U406" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V406" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W406" s="3">
+        <v>250</v>
+      </c>
+      <c r="X406" s="3">
+        <v>4813</v>
+      </c>
+      <c r="Z406" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA406" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB406" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD406" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="407" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C407" s="4">
+        <v>2</v>
+      </c>
+      <c r="D407" t="s">
+        <v>44</v>
+      </c>
+      <c r="E407" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L407" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q407" s="3">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="R407" s="3">
+        <v>25980</v>
+      </c>
+      <c r="S407" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="T407" s="3">
+        <v>4710</v>
+      </c>
+      <c r="U407" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="V407" s="3">
+        <v>6026</v>
+      </c>
+      <c r="W407" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="X407" s="3">
+        <v>4748</v>
+      </c>
+      <c r="Z407" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA407" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB407" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD407" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="408" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C408" s="4">
+        <v>3</v>
+      </c>
+      <c r="D408" t="s">
+        <v>38</v>
+      </c>
+      <c r="E408" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G408" t="s">
+        <v>588</v>
+      </c>
+      <c r="L408" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q408" s="3">
+        <v>268.3</v>
+      </c>
+      <c r="R408" s="3">
+        <v>5341</v>
+      </c>
+      <c r="S408" s="3">
+        <v>440.9</v>
+      </c>
+      <c r="T408" s="3">
+        <v>2638</v>
+      </c>
+      <c r="U408" s="3">
+        <v>268.2</v>
+      </c>
+      <c r="V408" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W408" s="3">
+        <v>448.9</v>
+      </c>
+      <c r="X408" s="3">
+        <v>2646</v>
+      </c>
+      <c r="Z408" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA408" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB408" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD408" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="409" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C409" s="4">
         <v>4</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D409" t="s">
         <v>44</v>
       </c>
-      <c r="E385" s="4" t="s">
+      <c r="E409" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="F385" s="2" t="s">
+      <c r="F409" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G385" t="s">
+      <c r="G409" t="s">
         <v>590</v>
       </c>
-      <c r="L385" s="3">
+      <c r="L409" s="3">
         <v>139</v>
       </c>
-      <c r="N385" s="3">
+      <c r="N409" s="3">
         <v>1986</v>
       </c>
-      <c r="Q385" s="3">
+      <c r="Q409" s="3">
         <v>209.1</v>
       </c>
-      <c r="R385" s="3">
+      <c r="R409" s="3">
         <v>7791</v>
       </c>
-      <c r="S385" s="3">
+      <c r="S409" s="3">
         <v>212</v>
       </c>
-      <c r="T385" s="3">
+      <c r="T409" s="3">
         <v>5755</v>
       </c>
-      <c r="U385" s="3">
+      <c r="U409" s="3">
         <v>208</v>
       </c>
-      <c r="V385" s="3">
+      <c r="V409" s="3">
         <v>7966</v>
       </c>
-      <c r="W385" s="3">
+      <c r="W409" s="3">
         <v>213.2</v>
       </c>
-      <c r="X385" s="3">
+      <c r="X409" s="3">
         <v>5807</v>
       </c>
     </row>
-    <row r="386" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C386" s="4">
+    <row r="410" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C410" s="4">
         <v>5</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D410" t="s">
         <v>44</v>
       </c>
-      <c r="E386" s="4" t="s">
+      <c r="E410" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="F386" s="2" t="s">
+      <c r="F410" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G386" t="s">
+      <c r="G410" t="s">
         <v>594</v>
       </c>
-      <c r="L386" s="3">
+      <c r="L410" s="3">
         <v>85</v>
       </c>
-      <c r="Q386" s="3">
+      <c r="Q410" s="3">
         <v>98.4</v>
       </c>
-      <c r="R386" s="3">
+      <c r="R410" s="3">
         <v>5085</v>
       </c>
-      <c r="S386" s="3">
+      <c r="S410" s="3">
         <v>160.1</v>
       </c>
-      <c r="T386" s="3">
+      <c r="T410" s="3">
         <v>3668</v>
       </c>
-      <c r="U386" s="3">
+      <c r="U410" s="3">
         <v>96.9</v>
       </c>
-      <c r="V386" s="3">
+      <c r="V410" s="3">
         <v>4993</v>
       </c>
-      <c r="W386" s="3">
+      <c r="W410" s="3">
         <v>159.5</v>
       </c>
-      <c r="X386" s="3">
+      <c r="X410" s="3">
         <v>3305</v>
       </c>
-      <c r="Z386" t="s">
+      <c r="Z410" t="s">
         <v>591</v>
       </c>
-      <c r="AA386" t="s">
+      <c r="AA410" t="s">
         <v>592</v>
       </c>
-      <c r="AB386" t="s">
+      <c r="AB410" t="s">
         <v>112</v>
       </c>
-      <c r="AD386" s="4">
+      <c r="AD410" s="4">
         <v>280</v>
       </c>
     </row>
-    <row r="387" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C387" s="4">
+    <row r="411" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C411" s="4">
         <v>6</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D411" t="s">
         <v>178</v>
       </c>
-      <c r="E387" s="4" t="s">
+      <c r="E411" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F387" s="2" t="s">
+      <c r="F411" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G387" t="s">
+      <c r="G411" t="s">
         <v>595</v>
       </c>
-      <c r="L387" s="3">
+      <c r="L411" s="3">
         <v>116</v>
       </c>
-      <c r="M387" s="1">
+      <c r="M411" s="1">
         <v>325000</v>
       </c>
-      <c r="Q387" s="3">
+      <c r="Q411" s="3">
         <v>109.7</v>
       </c>
-      <c r="R387" s="3">
+      <c r="R411" s="3">
         <v>6570</v>
       </c>
-      <c r="S387" s="3">
+      <c r="S411" s="3">
         <v>130</v>
       </c>
-      <c r="T387" s="3">
+      <c r="T411" s="3">
         <v>5181</v>
       </c>
-      <c r="U387" s="3">
+      <c r="U411" s="3">
         <v>111.1</v>
       </c>
-      <c r="V387" s="3">
+      <c r="V411" s="3">
         <v>6500</v>
       </c>
-      <c r="W387" s="3">
+      <c r="W411" s="3">
         <v>132.30000000000001</v>
       </c>
-      <c r="X387" s="3">
+      <c r="X411" s="3">
         <v>5179</v>
       </c>
-      <c r="Z387" t="s">
+      <c r="Z411" t="s">
         <v>47</v>
       </c>
-      <c r="AA387" t="s">
+      <c r="AA411" t="s">
         <v>48</v>
       </c>
-      <c r="AB387" t="s">
+      <c r="AB411" t="s">
         <v>42</v>
       </c>
-      <c r="AD387" s="4">
+      <c r="AD411" s="4">
         <v>36</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA28A9B-4E09-433A-BA1F-8D606D705D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A9B881-6CB6-41CA-B142-3E6A8E757F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="827">
   <si>
     <t>Episode</t>
   </si>
@@ -2408,6 +2408,99 @@
   </si>
   <si>
     <t>Chiptuning, Ladelüftkühler</t>
+  </si>
+  <si>
+    <t>LIP</t>
+  </si>
+  <si>
+    <t>Lippe</t>
+  </si>
+  <si>
+    <t>Weber Doppelvergaser, Nockenwelle</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Detmold</t>
+  </si>
+  <si>
+    <t>(E46) 330i Touring</t>
+  </si>
+  <si>
+    <t>1. Messung mit Strassenzulassung, 2. Messung mit Rennstrecken abstimmung</t>
+  </si>
+  <si>
+    <t>Nockenwelle, Ansaugbrücke</t>
+  </si>
+  <si>
+    <t>LDK</t>
+  </si>
+  <si>
+    <t>Golf I Cabriolet Turbo</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>Delmenhorst</t>
+  </si>
+  <si>
+    <t>Manta (A) GT/E</t>
+  </si>
+  <si>
+    <t>WOH</t>
+  </si>
+  <si>
+    <t>Wolfhagen</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Golf II (10 Millionen)</t>
+  </si>
+  <si>
+    <t>Ascona( C ) GLS</t>
+  </si>
+  <si>
+    <t>Hilux TD</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>Diepholz</t>
+  </si>
+  <si>
+    <t>Spitfire</t>
+  </si>
+  <si>
+    <t>Triumph</t>
+  </si>
+  <si>
+    <t>Golf II 16V</t>
+  </si>
+  <si>
+    <t>Oettinger</t>
+  </si>
+  <si>
+    <t>Golf III TDI</t>
+  </si>
+  <si>
+    <t>Radleisung</t>
+  </si>
+  <si>
+    <t>(E30) 320is</t>
+  </si>
+  <si>
+    <t>Italo-M3</t>
+  </si>
+  <si>
+    <t>320is</t>
+  </si>
+  <si>
+    <t>Aufgebort auf 2.5l, Radleistung, 1.Messung mit Lüfter</t>
   </si>
 </sst>
 </file>
@@ -3259,10 +3352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE419"/>
+  <dimension ref="A1:AE435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12591,669 +12684,791 @@
         <v>10</v>
       </c>
     </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B299">
-        <v>9</v>
+      <c r="C299" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C300" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C301" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C302" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C303" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C304" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C305" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C306" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C307" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="308" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C308" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B309">
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C309" s="4">
-        <v>10</v>
+    <row r="310" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C310" s="4">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>36</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G310" t="s">
+        <v>798</v>
+      </c>
+      <c r="L310" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q310" s="3">
+        <v>139.6</v>
+      </c>
+      <c r="R310" s="3">
+        <v>5505</v>
+      </c>
+      <c r="S310" s="3">
+        <v>183.1</v>
+      </c>
+      <c r="T310" s="3">
+        <v>5132</v>
+      </c>
+      <c r="U310" s="3">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="V310" s="3">
+        <v>5883</v>
+      </c>
+      <c r="W310" s="3">
+        <v>182.6</v>
+      </c>
+      <c r="X310" s="3">
+        <v>4890</v>
+      </c>
+      <c r="Z310" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B311">
-        <v>8</v>
+      <c r="C311" s="4">
+        <v>2</v>
+      </c>
+      <c r="D311" t="s">
+        <v>52</v>
+      </c>
+      <c r="E311" s="4">
+        <v>90</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J311" s="3">
+        <v>5</v>
+      </c>
+      <c r="L311" s="3">
+        <v>136</v>
+      </c>
+      <c r="M311" s="1">
+        <v>67120</v>
+      </c>
+      <c r="U311" s="3">
+        <v>124.7</v>
+      </c>
+      <c r="V311" s="3">
+        <v>5532</v>
+      </c>
+      <c r="W311" s="3">
+        <v>178.1</v>
+      </c>
+      <c r="X311" s="3">
+        <v>4061</v>
+      </c>
+      <c r="Z311" t="s">
+        <v>796</v>
+      </c>
+      <c r="AA311" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB311" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD311" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C312" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D312" t="s">
-        <v>755</v>
-      </c>
-      <c r="E312" s="5" t="s">
-        <v>756</v>
+        <v>36</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="L312" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q312" s="3">
-        <v>198.5</v>
-      </c>
-      <c r="R312" s="3">
-        <v>5691</v>
-      </c>
-      <c r="S312" s="3">
-        <v>309.7</v>
-      </c>
-      <c r="T312" s="3">
-        <v>3550</v>
+        <v>90</v>
+      </c>
+      <c r="N312" s="3">
+        <v>1978</v>
       </c>
       <c r="U312" s="3">
-        <v>198.5</v>
+        <v>97.6</v>
       </c>
       <c r="V312" s="3">
-        <v>5691</v>
+        <v>4817</v>
       </c>
       <c r="W312" s="3">
-        <v>310</v>
+        <v>150.9</v>
       </c>
       <c r="X312" s="3">
-        <v>3550</v>
+        <v>4323</v>
       </c>
       <c r="Z312" t="s">
-        <v>757</v>
+        <v>799</v>
       </c>
       <c r="AA312" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="AB312" t="s">
         <v>42</v>
       </c>
       <c r="AD312" s="4">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="313" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C313" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D313" t="s">
-        <v>755</v>
+        <v>28</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>762</v>
+        <v>801</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>761</v>
+        <v>463</v>
       </c>
       <c r="L313" s="3">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="Q313" s="3">
+        <v>213.7</v>
+      </c>
+      <c r="R313" s="3">
+        <v>6315</v>
+      </c>
+      <c r="S313" s="3">
+        <v>273.3</v>
+      </c>
+      <c r="T313" s="3">
+        <v>3658</v>
       </c>
       <c r="U313" s="3">
-        <v>202.2</v>
+        <v>217.7</v>
       </c>
       <c r="V313" s="3">
-        <v>6248</v>
+        <v>6263</v>
       </c>
       <c r="W313" s="3">
-        <v>285.5</v>
+        <v>277.3</v>
       </c>
       <c r="X313" s="3">
-        <v>2321</v>
+        <v>3782</v>
       </c>
       <c r="Z313" t="s">
-        <v>759</v>
-      </c>
-      <c r="AA313" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB313" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD313" s="4">
-        <v>440</v>
+        <v>796</v>
       </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C314" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D314" t="s">
-        <v>44</v>
+        <v>528</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>95</v>
+        <v>598</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>208</v>
       </c>
       <c r="G314" t="s">
-        <v>495</v>
+        <v>802</v>
       </c>
       <c r="L314" s="3">
-        <v>98</v>
+        <v>169</v>
+      </c>
+      <c r="Q314" s="3">
+        <v>193.6</v>
+      </c>
+      <c r="R314" s="3">
+        <v>6975</v>
+      </c>
+      <c r="S314" s="3">
+        <v>198</v>
+      </c>
+      <c r="T314" s="3">
+        <v>6812</v>
       </c>
       <c r="U314" s="3">
-        <v>110.8</v>
+        <v>260.10000000000002</v>
       </c>
       <c r="V314" s="3">
-        <v>5532</v>
+        <v>7050</v>
       </c>
       <c r="W314" s="3">
-        <v>157.5</v>
+        <v>270</v>
       </c>
       <c r="X314" s="3">
-        <v>4544</v>
-      </c>
-      <c r="Z314" t="s">
-        <v>728</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C315" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D315" t="s">
-        <v>28</v>
-      </c>
-      <c r="E315" s="4" t="s">
-        <v>763</v>
+        <v>52</v>
+      </c>
+      <c r="E315" s="4">
+        <v>90</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>463</v>
+        <v>373</v>
+      </c>
+      <c r="G315" t="s">
+        <v>803</v>
+      </c>
+      <c r="J315" s="3">
+        <v>5</v>
       </c>
       <c r="L315" s="3">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="U315" s="3">
-        <v>220.2</v>
+        <v>133.9</v>
       </c>
       <c r="V315" s="3">
-        <v>6391</v>
+        <v>5159</v>
       </c>
       <c r="W315" s="3">
-        <v>277.10000000000002</v>
+        <v>196.7</v>
       </c>
       <c r="X315" s="3">
-        <v>4838</v>
+        <v>4218</v>
       </c>
       <c r="Z315" t="s">
-        <v>750</v>
+        <v>804</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD315" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="316" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C316" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D316" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>413</v>
+        <v>805</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G316" t="s">
-        <v>764</v>
+        <v>208</v>
       </c>
       <c r="L316" s="3">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="U316" s="3">
-        <v>99.3</v>
+        <v>232.8</v>
       </c>
       <c r="V316" s="3">
-        <v>6677</v>
+        <v>5634</v>
       </c>
       <c r="W316" s="3">
-        <v>118.9</v>
+        <v>339.4</v>
       </c>
       <c r="X316" s="3">
-        <v>5117</v>
+        <v>3984</v>
       </c>
       <c r="Z316" t="s">
-        <v>330</v>
+        <v>796</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C317" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D317" t="s">
-        <v>755</v>
-      </c>
-      <c r="J317" s="3">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L317" s="3">
-        <v>133</v>
-      </c>
-      <c r="M317" s="1">
-        <v>408000</v>
+        <v>110</v>
+      </c>
+      <c r="Q317" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="R317" s="3">
+        <v>6004</v>
+      </c>
+      <c r="S317" s="3">
+        <v>128</v>
+      </c>
+      <c r="T317" s="3">
+        <v>5335</v>
       </c>
       <c r="U317" s="3">
-        <v>113.3</v>
+        <v>110.9</v>
       </c>
       <c r="V317" s="3">
-        <v>5488</v>
+        <v>6327</v>
       </c>
       <c r="W317" s="3">
-        <v>159.9</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="X317" s="3">
-        <v>4086</v>
+        <v>5208</v>
       </c>
       <c r="Z317" t="s">
-        <v>765</v>
+        <v>806</v>
       </c>
       <c r="AA317" t="s">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="AB317" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="AD317" s="4">
-        <v>500</v>
+        <v>220</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C318" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D318" t="s">
         <v>44</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="G318" t="s">
-        <v>320</v>
+        <v>811</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L318" s="3">
+        <v>113</v>
       </c>
       <c r="U318" s="3">
-        <v>167.7</v>
+        <v>133.6</v>
       </c>
       <c r="V318" s="3">
-        <v>6970</v>
+        <v>6033</v>
       </c>
       <c r="W318" s="3">
-        <v>193.3</v>
+        <v>186.4</v>
       </c>
       <c r="X318" s="3">
-        <v>5425</v>
+        <v>3938</v>
       </c>
       <c r="Z318" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="AA318" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
       <c r="AB318" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AD318" s="4">
-        <v>280</v>
+        <v>150</v>
       </c>
     </row>
     <row r="319" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C319" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D319" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="L319" s="3">
-        <v>143</v>
+        <v>90</v>
+      </c>
+      <c r="M319" s="1">
+        <v>150000</v>
       </c>
       <c r="U319" s="3">
-        <v>143.9</v>
+        <v>89.6</v>
       </c>
       <c r="V319" s="3">
-        <v>6452</v>
+        <v>5695</v>
       </c>
       <c r="W319" s="3">
-        <v>185</v>
+        <v>138.4</v>
       </c>
       <c r="X319" s="3">
-        <v>4607</v>
+        <v>3460</v>
       </c>
       <c r="Z319" t="s">
-        <v>392</v>
+        <v>229</v>
       </c>
     </row>
     <row r="320" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C320" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D320" t="s">
         <v>36</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="G320" t="s">
-        <v>772</v>
+        <v>207</v>
       </c>
       <c r="K320" t="s">
         <v>76</v>
       </c>
       <c r="L320" s="3">
-        <v>150</v>
+        <v>75</v>
+      </c>
+      <c r="M320" s="1">
+        <v>46000</v>
       </c>
       <c r="Q320" s="3">
-        <v>120.4</v>
+        <v>69.2</v>
       </c>
       <c r="R320" s="3">
-        <v>5218</v>
+        <v>5864</v>
       </c>
       <c r="S320" s="3">
-        <v>179.6</v>
+        <v>104.4</v>
       </c>
       <c r="T320" s="3">
-        <v>4313</v>
-      </c>
-      <c r="U320" s="3">
-        <v>120.5</v>
-      </c>
-      <c r="V320" s="3">
-        <v>5218</v>
-      </c>
-      <c r="W320" s="3">
-        <v>176.7</v>
-      </c>
-      <c r="X320" s="3">
-        <v>4385</v>
+        <v>3564</v>
       </c>
       <c r="Z320" t="s">
-        <v>324</v>
+        <v>242</v>
       </c>
     </row>
     <row r="321" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C321" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D321" t="s">
-        <v>114</v>
-      </c>
-      <c r="E321" s="4">
-        <v>155</v>
+        <v>178</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="G321" t="s">
-        <v>320</v>
+        <v>650</v>
       </c>
       <c r="L321" s="3">
-        <v>150</v>
+        <v>102</v>
+      </c>
+      <c r="N321" s="3">
+        <v>2002</v>
+      </c>
+      <c r="Q321" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="R321" s="3">
+        <v>3087</v>
+      </c>
+      <c r="S321" s="3">
+        <v>261.8</v>
+      </c>
+      <c r="T321" s="3">
+        <v>2356</v>
       </c>
       <c r="U321" s="3">
-        <v>150.5</v>
+        <v>98</v>
       </c>
       <c r="V321" s="3">
-        <v>6299</v>
+        <v>3080</v>
       </c>
       <c r="W321" s="3">
-        <v>176.1</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="X321" s="3">
-        <v>3586</v>
+        <v>2341</v>
       </c>
       <c r="Z321" t="s">
-        <v>195</v>
+        <v>430</v>
       </c>
     </row>
     <row r="322" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C322" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>818</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>775</v>
+        <v>817</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="J322" s="3">
-        <v>6</v>
+        <v>733</v>
       </c>
       <c r="L322" s="3">
-        <v>272</v>
-      </c>
-      <c r="Q322" s="3">
-        <v>246.6</v>
-      </c>
-      <c r="R322" s="3">
-        <v>6838</v>
-      </c>
-      <c r="S322" s="3">
-        <v>289.8</v>
-      </c>
-      <c r="T322" s="3">
-        <v>3138</v>
+        <v>69</v>
       </c>
       <c r="U322" s="3">
-        <v>238.8</v>
+        <v>70.3</v>
       </c>
       <c r="V322" s="3">
-        <v>6693</v>
+        <v>5556</v>
       </c>
       <c r="W322" s="3">
-        <v>279.89999999999998</v>
+        <v>111.7</v>
       </c>
       <c r="X322" s="3">
-        <v>3111</v>
+        <v>2739</v>
       </c>
       <c r="Z322" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="AA322" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="AB322" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="AD322" s="4">
-        <v>445</v>
+        <v>170</v>
       </c>
     </row>
     <row r="323" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C323" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D323" t="s">
-        <v>778</v>
+        <v>44</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>779</v>
+        <v>819</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>733</v>
+        <v>147</v>
+      </c>
+      <c r="G323" t="s">
+        <v>820</v>
       </c>
       <c r="L323" s="3">
-        <v>109</v>
+        <v>182</v>
+      </c>
+      <c r="M323" s="1">
+        <v>170000</v>
       </c>
       <c r="U323" s="3">
-        <v>117.5</v>
+        <v>171.8</v>
       </c>
       <c r="V323" s="3">
-        <v>6165</v>
+        <v>6692</v>
       </c>
       <c r="W323" s="3">
-        <v>154</v>
+        <v>194.2</v>
       </c>
       <c r="X323" s="3">
-        <v>4153</v>
+        <v>5405</v>
       </c>
       <c r="Z323" t="s">
-        <v>776</v>
-      </c>
-      <c r="AA323" t="s">
-        <v>777</v>
-      </c>
-      <c r="AB323" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD323" s="4">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C324" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D324" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>780</v>
+        <v>821</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>147</v>
+        <v>342</v>
+      </c>
+      <c r="G324" t="s">
+        <v>822</v>
       </c>
       <c r="L324" s="3">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="Q324" s="3">
+        <v>133.9</v>
+      </c>
+      <c r="R324" s="3">
+        <v>3748</v>
+      </c>
+      <c r="S324" s="3">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="T324" s="3">
+        <v>2934</v>
       </c>
       <c r="U324" s="3">
-        <v>108.5</v>
+        <v>117</v>
       </c>
       <c r="V324" s="3">
-        <v>6081</v>
+        <v>3393</v>
       </c>
       <c r="W324" s="3">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="X324" s="3">
-        <v>3991</v>
+        <v>2887</v>
+      </c>
+      <c r="Z324" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="325" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C325" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D325" t="s">
         <v>28</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>783</v>
+        <v>823</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>373</v>
+        <v>147</v>
+      </c>
+      <c r="G325" t="s">
+        <v>824</v>
       </c>
       <c r="L325" s="3">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="U325" s="3">
-        <v>168.9</v>
+        <v>171.1</v>
       </c>
       <c r="V325" s="3">
-        <v>5778</v>
+        <v>7187</v>
       </c>
       <c r="W325" s="3">
-        <v>223.1</v>
+        <v>186.1</v>
       </c>
       <c r="X325" s="3">
-        <v>4721</v>
+        <v>5015</v>
       </c>
       <c r="Z325" t="s">
-        <v>781</v>
-      </c>
-      <c r="AA325" t="s">
-        <v>782</v>
-      </c>
-      <c r="AB325" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD325" s="4">
-        <v>30</v>
+        <v>438</v>
       </c>
     </row>
     <row r="326" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C326" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D326" t="s">
         <v>28</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>786</v>
+        <v>825</v>
       </c>
       <c r="F326" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G326" t="s">
+        <v>826</v>
+      </c>
+      <c r="L326" s="3">
+        <v>192</v>
+      </c>
+      <c r="Q326" s="3">
+        <v>225.1</v>
+      </c>
+      <c r="R326" s="3">
+        <v>7656</v>
+      </c>
+      <c r="S326" s="3">
+        <v>225.3</v>
+      </c>
+      <c r="T326" s="3">
+        <v>6129</v>
+      </c>
+      <c r="U326" s="3">
         <v>211</v>
       </c>
-      <c r="L326" s="3">
-        <v>170</v>
-      </c>
-      <c r="U326" s="3">
-        <v>171</v>
-      </c>
       <c r="V326" s="3">
-        <v>6157</v>
+        <v>7226</v>
       </c>
       <c r="W326" s="3">
-        <v>213.7</v>
+        <v>223.4</v>
       </c>
       <c r="X326" s="3">
-        <v>5203</v>
-      </c>
-      <c r="Z326" t="s">
-        <v>784</v>
-      </c>
-      <c r="AA326" t="s">
-        <v>785</v>
-      </c>
-      <c r="AB326" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD326" s="4">
-        <v>250</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="327" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B327">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="2:30" x14ac:dyDescent="0.25">
@@ -13261,46 +13476,52 @@
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>52</v>
-      </c>
-      <c r="E328" s="4" t="s">
-        <v>718</v>
+        <v>755</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>756</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J328" s="3">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="L328" s="3">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="Q328" s="3">
-        <v>123</v>
+        <v>198.5</v>
       </c>
       <c r="R328" s="3">
-        <v>5022</v>
+        <v>5691</v>
       </c>
       <c r="S328" s="3">
-        <v>201.8</v>
+        <v>309.7</v>
       </c>
       <c r="T328" s="3">
-        <v>3539</v>
+        <v>3550</v>
       </c>
       <c r="U328" s="3">
-        <v>121.3</v>
+        <v>198.5</v>
       </c>
       <c r="V328" s="3">
-        <v>4886</v>
+        <v>5691</v>
       </c>
       <c r="W328" s="3">
-        <v>198.9</v>
+        <v>310</v>
       </c>
       <c r="X328" s="3">
-        <v>3255</v>
+        <v>3550</v>
       </c>
       <c r="Z328" t="s">
-        <v>523</v>
+        <v>757</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB328" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD328" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="2:30" x14ac:dyDescent="0.25">
@@ -13308,46 +13529,40 @@
         <v>2</v>
       </c>
       <c r="D329" t="s">
-        <v>28</v>
+        <v>755</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>719</v>
+        <v>762</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G329" t="s">
-        <v>720</v>
+        <v>761</v>
       </c>
       <c r="L329" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q329" s="3">
-        <v>139.30000000000001</v>
-      </c>
-      <c r="R329" s="3">
-        <v>5962</v>
-      </c>
-      <c r="S329" s="3">
-        <v>187.8</v>
-      </c>
-      <c r="T329" s="3">
-        <v>4474</v>
+        <v>230</v>
       </c>
       <c r="U329" s="3">
-        <v>140.80000000000001</v>
+        <v>202.2</v>
       </c>
       <c r="V329" s="3">
-        <v>5991</v>
+        <v>6248</v>
       </c>
       <c r="W329" s="3">
-        <v>190.9</v>
+        <v>285.5</v>
       </c>
       <c r="X329" s="3">
-        <v>4443</v>
+        <v>2321</v>
       </c>
       <c r="Z329" t="s">
-        <v>195</v>
+        <v>759</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB329" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD329" s="4">
+        <v>440</v>
       </c>
     </row>
     <row r="330" spans="2:30" x14ac:dyDescent="0.25">
@@ -13358,28 +13573,31 @@
         <v>44</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>531</v>
+        <v>95</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>346</v>
+        <v>208</v>
+      </c>
+      <c r="G330" t="s">
+        <v>495</v>
       </c>
       <c r="L330" s="3">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="U330" s="3">
-        <v>64.3</v>
+        <v>110.8</v>
       </c>
       <c r="V330" s="3">
-        <v>4313</v>
+        <v>5532</v>
       </c>
       <c r="W330" s="3">
-        <v>123.7</v>
+        <v>157.5</v>
       </c>
       <c r="X330" s="3">
-        <v>2182</v>
+        <v>4544</v>
       </c>
       <c r="Z330" t="s">
-        <v>568</v>
+        <v>728</v>
       </c>
     </row>
     <row r="331" spans="2:30" x14ac:dyDescent="0.25">
@@ -13387,43 +13605,31 @@
         <v>4</v>
       </c>
       <c r="D331" t="s">
-        <v>723</v>
+        <v>28</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>418</v>
+        <v>763</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J331" s="3">
-        <v>6</v>
+        <v>463</v>
       </c>
       <c r="L331" s="3">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="U331" s="3">
-        <v>193.1</v>
+        <v>220.2</v>
       </c>
       <c r="V331" s="3">
-        <v>6068</v>
+        <v>6391</v>
       </c>
       <c r="W331" s="3">
-        <v>237.4</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="X331" s="3">
-        <v>4703</v>
+        <v>4838</v>
       </c>
       <c r="Z331" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA331" t="s">
-        <v>722</v>
-      </c>
-      <c r="AB331" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD331" s="4">
-        <v>630</v>
+        <v>750</v>
       </c>
     </row>
     <row r="332" spans="2:30" x14ac:dyDescent="0.25">
@@ -13434,43 +13640,31 @@
         <v>412</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G332" t="s">
-        <v>724</v>
+        <v>764</v>
       </c>
       <c r="L332" s="3">
-        <v>190</v>
-      </c>
-      <c r="Q332" s="3">
-        <v>185</v>
-      </c>
-      <c r="R332" s="3">
-        <v>6689</v>
-      </c>
-      <c r="S332" s="3">
-        <v>158.1</v>
-      </c>
-      <c r="T332" s="3">
-        <v>7544</v>
+        <v>75</v>
       </c>
       <c r="U332" s="3">
-        <v>184.2</v>
+        <v>99.3</v>
       </c>
       <c r="V332" s="3">
-        <v>8500</v>
+        <v>6677</v>
       </c>
       <c r="W332" s="3">
-        <v>161.30000000000001</v>
+        <v>118.9</v>
       </c>
       <c r="X332" s="3">
-        <v>7376</v>
+        <v>5117</v>
       </c>
       <c r="Z332" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
     </row>
     <row r="333" spans="2:30" x14ac:dyDescent="0.25">
@@ -13478,49 +13672,40 @@
         <v>6</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
-      </c>
-      <c r="E333" s="4" t="s">
-        <v>727</v>
+        <v>755</v>
+      </c>
+      <c r="J333" s="3">
+        <v>5</v>
       </c>
       <c r="L333" s="3">
-        <v>195</v>
-      </c>
-      <c r="Q333" s="3">
-        <v>193.4</v>
-      </c>
-      <c r="R333" s="3">
-        <v>7495</v>
-      </c>
-      <c r="S333" s="3">
-        <v>222.1</v>
-      </c>
-      <c r="T333" s="3">
-        <v>4933</v>
+        <v>133</v>
+      </c>
+      <c r="M333" s="1">
+        <v>408000</v>
       </c>
       <c r="U333" s="3">
-        <v>191.2</v>
+        <v>113.3</v>
       </c>
       <c r="V333" s="3">
-        <v>7157</v>
+        <v>5488</v>
       </c>
       <c r="W333" s="3">
-        <v>223.4</v>
+        <v>159.9</v>
       </c>
       <c r="X333" s="3">
-        <v>4886</v>
+        <v>4086</v>
       </c>
       <c r="Z333" t="s">
-        <v>725</v>
+        <v>765</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>766</v>
       </c>
       <c r="AB333" t="s">
-        <v>726</v>
-      </c>
-      <c r="AC333" t="s">
-        <v>611</v>
+        <v>202</v>
       </c>
       <c r="AD333" s="4">
-        <v>640</v>
+        <v>500</v>
       </c>
     </row>
     <row r="334" spans="2:30" x14ac:dyDescent="0.25">
@@ -13528,43 +13713,37 @@
         <v>7</v>
       </c>
       <c r="D334" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>147</v>
+        <v>769</v>
       </c>
       <c r="G334" t="s">
-        <v>677</v>
-      </c>
-      <c r="L334" s="3">
-        <v>156</v>
-      </c>
-      <c r="Q334" s="3">
-        <v>161.4</v>
-      </c>
-      <c r="R334" s="3">
-        <v>6432</v>
-      </c>
-      <c r="S334" s="3">
-        <v>201.3</v>
-      </c>
-      <c r="T334" s="3">
-        <v>4502</v>
+        <v>320</v>
+      </c>
+      <c r="U334" s="3">
+        <v>167.7</v>
+      </c>
+      <c r="V334" s="3">
+        <v>6970</v>
+      </c>
+      <c r="W334" s="3">
+        <v>193.3</v>
+      </c>
+      <c r="X334" s="3">
+        <v>5425</v>
       </c>
       <c r="Z334" t="s">
-        <v>728</v>
+        <v>767</v>
       </c>
       <c r="AA334" t="s">
-        <v>729</v>
+        <v>768</v>
       </c>
       <c r="AB334" t="s">
         <v>112</v>
       </c>
       <c r="AD334" s="4">
-        <v>210</v>
+        <v>280</v>
       </c>
     </row>
     <row r="335" spans="2:30" x14ac:dyDescent="0.25">
@@ -13572,58 +13751,31 @@
         <v>8</v>
       </c>
       <c r="D335" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="G335" t="s">
-        <v>735</v>
+        <v>147</v>
       </c>
       <c r="L335" s="3">
-        <v>90</v>
-      </c>
-      <c r="M335" s="1">
-        <v>850000</v>
-      </c>
-      <c r="Q335" s="3">
-        <v>84.9</v>
-      </c>
-      <c r="R335" s="3">
-        <v>5620</v>
-      </c>
-      <c r="S335" s="3">
-        <v>127</v>
-      </c>
-      <c r="T335" s="3">
-        <v>2176</v>
+        <v>143</v>
       </c>
       <c r="U335" s="3">
-        <v>80.900000000000006</v>
+        <v>143.9</v>
       </c>
       <c r="V335" s="3">
-        <v>553</v>
+        <v>6452</v>
       </c>
       <c r="W335" s="3">
-        <v>118.3</v>
+        <v>185</v>
       </c>
       <c r="X335" s="3">
-        <v>2458</v>
+        <v>4607</v>
       </c>
       <c r="Z335" t="s">
-        <v>731</v>
-      </c>
-      <c r="AA335" t="s">
-        <v>732</v>
-      </c>
-      <c r="AB335" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD335" s="4">
-        <v>300</v>
+        <v>392</v>
       </c>
     </row>
     <row r="336" spans="2:30" x14ac:dyDescent="0.25">
@@ -13631,43 +13783,49 @@
         <v>9</v>
       </c>
       <c r="D336" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>739</v>
+        <v>771</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="G336" t="s">
-        <v>736</v>
-      </c>
-      <c r="J336" s="3">
-        <v>5</v>
+        <v>772</v>
+      </c>
+      <c r="K336" t="s">
+        <v>76</v>
       </c>
       <c r="L336" s="3">
-        <v>180</v>
+        <v>150</v>
+      </c>
+      <c r="Q336" s="3">
+        <v>120.4</v>
+      </c>
+      <c r="R336" s="3">
+        <v>5218</v>
+      </c>
+      <c r="S336" s="3">
+        <v>179.6</v>
+      </c>
+      <c r="T336" s="3">
+        <v>4313</v>
       </c>
       <c r="U336" s="3">
-        <v>151.9</v>
+        <v>120.5</v>
       </c>
       <c r="V336" s="3">
-        <v>4596</v>
+        <v>5218</v>
       </c>
       <c r="W336" s="3">
-        <v>253</v>
+        <v>176.7</v>
       </c>
       <c r="X336" s="3">
-        <v>3321</v>
+        <v>4385</v>
       </c>
       <c r="Z336" t="s">
-        <v>737</v>
-      </c>
-      <c r="AA336" t="s">
-        <v>738</v>
-      </c>
-      <c r="AB336" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD336" s="4">
-        <v>600</v>
+        <v>324</v>
       </c>
     </row>
     <row r="337" spans="2:30" x14ac:dyDescent="0.25">
@@ -13675,43 +13833,34 @@
         <v>10</v>
       </c>
       <c r="D337" t="s">
-        <v>52</v>
-      </c>
-      <c r="E337" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J337" s="3">
-        <v>5</v>
+        <v>114</v>
+      </c>
+      <c r="E337" s="4">
+        <v>155</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G337" t="s">
+        <v>320</v>
       </c>
       <c r="L337" s="3">
-        <v>125</v>
-      </c>
-      <c r="Q337" s="3">
-        <v>119</v>
-      </c>
-      <c r="R337" s="3">
-        <v>5516</v>
-      </c>
-      <c r="S337" s="3">
-        <v>169.3</v>
-      </c>
-      <c r="T337" s="3">
-        <v>3794</v>
+        <v>150</v>
       </c>
       <c r="U337" s="3">
-        <v>117.8</v>
+        <v>150.5</v>
       </c>
       <c r="V337" s="3">
-        <v>5647</v>
+        <v>6299</v>
       </c>
       <c r="W337" s="3">
-        <v>155</v>
+        <v>176.1</v>
       </c>
       <c r="X337" s="3">
-        <v>5079</v>
+        <v>3586</v>
       </c>
       <c r="Z337" t="s">
-        <v>599</v>
+        <v>195</v>
       </c>
     </row>
     <row r="338" spans="2:30" x14ac:dyDescent="0.25">
@@ -13719,43 +13868,55 @@
         <v>11</v>
       </c>
       <c r="D338" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>589</v>
+        <v>775</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>208</v>
+        <v>463</v>
+      </c>
+      <c r="J338" s="3">
+        <v>6</v>
       </c>
       <c r="L338" s="3">
-        <v>139</v>
-      </c>
-      <c r="M338" s="1">
-        <v>167000</v>
+        <v>272</v>
+      </c>
+      <c r="Q338" s="3">
+        <v>246.6</v>
+      </c>
+      <c r="R338" s="3">
+        <v>6838</v>
+      </c>
+      <c r="S338" s="3">
+        <v>289.8</v>
+      </c>
+      <c r="T338" s="3">
+        <v>3138</v>
       </c>
       <c r="U338" s="3">
-        <v>141.4</v>
+        <v>238.8</v>
       </c>
       <c r="V338" s="3">
-        <v>6603</v>
+        <v>6693</v>
       </c>
       <c r="W338" s="3">
-        <v>164.2</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="X338" s="3">
-        <v>5340</v>
+        <v>3111</v>
       </c>
       <c r="Z338" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="AA338" t="s">
-        <v>741</v>
+        <v>774</v>
       </c>
       <c r="AB338" t="s">
-        <v>369</v>
+        <v>133</v>
       </c>
       <c r="AD338" s="4">
-        <v>350</v>
+        <v>445</v>
       </c>
     </row>
     <row r="339" spans="2:30" x14ac:dyDescent="0.25">
@@ -13763,43 +13924,40 @@
         <v>12</v>
       </c>
       <c r="D339" t="s">
-        <v>742</v>
-      </c>
-      <c r="E339" s="4">
-        <v>95</v>
+        <v>778</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>779</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G339" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="L339" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q339" s="3">
-        <v>201.8</v>
-      </c>
-      <c r="R339" s="3">
-        <v>5839</v>
-      </c>
-      <c r="S339" s="3">
-        <v>307</v>
-      </c>
-      <c r="T339" s="3">
-        <v>2772</v>
+        <v>109</v>
       </c>
       <c r="U339" s="3">
-        <v>227.5</v>
+        <v>117.5</v>
       </c>
       <c r="V339" s="3">
-        <v>5702</v>
+        <v>6165</v>
       </c>
       <c r="W339" s="3">
-        <v>381</v>
+        <v>154</v>
       </c>
       <c r="X339" s="3">
-        <v>3108</v>
+        <v>4153</v>
+      </c>
+      <c r="Z339" t="s">
+        <v>776</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB339" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD339" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="340" spans="2:30" x14ac:dyDescent="0.25">
@@ -13807,49 +13965,28 @@
         <v>13</v>
       </c>
       <c r="D340" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G340" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="J340" s="3">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="L340" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q340" s="3">
-        <v>173.9</v>
-      </c>
-      <c r="R340" s="3">
-        <v>5780</v>
-      </c>
-      <c r="S340" s="3">
-        <v>226.1</v>
-      </c>
-      <c r="T340" s="3">
-        <v>4666</v>
+        <v>80</v>
       </c>
       <c r="U340" s="3">
-        <v>174.6</v>
+        <v>108.5</v>
       </c>
       <c r="V340" s="3">
-        <v>5804</v>
+        <v>6081</v>
       </c>
       <c r="W340" s="3">
-        <v>228.6</v>
+        <v>141</v>
       </c>
       <c r="X340" s="3">
-        <v>4669</v>
-      </c>
-      <c r="Z340" t="s">
-        <v>326</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="341" spans="2:30" x14ac:dyDescent="0.25">
@@ -13857,40 +13994,40 @@
         <v>14</v>
       </c>
       <c r="D341" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="L341" s="3">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="U341" s="3">
-        <v>184.4</v>
+        <v>168.9</v>
       </c>
       <c r="V341" s="3">
-        <v>6059</v>
+        <v>5778</v>
       </c>
       <c r="W341" s="3">
-        <v>247.5</v>
+        <v>223.1</v>
       </c>
       <c r="X341" s="3">
-        <v>4445</v>
+        <v>4721</v>
       </c>
       <c r="Z341" t="s">
-        <v>745</v>
+        <v>781</v>
       </c>
       <c r="AA341" t="s">
-        <v>746</v>
+        <v>782</v>
       </c>
       <c r="AB341" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AD341" s="4">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="342" spans="2:30" x14ac:dyDescent="0.25">
@@ -13901,744 +14038,840 @@
         <v>28</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>747</v>
+        <v>786</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>463</v>
+        <v>211</v>
       </c>
       <c r="L342" s="3">
-        <v>231</v>
-      </c>
-      <c r="M342" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q342" s="3">
-        <v>205.8</v>
-      </c>
-      <c r="R342" s="3">
-        <v>6150</v>
-      </c>
-      <c r="S342" s="3">
-        <v>256.89999999999998</v>
-      </c>
-      <c r="T342" s="3">
-        <v>4021</v>
+        <v>170</v>
       </c>
       <c r="U342" s="3">
-        <v>212.3</v>
+        <v>171</v>
       </c>
       <c r="V342" s="3">
-        <v>6103</v>
+        <v>6157</v>
       </c>
       <c r="W342" s="3">
-        <v>266.7</v>
+        <v>213.7</v>
       </c>
       <c r="X342" s="3">
-        <v>5039</v>
+        <v>5203</v>
       </c>
       <c r="Z342" t="s">
-        <v>47</v>
+        <v>784</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB342" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD342" s="4">
+        <v>250</v>
       </c>
     </row>
     <row r="343" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C343" s="4">
-        <v>16</v>
-      </c>
-      <c r="D343" t="s">
-        <v>74</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J343" s="3">
-        <v>5</v>
-      </c>
-      <c r="L343" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q343" s="3">
-        <v>238.9</v>
-      </c>
-      <c r="R343" s="3">
-        <v>5907</v>
-      </c>
-      <c r="S343" s="3">
-        <v>370.3</v>
-      </c>
-      <c r="T343" s="3">
-        <v>4512</v>
-      </c>
-      <c r="U343" s="3">
-        <v>249.1</v>
-      </c>
-      <c r="V343" s="3">
-        <v>4570</v>
-      </c>
-      <c r="W343" s="3">
-        <v>393.6</v>
-      </c>
-      <c r="X343" s="3">
-        <v>4433</v>
-      </c>
-      <c r="Z343" t="s">
-        <v>750</v>
-      </c>
-      <c r="AA343" t="s">
-        <v>751</v>
-      </c>
-      <c r="AB343" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD343" s="4">
-        <v>240</v>
+      <c r="B343">
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C344" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D344" t="s">
         <v>52</v>
       </c>
-      <c r="E344" s="4">
-        <v>80</v>
+      <c r="E344" s="4" t="s">
+        <v>718</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>147</v>
+        <v>373</v>
+      </c>
+      <c r="J344" s="3">
+        <v>5</v>
       </c>
       <c r="L344" s="3">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="Q344" s="3">
-        <v>104.7</v>
+        <v>123</v>
       </c>
       <c r="R344" s="3">
-        <v>5285</v>
+        <v>5022</v>
       </c>
       <c r="S344" s="3">
-        <v>164.4</v>
+        <v>201.8</v>
       </c>
       <c r="T344" s="3">
-        <v>3305</v>
+        <v>3539</v>
       </c>
       <c r="U344" s="3">
-        <v>106.5</v>
+        <v>121.3</v>
       </c>
       <c r="V344" s="3">
-        <v>5219</v>
+        <v>4886</v>
       </c>
       <c r="W344" s="3">
-        <v>167.5</v>
+        <v>198.9</v>
       </c>
       <c r="X344" s="3">
-        <v>3223</v>
+        <v>3255</v>
       </c>
       <c r="Z344" t="s">
-        <v>753</v>
-      </c>
-      <c r="AA344" t="s">
-        <v>754</v>
-      </c>
-      <c r="AB344" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD344" s="4">
-        <v>180</v>
+        <v>523</v>
       </c>
     </row>
     <row r="345" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B345">
-        <v>6</v>
+      <c r="C345" s="4">
+        <v>2</v>
+      </c>
+      <c r="D345" t="s">
+        <v>28</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G345" t="s">
+        <v>720</v>
+      </c>
+      <c r="L345" s="3">
+        <v>170</v>
+      </c>
+      <c r="Q345" s="3">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="R345" s="3">
+        <v>5962</v>
+      </c>
+      <c r="S345" s="3">
+        <v>187.8</v>
+      </c>
+      <c r="T345" s="3">
+        <v>4474</v>
+      </c>
+      <c r="U345" s="3">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="V345" s="3">
+        <v>5991</v>
+      </c>
+      <c r="W345" s="3">
+        <v>190.9</v>
+      </c>
+      <c r="X345" s="3">
+        <v>4443</v>
+      </c>
+      <c r="Z345" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="346" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C346" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D346" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>694</v>
+        <v>531</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G346" t="s">
-        <v>693</v>
+        <v>346</v>
       </c>
       <c r="L346" s="3">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="U346" s="3">
-        <v>198.9</v>
+        <v>64.3</v>
       </c>
       <c r="V346" s="3">
-        <v>4106</v>
+        <v>4313</v>
       </c>
       <c r="W346" s="3">
-        <v>417.2</v>
+        <v>123.7</v>
       </c>
       <c r="X346" s="3">
-        <v>2732</v>
+        <v>2182</v>
       </c>
       <c r="Z346" t="s">
-        <v>446</v>
+        <v>568</v>
       </c>
     </row>
     <row r="347" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C347" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D347" t="s">
-        <v>217</v>
+        <v>723</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>695</v>
+        <v>418</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G347" t="s">
-        <v>696</v>
+        <v>211</v>
+      </c>
+      <c r="J347" s="3">
+        <v>6</v>
       </c>
       <c r="L347" s="3">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="U347" s="3">
-        <v>141.19999999999999</v>
+        <v>193.1</v>
       </c>
       <c r="V347" s="3">
-        <v>6642</v>
+        <v>6068</v>
       </c>
       <c r="W347" s="3">
-        <v>153.69999999999999</v>
+        <v>237.4</v>
       </c>
       <c r="X347" s="3">
-        <v>6342</v>
+        <v>4703</v>
       </c>
       <c r="Z347" t="s">
-        <v>552</v>
+        <v>721</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD347" s="4">
+        <v>630</v>
       </c>
     </row>
     <row r="348" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C348" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D348" t="s">
-        <v>278</v>
+        <v>412</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>697</v>
+        <v>489</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="G348" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="L348" s="3">
-        <v>231</v>
-      </c>
-      <c r="M348" s="1">
-        <v>157115</v>
-      </c>
-      <c r="N348" s="3">
-        <v>2004</v>
+        <v>190</v>
+      </c>
+      <c r="Q348" s="3">
+        <v>185</v>
+      </c>
+      <c r="R348" s="3">
+        <v>6689</v>
+      </c>
+      <c r="S348" s="3">
+        <v>158.1</v>
+      </c>
+      <c r="T348" s="3">
+        <v>7544</v>
       </c>
       <c r="U348" s="3">
-        <v>199.3</v>
+        <v>184.2</v>
       </c>
       <c r="V348" s="3">
-        <v>6844</v>
+        <v>8500</v>
       </c>
       <c r="W348" s="3">
-        <v>173.9</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="X348" s="3">
-        <v>7611</v>
+        <v>7376</v>
       </c>
       <c r="Z348" t="s">
-        <v>432</v>
+        <v>215</v>
       </c>
     </row>
     <row r="349" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C349" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D349" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="F349" s="2" t="s">
-        <v>208</v>
+        <v>727</v>
       </c>
       <c r="L349" s="3">
-        <v>115</v>
-      </c>
-      <c r="M349" s="1">
-        <v>396000</v>
+        <v>195</v>
+      </c>
+      <c r="Q349" s="3">
+        <v>193.4</v>
+      </c>
+      <c r="R349" s="3">
+        <v>7495</v>
+      </c>
+      <c r="S349" s="3">
+        <v>222.1</v>
+      </c>
+      <c r="T349" s="3">
+        <v>4933</v>
       </c>
       <c r="U349" s="3">
-        <v>121.6</v>
+        <v>191.2</v>
       </c>
       <c r="V349" s="3">
-        <v>6112</v>
+        <v>7157</v>
       </c>
       <c r="W349" s="3">
-        <v>170.6</v>
+        <v>223.4</v>
       </c>
       <c r="X349" s="3">
-        <v>4285</v>
+        <v>4886</v>
       </c>
       <c r="Z349" t="s">
-        <v>251</v>
+        <v>725</v>
+      </c>
+      <c r="AB349" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC349" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD349" s="4">
+        <v>640</v>
       </c>
     </row>
     <row r="350" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C350" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D350" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="G350" t="s">
+        <v>677</v>
       </c>
       <c r="L350" s="3">
-        <v>125</v>
-      </c>
-      <c r="U350" s="3">
-        <v>124.6</v>
-      </c>
-      <c r="V350" s="3">
-        <v>6041</v>
-      </c>
-      <c r="W350" s="3">
-        <v>158.5</v>
-      </c>
-      <c r="X350" s="3">
-        <v>3470</v>
+        <v>156</v>
+      </c>
+      <c r="Q350" s="3">
+        <v>161.4</v>
+      </c>
+      <c r="R350" s="3">
+        <v>6432</v>
+      </c>
+      <c r="S350" s="3">
+        <v>201.3</v>
+      </c>
+      <c r="T350" s="3">
+        <v>4502</v>
       </c>
       <c r="Z350" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="AA350" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
       <c r="AB350" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="AD350" s="4">
-        <v>380</v>
+        <v>210</v>
       </c>
     </row>
     <row r="351" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C351" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D351" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>206</v>
+        <v>733</v>
+      </c>
+      <c r="G351" t="s">
+        <v>735</v>
       </c>
       <c r="L351" s="3">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M351" s="1">
-        <v>464568</v>
+        <v>850000</v>
+      </c>
+      <c r="Q351" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="R351" s="3">
+        <v>5620</v>
+      </c>
+      <c r="S351" s="3">
+        <v>127</v>
+      </c>
+      <c r="T351" s="3">
+        <v>2176</v>
       </c>
       <c r="U351" s="3">
-        <v>79.400000000000006</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="V351" s="3">
-        <v>5100</v>
+        <v>553</v>
       </c>
       <c r="W351" s="3">
-        <v>121.3</v>
+        <v>118.3</v>
       </c>
       <c r="X351" s="3">
-        <v>4012</v>
+        <v>2458</v>
       </c>
       <c r="Z351" t="s">
-        <v>599</v>
+        <v>731</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB351" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD351" s="4">
+        <v>300</v>
       </c>
     </row>
     <row r="352" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C352" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D352" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>704</v>
+        <v>739</v>
+      </c>
+      <c r="G352" t="s">
+        <v>736</v>
+      </c>
+      <c r="J352" s="3">
+        <v>5</v>
       </c>
       <c r="L352" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q352" s="3">
-        <v>107.2</v>
-      </c>
-      <c r="R352" s="3">
-        <v>5650</v>
-      </c>
-      <c r="S352" s="3">
-        <v>147.1</v>
-      </c>
-      <c r="T352" s="3">
-        <v>3736</v>
+        <v>180</v>
       </c>
       <c r="U352" s="3">
-        <v>108.5</v>
+        <v>151.9</v>
       </c>
       <c r="V352" s="3">
-        <v>5746</v>
+        <v>4596</v>
       </c>
       <c r="W352" s="3">
-        <v>148.30000000000001</v>
+        <v>253</v>
       </c>
       <c r="X352" s="3">
-        <v>3810</v>
+        <v>3321</v>
       </c>
       <c r="Z352" t="s">
-        <v>110</v>
+        <v>737</v>
+      </c>
+      <c r="AA352" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB352" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD352" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="353" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C353" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D353" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>147</v>
+        <v>607</v>
+      </c>
+      <c r="J353" s="3">
+        <v>5</v>
       </c>
       <c r="L353" s="3">
-        <v>285</v>
+        <v>125</v>
+      </c>
+      <c r="Q353" s="3">
+        <v>119</v>
+      </c>
+      <c r="R353" s="3">
+        <v>5516</v>
+      </c>
+      <c r="S353" s="3">
+        <v>169.3</v>
+      </c>
+      <c r="T353" s="3">
+        <v>3794</v>
       </c>
       <c r="U353" s="3">
-        <v>309.10000000000002</v>
+        <v>117.8</v>
       </c>
       <c r="V353" s="3">
-        <v>5360</v>
+        <v>5647</v>
       </c>
       <c r="W353" s="3">
-        <v>487</v>
+        <v>155</v>
       </c>
       <c r="X353" s="3">
-        <v>4061</v>
+        <v>5079</v>
+      </c>
+      <c r="Z353" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="354" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C354" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D354" t="s">
         <v>44</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>706</v>
+        <v>589</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H354" s="3" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="L354" s="3">
-        <v>116</v>
+        <v>139</v>
+      </c>
+      <c r="M354" s="1">
+        <v>167000</v>
       </c>
       <c r="U354" s="3">
-        <v>168.1</v>
+        <v>141.4</v>
       </c>
       <c r="V354" s="3">
-        <v>3725</v>
+        <v>6603</v>
       </c>
       <c r="W354" s="3">
+        <v>164.2</v>
+      </c>
+      <c r="X354" s="3">
+        <v>5340</v>
+      </c>
+      <c r="Z354" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA354" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB354" t="s">
         <v>369</v>
       </c>
-      <c r="X354" s="3">
-        <v>2941</v>
+      <c r="AD354" s="4">
+        <v>350</v>
       </c>
     </row>
     <row r="355" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C355" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D355" t="s">
-        <v>36</v>
-      </c>
-      <c r="E355" s="4" t="s">
-        <v>709</v>
+        <v>742</v>
+      </c>
+      <c r="E355" s="4">
+        <v>95</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="G355" t="s">
-        <v>710</v>
+        <v>748</v>
       </c>
       <c r="L355" s="3">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q355" s="3">
-        <v>141.4</v>
+        <v>201.8</v>
       </c>
       <c r="R355" s="3">
-        <v>5198</v>
+        <v>5839</v>
       </c>
       <c r="S355" s="3">
-        <v>214.6</v>
+        <v>307</v>
       </c>
       <c r="T355" s="3">
-        <v>3910</v>
+        <v>2772</v>
       </c>
       <c r="U355" s="3">
-        <v>145.19999999999999</v>
+        <v>227.5</v>
       </c>
       <c r="V355" s="3">
-        <v>5158</v>
+        <v>5702</v>
       </c>
       <c r="W355" s="3">
-        <v>219.6</v>
+        <v>381</v>
       </c>
       <c r="X355" s="3">
-        <v>3838</v>
-      </c>
-      <c r="Z355" t="s">
-        <v>707</v>
-      </c>
-      <c r="AA355" t="s">
-        <v>708</v>
-      </c>
-      <c r="AB355" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD355" s="4">
-        <v>650</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="356" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C356" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D356" t="s">
         <v>28</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>711</v>
+        <v>744</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G356" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="J356" s="3">
+        <v>6</v>
       </c>
       <c r="L356" s="3">
-        <v>150</v>
-      </c>
-      <c r="M356" s="1">
-        <v>250000</v>
+        <v>170</v>
+      </c>
+      <c r="Q356" s="3">
+        <v>173.9</v>
+      </c>
+      <c r="R356" s="3">
+        <v>5780</v>
+      </c>
+      <c r="S356" s="3">
+        <v>226.1</v>
+      </c>
+      <c r="T356" s="3">
+        <v>4666</v>
       </c>
       <c r="U356" s="3">
-        <v>152.5</v>
+        <v>174.6</v>
       </c>
       <c r="V356" s="3">
-        <v>3952</v>
+        <v>5804</v>
       </c>
       <c r="W356" s="3">
-        <v>324.8</v>
+        <v>228.6</v>
       </c>
       <c r="X356" s="3">
-        <v>2672</v>
+        <v>4669</v>
       </c>
       <c r="Z356" t="s">
-        <v>99</v>
+        <v>326</v>
       </c>
     </row>
     <row r="357" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C357" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D357" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G357" t="s">
-        <v>714</v>
+        <v>687</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="L357" s="3">
-        <v>147</v>
-      </c>
-      <c r="Q357" s="3">
-        <v>178.3</v>
-      </c>
-      <c r="R357" s="3">
-        <v>4540</v>
-      </c>
-      <c r="S357" s="3">
-        <v>315.2</v>
-      </c>
-      <c r="T357" s="3">
-        <v>3784</v>
+        <v>174</v>
       </c>
       <c r="U357" s="3">
-        <v>149</v>
+        <v>184.4</v>
       </c>
       <c r="V357" s="3">
-        <v>5088</v>
+        <v>6059</v>
       </c>
       <c r="W357" s="3">
-        <v>256.3</v>
+        <v>247.5</v>
       </c>
       <c r="X357" s="3">
-        <v>3222</v>
+        <v>4445</v>
       </c>
       <c r="Z357" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="AA357" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="AB357" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="AD357" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="358" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C358" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D358" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>298</v>
+        <v>463</v>
       </c>
       <c r="L358" s="3">
-        <v>55</v>
+        <v>231</v>
+      </c>
+      <c r="M358" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q358" s="3">
+        <v>205.8</v>
+      </c>
+      <c r="R358" s="3">
+        <v>6150</v>
+      </c>
+      <c r="S358" s="3">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="T358" s="3">
+        <v>4021</v>
       </c>
       <c r="U358" s="3">
-        <v>75.400000000000006</v>
+        <v>212.3</v>
       </c>
       <c r="V358" s="3">
-        <v>6471</v>
+        <v>6103</v>
       </c>
       <c r="W358" s="3">
-        <v>102.3</v>
+        <v>266.7</v>
       </c>
       <c r="X358" s="3">
-        <v>3908</v>
+        <v>5039</v>
+      </c>
+      <c r="Z358" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="359" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C359" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D359" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>716</v>
+        <v>752</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="J359" s="3">
         <v>5</v>
       </c>
       <c r="L359" s="3">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="Q359" s="3">
-        <v>92.1</v>
+        <v>238.9</v>
       </c>
       <c r="R359" s="3">
-        <v>3973</v>
+        <v>5907</v>
       </c>
       <c r="S359" s="3">
-        <v>168.5</v>
+        <v>370.3</v>
       </c>
       <c r="T359" s="3">
-        <v>3702</v>
+        <v>4512</v>
       </c>
       <c r="U359" s="3">
-        <v>94</v>
+        <v>249.1</v>
       </c>
       <c r="V359" s="3">
-        <v>4062</v>
+        <v>4570</v>
       </c>
       <c r="W359" s="3">
-        <v>170.1</v>
+        <v>393.6</v>
       </c>
       <c r="X359" s="3">
-        <v>3731</v>
+        <v>4433</v>
       </c>
       <c r="Z359" t="s">
-        <v>110</v>
+        <v>750</v>
+      </c>
+      <c r="AA359" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB359" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD359" s="4">
+        <v>240</v>
       </c>
     </row>
     <row r="360" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C360" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D360" t="s">
-        <v>38</v>
-      </c>
-      <c r="E360" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="J360" s="3">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="E360" s="4">
+        <v>80</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L360" s="3">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="Q360" s="3">
-        <v>185.9</v>
+        <v>104.7</v>
       </c>
       <c r="R360" s="3">
-        <v>5885</v>
+        <v>5285</v>
       </c>
       <c r="S360" s="3">
-        <v>230.5</v>
+        <v>164.4</v>
       </c>
       <c r="T360" s="3">
-        <v>5266</v>
+        <v>3305</v>
       </c>
       <c r="U360" s="3">
-        <v>189.3</v>
+        <v>106.5</v>
       </c>
       <c r="V360" s="3">
-        <v>5956</v>
+        <v>5219</v>
       </c>
       <c r="W360" s="3">
-        <v>236.6</v>
+        <v>167.5</v>
       </c>
       <c r="X360" s="3">
-        <v>5217</v>
+        <v>3223</v>
       </c>
       <c r="Z360" t="s">
-        <v>47</v>
+        <v>753</v>
+      </c>
+      <c r="AA360" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB360" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD360" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="361" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B361">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="2:30" x14ac:dyDescent="0.25">
@@ -14646,34 +14879,34 @@
         <v>1</v>
       </c>
       <c r="D362" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G362" t="s">
-        <v>576</v>
+        <v>693</v>
       </c>
       <c r="L362" s="3">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="U362" s="3">
-        <v>191.2</v>
+        <v>198.9</v>
       </c>
       <c r="V362" s="3">
-        <v>8095</v>
+        <v>4106</v>
       </c>
       <c r="W362" s="3">
-        <v>184</v>
+        <v>417.2</v>
       </c>
       <c r="X362" s="3">
-        <v>6394</v>
+        <v>2732</v>
       </c>
       <c r="Z362" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
     </row>
     <row r="363" spans="2:30" x14ac:dyDescent="0.25">
@@ -14681,52 +14914,34 @@
         <v>2</v>
       </c>
       <c r="D363" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="G363" t="s">
+        <v>696</v>
+      </c>
       <c r="L363" s="3">
-        <v>95</v>
-      </c>
-      <c r="Q363" s="3">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="R363" s="3">
-        <v>6130</v>
-      </c>
-      <c r="S363" s="3">
-        <v>89.8</v>
-      </c>
-      <c r="T363" s="3">
-        <v>6020</v>
+        <v>135</v>
       </c>
       <c r="U363" s="3">
-        <v>78.7</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="V363" s="3">
-        <v>6094</v>
+        <v>6642</v>
       </c>
       <c r="W363" s="3">
-        <v>91.7</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="X363" s="3">
-        <v>5966</v>
+        <v>6342</v>
       </c>
       <c r="Z363" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA363" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB363" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD363" s="4">
-        <v>100</v>
+        <v>552</v>
       </c>
     </row>
     <row r="364" spans="2:30" x14ac:dyDescent="0.25">
@@ -14734,61 +14949,40 @@
         <v>3</v>
       </c>
       <c r="D364" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>463</v>
+        <v>298</v>
       </c>
       <c r="G364" t="s">
-        <v>685</v>
-      </c>
-      <c r="J364" s="3">
-        <v>6</v>
+        <v>698</v>
       </c>
       <c r="L364" s="3">
         <v>231</v>
       </c>
       <c r="M364" s="1">
-        <v>377473</v>
-      </c>
-      <c r="Q364" s="3">
-        <v>199.6</v>
-      </c>
-      <c r="R364" s="3">
-        <v>6123</v>
-      </c>
-      <c r="S364" s="3">
-        <v>268.2</v>
-      </c>
-      <c r="T364" s="3">
-        <v>3625</v>
+        <v>157115</v>
+      </c>
+      <c r="N364" s="3">
+        <v>2004</v>
       </c>
       <c r="U364" s="3">
-        <v>202.2</v>
+        <v>199.3</v>
       </c>
       <c r="V364" s="3">
-        <v>6211</v>
+        <v>6844</v>
       </c>
       <c r="W364" s="3">
-        <v>269.60000000000002</v>
+        <v>173.9</v>
       </c>
       <c r="X364" s="3">
-        <v>3618</v>
+        <v>7611</v>
       </c>
       <c r="Z364" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA364" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB364" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD364" s="4">
-        <v>252</v>
+        <v>432</v>
       </c>
     </row>
     <row r="365" spans="2:30" x14ac:dyDescent="0.25">
@@ -14799,28 +14993,31 @@
         <v>36</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G365" t="s">
-        <v>576</v>
+        <v>208</v>
       </c>
       <c r="L365" s="3">
-        <v>240</v>
+        <v>115</v>
+      </c>
+      <c r="M365" s="1">
+        <v>396000</v>
       </c>
       <c r="U365" s="3">
-        <v>261.8</v>
+        <v>121.6</v>
       </c>
       <c r="V365" s="3">
-        <v>5721</v>
+        <v>6112</v>
       </c>
       <c r="W365" s="3">
-        <v>406.3</v>
+        <v>170.6</v>
       </c>
       <c r="X365" s="3">
-        <v>4044</v>
+        <v>4285</v>
+      </c>
+      <c r="Z365" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="366" spans="2:30" x14ac:dyDescent="0.25">
@@ -14830,47 +15027,38 @@
       <c r="D366" t="s">
         <v>52</v>
       </c>
+      <c r="E366" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="F366" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G366" t="s">
-        <v>424</v>
-      </c>
-      <c r="K366" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="L366" s="3">
-        <v>113</v>
-      </c>
-      <c r="M366" s="1">
-        <v>137872</v>
-      </c>
-      <c r="Q366" s="3">
-        <v>97</v>
-      </c>
-      <c r="R366" s="3">
-        <v>5372</v>
-      </c>
-      <c r="S366" s="3">
-        <v>168.8</v>
-      </c>
-      <c r="T366" s="3">
-        <v>3490</v>
+        <v>125</v>
       </c>
       <c r="U366" s="3">
-        <v>97.3</v>
+        <v>124.6</v>
       </c>
       <c r="V366" s="3">
-        <v>5749</v>
+        <v>6041</v>
       </c>
       <c r="W366" s="3">
-        <v>147.9</v>
+        <v>158.5</v>
       </c>
       <c r="X366" s="3">
-        <v>3325</v>
+        <v>3470</v>
       </c>
       <c r="Z366" t="s">
-        <v>104</v>
+        <v>701</v>
+      </c>
+      <c r="AA366" t="s">
+        <v>702</v>
+      </c>
+      <c r="AB366" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD366" s="4">
+        <v>380</v>
       </c>
     </row>
     <row r="367" spans="2:30" x14ac:dyDescent="0.25">
@@ -14878,40 +15066,34 @@
         <v>6</v>
       </c>
       <c r="D367" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J367" s="3">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="L367" s="3">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="M367" s="1">
-        <v>320000</v>
-      </c>
-      <c r="N367" s="3">
-        <v>1983</v>
+        <v>464568</v>
       </c>
       <c r="U367" s="3">
-        <v>186.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="V367" s="3">
-        <v>5977</v>
+        <v>5100</v>
       </c>
       <c r="W367" s="3">
-        <v>237.9</v>
+        <v>121.3</v>
       </c>
       <c r="X367" s="3">
-        <v>4499</v>
+        <v>4012</v>
       </c>
       <c r="Z367" t="s">
-        <v>195</v>
+        <v>599</v>
       </c>
     </row>
     <row r="368" spans="2:30" x14ac:dyDescent="0.25">
@@ -14919,44 +15101,40 @@
         <v>7</v>
       </c>
       <c r="D368" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F368" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J368" s="3">
-        <v>6</v>
+        <v>704</v>
       </c>
       <c r="L368" s="3">
-        <v>150</v>
-      </c>
-      <c r="M368" s="1"/>
+        <v>90</v>
+      </c>
       <c r="Q368" s="3">
-        <v>158.5</v>
+        <v>107.2</v>
       </c>
       <c r="R368" s="3">
-        <v>6233</v>
+        <v>5650</v>
       </c>
       <c r="S368" s="3">
-        <v>188.2</v>
+        <v>147.1</v>
       </c>
       <c r="T368" s="3">
-        <v>4832</v>
+        <v>3736</v>
       </c>
       <c r="U368" s="3">
-        <v>158.30000000000001</v>
+        <v>108.5</v>
       </c>
       <c r="V368" s="3">
-        <v>6308</v>
+        <v>5746</v>
       </c>
       <c r="W368" s="3">
-        <v>191.7</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="X368" s="3">
-        <v>4811</v>
+        <v>3810</v>
+      </c>
+      <c r="Z368" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="369" spans="2:30" x14ac:dyDescent="0.25">
@@ -14964,47 +15142,28 @@
         <v>8</v>
       </c>
       <c r="D369" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H369" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="L369" s="3">
-        <v>140</v>
-      </c>
-      <c r="M369" s="1"/>
-      <c r="Q369" s="3">
-        <v>197.4</v>
-      </c>
-      <c r="R369" s="3">
-        <v>4140</v>
-      </c>
-      <c r="S369" s="3">
-        <v>445.5</v>
-      </c>
-      <c r="T369" s="3">
-        <v>2125</v>
+        <v>285</v>
       </c>
       <c r="U369" s="3">
-        <v>197.4</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="V369" s="3">
-        <v>4141</v>
+        <v>5360</v>
       </c>
       <c r="W369" s="3">
-        <v>449.4</v>
+        <v>487</v>
       </c>
       <c r="X369" s="3">
-        <v>2171</v>
-      </c>
-      <c r="Z369" t="s">
-        <v>330</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="370" spans="2:30" x14ac:dyDescent="0.25">
@@ -15012,35 +15171,31 @@
         <v>9</v>
       </c>
       <c r="D370" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G370" t="s">
-        <v>690</v>
+        <v>342</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L370" s="3">
-        <v>200</v>
-      </c>
-      <c r="M370" s="1"/>
+        <v>116</v>
+      </c>
       <c r="U370" s="3">
-        <v>226.2</v>
+        <v>168.1</v>
       </c>
       <c r="V370" s="3">
-        <v>6399</v>
+        <v>3725</v>
       </c>
       <c r="W370" s="3">
-        <v>319.89999999999998</v>
+        <v>369</v>
       </c>
       <c r="X370" s="3">
-        <v>3371</v>
-      </c>
-      <c r="Z370" t="s">
-        <v>156</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="371" spans="2:30" x14ac:dyDescent="0.25">
@@ -15048,2163 +15203,2828 @@
         <v>10</v>
       </c>
       <c r="D371" t="s">
-        <v>691</v>
+        <v>36</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="G371" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="L371" s="3">
-        <v>245</v>
-      </c>
-      <c r="M371" s="1">
-        <v>8000</v>
+        <v>150</v>
+      </c>
+      <c r="Q371" s="3">
+        <v>141.4</v>
+      </c>
+      <c r="R371" s="3">
+        <v>5198</v>
+      </c>
+      <c r="S371" s="3">
+        <v>214.6</v>
+      </c>
+      <c r="T371" s="3">
+        <v>3910</v>
       </c>
       <c r="U371" s="3">
-        <v>302.3</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="V371" s="3">
-        <v>6386</v>
+        <v>5158</v>
       </c>
       <c r="W371" s="3">
-        <v>424.8</v>
+        <v>219.6</v>
       </c>
       <c r="X371" s="3">
-        <v>3147</v>
+        <v>3838</v>
       </c>
       <c r="Z371" t="s">
-        <v>386</v>
+        <v>707</v>
+      </c>
+      <c r="AA371" t="s">
+        <v>708</v>
+      </c>
+      <c r="AB371" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD371" s="4">
+        <v>650</v>
       </c>
     </row>
     <row r="372" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B372">
-        <v>4</v>
+      <c r="C372" s="4">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="L372" s="3">
+        <v>150</v>
+      </c>
+      <c r="M372" s="1">
+        <v>250000</v>
+      </c>
+      <c r="U372" s="3">
+        <v>152.5</v>
+      </c>
+      <c r="V372" s="3">
+        <v>3952</v>
+      </c>
+      <c r="W372" s="3">
+        <v>324.8</v>
+      </c>
+      <c r="X372" s="3">
+        <v>2672</v>
+      </c>
+      <c r="Z372" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="373" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C373" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D373" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E373" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="F373" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G373" t="s">
+        <v>714</v>
+      </c>
+      <c r="L373" s="3">
         <v>147</v>
       </c>
-      <c r="G373" t="s">
-        <v>650</v>
-      </c>
-      <c r="K373" t="s">
-        <v>76</v>
-      </c>
-      <c r="L373" s="3">
-        <v>140</v>
-      </c>
       <c r="Q373" s="3">
-        <v>154.6</v>
+        <v>178.3</v>
       </c>
       <c r="R373" s="3">
-        <v>39115</v>
+        <v>4540</v>
       </c>
       <c r="S373" s="3">
-        <v>367.9</v>
+        <v>315.2</v>
       </c>
       <c r="T373" s="3">
-        <v>2264</v>
+        <v>3784</v>
       </c>
       <c r="U373" s="3">
-        <v>154.9</v>
+        <v>149</v>
       </c>
       <c r="V373" s="3">
-        <v>3982</v>
+        <v>5088</v>
       </c>
       <c r="W373" s="3">
-        <v>368.3</v>
+        <v>256.3</v>
       </c>
       <c r="X373" s="3">
-        <v>2346</v>
+        <v>3222</v>
       </c>
       <c r="Z373" t="s">
-        <v>110</v>
+        <v>712</v>
+      </c>
+      <c r="AA373" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB373" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD373" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="374" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C374" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D374" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>651</v>
+        <v>715</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="L374" s="3">
-        <v>241</v>
-      </c>
-      <c r="Q374" s="3">
-        <v>227.4</v>
-      </c>
-      <c r="R374" s="3">
-        <v>5706</v>
-      </c>
-      <c r="S374" s="3">
-        <v>329.2</v>
-      </c>
-      <c r="T374" s="3">
-        <v>3772</v>
+        <v>55</v>
       </c>
       <c r="U374" s="3">
-        <v>216.6</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="V374" s="3">
-        <v>5120</v>
+        <v>6471</v>
       </c>
       <c r="W374" s="3">
-        <v>327.39999999999998</v>
+        <v>102.3</v>
       </c>
       <c r="X374" s="3">
-        <v>3780</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="375" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C375" s="4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D375" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G375" t="s">
-        <v>653</v>
+        <v>716</v>
+      </c>
+      <c r="J375" s="3">
+        <v>5</v>
       </c>
       <c r="L375" s="3">
-        <v>122</v>
-      </c>
-      <c r="M375" s="1">
-        <v>197000</v>
+        <v>133</v>
+      </c>
+      <c r="Q375" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="R375" s="3">
+        <v>3973</v>
+      </c>
+      <c r="S375" s="3">
+        <v>168.5</v>
+      </c>
+      <c r="T375" s="3">
+        <v>3702</v>
       </c>
       <c r="U375" s="3">
-        <v>123.1</v>
+        <v>94</v>
       </c>
       <c r="V375" s="3">
-        <v>5319</v>
+        <v>4062</v>
       </c>
       <c r="W375" s="3">
-        <v>195</v>
+        <v>170.1</v>
       </c>
       <c r="X375" s="3">
-        <v>3891</v>
+        <v>3731</v>
       </c>
       <c r="Z375" t="s">
-        <v>386</v>
+        <v>110</v>
       </c>
     </row>
     <row r="376" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C376" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D376" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F376" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G376" t="s">
-        <v>655</v>
+        <v>717</v>
+      </c>
+      <c r="J376" s="3">
+        <v>6</v>
       </c>
       <c r="L376" s="3">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="Q376" s="3">
-        <v>126.6</v>
+        <v>185.9</v>
       </c>
       <c r="R376" s="3">
-        <v>5245</v>
+        <v>5885</v>
       </c>
       <c r="S376" s="3">
-        <v>225.8</v>
+        <v>230.5</v>
       </c>
       <c r="T376" s="3">
-        <v>3364</v>
+        <v>5266</v>
       </c>
       <c r="U376" s="3">
-        <v>138.80000000000001</v>
+        <v>189.3</v>
       </c>
       <c r="V376" s="3">
-        <v>5784</v>
+        <v>5956</v>
       </c>
       <c r="W376" s="3">
-        <v>2440</v>
+        <v>236.6</v>
       </c>
       <c r="X376" s="3">
-        <v>3011</v>
+        <v>5217</v>
       </c>
       <c r="Z376" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="377" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C377" s="4">
+      <c r="B377">
         <v>5</v>
-      </c>
-      <c r="D377" t="s">
-        <v>52</v>
-      </c>
-      <c r="E377" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F377" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G377" t="s">
-        <v>657</v>
-      </c>
-      <c r="L377" s="3">
-        <v>102</v>
-      </c>
-      <c r="M377" s="1">
-        <v>550881</v>
-      </c>
-      <c r="Q377" s="3">
-        <v>90.8</v>
-      </c>
-      <c r="R377" s="3">
-        <v>5587</v>
-      </c>
-      <c r="S377" s="3">
-        <v>127.1</v>
-      </c>
-      <c r="T377" s="3">
-        <v>4187</v>
-      </c>
-      <c r="U377" s="3">
-        <v>97.5</v>
-      </c>
-      <c r="V377" s="3">
-        <v>5617</v>
-      </c>
-      <c r="W377" s="3">
-        <v>137.19999999999999</v>
-      </c>
-      <c r="X377" s="3">
-        <v>4055</v>
-      </c>
-      <c r="Z377" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="378" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C378" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D378" t="s">
-        <v>52</v>
+        <v>412</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J378" s="3">
-        <v>5</v>
+        <v>678</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G378" t="s">
+        <v>576</v>
       </c>
       <c r="L378" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q378" s="3">
-        <v>113.3</v>
-      </c>
-      <c r="R378" s="3">
-        <v>6022</v>
-      </c>
-      <c r="S378" s="3">
-        <v>163.69999999999999</v>
-      </c>
-      <c r="T378" s="3">
-        <v>3992</v>
+        <v>200</v>
       </c>
       <c r="U378" s="3">
-        <v>117.4</v>
+        <v>191.2</v>
       </c>
       <c r="V378" s="3">
-        <v>5951</v>
+        <v>8095</v>
       </c>
       <c r="W378" s="3">
-        <v>168.2</v>
+        <v>184</v>
       </c>
       <c r="X378" s="3">
-        <v>3955</v>
+        <v>6394</v>
       </c>
       <c r="Z378" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="379" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C379" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D379" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E379" s="4" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="H379" s="3" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="L379" s="3">
-        <v>150</v>
-      </c>
-      <c r="M379" s="1">
-        <v>200000</v>
+        <v>95</v>
+      </c>
+      <c r="Q379" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="R379" s="3">
+        <v>6130</v>
+      </c>
+      <c r="S379" s="3">
+        <v>89.8</v>
+      </c>
+      <c r="T379" s="3">
+        <v>6020</v>
       </c>
       <c r="U379" s="3">
-        <v>148.30000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="V379" s="3">
-        <v>3922</v>
+        <v>6094</v>
       </c>
       <c r="W379" s="3">
-        <v>334.3</v>
+        <v>91.7</v>
       </c>
       <c r="X379" s="3">
-        <v>2422</v>
+        <v>5966</v>
       </c>
       <c r="Z379" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="AA379" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="AB379" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="AD379" s="4">
-        <v>490</v>
+        <v>100</v>
       </c>
     </row>
     <row r="380" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C380" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D380" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>663</v>
+        <v>463</v>
       </c>
       <c r="G380" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="J380" s="3">
-        <v>8</v>
-      </c>
-      <c r="N380" s="3">
-        <v>1969</v>
+        <v>6</v>
+      </c>
+      <c r="L380" s="3">
+        <v>231</v>
+      </c>
+      <c r="M380" s="1">
+        <v>377473</v>
       </c>
       <c r="Q380" s="3">
-        <v>328.3</v>
+        <v>199.6</v>
       </c>
       <c r="R380" s="3">
-        <v>4379</v>
+        <v>6123</v>
       </c>
       <c r="S380" s="3">
-        <v>552.79999999999995</v>
+        <v>268.2</v>
       </c>
       <c r="T380" s="3">
-        <v>4015</v>
+        <v>3625</v>
       </c>
       <c r="U380" s="3">
-        <v>339.5</v>
+        <v>202.2</v>
       </c>
       <c r="V380" s="3">
-        <v>5125</v>
+        <v>6211</v>
       </c>
       <c r="W380" s="3">
-        <v>559.9</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="X380" s="3">
-        <v>3873</v>
+        <v>3618</v>
+      </c>
+      <c r="Z380" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD380" s="4">
+        <v>252</v>
       </c>
     </row>
     <row r="381" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C381" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D381" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>607</v>
+        <v>686</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G381" t="s">
-        <v>667</v>
-      </c>
-      <c r="J381" s="3">
-        <v>5</v>
+        <v>576</v>
       </c>
       <c r="L381" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q381" s="3">
-        <v>107.3</v>
-      </c>
-      <c r="R381" s="3">
-        <v>5214</v>
-      </c>
-      <c r="S381" s="3">
-        <v>163</v>
-      </c>
-      <c r="T381" s="3">
-        <v>3028</v>
+        <v>240</v>
       </c>
       <c r="U381" s="3">
-        <v>113.6</v>
+        <v>261.8</v>
       </c>
       <c r="V381" s="3">
-        <v>5412</v>
+        <v>5721</v>
       </c>
       <c r="W381" s="3">
-        <v>169.7</v>
+        <v>406.3</v>
       </c>
       <c r="X381" s="3">
-        <v>3674</v>
-      </c>
-      <c r="Z381" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA381" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB381" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD381" s="4">
-        <v>580</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="382" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C382" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D382" t="s">
-        <v>28</v>
-      </c>
-      <c r="E382" s="4" t="s">
-        <v>668</v>
+        <v>52</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J382" s="3">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="G382" t="s">
+        <v>424</v>
+      </c>
+      <c r="K382" t="s">
+        <v>76</v>
       </c>
       <c r="L382" s="3">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="M382" s="1">
+        <v>137872</v>
       </c>
       <c r="Q382" s="3">
-        <v>178.2</v>
+        <v>97</v>
       </c>
       <c r="R382" s="3">
-        <v>6323</v>
+        <v>5372</v>
       </c>
       <c r="S382" s="3">
-        <v>213.5</v>
+        <v>168.8</v>
       </c>
       <c r="T382" s="3">
-        <v>5093</v>
+        <v>3490</v>
       </c>
       <c r="U382" s="3">
-        <v>179.5</v>
+        <v>97.3</v>
       </c>
       <c r="V382" s="3">
-        <v>6252</v>
+        <v>5749</v>
       </c>
       <c r="W382" s="3">
-        <v>216.8</v>
+        <v>147.9</v>
       </c>
       <c r="X382" s="3">
-        <v>5084</v>
+        <v>3325</v>
       </c>
       <c r="Z382" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
     </row>
     <row r="383" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C383" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D383" t="s">
         <v>44</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="G383" t="s">
-        <v>670</v>
+        <v>687</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J383" s="3">
+        <v>6</v>
       </c>
       <c r="L383" s="3">
-        <v>136</v>
+        <v>174</v>
+      </c>
+      <c r="M383" s="1">
+        <v>320000</v>
+      </c>
+      <c r="N383" s="3">
+        <v>1983</v>
       </c>
       <c r="U383" s="3">
-        <v>125.1</v>
+        <v>186.8</v>
       </c>
       <c r="V383" s="3">
-        <v>5351</v>
+        <v>5977</v>
       </c>
       <c r="W383" s="3">
-        <v>190.2</v>
+        <v>237.9</v>
       </c>
       <c r="X383" s="3">
-        <v>4523</v>
+        <v>4499</v>
       </c>
       <c r="Z383" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
     </row>
     <row r="384" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C384" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D384" t="s">
-        <v>671</v>
+        <v>28</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>672</v>
+        <v>464</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H384" s="3" t="s">
-        <v>46</v>
+        <v>147</v>
+      </c>
+      <c r="J384" s="3">
+        <v>6</v>
       </c>
       <c r="L384" s="3">
-        <v>145</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M384" s="1"/>
       <c r="Q384" s="3">
-        <v>145.6</v>
+        <v>158.5</v>
       </c>
       <c r="R384" s="3">
-        <v>3370</v>
+        <v>6233</v>
       </c>
       <c r="S384" s="3">
-        <v>383.7</v>
+        <v>188.2</v>
       </c>
       <c r="T384" s="3">
-        <v>2295</v>
+        <v>4832</v>
       </c>
       <c r="U384" s="3">
-        <v>147</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V384" s="3">
-        <v>3405</v>
+        <v>6308</v>
       </c>
       <c r="W384" s="3">
-        <v>386.1</v>
+        <v>191.7</v>
       </c>
       <c r="X384" s="3">
-        <v>2295</v>
-      </c>
-      <c r="Z384" t="s">
-        <v>64</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="385" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C385" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D385" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="E385" s="4" t="s">
+        <v>688</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>342</v>
+        <v>147</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L385" s="3">
-        <v>131</v>
-      </c>
-      <c r="M385" s="1">
-        <v>300000</v>
+        <v>140</v>
+      </c>
+      <c r="M385" s="1"/>
+      <c r="Q385" s="3">
+        <v>197.4</v>
+      </c>
+      <c r="R385" s="3">
+        <v>4140</v>
+      </c>
+      <c r="S385" s="3">
+        <v>445.5</v>
+      </c>
+      <c r="T385" s="3">
+        <v>2125</v>
       </c>
       <c r="U385" s="3">
-        <v>128.9</v>
+        <v>197.4</v>
       </c>
       <c r="V385" s="3">
-        <v>4106</v>
+        <v>4141</v>
       </c>
       <c r="W385" s="3">
-        <v>317.2</v>
+        <v>449.4</v>
       </c>
       <c r="X385" s="3">
-        <v>2094</v>
+        <v>2171</v>
       </c>
       <c r="Z385" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA385" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB385" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD385" s="4">
-        <v>180</v>
+        <v>330</v>
       </c>
     </row>
     <row r="386" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C386" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D386" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>475</v>
+        <v>689</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G386" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="L386" s="3">
-        <v>193</v>
-      </c>
-      <c r="M386" s="1">
-        <v>335000</v>
-      </c>
-      <c r="Q386" s="3">
-        <v>193.1</v>
-      </c>
-      <c r="R386" s="3">
-        <v>6562</v>
-      </c>
-      <c r="S386" s="3">
-        <v>262</v>
-      </c>
-      <c r="T386" s="3">
-        <v>195.3</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M386" s="1"/>
       <c r="U386" s="3">
-        <v>195.3</v>
+        <v>226.2</v>
       </c>
       <c r="V386" s="3">
-        <v>6605</v>
+        <v>6399</v>
       </c>
       <c r="W386" s="3">
-        <v>267.60000000000002</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="X386" s="3">
-        <v>3696</v>
+        <v>3371</v>
       </c>
       <c r="Z386" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA386" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB386" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD386" s="4">
-        <v>250</v>
+        <v>156</v>
       </c>
     </row>
     <row r="387" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B387">
-        <v>3</v>
+      <c r="C387" s="4">
+        <v>10</v>
+      </c>
+      <c r="D387" t="s">
+        <v>691</v>
+      </c>
+      <c r="E387" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G387" t="s">
+        <v>690</v>
+      </c>
+      <c r="L387" s="3">
+        <v>245</v>
+      </c>
+      <c r="M387" s="1">
+        <v>8000</v>
+      </c>
+      <c r="U387" s="3">
+        <v>302.3</v>
+      </c>
+      <c r="V387" s="3">
+        <v>6386</v>
+      </c>
+      <c r="W387" s="3">
+        <v>424.8</v>
+      </c>
+      <c r="X387" s="3">
+        <v>3147</v>
+      </c>
+      <c r="Z387" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="388" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C388" s="4">
-        <v>1</v>
-      </c>
-      <c r="D388" t="s">
-        <v>197</v>
-      </c>
-      <c r="E388" s="4">
-        <v>968</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L388" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q388" s="3">
-        <v>213.8</v>
-      </c>
-      <c r="R388" s="3">
-        <v>6430</v>
-      </c>
-      <c r="S388" s="3">
-        <v>272.3</v>
-      </c>
-      <c r="T388" s="3">
-        <v>4390</v>
-      </c>
-      <c r="U388" s="3">
-        <v>216.9</v>
-      </c>
-      <c r="V388" s="3">
-        <v>6411</v>
-      </c>
-      <c r="W388" s="3">
-        <v>276.2</v>
-      </c>
-      <c r="X388" s="3">
-        <v>4383</v>
-      </c>
-      <c r="Z388" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA388" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB388" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD388" s="4">
-        <v>400</v>
+      <c r="B388">
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C389" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D389" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="G389" t="s">
-        <v>634</v>
+        <v>650</v>
+      </c>
+      <c r="K389" t="s">
+        <v>76</v>
       </c>
       <c r="L389" s="3">
-        <v>165</v>
+        <v>140</v>
+      </c>
+      <c r="Q389" s="3">
+        <v>154.6</v>
+      </c>
+      <c r="R389" s="3">
+        <v>39115</v>
+      </c>
+      <c r="S389" s="3">
+        <v>367.9</v>
+      </c>
+      <c r="T389" s="3">
+        <v>2264</v>
       </c>
       <c r="U389" s="3">
-        <v>205.7</v>
+        <v>154.9</v>
       </c>
       <c r="V389" s="3">
-        <v>5632</v>
+        <v>3982</v>
       </c>
       <c r="W389" s="3">
-        <v>328.8</v>
+        <v>368.3</v>
       </c>
       <c r="X389" s="3">
-        <v>3799</v>
+        <v>2346</v>
+      </c>
+      <c r="Z389" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="390" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C390" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D390" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="F390" s="2" t="s">
-        <v>147</v>
+        <v>651</v>
       </c>
       <c r="L390" s="3">
-        <v>230</v>
+        <v>241</v>
+      </c>
+      <c r="Q390" s="3">
+        <v>227.4</v>
+      </c>
+      <c r="R390" s="3">
+        <v>5706</v>
+      </c>
+      <c r="S390" s="3">
+        <v>329.2</v>
+      </c>
+      <c r="T390" s="3">
+        <v>3772</v>
       </c>
       <c r="U390" s="3">
-        <v>243.4</v>
+        <v>216.6</v>
       </c>
       <c r="V390" s="3">
-        <v>5400</v>
+        <v>5120</v>
       </c>
       <c r="W390" s="3">
-        <v>354.6</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="X390" s="3">
-        <v>3056</v>
-      </c>
-      <c r="Z390" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA390" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB390" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD390" s="4">
-        <v>70</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="391" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C391" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D391" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J391" s="3">
-        <v>5</v>
+        <v>206</v>
+      </c>
+      <c r="G391" t="s">
+        <v>653</v>
       </c>
       <c r="L391" s="3">
-        <v>305</v>
-      </c>
-      <c r="Q391" s="3">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="R391" s="3">
-        <v>6190</v>
-      </c>
-      <c r="S391" s="3">
-        <v>404.5</v>
-      </c>
-      <c r="T391" s="3">
-        <v>4616</v>
+        <v>122</v>
+      </c>
+      <c r="M391" s="1">
+        <v>197000</v>
       </c>
       <c r="U391" s="3">
-        <v>293.10000000000002</v>
+        <v>123.1</v>
       </c>
       <c r="V391" s="3">
-        <v>6708</v>
+        <v>5319</v>
       </c>
       <c r="W391" s="3">
-        <v>405.5</v>
+        <v>195</v>
       </c>
       <c r="X391" s="3">
-        <v>4650</v>
+        <v>3891</v>
       </c>
       <c r="Z391" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA391" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB391" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD391" s="4">
-        <v>70</v>
+        <v>386</v>
       </c>
     </row>
     <row r="392" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C392" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D392" t="s">
         <v>44</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>206</v>
+        <v>656</v>
+      </c>
+      <c r="G392" t="s">
+        <v>655</v>
       </c>
       <c r="L392" s="3">
-        <v>75</v>
-      </c>
-      <c r="M392" s="1">
-        <v>226000</v>
+        <v>115</v>
       </c>
       <c r="Q392" s="3">
-        <v>76.5</v>
+        <v>126.6</v>
       </c>
       <c r="R392" s="3">
-        <v>5116</v>
+        <v>5245</v>
       </c>
       <c r="S392" s="3">
-        <v>115.9</v>
+        <v>225.8</v>
       </c>
       <c r="T392" s="3">
-        <v>3629</v>
+        <v>3364</v>
       </c>
       <c r="U392" s="3">
-        <v>77.099999999999994</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="V392" s="3">
-        <v>4943</v>
+        <v>5784</v>
       </c>
       <c r="W392" s="3">
-        <v>115.9</v>
+        <v>2440</v>
       </c>
       <c r="X392" s="3">
-        <v>3522</v>
+        <v>3011</v>
       </c>
       <c r="Z392" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA392" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB392" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD392" s="4">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="393" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C393" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D393" t="s">
         <v>52</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>640</v>
+        <v>338</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>147</v>
+        <v>207</v>
+      </c>
+      <c r="G393" t="s">
+        <v>657</v>
       </c>
       <c r="L393" s="3">
-        <v>150</v>
+        <v>102</v>
+      </c>
+      <c r="M393" s="1">
+        <v>550881</v>
+      </c>
+      <c r="Q393" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="R393" s="3">
+        <v>5587</v>
+      </c>
+      <c r="S393" s="3">
+        <v>127.1</v>
+      </c>
+      <c r="T393" s="3">
+        <v>4187</v>
       </c>
       <c r="U393" s="3">
-        <v>186.1</v>
+        <v>97.5</v>
       </c>
       <c r="V393" s="3">
-        <v>3265</v>
+        <v>5617</v>
       </c>
       <c r="W393" s="3">
-        <v>451.4</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="X393" s="3">
-        <v>2059</v>
+        <v>4055</v>
       </c>
       <c r="Z393" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA393" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB393" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD393" s="4">
-        <v>220</v>
+        <v>152</v>
       </c>
     </row>
     <row r="394" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C394" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D394" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="J394" s="3">
-        <v>8</v>
-      </c>
-      <c r="K394" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="L394" s="3">
-        <v>306</v>
-      </c>
-      <c r="M394" s="1">
-        <v>303000</v>
+        <v>133</v>
       </c>
       <c r="Q394" s="3">
-        <v>248</v>
+        <v>113.3</v>
       </c>
       <c r="R394" s="3">
-        <v>5970</v>
+        <v>6022</v>
       </c>
       <c r="S394" s="3">
-        <v>339.7</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="T394" s="3">
-        <v>3305</v>
+        <v>3992</v>
       </c>
       <c r="U394" s="3">
-        <v>247.9</v>
+        <v>117.4</v>
       </c>
       <c r="V394" s="3">
-        <v>6245</v>
+        <v>5951</v>
       </c>
       <c r="W394" s="3">
-        <v>342.5</v>
+        <v>168.2</v>
       </c>
       <c r="X394" s="3">
-        <v>3314</v>
+        <v>3955</v>
       </c>
       <c r="Z394" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA394" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB394" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD394" s="4">
-        <v>30</v>
+        <v>386</v>
       </c>
     </row>
     <row r="395" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C395" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D395" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="E395" s="4" t="s">
-        <v>413</v>
+        <v>660</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G395" t="s">
-        <v>644</v>
+        <v>661</v>
+      </c>
+      <c r="H395" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L395" s="3">
-        <v>125</v>
+        <v>150</v>
+      </c>
+      <c r="M395" s="1">
+        <v>200000</v>
       </c>
       <c r="U395" s="3">
-        <v>137</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="V395" s="3">
-        <v>7319</v>
+        <v>3922</v>
       </c>
       <c r="W395" s="3">
-        <v>134.5</v>
+        <v>334.3</v>
       </c>
       <c r="X395" s="3">
-        <v>7076</v>
+        <v>2422</v>
+      </c>
+      <c r="Z395" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA395" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB395" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD395" s="4">
+        <v>490</v>
       </c>
     </row>
     <row r="396" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C396" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D396" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>635</v>
+        <v>663</v>
+      </c>
+      <c r="G396" t="s">
+        <v>664</v>
       </c>
       <c r="J396" s="3">
         <v>8</v>
       </c>
-      <c r="L396" s="3">
-        <v>367</v>
+      <c r="N396" s="3">
+        <v>1969</v>
+      </c>
+      <c r="Q396" s="3">
+        <v>328.3</v>
+      </c>
+      <c r="R396" s="3">
+        <v>4379</v>
+      </c>
+      <c r="S396" s="3">
+        <v>552.79999999999995</v>
+      </c>
+      <c r="T396" s="3">
+        <v>4015</v>
       </c>
       <c r="U396" s="3">
-        <v>312.8</v>
+        <v>339.5</v>
       </c>
       <c r="V396" s="3">
-        <v>6550</v>
+        <v>5125</v>
       </c>
       <c r="W396" s="3">
-        <v>410.4</v>
+        <v>559.9</v>
       </c>
       <c r="X396" s="3">
-        <v>4479</v>
-      </c>
-      <c r="Z396" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA396" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB396" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD396" s="4">
-        <v>45</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="397" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C397" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D397" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="F397" s="2" t="s">
-        <v>474</v>
+        <v>607</v>
       </c>
       <c r="G397" t="s">
-        <v>606</v>
+        <v>667</v>
+      </c>
+      <c r="J397" s="3">
+        <v>5</v>
       </c>
       <c r="L397" s="3">
-        <v>220</v>
-      </c>
-      <c r="N397" s="3">
-        <v>1981</v>
+        <v>133</v>
+      </c>
+      <c r="Q397" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="R397" s="3">
+        <v>5214</v>
+      </c>
+      <c r="S397" s="3">
+        <v>163</v>
+      </c>
+      <c r="T397" s="3">
+        <v>3028</v>
       </c>
       <c r="U397" s="3">
-        <v>190.7</v>
+        <v>113.6</v>
       </c>
       <c r="V397" s="3">
-        <v>6165</v>
+        <v>5412</v>
       </c>
       <c r="W397" s="3">
-        <v>280.89999999999998</v>
+        <v>169.7</v>
       </c>
       <c r="X397" s="3">
-        <v>4193</v>
+        <v>3674</v>
       </c>
       <c r="Z397" t="s">
-        <v>104</v>
+        <v>665</v>
       </c>
       <c r="AA397" t="s">
-        <v>105</v>
+        <v>666</v>
       </c>
       <c r="AB397" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AD397" s="4">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="398" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C398" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D398" t="s">
         <v>28</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
       <c r="J398" s="3">
         <v>6</v>
       </c>
       <c r="L398" s="3">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="Q398" s="3">
-        <v>336.6</v>
+        <v>178.2</v>
       </c>
       <c r="R398" s="3">
-        <v>5778</v>
+        <v>6323</v>
       </c>
       <c r="S398" s="3">
-        <v>550</v>
+        <v>213.5</v>
       </c>
       <c r="T398" s="3">
-        <v>4222</v>
+        <v>5093</v>
       </c>
       <c r="U398" s="3">
-        <v>341.5</v>
+        <v>179.5</v>
       </c>
       <c r="V398" s="3">
-        <v>4394</v>
+        <v>6252</v>
       </c>
       <c r="W398" s="3">
-        <v>557.29999999999995</v>
+        <v>216.8</v>
       </c>
       <c r="X398" s="3">
-        <v>4310</v>
+        <v>5084</v>
       </c>
       <c r="Z398" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA398" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB398" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD398" s="4">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="399" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B399">
-        <v>2</v>
+      <c r="C399" s="4">
+        <v>11</v>
+      </c>
+      <c r="D399" t="s">
+        <v>44</v>
+      </c>
+      <c r="E399" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="G399" t="s">
+        <v>670</v>
+      </c>
+      <c r="L399" s="3">
+        <v>136</v>
+      </c>
+      <c r="U399" s="3">
+        <v>125.1</v>
+      </c>
+      <c r="V399" s="3">
+        <v>5351</v>
+      </c>
+      <c r="W399" s="3">
+        <v>190.2</v>
+      </c>
+      <c r="X399" s="3">
+        <v>4523</v>
+      </c>
+      <c r="Z399" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="400" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C400" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D400" t="s">
-        <v>528</v>
+        <v>671</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>208</v>
+        <v>602</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L400" s="3">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q400" s="3">
-        <v>184.2</v>
+        <v>145.6</v>
       </c>
       <c r="R400" s="3">
-        <v>6393</v>
+        <v>3370</v>
       </c>
       <c r="S400" s="3">
-        <v>236.7</v>
+        <v>383.7</v>
       </c>
       <c r="T400" s="3">
-        <v>4499</v>
+        <v>2295</v>
       </c>
       <c r="U400" s="3">
-        <v>186.4</v>
+        <v>147</v>
       </c>
       <c r="V400" s="3">
-        <v>6385</v>
+        <v>3405</v>
       </c>
       <c r="W400" s="3">
-        <v>234.9</v>
+        <v>386.1</v>
       </c>
       <c r="X400" s="3">
-        <v>4542</v>
+        <v>2295</v>
       </c>
       <c r="Z400" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA400" t="s">
-        <v>597</v>
-      </c>
-      <c r="AB400" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD400" s="4">
-        <v>385</v>
+        <v>64</v>
       </c>
     </row>
     <row r="401" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C401" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D401" t="s">
-        <v>106</v>
-      </c>
-      <c r="E401" s="4" t="s">
-        <v>601</v>
+        <v>52</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K401" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="L401" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q401" s="3">
-        <v>167</v>
-      </c>
-      <c r="R401" s="3">
-        <v>6189</v>
-      </c>
-      <c r="S401" s="3">
-        <v>226.7</v>
-      </c>
-      <c r="T401" s="3">
-        <v>3026</v>
+        <v>131</v>
+      </c>
+      <c r="M401" s="1">
+        <v>300000</v>
       </c>
       <c r="U401" s="3">
-        <v>167.6</v>
+        <v>128.9</v>
       </c>
       <c r="V401" s="3">
-        <v>6627</v>
+        <v>4106</v>
       </c>
       <c r="W401" s="3">
-        <v>232</v>
+        <v>317.2</v>
       </c>
       <c r="X401" s="3">
-        <v>3046</v>
+        <v>2094</v>
       </c>
       <c r="Z401" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="AA401" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="AB401" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD401" s="4">
-        <v>75</v>
+        <v>180</v>
       </c>
     </row>
     <row r="402" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C402" s="4">
+        <v>14</v>
+      </c>
+      <c r="D402" t="s">
+        <v>28</v>
+      </c>
+      <c r="E402" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G402" t="s">
+        <v>677</v>
+      </c>
+      <c r="L402" s="3">
+        <v>193</v>
+      </c>
+      <c r="M402" s="1">
+        <v>335000</v>
+      </c>
+      <c r="Q402" s="3">
+        <v>193.1</v>
+      </c>
+      <c r="R402" s="3">
+        <v>6562</v>
+      </c>
+      <c r="S402" s="3">
+        <v>262</v>
+      </c>
+      <c r="T402" s="3">
+        <v>195.3</v>
+      </c>
+      <c r="U402" s="3">
+        <v>195.3</v>
+      </c>
+      <c r="V402" s="3">
+        <v>6605</v>
+      </c>
+      <c r="W402" s="3">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="X402" s="3">
+        <v>3696</v>
+      </c>
+      <c r="Z402" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA402" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB402" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD402" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="403" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B403">
         <v>3</v>
-      </c>
-      <c r="D402" t="s">
-        <v>106</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G402" t="s">
-        <v>606</v>
-      </c>
-      <c r="K402" t="s">
-        <v>76</v>
-      </c>
-      <c r="L402" s="3">
-        <v>180</v>
-      </c>
-      <c r="U402" s="3">
-        <v>160.6</v>
-      </c>
-      <c r="V402" s="3">
-        <v>5334</v>
-      </c>
-      <c r="W402" s="3">
-        <v>200.5</v>
-      </c>
-      <c r="X402" s="3">
-        <v>4806</v>
-      </c>
-      <c r="Z402" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA402" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB402" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD402" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C403" s="4">
-        <v>4</v>
-      </c>
-      <c r="D403" t="s">
-        <v>52</v>
-      </c>
-      <c r="E403" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J403" s="3">
-        <v>6</v>
-      </c>
-      <c r="L403" s="3">
-        <v>150</v>
-      </c>
-      <c r="M403" s="1">
-        <v>293000</v>
-      </c>
-      <c r="U403" s="3">
-        <v>142.4</v>
-      </c>
-      <c r="V403" s="3">
-        <v>4907</v>
-      </c>
-      <c r="W403" s="3">
-        <v>234.4</v>
-      </c>
-      <c r="X403" s="3">
-        <v>3859</v>
-      </c>
-      <c r="Z403" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA403" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB403" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD403" s="4">
-        <v>413</v>
       </c>
     </row>
     <row r="404" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C404" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D404" t="s">
-        <v>44</v>
-      </c>
-      <c r="E404" s="4" t="s">
-        <v>608</v>
+        <v>197</v>
+      </c>
+      <c r="E404" s="4">
+        <v>968</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G404" t="s">
-        <v>609</v>
+        <v>463</v>
       </c>
       <c r="L404" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q404" s="3">
-        <v>122</v>
+        <v>213.8</v>
       </c>
       <c r="R404" s="3">
-        <v>6640</v>
+        <v>6430</v>
       </c>
       <c r="S404" s="3">
-        <v>149.1</v>
+        <v>272.3</v>
       </c>
       <c r="T404" s="3">
-        <v>3067</v>
+        <v>4390</v>
       </c>
       <c r="U404" s="3">
-        <v>130.1</v>
+        <v>216.9</v>
       </c>
       <c r="V404" s="3">
-        <v>6687</v>
+        <v>6411</v>
       </c>
       <c r="W404" s="3">
-        <v>154.9</v>
+        <v>276.2</v>
       </c>
       <c r="X404" s="3">
-        <v>3043</v>
+        <v>4383</v>
       </c>
       <c r="Z404" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
       <c r="AA404" t="s">
-        <v>553</v>
+        <v>633</v>
       </c>
       <c r="AB404" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AD404" s="4">
-        <v>120</v>
+        <v>400</v>
       </c>
     </row>
     <row r="405" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C405" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D405" t="s">
         <v>52</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J405" s="3">
-        <v>5</v>
-      </c>
-      <c r="K405" t="s">
-        <v>76</v>
+        <v>205</v>
+      </c>
+      <c r="G405" t="s">
+        <v>634</v>
       </c>
       <c r="L405" s="3">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="U405" s="3">
-        <v>115.1</v>
+        <v>205.7</v>
       </c>
       <c r="V405" s="3">
-        <v>6028</v>
+        <v>5632</v>
       </c>
       <c r="W405" s="3">
-        <v>169.6</v>
+        <v>328.8</v>
       </c>
       <c r="X405" s="3">
-        <v>2501</v>
-      </c>
-      <c r="Z405" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA405" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC405" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD405" s="4">
-        <v>650</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="406" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C406" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D406" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G406" t="s">
-        <v>615</v>
-      </c>
       <c r="L406" s="3">
-        <v>265</v>
-      </c>
-      <c r="Q406" s="3">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="R406" s="3">
-        <v>6022</v>
-      </c>
-      <c r="S406" s="3">
-        <v>375.1</v>
-      </c>
-      <c r="T406" s="3">
-        <v>3212</v>
+        <v>230</v>
       </c>
       <c r="U406" s="3">
-        <v>283.60000000000002</v>
+        <v>243.4</v>
       </c>
       <c r="V406" s="3">
-        <v>5525</v>
+        <v>5400</v>
       </c>
       <c r="W406" s="3">
-        <v>398.7</v>
+        <v>354.6</v>
       </c>
       <c r="X406" s="3">
-        <v>3621</v>
+        <v>3056</v>
       </c>
       <c r="Z406" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="AA406" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="AB406" t="s">
         <v>42</v>
       </c>
       <c r="AD406" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="407" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C407" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D407" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G407" t="s">
-        <v>618</v>
+        <v>638</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J407" s="3">
+        <v>5</v>
       </c>
       <c r="L407" s="3">
-        <v>129</v>
+        <v>305</v>
+      </c>
+      <c r="Q407" s="3">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="R407" s="3">
+        <v>6190</v>
+      </c>
+      <c r="S407" s="3">
+        <v>404.5</v>
+      </c>
+      <c r="T407" s="3">
+        <v>4616</v>
       </c>
       <c r="U407" s="3">
-        <v>181</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="V407" s="3">
-        <v>5896</v>
+        <v>6708</v>
       </c>
       <c r="W407" s="3">
-        <v>233</v>
+        <v>405.5</v>
       </c>
       <c r="X407" s="3">
-        <v>5296</v>
+        <v>4650</v>
       </c>
       <c r="Z407" t="s">
-        <v>616</v>
+        <v>446</v>
       </c>
       <c r="AA407" t="s">
-        <v>617</v>
+        <v>447</v>
       </c>
       <c r="AB407" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD407" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="408" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C408" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D408" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G408" t="s">
-        <v>623</v>
-      </c>
-      <c r="J408" s="3">
-        <v>5</v>
+        <v>206</v>
+      </c>
+      <c r="L408" s="3">
+        <v>75</v>
+      </c>
+      <c r="M408" s="1">
+        <v>226000</v>
+      </c>
+      <c r="Q408" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="R408" s="3">
+        <v>5116</v>
+      </c>
+      <c r="S408" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="T408" s="3">
+        <v>3629</v>
       </c>
       <c r="U408" s="3">
-        <v>227.8</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V408" s="3">
-        <v>5921</v>
+        <v>4943</v>
       </c>
       <c r="W408" s="3">
-        <v>343</v>
+        <v>115.9</v>
       </c>
       <c r="X408" s="3">
-        <v>4521</v>
+        <v>3522</v>
       </c>
       <c r="Z408" t="s">
-        <v>620</v>
+        <v>446</v>
       </c>
       <c r="AA408" t="s">
-        <v>621</v>
+        <v>447</v>
       </c>
       <c r="AB408" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD408" s="4">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="409" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C409" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D409" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>626</v>
+        <v>640</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L409" s="3">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="U409" s="3">
-        <v>133.4</v>
+        <v>186.1</v>
       </c>
       <c r="V409" s="3">
-        <v>6587</v>
+        <v>3265</v>
       </c>
       <c r="W409" s="3">
-        <v>148.5</v>
+        <v>451.4</v>
       </c>
       <c r="X409" s="3">
-        <v>4539</v>
+        <v>2059</v>
       </c>
       <c r="Z409" t="s">
-        <v>624</v>
+        <v>189</v>
       </c>
       <c r="AA409" t="s">
-        <v>625</v>
+        <v>190</v>
       </c>
       <c r="AB409" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD409" s="4">
-        <v>80</v>
+        <v>220</v>
       </c>
     </row>
     <row r="410" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C410" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D410" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="F410" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G410" t="s">
-        <v>576</v>
-      </c>
-      <c r="H410" s="3" t="s">
-        <v>46</v>
+        <v>643</v>
+      </c>
+      <c r="J410" s="3">
+        <v>8</v>
+      </c>
+      <c r="K410" t="s">
+        <v>76</v>
       </c>
       <c r="L410" s="3">
-        <v>131</v>
+        <v>306</v>
+      </c>
+      <c r="M410" s="1">
+        <v>303000</v>
       </c>
       <c r="Q410" s="3">
-        <v>158.69999999999999</v>
+        <v>248</v>
       </c>
       <c r="R410" s="3">
-        <v>4020</v>
+        <v>5970</v>
       </c>
       <c r="S410" s="3">
-        <v>348.9</v>
+        <v>339.7</v>
       </c>
       <c r="T410" s="3">
-        <v>2359</v>
+        <v>3305</v>
       </c>
       <c r="U410" s="3">
-        <v>160.6</v>
+        <v>247.9</v>
       </c>
       <c r="V410" s="3">
-        <v>4049</v>
+        <v>6245</v>
       </c>
       <c r="W410" s="3">
-        <v>350.3</v>
+        <v>342.5</v>
       </c>
       <c r="X410" s="3">
-        <v>2430</v>
+        <v>3314</v>
       </c>
       <c r="Z410" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="AA410" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="AB410" t="s">
         <v>42</v>
       </c>
       <c r="AD410" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="411" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C411" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D411" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>630</v>
+        <v>413</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="G411" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="L411" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q411" s="3">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="R411" s="3">
-        <v>6258</v>
-      </c>
-      <c r="S411" s="3">
-        <v>449.1</v>
-      </c>
-      <c r="T411" s="3">
-        <v>3927</v>
+        <v>125</v>
       </c>
       <c r="U411" s="3">
-        <v>308.89999999999998</v>
+        <v>137</v>
       </c>
       <c r="V411" s="3">
-        <v>6376</v>
+        <v>7319</v>
       </c>
       <c r="W411" s="3">
-        <v>447.1</v>
+        <v>134.5</v>
       </c>
       <c r="X411" s="3">
-        <v>3904</v>
-      </c>
-      <c r="Z411" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA411" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB411" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD411" s="4">
-        <v>45</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="412" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C412" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D412" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K412" t="s">
-        <v>76</v>
+        <v>635</v>
+      </c>
+      <c r="J412" s="3">
+        <v>8</v>
       </c>
       <c r="L412" s="3">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="U412" s="3">
-        <v>205</v>
+        <v>312.8</v>
+      </c>
+      <c r="V412" s="3">
+        <v>6550</v>
       </c>
       <c r="W412" s="3">
-        <v>240</v>
+        <v>410.4</v>
+      </c>
+      <c r="X412" s="3">
+        <v>4479</v>
       </c>
       <c r="Z412" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="AA412" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="AB412" t="s">
         <v>42</v>
       </c>
       <c r="AD412" s="4">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="413" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B413">
-        <v>1</v>
+      <c r="C413" s="4">
+        <v>10</v>
+      </c>
+      <c r="D413" t="s">
+        <v>28</v>
+      </c>
+      <c r="E413" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G413" t="s">
+        <v>606</v>
+      </c>
+      <c r="L413" s="3">
+        <v>220</v>
+      </c>
+      <c r="N413" s="3">
+        <v>1981</v>
+      </c>
+      <c r="U413" s="3">
+        <v>190.7</v>
+      </c>
+      <c r="V413" s="3">
+        <v>6165</v>
+      </c>
+      <c r="W413" s="3">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="X413" s="3">
+        <v>4193</v>
+      </c>
+      <c r="Z413" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB413" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD413" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C414" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D414" t="s">
         <v>28</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>209</v>
+        <v>474</v>
       </c>
       <c r="J414" s="3">
         <v>6</v>
       </c>
       <c r="L414" s="3">
-        <v>193</v>
+        <v>306</v>
+      </c>
+      <c r="Q414" s="3">
+        <v>336.6</v>
+      </c>
+      <c r="R414" s="3">
+        <v>5778</v>
+      </c>
+      <c r="S414" s="3">
+        <v>550</v>
+      </c>
+      <c r="T414" s="3">
+        <v>4222</v>
       </c>
       <c r="U414" s="3">
-        <v>196.4</v>
+        <v>341.5</v>
       </c>
       <c r="V414" s="3">
-        <v>6004</v>
+        <v>4394</v>
       </c>
       <c r="W414" s="3">
-        <v>250</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="X414" s="3">
-        <v>4813</v>
+        <v>4310</v>
       </c>
       <c r="Z414" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="AA414" t="s">
-        <v>70</v>
+        <v>647</v>
       </c>
       <c r="AB414" t="s">
         <v>42</v>
       </c>
       <c r="AD414" s="4">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="415" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C415" s="4">
+      <c r="B415">
         <v>2</v>
-      </c>
-      <c r="D415" t="s">
-        <v>44</v>
-      </c>
-      <c r="E415" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="F415" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L415" s="3">
-        <v>160</v>
-      </c>
-      <c r="Q415" s="3">
-        <v>161.19999999999999</v>
-      </c>
-      <c r="R415" s="3">
-        <v>25980</v>
-      </c>
-      <c r="S415" s="3">
-        <v>212.9</v>
-      </c>
-      <c r="T415" s="3">
-        <v>4710</v>
-      </c>
-      <c r="U415" s="3">
-        <v>162.9</v>
-      </c>
-      <c r="V415" s="3">
-        <v>6026</v>
-      </c>
-      <c r="W415" s="3">
-        <v>216.6</v>
-      </c>
-      <c r="X415" s="3">
-        <v>4748</v>
-      </c>
-      <c r="Z415" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA415" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB415" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD415" s="4">
-        <v>180</v>
       </c>
     </row>
     <row r="416" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C416" s="4">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>528</v>
+      </c>
+      <c r="E416" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L416" s="3">
+        <v>169</v>
+      </c>
+      <c r="Q416" s="3">
+        <v>184.2</v>
+      </c>
+      <c r="R416" s="3">
+        <v>6393</v>
+      </c>
+      <c r="S416" s="3">
+        <v>236.7</v>
+      </c>
+      <c r="T416" s="3">
+        <v>4499</v>
+      </c>
+      <c r="U416" s="3">
+        <v>186.4</v>
+      </c>
+      <c r="V416" s="3">
+        <v>6385</v>
+      </c>
+      <c r="W416" s="3">
+        <v>234.9</v>
+      </c>
+      <c r="X416" s="3">
+        <v>4542</v>
+      </c>
+      <c r="Z416" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA416" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB416" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD416" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="417" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C417" s="4">
+        <v>2</v>
+      </c>
+      <c r="D417" t="s">
+        <v>106</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K417" t="s">
+        <v>76</v>
+      </c>
+      <c r="L417" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q417" s="3">
+        <v>167</v>
+      </c>
+      <c r="R417" s="3">
+        <v>6189</v>
+      </c>
+      <c r="S417" s="3">
+        <v>226.7</v>
+      </c>
+      <c r="T417" s="3">
+        <v>3026</v>
+      </c>
+      <c r="U417" s="3">
+        <v>167.6</v>
+      </c>
+      <c r="V417" s="3">
+        <v>6627</v>
+      </c>
+      <c r="W417" s="3">
+        <v>232</v>
+      </c>
+      <c r="X417" s="3">
+        <v>3046</v>
+      </c>
+      <c r="Z417" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA417" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB417" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD417" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="418" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C418" s="4">
         <v>3</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D418" t="s">
+        <v>106</v>
+      </c>
+      <c r="E418" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G418" t="s">
+        <v>606</v>
+      </c>
+      <c r="K418" t="s">
+        <v>76</v>
+      </c>
+      <c r="L418" s="3">
+        <v>180</v>
+      </c>
+      <c r="U418" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V418" s="3">
+        <v>5334</v>
+      </c>
+      <c r="W418" s="3">
+        <v>200.5</v>
+      </c>
+      <c r="X418" s="3">
+        <v>4806</v>
+      </c>
+      <c r="Z418" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA418" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB418" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD418" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C419" s="4">
+        <v>4</v>
+      </c>
+      <c r="D419" t="s">
+        <v>52</v>
+      </c>
+      <c r="E419" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J419" s="3">
+        <v>6</v>
+      </c>
+      <c r="L419" s="3">
+        <v>150</v>
+      </c>
+      <c r="M419" s="1">
+        <v>293000</v>
+      </c>
+      <c r="U419" s="3">
+        <v>142.4</v>
+      </c>
+      <c r="V419" s="3">
+        <v>4907</v>
+      </c>
+      <c r="W419" s="3">
+        <v>234.4</v>
+      </c>
+      <c r="X419" s="3">
+        <v>3859</v>
+      </c>
+      <c r="Z419" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA419" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB419" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD419" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="420" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C420" s="4">
+        <v>5</v>
+      </c>
+      <c r="D420" t="s">
+        <v>44</v>
+      </c>
+      <c r="E420" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G420" t="s">
+        <v>609</v>
+      </c>
+      <c r="L420" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q420" s="3">
+        <v>122</v>
+      </c>
+      <c r="R420" s="3">
+        <v>6640</v>
+      </c>
+      <c r="S420" s="3">
+        <v>149.1</v>
+      </c>
+      <c r="T420" s="3">
+        <v>3067</v>
+      </c>
+      <c r="U420" s="3">
+        <v>130.1</v>
+      </c>
+      <c r="V420" s="3">
+        <v>6687</v>
+      </c>
+      <c r="W420" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="X420" s="3">
+        <v>3043</v>
+      </c>
+      <c r="Z420" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA420" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB420" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD420" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="421" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C421" s="4">
+        <v>6</v>
+      </c>
+      <c r="D421" t="s">
+        <v>52</v>
+      </c>
+      <c r="E421" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J421" s="3">
+        <v>5</v>
+      </c>
+      <c r="K421" t="s">
+        <v>76</v>
+      </c>
+      <c r="L421" s="3">
+        <v>136</v>
+      </c>
+      <c r="U421" s="3">
+        <v>115.1</v>
+      </c>
+      <c r="V421" s="3">
+        <v>6028</v>
+      </c>
+      <c r="W421" s="3">
+        <v>169.6</v>
+      </c>
+      <c r="X421" s="3">
+        <v>2501</v>
+      </c>
+      <c r="Z421" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA421" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC421" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD421" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="422" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C422" s="4">
+        <v>7</v>
+      </c>
+      <c r="D422" t="s">
+        <v>217</v>
+      </c>
+      <c r="E422" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G422" t="s">
+        <v>615</v>
+      </c>
+      <c r="L422" s="3">
+        <v>265</v>
+      </c>
+      <c r="Q422" s="3">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="R422" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S422" s="3">
+        <v>375.1</v>
+      </c>
+      <c r="T422" s="3">
+        <v>3212</v>
+      </c>
+      <c r="U422" s="3">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="V422" s="3">
+        <v>5525</v>
+      </c>
+      <c r="W422" s="3">
+        <v>398.7</v>
+      </c>
+      <c r="X422" s="3">
+        <v>3621</v>
+      </c>
+      <c r="Z422" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA422" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB422" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD422" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="423" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C423" s="4">
+        <v>8</v>
+      </c>
+      <c r="D423" t="s">
+        <v>28</v>
+      </c>
+      <c r="E423" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G423" t="s">
+        <v>618</v>
+      </c>
+      <c r="L423" s="3">
+        <v>129</v>
+      </c>
+      <c r="U423" s="3">
+        <v>181</v>
+      </c>
+      <c r="V423" s="3">
+        <v>5896</v>
+      </c>
+      <c r="W423" s="3">
+        <v>233</v>
+      </c>
+      <c r="X423" s="3">
+        <v>5296</v>
+      </c>
+      <c r="Z423" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA423" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB423" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD423" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="424" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C424" s="4">
+        <v>9</v>
+      </c>
+      <c r="D424" t="s">
+        <v>52</v>
+      </c>
+      <c r="E424" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G424" t="s">
+        <v>623</v>
+      </c>
+      <c r="J424" s="3">
+        <v>5</v>
+      </c>
+      <c r="U424" s="3">
+        <v>227.8</v>
+      </c>
+      <c r="V424" s="3">
+        <v>5921</v>
+      </c>
+      <c r="W424" s="3">
+        <v>343</v>
+      </c>
+      <c r="X424" s="3">
+        <v>4521</v>
+      </c>
+      <c r="Z424" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA424" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB424" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD424" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="425" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C425" s="4">
+        <v>10</v>
+      </c>
+      <c r="D425" t="s">
+        <v>217</v>
+      </c>
+      <c r="E425" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="L425" s="3">
+        <v>135</v>
+      </c>
+      <c r="U425" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="V425" s="3">
+        <v>6587</v>
+      </c>
+      <c r="W425" s="3">
+        <v>148.5</v>
+      </c>
+      <c r="X425" s="3">
+        <v>4539</v>
+      </c>
+      <c r="Z425" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA425" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB425" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD425" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="426" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C426" s="4">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s">
+        <v>36</v>
+      </c>
+      <c r="E426" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G426" t="s">
+        <v>576</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L426" s="3">
+        <v>131</v>
+      </c>
+      <c r="Q426" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R426" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S426" s="3">
+        <v>348.9</v>
+      </c>
+      <c r="T426" s="3">
+        <v>2359</v>
+      </c>
+      <c r="U426" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V426" s="3">
+        <v>4049</v>
+      </c>
+      <c r="W426" s="3">
+        <v>350.3</v>
+      </c>
+      <c r="X426" s="3">
+        <v>2430</v>
+      </c>
+      <c r="Z426" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA426" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB426" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD426" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="427" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C427" s="4">
+        <v>12</v>
+      </c>
+      <c r="D427" t="s">
+        <v>44</v>
+      </c>
+      <c r="E427" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G427" t="s">
+        <v>576</v>
+      </c>
+      <c r="L427" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q427" s="3">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R427" s="3">
+        <v>6258</v>
+      </c>
+      <c r="S427" s="3">
+        <v>449.1</v>
+      </c>
+      <c r="T427" s="3">
+        <v>3927</v>
+      </c>
+      <c r="U427" s="3">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="V427" s="3">
+        <v>6376</v>
+      </c>
+      <c r="W427" s="3">
+        <v>447.1</v>
+      </c>
+      <c r="X427" s="3">
+        <v>3904</v>
+      </c>
+      <c r="Z427" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA427" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB427" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD427" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="428" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C428" s="4">
+        <v>13</v>
+      </c>
+      <c r="D428" t="s">
+        <v>28</v>
+      </c>
+      <c r="E428" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K428" t="s">
+        <v>76</v>
+      </c>
+      <c r="L428" s="3">
+        <v>193</v>
+      </c>
+      <c r="U428" s="3">
+        <v>205</v>
+      </c>
+      <c r="W428" s="3">
+        <v>240</v>
+      </c>
+      <c r="Z428" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA428" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB428" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD428" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="429" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C430" s="4">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>28</v>
+      </c>
+      <c r="E430" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J430" s="3">
+        <v>6</v>
+      </c>
+      <c r="L430" s="3">
+        <v>193</v>
+      </c>
+      <c r="U430" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V430" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W430" s="3">
+        <v>250</v>
+      </c>
+      <c r="X430" s="3">
+        <v>4813</v>
+      </c>
+      <c r="Z430" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA430" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB430" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD430" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="431" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C431" s="4">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>44</v>
+      </c>
+      <c r="E431" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L431" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q431" s="3">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="R431" s="3">
+        <v>25980</v>
+      </c>
+      <c r="S431" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="T431" s="3">
+        <v>4710</v>
+      </c>
+      <c r="U431" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="V431" s="3">
+        <v>6026</v>
+      </c>
+      <c r="W431" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="X431" s="3">
+        <v>4748</v>
+      </c>
+      <c r="Z431" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA431" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB431" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD431" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="432" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C432" s="4">
+        <v>3</v>
+      </c>
+      <c r="D432" t="s">
         <v>38</v>
       </c>
-      <c r="E416" s="4" t="s">
+      <c r="E432" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F416" s="2" t="s">
+      <c r="F432" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G416" t="s">
+      <c r="G432" t="s">
         <v>588</v>
       </c>
-      <c r="L416" s="3">
+      <c r="L432" s="3">
         <v>250</v>
       </c>
-      <c r="Q416" s="3">
+      <c r="Q432" s="3">
         <v>268.3</v>
       </c>
-      <c r="R416" s="3">
+      <c r="R432" s="3">
         <v>5341</v>
       </c>
-      <c r="S416" s="3">
+      <c r="S432" s="3">
         <v>440.9</v>
       </c>
-      <c r="T416" s="3">
+      <c r="T432" s="3">
         <v>2638</v>
       </c>
-      <c r="U416" s="3">
+      <c r="U432" s="3">
         <v>268.2</v>
       </c>
-      <c r="V416" s="3">
+      <c r="V432" s="3">
         <v>5400</v>
       </c>
-      <c r="W416" s="3">
+      <c r="W432" s="3">
         <v>448.9</v>
       </c>
-      <c r="X416" s="3">
+      <c r="X432" s="3">
         <v>2646</v>
       </c>
-      <c r="Z416" t="s">
+      <c r="Z432" t="s">
         <v>215</v>
       </c>
-      <c r="AA416" t="s">
+      <c r="AA432" t="s">
         <v>216</v>
       </c>
-      <c r="AB416" t="s">
+      <c r="AB432" t="s">
         <v>42</v>
       </c>
-      <c r="AD416" s="4">
+      <c r="AD432" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C417" s="4">
+    <row r="433" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C433" s="4">
         <v>4</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D433" t="s">
         <v>44</v>
       </c>
-      <c r="E417" s="4" t="s">
+      <c r="E433" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="F417" s="2" t="s">
+      <c r="F433" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G417" t="s">
+      <c r="G433" t="s">
         <v>590</v>
       </c>
-      <c r="L417" s="3">
+      <c r="L433" s="3">
         <v>139</v>
       </c>
-      <c r="N417" s="3">
+      <c r="N433" s="3">
         <v>1986</v>
       </c>
-      <c r="Q417" s="3">
+      <c r="Q433" s="3">
         <v>209.1</v>
       </c>
-      <c r="R417" s="3">
+      <c r="R433" s="3">
         <v>7791</v>
       </c>
-      <c r="S417" s="3">
+      <c r="S433" s="3">
         <v>212</v>
       </c>
-      <c r="T417" s="3">
+      <c r="T433" s="3">
         <v>5755</v>
       </c>
-      <c r="U417" s="3">
+      <c r="U433" s="3">
         <v>208</v>
       </c>
-      <c r="V417" s="3">
+      <c r="V433" s="3">
         <v>7966</v>
       </c>
-      <c r="W417" s="3">
+      <c r="W433" s="3">
         <v>213.2</v>
       </c>
-      <c r="X417" s="3">
+      <c r="X433" s="3">
         <v>5807</v>
       </c>
     </row>
-    <row r="418" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C418" s="4">
+    <row r="434" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C434" s="4">
         <v>5</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D434" t="s">
         <v>44</v>
       </c>
-      <c r="E418" s="4" t="s">
+      <c r="E434" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="F418" s="2" t="s">
+      <c r="F434" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G418" t="s">
+      <c r="G434" t="s">
         <v>594</v>
       </c>
-      <c r="L418" s="3">
+      <c r="L434" s="3">
         <v>85</v>
       </c>
-      <c r="Q418" s="3">
+      <c r="Q434" s="3">
         <v>98.4</v>
       </c>
-      <c r="R418" s="3">
+      <c r="R434" s="3">
         <v>5085</v>
       </c>
-      <c r="S418" s="3">
+      <c r="S434" s="3">
         <v>160.1</v>
       </c>
-      <c r="T418" s="3">
+      <c r="T434" s="3">
         <v>3668</v>
       </c>
-      <c r="U418" s="3">
+      <c r="U434" s="3">
         <v>96.9</v>
       </c>
-      <c r="V418" s="3">
+      <c r="V434" s="3">
         <v>4993</v>
       </c>
-      <c r="W418" s="3">
+      <c r="W434" s="3">
         <v>159.5</v>
       </c>
-      <c r="X418" s="3">
+      <c r="X434" s="3">
         <v>3305</v>
       </c>
-      <c r="Z418" t="s">
+      <c r="Z434" t="s">
         <v>591</v>
       </c>
-      <c r="AA418" t="s">
+      <c r="AA434" t="s">
         <v>592</v>
       </c>
-      <c r="AB418" t="s">
+      <c r="AB434" t="s">
         <v>112</v>
       </c>
-      <c r="AD418" s="4">
+      <c r="AD434" s="4">
         <v>280</v>
       </c>
     </row>
-    <row r="419" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C419" s="4">
+    <row r="435" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C435" s="4">
         <v>6</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D435" t="s">
         <v>178</v>
       </c>
-      <c r="E419" s="4" t="s">
+      <c r="E435" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F419" s="2" t="s">
+      <c r="F435" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G419" t="s">
+      <c r="G435" t="s">
         <v>595</v>
       </c>
-      <c r="L419" s="3">
+      <c r="L435" s="3">
         <v>116</v>
       </c>
-      <c r="M419" s="1">
+      <c r="M435" s="1">
         <v>325000</v>
       </c>
-      <c r="Q419" s="3">
+      <c r="Q435" s="3">
         <v>109.7</v>
       </c>
-      <c r="R419" s="3">
+      <c r="R435" s="3">
         <v>6570</v>
       </c>
-      <c r="S419" s="3">
+      <c r="S435" s="3">
         <v>130</v>
       </c>
-      <c r="T419" s="3">
+      <c r="T435" s="3">
         <v>5181</v>
       </c>
-      <c r="U419" s="3">
+      <c r="U435" s="3">
         <v>111.1</v>
       </c>
-      <c r="V419" s="3">
+      <c r="V435" s="3">
         <v>6500</v>
       </c>
-      <c r="W419" s="3">
+      <c r="W435" s="3">
         <v>132.30000000000001</v>
       </c>
-      <c r="X419" s="3">
+      <c r="X435" s="3">
         <v>5179</v>
       </c>
-      <c r="Z419" t="s">
+      <c r="Z435" t="s">
         <v>47</v>
       </c>
-      <c r="AA419" t="s">
+      <c r="AA435" t="s">
         <v>48</v>
       </c>
-      <c r="AB419" t="s">
+      <c r="AB435" t="s">
         <v>42</v>
       </c>
-      <c r="AD419" s="4">
+      <c r="AD435" s="4">
         <v>36</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A9B881-6CB6-41CA-B142-3E6A8E757F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DBC9F2-6E75-4694-A9C8-1FA300FA7555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="841">
   <si>
     <t>Episode</t>
   </si>
@@ -2501,6 +2501,48 @@
   </si>
   <si>
     <t>Aufgebort auf 2.5l, Radleistung, 1.Messung mit Lüfter</t>
+  </si>
+  <si>
+    <t>Siehe Episode 9 Nr. 1</t>
+  </si>
+  <si>
+    <t>Golf IV GTI</t>
+  </si>
+  <si>
+    <t>Golf I Cabrio</t>
+  </si>
+  <si>
+    <t>Fulvia</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Göppingen</t>
+  </si>
+  <si>
+    <t>80 (B3) S</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Fulda</t>
+  </si>
+  <si>
+    <t>A4 TFSI</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Colt Turbo</t>
+  </si>
+  <si>
+    <t>2. Messung mit getauschten Vergaserdüsen</t>
   </si>
 </sst>
 </file>
@@ -3352,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE435"/>
+  <dimension ref="A1:AE437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="E308" sqref="E308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12659,183 +12701,427 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C298" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>36</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G298" t="s">
+        <v>827</v>
+      </c>
+      <c r="L298" s="3">
+        <v>150</v>
+      </c>
+      <c r="U298" s="3">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="V298" s="3">
+        <v>6462</v>
+      </c>
+      <c r="W298" s="3">
+        <v>193.5</v>
+      </c>
+      <c r="X298" s="3">
+        <v>4946</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="299" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C299" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>44</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L299" s="3">
+        <v>150</v>
+      </c>
+      <c r="U299" s="3">
+        <v>223.9</v>
+      </c>
+      <c r="V299" s="3">
+        <v>5101</v>
+      </c>
+      <c r="W299" s="3">
+        <v>330</v>
+      </c>
+      <c r="X299" s="3">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="300" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C300" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>44</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G300" t="s">
+        <v>320</v>
+      </c>
+      <c r="L300" s="3">
+        <v>98</v>
+      </c>
+      <c r="U300" s="3">
+        <v>104</v>
+      </c>
+      <c r="V300" s="3">
+        <v>5525</v>
+      </c>
+      <c r="W300" s="3">
+        <v>145.5</v>
+      </c>
+      <c r="X300" s="3">
+        <v>4918</v>
+      </c>
+      <c r="Z300" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="301" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C301" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>52</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J301" s="3">
+        <v>5</v>
+      </c>
+      <c r="L301" s="3">
+        <v>133</v>
+      </c>
+      <c r="Q301" s="3">
+        <v>121.1</v>
+      </c>
+      <c r="R301" s="3">
+        <v>5671</v>
+      </c>
+      <c r="S301" s="3">
+        <v>173</v>
+      </c>
+      <c r="T301" s="3">
+        <v>3790</v>
+      </c>
+      <c r="U301" s="3">
+        <v>117</v>
+      </c>
+      <c r="V301" s="3">
+        <v>5683</v>
+      </c>
+      <c r="W301" s="3">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="X301" s="3">
+        <v>2849</v>
+      </c>
+      <c r="Z301" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="302" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C302" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>139</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G302" t="s">
+        <v>840</v>
+      </c>
+      <c r="L302" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q302" s="3">
+        <v>88.7</v>
+      </c>
+      <c r="R302" s="3">
+        <v>6115</v>
+      </c>
+      <c r="S302" s="3">
+        <v>111.9</v>
+      </c>
+      <c r="T302" s="3">
+        <v>5265</v>
+      </c>
+      <c r="U302" s="3">
+        <v>94.2</v>
+      </c>
+      <c r="V302" s="3">
+        <v>6580</v>
+      </c>
+      <c r="W302" s="3">
+        <v>115.5</v>
+      </c>
+      <c r="X302" s="3">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="303" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C303" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>52</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L303" s="3">
+        <v>90</v>
+      </c>
+      <c r="U303" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="V303" s="3">
+        <v>5407</v>
+      </c>
+      <c r="W303" s="3">
+        <v>137.4</v>
+      </c>
+      <c r="X303" s="3">
+        <v>3112</v>
+      </c>
+      <c r="Z303" t="s">
+        <v>831</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>832</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD303" s="4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="304" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C304" s="4">
         <v>7</v>
+      </c>
+      <c r="D304" t="s">
+        <v>52</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L304" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q304" s="3">
+        <v>201.1</v>
+      </c>
+      <c r="R304" s="3">
+        <v>5268</v>
+      </c>
+      <c r="S304" s="3">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="T304" s="3">
+        <v>4682</v>
+      </c>
+      <c r="U304" s="3">
+        <v>207.8</v>
+      </c>
+      <c r="V304" s="3">
+        <v>5347</v>
+      </c>
+      <c r="W304" s="3">
+        <v>296</v>
+      </c>
+      <c r="X304" s="3">
+        <v>4717</v>
+      </c>
+      <c r="Z304" t="s">
+        <v>834</v>
+      </c>
+      <c r="AA304" t="s">
+        <v>835</v>
+      </c>
+      <c r="AB304" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD304" s="4">
+        <v>280</v>
       </c>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C305" s="4">
         <v>8</v>
       </c>
+      <c r="D305" t="s">
+        <v>197</v>
+      </c>
+      <c r="E305" s="4">
+        <v>996</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="L305" s="3">
+        <v>300</v>
+      </c>
+      <c r="U305" s="3">
+        <v>284.60000000000002</v>
+      </c>
+      <c r="V305" s="3">
+        <v>7078</v>
+      </c>
+      <c r="W305" s="3">
+        <v>320.89999999999998</v>
+      </c>
+      <c r="X305" s="3">
+        <v>4904</v>
+      </c>
+      <c r="Z305" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="306" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C306" s="4">
         <v>9</v>
       </c>
+      <c r="D306" t="s">
+        <v>44</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G306" t="s">
+        <v>576</v>
+      </c>
+      <c r="L306" s="3">
+        <v>131</v>
+      </c>
+      <c r="U306" s="3">
+        <v>174.4</v>
+      </c>
+      <c r="V306" s="3">
+        <v>3189</v>
+      </c>
+      <c r="W306" s="3">
+        <v>433</v>
+      </c>
+      <c r="X306" s="3">
+        <v>136.19999999999999</v>
+      </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C307" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="309" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B309">
+      <c r="D307" t="s">
+        <v>175</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="L307" s="3">
+        <v>150</v>
+      </c>
+      <c r="U307" s="3">
+        <v>175.2</v>
+      </c>
+      <c r="V307" s="3">
+        <v>6390</v>
+      </c>
+      <c r="W307" s="3">
+        <v>260</v>
+      </c>
+      <c r="X307" s="3">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="308" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C308" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z308" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="311" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B311">
         <v>9</v>
-      </c>
-    </row>
-    <row r="310" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C310" s="4">
-        <v>1</v>
-      </c>
-      <c r="D310" t="s">
-        <v>36</v>
-      </c>
-      <c r="E310" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G310" t="s">
-        <v>798</v>
-      </c>
-      <c r="L310" s="3">
-        <v>150</v>
-      </c>
-      <c r="Q310" s="3">
-        <v>139.6</v>
-      </c>
-      <c r="R310" s="3">
-        <v>5505</v>
-      </c>
-      <c r="S310" s="3">
-        <v>183.1</v>
-      </c>
-      <c r="T310" s="3">
-        <v>5132</v>
-      </c>
-      <c r="U310" s="3">
-        <v>141.30000000000001</v>
-      </c>
-      <c r="V310" s="3">
-        <v>5883</v>
-      </c>
-      <c r="W310" s="3">
-        <v>182.6</v>
-      </c>
-      <c r="X310" s="3">
-        <v>4890</v>
-      </c>
-      <c r="Z310" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="311" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C311" s="4">
-        <v>2</v>
-      </c>
-      <c r="D311" t="s">
-        <v>52</v>
-      </c>
-      <c r="E311" s="4">
-        <v>90</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J311" s="3">
-        <v>5</v>
-      </c>
-      <c r="L311" s="3">
-        <v>136</v>
-      </c>
-      <c r="M311" s="1">
-        <v>67120</v>
-      </c>
-      <c r="U311" s="3">
-        <v>124.7</v>
-      </c>
-      <c r="V311" s="3">
-        <v>5532</v>
-      </c>
-      <c r="W311" s="3">
-        <v>178.1</v>
-      </c>
-      <c r="X311" s="3">
-        <v>4061</v>
-      </c>
-      <c r="Z311" t="s">
-        <v>796</v>
-      </c>
-      <c r="AA311" t="s">
-        <v>797</v>
-      </c>
-      <c r="AB311" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD311" s="4">
-        <v>130</v>
       </c>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C312" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D312" t="s">
         <v>36</v>
@@ -12846,3935 +13132,3929 @@
       <c r="F312" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="G312" t="s">
+        <v>798</v>
+      </c>
       <c r="L312" s="3">
-        <v>90</v>
-      </c>
-      <c r="N312" s="3">
-        <v>1978</v>
+        <v>150</v>
+      </c>
+      <c r="Q312" s="3">
+        <v>139.6</v>
+      </c>
+      <c r="R312" s="3">
+        <v>5505</v>
+      </c>
+      <c r="S312" s="3">
+        <v>183.1</v>
+      </c>
+      <c r="T312" s="3">
+        <v>5132</v>
       </c>
       <c r="U312" s="3">
-        <v>97.6</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="V312" s="3">
-        <v>4817</v>
+        <v>5883</v>
       </c>
       <c r="W312" s="3">
-        <v>150.9</v>
+        <v>182.6</v>
       </c>
       <c r="X312" s="3">
-        <v>4323</v>
+        <v>4890</v>
       </c>
       <c r="Z312" t="s">
-        <v>799</v>
-      </c>
-      <c r="AA312" t="s">
-        <v>800</v>
-      </c>
-      <c r="AB312" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD312" s="4">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="313" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C313" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D313" t="s">
-        <v>28</v>
-      </c>
-      <c r="E313" s="4" t="s">
-        <v>801</v>
+        <v>52</v>
+      </c>
+      <c r="E313" s="4">
+        <v>90</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>463</v>
+        <v>373</v>
+      </c>
+      <c r="J313" s="3">
+        <v>5</v>
       </c>
       <c r="L313" s="3">
-        <v>231</v>
-      </c>
-      <c r="Q313" s="3">
-        <v>213.7</v>
-      </c>
-      <c r="R313" s="3">
-        <v>6315</v>
-      </c>
-      <c r="S313" s="3">
-        <v>273.3</v>
-      </c>
-      <c r="T313" s="3">
-        <v>3658</v>
+        <v>136</v>
+      </c>
+      <c r="M313" s="1">
+        <v>67120</v>
       </c>
       <c r="U313" s="3">
-        <v>217.7</v>
+        <v>124.7</v>
       </c>
       <c r="V313" s="3">
-        <v>6263</v>
+        <v>5532</v>
       </c>
       <c r="W313" s="3">
-        <v>277.3</v>
+        <v>178.1</v>
       </c>
       <c r="X313" s="3">
-        <v>3782</v>
+        <v>4061</v>
       </c>
       <c r="Z313" t="s">
         <v>796</v>
       </c>
+      <c r="AA313" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB313" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD313" s="4">
+        <v>130</v>
+      </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C314" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D314" t="s">
-        <v>528</v>
+        <v>36</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>598</v>
+        <v>349</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G314" t="s">
-        <v>802</v>
+        <v>147</v>
       </c>
       <c r="L314" s="3">
-        <v>169</v>
-      </c>
-      <c r="Q314" s="3">
-        <v>193.6</v>
-      </c>
-      <c r="R314" s="3">
-        <v>6975</v>
-      </c>
-      <c r="S314" s="3">
-        <v>198</v>
-      </c>
-      <c r="T314" s="3">
-        <v>6812</v>
+        <v>90</v>
+      </c>
+      <c r="N314" s="3">
+        <v>1978</v>
       </c>
       <c r="U314" s="3">
-        <v>260.10000000000002</v>
+        <v>97.6</v>
       </c>
       <c r="V314" s="3">
-        <v>7050</v>
+        <v>4817</v>
       </c>
       <c r="W314" s="3">
-        <v>270</v>
+        <v>150.9</v>
       </c>
       <c r="X314" s="3">
-        <v>6307</v>
+        <v>4323</v>
+      </c>
+      <c r="Z314" t="s">
+        <v>799</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>800</v>
+      </c>
+      <c r="AB314" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD314" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C315" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D315" t="s">
-        <v>52</v>
-      </c>
-      <c r="E315" s="4">
-        <v>90</v>
+        <v>28</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>801</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G315" t="s">
-        <v>803</v>
-      </c>
-      <c r="J315" s="3">
-        <v>5</v>
+        <v>463</v>
       </c>
       <c r="L315" s="3">
-        <v>136</v>
+        <v>231</v>
+      </c>
+      <c r="Q315" s="3">
+        <v>213.7</v>
+      </c>
+      <c r="R315" s="3">
+        <v>6315</v>
+      </c>
+      <c r="S315" s="3">
+        <v>273.3</v>
+      </c>
+      <c r="T315" s="3">
+        <v>3658</v>
       </c>
       <c r="U315" s="3">
-        <v>133.9</v>
+        <v>217.7</v>
       </c>
       <c r="V315" s="3">
-        <v>5159</v>
+        <v>6263</v>
       </c>
       <c r="W315" s="3">
-        <v>196.7</v>
+        <v>277.3</v>
       </c>
       <c r="X315" s="3">
-        <v>4218</v>
+        <v>3782</v>
       </c>
       <c r="Z315" t="s">
-        <v>804</v>
-      </c>
-      <c r="AA315" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB315" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD315" s="4">
-        <v>180</v>
+        <v>796</v>
       </c>
     </row>
     <row r="316" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C316" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D316" t="s">
-        <v>44</v>
+        <v>528</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>805</v>
+        <v>598</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="G316" t="s">
+        <v>802</v>
+      </c>
       <c r="L316" s="3">
-        <v>150</v>
+        <v>169</v>
+      </c>
+      <c r="Q316" s="3">
+        <v>193.6</v>
+      </c>
+      <c r="R316" s="3">
+        <v>6975</v>
+      </c>
+      <c r="S316" s="3">
+        <v>198</v>
+      </c>
+      <c r="T316" s="3">
+        <v>6812</v>
       </c>
       <c r="U316" s="3">
-        <v>232.8</v>
+        <v>260.10000000000002</v>
       </c>
       <c r="V316" s="3">
-        <v>5634</v>
+        <v>7050</v>
       </c>
       <c r="W316" s="3">
-        <v>339.4</v>
+        <v>270</v>
       </c>
       <c r="X316" s="3">
-        <v>3984</v>
-      </c>
-      <c r="Z316" t="s">
-        <v>796</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C317" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D317" t="s">
-        <v>36</v>
-      </c>
-      <c r="E317" s="4" t="s">
-        <v>808</v>
+        <v>52</v>
+      </c>
+      <c r="E317" s="4">
+        <v>90</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>147</v>
+        <v>373</v>
+      </c>
+      <c r="G317" t="s">
+        <v>803</v>
+      </c>
+      <c r="J317" s="3">
+        <v>5</v>
       </c>
       <c r="L317" s="3">
-        <v>110</v>
-      </c>
-      <c r="Q317" s="3">
-        <v>105.8</v>
-      </c>
-      <c r="R317" s="3">
-        <v>6004</v>
-      </c>
-      <c r="S317" s="3">
-        <v>128</v>
-      </c>
-      <c r="T317" s="3">
-        <v>5335</v>
+        <v>136</v>
       </c>
       <c r="U317" s="3">
-        <v>110.9</v>
+        <v>133.9</v>
       </c>
       <c r="V317" s="3">
-        <v>6327</v>
+        <v>5159</v>
       </c>
       <c r="W317" s="3">
-        <v>128.30000000000001</v>
+        <v>196.7</v>
       </c>
       <c r="X317" s="3">
-        <v>5208</v>
+        <v>4218</v>
       </c>
       <c r="Z317" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AA317" t="s">
-        <v>807</v>
+        <v>391</v>
       </c>
       <c r="AB317" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AD317" s="4">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C318" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D318" t="s">
         <v>44</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="L318" s="3">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="U318" s="3">
-        <v>133.6</v>
+        <v>232.8</v>
       </c>
       <c r="V318" s="3">
-        <v>6033</v>
+        <v>5634</v>
       </c>
       <c r="W318" s="3">
-        <v>186.4</v>
+        <v>339.4</v>
       </c>
       <c r="X318" s="3">
-        <v>3938</v>
+        <v>3984</v>
       </c>
       <c r="Z318" t="s">
-        <v>809</v>
-      </c>
-      <c r="AA318" t="s">
-        <v>810</v>
-      </c>
-      <c r="AB318" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD318" s="4">
-        <v>150</v>
+        <v>796</v>
       </c>
     </row>
     <row r="319" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C319" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D319" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="L319" s="3">
-        <v>90</v>
-      </c>
-      <c r="M319" s="1">
-        <v>150000</v>
+        <v>110</v>
+      </c>
+      <c r="Q319" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="R319" s="3">
+        <v>6004</v>
+      </c>
+      <c r="S319" s="3">
+        <v>128</v>
+      </c>
+      <c r="T319" s="3">
+        <v>5335</v>
       </c>
       <c r="U319" s="3">
-        <v>89.6</v>
+        <v>110.9</v>
       </c>
       <c r="V319" s="3">
-        <v>5695</v>
+        <v>6327</v>
       </c>
       <c r="W319" s="3">
-        <v>138.4</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="X319" s="3">
-        <v>3460</v>
+        <v>5208</v>
       </c>
       <c r="Z319" t="s">
-        <v>229</v>
+        <v>806</v>
+      </c>
+      <c r="AA319" t="s">
+        <v>807</v>
+      </c>
+      <c r="AB319" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD319" s="4">
+        <v>220</v>
       </c>
     </row>
     <row r="320" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C320" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D320" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K320" t="s">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="L320" s="3">
-        <v>75</v>
-      </c>
-      <c r="M320" s="1">
-        <v>46000</v>
-      </c>
-      <c r="Q320" s="3">
-        <v>69.2</v>
-      </c>
-      <c r="R320" s="3">
-        <v>5864</v>
-      </c>
-      <c r="S320" s="3">
-        <v>104.4</v>
-      </c>
-      <c r="T320" s="3">
-        <v>3564</v>
+        <v>113</v>
+      </c>
+      <c r="U320" s="3">
+        <v>133.6</v>
+      </c>
+      <c r="V320" s="3">
+        <v>6033</v>
+      </c>
+      <c r="W320" s="3">
+        <v>186.4</v>
+      </c>
+      <c r="X320" s="3">
+        <v>3938</v>
       </c>
       <c r="Z320" t="s">
-        <v>242</v>
+        <v>809</v>
+      </c>
+      <c r="AA320" t="s">
+        <v>810</v>
+      </c>
+      <c r="AB320" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD320" s="4">
+        <v>150</v>
       </c>
     </row>
     <row r="321" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C321" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D321" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G321" t="s">
-        <v>650</v>
+        <v>208</v>
       </c>
       <c r="L321" s="3">
-        <v>102</v>
-      </c>
-      <c r="N321" s="3">
-        <v>2002</v>
-      </c>
-      <c r="Q321" s="3">
-        <v>99.4</v>
-      </c>
-      <c r="R321" s="3">
-        <v>3087</v>
-      </c>
-      <c r="S321" s="3">
-        <v>261.8</v>
-      </c>
-      <c r="T321" s="3">
-        <v>2356</v>
+        <v>90</v>
+      </c>
+      <c r="M321" s="1">
+        <v>150000</v>
       </c>
       <c r="U321" s="3">
-        <v>98</v>
+        <v>89.6</v>
       </c>
       <c r="V321" s="3">
-        <v>3080</v>
+        <v>5695</v>
       </c>
       <c r="W321" s="3">
-        <v>259.39999999999998</v>
+        <v>138.4</v>
       </c>
       <c r="X321" s="3">
-        <v>2341</v>
+        <v>3460</v>
       </c>
       <c r="Z321" t="s">
-        <v>430</v>
+        <v>229</v>
       </c>
     </row>
     <row r="322" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C322" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D322" t="s">
-        <v>818</v>
+        <v>36</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>733</v>
+        <v>207</v>
+      </c>
+      <c r="K322" t="s">
+        <v>76</v>
       </c>
       <c r="L322" s="3">
-        <v>69</v>
-      </c>
-      <c r="U322" s="3">
-        <v>70.3</v>
-      </c>
-      <c r="V322" s="3">
-        <v>5556</v>
-      </c>
-      <c r="W322" s="3">
-        <v>111.7</v>
-      </c>
-      <c r="X322" s="3">
-        <v>2739</v>
+        <v>75</v>
+      </c>
+      <c r="M322" s="1">
+        <v>46000</v>
+      </c>
+      <c r="Q322" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="R322" s="3">
+        <v>5864</v>
+      </c>
+      <c r="S322" s="3">
+        <v>104.4</v>
+      </c>
+      <c r="T322" s="3">
+        <v>3564</v>
       </c>
       <c r="Z322" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA322" t="s">
-        <v>816</v>
-      </c>
-      <c r="AB322" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD322" s="4">
-        <v>170</v>
+        <v>242</v>
       </c>
     </row>
     <row r="323" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C323" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D323" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="G323" t="s">
-        <v>820</v>
+        <v>650</v>
       </c>
       <c r="L323" s="3">
-        <v>182</v>
-      </c>
-      <c r="M323" s="1">
-        <v>170000</v>
+        <v>102</v>
+      </c>
+      <c r="N323" s="3">
+        <v>2002</v>
+      </c>
+      <c r="Q323" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="R323" s="3">
+        <v>3087</v>
+      </c>
+      <c r="S323" s="3">
+        <v>261.8</v>
+      </c>
+      <c r="T323" s="3">
+        <v>2356</v>
       </c>
       <c r="U323" s="3">
-        <v>171.8</v>
+        <v>98</v>
       </c>
       <c r="V323" s="3">
-        <v>6692</v>
+        <v>3080</v>
       </c>
       <c r="W323" s="3">
-        <v>194.2</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="X323" s="3">
-        <v>5405</v>
+        <v>2341</v>
       </c>
       <c r="Z323" t="s">
-        <v>99</v>
+        <v>430</v>
       </c>
     </row>
     <row r="324" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C324" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D324" t="s">
-        <v>44</v>
+        <v>818</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G324" t="s">
-        <v>822</v>
+        <v>733</v>
       </c>
       <c r="L324" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q324" s="3">
-        <v>133.9</v>
-      </c>
-      <c r="R324" s="3">
-        <v>3748</v>
-      </c>
-      <c r="S324" s="3">
-        <v>305.39999999999998</v>
-      </c>
-      <c r="T324" s="3">
-        <v>2934</v>
+        <v>69</v>
       </c>
       <c r="U324" s="3">
-        <v>117</v>
+        <v>70.3</v>
       </c>
       <c r="V324" s="3">
-        <v>3393</v>
+        <v>5556</v>
       </c>
       <c r="W324" s="3">
-        <v>274</v>
+        <v>111.7</v>
       </c>
       <c r="X324" s="3">
-        <v>2887</v>
+        <v>2739</v>
       </c>
       <c r="Z324" t="s">
-        <v>591</v>
+        <v>815</v>
+      </c>
+      <c r="AA324" t="s">
+        <v>816</v>
+      </c>
+      <c r="AB324" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD324" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="325" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C325" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D325" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G325" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="L325" s="3">
-        <v>192</v>
+        <v>182</v>
+      </c>
+      <c r="M325" s="1">
+        <v>170000</v>
       </c>
       <c r="U325" s="3">
-        <v>171.1</v>
+        <v>171.8</v>
       </c>
       <c r="V325" s="3">
-        <v>7187</v>
+        <v>6692</v>
       </c>
       <c r="W325" s="3">
-        <v>186.1</v>
+        <v>194.2</v>
       </c>
       <c r="X325" s="3">
-        <v>5015</v>
+        <v>5405</v>
       </c>
       <c r="Z325" t="s">
-        <v>438</v>
+        <v>99</v>
       </c>
     </row>
     <row r="326" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C326" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D326" t="s">
+        <v>44</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G326" t="s">
+        <v>822</v>
+      </c>
+      <c r="L326" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q326" s="3">
+        <v>133.9</v>
+      </c>
+      <c r="R326" s="3">
+        <v>3748</v>
+      </c>
+      <c r="S326" s="3">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="T326" s="3">
+        <v>2934</v>
+      </c>
+      <c r="U326" s="3">
+        <v>117</v>
+      </c>
+      <c r="V326" s="3">
+        <v>3393</v>
+      </c>
+      <c r="W326" s="3">
+        <v>274</v>
+      </c>
+      <c r="X326" s="3">
+        <v>2887</v>
+      </c>
+      <c r="Z326" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="327" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C327" s="4">
+        <v>16</v>
+      </c>
+      <c r="D327" t="s">
         <v>28</v>
       </c>
-      <c r="E326" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="F326" s="2" t="s">
+      <c r="E327" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="F327" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G326" t="s">
-        <v>826</v>
-      </c>
-      <c r="L326" s="3">
+      <c r="G327" t="s">
+        <v>824</v>
+      </c>
+      <c r="L327" s="3">
         <v>192</v>
       </c>
-      <c r="Q326" s="3">
-        <v>225.1</v>
-      </c>
-      <c r="R326" s="3">
-        <v>7656</v>
-      </c>
-      <c r="S326" s="3">
-        <v>225.3</v>
-      </c>
-      <c r="T326" s="3">
-        <v>6129</v>
-      </c>
-      <c r="U326" s="3">
-        <v>211</v>
-      </c>
-      <c r="V326" s="3">
-        <v>7226</v>
-      </c>
-      <c r="W326" s="3">
-        <v>223.4</v>
-      </c>
-      <c r="X326" s="3">
-        <v>6264</v>
-      </c>
-    </row>
-    <row r="327" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B327">
-        <v>8</v>
+      <c r="U327" s="3">
+        <v>171.1</v>
+      </c>
+      <c r="V327" s="3">
+        <v>7187</v>
+      </c>
+      <c r="W327" s="3">
+        <v>186.1</v>
+      </c>
+      <c r="X327" s="3">
+        <v>5015</v>
+      </c>
+      <c r="Z327" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="328" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C328" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D328" t="s">
-        <v>755</v>
-      </c>
-      <c r="E328" s="5" t="s">
-        <v>756</v>
+        <v>28</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>825</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="G328" t="s">
+        <v>826</v>
       </c>
       <c r="L328" s="3">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="Q328" s="3">
-        <v>198.5</v>
+        <v>225.1</v>
       </c>
       <c r="R328" s="3">
-        <v>5691</v>
+        <v>7656</v>
       </c>
       <c r="S328" s="3">
-        <v>309.7</v>
+        <v>225.3</v>
       </c>
       <c r="T328" s="3">
-        <v>3550</v>
+        <v>6129</v>
       </c>
       <c r="U328" s="3">
-        <v>198.5</v>
+        <v>211</v>
       </c>
       <c r="V328" s="3">
-        <v>5691</v>
+        <v>7226</v>
       </c>
       <c r="W328" s="3">
-        <v>310</v>
+        <v>223.4</v>
       </c>
       <c r="X328" s="3">
-        <v>3550</v>
-      </c>
-      <c r="Z328" t="s">
-        <v>757</v>
-      </c>
-      <c r="AA328" t="s">
-        <v>758</v>
-      </c>
-      <c r="AB328" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD328" s="4">
-        <v>20</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="329" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C329" s="4">
-        <v>2</v>
-      </c>
-      <c r="D329" t="s">
-        <v>755</v>
-      </c>
-      <c r="E329" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="F329" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="L329" s="3">
-        <v>230</v>
-      </c>
-      <c r="U329" s="3">
-        <v>202.2</v>
-      </c>
-      <c r="V329" s="3">
-        <v>6248</v>
-      </c>
-      <c r="W329" s="3">
-        <v>285.5</v>
-      </c>
-      <c r="X329" s="3">
-        <v>2321</v>
-      </c>
-      <c r="Z329" t="s">
-        <v>759</v>
-      </c>
-      <c r="AA329" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB329" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD329" s="4">
-        <v>440</v>
+      <c r="B329">
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C330" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D330" t="s">
-        <v>44</v>
-      </c>
-      <c r="E330" s="4" t="s">
-        <v>95</v>
+        <v>755</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>756</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G330" t="s">
-        <v>495</v>
-      </c>
       <c r="L330" s="3">
-        <v>98</v>
+        <v>170</v>
+      </c>
+      <c r="Q330" s="3">
+        <v>198.5</v>
+      </c>
+      <c r="R330" s="3">
+        <v>5691</v>
+      </c>
+      <c r="S330" s="3">
+        <v>309.7</v>
+      </c>
+      <c r="T330" s="3">
+        <v>3550</v>
       </c>
       <c r="U330" s="3">
-        <v>110.8</v>
+        <v>198.5</v>
       </c>
       <c r="V330" s="3">
-        <v>5532</v>
+        <v>5691</v>
       </c>
       <c r="W330" s="3">
-        <v>157.5</v>
+        <v>310</v>
       </c>
       <c r="X330" s="3">
-        <v>4544</v>
+        <v>3550</v>
       </c>
       <c r="Z330" t="s">
-        <v>728</v>
+        <v>757</v>
+      </c>
+      <c r="AA330" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB330" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD330" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="331" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C331" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D331" t="s">
-        <v>28</v>
+        <v>755</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>463</v>
+        <v>761</v>
       </c>
       <c r="L331" s="3">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U331" s="3">
-        <v>220.2</v>
+        <v>202.2</v>
       </c>
       <c r="V331" s="3">
-        <v>6391</v>
+        <v>6248</v>
       </c>
       <c r="W331" s="3">
-        <v>277.10000000000002</v>
+        <v>285.5</v>
       </c>
       <c r="X331" s="3">
-        <v>4838</v>
+        <v>2321</v>
       </c>
       <c r="Z331" t="s">
-        <v>750</v>
+        <v>759</v>
+      </c>
+      <c r="AA331" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB331" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD331" s="4">
+        <v>440</v>
       </c>
     </row>
     <row r="332" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C332" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D332" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>413</v>
+        <v>95</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G332" t="s">
-        <v>764</v>
+        <v>495</v>
       </c>
       <c r="L332" s="3">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="U332" s="3">
-        <v>99.3</v>
+        <v>110.8</v>
       </c>
       <c r="V332" s="3">
-        <v>6677</v>
+        <v>5532</v>
       </c>
       <c r="W332" s="3">
-        <v>118.9</v>
+        <v>157.5</v>
       </c>
       <c r="X332" s="3">
-        <v>5117</v>
+        <v>4544</v>
       </c>
       <c r="Z332" t="s">
-        <v>330</v>
+        <v>728</v>
       </c>
     </row>
     <row r="333" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C333" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D333" t="s">
-        <v>755</v>
-      </c>
-      <c r="J333" s="3">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="L333" s="3">
-        <v>133</v>
-      </c>
-      <c r="M333" s="1">
-        <v>408000</v>
+        <v>231</v>
       </c>
       <c r="U333" s="3">
-        <v>113.3</v>
+        <v>220.2</v>
       </c>
       <c r="V333" s="3">
-        <v>5488</v>
+        <v>6391</v>
       </c>
       <c r="W333" s="3">
-        <v>159.9</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="X333" s="3">
-        <v>4086</v>
+        <v>4838</v>
       </c>
       <c r="Z333" t="s">
-        <v>765</v>
-      </c>
-      <c r="AA333" t="s">
-        <v>766</v>
-      </c>
-      <c r="AB333" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD333" s="4">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="334" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C334" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D334" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>769</v>
+        <v>413</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="G334" t="s">
-        <v>320</v>
+        <v>764</v>
+      </c>
+      <c r="L334" s="3">
+        <v>75</v>
       </c>
       <c r="U334" s="3">
-        <v>167.7</v>
+        <v>99.3</v>
       </c>
       <c r="V334" s="3">
-        <v>6970</v>
+        <v>6677</v>
       </c>
       <c r="W334" s="3">
-        <v>193.3</v>
+        <v>118.9</v>
       </c>
       <c r="X334" s="3">
-        <v>5425</v>
+        <v>5117</v>
       </c>
       <c r="Z334" t="s">
-        <v>767</v>
-      </c>
-      <c r="AA334" t="s">
-        <v>768</v>
-      </c>
-      <c r="AB334" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD334" s="4">
-        <v>280</v>
+        <v>330</v>
       </c>
     </row>
     <row r="335" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C335" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D335" t="s">
-        <v>28</v>
-      </c>
-      <c r="E335" s="4" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>147</v>
+        <v>373</v>
+      </c>
+      <c r="J335" s="3">
+        <v>5</v>
       </c>
       <c r="L335" s="3">
-        <v>143</v>
+        <v>133</v>
+      </c>
+      <c r="M335" s="1">
+        <v>408000</v>
       </c>
       <c r="U335" s="3">
-        <v>143.9</v>
+        <v>113.3</v>
       </c>
       <c r="V335" s="3">
-        <v>6452</v>
+        <v>5488</v>
       </c>
       <c r="W335" s="3">
-        <v>185</v>
+        <v>159.9</v>
       </c>
       <c r="X335" s="3">
-        <v>4607</v>
+        <v>4086</v>
       </c>
       <c r="Z335" t="s">
-        <v>392</v>
+        <v>765</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>766</v>
+      </c>
+      <c r="AB335" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD335" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="336" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C336" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D336" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="F336" s="2" t="s">
-        <v>574</v>
+        <v>769</v>
       </c>
       <c r="G336" t="s">
-        <v>772</v>
-      </c>
-      <c r="K336" t="s">
-        <v>76</v>
-      </c>
-      <c r="L336" s="3">
-        <v>150</v>
-      </c>
-      <c r="Q336" s="3">
-        <v>120.4</v>
-      </c>
-      <c r="R336" s="3">
-        <v>5218</v>
-      </c>
-      <c r="S336" s="3">
-        <v>179.6</v>
-      </c>
-      <c r="T336" s="3">
-        <v>4313</v>
+        <v>320</v>
       </c>
       <c r="U336" s="3">
-        <v>120.5</v>
+        <v>167.7</v>
       </c>
       <c r="V336" s="3">
-        <v>5218</v>
+        <v>6970</v>
       </c>
       <c r="W336" s="3">
-        <v>176.7</v>
+        <v>193.3</v>
       </c>
       <c r="X336" s="3">
-        <v>4385</v>
+        <v>5425</v>
       </c>
       <c r="Z336" t="s">
-        <v>324</v>
+        <v>767</v>
+      </c>
+      <c r="AA336" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB336" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD336" s="4">
+        <v>280</v>
       </c>
     </row>
     <row r="337" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C337" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D337" t="s">
-        <v>114</v>
-      </c>
-      <c r="E337" s="4">
-        <v>155</v>
+        <v>28</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>770</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G337" t="s">
-        <v>320</v>
-      </c>
       <c r="L337" s="3">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U337" s="3">
-        <v>150.5</v>
+        <v>143.9</v>
       </c>
       <c r="V337" s="3">
-        <v>6299</v>
+        <v>6452</v>
       </c>
       <c r="W337" s="3">
-        <v>176.1</v>
+        <v>185</v>
       </c>
       <c r="X337" s="3">
-        <v>3586</v>
+        <v>4607</v>
       </c>
       <c r="Z337" t="s">
-        <v>195</v>
+        <v>392</v>
       </c>
     </row>
     <row r="338" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C338" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D338" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="J338" s="3">
-        <v>6</v>
+        <v>574</v>
+      </c>
+      <c r="G338" t="s">
+        <v>772</v>
+      </c>
+      <c r="K338" t="s">
+        <v>76</v>
       </c>
       <c r="L338" s="3">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="Q338" s="3">
-        <v>246.6</v>
+        <v>120.4</v>
       </c>
       <c r="R338" s="3">
-        <v>6838</v>
+        <v>5218</v>
       </c>
       <c r="S338" s="3">
-        <v>289.8</v>
+        <v>179.6</v>
       </c>
       <c r="T338" s="3">
-        <v>3138</v>
+        <v>4313</v>
       </c>
       <c r="U338" s="3">
-        <v>238.8</v>
+        <v>120.5</v>
       </c>
       <c r="V338" s="3">
-        <v>6693</v>
+        <v>5218</v>
       </c>
       <c r="W338" s="3">
-        <v>279.89999999999998</v>
+        <v>176.7</v>
       </c>
       <c r="X338" s="3">
-        <v>3111</v>
+        <v>4385</v>
       </c>
       <c r="Z338" t="s">
-        <v>773</v>
-      </c>
-      <c r="AA338" t="s">
-        <v>774</v>
-      </c>
-      <c r="AB338" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD338" s="4">
-        <v>445</v>
+        <v>324</v>
       </c>
     </row>
     <row r="339" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C339" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D339" t="s">
-        <v>778</v>
-      </c>
-      <c r="E339" s="4" t="s">
-        <v>779</v>
+        <v>114</v>
+      </c>
+      <c r="E339" s="4">
+        <v>155</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>733</v>
+        <v>147</v>
+      </c>
+      <c r="G339" t="s">
+        <v>320</v>
       </c>
       <c r="L339" s="3">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="U339" s="3">
-        <v>117.5</v>
+        <v>150.5</v>
       </c>
       <c r="V339" s="3">
-        <v>6165</v>
+        <v>6299</v>
       </c>
       <c r="W339" s="3">
-        <v>154</v>
+        <v>176.1</v>
       </c>
       <c r="X339" s="3">
-        <v>4153</v>
+        <v>3586</v>
       </c>
       <c r="Z339" t="s">
-        <v>776</v>
-      </c>
-      <c r="AA339" t="s">
-        <v>777</v>
-      </c>
-      <c r="AB339" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD339" s="4">
-        <v>25</v>
+        <v>195</v>
       </c>
     </row>
     <row r="340" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C340" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D340" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>147</v>
+        <v>463</v>
+      </c>
+      <c r="J340" s="3">
+        <v>6</v>
       </c>
       <c r="L340" s="3">
-        <v>80</v>
+        <v>272</v>
+      </c>
+      <c r="Q340" s="3">
+        <v>246.6</v>
+      </c>
+      <c r="R340" s="3">
+        <v>6838</v>
+      </c>
+      <c r="S340" s="3">
+        <v>289.8</v>
+      </c>
+      <c r="T340" s="3">
+        <v>3138</v>
       </c>
       <c r="U340" s="3">
-        <v>108.5</v>
+        <v>238.8</v>
       </c>
       <c r="V340" s="3">
-        <v>6081</v>
+        <v>6693</v>
       </c>
       <c r="W340" s="3">
-        <v>141</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="X340" s="3">
-        <v>3991</v>
+        <v>3111</v>
+      </c>
+      <c r="Z340" t="s">
+        <v>773</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB340" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD340" s="4">
+        <v>445</v>
       </c>
     </row>
     <row r="341" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C341" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D341" t="s">
-        <v>28</v>
+        <v>778</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>373</v>
+        <v>733</v>
       </c>
       <c r="L341" s="3">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="U341" s="3">
-        <v>168.9</v>
+        <v>117.5</v>
       </c>
       <c r="V341" s="3">
-        <v>5778</v>
+        <v>6165</v>
       </c>
       <c r="W341" s="3">
-        <v>223.1</v>
+        <v>154</v>
       </c>
       <c r="X341" s="3">
-        <v>4721</v>
+        <v>4153</v>
       </c>
       <c r="Z341" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="AA341" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="AB341" t="s">
         <v>42</v>
       </c>
       <c r="AD341" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="342" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C342" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D342" t="s">
+        <v>38</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L342" s="3">
+        <v>80</v>
+      </c>
+      <c r="U342" s="3">
+        <v>108.5</v>
+      </c>
+      <c r="V342" s="3">
+        <v>6081</v>
+      </c>
+      <c r="W342" s="3">
+        <v>141</v>
+      </c>
+      <c r="X342" s="3">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="343" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C343" s="4">
+        <v>14</v>
+      </c>
+      <c r="D343" t="s">
         <v>28</v>
       </c>
-      <c r="E342" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L342" s="3">
+      <c r="E343" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L343" s="3">
         <v>170</v>
       </c>
-      <c r="U342" s="3">
-        <v>171</v>
-      </c>
-      <c r="V342" s="3">
-        <v>6157</v>
-      </c>
-      <c r="W342" s="3">
-        <v>213.7</v>
-      </c>
-      <c r="X342" s="3">
-        <v>5203</v>
-      </c>
-      <c r="Z342" t="s">
-        <v>784</v>
-      </c>
-      <c r="AA342" t="s">
-        <v>785</v>
-      </c>
-      <c r="AB342" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD342" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="343" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B343">
-        <v>7</v>
+      <c r="U343" s="3">
+        <v>168.9</v>
+      </c>
+      <c r="V343" s="3">
+        <v>5778</v>
+      </c>
+      <c r="W343" s="3">
+        <v>223.1</v>
+      </c>
+      <c r="X343" s="3">
+        <v>4721</v>
+      </c>
+      <c r="Z343" t="s">
+        <v>781</v>
+      </c>
+      <c r="AA343" t="s">
+        <v>782</v>
+      </c>
+      <c r="AB343" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD343" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="344" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C344" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D344" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>718</v>
+        <v>786</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J344" s="3">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="L344" s="3">
-        <v>136</v>
-      </c>
-      <c r="Q344" s="3">
-        <v>123</v>
-      </c>
-      <c r="R344" s="3">
-        <v>5022</v>
-      </c>
-      <c r="S344" s="3">
-        <v>201.8</v>
-      </c>
-      <c r="T344" s="3">
-        <v>3539</v>
+        <v>170</v>
       </c>
       <c r="U344" s="3">
-        <v>121.3</v>
+        <v>171</v>
       </c>
       <c r="V344" s="3">
-        <v>4886</v>
+        <v>6157</v>
       </c>
       <c r="W344" s="3">
-        <v>198.9</v>
+        <v>213.7</v>
       </c>
       <c r="X344" s="3">
-        <v>3255</v>
+        <v>5203</v>
       </c>
       <c r="Z344" t="s">
-        <v>523</v>
+        <v>784</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD344" s="4">
+        <v>250</v>
       </c>
     </row>
     <row r="345" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C345" s="4">
-        <v>2</v>
-      </c>
-      <c r="D345" t="s">
-        <v>28</v>
-      </c>
-      <c r="E345" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G345" t="s">
-        <v>720</v>
-      </c>
-      <c r="L345" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q345" s="3">
-        <v>139.30000000000001</v>
-      </c>
-      <c r="R345" s="3">
-        <v>5962</v>
-      </c>
-      <c r="S345" s="3">
-        <v>187.8</v>
-      </c>
-      <c r="T345" s="3">
-        <v>4474</v>
-      </c>
-      <c r="U345" s="3">
-        <v>140.80000000000001</v>
-      </c>
-      <c r="V345" s="3">
-        <v>5991</v>
-      </c>
-      <c r="W345" s="3">
-        <v>190.9</v>
-      </c>
-      <c r="X345" s="3">
-        <v>4443</v>
-      </c>
-      <c r="Z345" t="s">
-        <v>195</v>
+      <c r="B345">
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C346" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>531</v>
+        <v>718</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>346</v>
+        <v>373</v>
+      </c>
+      <c r="J346" s="3">
+        <v>5</v>
       </c>
       <c r="L346" s="3">
-        <v>70</v>
+        <v>136</v>
+      </c>
+      <c r="Q346" s="3">
+        <v>123</v>
+      </c>
+      <c r="R346" s="3">
+        <v>5022</v>
+      </c>
+      <c r="S346" s="3">
+        <v>201.8</v>
+      </c>
+      <c r="T346" s="3">
+        <v>3539</v>
       </c>
       <c r="U346" s="3">
-        <v>64.3</v>
+        <v>121.3</v>
       </c>
       <c r="V346" s="3">
-        <v>4313</v>
+        <v>4886</v>
       </c>
       <c r="W346" s="3">
-        <v>123.7</v>
+        <v>198.9</v>
       </c>
       <c r="X346" s="3">
-        <v>2182</v>
+        <v>3255</v>
       </c>
       <c r="Z346" t="s">
-        <v>568</v>
+        <v>523</v>
       </c>
     </row>
     <row r="347" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C347" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D347" t="s">
-        <v>723</v>
+        <v>28</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>418</v>
+        <v>719</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J347" s="3">
-        <v>6</v>
+      <c r="G347" t="s">
+        <v>720</v>
       </c>
       <c r="L347" s="3">
         <v>170</v>
       </c>
+      <c r="Q347" s="3">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="R347" s="3">
+        <v>5962</v>
+      </c>
+      <c r="S347" s="3">
+        <v>187.8</v>
+      </c>
+      <c r="T347" s="3">
+        <v>4474</v>
+      </c>
       <c r="U347" s="3">
-        <v>193.1</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="V347" s="3">
-        <v>6068</v>
+        <v>5991</v>
       </c>
       <c r="W347" s="3">
-        <v>237.4</v>
+        <v>190.9</v>
       </c>
       <c r="X347" s="3">
-        <v>4703</v>
+        <v>4443</v>
       </c>
       <c r="Z347" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA347" t="s">
-        <v>722</v>
-      </c>
-      <c r="AB347" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD347" s="4">
-        <v>630</v>
+        <v>195</v>
       </c>
     </row>
     <row r="348" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C348" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D348" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G348" t="s">
-        <v>724</v>
+        <v>346</v>
       </c>
       <c r="L348" s="3">
-        <v>190</v>
-      </c>
-      <c r="Q348" s="3">
-        <v>185</v>
-      </c>
-      <c r="R348" s="3">
-        <v>6689</v>
-      </c>
-      <c r="S348" s="3">
-        <v>158.1</v>
-      </c>
-      <c r="T348" s="3">
-        <v>7544</v>
+        <v>70</v>
       </c>
       <c r="U348" s="3">
-        <v>184.2</v>
+        <v>64.3</v>
       </c>
       <c r="V348" s="3">
-        <v>8500</v>
+        <v>4313</v>
       </c>
       <c r="W348" s="3">
-        <v>161.30000000000001</v>
+        <v>123.7</v>
       </c>
       <c r="X348" s="3">
-        <v>7376</v>
+        <v>2182</v>
       </c>
       <c r="Z348" t="s">
-        <v>215</v>
+        <v>568</v>
       </c>
     </row>
     <row r="349" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C349" s="4">
+        <v>4</v>
+      </c>
+      <c r="D349" t="s">
+        <v>723</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J349" s="3">
         <v>6</v>
       </c>
-      <c r="D349" t="s">
-        <v>28</v>
-      </c>
-      <c r="E349" s="4" t="s">
-        <v>727</v>
-      </c>
       <c r="L349" s="3">
-        <v>195</v>
-      </c>
-      <c r="Q349" s="3">
-        <v>193.4</v>
-      </c>
-      <c r="R349" s="3">
-        <v>7495</v>
-      </c>
-      <c r="S349" s="3">
-        <v>222.1</v>
-      </c>
-      <c r="T349" s="3">
-        <v>4933</v>
+        <v>170</v>
       </c>
       <c r="U349" s="3">
-        <v>191.2</v>
+        <v>193.1</v>
       </c>
       <c r="V349" s="3">
-        <v>7157</v>
+        <v>6068</v>
       </c>
       <c r="W349" s="3">
-        <v>223.4</v>
+        <v>237.4</v>
       </c>
       <c r="X349" s="3">
-        <v>4886</v>
+        <v>4703</v>
       </c>
       <c r="Z349" t="s">
-        <v>725</v>
+        <v>721</v>
+      </c>
+      <c r="AA349" t="s">
+        <v>722</v>
       </c>
       <c r="AB349" t="s">
-        <v>726</v>
-      </c>
-      <c r="AC349" t="s">
-        <v>611</v>
+        <v>202</v>
       </c>
       <c r="AD349" s="4">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="350" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C350" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D350" t="s">
-        <v>178</v>
+        <v>412</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>730</v>
+        <v>489</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="G350" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="L350" s="3">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="Q350" s="3">
-        <v>161.4</v>
+        <v>185</v>
       </c>
       <c r="R350" s="3">
-        <v>6432</v>
+        <v>6689</v>
       </c>
       <c r="S350" s="3">
-        <v>201.3</v>
+        <v>158.1</v>
       </c>
       <c r="T350" s="3">
-        <v>4502</v>
+        <v>7544</v>
+      </c>
+      <c r="U350" s="3">
+        <v>184.2</v>
+      </c>
+      <c r="V350" s="3">
+        <v>8500</v>
+      </c>
+      <c r="W350" s="3">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="X350" s="3">
+        <v>7376</v>
       </c>
       <c r="Z350" t="s">
-        <v>728</v>
-      </c>
-      <c r="AA350" t="s">
-        <v>729</v>
-      </c>
-      <c r="AB350" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD350" s="4">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="351" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C351" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D351" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="F351" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="G351" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="L351" s="3">
-        <v>90</v>
-      </c>
-      <c r="M351" s="1">
-        <v>850000</v>
+        <v>195</v>
       </c>
       <c r="Q351" s="3">
-        <v>84.9</v>
+        <v>193.4</v>
       </c>
       <c r="R351" s="3">
-        <v>5620</v>
+        <v>7495</v>
       </c>
       <c r="S351" s="3">
-        <v>127</v>
+        <v>222.1</v>
       </c>
       <c r="T351" s="3">
-        <v>2176</v>
+        <v>4933</v>
       </c>
       <c r="U351" s="3">
-        <v>80.900000000000006</v>
+        <v>191.2</v>
       </c>
       <c r="V351" s="3">
-        <v>553</v>
+        <v>7157</v>
       </c>
       <c r="W351" s="3">
-        <v>118.3</v>
+        <v>223.4</v>
       </c>
       <c r="X351" s="3">
-        <v>2458</v>
+        <v>4886</v>
       </c>
       <c r="Z351" t="s">
-        <v>731</v>
-      </c>
-      <c r="AA351" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="AB351" t="s">
-        <v>126</v>
+        <v>726</v>
+      </c>
+      <c r="AC351" t="s">
+        <v>611</v>
       </c>
       <c r="AD351" s="4">
-        <v>300</v>
+        <v>640</v>
       </c>
     </row>
     <row r="352" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C352" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D352" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>739</v>
+        <v>730</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G352" t="s">
-        <v>736</v>
-      </c>
-      <c r="J352" s="3">
-        <v>5</v>
+        <v>677</v>
       </c>
       <c r="L352" s="3">
-        <v>180</v>
-      </c>
-      <c r="U352" s="3">
-        <v>151.9</v>
-      </c>
-      <c r="V352" s="3">
-        <v>4596</v>
-      </c>
-      <c r="W352" s="3">
-        <v>253</v>
-      </c>
-      <c r="X352" s="3">
-        <v>3321</v>
+        <v>156</v>
+      </c>
+      <c r="Q352" s="3">
+        <v>161.4</v>
+      </c>
+      <c r="R352" s="3">
+        <v>6432</v>
+      </c>
+      <c r="S352" s="3">
+        <v>201.3</v>
+      </c>
+      <c r="T352" s="3">
+        <v>4502</v>
       </c>
       <c r="Z352" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="AA352" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="AB352" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AD352" s="4">
-        <v>600</v>
+        <v>210</v>
       </c>
     </row>
     <row r="353" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C353" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D353" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J353" s="3">
-        <v>5</v>
+        <v>734</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G353" t="s">
+        <v>735</v>
       </c>
       <c r="L353" s="3">
-        <v>125</v>
+        <v>90</v>
+      </c>
+      <c r="M353" s="1">
+        <v>850000</v>
       </c>
       <c r="Q353" s="3">
-        <v>119</v>
+        <v>84.9</v>
       </c>
       <c r="R353" s="3">
-        <v>5516</v>
+        <v>5620</v>
       </c>
       <c r="S353" s="3">
-        <v>169.3</v>
+        <v>127</v>
       </c>
       <c r="T353" s="3">
-        <v>3794</v>
+        <v>2176</v>
       </c>
       <c r="U353" s="3">
-        <v>117.8</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="V353" s="3">
-        <v>5647</v>
+        <v>553</v>
       </c>
       <c r="W353" s="3">
-        <v>155</v>
+        <v>118.3</v>
       </c>
       <c r="X353" s="3">
-        <v>5079</v>
+        <v>2458</v>
       </c>
       <c r="Z353" t="s">
-        <v>599</v>
+        <v>731</v>
+      </c>
+      <c r="AA353" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB353" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD353" s="4">
+        <v>300</v>
       </c>
     </row>
     <row r="354" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C354" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D354" t="s">
         <v>44</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="F354" s="2" t="s">
-        <v>208</v>
+        <v>739</v>
+      </c>
+      <c r="G354" t="s">
+        <v>736</v>
+      </c>
+      <c r="J354" s="3">
+        <v>5</v>
       </c>
       <c r="L354" s="3">
-        <v>139</v>
-      </c>
-      <c r="M354" s="1">
-        <v>167000</v>
+        <v>180</v>
       </c>
       <c r="U354" s="3">
-        <v>141.4</v>
+        <v>151.9</v>
       </c>
       <c r="V354" s="3">
-        <v>6603</v>
+        <v>4596</v>
       </c>
       <c r="W354" s="3">
-        <v>164.2</v>
+        <v>253</v>
       </c>
       <c r="X354" s="3">
-        <v>5340</v>
+        <v>3321</v>
       </c>
       <c r="Z354" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="AA354" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="AB354" t="s">
-        <v>369</v>
+        <v>94</v>
       </c>
       <c r="AD354" s="4">
-        <v>350</v>
+        <v>600</v>
       </c>
     </row>
     <row r="355" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C355" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D355" t="s">
-        <v>742</v>
-      </c>
-      <c r="E355" s="4">
-        <v>95</v>
-      </c>
-      <c r="F355" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G355" t="s">
-        <v>748</v>
+        <v>52</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="J355" s="3">
+        <v>5</v>
       </c>
       <c r="L355" s="3">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="Q355" s="3">
-        <v>201.8</v>
+        <v>119</v>
       </c>
       <c r="R355" s="3">
-        <v>5839</v>
+        <v>5516</v>
       </c>
       <c r="S355" s="3">
-        <v>307</v>
+        <v>169.3</v>
       </c>
       <c r="T355" s="3">
-        <v>2772</v>
+        <v>3794</v>
       </c>
       <c r="U355" s="3">
-        <v>227.5</v>
+        <v>117.8</v>
       </c>
       <c r="V355" s="3">
-        <v>5702</v>
+        <v>5647</v>
       </c>
       <c r="W355" s="3">
-        <v>381</v>
+        <v>155</v>
       </c>
       <c r="X355" s="3">
-        <v>3108</v>
+        <v>5079</v>
+      </c>
+      <c r="Z355" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="356" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C356" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D356" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>744</v>
+        <v>589</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G356" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="J356" s="3">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="L356" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q356" s="3">
-        <v>173.9</v>
-      </c>
-      <c r="R356" s="3">
-        <v>5780</v>
-      </c>
-      <c r="S356" s="3">
-        <v>226.1</v>
-      </c>
-      <c r="T356" s="3">
-        <v>4666</v>
+        <v>139</v>
+      </c>
+      <c r="M356" s="1">
+        <v>167000</v>
       </c>
       <c r="U356" s="3">
-        <v>174.6</v>
+        <v>141.4</v>
       </c>
       <c r="V356" s="3">
-        <v>5804</v>
+        <v>6603</v>
       </c>
       <c r="W356" s="3">
-        <v>228.6</v>
+        <v>164.2</v>
       </c>
       <c r="X356" s="3">
-        <v>4669</v>
+        <v>5340</v>
       </c>
       <c r="Z356" t="s">
-        <v>326</v>
+        <v>740</v>
+      </c>
+      <c r="AA356" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB356" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD356" s="4">
+        <v>350</v>
       </c>
     </row>
     <row r="357" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C357" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D357" t="s">
-        <v>44</v>
-      </c>
-      <c r="E357" s="4" t="s">
-        <v>687</v>
+        <v>742</v>
+      </c>
+      <c r="E357" s="4">
+        <v>95</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>209</v>
+        <v>373</v>
+      </c>
+      <c r="G357" t="s">
+        <v>748</v>
       </c>
       <c r="L357" s="3">
-        <v>174</v>
+        <v>250</v>
+      </c>
+      <c r="Q357" s="3">
+        <v>201.8</v>
+      </c>
+      <c r="R357" s="3">
+        <v>5839</v>
+      </c>
+      <c r="S357" s="3">
+        <v>307</v>
+      </c>
+      <c r="T357" s="3">
+        <v>2772</v>
       </c>
       <c r="U357" s="3">
-        <v>184.4</v>
+        <v>227.5</v>
       </c>
       <c r="V357" s="3">
-        <v>6059</v>
+        <v>5702</v>
       </c>
       <c r="W357" s="3">
-        <v>247.5</v>
+        <v>381</v>
       </c>
       <c r="X357" s="3">
-        <v>4445</v>
-      </c>
-      <c r="Z357" t="s">
-        <v>745</v>
-      </c>
-      <c r="AA357" t="s">
-        <v>746</v>
-      </c>
-      <c r="AB357" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD357" s="4">
-        <v>200</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="358" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C358" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D358" t="s">
         <v>28</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>463</v>
+        <v>373</v>
+      </c>
+      <c r="G358" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="J358" s="3">
+        <v>6</v>
       </c>
       <c r="L358" s="3">
-        <v>231</v>
-      </c>
-      <c r="M358" t="s">
-        <v>749</v>
+        <v>170</v>
       </c>
       <c r="Q358" s="3">
-        <v>205.8</v>
+        <v>173.9</v>
       </c>
       <c r="R358" s="3">
-        <v>6150</v>
+        <v>5780</v>
       </c>
       <c r="S358" s="3">
-        <v>256.89999999999998</v>
+        <v>226.1</v>
       </c>
       <c r="T358" s="3">
-        <v>4021</v>
+        <v>4666</v>
       </c>
       <c r="U358" s="3">
-        <v>212.3</v>
+        <v>174.6</v>
       </c>
       <c r="V358" s="3">
-        <v>6103</v>
+        <v>5804</v>
       </c>
       <c r="W358" s="3">
-        <v>266.7</v>
+        <v>228.6</v>
       </c>
       <c r="X358" s="3">
-        <v>5039</v>
+        <v>4669</v>
       </c>
       <c r="Z358" t="s">
-        <v>47</v>
+        <v>326</v>
       </c>
     </row>
     <row r="359" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C359" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D359" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>752</v>
+        <v>687</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J359" s="3">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="L359" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q359" s="3">
-        <v>238.9</v>
-      </c>
-      <c r="R359" s="3">
-        <v>5907</v>
-      </c>
-      <c r="S359" s="3">
-        <v>370.3</v>
-      </c>
-      <c r="T359" s="3">
-        <v>4512</v>
+        <v>174</v>
       </c>
       <c r="U359" s="3">
-        <v>249.1</v>
+        <v>184.4</v>
       </c>
       <c r="V359" s="3">
-        <v>4570</v>
+        <v>6059</v>
       </c>
       <c r="W359" s="3">
-        <v>393.6</v>
+        <v>247.5</v>
       </c>
       <c r="X359" s="3">
-        <v>4433</v>
+        <v>4445</v>
       </c>
       <c r="Z359" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="AA359" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="AB359" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="AD359" s="4">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="360" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C360" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D360" t="s">
-        <v>52</v>
-      </c>
-      <c r="E360" s="4">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>747</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>147</v>
+        <v>463</v>
       </c>
       <c r="L360" s="3">
-        <v>116</v>
+        <v>231</v>
+      </c>
+      <c r="M360" t="s">
+        <v>749</v>
       </c>
       <c r="Q360" s="3">
-        <v>104.7</v>
+        <v>205.8</v>
       </c>
       <c r="R360" s="3">
-        <v>5285</v>
+        <v>6150</v>
       </c>
       <c r="S360" s="3">
-        <v>164.4</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="T360" s="3">
-        <v>3305</v>
+        <v>4021</v>
       </c>
       <c r="U360" s="3">
-        <v>106.5</v>
+        <v>212.3</v>
       </c>
       <c r="V360" s="3">
-        <v>5219</v>
+        <v>6103</v>
       </c>
       <c r="W360" s="3">
-        <v>167.5</v>
+        <v>266.7</v>
       </c>
       <c r="X360" s="3">
-        <v>3223</v>
+        <v>5039</v>
       </c>
       <c r="Z360" t="s">
-        <v>753</v>
-      </c>
-      <c r="AA360" t="s">
-        <v>754</v>
-      </c>
-      <c r="AB360" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD360" s="4">
-        <v>180</v>
+        <v>47</v>
       </c>
     </row>
     <row r="361" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B361">
-        <v>6</v>
+      <c r="C361" s="4">
+        <v>16</v>
+      </c>
+      <c r="D361" t="s">
+        <v>74</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J361" s="3">
+        <v>5</v>
+      </c>
+      <c r="L361" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q361" s="3">
+        <v>238.9</v>
+      </c>
+      <c r="R361" s="3">
+        <v>5907</v>
+      </c>
+      <c r="S361" s="3">
+        <v>370.3</v>
+      </c>
+      <c r="T361" s="3">
+        <v>4512</v>
+      </c>
+      <c r="U361" s="3">
+        <v>249.1</v>
+      </c>
+      <c r="V361" s="3">
+        <v>4570</v>
+      </c>
+      <c r="W361" s="3">
+        <v>393.6</v>
+      </c>
+      <c r="X361" s="3">
+        <v>4433</v>
+      </c>
+      <c r="Z361" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA361" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB361" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD361" s="4">
+        <v>240</v>
       </c>
     </row>
     <row r="362" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C362" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D362" t="s">
-        <v>28</v>
-      </c>
-      <c r="E362" s="4" t="s">
-        <v>694</v>
+        <v>52</v>
+      </c>
+      <c r="E362" s="4">
+        <v>80</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G362" t="s">
-        <v>693</v>
-      </c>
       <c r="L362" s="3">
-        <v>185</v>
+        <v>116</v>
+      </c>
+      <c r="Q362" s="3">
+        <v>104.7</v>
+      </c>
+      <c r="R362" s="3">
+        <v>5285</v>
+      </c>
+      <c r="S362" s="3">
+        <v>164.4</v>
+      </c>
+      <c r="T362" s="3">
+        <v>3305</v>
       </c>
       <c r="U362" s="3">
-        <v>198.9</v>
+        <v>106.5</v>
       </c>
       <c r="V362" s="3">
-        <v>4106</v>
+        <v>5219</v>
       </c>
       <c r="W362" s="3">
-        <v>417.2</v>
+        <v>167.5</v>
       </c>
       <c r="X362" s="3">
-        <v>2732</v>
+        <v>3223</v>
       </c>
       <c r="Z362" t="s">
-        <v>446</v>
+        <v>753</v>
+      </c>
+      <c r="AA362" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB362" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD362" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="363" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C363" s="4">
-        <v>2</v>
-      </c>
-      <c r="D363" t="s">
-        <v>217</v>
-      </c>
-      <c r="E363" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="F363" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G363" t="s">
-        <v>696</v>
-      </c>
-      <c r="L363" s="3">
-        <v>135</v>
-      </c>
-      <c r="U363" s="3">
-        <v>141.19999999999999</v>
-      </c>
-      <c r="V363" s="3">
-        <v>6642</v>
-      </c>
-      <c r="W363" s="3">
-        <v>153.69999999999999</v>
-      </c>
-      <c r="X363" s="3">
-        <v>6342</v>
-      </c>
-      <c r="Z363" t="s">
-        <v>552</v>
+      <c r="B363">
+        <v>6</v>
       </c>
     </row>
     <row r="364" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C364" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D364" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>298</v>
+        <v>147</v>
       </c>
       <c r="G364" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="L364" s="3">
-        <v>231</v>
-      </c>
-      <c r="M364" s="1">
-        <v>157115</v>
-      </c>
-      <c r="N364" s="3">
-        <v>2004</v>
+        <v>185</v>
       </c>
       <c r="U364" s="3">
-        <v>199.3</v>
+        <v>198.9</v>
       </c>
       <c r="V364" s="3">
-        <v>6844</v>
+        <v>4106</v>
       </c>
       <c r="W364" s="3">
-        <v>173.9</v>
+        <v>417.2</v>
       </c>
       <c r="X364" s="3">
-        <v>7611</v>
+        <v>2732</v>
       </c>
       <c r="Z364" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="365" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C365" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D365" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="G365" t="s">
+        <v>696</v>
+      </c>
       <c r="L365" s="3">
-        <v>115</v>
-      </c>
-      <c r="M365" s="1">
-        <v>396000</v>
+        <v>135</v>
       </c>
       <c r="U365" s="3">
-        <v>121.6</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="V365" s="3">
-        <v>6112</v>
+        <v>6642</v>
       </c>
       <c r="W365" s="3">
-        <v>170.6</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="X365" s="3">
-        <v>4285</v>
+        <v>6342</v>
       </c>
       <c r="Z365" t="s">
-        <v>251</v>
+        <v>552</v>
       </c>
     </row>
     <row r="366" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C366" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D366" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>208</v>
+        <v>298</v>
+      </c>
+      <c r="G366" t="s">
+        <v>698</v>
       </c>
       <c r="L366" s="3">
-        <v>125</v>
+        <v>231</v>
+      </c>
+      <c r="M366" s="1">
+        <v>157115</v>
+      </c>
+      <c r="N366" s="3">
+        <v>2004</v>
       </c>
       <c r="U366" s="3">
-        <v>124.6</v>
+        <v>199.3</v>
       </c>
       <c r="V366" s="3">
-        <v>6041</v>
+        <v>6844</v>
       </c>
       <c r="W366" s="3">
-        <v>158.5</v>
+        <v>173.9</v>
       </c>
       <c r="X366" s="3">
-        <v>3470</v>
+        <v>7611</v>
       </c>
       <c r="Z366" t="s">
-        <v>701</v>
-      </c>
-      <c r="AA366" t="s">
-        <v>702</v>
-      </c>
-      <c r="AB366" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD366" s="4">
-        <v>380</v>
+        <v>432</v>
       </c>
     </row>
     <row r="367" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C367" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D367" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L367" s="3">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="M367" s="1">
-        <v>464568</v>
+        <v>396000</v>
       </c>
       <c r="U367" s="3">
-        <v>79.400000000000006</v>
+        <v>121.6</v>
       </c>
       <c r="V367" s="3">
-        <v>5100</v>
+        <v>6112</v>
       </c>
       <c r="W367" s="3">
-        <v>121.3</v>
+        <v>170.6</v>
       </c>
       <c r="X367" s="3">
-        <v>4012</v>
+        <v>4285</v>
       </c>
       <c r="Z367" t="s">
-        <v>599</v>
+        <v>251</v>
       </c>
     </row>
     <row r="368" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C368" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D368" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="L368" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q368" s="3">
-        <v>107.2</v>
-      </c>
-      <c r="R368" s="3">
-        <v>5650</v>
-      </c>
-      <c r="S368" s="3">
-        <v>147.1</v>
-      </c>
-      <c r="T368" s="3">
-        <v>3736</v>
+        <v>125</v>
       </c>
       <c r="U368" s="3">
-        <v>108.5</v>
+        <v>124.6</v>
       </c>
       <c r="V368" s="3">
-        <v>5746</v>
+        <v>6041</v>
       </c>
       <c r="W368" s="3">
-        <v>148.30000000000001</v>
+        <v>158.5</v>
       </c>
       <c r="X368" s="3">
-        <v>3810</v>
+        <v>3470</v>
       </c>
       <c r="Z368" t="s">
-        <v>110</v>
+        <v>701</v>
+      </c>
+      <c r="AA368" t="s">
+        <v>702</v>
+      </c>
+      <c r="AB368" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD368" s="4">
+        <v>380</v>
       </c>
     </row>
     <row r="369" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C369" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D369" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="L369" s="3">
-        <v>285</v>
+        <v>75</v>
+      </c>
+      <c r="M369" s="1">
+        <v>464568</v>
       </c>
       <c r="U369" s="3">
-        <v>309.10000000000002</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="V369" s="3">
-        <v>5360</v>
+        <v>5100</v>
       </c>
       <c r="W369" s="3">
-        <v>487</v>
+        <v>121.3</v>
       </c>
       <c r="X369" s="3">
-        <v>4061</v>
+        <v>4012</v>
+      </c>
+      <c r="Z369" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="370" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C370" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D370" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="F370" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H370" s="3" t="s">
-        <v>46</v>
+        <v>704</v>
       </c>
       <c r="L370" s="3">
-        <v>116</v>
+        <v>90</v>
+      </c>
+      <c r="Q370" s="3">
+        <v>107.2</v>
+      </c>
+      <c r="R370" s="3">
+        <v>5650</v>
+      </c>
+      <c r="S370" s="3">
+        <v>147.1</v>
+      </c>
+      <c r="T370" s="3">
+        <v>3736</v>
       </c>
       <c r="U370" s="3">
-        <v>168.1</v>
+        <v>108.5</v>
       </c>
       <c r="V370" s="3">
-        <v>3725</v>
+        <v>5746</v>
       </c>
       <c r="W370" s="3">
-        <v>369</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="X370" s="3">
-        <v>2941</v>
+        <v>3810</v>
+      </c>
+      <c r="Z370" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="371" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C371" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D371" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G371" t="s">
-        <v>710</v>
+        <v>147</v>
       </c>
       <c r="L371" s="3">
-        <v>150</v>
-      </c>
-      <c r="Q371" s="3">
-        <v>141.4</v>
-      </c>
-      <c r="R371" s="3">
-        <v>5198</v>
-      </c>
-      <c r="S371" s="3">
-        <v>214.6</v>
-      </c>
-      <c r="T371" s="3">
-        <v>3910</v>
+        <v>285</v>
       </c>
       <c r="U371" s="3">
-        <v>145.19999999999999</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="V371" s="3">
-        <v>5158</v>
+        <v>5360</v>
       </c>
       <c r="W371" s="3">
-        <v>219.6</v>
+        <v>487</v>
       </c>
       <c r="X371" s="3">
-        <v>3838</v>
-      </c>
-      <c r="Z371" t="s">
-        <v>707</v>
-      </c>
-      <c r="AA371" t="s">
-        <v>708</v>
-      </c>
-      <c r="AB371" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD371" s="4">
-        <v>650</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="372" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C372" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D372" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>711</v>
+        <v>706</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L372" s="3">
-        <v>150</v>
-      </c>
-      <c r="M372" s="1">
-        <v>250000</v>
+        <v>116</v>
       </c>
       <c r="U372" s="3">
-        <v>152.5</v>
+        <v>168.1</v>
       </c>
       <c r="V372" s="3">
-        <v>3952</v>
+        <v>3725</v>
       </c>
       <c r="W372" s="3">
-        <v>324.8</v>
+        <v>369</v>
       </c>
       <c r="X372" s="3">
-        <v>2672</v>
-      </c>
-      <c r="Z372" t="s">
-        <v>99</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="373" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C373" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D373" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E373" s="4" t="s">
-        <v>321</v>
+        <v>709</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="G373" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L373" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q373" s="3">
-        <v>178.3</v>
+        <v>141.4</v>
       </c>
       <c r="R373" s="3">
-        <v>4540</v>
+        <v>5198</v>
       </c>
       <c r="S373" s="3">
-        <v>315.2</v>
+        <v>214.6</v>
       </c>
       <c r="T373" s="3">
-        <v>3784</v>
+        <v>3910</v>
       </c>
       <c r="U373" s="3">
-        <v>149</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="V373" s="3">
-        <v>5088</v>
+        <v>5158</v>
       </c>
       <c r="W373" s="3">
-        <v>256.3</v>
+        <v>219.6</v>
       </c>
       <c r="X373" s="3">
-        <v>3222</v>
+        <v>3838</v>
       </c>
       <c r="Z373" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="AA373" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="AB373" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="AD373" s="4">
-        <v>500</v>
+        <v>650</v>
       </c>
     </row>
     <row r="374" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C374" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D374" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="F374" s="2" t="s">
-        <v>298</v>
+        <v>711</v>
       </c>
       <c r="L374" s="3">
-        <v>55</v>
+        <v>150</v>
+      </c>
+      <c r="M374" s="1">
+        <v>250000</v>
       </c>
       <c r="U374" s="3">
-        <v>75.400000000000006</v>
+        <v>152.5</v>
       </c>
       <c r="V374" s="3">
-        <v>6471</v>
+        <v>3952</v>
       </c>
       <c r="W374" s="3">
-        <v>102.3</v>
+        <v>324.8</v>
       </c>
       <c r="X374" s="3">
-        <v>3908</v>
+        <v>2672</v>
+      </c>
+      <c r="Z374" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="375" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C375" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D375" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="J375" s="3">
-        <v>5</v>
+        <v>321</v>
+      </c>
+      <c r="G375" t="s">
+        <v>714</v>
       </c>
       <c r="L375" s="3">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="Q375" s="3">
-        <v>92.1</v>
+        <v>178.3</v>
       </c>
       <c r="R375" s="3">
-        <v>3973</v>
+        <v>4540</v>
       </c>
       <c r="S375" s="3">
-        <v>168.5</v>
+        <v>315.2</v>
       </c>
       <c r="T375" s="3">
-        <v>3702</v>
+        <v>3784</v>
       </c>
       <c r="U375" s="3">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="V375" s="3">
-        <v>4062</v>
+        <v>5088</v>
       </c>
       <c r="W375" s="3">
-        <v>170.1</v>
+        <v>256.3</v>
       </c>
       <c r="X375" s="3">
-        <v>3731</v>
+        <v>3222</v>
       </c>
       <c r="Z375" t="s">
-        <v>110</v>
+        <v>712</v>
+      </c>
+      <c r="AA375" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB375" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD375" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="376" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C376" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D376" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="J376" s="3">
-        <v>6</v>
+        <v>715</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="L376" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q376" s="3">
-        <v>185.9</v>
-      </c>
-      <c r="R376" s="3">
-        <v>5885</v>
-      </c>
-      <c r="S376" s="3">
-        <v>230.5</v>
-      </c>
-      <c r="T376" s="3">
-        <v>5266</v>
+        <v>55</v>
       </c>
       <c r="U376" s="3">
-        <v>189.3</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="V376" s="3">
-        <v>5956</v>
+        <v>6471</v>
       </c>
       <c r="W376" s="3">
-        <v>236.6</v>
+        <v>102.3</v>
       </c>
       <c r="X376" s="3">
-        <v>5217</v>
-      </c>
-      <c r="Z376" t="s">
-        <v>47</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="377" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B377">
+      <c r="C377" s="4">
+        <v>14</v>
+      </c>
+      <c r="D377" t="s">
+        <v>52</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J377" s="3">
         <v>5</v>
+      </c>
+      <c r="L377" s="3">
+        <v>133</v>
+      </c>
+      <c r="Q377" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="R377" s="3">
+        <v>3973</v>
+      </c>
+      <c r="S377" s="3">
+        <v>168.5</v>
+      </c>
+      <c r="T377" s="3">
+        <v>3702</v>
+      </c>
+      <c r="U377" s="3">
+        <v>94</v>
+      </c>
+      <c r="V377" s="3">
+        <v>4062</v>
+      </c>
+      <c r="W377" s="3">
+        <v>170.1</v>
+      </c>
+      <c r="X377" s="3">
+        <v>3731</v>
+      </c>
+      <c r="Z377" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="378" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C378" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D378" t="s">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="F378" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G378" t="s">
-        <v>576</v>
+        <v>717</v>
+      </c>
+      <c r="J378" s="3">
+        <v>6</v>
       </c>
       <c r="L378" s="3">
-        <v>200</v>
+        <v>220</v>
+      </c>
+      <c r="Q378" s="3">
+        <v>185.9</v>
+      </c>
+      <c r="R378" s="3">
+        <v>5885</v>
+      </c>
+      <c r="S378" s="3">
+        <v>230.5</v>
+      </c>
+      <c r="T378" s="3">
+        <v>5266</v>
       </c>
       <c r="U378" s="3">
-        <v>191.2</v>
+        <v>189.3</v>
       </c>
       <c r="V378" s="3">
-        <v>8095</v>
+        <v>5956</v>
       </c>
       <c r="W378" s="3">
-        <v>184</v>
+        <v>236.6</v>
       </c>
       <c r="X378" s="3">
-        <v>6394</v>
+        <v>5217</v>
       </c>
       <c r="Z378" t="s">
-        <v>409</v>
+        <v>47</v>
       </c>
     </row>
     <row r="379" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C379" s="4">
-        <v>2</v>
-      </c>
-      <c r="D379" t="s">
-        <v>44</v>
-      </c>
-      <c r="E379" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="F379" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L379" s="3">
-        <v>95</v>
-      </c>
-      <c r="Q379" s="3">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="R379" s="3">
-        <v>6130</v>
-      </c>
-      <c r="S379" s="3">
-        <v>89.8</v>
-      </c>
-      <c r="T379" s="3">
-        <v>6020</v>
-      </c>
-      <c r="U379" s="3">
-        <v>78.7</v>
-      </c>
-      <c r="V379" s="3">
-        <v>6094</v>
-      </c>
-      <c r="W379" s="3">
-        <v>91.7</v>
-      </c>
-      <c r="X379" s="3">
-        <v>5966</v>
-      </c>
-      <c r="Z379" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA379" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB379" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD379" s="4">
-        <v>100</v>
+      <c r="B379">
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C380" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>28</v>
+        <v>412</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>463</v>
+        <v>147</v>
       </c>
       <c r="G380" t="s">
-        <v>685</v>
-      </c>
-      <c r="J380" s="3">
-        <v>6</v>
+        <v>576</v>
       </c>
       <c r="L380" s="3">
-        <v>231</v>
-      </c>
-      <c r="M380" s="1">
-        <v>377473</v>
-      </c>
-      <c r="Q380" s="3">
-        <v>199.6</v>
-      </c>
-      <c r="R380" s="3">
-        <v>6123</v>
-      </c>
-      <c r="S380" s="3">
-        <v>268.2</v>
-      </c>
-      <c r="T380" s="3">
-        <v>3625</v>
+        <v>200</v>
       </c>
       <c r="U380" s="3">
-        <v>202.2</v>
+        <v>191.2</v>
       </c>
       <c r="V380" s="3">
-        <v>6211</v>
+        <v>8095</v>
       </c>
       <c r="W380" s="3">
-        <v>269.60000000000002</v>
+        <v>184</v>
       </c>
       <c r="X380" s="3">
-        <v>3618</v>
+        <v>6394</v>
       </c>
       <c r="Z380" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA380" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB380" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD380" s="4">
-        <v>252</v>
+        <v>409</v>
       </c>
     </row>
     <row r="381" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C381" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D381" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G381" t="s">
-        <v>576</v>
+        <v>208</v>
       </c>
       <c r="L381" s="3">
-        <v>240</v>
+        <v>95</v>
+      </c>
+      <c r="Q381" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="R381" s="3">
+        <v>6130</v>
+      </c>
+      <c r="S381" s="3">
+        <v>89.8</v>
+      </c>
+      <c r="T381" s="3">
+        <v>6020</v>
       </c>
       <c r="U381" s="3">
-        <v>261.8</v>
+        <v>78.7</v>
       </c>
       <c r="V381" s="3">
-        <v>5721</v>
+        <v>6094</v>
       </c>
       <c r="W381" s="3">
-        <v>406.3</v>
+        <v>91.7</v>
       </c>
       <c r="X381" s="3">
-        <v>4044</v>
+        <v>5966</v>
+      </c>
+      <c r="Z381" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA381" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB381" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD381" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="382" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C382" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D382" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="E382" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>147</v>
+        <v>463</v>
       </c>
       <c r="G382" t="s">
-        <v>424</v>
-      </c>
-      <c r="K382" t="s">
-        <v>76</v>
+        <v>685</v>
+      </c>
+      <c r="J382" s="3">
+        <v>6</v>
       </c>
       <c r="L382" s="3">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="M382" s="1">
-        <v>137872</v>
+        <v>377473</v>
       </c>
       <c r="Q382" s="3">
-        <v>97</v>
+        <v>199.6</v>
       </c>
       <c r="R382" s="3">
-        <v>5372</v>
+        <v>6123</v>
       </c>
       <c r="S382" s="3">
-        <v>168.8</v>
+        <v>268.2</v>
       </c>
       <c r="T382" s="3">
-        <v>3490</v>
+        <v>3625</v>
       </c>
       <c r="U382" s="3">
-        <v>97.3</v>
+        <v>202.2</v>
       </c>
       <c r="V382" s="3">
-        <v>5749</v>
+        <v>6211</v>
       </c>
       <c r="W382" s="3">
-        <v>147.9</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="X382" s="3">
-        <v>3325</v>
+        <v>3618</v>
       </c>
       <c r="Z382" t="s">
-        <v>104</v>
+        <v>682</v>
+      </c>
+      <c r="AA382" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB382" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD382" s="4">
+        <v>252</v>
       </c>
     </row>
     <row r="383" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C383" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D383" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J383" s="3">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="G383" t="s">
+        <v>576</v>
       </c>
       <c r="L383" s="3">
-        <v>174</v>
-      </c>
-      <c r="M383" s="1">
-        <v>320000</v>
-      </c>
-      <c r="N383" s="3">
-        <v>1983</v>
+        <v>240</v>
       </c>
       <c r="U383" s="3">
-        <v>186.8</v>
+        <v>261.8</v>
       </c>
       <c r="V383" s="3">
-        <v>5977</v>
+        <v>5721</v>
       </c>
       <c r="W383" s="3">
-        <v>237.9</v>
+        <v>406.3</v>
       </c>
       <c r="X383" s="3">
-        <v>4499</v>
-      </c>
-      <c r="Z383" t="s">
-        <v>195</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="384" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C384" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D384" t="s">
-        <v>28</v>
-      </c>
-      <c r="E384" s="4" t="s">
-        <v>464</v>
+        <v>52</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J384" s="3">
-        <v>6</v>
+      <c r="G384" t="s">
+        <v>424</v>
+      </c>
+      <c r="K384" t="s">
+        <v>76</v>
       </c>
       <c r="L384" s="3">
-        <v>150</v>
-      </c>
-      <c r="M384" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="M384" s="1">
+        <v>137872</v>
+      </c>
       <c r="Q384" s="3">
-        <v>158.5</v>
+        <v>97</v>
       </c>
       <c r="R384" s="3">
-        <v>6233</v>
+        <v>5372</v>
       </c>
       <c r="S384" s="3">
-        <v>188.2</v>
+        <v>168.8</v>
       </c>
       <c r="T384" s="3">
-        <v>4832</v>
+        <v>3490</v>
       </c>
       <c r="U384" s="3">
-        <v>158.30000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="V384" s="3">
-        <v>6308</v>
+        <v>5749</v>
       </c>
       <c r="W384" s="3">
-        <v>191.7</v>
+        <v>147.9</v>
       </c>
       <c r="X384" s="3">
-        <v>4811</v>
+        <v>3325</v>
+      </c>
+      <c r="Z384" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="385" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C385" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D385" t="s">
         <v>44</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H385" s="3" t="s">
-        <v>46</v>
+        <v>209</v>
+      </c>
+      <c r="J385" s="3">
+        <v>6</v>
       </c>
       <c r="L385" s="3">
-        <v>140</v>
-      </c>
-      <c r="M385" s="1"/>
-      <c r="Q385" s="3">
-        <v>197.4</v>
-      </c>
-      <c r="R385" s="3">
-        <v>4140</v>
-      </c>
-      <c r="S385" s="3">
-        <v>445.5</v>
-      </c>
-      <c r="T385" s="3">
-        <v>2125</v>
+        <v>174</v>
+      </c>
+      <c r="M385" s="1">
+        <v>320000</v>
+      </c>
+      <c r="N385" s="3">
+        <v>1983</v>
       </c>
       <c r="U385" s="3">
-        <v>197.4</v>
+        <v>186.8</v>
       </c>
       <c r="V385" s="3">
-        <v>4141</v>
+        <v>5977</v>
       </c>
       <c r="W385" s="3">
-        <v>449.4</v>
+        <v>237.9</v>
       </c>
       <c r="X385" s="3">
-        <v>2171</v>
+        <v>4499</v>
       </c>
       <c r="Z385" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
     </row>
     <row r="386" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C386" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D386" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>689</v>
+        <v>464</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G386" t="s">
-        <v>690</v>
+      <c r="J386" s="3">
+        <v>6</v>
       </c>
       <c r="L386" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M386" s="1"/>
+      <c r="Q386" s="3">
+        <v>158.5</v>
+      </c>
+      <c r="R386" s="3">
+        <v>6233</v>
+      </c>
+      <c r="S386" s="3">
+        <v>188.2</v>
+      </c>
+      <c r="T386" s="3">
+        <v>4832</v>
+      </c>
       <c r="U386" s="3">
-        <v>226.2</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V386" s="3">
-        <v>6399</v>
+        <v>6308</v>
       </c>
       <c r="W386" s="3">
-        <v>319.89999999999998</v>
+        <v>191.7</v>
       </c>
       <c r="X386" s="3">
-        <v>3371</v>
-      </c>
-      <c r="Z386" t="s">
-        <v>156</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="387" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C387" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D387" t="s">
-        <v>691</v>
+        <v>44</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G387" t="s">
+      <c r="H387" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L387" s="3">
+        <v>140</v>
+      </c>
+      <c r="M387" s="1"/>
+      <c r="Q387" s="3">
+        <v>197.4</v>
+      </c>
+      <c r="R387" s="3">
+        <v>4140</v>
+      </c>
+      <c r="S387" s="3">
+        <v>445.5</v>
+      </c>
+      <c r="T387" s="3">
+        <v>2125</v>
+      </c>
+      <c r="U387" s="3">
+        <v>197.4</v>
+      </c>
+      <c r="V387" s="3">
+        <v>4141</v>
+      </c>
+      <c r="W387" s="3">
+        <v>449.4</v>
+      </c>
+      <c r="X387" s="3">
+        <v>2171</v>
+      </c>
+      <c r="Z387" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="388" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C388" s="4">
+        <v>9</v>
+      </c>
+      <c r="D388" t="s">
+        <v>52</v>
+      </c>
+      <c r="E388" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G388" t="s">
         <v>690</v>
       </c>
-      <c r="L387" s="3">
-        <v>245</v>
-      </c>
-      <c r="M387" s="1">
-        <v>8000</v>
-      </c>
-      <c r="U387" s="3">
-        <v>302.3</v>
-      </c>
-      <c r="V387" s="3">
-        <v>6386</v>
-      </c>
-      <c r="W387" s="3">
-        <v>424.8</v>
-      </c>
-      <c r="X387" s="3">
-        <v>3147</v>
-      </c>
-      <c r="Z387" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="388" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B388">
-        <v>4</v>
+      <c r="L388" s="3">
+        <v>200</v>
+      </c>
+      <c r="M388" s="1"/>
+      <c r="U388" s="3">
+        <v>226.2</v>
+      </c>
+      <c r="V388" s="3">
+        <v>6399</v>
+      </c>
+      <c r="W388" s="3">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="X388" s="3">
+        <v>3371</v>
+      </c>
+      <c r="Z388" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="389" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C389" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D389" t="s">
-        <v>44</v>
+        <v>691</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G389" t="s">
-        <v>650</v>
-      </c>
-      <c r="K389" t="s">
-        <v>76</v>
+        <v>690</v>
       </c>
       <c r="L389" s="3">
-        <v>140</v>
-      </c>
-      <c r="Q389" s="3">
-        <v>154.6</v>
-      </c>
-      <c r="R389" s="3">
-        <v>39115</v>
-      </c>
-      <c r="S389" s="3">
-        <v>367.9</v>
-      </c>
-      <c r="T389" s="3">
-        <v>2264</v>
+        <v>245</v>
+      </c>
+      <c r="M389" s="1">
+        <v>8000</v>
       </c>
       <c r="U389" s="3">
-        <v>154.9</v>
+        <v>302.3</v>
       </c>
       <c r="V389" s="3">
-        <v>3982</v>
+        <v>6386</v>
       </c>
       <c r="W389" s="3">
-        <v>368.3</v>
+        <v>424.8</v>
       </c>
       <c r="X389" s="3">
-        <v>2346</v>
+        <v>3147</v>
       </c>
       <c r="Z389" t="s">
-        <v>110</v>
+        <v>386</v>
       </c>
     </row>
     <row r="390" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C390" s="4">
-        <v>2</v>
-      </c>
-      <c r="D390" t="s">
-        <v>36</v>
-      </c>
-      <c r="E390" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="L390" s="3">
-        <v>241</v>
-      </c>
-      <c r="Q390" s="3">
-        <v>227.4</v>
-      </c>
-      <c r="R390" s="3">
-        <v>5706</v>
-      </c>
-      <c r="S390" s="3">
-        <v>329.2</v>
-      </c>
-      <c r="T390" s="3">
-        <v>3772</v>
-      </c>
-      <c r="U390" s="3">
-        <v>216.6</v>
-      </c>
-      <c r="V390" s="3">
-        <v>5120</v>
-      </c>
-      <c r="W390" s="3">
-        <v>327.39999999999998</v>
-      </c>
-      <c r="X390" s="3">
-        <v>3780</v>
+      <c r="B390">
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C391" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D391" t="s">
         <v>44</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="G391" t="s">
-        <v>653</v>
+        <v>650</v>
+      </c>
+      <c r="K391" t="s">
+        <v>76</v>
       </c>
       <c r="L391" s="3">
-        <v>122</v>
-      </c>
-      <c r="M391" s="1">
-        <v>197000</v>
+        <v>140</v>
+      </c>
+      <c r="Q391" s="3">
+        <v>154.6</v>
+      </c>
+      <c r="R391" s="3">
+        <v>39115</v>
+      </c>
+      <c r="S391" s="3">
+        <v>367.9</v>
+      </c>
+      <c r="T391" s="3">
+        <v>2264</v>
       </c>
       <c r="U391" s="3">
-        <v>123.1</v>
+        <v>154.9</v>
       </c>
       <c r="V391" s="3">
-        <v>5319</v>
+        <v>3982</v>
       </c>
       <c r="W391" s="3">
-        <v>195</v>
+        <v>368.3</v>
       </c>
       <c r="X391" s="3">
-        <v>3891</v>
+        <v>2346</v>
       </c>
       <c r="Z391" t="s">
-        <v>386</v>
+        <v>110</v>
       </c>
     </row>
     <row r="392" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C392" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D392" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F392" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G392" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L392" s="3">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="Q392" s="3">
-        <v>126.6</v>
+        <v>227.4</v>
       </c>
       <c r="R392" s="3">
-        <v>5245</v>
+        <v>5706</v>
       </c>
       <c r="S392" s="3">
-        <v>225.8</v>
+        <v>329.2</v>
       </c>
       <c r="T392" s="3">
-        <v>3364</v>
+        <v>3772</v>
       </c>
       <c r="U392" s="3">
-        <v>138.80000000000001</v>
+        <v>216.6</v>
       </c>
       <c r="V392" s="3">
-        <v>5784</v>
+        <v>5120</v>
       </c>
       <c r="W392" s="3">
-        <v>2440</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="X392" s="3">
-        <v>3011</v>
-      </c>
-      <c r="Z392" t="s">
-        <v>47</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="393" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C393" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D393" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>338</v>
+        <v>652</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G393" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L393" s="3">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="M393" s="1">
-        <v>550881</v>
-      </c>
-      <c r="Q393" s="3">
-        <v>90.8</v>
-      </c>
-      <c r="R393" s="3">
-        <v>5587</v>
-      </c>
-      <c r="S393" s="3">
-        <v>127.1</v>
-      </c>
-      <c r="T393" s="3">
-        <v>4187</v>
+        <v>197000</v>
       </c>
       <c r="U393" s="3">
-        <v>97.5</v>
+        <v>123.1</v>
       </c>
       <c r="V393" s="3">
-        <v>5617</v>
+        <v>5319</v>
       </c>
       <c r="W393" s="3">
-        <v>137.19999999999999</v>
+        <v>195</v>
       </c>
       <c r="X393" s="3">
-        <v>4055</v>
+        <v>3891</v>
       </c>
       <c r="Z393" t="s">
-        <v>152</v>
+        <v>386</v>
       </c>
     </row>
     <row r="394" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C394" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D394" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J394" s="3">
-        <v>5</v>
+        <v>654</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="G394" t="s">
+        <v>655</v>
       </c>
       <c r="L394" s="3">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="Q394" s="3">
-        <v>113.3</v>
+        <v>126.6</v>
       </c>
       <c r="R394" s="3">
-        <v>6022</v>
+        <v>5245</v>
       </c>
       <c r="S394" s="3">
-        <v>163.69999999999999</v>
+        <v>225.8</v>
       </c>
       <c r="T394" s="3">
-        <v>3992</v>
+        <v>3364</v>
       </c>
       <c r="U394" s="3">
-        <v>117.4</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="V394" s="3">
-        <v>5951</v>
+        <v>5784</v>
       </c>
       <c r="W394" s="3">
-        <v>168.2</v>
+        <v>2440</v>
       </c>
       <c r="X394" s="3">
-        <v>3955</v>
+        <v>3011</v>
       </c>
       <c r="Z394" t="s">
-        <v>386</v>
+        <v>47</v>
       </c>
     </row>
     <row r="395" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C395" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D395" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E395" s="4" t="s">
-        <v>660</v>
+        <v>338</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="H395" s="3" t="s">
-        <v>46</v>
+        <v>207</v>
+      </c>
+      <c r="G395" t="s">
+        <v>657</v>
       </c>
       <c r="L395" s="3">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="M395" s="1">
-        <v>200000</v>
+        <v>550881</v>
+      </c>
+      <c r="Q395" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="R395" s="3">
+        <v>5587</v>
+      </c>
+      <c r="S395" s="3">
+        <v>127.1</v>
+      </c>
+      <c r="T395" s="3">
+        <v>4187</v>
       </c>
       <c r="U395" s="3">
-        <v>148.30000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="V395" s="3">
-        <v>3922</v>
+        <v>5617</v>
       </c>
       <c r="W395" s="3">
-        <v>334.3</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="X395" s="3">
-        <v>2422</v>
+        <v>4055</v>
       </c>
       <c r="Z395" t="s">
-        <v>658</v>
-      </c>
-      <c r="AA395" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB395" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD395" s="4">
-        <v>490</v>
+        <v>152</v>
       </c>
     </row>
     <row r="396" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C396" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D396" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>662</v>
+        <v>607</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="G396" t="s">
-        <v>664</v>
+        <v>373</v>
       </c>
       <c r="J396" s="3">
-        <v>8</v>
-      </c>
-      <c r="N396" s="3">
-        <v>1969</v>
+        <v>5</v>
+      </c>
+      <c r="L396" s="3">
+        <v>133</v>
       </c>
       <c r="Q396" s="3">
-        <v>328.3</v>
+        <v>113.3</v>
       </c>
       <c r="R396" s="3">
-        <v>4379</v>
+        <v>6022</v>
       </c>
       <c r="S396" s="3">
-        <v>552.79999999999995</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="T396" s="3">
-        <v>4015</v>
+        <v>3992</v>
       </c>
       <c r="U396" s="3">
-        <v>339.5</v>
+        <v>117.4</v>
       </c>
       <c r="V396" s="3">
-        <v>5125</v>
+        <v>5951</v>
       </c>
       <c r="W396" s="3">
-        <v>559.9</v>
+        <v>168.2</v>
       </c>
       <c r="X396" s="3">
-        <v>3873</v>
+        <v>3955</v>
+      </c>
+      <c r="Z396" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="397" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C397" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D397" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="G397" t="s">
-        <v>667</v>
-      </c>
-      <c r="J397" s="3">
-        <v>5</v>
+        <v>660</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H397" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L397" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q397" s="3">
-        <v>107.3</v>
-      </c>
-      <c r="R397" s="3">
-        <v>5214</v>
-      </c>
-      <c r="S397" s="3">
-        <v>163</v>
-      </c>
-      <c r="T397" s="3">
-        <v>3028</v>
+        <v>150</v>
+      </c>
+      <c r="M397" s="1">
+        <v>200000</v>
       </c>
       <c r="U397" s="3">
-        <v>113.6</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="V397" s="3">
-        <v>5412</v>
+        <v>3922</v>
       </c>
       <c r="W397" s="3">
-        <v>169.7</v>
+        <v>334.3</v>
       </c>
       <c r="X397" s="3">
-        <v>3674</v>
+        <v>2422</v>
       </c>
       <c r="Z397" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="AA397" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="AB397" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="AD397" s="4">
-        <v>580</v>
+        <v>490</v>
       </c>
     </row>
     <row r="398" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C398" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D398" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>208</v>
+        <v>663</v>
+      </c>
+      <c r="G398" t="s">
+        <v>664</v>
       </c>
       <c r="J398" s="3">
-        <v>6</v>
-      </c>
-      <c r="L398" s="3">
-        <v>136</v>
+        <v>8</v>
+      </c>
+      <c r="N398" s="3">
+        <v>1969</v>
       </c>
       <c r="Q398" s="3">
-        <v>178.2</v>
+        <v>328.3</v>
       </c>
       <c r="R398" s="3">
-        <v>6323</v>
+        <v>4379</v>
       </c>
       <c r="S398" s="3">
-        <v>213.5</v>
+        <v>552.79999999999995</v>
       </c>
       <c r="T398" s="3">
-        <v>5093</v>
+        <v>4015</v>
       </c>
       <c r="U398" s="3">
-        <v>179.5</v>
+        <v>339.5</v>
       </c>
       <c r="V398" s="3">
-        <v>6252</v>
+        <v>5125</v>
       </c>
       <c r="W398" s="3">
-        <v>216.8</v>
+        <v>559.9</v>
       </c>
       <c r="X398" s="3">
-        <v>5084</v>
-      </c>
-      <c r="Z398" t="s">
-        <v>152</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="399" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C399" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D399" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>669</v>
+        <v>607</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="G399" t="s">
-        <v>670</v>
+        <v>667</v>
+      </c>
+      <c r="J399" s="3">
+        <v>5</v>
       </c>
       <c r="L399" s="3">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="Q399" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="R399" s="3">
+        <v>5214</v>
+      </c>
+      <c r="S399" s="3">
+        <v>163</v>
+      </c>
+      <c r="T399" s="3">
+        <v>3028</v>
       </c>
       <c r="U399" s="3">
-        <v>125.1</v>
+        <v>113.6</v>
       </c>
       <c r="V399" s="3">
-        <v>5351</v>
+        <v>5412</v>
       </c>
       <c r="W399" s="3">
-        <v>190.2</v>
+        <v>169.7</v>
       </c>
       <c r="X399" s="3">
-        <v>4523</v>
+        <v>3674</v>
       </c>
       <c r="Z399" t="s">
-        <v>104</v>
+        <v>665</v>
+      </c>
+      <c r="AA399" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB399" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD399" s="4">
+        <v>580</v>
       </c>
     </row>
     <row r="400" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C400" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D400" t="s">
-        <v>671</v>
+        <v>28</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H400" s="3" t="s">
-        <v>46</v>
+        <v>208</v>
+      </c>
+      <c r="J400" s="3">
+        <v>6</v>
       </c>
       <c r="L400" s="3">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q400" s="3">
-        <v>145.6</v>
+        <v>178.2</v>
       </c>
       <c r="R400" s="3">
-        <v>3370</v>
+        <v>6323</v>
       </c>
       <c r="S400" s="3">
-        <v>383.7</v>
+        <v>213.5</v>
       </c>
       <c r="T400" s="3">
-        <v>2295</v>
+        <v>5093</v>
       </c>
       <c r="U400" s="3">
-        <v>147</v>
+        <v>179.5</v>
       </c>
       <c r="V400" s="3">
-        <v>3405</v>
+        <v>6252</v>
       </c>
       <c r="W400" s="3">
-        <v>386.1</v>
+        <v>216.8</v>
       </c>
       <c r="X400" s="3">
-        <v>2295</v>
+        <v>5084</v>
       </c>
       <c r="Z400" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
     </row>
     <row r="401" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C401" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D401" t="s">
-        <v>52</v>
-      </c>
-      <c r="F401" s="2" t="s">
-        <v>342</v>
+        <v>44</v>
+      </c>
+      <c r="E401" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="G401" t="s">
+        <v>670</v>
       </c>
       <c r="L401" s="3">
-        <v>131</v>
-      </c>
-      <c r="M401" s="1">
-        <v>300000</v>
+        <v>136</v>
       </c>
       <c r="U401" s="3">
-        <v>128.9</v>
+        <v>125.1</v>
       </c>
       <c r="V401" s="3">
-        <v>4106</v>
+        <v>5351</v>
       </c>
       <c r="W401" s="3">
-        <v>317.2</v>
+        <v>190.2</v>
       </c>
       <c r="X401" s="3">
-        <v>2094</v>
+        <v>4523</v>
       </c>
       <c r="Z401" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA401" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB401" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD401" s="4">
-        <v>180</v>
+        <v>104</v>
       </c>
     </row>
     <row r="402" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C402" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D402" t="s">
-        <v>28</v>
+        <v>671</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="G402" t="s">
-        <v>677</v>
+        <v>672</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L402" s="3">
-        <v>193</v>
-      </c>
-      <c r="M402" s="1">
-        <v>335000</v>
+        <v>145</v>
       </c>
       <c r="Q402" s="3">
-        <v>193.1</v>
+        <v>145.6</v>
       </c>
       <c r="R402" s="3">
-        <v>6562</v>
+        <v>3370</v>
       </c>
       <c r="S402" s="3">
-        <v>262</v>
+        <v>383.7</v>
       </c>
       <c r="T402" s="3">
-        <v>195.3</v>
+        <v>2295</v>
       </c>
       <c r="U402" s="3">
-        <v>195.3</v>
+        <v>147</v>
       </c>
       <c r="V402" s="3">
-        <v>6605</v>
+        <v>3405</v>
       </c>
       <c r="W402" s="3">
-        <v>267.60000000000002</v>
+        <v>386.1</v>
       </c>
       <c r="X402" s="3">
-        <v>3696</v>
+        <v>2295</v>
       </c>
       <c r="Z402" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA402" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB402" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD402" s="4">
-        <v>250</v>
+        <v>64</v>
       </c>
     </row>
     <row r="403" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B403">
-        <v>3</v>
+      <c r="C403" s="4">
+        <v>13</v>
+      </c>
+      <c r="D403" t="s">
+        <v>52</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="L403" s="3">
+        <v>131</v>
+      </c>
+      <c r="M403" s="1">
+        <v>300000</v>
+      </c>
+      <c r="U403" s="3">
+        <v>128.9</v>
+      </c>
+      <c r="V403" s="3">
+        <v>4106</v>
+      </c>
+      <c r="W403" s="3">
+        <v>317.2</v>
+      </c>
+      <c r="X403" s="3">
+        <v>2094</v>
+      </c>
+      <c r="Z403" t="s">
+        <v>673</v>
+      </c>
+      <c r="AA403" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB403" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD403" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="404" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C404" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D404" t="s">
-        <v>197</v>
-      </c>
-      <c r="E404" s="4">
-        <v>968</v>
-      </c>
-      <c r="F404" s="2" t="s">
-        <v>463</v>
+        <v>28</v>
+      </c>
+      <c r="E404" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G404" t="s">
+        <v>677</v>
       </c>
       <c r="L404" s="3">
-        <v>240</v>
+        <v>193</v>
+      </c>
+      <c r="M404" s="1">
+        <v>335000</v>
       </c>
       <c r="Q404" s="3">
-        <v>213.8</v>
+        <v>193.1</v>
       </c>
       <c r="R404" s="3">
-        <v>6430</v>
+        <v>6562</v>
       </c>
       <c r="S404" s="3">
-        <v>272.3</v>
+        <v>262</v>
       </c>
       <c r="T404" s="3">
-        <v>4390</v>
+        <v>195.3</v>
       </c>
       <c r="U404" s="3">
-        <v>216.9</v>
+        <v>195.3</v>
       </c>
       <c r="V404" s="3">
-        <v>6411</v>
+        <v>6605</v>
       </c>
       <c r="W404" s="3">
-        <v>276.2</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="X404" s="3">
-        <v>4383</v>
+        <v>3696</v>
       </c>
       <c r="Z404" t="s">
-        <v>632</v>
+        <v>675</v>
       </c>
       <c r="AA404" t="s">
-        <v>633</v>
+        <v>676</v>
       </c>
       <c r="AB404" t="s">
-        <v>286</v>
+        <v>73</v>
       </c>
       <c r="AD404" s="4">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="405" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C405" s="4">
-        <v>2</v>
-      </c>
-      <c r="D405" t="s">
-        <v>52</v>
-      </c>
-      <c r="E405" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="F405" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G405" t="s">
-        <v>634</v>
-      </c>
-      <c r="L405" s="3">
-        <v>165</v>
-      </c>
-      <c r="U405" s="3">
-        <v>205.7</v>
-      </c>
-      <c r="V405" s="3">
-        <v>5632</v>
-      </c>
-      <c r="W405" s="3">
-        <v>328.8</v>
-      </c>
-      <c r="X405" s="3">
-        <v>3799</v>
+      <c r="B405">
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C406" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>44</v>
-      </c>
-      <c r="E406" s="4" t="s">
-        <v>637</v>
+        <v>197</v>
+      </c>
+      <c r="E406" s="4">
+        <v>968</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>147</v>
+        <v>463</v>
       </c>
       <c r="L406" s="3">
-        <v>230</v>
+        <v>240</v>
+      </c>
+      <c r="Q406" s="3">
+        <v>213.8</v>
+      </c>
+      <c r="R406" s="3">
+        <v>6430</v>
+      </c>
+      <c r="S406" s="3">
+        <v>272.3</v>
+      </c>
+      <c r="T406" s="3">
+        <v>4390</v>
       </c>
       <c r="U406" s="3">
-        <v>243.4</v>
+        <v>216.9</v>
       </c>
       <c r="V406" s="3">
-        <v>5400</v>
+        <v>6411</v>
       </c>
       <c r="W406" s="3">
-        <v>354.6</v>
+        <v>276.2</v>
       </c>
       <c r="X406" s="3">
-        <v>3056</v>
+        <v>4383</v>
       </c>
       <c r="Z406" t="s">
-        <v>446</v>
+        <v>632</v>
       </c>
       <c r="AA406" t="s">
-        <v>447</v>
+        <v>633</v>
       </c>
       <c r="AB406" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AD406" s="4">
-        <v>70</v>
+        <v>400</v>
       </c>
     </row>
     <row r="407" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C407" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D407" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J407" s="3">
-        <v>5</v>
+        <v>205</v>
+      </c>
+      <c r="G407" t="s">
+        <v>634</v>
       </c>
       <c r="L407" s="3">
-        <v>305</v>
-      </c>
-      <c r="Q407" s="3">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="R407" s="3">
-        <v>6190</v>
-      </c>
-      <c r="S407" s="3">
-        <v>404.5</v>
-      </c>
-      <c r="T407" s="3">
-        <v>4616</v>
+        <v>165</v>
       </c>
       <c r="U407" s="3">
-        <v>293.10000000000002</v>
+        <v>205.7</v>
       </c>
       <c r="V407" s="3">
-        <v>6708</v>
+        <v>5632</v>
       </c>
       <c r="W407" s="3">
-        <v>405.5</v>
+        <v>328.8</v>
       </c>
       <c r="X407" s="3">
-        <v>4650</v>
-      </c>
-      <c r="Z407" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA407" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB407" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD407" s="4">
-        <v>70</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="408" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C408" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D408" t="s">
         <v>44</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="L408" s="3">
-        <v>75</v>
-      </c>
-      <c r="M408" s="1">
-        <v>226000</v>
-      </c>
-      <c r="Q408" s="3">
-        <v>76.5</v>
-      </c>
-      <c r="R408" s="3">
-        <v>5116</v>
-      </c>
-      <c r="S408" s="3">
-        <v>115.9</v>
-      </c>
-      <c r="T408" s="3">
-        <v>3629</v>
+        <v>230</v>
       </c>
       <c r="U408" s="3">
-        <v>77.099999999999994</v>
+        <v>243.4</v>
       </c>
       <c r="V408" s="3">
-        <v>4943</v>
+        <v>5400</v>
       </c>
       <c r="W408" s="3">
-        <v>115.9</v>
+        <v>354.6</v>
       </c>
       <c r="X408" s="3">
-        <v>3522</v>
+        <v>3056</v>
       </c>
       <c r="Z408" t="s">
         <v>446</v>
@@ -16791,1240 +17071,1352 @@
     </row>
     <row r="409" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C409" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D409" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>147</v>
+        <v>211</v>
+      </c>
+      <c r="J409" s="3">
+        <v>5</v>
       </c>
       <c r="L409" s="3">
-        <v>150</v>
+        <v>305</v>
+      </c>
+      <c r="Q409" s="3">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="R409" s="3">
+        <v>6190</v>
+      </c>
+      <c r="S409" s="3">
+        <v>404.5</v>
+      </c>
+      <c r="T409" s="3">
+        <v>4616</v>
       </c>
       <c r="U409" s="3">
-        <v>186.1</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="V409" s="3">
-        <v>3265</v>
+        <v>6708</v>
       </c>
       <c r="W409" s="3">
-        <v>451.4</v>
+        <v>405.5</v>
       </c>
       <c r="X409" s="3">
-        <v>2059</v>
+        <v>4650</v>
       </c>
       <c r="Z409" t="s">
-        <v>189</v>
+        <v>446</v>
       </c>
       <c r="AA409" t="s">
-        <v>190</v>
+        <v>447</v>
       </c>
       <c r="AB409" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD409" s="4">
-        <v>220</v>
+        <v>70</v>
       </c>
     </row>
     <row r="410" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C410" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D410" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="J410" s="3">
-        <v>8</v>
-      </c>
-      <c r="K410" t="s">
-        <v>76</v>
+        <v>639</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="L410" s="3">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="M410" s="1">
-        <v>303000</v>
+        <v>226000</v>
       </c>
       <c r="Q410" s="3">
-        <v>248</v>
+        <v>76.5</v>
       </c>
       <c r="R410" s="3">
-        <v>5970</v>
+        <v>5116</v>
       </c>
       <c r="S410" s="3">
-        <v>339.7</v>
+        <v>115.9</v>
       </c>
       <c r="T410" s="3">
-        <v>3305</v>
+        <v>3629</v>
       </c>
       <c r="U410" s="3">
-        <v>247.9</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V410" s="3">
-        <v>6245</v>
+        <v>4943</v>
       </c>
       <c r="W410" s="3">
-        <v>342.5</v>
+        <v>115.9</v>
       </c>
       <c r="X410" s="3">
-        <v>3314</v>
+        <v>3522</v>
       </c>
       <c r="Z410" t="s">
-        <v>641</v>
+        <v>446</v>
       </c>
       <c r="AA410" t="s">
-        <v>642</v>
+        <v>447</v>
       </c>
       <c r="AB410" t="s">
         <v>42</v>
       </c>
       <c r="AD410" s="4">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="411" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C411" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D411" t="s">
-        <v>412</v>
+        <v>52</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>413</v>
+        <v>640</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G411" t="s">
-        <v>644</v>
+        <v>147</v>
       </c>
       <c r="L411" s="3">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="U411" s="3">
-        <v>137</v>
+        <v>186.1</v>
       </c>
       <c r="V411" s="3">
-        <v>7319</v>
+        <v>3265</v>
       </c>
       <c r="W411" s="3">
-        <v>134.5</v>
+        <v>451.4</v>
       </c>
       <c r="X411" s="3">
-        <v>7076</v>
+        <v>2059</v>
+      </c>
+      <c r="Z411" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA411" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB411" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD411" s="4">
+        <v>220</v>
       </c>
     </row>
     <row r="412" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C412" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D412" t="s">
         <v>106</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="F412" s="2" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="J412" s="3">
         <v>8</v>
       </c>
+      <c r="K412" t="s">
+        <v>76</v>
+      </c>
       <c r="L412" s="3">
-        <v>367</v>
+        <v>306</v>
+      </c>
+      <c r="M412" s="1">
+        <v>303000</v>
+      </c>
+      <c r="Q412" s="3">
+        <v>248</v>
+      </c>
+      <c r="R412" s="3">
+        <v>5970</v>
+      </c>
+      <c r="S412" s="3">
+        <v>339.7</v>
+      </c>
+      <c r="T412" s="3">
+        <v>3305</v>
       </c>
       <c r="U412" s="3">
-        <v>312.8</v>
+        <v>247.9</v>
       </c>
       <c r="V412" s="3">
-        <v>6550</v>
+        <v>6245</v>
       </c>
       <c r="W412" s="3">
-        <v>410.4</v>
+        <v>342.5</v>
       </c>
       <c r="X412" s="3">
-        <v>4479</v>
+        <v>3314</v>
       </c>
       <c r="Z412" t="s">
-        <v>156</v>
+        <v>641</v>
       </c>
       <c r="AA412" t="s">
-        <v>157</v>
+        <v>642</v>
       </c>
       <c r="AB412" t="s">
         <v>42</v>
       </c>
       <c r="AD412" s="4">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="413" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C413" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D413" t="s">
-        <v>28</v>
+        <v>412</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>646</v>
+        <v>413</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>474</v>
+        <v>207</v>
       </c>
       <c r="G413" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="L413" s="3">
-        <v>220</v>
-      </c>
-      <c r="N413" s="3">
-        <v>1981</v>
+        <v>125</v>
       </c>
       <c r="U413" s="3">
-        <v>190.7</v>
+        <v>137</v>
       </c>
       <c r="V413" s="3">
-        <v>6165</v>
+        <v>7319</v>
       </c>
       <c r="W413" s="3">
-        <v>280.89999999999998</v>
+        <v>134.5</v>
       </c>
       <c r="X413" s="3">
-        <v>4193</v>
-      </c>
-      <c r="Z413" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA413" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB413" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD413" s="4">
-        <v>0</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="414" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C414" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D414" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>474</v>
+        <v>635</v>
       </c>
       <c r="J414" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L414" s="3">
-        <v>306</v>
-      </c>
-      <c r="Q414" s="3">
-        <v>336.6</v>
-      </c>
-      <c r="R414" s="3">
-        <v>5778</v>
-      </c>
-      <c r="S414" s="3">
-        <v>550</v>
-      </c>
-      <c r="T414" s="3">
-        <v>4222</v>
+        <v>367</v>
       </c>
       <c r="U414" s="3">
-        <v>341.5</v>
+        <v>312.8</v>
       </c>
       <c r="V414" s="3">
-        <v>4394</v>
+        <v>6550</v>
       </c>
       <c r="W414" s="3">
-        <v>557.29999999999995</v>
+        <v>410.4</v>
       </c>
       <c r="X414" s="3">
-        <v>4310</v>
+        <v>4479</v>
       </c>
       <c r="Z414" t="s">
-        <v>305</v>
+        <v>156</v>
       </c>
       <c r="AA414" t="s">
-        <v>647</v>
+        <v>157</v>
       </c>
       <c r="AB414" t="s">
         <v>42</v>
       </c>
       <c r="AD414" s="4">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="415" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B415">
-        <v>2</v>
+      <c r="C415" s="4">
+        <v>10</v>
+      </c>
+      <c r="D415" t="s">
+        <v>28</v>
+      </c>
+      <c r="E415" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G415" t="s">
+        <v>606</v>
+      </c>
+      <c r="L415" s="3">
+        <v>220</v>
+      </c>
+      <c r="N415" s="3">
+        <v>1981</v>
+      </c>
+      <c r="U415" s="3">
+        <v>190.7</v>
+      </c>
+      <c r="V415" s="3">
+        <v>6165</v>
+      </c>
+      <c r="W415" s="3">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="X415" s="3">
+        <v>4193</v>
+      </c>
+      <c r="Z415" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA415" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB415" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD415" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C416" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D416" t="s">
-        <v>528</v>
+        <v>28</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>598</v>
+        <v>648</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>208</v>
+        <v>474</v>
+      </c>
+      <c r="J416" s="3">
+        <v>6</v>
       </c>
       <c r="L416" s="3">
-        <v>169</v>
+        <v>306</v>
       </c>
       <c r="Q416" s="3">
-        <v>184.2</v>
+        <v>336.6</v>
       </c>
       <c r="R416" s="3">
-        <v>6393</v>
+        <v>5778</v>
       </c>
       <c r="S416" s="3">
-        <v>236.7</v>
+        <v>550</v>
       </c>
       <c r="T416" s="3">
-        <v>4499</v>
+        <v>4222</v>
       </c>
       <c r="U416" s="3">
-        <v>186.4</v>
+        <v>341.5</v>
       </c>
       <c r="V416" s="3">
-        <v>6385</v>
+        <v>4394</v>
       </c>
       <c r="W416" s="3">
-        <v>234.9</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="X416" s="3">
-        <v>4542</v>
+        <v>4310</v>
       </c>
       <c r="Z416" t="s">
-        <v>596</v>
+        <v>305</v>
       </c>
       <c r="AA416" t="s">
-        <v>597</v>
+        <v>647</v>
       </c>
       <c r="AB416" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AD416" s="4">
-        <v>385</v>
+        <v>70</v>
       </c>
     </row>
     <row r="417" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C417" s="4">
+      <c r="B417">
         <v>2</v>
-      </c>
-      <c r="D417" t="s">
-        <v>106</v>
-      </c>
-      <c r="E417" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="F417" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K417" t="s">
-        <v>76</v>
-      </c>
-      <c r="L417" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q417" s="3">
-        <v>167</v>
-      </c>
-      <c r="R417" s="3">
-        <v>6189</v>
-      </c>
-      <c r="S417" s="3">
-        <v>226.7</v>
-      </c>
-      <c r="T417" s="3">
-        <v>3026</v>
-      </c>
-      <c r="U417" s="3">
-        <v>167.6</v>
-      </c>
-      <c r="V417" s="3">
-        <v>6627</v>
-      </c>
-      <c r="W417" s="3">
-        <v>232</v>
-      </c>
-      <c r="X417" s="3">
-        <v>3046</v>
-      </c>
-      <c r="Z417" t="s">
-        <v>599</v>
-      </c>
-      <c r="AA417" t="s">
-        <v>600</v>
-      </c>
-      <c r="AB417" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD417" s="4">
-        <v>75</v>
       </c>
     </row>
     <row r="418" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C418" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D418" t="s">
-        <v>106</v>
+        <v>528</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G418" t="s">
-        <v>606</v>
-      </c>
-      <c r="K418" t="s">
-        <v>76</v>
+        <v>598</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="L418" s="3">
-        <v>180</v>
+        <v>169</v>
+      </c>
+      <c r="Q418" s="3">
+        <v>184.2</v>
+      </c>
+      <c r="R418" s="3">
+        <v>6393</v>
+      </c>
+      <c r="S418" s="3">
+        <v>236.7</v>
+      </c>
+      <c r="T418" s="3">
+        <v>4499</v>
       </c>
       <c r="U418" s="3">
-        <v>160.6</v>
+        <v>186.4</v>
       </c>
       <c r="V418" s="3">
-        <v>5334</v>
+        <v>6385</v>
       </c>
       <c r="W418" s="3">
-        <v>200.5</v>
+        <v>234.9</v>
       </c>
       <c r="X418" s="3">
-        <v>4806</v>
+        <v>4542</v>
       </c>
       <c r="Z418" t="s">
-        <v>104</v>
+        <v>596</v>
       </c>
       <c r="AA418" t="s">
-        <v>105</v>
+        <v>597</v>
       </c>
       <c r="AB418" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AD418" s="4">
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="419" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C419" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D419" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J419" s="3">
-        <v>6</v>
+        <v>602</v>
+      </c>
+      <c r="K419" t="s">
+        <v>76</v>
       </c>
       <c r="L419" s="3">
-        <v>150</v>
-      </c>
-      <c r="M419" s="1">
-        <v>293000</v>
+        <v>220</v>
+      </c>
+      <c r="Q419" s="3">
+        <v>167</v>
+      </c>
+      <c r="R419" s="3">
+        <v>6189</v>
+      </c>
+      <c r="S419" s="3">
+        <v>226.7</v>
+      </c>
+      <c r="T419" s="3">
+        <v>3026</v>
       </c>
       <c r="U419" s="3">
-        <v>142.4</v>
+        <v>167.6</v>
       </c>
       <c r="V419" s="3">
-        <v>4907</v>
+        <v>6627</v>
       </c>
       <c r="W419" s="3">
-        <v>234.4</v>
+        <v>232</v>
       </c>
       <c r="X419" s="3">
-        <v>3859</v>
+        <v>3046</v>
       </c>
       <c r="Z419" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AA419" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AB419" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="AD419" s="4">
-        <v>413</v>
+        <v>75</v>
       </c>
     </row>
     <row r="420" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C420" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D420" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F420" s="2" t="s">
-        <v>207</v>
+        <v>603</v>
       </c>
       <c r="G420" t="s">
-        <v>609</v>
+        <v>606</v>
+      </c>
+      <c r="K420" t="s">
+        <v>76</v>
       </c>
       <c r="L420" s="3">
-        <v>120</v>
-      </c>
-      <c r="Q420" s="3">
-        <v>122</v>
-      </c>
-      <c r="R420" s="3">
-        <v>6640</v>
-      </c>
-      <c r="S420" s="3">
-        <v>149.1</v>
-      </c>
-      <c r="T420" s="3">
-        <v>3067</v>
+        <v>180</v>
       </c>
       <c r="U420" s="3">
-        <v>130.1</v>
+        <v>160.6</v>
       </c>
       <c r="V420" s="3">
-        <v>6687</v>
+        <v>5334</v>
       </c>
       <c r="W420" s="3">
-        <v>154.9</v>
+        <v>200.5</v>
       </c>
       <c r="X420" s="3">
-        <v>3043</v>
+        <v>4806</v>
       </c>
       <c r="Z420" t="s">
-        <v>552</v>
+        <v>104</v>
       </c>
       <c r="AA420" t="s">
-        <v>553</v>
+        <v>105</v>
       </c>
       <c r="AB420" t="s">
         <v>42</v>
       </c>
       <c r="AD420" s="4">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C421" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D421" t="s">
         <v>52</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>373</v>
+        <v>574</v>
       </c>
       <c r="J421" s="3">
-        <v>5</v>
-      </c>
-      <c r="K421" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="L421" s="3">
-        <v>136</v>
+        <v>150</v>
+      </c>
+      <c r="M421" s="1">
+        <v>293000</v>
       </c>
       <c r="U421" s="3">
-        <v>115.1</v>
+        <v>142.4</v>
       </c>
       <c r="V421" s="3">
-        <v>6028</v>
+        <v>4907</v>
       </c>
       <c r="W421" s="3">
-        <v>169.6</v>
+        <v>234.4</v>
       </c>
       <c r="X421" s="3">
-        <v>2501</v>
+        <v>3859</v>
       </c>
       <c r="Z421" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AA421" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC421" t="s">
-        <v>611</v>
+        <v>605</v>
+      </c>
+      <c r="AB421" t="s">
+        <v>133</v>
       </c>
       <c r="AD421" s="4">
-        <v>650</v>
+        <v>413</v>
       </c>
     </row>
     <row r="422" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C422" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D422" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="G422" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="L422" s="3">
-        <v>265</v>
+        <v>120</v>
       </c>
       <c r="Q422" s="3">
-        <v>266.89999999999998</v>
+        <v>122</v>
       </c>
       <c r="R422" s="3">
-        <v>6022</v>
+        <v>6640</v>
       </c>
       <c r="S422" s="3">
-        <v>375.1</v>
+        <v>149.1</v>
       </c>
       <c r="T422" s="3">
-        <v>3212</v>
+        <v>3067</v>
       </c>
       <c r="U422" s="3">
-        <v>283.60000000000002</v>
+        <v>130.1</v>
       </c>
       <c r="V422" s="3">
-        <v>5525</v>
+        <v>6687</v>
       </c>
       <c r="W422" s="3">
-        <v>398.7</v>
+        <v>154.9</v>
       </c>
       <c r="X422" s="3">
-        <v>3621</v>
+        <v>3043</v>
       </c>
       <c r="Z422" t="s">
-        <v>400</v>
+        <v>552</v>
       </c>
       <c r="AA422" t="s">
-        <v>401</v>
+        <v>553</v>
       </c>
       <c r="AB422" t="s">
         <v>42</v>
       </c>
       <c r="AD422" s="4">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="423" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C423" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D423" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G423" t="s">
-        <v>618</v>
+        <v>613</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J423" s="3">
+        <v>5</v>
+      </c>
+      <c r="K423" t="s">
+        <v>76</v>
       </c>
       <c r="L423" s="3">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="U423" s="3">
-        <v>181</v>
+        <v>115.1</v>
       </c>
       <c r="V423" s="3">
-        <v>5896</v>
+        <v>6028</v>
       </c>
       <c r="W423" s="3">
-        <v>233</v>
+        <v>169.6</v>
       </c>
       <c r="X423" s="3">
-        <v>5296</v>
+        <v>2501</v>
       </c>
       <c r="Z423" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AA423" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB423" t="s">
-        <v>112</v>
+        <v>612</v>
+      </c>
+      <c r="AC423" t="s">
+        <v>611</v>
       </c>
       <c r="AD423" s="4">
-        <v>170</v>
+        <v>650</v>
       </c>
     </row>
     <row r="424" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C424" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D424" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="G424" t="s">
-        <v>623</v>
-      </c>
-      <c r="J424" s="3">
-        <v>5</v>
+        <v>615</v>
+      </c>
+      <c r="L424" s="3">
+        <v>265</v>
+      </c>
+      <c r="Q424" s="3">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="R424" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S424" s="3">
+        <v>375.1</v>
+      </c>
+      <c r="T424" s="3">
+        <v>3212</v>
       </c>
       <c r="U424" s="3">
-        <v>227.8</v>
+        <v>283.60000000000002</v>
       </c>
       <c r="V424" s="3">
-        <v>5921</v>
+        <v>5525</v>
       </c>
       <c r="W424" s="3">
-        <v>343</v>
+        <v>398.7</v>
       </c>
       <c r="X424" s="3">
-        <v>4521</v>
+        <v>3621</v>
       </c>
       <c r="Z424" t="s">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="AA424" t="s">
-        <v>621</v>
+        <v>401</v>
       </c>
       <c r="AB424" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD424" s="4">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="425" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C425" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D425" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>626</v>
+        <v>619</v>
+      </c>
+      <c r="G425" t="s">
+        <v>618</v>
       </c>
       <c r="L425" s="3">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U425" s="3">
-        <v>133.4</v>
+        <v>181</v>
       </c>
       <c r="V425" s="3">
-        <v>6587</v>
+        <v>5896</v>
       </c>
       <c r="W425" s="3">
-        <v>148.5</v>
+        <v>233</v>
       </c>
       <c r="X425" s="3">
-        <v>4539</v>
+        <v>5296</v>
       </c>
       <c r="Z425" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="AA425" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="AB425" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD425" s="4">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="426" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C426" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D426" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>346</v>
+        <v>205</v>
       </c>
       <c r="G426" t="s">
-        <v>576</v>
-      </c>
-      <c r="H426" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L426" s="3">
-        <v>131</v>
-      </c>
-      <c r="Q426" s="3">
-        <v>158.69999999999999</v>
-      </c>
-      <c r="R426" s="3">
-        <v>4020</v>
-      </c>
-      <c r="S426" s="3">
-        <v>348.9</v>
-      </c>
-      <c r="T426" s="3">
-        <v>2359</v>
+        <v>623</v>
+      </c>
+      <c r="J426" s="3">
+        <v>5</v>
       </c>
       <c r="U426" s="3">
-        <v>160.6</v>
+        <v>227.8</v>
       </c>
       <c r="V426" s="3">
-        <v>4049</v>
+        <v>5921</v>
       </c>
       <c r="W426" s="3">
-        <v>350.3</v>
+        <v>343</v>
       </c>
       <c r="X426" s="3">
-        <v>2430</v>
+        <v>4521</v>
       </c>
       <c r="Z426" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AA426" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="AB426" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD426" s="4">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="427" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C427" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D427" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F427" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G427" t="s">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="L427" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q427" s="3">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="R427" s="3">
-        <v>6258</v>
-      </c>
-      <c r="S427" s="3">
-        <v>449.1</v>
-      </c>
-      <c r="T427" s="3">
-        <v>3927</v>
+        <v>135</v>
       </c>
       <c r="U427" s="3">
-        <v>308.89999999999998</v>
+        <v>133.4</v>
       </c>
       <c r="V427" s="3">
-        <v>6376</v>
+        <v>6587</v>
       </c>
       <c r="W427" s="3">
-        <v>447.1</v>
+        <v>148.5</v>
       </c>
       <c r="X427" s="3">
-        <v>3904</v>
+        <v>4539</v>
       </c>
       <c r="Z427" t="s">
-        <v>156</v>
+        <v>624</v>
       </c>
       <c r="AA427" t="s">
-        <v>157</v>
+        <v>625</v>
       </c>
       <c r="AB427" t="s">
         <v>42</v>
       </c>
       <c r="AD427" s="4">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="428" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C428" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D428" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K428" t="s">
-        <v>76</v>
+        <v>346</v>
+      </c>
+      <c r="G428" t="s">
+        <v>576</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L428" s="3">
-        <v>193</v>
+        <v>131</v>
+      </c>
+      <c r="Q428" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R428" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S428" s="3">
+        <v>348.9</v>
+      </c>
+      <c r="T428" s="3">
+        <v>2359</v>
       </c>
       <c r="U428" s="3">
-        <v>205</v>
+        <v>160.6</v>
+      </c>
+      <c r="V428" s="3">
+        <v>4049</v>
       </c>
       <c r="W428" s="3">
-        <v>240</v>
+        <v>350.3</v>
+      </c>
+      <c r="X428" s="3">
+        <v>2430</v>
       </c>
       <c r="Z428" t="s">
-        <v>215</v>
+        <v>627</v>
       </c>
       <c r="AA428" t="s">
-        <v>216</v>
+        <v>628</v>
       </c>
       <c r="AB428" t="s">
         <v>42</v>
       </c>
       <c r="AD428" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="429" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B429">
-        <v>1</v>
+      <c r="C429" s="4">
+        <v>12</v>
+      </c>
+      <c r="D429" t="s">
+        <v>44</v>
+      </c>
+      <c r="E429" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G429" t="s">
+        <v>576</v>
+      </c>
+      <c r="L429" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q429" s="3">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R429" s="3">
+        <v>6258</v>
+      </c>
+      <c r="S429" s="3">
+        <v>449.1</v>
+      </c>
+      <c r="T429" s="3">
+        <v>3927</v>
+      </c>
+      <c r="U429" s="3">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="V429" s="3">
+        <v>6376</v>
+      </c>
+      <c r="W429" s="3">
+        <v>447.1</v>
+      </c>
+      <c r="X429" s="3">
+        <v>3904</v>
+      </c>
+      <c r="Z429" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA429" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB429" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD429" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="430" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C430" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D430" t="s">
         <v>28</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>585</v>
+        <v>631</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J430" s="3">
-        <v>6</v>
+      <c r="K430" t="s">
+        <v>76</v>
       </c>
       <c r="L430" s="3">
         <v>193</v>
       </c>
       <c r="U430" s="3">
-        <v>196.4</v>
-      </c>
-      <c r="V430" s="3">
-        <v>6004</v>
+        <v>205</v>
       </c>
       <c r="W430" s="3">
-        <v>250</v>
-      </c>
-      <c r="X430" s="3">
-        <v>4813</v>
+        <v>240</v>
       </c>
       <c r="Z430" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="AA430" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="AB430" t="s">
         <v>42</v>
       </c>
       <c r="AD430" s="4">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="431" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C431" s="4">
-        <v>2</v>
-      </c>
-      <c r="D431" t="s">
-        <v>44</v>
-      </c>
-      <c r="E431" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="F431" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L431" s="3">
-        <v>160</v>
-      </c>
-      <c r="Q431" s="3">
-        <v>161.19999999999999</v>
-      </c>
-      <c r="R431" s="3">
-        <v>25980</v>
-      </c>
-      <c r="S431" s="3">
-        <v>212.9</v>
-      </c>
-      <c r="T431" s="3">
-        <v>4710</v>
-      </c>
-      <c r="U431" s="3">
-        <v>162.9</v>
-      </c>
-      <c r="V431" s="3">
-        <v>6026</v>
-      </c>
-      <c r="W431" s="3">
-        <v>216.6</v>
-      </c>
-      <c r="X431" s="3">
-        <v>4748</v>
-      </c>
-      <c r="Z431" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA431" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB431" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD431" s="4">
-        <v>180</v>
+      <c r="B431">
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C432" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D432" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G432" t="s">
-        <v>588</v>
+        <v>209</v>
+      </c>
+      <c r="J432" s="3">
+        <v>6</v>
       </c>
       <c r="L432" s="3">
+        <v>193</v>
+      </c>
+      <c r="U432" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V432" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W432" s="3">
         <v>250</v>
       </c>
-      <c r="Q432" s="3">
-        <v>268.3</v>
-      </c>
-      <c r="R432" s="3">
-        <v>5341</v>
-      </c>
-      <c r="S432" s="3">
-        <v>440.9</v>
-      </c>
-      <c r="T432" s="3">
-        <v>2638</v>
-      </c>
-      <c r="U432" s="3">
-        <v>268.2</v>
-      </c>
-      <c r="V432" s="3">
-        <v>5400</v>
-      </c>
-      <c r="W432" s="3">
-        <v>448.9</v>
-      </c>
       <c r="X432" s="3">
-        <v>2646</v>
+        <v>4813</v>
       </c>
       <c r="Z432" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="AA432" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="AB432" t="s">
         <v>42</v>
       </c>
       <c r="AD432" s="4">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="433" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C433" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D433" t="s">
         <v>44</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G433" t="s">
-        <v>590</v>
-      </c>
       <c r="L433" s="3">
-        <v>139</v>
-      </c>
-      <c r="N433" s="3">
-        <v>1986</v>
+        <v>160</v>
       </c>
       <c r="Q433" s="3">
-        <v>209.1</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="R433" s="3">
-        <v>7791</v>
+        <v>25980</v>
       </c>
       <c r="S433" s="3">
-        <v>212</v>
+        <v>212.9</v>
       </c>
       <c r="T433" s="3">
-        <v>5755</v>
+        <v>4710</v>
       </c>
       <c r="U433" s="3">
-        <v>208</v>
+        <v>162.9</v>
       </c>
       <c r="V433" s="3">
-        <v>7966</v>
+        <v>6026</v>
       </c>
       <c r="W433" s="3">
-        <v>213.2</v>
+        <v>216.6</v>
       </c>
       <c r="X433" s="3">
-        <v>5807</v>
+        <v>4748</v>
+      </c>
+      <c r="Z433" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA433" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB433" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD433" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="434" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C434" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D434" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="G434" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L434" s="3">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="Q434" s="3">
-        <v>98.4</v>
+        <v>268.3</v>
       </c>
       <c r="R434" s="3">
-        <v>5085</v>
+        <v>5341</v>
       </c>
       <c r="S434" s="3">
-        <v>160.1</v>
+        <v>440.9</v>
       </c>
       <c r="T434" s="3">
-        <v>3668</v>
+        <v>2638</v>
       </c>
       <c r="U434" s="3">
-        <v>96.9</v>
+        <v>268.2</v>
       </c>
       <c r="V434" s="3">
-        <v>4993</v>
+        <v>5400</v>
       </c>
       <c r="W434" s="3">
-        <v>159.5</v>
+        <v>448.9</v>
       </c>
       <c r="X434" s="3">
-        <v>3305</v>
+        <v>2646</v>
       </c>
       <c r="Z434" t="s">
-        <v>591</v>
+        <v>215</v>
       </c>
       <c r="AA434" t="s">
-        <v>592</v>
+        <v>216</v>
       </c>
       <c r="AB434" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD434" s="4">
-        <v>280</v>
+        <v>20</v>
       </c>
     </row>
     <row r="435" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C435" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D435" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="E435" s="4" t="s">
-        <v>372</v>
+        <v>589</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>208</v>
       </c>
       <c r="G435" t="s">
+        <v>590</v>
+      </c>
+      <c r="L435" s="3">
+        <v>139</v>
+      </c>
+      <c r="N435" s="3">
+        <v>1986</v>
+      </c>
+      <c r="Q435" s="3">
+        <v>209.1</v>
+      </c>
+      <c r="R435" s="3">
+        <v>7791</v>
+      </c>
+      <c r="S435" s="3">
+        <v>212</v>
+      </c>
+      <c r="T435" s="3">
+        <v>5755</v>
+      </c>
+      <c r="U435" s="3">
+        <v>208</v>
+      </c>
+      <c r="V435" s="3">
+        <v>7966</v>
+      </c>
+      <c r="W435" s="3">
+        <v>213.2</v>
+      </c>
+      <c r="X435" s="3">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="436" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C436" s="4">
+        <v>5</v>
+      </c>
+      <c r="D436" t="s">
+        <v>44</v>
+      </c>
+      <c r="E436" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G436" t="s">
+        <v>594</v>
+      </c>
+      <c r="L436" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q436" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="R436" s="3">
+        <v>5085</v>
+      </c>
+      <c r="S436" s="3">
+        <v>160.1</v>
+      </c>
+      <c r="T436" s="3">
+        <v>3668</v>
+      </c>
+      <c r="U436" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="V436" s="3">
+        <v>4993</v>
+      </c>
+      <c r="W436" s="3">
+        <v>159.5</v>
+      </c>
+      <c r="X436" s="3">
+        <v>3305</v>
+      </c>
+      <c r="Z436" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA436" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB436" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD436" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="437" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C437" s="4">
+        <v>6</v>
+      </c>
+      <c r="D437" t="s">
+        <v>178</v>
+      </c>
+      <c r="E437" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G437" t="s">
         <v>595</v>
       </c>
-      <c r="L435" s="3">
+      <c r="L437" s="3">
         <v>116</v>
       </c>
-      <c r="M435" s="1">
+      <c r="M437" s="1">
         <v>325000</v>
       </c>
-      <c r="Q435" s="3">
+      <c r="Q437" s="3">
         <v>109.7</v>
       </c>
-      <c r="R435" s="3">
+      <c r="R437" s="3">
         <v>6570</v>
       </c>
-      <c r="S435" s="3">
+      <c r="S437" s="3">
         <v>130</v>
       </c>
-      <c r="T435" s="3">
+      <c r="T437" s="3">
         <v>5181</v>
       </c>
-      <c r="U435" s="3">
+      <c r="U437" s="3">
         <v>111.1</v>
       </c>
-      <c r="V435" s="3">
+      <c r="V437" s="3">
         <v>6500</v>
       </c>
-      <c r="W435" s="3">
+      <c r="W437" s="3">
         <v>132.30000000000001</v>
       </c>
-      <c r="X435" s="3">
+      <c r="X437" s="3">
         <v>5179</v>
       </c>
-      <c r="Z435" t="s">
+      <c r="Z437" t="s">
         <v>47</v>
       </c>
-      <c r="AA435" t="s">
+      <c r="AA437" t="s">
         <v>48</v>
       </c>
-      <c r="AB435" t="s">
+      <c r="AB437" t="s">
         <v>42</v>
       </c>
-      <c r="AD435" s="4">
+      <c r="AD437" s="4">
         <v>36</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DBC9F2-6E75-4694-A9C8-1FA300FA7555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C31E8F-7392-4A64-A346-FDA9190E7476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3396,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="E308" sqref="E308"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="AC60" sqref="AC60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C31E8F-7392-4A64-A346-FDA9190E7476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E88A5B-FE2E-41F3-9D3F-059E79CC5734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="852">
   <si>
     <t>Episode</t>
   </si>
@@ -2543,6 +2543,39 @@
   </si>
   <si>
     <t>2. Messung mit getauschten Vergaserdüsen</t>
+  </si>
+  <si>
+    <t>Polo (6N)</t>
+  </si>
+  <si>
+    <t>8V</t>
+  </si>
+  <si>
+    <t>GOA</t>
+  </si>
+  <si>
+    <t>Sankt Goar</t>
+  </si>
+  <si>
+    <t>Golf I GTI</t>
+  </si>
+  <si>
+    <t>Golf VI GTI TFSI</t>
+  </si>
+  <si>
+    <t>Vivaro</t>
+  </si>
+  <si>
+    <t>(E46) 320ci</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>LeMans Sport</t>
+  </si>
+  <si>
+    <t>Puma</t>
   </si>
 </sst>
 </file>
@@ -3394,10 +3427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE437"/>
+  <dimension ref="A1:AE453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="AC60" sqref="AC60"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12701,1762 +12734,1518 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B297">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="298" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C298" s="4">
-        <v>1</v>
-      </c>
-      <c r="D298" t="s">
-        <v>36</v>
-      </c>
-      <c r="E298" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G298" t="s">
-        <v>827</v>
-      </c>
-      <c r="L298" s="3">
-        <v>150</v>
-      </c>
-      <c r="U298" s="3">
-        <v>151.80000000000001</v>
-      </c>
-      <c r="V298" s="3">
-        <v>6462</v>
-      </c>
-      <c r="W298" s="3">
-        <v>193.5</v>
-      </c>
-      <c r="X298" s="3">
-        <v>4946</v>
-      </c>
-      <c r="Z298" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="299" spans="2:30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C299" s="4">
-        <v>2</v>
-      </c>
-      <c r="D299" t="s">
-        <v>44</v>
-      </c>
-      <c r="E299" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L299" s="3">
-        <v>150</v>
-      </c>
-      <c r="U299" s="3">
-        <v>223.9</v>
-      </c>
-      <c r="V299" s="3">
-        <v>5101</v>
-      </c>
-      <c r="W299" s="3">
-        <v>330</v>
-      </c>
-      <c r="X299" s="3">
-        <v>4611</v>
-      </c>
-    </row>
-    <row r="300" spans="2:30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C300" s="4">
-        <v>3</v>
-      </c>
-      <c r="D300" t="s">
-        <v>44</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G300" t="s">
-        <v>320</v>
-      </c>
-      <c r="L300" s="3">
-        <v>98</v>
-      </c>
-      <c r="U300" s="3">
-        <v>104</v>
-      </c>
-      <c r="V300" s="3">
-        <v>5525</v>
-      </c>
-      <c r="W300" s="3">
-        <v>145.5</v>
-      </c>
-      <c r="X300" s="3">
-        <v>4918</v>
-      </c>
-      <c r="Z300" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="301" spans="2:30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C301" s="4">
-        <v>4</v>
-      </c>
-      <c r="D301" t="s">
-        <v>52</v>
-      </c>
-      <c r="E301" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J301" s="3">
-        <v>5</v>
-      </c>
-      <c r="L301" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q301" s="3">
-        <v>121.1</v>
-      </c>
-      <c r="R301" s="3">
-        <v>5671</v>
-      </c>
-      <c r="S301" s="3">
-        <v>173</v>
-      </c>
-      <c r="T301" s="3">
-        <v>3790</v>
-      </c>
-      <c r="U301" s="3">
-        <v>117</v>
-      </c>
-      <c r="V301" s="3">
-        <v>5683</v>
-      </c>
-      <c r="W301" s="3">
-        <v>163.80000000000001</v>
-      </c>
-      <c r="X301" s="3">
-        <v>2849</v>
-      </c>
-      <c r="Z301" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="302" spans="2:30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C302" s="4">
-        <v>5</v>
-      </c>
-      <c r="D302" t="s">
-        <v>139</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G302" t="s">
-        <v>840</v>
-      </c>
-      <c r="L302" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q302" s="3">
-        <v>88.7</v>
-      </c>
-      <c r="R302" s="3">
-        <v>6115</v>
-      </c>
-      <c r="S302" s="3">
-        <v>111.9</v>
-      </c>
-      <c r="T302" s="3">
-        <v>5265</v>
-      </c>
-      <c r="U302" s="3">
-        <v>94.2</v>
-      </c>
-      <c r="V302" s="3">
-        <v>6580</v>
-      </c>
-      <c r="W302" s="3">
-        <v>115.5</v>
-      </c>
-      <c r="X302" s="3">
-        <v>5273</v>
-      </c>
-    </row>
-    <row r="303" spans="2:30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C303" s="4">
-        <v>6</v>
-      </c>
-      <c r="D303" t="s">
-        <v>52</v>
-      </c>
-      <c r="E303" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L303" s="3">
-        <v>90</v>
-      </c>
-      <c r="U303" s="3">
-        <v>83.3</v>
-      </c>
-      <c r="V303" s="3">
-        <v>5407</v>
-      </c>
-      <c r="W303" s="3">
-        <v>137.4</v>
-      </c>
-      <c r="X303" s="3">
-        <v>3112</v>
-      </c>
-      <c r="Z303" t="s">
-        <v>831</v>
-      </c>
-      <c r="AA303" t="s">
-        <v>832</v>
-      </c>
-      <c r="AB303" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD303" s="4">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="304" spans="2:30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C304" s="4">
-        <v>7</v>
-      </c>
-      <c r="D304" t="s">
-        <v>52</v>
-      </c>
-      <c r="E304" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L304" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q304" s="3">
-        <v>201.1</v>
-      </c>
-      <c r="R304" s="3">
-        <v>5268</v>
-      </c>
-      <c r="S304" s="3">
-        <v>285.60000000000002</v>
-      </c>
-      <c r="T304" s="3">
-        <v>4682</v>
-      </c>
-      <c r="U304" s="3">
-        <v>207.8</v>
-      </c>
-      <c r="V304" s="3">
-        <v>5347</v>
-      </c>
-      <c r="W304" s="3">
-        <v>296</v>
-      </c>
-      <c r="X304" s="3">
-        <v>4717</v>
-      </c>
-      <c r="Z304" t="s">
-        <v>834</v>
-      </c>
-      <c r="AA304" t="s">
-        <v>835</v>
-      </c>
-      <c r="AB304" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD304" s="4">
-        <v>280</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C305" s="4">
-        <v>8</v>
-      </c>
-      <c r="D305" t="s">
-        <v>197</v>
-      </c>
-      <c r="E305" s="4">
-        <v>996</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="L305" s="3">
-        <v>300</v>
-      </c>
-      <c r="U305" s="3">
-        <v>284.60000000000002</v>
-      </c>
-      <c r="V305" s="3">
-        <v>7078</v>
-      </c>
-      <c r="W305" s="3">
-        <v>320.89999999999998</v>
-      </c>
-      <c r="X305" s="3">
-        <v>4904</v>
-      </c>
-      <c r="Z305" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="306" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C306" s="4">
-        <v>9</v>
-      </c>
-      <c r="D306" t="s">
-        <v>44</v>
-      </c>
-      <c r="E306" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G306" t="s">
-        <v>576</v>
-      </c>
-      <c r="L306" s="3">
-        <v>131</v>
-      </c>
-      <c r="U306" s="3">
-        <v>174.4</v>
-      </c>
-      <c r="V306" s="3">
-        <v>3189</v>
-      </c>
-      <c r="W306" s="3">
-        <v>433</v>
-      </c>
-      <c r="X306" s="3">
-        <v>136.19999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C307" s="4">
+      <c r="B307">
         <v>10</v>
-      </c>
-      <c r="D307" t="s">
-        <v>175</v>
-      </c>
-      <c r="E307" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="L307" s="3">
-        <v>150</v>
-      </c>
-      <c r="U307" s="3">
-        <v>175.2</v>
-      </c>
-      <c r="V307" s="3">
-        <v>6390</v>
-      </c>
-      <c r="W307" s="3">
-        <v>260</v>
-      </c>
-      <c r="X307" s="3">
-        <v>3481</v>
       </c>
     </row>
     <row r="308" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C308" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D308" t="s">
+        <v>36</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G308" t="s">
+        <v>827</v>
+      </c>
+      <c r="L308" s="3">
+        <v>150</v>
+      </c>
+      <c r="U308" s="3">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="V308" s="3">
+        <v>6462</v>
+      </c>
+      <c r="W308" s="3">
+        <v>193.5</v>
+      </c>
+      <c r="X308" s="3">
+        <v>4946</v>
+      </c>
+      <c r="Z308" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="309" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C309" s="4">
+        <v>2</v>
+      </c>
+      <c r="D309" t="s">
         <v>44</v>
       </c>
-      <c r="Z308" t="s">
-        <v>620</v>
+      <c r="E309" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L309" s="3">
+        <v>150</v>
+      </c>
+      <c r="U309" s="3">
+        <v>223.9</v>
+      </c>
+      <c r="V309" s="3">
+        <v>5101</v>
+      </c>
+      <c r="W309" s="3">
+        <v>330</v>
+      </c>
+      <c r="X309" s="3">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="310" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C310" s="4">
+        <v>3</v>
+      </c>
+      <c r="D310" t="s">
+        <v>44</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G310" t="s">
+        <v>320</v>
+      </c>
+      <c r="L310" s="3">
+        <v>98</v>
+      </c>
+      <c r="U310" s="3">
+        <v>104</v>
+      </c>
+      <c r="V310" s="3">
+        <v>5525</v>
+      </c>
+      <c r="W310" s="3">
+        <v>145.5</v>
+      </c>
+      <c r="X310" s="3">
+        <v>4918</v>
+      </c>
+      <c r="Z310" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B311">
-        <v>9</v>
+      <c r="C311" s="4">
+        <v>4</v>
+      </c>
+      <c r="D311" t="s">
+        <v>52</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J311" s="3">
+        <v>5</v>
+      </c>
+      <c r="L311" s="3">
+        <v>133</v>
+      </c>
+      <c r="Q311" s="3">
+        <v>121.1</v>
+      </c>
+      <c r="R311" s="3">
+        <v>5671</v>
+      </c>
+      <c r="S311" s="3">
+        <v>173</v>
+      </c>
+      <c r="T311" s="3">
+        <v>3790</v>
+      </c>
+      <c r="U311" s="3">
+        <v>117</v>
+      </c>
+      <c r="V311" s="3">
+        <v>5683</v>
+      </c>
+      <c r="W311" s="3">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="X311" s="3">
+        <v>2849</v>
+      </c>
+      <c r="Z311" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C312" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D312" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>349</v>
+        <v>830</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>147</v>
+        <v>298</v>
       </c>
       <c r="G312" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="L312" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="Q312" s="3">
-        <v>139.6</v>
+        <v>88.7</v>
       </c>
       <c r="R312" s="3">
-        <v>5505</v>
+        <v>6115</v>
       </c>
       <c r="S312" s="3">
-        <v>183.1</v>
+        <v>111.9</v>
       </c>
       <c r="T312" s="3">
-        <v>5132</v>
+        <v>5265</v>
       </c>
       <c r="U312" s="3">
-        <v>141.30000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="V312" s="3">
-        <v>5883</v>
+        <v>6580</v>
       </c>
       <c r="W312" s="3">
-        <v>182.6</v>
+        <v>115.5</v>
       </c>
       <c r="X312" s="3">
-        <v>4890</v>
-      </c>
-      <c r="Z312" t="s">
-        <v>104</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="313" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C313" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D313" t="s">
         <v>52</v>
       </c>
-      <c r="E313" s="4">
+      <c r="E313" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L313" s="3">
         <v>90</v>
       </c>
-      <c r="F313" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J313" s="3">
-        <v>5</v>
-      </c>
-      <c r="L313" s="3">
-        <v>136</v>
-      </c>
-      <c r="M313" s="1">
-        <v>67120</v>
-      </c>
       <c r="U313" s="3">
-        <v>124.7</v>
+        <v>83.3</v>
       </c>
       <c r="V313" s="3">
-        <v>5532</v>
+        <v>5407</v>
       </c>
       <c r="W313" s="3">
-        <v>178.1</v>
+        <v>137.4</v>
       </c>
       <c r="X313" s="3">
-        <v>4061</v>
+        <v>3112</v>
       </c>
       <c r="Z313" t="s">
-        <v>796</v>
+        <v>831</v>
       </c>
       <c r="AA313" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="AB313" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AD313" s="4">
-        <v>130</v>
+        <v>490</v>
       </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C314" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D314" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>349</v>
+        <v>836</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>147</v>
       </c>
       <c r="L314" s="3">
-        <v>90</v>
-      </c>
-      <c r="N314" s="3">
-        <v>1978</v>
+        <v>200</v>
+      </c>
+      <c r="Q314" s="3">
+        <v>201.1</v>
+      </c>
+      <c r="R314" s="3">
+        <v>5268</v>
+      </c>
+      <c r="S314" s="3">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="T314" s="3">
+        <v>4682</v>
       </c>
       <c r="U314" s="3">
-        <v>97.6</v>
+        <v>207.8</v>
       </c>
       <c r="V314" s="3">
-        <v>4817</v>
+        <v>5347</v>
       </c>
       <c r="W314" s="3">
-        <v>150.9</v>
+        <v>296</v>
       </c>
       <c r="X314" s="3">
-        <v>4323</v>
+        <v>4717</v>
       </c>
       <c r="Z314" t="s">
-        <v>799</v>
+        <v>834</v>
       </c>
       <c r="AA314" t="s">
-        <v>800</v>
+        <v>835</v>
       </c>
       <c r="AB314" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AD314" s="4">
-        <v>130</v>
+        <v>280</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C315" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D315" t="s">
-        <v>28</v>
-      </c>
-      <c r="E315" s="4" t="s">
-        <v>801</v>
+        <v>197</v>
+      </c>
+      <c r="E315" s="4">
+        <v>996</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>463</v>
+        <v>837</v>
       </c>
       <c r="L315" s="3">
-        <v>231</v>
-      </c>
-      <c r="Q315" s="3">
-        <v>213.7</v>
-      </c>
-      <c r="R315" s="3">
-        <v>6315</v>
-      </c>
-      <c r="S315" s="3">
-        <v>273.3</v>
-      </c>
-      <c r="T315" s="3">
-        <v>3658</v>
+        <v>300</v>
       </c>
       <c r="U315" s="3">
-        <v>217.7</v>
+        <v>284.60000000000002</v>
       </c>
       <c r="V315" s="3">
-        <v>6263</v>
+        <v>7078</v>
       </c>
       <c r="W315" s="3">
-        <v>277.3</v>
+        <v>320.89999999999998</v>
       </c>
       <c r="X315" s="3">
-        <v>3782</v>
+        <v>4904</v>
       </c>
       <c r="Z315" t="s">
-        <v>796</v>
+        <v>370</v>
       </c>
     </row>
     <row r="316" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C316" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D316" t="s">
-        <v>528</v>
+        <v>44</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>598</v>
+        <v>838</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G316" t="s">
-        <v>802</v>
+        <v>576</v>
       </c>
       <c r="L316" s="3">
-        <v>169</v>
-      </c>
-      <c r="Q316" s="3">
-        <v>193.6</v>
-      </c>
-      <c r="R316" s="3">
-        <v>6975</v>
-      </c>
-      <c r="S316" s="3">
-        <v>198</v>
-      </c>
-      <c r="T316" s="3">
-        <v>6812</v>
+        <v>131</v>
       </c>
       <c r="U316" s="3">
-        <v>260.10000000000002</v>
+        <v>174.4</v>
       </c>
       <c r="V316" s="3">
-        <v>7050</v>
+        <v>3189</v>
       </c>
       <c r="W316" s="3">
-        <v>270</v>
+        <v>433</v>
       </c>
       <c r="X316" s="3">
-        <v>6307</v>
+        <v>136.19999999999999</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C317" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D317" t="s">
-        <v>52</v>
-      </c>
-      <c r="E317" s="4">
-        <v>90</v>
+        <v>175</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G317" t="s">
-        <v>803</v>
-      </c>
-      <c r="J317" s="3">
-        <v>5</v>
+        <v>733</v>
       </c>
       <c r="L317" s="3">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="U317" s="3">
-        <v>133.9</v>
+        <v>175.2</v>
       </c>
       <c r="V317" s="3">
-        <v>5159</v>
+        <v>6390</v>
       </c>
       <c r="W317" s="3">
-        <v>196.7</v>
+        <v>260</v>
       </c>
       <c r="X317" s="3">
-        <v>4218</v>
-      </c>
-      <c r="Z317" t="s">
-        <v>804</v>
-      </c>
-      <c r="AA317" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB317" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD317" s="4">
-        <v>180</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C318" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D318" t="s">
         <v>44</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="G318" t="s">
+        <v>842</v>
       </c>
       <c r="L318" s="3">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="U318" s="3">
-        <v>232.8</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="V318" s="3">
-        <v>5634</v>
+        <v>4722</v>
       </c>
       <c r="W318" s="3">
-        <v>339.4</v>
+        <v>142.5</v>
       </c>
       <c r="X318" s="3">
-        <v>3984</v>
+        <v>2987</v>
       </c>
       <c r="Z318" t="s">
-        <v>796</v>
+        <v>620</v>
       </c>
     </row>
     <row r="319" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C319" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D319" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="L319" s="3">
-        <v>110</v>
-      </c>
-      <c r="Q319" s="3">
-        <v>105.8</v>
-      </c>
-      <c r="R319" s="3">
-        <v>6004</v>
-      </c>
-      <c r="S319" s="3">
-        <v>128</v>
-      </c>
-      <c r="T319" s="3">
-        <v>5335</v>
+        <v>98</v>
       </c>
       <c r="U319" s="3">
-        <v>110.9</v>
+        <v>96.9</v>
       </c>
       <c r="V319" s="3">
-        <v>6327</v>
+        <v>5839</v>
       </c>
       <c r="W319" s="3">
-        <v>128.30000000000001</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="X319" s="3">
-        <v>5208</v>
+        <v>3122</v>
       </c>
       <c r="Z319" t="s">
-        <v>806</v>
+        <v>843</v>
       </c>
       <c r="AA319" t="s">
-        <v>807</v>
+        <v>844</v>
       </c>
       <c r="AB319" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="AD319" s="4">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="320" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C320" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D320" t="s">
         <v>44</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>811</v>
+        <v>845</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="L320" s="3">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="N320" s="3">
+        <v>1983</v>
+      </c>
+      <c r="Q320" s="3">
+        <v>95.5</v>
+      </c>
+      <c r="R320" s="3">
+        <v>5410</v>
+      </c>
+      <c r="S320" s="3">
+        <v>148.4</v>
+      </c>
+      <c r="T320" s="3">
+        <v>3809</v>
       </c>
       <c r="U320" s="3">
-        <v>133.6</v>
+        <v>96.1</v>
       </c>
       <c r="V320" s="3">
-        <v>6033</v>
+        <v>5667</v>
       </c>
       <c r="W320" s="3">
-        <v>186.4</v>
+        <v>148.6</v>
       </c>
       <c r="X320" s="3">
-        <v>3938</v>
+        <v>3841</v>
       </c>
       <c r="Z320" t="s">
-        <v>809</v>
-      </c>
-      <c r="AA320" t="s">
-        <v>810</v>
-      </c>
-      <c r="AB320" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD320" s="4">
-        <v>150</v>
+        <v>784</v>
       </c>
     </row>
     <row r="321" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C321" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D321" t="s">
-        <v>44</v>
-      </c>
-      <c r="E321" s="4" t="s">
-        <v>812</v>
+        <v>52</v>
+      </c>
+      <c r="E321" s="4">
+        <v>90</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>208</v>
+        <v>373</v>
       </c>
       <c r="L321" s="3">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="M321" s="1">
-        <v>150000</v>
+        <v>303000</v>
       </c>
       <c r="U321" s="3">
-        <v>89.6</v>
+        <v>117.8</v>
       </c>
       <c r="V321" s="3">
-        <v>5695</v>
+        <v>5548</v>
       </c>
       <c r="W321" s="3">
-        <v>138.4</v>
+        <v>174.7</v>
       </c>
       <c r="X321" s="3">
-        <v>3460</v>
+        <v>3887</v>
       </c>
       <c r="Z321" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="322" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C322" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D322" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>813</v>
+        <v>846</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K322" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="L322" s="3">
-        <v>75</v>
-      </c>
-      <c r="M322" s="1">
-        <v>46000</v>
-      </c>
-      <c r="Q322" s="3">
-        <v>69.2</v>
-      </c>
-      <c r="R322" s="3">
-        <v>5864</v>
-      </c>
-      <c r="S322" s="3">
-        <v>104.4</v>
-      </c>
-      <c r="T322" s="3">
-        <v>3564</v>
+        <v>211</v>
+      </c>
+      <c r="M322" s="1"/>
+      <c r="U322" s="3">
+        <v>242.3</v>
+      </c>
+      <c r="V322" s="3">
+        <v>6188</v>
+      </c>
+      <c r="W322" s="3">
+        <v>340.7</v>
+      </c>
+      <c r="X322" s="3">
+        <v>3863</v>
       </c>
       <c r="Z322" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
     </row>
     <row r="323" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C323" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D323" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>814</v>
+        <v>847</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G323" t="s">
-        <v>650</v>
+        <v>147</v>
       </c>
       <c r="L323" s="3">
-        <v>102</v>
-      </c>
-      <c r="N323" s="3">
-        <v>2002</v>
-      </c>
-      <c r="Q323" s="3">
-        <v>99.4</v>
-      </c>
-      <c r="R323" s="3">
-        <v>3087</v>
-      </c>
-      <c r="S323" s="3">
-        <v>261.8</v>
-      </c>
-      <c r="T323" s="3">
-        <v>2356</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M323" s="1"/>
       <c r="U323" s="3">
-        <v>98</v>
+        <v>117.5</v>
       </c>
       <c r="V323" s="3">
-        <v>3080</v>
+        <v>3625</v>
       </c>
       <c r="W323" s="3">
-        <v>259.39999999999998</v>
+        <v>292.8</v>
       </c>
       <c r="X323" s="3">
-        <v>2341</v>
+        <v>2547</v>
       </c>
       <c r="Z323" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
     <row r="324" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C324" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D324" t="s">
-        <v>818</v>
+        <v>28</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>733</v>
+        <v>147</v>
       </c>
       <c r="L324" s="3">
-        <v>69</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M324" s="1"/>
       <c r="U324" s="3">
-        <v>70.3</v>
+        <v>163.6</v>
       </c>
       <c r="V324" s="3">
-        <v>5556</v>
+        <v>6475</v>
       </c>
       <c r="W324" s="3">
-        <v>111.7</v>
+        <v>190</v>
       </c>
       <c r="X324" s="3">
-        <v>2739</v>
+        <v>3884</v>
       </c>
       <c r="Z324" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA324" t="s">
-        <v>816</v>
-      </c>
-      <c r="AB324" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD324" s="4">
-        <v>170</v>
+        <v>253</v>
       </c>
     </row>
     <row r="325" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C325" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D325" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>819</v>
+        <v>850</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G325" t="s">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="L325" s="3">
-        <v>182</v>
-      </c>
-      <c r="M325" s="1">
-        <v>170000</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M325" s="1"/>
       <c r="U325" s="3">
-        <v>171.8</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="V325" s="3">
-        <v>6692</v>
+        <v>4704</v>
       </c>
       <c r="W325" s="3">
-        <v>194.2</v>
+        <v>540.5</v>
       </c>
       <c r="X325" s="3">
-        <v>5405</v>
+        <v>3510</v>
       </c>
       <c r="Z325" t="s">
-        <v>99</v>
+        <v>499</v>
       </c>
     </row>
     <row r="326" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C326" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D326" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G326" t="s">
-        <v>822</v>
+        <v>346</v>
       </c>
       <c r="L326" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q326" s="3">
-        <v>133.9</v>
-      </c>
-      <c r="R326" s="3">
-        <v>3748</v>
-      </c>
-      <c r="S326" s="3">
-        <v>305.39999999999998</v>
-      </c>
-      <c r="T326" s="3">
-        <v>2934</v>
+        <v>125</v>
+      </c>
+      <c r="M326" s="1">
+        <v>190000</v>
       </c>
       <c r="U326" s="3">
-        <v>117</v>
+        <v>120.3</v>
       </c>
       <c r="V326" s="3">
-        <v>3393</v>
+        <v>3436</v>
       </c>
       <c r="W326" s="3">
-        <v>274</v>
+        <v>147.4</v>
       </c>
       <c r="X326" s="3">
-        <v>2887</v>
+        <v>4970</v>
       </c>
       <c r="Z326" t="s">
-        <v>591</v>
+        <v>370</v>
       </c>
     </row>
     <row r="327" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C327" s="4">
-        <v>16</v>
-      </c>
-      <c r="D327" t="s">
-        <v>28</v>
-      </c>
-      <c r="E327" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="F327" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G327" t="s">
-        <v>824</v>
-      </c>
-      <c r="L327" s="3">
-        <v>192</v>
-      </c>
-      <c r="U327" s="3">
-        <v>171.1</v>
-      </c>
-      <c r="V327" s="3">
-        <v>7187</v>
-      </c>
-      <c r="W327" s="3">
-        <v>186.1</v>
-      </c>
-      <c r="X327" s="3">
-        <v>5015</v>
-      </c>
-      <c r="Z327" t="s">
-        <v>438</v>
+      <c r="B327">
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C328" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>825</v>
+        <v>349</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G328" t="s">
-        <v>826</v>
+        <v>798</v>
       </c>
       <c r="L328" s="3">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="Q328" s="3">
-        <v>225.1</v>
+        <v>139.6</v>
       </c>
       <c r="R328" s="3">
-        <v>7656</v>
+        <v>5505</v>
       </c>
       <c r="S328" s="3">
-        <v>225.3</v>
+        <v>183.1</v>
       </c>
       <c r="T328" s="3">
-        <v>6129</v>
+        <v>5132</v>
       </c>
       <c r="U328" s="3">
-        <v>211</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="V328" s="3">
-        <v>7226</v>
+        <v>5883</v>
       </c>
       <c r="W328" s="3">
-        <v>223.4</v>
+        <v>182.6</v>
       </c>
       <c r="X328" s="3">
-        <v>6264</v>
+        <v>4890</v>
+      </c>
+      <c r="Z328" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B329">
-        <v>8</v>
+      <c r="C329" s="4">
+        <v>2</v>
+      </c>
+      <c r="D329" t="s">
+        <v>52</v>
+      </c>
+      <c r="E329" s="4">
+        <v>90</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J329" s="3">
+        <v>5</v>
+      </c>
+      <c r="L329" s="3">
+        <v>136</v>
+      </c>
+      <c r="M329" s="1">
+        <v>67120</v>
+      </c>
+      <c r="U329" s="3">
+        <v>124.7</v>
+      </c>
+      <c r="V329" s="3">
+        <v>5532</v>
+      </c>
+      <c r="W329" s="3">
+        <v>178.1</v>
+      </c>
+      <c r="X329" s="3">
+        <v>4061</v>
+      </c>
+      <c r="Z329" t="s">
+        <v>796</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB329" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD329" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="330" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C330" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D330" t="s">
-        <v>755</v>
-      </c>
-      <c r="E330" s="5" t="s">
-        <v>756</v>
+        <v>36</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="L330" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q330" s="3">
-        <v>198.5</v>
-      </c>
-      <c r="R330" s="3">
-        <v>5691</v>
-      </c>
-      <c r="S330" s="3">
-        <v>309.7</v>
-      </c>
-      <c r="T330" s="3">
-        <v>3550</v>
+        <v>90</v>
+      </c>
+      <c r="N330" s="3">
+        <v>1978</v>
       </c>
       <c r="U330" s="3">
-        <v>198.5</v>
+        <v>97.6</v>
       </c>
       <c r="V330" s="3">
-        <v>5691</v>
+        <v>4817</v>
       </c>
       <c r="W330" s="3">
-        <v>310</v>
+        <v>150.9</v>
       </c>
       <c r="X330" s="3">
-        <v>3550</v>
+        <v>4323</v>
       </c>
       <c r="Z330" t="s">
-        <v>757</v>
+        <v>799</v>
       </c>
       <c r="AA330" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="AB330" t="s">
         <v>42</v>
       </c>
       <c r="AD330" s="4">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="331" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C331" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D331" t="s">
-        <v>755</v>
+        <v>28</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>762</v>
+        <v>801</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>761</v>
+        <v>463</v>
       </c>
       <c r="L331" s="3">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="Q331" s="3">
+        <v>213.7</v>
+      </c>
+      <c r="R331" s="3">
+        <v>6315</v>
+      </c>
+      <c r="S331" s="3">
+        <v>273.3</v>
+      </c>
+      <c r="T331" s="3">
+        <v>3658</v>
       </c>
       <c r="U331" s="3">
-        <v>202.2</v>
+        <v>217.7</v>
       </c>
       <c r="V331" s="3">
-        <v>6248</v>
+        <v>6263</v>
       </c>
       <c r="W331" s="3">
-        <v>285.5</v>
+        <v>277.3</v>
       </c>
       <c r="X331" s="3">
-        <v>2321</v>
+        <v>3782</v>
       </c>
       <c r="Z331" t="s">
-        <v>759</v>
-      </c>
-      <c r="AA331" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB331" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD331" s="4">
-        <v>440</v>
+        <v>796</v>
       </c>
     </row>
     <row r="332" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C332" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D332" t="s">
-        <v>44</v>
+        <v>528</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>95</v>
+        <v>598</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>208</v>
       </c>
       <c r="G332" t="s">
-        <v>495</v>
+        <v>802</v>
       </c>
       <c r="L332" s="3">
-        <v>98</v>
+        <v>169</v>
+      </c>
+      <c r="Q332" s="3">
+        <v>193.6</v>
+      </c>
+      <c r="R332" s="3">
+        <v>6975</v>
+      </c>
+      <c r="S332" s="3">
+        <v>198</v>
+      </c>
+      <c r="T332" s="3">
+        <v>6812</v>
       </c>
       <c r="U332" s="3">
-        <v>110.8</v>
+        <v>260.10000000000002</v>
       </c>
       <c r="V332" s="3">
-        <v>5532</v>
+        <v>7050</v>
       </c>
       <c r="W332" s="3">
-        <v>157.5</v>
+        <v>270</v>
       </c>
       <c r="X332" s="3">
-        <v>4544</v>
-      </c>
-      <c r="Z332" t="s">
-        <v>728</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="333" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C333" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
-      </c>
-      <c r="E333" s="4" t="s">
-        <v>763</v>
+        <v>52</v>
+      </c>
+      <c r="E333" s="4">
+        <v>90</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>463</v>
+        <v>373</v>
+      </c>
+      <c r="G333" t="s">
+        <v>803</v>
+      </c>
+      <c r="J333" s="3">
+        <v>5</v>
       </c>
       <c r="L333" s="3">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="U333" s="3">
-        <v>220.2</v>
+        <v>133.9</v>
       </c>
       <c r="V333" s="3">
-        <v>6391</v>
+        <v>5159</v>
       </c>
       <c r="W333" s="3">
-        <v>277.10000000000002</v>
+        <v>196.7</v>
       </c>
       <c r="X333" s="3">
-        <v>4838</v>
+        <v>4218</v>
       </c>
       <c r="Z333" t="s">
-        <v>750</v>
+        <v>804</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB333" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD333" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="334" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C334" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D334" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>413</v>
+        <v>805</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G334" t="s">
-        <v>764</v>
+        <v>208</v>
       </c>
       <c r="L334" s="3">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="U334" s="3">
-        <v>99.3</v>
+        <v>232.8</v>
       </c>
       <c r="V334" s="3">
-        <v>6677</v>
+        <v>5634</v>
       </c>
       <c r="W334" s="3">
-        <v>118.9</v>
+        <v>339.4</v>
       </c>
       <c r="X334" s="3">
-        <v>5117</v>
+        <v>3984</v>
       </c>
       <c r="Z334" t="s">
-        <v>330</v>
+        <v>796</v>
       </c>
     </row>
     <row r="335" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C335" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D335" t="s">
-        <v>755</v>
+        <v>36</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J335" s="3">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="L335" s="3">
-        <v>133</v>
-      </c>
-      <c r="M335" s="1">
-        <v>408000</v>
+        <v>110</v>
+      </c>
+      <c r="Q335" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="R335" s="3">
+        <v>6004</v>
+      </c>
+      <c r="S335" s="3">
+        <v>128</v>
+      </c>
+      <c r="T335" s="3">
+        <v>5335</v>
       </c>
       <c r="U335" s="3">
-        <v>113.3</v>
+        <v>110.9</v>
       </c>
       <c r="V335" s="3">
-        <v>5488</v>
+        <v>6327</v>
       </c>
       <c r="W335" s="3">
-        <v>159.9</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="X335" s="3">
-        <v>4086</v>
+        <v>5208</v>
       </c>
       <c r="Z335" t="s">
-        <v>765</v>
+        <v>806</v>
       </c>
       <c r="AA335" t="s">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="AB335" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="AD335" s="4">
-        <v>500</v>
+        <v>220</v>
       </c>
     </row>
     <row r="336" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C336" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D336" t="s">
         <v>44</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="G336" t="s">
-        <v>320</v>
+        <v>811</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L336" s="3">
+        <v>113</v>
       </c>
       <c r="U336" s="3">
-        <v>167.7</v>
+        <v>133.6</v>
       </c>
       <c r="V336" s="3">
-        <v>6970</v>
+        <v>6033</v>
       </c>
       <c r="W336" s="3">
-        <v>193.3</v>
+        <v>186.4</v>
       </c>
       <c r="X336" s="3">
-        <v>5425</v>
+        <v>3938</v>
       </c>
       <c r="Z336" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="AA336" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
       <c r="AB336" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AD336" s="4">
-        <v>280</v>
+        <v>150</v>
       </c>
     </row>
     <row r="337" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C337" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="L337" s="3">
-        <v>143</v>
+        <v>90</v>
+      </c>
+      <c r="M337" s="1">
+        <v>150000</v>
       </c>
       <c r="U337" s="3">
-        <v>143.9</v>
+        <v>89.6</v>
       </c>
       <c r="V337" s="3">
-        <v>6452</v>
+        <v>5695</v>
       </c>
       <c r="W337" s="3">
-        <v>185</v>
+        <v>138.4</v>
       </c>
       <c r="X337" s="3">
-        <v>4607</v>
+        <v>3460</v>
       </c>
       <c r="Z337" t="s">
-        <v>392</v>
+        <v>229</v>
       </c>
     </row>
     <row r="338" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C338" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D338" t="s">
         <v>36</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="G338" t="s">
-        <v>772</v>
+        <v>207</v>
       </c>
       <c r="K338" t="s">
         <v>76</v>
       </c>
       <c r="L338" s="3">
-        <v>150</v>
+        <v>75</v>
+      </c>
+      <c r="M338" s="1">
+        <v>46000</v>
       </c>
       <c r="Q338" s="3">
-        <v>120.4</v>
+        <v>69.2</v>
       </c>
       <c r="R338" s="3">
-        <v>5218</v>
+        <v>5864</v>
       </c>
       <c r="S338" s="3">
-        <v>179.6</v>
+        <v>104.4</v>
       </c>
       <c r="T338" s="3">
-        <v>4313</v>
-      </c>
-      <c r="U338" s="3">
-        <v>120.5</v>
-      </c>
-      <c r="V338" s="3">
-        <v>5218</v>
-      </c>
-      <c r="W338" s="3">
-        <v>176.7</v>
-      </c>
-      <c r="X338" s="3">
-        <v>4385</v>
+        <v>3564</v>
       </c>
       <c r="Z338" t="s">
-        <v>324</v>
+        <v>242</v>
       </c>
     </row>
     <row r="339" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C339" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D339" t="s">
-        <v>114</v>
-      </c>
-      <c r="E339" s="4">
-        <v>155</v>
+        <v>178</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="G339" t="s">
-        <v>320</v>
+        <v>650</v>
       </c>
       <c r="L339" s="3">
-        <v>150</v>
+        <v>102</v>
+      </c>
+      <c r="N339" s="3">
+        <v>2002</v>
+      </c>
+      <c r="Q339" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="R339" s="3">
+        <v>3087</v>
+      </c>
+      <c r="S339" s="3">
+        <v>261.8</v>
+      </c>
+      <c r="T339" s="3">
+        <v>2356</v>
       </c>
       <c r="U339" s="3">
-        <v>150.5</v>
+        <v>98</v>
       </c>
       <c r="V339" s="3">
-        <v>6299</v>
+        <v>3080</v>
       </c>
       <c r="W339" s="3">
-        <v>176.1</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="X339" s="3">
-        <v>3586</v>
+        <v>2341</v>
       </c>
       <c r="Z339" t="s">
-        <v>195</v>
+        <v>430</v>
       </c>
     </row>
     <row r="340" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C340" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D340" t="s">
-        <v>28</v>
+        <v>818</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>775</v>
+        <v>817</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="J340" s="3">
-        <v>6</v>
+        <v>733</v>
       </c>
       <c r="L340" s="3">
-        <v>272</v>
-      </c>
-      <c r="Q340" s="3">
-        <v>246.6</v>
-      </c>
-      <c r="R340" s="3">
-        <v>6838</v>
-      </c>
-      <c r="S340" s="3">
-        <v>289.8</v>
-      </c>
-      <c r="T340" s="3">
-        <v>3138</v>
+        <v>69</v>
       </c>
       <c r="U340" s="3">
-        <v>238.8</v>
+        <v>70.3</v>
       </c>
       <c r="V340" s="3">
-        <v>6693</v>
+        <v>5556</v>
       </c>
       <c r="W340" s="3">
-        <v>279.89999999999998</v>
+        <v>111.7</v>
       </c>
       <c r="X340" s="3">
-        <v>3111</v>
+        <v>2739</v>
       </c>
       <c r="Z340" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="AA340" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="AB340" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="AD340" s="4">
-        <v>445</v>
+        <v>170</v>
       </c>
     </row>
     <row r="341" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C341" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D341" t="s">
-        <v>778</v>
+        <v>44</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>779</v>
+        <v>819</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>733</v>
+        <v>147</v>
+      </c>
+      <c r="G341" t="s">
+        <v>820</v>
       </c>
       <c r="L341" s="3">
-        <v>109</v>
+        <v>182</v>
+      </c>
+      <c r="M341" s="1">
+        <v>170000</v>
       </c>
       <c r="U341" s="3">
-        <v>117.5</v>
+        <v>171.8</v>
       </c>
       <c r="V341" s="3">
-        <v>6165</v>
+        <v>6692</v>
       </c>
       <c r="W341" s="3">
-        <v>154</v>
+        <v>194.2</v>
       </c>
       <c r="X341" s="3">
-        <v>4153</v>
+        <v>5405</v>
       </c>
       <c r="Z341" t="s">
-        <v>776</v>
-      </c>
-      <c r="AA341" t="s">
-        <v>777</v>
-      </c>
-      <c r="AB341" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD341" s="4">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="342" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C342" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D342" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>780</v>
+        <v>821</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>147</v>
+        <v>342</v>
+      </c>
+      <c r="G342" t="s">
+        <v>822</v>
       </c>
       <c r="L342" s="3">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="Q342" s="3">
+        <v>133.9</v>
+      </c>
+      <c r="R342" s="3">
+        <v>3748</v>
+      </c>
+      <c r="S342" s="3">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="T342" s="3">
+        <v>2934</v>
       </c>
       <c r="U342" s="3">
-        <v>108.5</v>
+        <v>117</v>
       </c>
       <c r="V342" s="3">
-        <v>6081</v>
+        <v>3393</v>
       </c>
       <c r="W342" s="3">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="X342" s="3">
-        <v>3991</v>
+        <v>2887</v>
+      </c>
+      <c r="Z342" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="343" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C343" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D343" t="s">
         <v>28</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>783</v>
+        <v>823</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>373</v>
+        <v>147</v>
+      </c>
+      <c r="G343" t="s">
+        <v>824</v>
       </c>
       <c r="L343" s="3">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="U343" s="3">
-        <v>168.9</v>
+        <v>171.1</v>
       </c>
       <c r="V343" s="3">
-        <v>5778</v>
+        <v>7187</v>
       </c>
       <c r="W343" s="3">
-        <v>223.1</v>
+        <v>186.1</v>
       </c>
       <c r="X343" s="3">
-        <v>4721</v>
+        <v>5015</v>
       </c>
       <c r="Z343" t="s">
-        <v>781</v>
-      </c>
-      <c r="AA343" t="s">
-        <v>782</v>
-      </c>
-      <c r="AB343" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD343" s="4">
-        <v>30</v>
+        <v>438</v>
       </c>
     </row>
     <row r="344" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C344" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D344" t="s">
         <v>28</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>786</v>
+        <v>825</v>
       </c>
       <c r="F344" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G344" t="s">
+        <v>826</v>
+      </c>
+      <c r="L344" s="3">
+        <v>192</v>
+      </c>
+      <c r="Q344" s="3">
+        <v>225.1</v>
+      </c>
+      <c r="R344" s="3">
+        <v>7656</v>
+      </c>
+      <c r="S344" s="3">
+        <v>225.3</v>
+      </c>
+      <c r="T344" s="3">
+        <v>6129</v>
+      </c>
+      <c r="U344" s="3">
         <v>211</v>
       </c>
-      <c r="L344" s="3">
-        <v>170</v>
-      </c>
-      <c r="U344" s="3">
-        <v>171</v>
-      </c>
       <c r="V344" s="3">
-        <v>6157</v>
+        <v>7226</v>
       </c>
       <c r="W344" s="3">
-        <v>213.7</v>
+        <v>223.4</v>
       </c>
       <c r="X344" s="3">
-        <v>5203</v>
-      </c>
-      <c r="Z344" t="s">
-        <v>784</v>
-      </c>
-      <c r="AA344" t="s">
-        <v>785</v>
-      </c>
-      <c r="AB344" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD344" s="4">
-        <v>250</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="345" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B345">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="2:30" x14ac:dyDescent="0.25">
@@ -14464,46 +14253,52 @@
         <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>52</v>
-      </c>
-      <c r="E346" s="4" t="s">
-        <v>718</v>
+        <v>755</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>756</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J346" s="3">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="L346" s="3">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="Q346" s="3">
-        <v>123</v>
+        <v>198.5</v>
       </c>
       <c r="R346" s="3">
-        <v>5022</v>
+        <v>5691</v>
       </c>
       <c r="S346" s="3">
-        <v>201.8</v>
+        <v>309.7</v>
       </c>
       <c r="T346" s="3">
-        <v>3539</v>
+        <v>3550</v>
       </c>
       <c r="U346" s="3">
-        <v>121.3</v>
+        <v>198.5</v>
       </c>
       <c r="V346" s="3">
-        <v>4886</v>
+        <v>5691</v>
       </c>
       <c r="W346" s="3">
-        <v>198.9</v>
+        <v>310</v>
       </c>
       <c r="X346" s="3">
-        <v>3255</v>
+        <v>3550</v>
       </c>
       <c r="Z346" t="s">
-        <v>523</v>
+        <v>757</v>
+      </c>
+      <c r="AA346" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB346" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD346" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="2:30" x14ac:dyDescent="0.25">
@@ -14511,46 +14306,40 @@
         <v>2</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>755</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>719</v>
+        <v>762</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G347" t="s">
-        <v>720</v>
+        <v>761</v>
       </c>
       <c r="L347" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q347" s="3">
-        <v>139.30000000000001</v>
-      </c>
-      <c r="R347" s="3">
-        <v>5962</v>
-      </c>
-      <c r="S347" s="3">
-        <v>187.8</v>
-      </c>
-      <c r="T347" s="3">
-        <v>4474</v>
+        <v>230</v>
       </c>
       <c r="U347" s="3">
-        <v>140.80000000000001</v>
+        <v>202.2</v>
       </c>
       <c r="V347" s="3">
-        <v>5991</v>
+        <v>6248</v>
       </c>
       <c r="W347" s="3">
-        <v>190.9</v>
+        <v>285.5</v>
       </c>
       <c r="X347" s="3">
-        <v>4443</v>
+        <v>2321</v>
       </c>
       <c r="Z347" t="s">
-        <v>195</v>
+        <v>759</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD347" s="4">
+        <v>440</v>
       </c>
     </row>
     <row r="348" spans="2:30" x14ac:dyDescent="0.25">
@@ -14561,28 +14350,31 @@
         <v>44</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>531</v>
+        <v>95</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>346</v>
+        <v>208</v>
+      </c>
+      <c r="G348" t="s">
+        <v>495</v>
       </c>
       <c r="L348" s="3">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="U348" s="3">
-        <v>64.3</v>
+        <v>110.8</v>
       </c>
       <c r="V348" s="3">
-        <v>4313</v>
+        <v>5532</v>
       </c>
       <c r="W348" s="3">
-        <v>123.7</v>
+        <v>157.5</v>
       </c>
       <c r="X348" s="3">
-        <v>2182</v>
+        <v>4544</v>
       </c>
       <c r="Z348" t="s">
-        <v>568</v>
+        <v>728</v>
       </c>
     </row>
     <row r="349" spans="2:30" x14ac:dyDescent="0.25">
@@ -14590,43 +14382,31 @@
         <v>4</v>
       </c>
       <c r="D349" t="s">
-        <v>723</v>
+        <v>28</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>418</v>
+        <v>763</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J349" s="3">
-        <v>6</v>
+        <v>463</v>
       </c>
       <c r="L349" s="3">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="U349" s="3">
-        <v>193.1</v>
+        <v>220.2</v>
       </c>
       <c r="V349" s="3">
-        <v>6068</v>
+        <v>6391</v>
       </c>
       <c r="W349" s="3">
-        <v>237.4</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="X349" s="3">
-        <v>4703</v>
+        <v>4838</v>
       </c>
       <c r="Z349" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA349" t="s">
-        <v>722</v>
-      </c>
-      <c r="AB349" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD349" s="4">
-        <v>630</v>
+        <v>750</v>
       </c>
     </row>
     <row r="350" spans="2:30" x14ac:dyDescent="0.25">
@@ -14637,43 +14417,31 @@
         <v>412</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G350" t="s">
-        <v>724</v>
+        <v>764</v>
       </c>
       <c r="L350" s="3">
-        <v>190</v>
-      </c>
-      <c r="Q350" s="3">
-        <v>185</v>
-      </c>
-      <c r="R350" s="3">
-        <v>6689</v>
-      </c>
-      <c r="S350" s="3">
-        <v>158.1</v>
-      </c>
-      <c r="T350" s="3">
-        <v>7544</v>
+        <v>75</v>
       </c>
       <c r="U350" s="3">
-        <v>184.2</v>
+        <v>99.3</v>
       </c>
       <c r="V350" s="3">
-        <v>8500</v>
+        <v>6677</v>
       </c>
       <c r="W350" s="3">
-        <v>161.30000000000001</v>
+        <v>118.9</v>
       </c>
       <c r="X350" s="3">
-        <v>7376</v>
+        <v>5117</v>
       </c>
       <c r="Z350" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
     </row>
     <row r="351" spans="2:30" x14ac:dyDescent="0.25">
@@ -14681,49 +14449,43 @@
         <v>6</v>
       </c>
       <c r="D351" t="s">
-        <v>28</v>
-      </c>
-      <c r="E351" s="4" t="s">
-        <v>727</v>
+        <v>755</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J351" s="3">
+        <v>5</v>
       </c>
       <c r="L351" s="3">
-        <v>195</v>
-      </c>
-      <c r="Q351" s="3">
-        <v>193.4</v>
-      </c>
-      <c r="R351" s="3">
-        <v>7495</v>
-      </c>
-      <c r="S351" s="3">
-        <v>222.1</v>
-      </c>
-      <c r="T351" s="3">
-        <v>4933</v>
+        <v>133</v>
+      </c>
+      <c r="M351" s="1">
+        <v>408000</v>
       </c>
       <c r="U351" s="3">
-        <v>191.2</v>
+        <v>113.3</v>
       </c>
       <c r="V351" s="3">
-        <v>7157</v>
+        <v>5488</v>
       </c>
       <c r="W351" s="3">
-        <v>223.4</v>
+        <v>159.9</v>
       </c>
       <c r="X351" s="3">
-        <v>4886</v>
+        <v>4086</v>
       </c>
       <c r="Z351" t="s">
-        <v>725</v>
+        <v>765</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>766</v>
       </c>
       <c r="AB351" t="s">
-        <v>726</v>
-      </c>
-      <c r="AC351" t="s">
-        <v>611</v>
+        <v>202</v>
       </c>
       <c r="AD351" s="4">
-        <v>640</v>
+        <v>500</v>
       </c>
     </row>
     <row r="352" spans="2:30" x14ac:dyDescent="0.25">
@@ -14731,43 +14493,37 @@
         <v>7</v>
       </c>
       <c r="D352" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="F352" s="2" t="s">
-        <v>147</v>
+        <v>769</v>
       </c>
       <c r="G352" t="s">
-        <v>677</v>
-      </c>
-      <c r="L352" s="3">
-        <v>156</v>
-      </c>
-      <c r="Q352" s="3">
-        <v>161.4</v>
-      </c>
-      <c r="R352" s="3">
-        <v>6432</v>
-      </c>
-      <c r="S352" s="3">
-        <v>201.3</v>
-      </c>
-      <c r="T352" s="3">
-        <v>4502</v>
+        <v>320</v>
+      </c>
+      <c r="U352" s="3">
+        <v>167.7</v>
+      </c>
+      <c r="V352" s="3">
+        <v>6970</v>
+      </c>
+      <c r="W352" s="3">
+        <v>193.3</v>
+      </c>
+      <c r="X352" s="3">
+        <v>5425</v>
       </c>
       <c r="Z352" t="s">
-        <v>728</v>
+        <v>767</v>
       </c>
       <c r="AA352" t="s">
-        <v>729</v>
+        <v>768</v>
       </c>
       <c r="AB352" t="s">
         <v>112</v>
       </c>
       <c r="AD352" s="4">
-        <v>210</v>
+        <v>280</v>
       </c>
     </row>
     <row r="353" spans="2:30" x14ac:dyDescent="0.25">
@@ -14775,58 +14531,31 @@
         <v>8</v>
       </c>
       <c r="D353" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="G353" t="s">
-        <v>735</v>
+        <v>147</v>
       </c>
       <c r="L353" s="3">
-        <v>90</v>
-      </c>
-      <c r="M353" s="1">
-        <v>850000</v>
-      </c>
-      <c r="Q353" s="3">
-        <v>84.9</v>
-      </c>
-      <c r="R353" s="3">
-        <v>5620</v>
-      </c>
-      <c r="S353" s="3">
-        <v>127</v>
-      </c>
-      <c r="T353" s="3">
-        <v>2176</v>
+        <v>143</v>
       </c>
       <c r="U353" s="3">
-        <v>80.900000000000006</v>
+        <v>143.9</v>
       </c>
       <c r="V353" s="3">
-        <v>553</v>
+        <v>6452</v>
       </c>
       <c r="W353" s="3">
-        <v>118.3</v>
+        <v>185</v>
       </c>
       <c r="X353" s="3">
-        <v>2458</v>
+        <v>4607</v>
       </c>
       <c r="Z353" t="s">
-        <v>731</v>
-      </c>
-      <c r="AA353" t="s">
-        <v>732</v>
-      </c>
-      <c r="AB353" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD353" s="4">
-        <v>300</v>
+        <v>392</v>
       </c>
     </row>
     <row r="354" spans="2:30" x14ac:dyDescent="0.25">
@@ -14834,43 +14563,49 @@
         <v>9</v>
       </c>
       <c r="D354" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>739</v>
+        <v>771</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="G354" t="s">
-        <v>736</v>
-      </c>
-      <c r="J354" s="3">
-        <v>5</v>
+        <v>772</v>
+      </c>
+      <c r="K354" t="s">
+        <v>76</v>
       </c>
       <c r="L354" s="3">
-        <v>180</v>
+        <v>150</v>
+      </c>
+      <c r="Q354" s="3">
+        <v>120.4</v>
+      </c>
+      <c r="R354" s="3">
+        <v>5218</v>
+      </c>
+      <c r="S354" s="3">
+        <v>179.6</v>
+      </c>
+      <c r="T354" s="3">
+        <v>4313</v>
       </c>
       <c r="U354" s="3">
-        <v>151.9</v>
+        <v>120.5</v>
       </c>
       <c r="V354" s="3">
-        <v>4596</v>
+        <v>5218</v>
       </c>
       <c r="W354" s="3">
-        <v>253</v>
+        <v>176.7</v>
       </c>
       <c r="X354" s="3">
-        <v>3321</v>
+        <v>4385</v>
       </c>
       <c r="Z354" t="s">
-        <v>737</v>
-      </c>
-      <c r="AA354" t="s">
-        <v>738</v>
-      </c>
-      <c r="AB354" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD354" s="4">
-        <v>600</v>
+        <v>324</v>
       </c>
     </row>
     <row r="355" spans="2:30" x14ac:dyDescent="0.25">
@@ -14878,43 +14613,34 @@
         <v>10</v>
       </c>
       <c r="D355" t="s">
-        <v>52</v>
-      </c>
-      <c r="E355" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J355" s="3">
-        <v>5</v>
+        <v>114</v>
+      </c>
+      <c r="E355" s="4">
+        <v>155</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G355" t="s">
+        <v>320</v>
       </c>
       <c r="L355" s="3">
-        <v>125</v>
-      </c>
-      <c r="Q355" s="3">
-        <v>119</v>
-      </c>
-      <c r="R355" s="3">
-        <v>5516</v>
-      </c>
-      <c r="S355" s="3">
-        <v>169.3</v>
-      </c>
-      <c r="T355" s="3">
-        <v>3794</v>
+        <v>150</v>
       </c>
       <c r="U355" s="3">
-        <v>117.8</v>
+        <v>150.5</v>
       </c>
       <c r="V355" s="3">
-        <v>5647</v>
+        <v>6299</v>
       </c>
       <c r="W355" s="3">
-        <v>155</v>
+        <v>176.1</v>
       </c>
       <c r="X355" s="3">
-        <v>5079</v>
+        <v>3586</v>
       </c>
       <c r="Z355" t="s">
-        <v>599</v>
+        <v>195</v>
       </c>
     </row>
     <row r="356" spans="2:30" x14ac:dyDescent="0.25">
@@ -14922,43 +14648,55 @@
         <v>11</v>
       </c>
       <c r="D356" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>589</v>
+        <v>775</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>208</v>
+        <v>463</v>
+      </c>
+      <c r="J356" s="3">
+        <v>6</v>
       </c>
       <c r="L356" s="3">
-        <v>139</v>
-      </c>
-      <c r="M356" s="1">
-        <v>167000</v>
+        <v>272</v>
+      </c>
+      <c r="Q356" s="3">
+        <v>246.6</v>
+      </c>
+      <c r="R356" s="3">
+        <v>6838</v>
+      </c>
+      <c r="S356" s="3">
+        <v>289.8</v>
+      </c>
+      <c r="T356" s="3">
+        <v>3138</v>
       </c>
       <c r="U356" s="3">
-        <v>141.4</v>
+        <v>238.8</v>
       </c>
       <c r="V356" s="3">
-        <v>6603</v>
+        <v>6693</v>
       </c>
       <c r="W356" s="3">
-        <v>164.2</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="X356" s="3">
-        <v>5340</v>
+        <v>3111</v>
       </c>
       <c r="Z356" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="AA356" t="s">
-        <v>741</v>
+        <v>774</v>
       </c>
       <c r="AB356" t="s">
-        <v>369</v>
+        <v>133</v>
       </c>
       <c r="AD356" s="4">
-        <v>350</v>
+        <v>445</v>
       </c>
     </row>
     <row r="357" spans="2:30" x14ac:dyDescent="0.25">
@@ -14966,43 +14704,40 @@
         <v>12</v>
       </c>
       <c r="D357" t="s">
-        <v>742</v>
-      </c>
-      <c r="E357" s="4">
-        <v>95</v>
+        <v>778</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>779</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G357" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="L357" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q357" s="3">
-        <v>201.8</v>
-      </c>
-      <c r="R357" s="3">
-        <v>5839</v>
-      </c>
-      <c r="S357" s="3">
-        <v>307</v>
-      </c>
-      <c r="T357" s="3">
-        <v>2772</v>
+        <v>109</v>
       </c>
       <c r="U357" s="3">
-        <v>227.5</v>
+        <v>117.5</v>
       </c>
       <c r="V357" s="3">
-        <v>5702</v>
+        <v>6165</v>
       </c>
       <c r="W357" s="3">
-        <v>381</v>
+        <v>154</v>
       </c>
       <c r="X357" s="3">
-        <v>3108</v>
+        <v>4153</v>
+      </c>
+      <c r="Z357" t="s">
+        <v>776</v>
+      </c>
+      <c r="AA357" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB357" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD357" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="358" spans="2:30" x14ac:dyDescent="0.25">
@@ -15010,49 +14745,28 @@
         <v>13</v>
       </c>
       <c r="D358" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G358" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="J358" s="3">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="L358" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q358" s="3">
-        <v>173.9</v>
-      </c>
-      <c r="R358" s="3">
-        <v>5780</v>
-      </c>
-      <c r="S358" s="3">
-        <v>226.1</v>
-      </c>
-      <c r="T358" s="3">
-        <v>4666</v>
+        <v>80</v>
       </c>
       <c r="U358" s="3">
-        <v>174.6</v>
+        <v>108.5</v>
       </c>
       <c r="V358" s="3">
-        <v>5804</v>
+        <v>6081</v>
       </c>
       <c r="W358" s="3">
-        <v>228.6</v>
+        <v>141</v>
       </c>
       <c r="X358" s="3">
-        <v>4669</v>
-      </c>
-      <c r="Z358" t="s">
-        <v>326</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="359" spans="2:30" x14ac:dyDescent="0.25">
@@ -15060,40 +14774,40 @@
         <v>14</v>
       </c>
       <c r="D359" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="L359" s="3">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="U359" s="3">
-        <v>184.4</v>
+        <v>168.9</v>
       </c>
       <c r="V359" s="3">
-        <v>6059</v>
+        <v>5778</v>
       </c>
       <c r="W359" s="3">
-        <v>247.5</v>
+        <v>223.1</v>
       </c>
       <c r="X359" s="3">
-        <v>4445</v>
+        <v>4721</v>
       </c>
       <c r="Z359" t="s">
-        <v>745</v>
+        <v>781</v>
       </c>
       <c r="AA359" t="s">
-        <v>746</v>
+        <v>782</v>
       </c>
       <c r="AB359" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AD359" s="4">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="360" spans="2:30" x14ac:dyDescent="0.25">
@@ -15104,747 +14818,840 @@
         <v>28</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>747</v>
+        <v>786</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>463</v>
+        <v>211</v>
       </c>
       <c r="L360" s="3">
-        <v>231</v>
-      </c>
-      <c r="M360" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q360" s="3">
-        <v>205.8</v>
-      </c>
-      <c r="R360" s="3">
-        <v>6150</v>
-      </c>
-      <c r="S360" s="3">
-        <v>256.89999999999998</v>
-      </c>
-      <c r="T360" s="3">
-        <v>4021</v>
+        <v>170</v>
       </c>
       <c r="U360" s="3">
-        <v>212.3</v>
+        <v>171</v>
       </c>
       <c r="V360" s="3">
-        <v>6103</v>
+        <v>6157</v>
       </c>
       <c r="W360" s="3">
-        <v>266.7</v>
+        <v>213.7</v>
       </c>
       <c r="X360" s="3">
-        <v>5039</v>
+        <v>5203</v>
       </c>
       <c r="Z360" t="s">
-        <v>47</v>
+        <v>784</v>
+      </c>
+      <c r="AA360" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB360" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD360" s="4">
+        <v>250</v>
       </c>
     </row>
     <row r="361" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C361" s="4">
-        <v>16</v>
-      </c>
-      <c r="D361" t="s">
-        <v>74</v>
-      </c>
-      <c r="E361" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="F361" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J361" s="3">
-        <v>5</v>
-      </c>
-      <c r="L361" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q361" s="3">
-        <v>238.9</v>
-      </c>
-      <c r="R361" s="3">
-        <v>5907</v>
-      </c>
-      <c r="S361" s="3">
-        <v>370.3</v>
-      </c>
-      <c r="T361" s="3">
-        <v>4512</v>
-      </c>
-      <c r="U361" s="3">
-        <v>249.1</v>
-      </c>
-      <c r="V361" s="3">
-        <v>4570</v>
-      </c>
-      <c r="W361" s="3">
-        <v>393.6</v>
-      </c>
-      <c r="X361" s="3">
-        <v>4433</v>
-      </c>
-      <c r="Z361" t="s">
-        <v>750</v>
-      </c>
-      <c r="AA361" t="s">
-        <v>751</v>
-      </c>
-      <c r="AB361" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD361" s="4">
-        <v>240</v>
+      <c r="B361">
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C362" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D362" t="s">
         <v>52</v>
       </c>
-      <c r="E362" s="4">
-        <v>80</v>
+      <c r="E362" s="4" t="s">
+        <v>718</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>147</v>
+        <v>373</v>
+      </c>
+      <c r="J362" s="3">
+        <v>5</v>
       </c>
       <c r="L362" s="3">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="Q362" s="3">
-        <v>104.7</v>
+        <v>123</v>
       </c>
       <c r="R362" s="3">
-        <v>5285</v>
+        <v>5022</v>
       </c>
       <c r="S362" s="3">
-        <v>164.4</v>
+        <v>201.8</v>
       </c>
       <c r="T362" s="3">
-        <v>3305</v>
+        <v>3539</v>
       </c>
       <c r="U362" s="3">
-        <v>106.5</v>
+        <v>121.3</v>
       </c>
       <c r="V362" s="3">
-        <v>5219</v>
+        <v>4886</v>
       </c>
       <c r="W362" s="3">
-        <v>167.5</v>
+        <v>198.9</v>
       </c>
       <c r="X362" s="3">
-        <v>3223</v>
+        <v>3255</v>
       </c>
       <c r="Z362" t="s">
-        <v>753</v>
-      </c>
-      <c r="AA362" t="s">
-        <v>754</v>
-      </c>
-      <c r="AB362" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD362" s="4">
-        <v>180</v>
+        <v>523</v>
       </c>
     </row>
     <row r="363" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B363">
-        <v>6</v>
+      <c r="C363" s="4">
+        <v>2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>28</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G363" t="s">
+        <v>720</v>
+      </c>
+      <c r="L363" s="3">
+        <v>170</v>
+      </c>
+      <c r="Q363" s="3">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="R363" s="3">
+        <v>5962</v>
+      </c>
+      <c r="S363" s="3">
+        <v>187.8</v>
+      </c>
+      <c r="T363" s="3">
+        <v>4474</v>
+      </c>
+      <c r="U363" s="3">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="V363" s="3">
+        <v>5991</v>
+      </c>
+      <c r="W363" s="3">
+        <v>190.9</v>
+      </c>
+      <c r="X363" s="3">
+        <v>4443</v>
+      </c>
+      <c r="Z363" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="364" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C364" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D364" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>694</v>
+        <v>531</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G364" t="s">
-        <v>693</v>
+        <v>346</v>
       </c>
       <c r="L364" s="3">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="U364" s="3">
-        <v>198.9</v>
+        <v>64.3</v>
       </c>
       <c r="V364" s="3">
-        <v>4106</v>
+        <v>4313</v>
       </c>
       <c r="W364" s="3">
-        <v>417.2</v>
+        <v>123.7</v>
       </c>
       <c r="X364" s="3">
-        <v>2732</v>
+        <v>2182</v>
       </c>
       <c r="Z364" t="s">
-        <v>446</v>
+        <v>568</v>
       </c>
     </row>
     <row r="365" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C365" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D365" t="s">
-        <v>217</v>
+        <v>723</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>695</v>
+        <v>418</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G365" t="s">
-        <v>696</v>
+        <v>211</v>
+      </c>
+      <c r="J365" s="3">
+        <v>6</v>
       </c>
       <c r="L365" s="3">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="U365" s="3">
-        <v>141.19999999999999</v>
+        <v>193.1</v>
       </c>
       <c r="V365" s="3">
-        <v>6642</v>
+        <v>6068</v>
       </c>
       <c r="W365" s="3">
-        <v>153.69999999999999</v>
+        <v>237.4</v>
       </c>
       <c r="X365" s="3">
-        <v>6342</v>
+        <v>4703</v>
       </c>
       <c r="Z365" t="s">
-        <v>552</v>
+        <v>721</v>
+      </c>
+      <c r="AA365" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB365" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD365" s="4">
+        <v>630</v>
       </c>
     </row>
     <row r="366" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C366" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D366" t="s">
-        <v>278</v>
+        <v>412</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>697</v>
+        <v>489</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="G366" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="L366" s="3">
-        <v>231</v>
-      </c>
-      <c r="M366" s="1">
-        <v>157115</v>
-      </c>
-      <c r="N366" s="3">
-        <v>2004</v>
+        <v>190</v>
+      </c>
+      <c r="Q366" s="3">
+        <v>185</v>
+      </c>
+      <c r="R366" s="3">
+        <v>6689</v>
+      </c>
+      <c r="S366" s="3">
+        <v>158.1</v>
+      </c>
+      <c r="T366" s="3">
+        <v>7544</v>
       </c>
       <c r="U366" s="3">
-        <v>199.3</v>
+        <v>184.2</v>
       </c>
       <c r="V366" s="3">
-        <v>6844</v>
+        <v>8500</v>
       </c>
       <c r="W366" s="3">
-        <v>173.9</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="X366" s="3">
-        <v>7611</v>
+        <v>7376</v>
       </c>
       <c r="Z366" t="s">
-        <v>432</v>
+        <v>215</v>
       </c>
     </row>
     <row r="367" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C367" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D367" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="F367" s="2" t="s">
-        <v>208</v>
+        <v>727</v>
       </c>
       <c r="L367" s="3">
-        <v>115</v>
-      </c>
-      <c r="M367" s="1">
-        <v>396000</v>
+        <v>195</v>
+      </c>
+      <c r="Q367" s="3">
+        <v>193.4</v>
+      </c>
+      <c r="R367" s="3">
+        <v>7495</v>
+      </c>
+      <c r="S367" s="3">
+        <v>222.1</v>
+      </c>
+      <c r="T367" s="3">
+        <v>4933</v>
       </c>
       <c r="U367" s="3">
-        <v>121.6</v>
+        <v>191.2</v>
       </c>
       <c r="V367" s="3">
-        <v>6112</v>
+        <v>7157</v>
       </c>
       <c r="W367" s="3">
-        <v>170.6</v>
+        <v>223.4</v>
       </c>
       <c r="X367" s="3">
-        <v>4285</v>
+        <v>4886</v>
       </c>
       <c r="Z367" t="s">
-        <v>251</v>
+        <v>725</v>
+      </c>
+      <c r="AB367" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC367" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD367" s="4">
+        <v>640</v>
       </c>
     </row>
     <row r="368" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C368" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D368" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="G368" t="s">
+        <v>677</v>
       </c>
       <c r="L368" s="3">
-        <v>125</v>
-      </c>
-      <c r="U368" s="3">
-        <v>124.6</v>
-      </c>
-      <c r="V368" s="3">
-        <v>6041</v>
-      </c>
-      <c r="W368" s="3">
-        <v>158.5</v>
-      </c>
-      <c r="X368" s="3">
-        <v>3470</v>
+        <v>156</v>
+      </c>
+      <c r="Q368" s="3">
+        <v>161.4</v>
+      </c>
+      <c r="R368" s="3">
+        <v>6432</v>
+      </c>
+      <c r="S368" s="3">
+        <v>201.3</v>
+      </c>
+      <c r="T368" s="3">
+        <v>4502</v>
       </c>
       <c r="Z368" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="AA368" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
       <c r="AB368" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="AD368" s="4">
-        <v>380</v>
+        <v>210</v>
       </c>
     </row>
     <row r="369" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C369" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D369" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>206</v>
+        <v>733</v>
+      </c>
+      <c r="G369" t="s">
+        <v>735</v>
       </c>
       <c r="L369" s="3">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M369" s="1">
-        <v>464568</v>
+        <v>850000</v>
+      </c>
+      <c r="Q369" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="R369" s="3">
+        <v>5620</v>
+      </c>
+      <c r="S369" s="3">
+        <v>127</v>
+      </c>
+      <c r="T369" s="3">
+        <v>2176</v>
       </c>
       <c r="U369" s="3">
-        <v>79.400000000000006</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="V369" s="3">
-        <v>5100</v>
+        <v>553</v>
       </c>
       <c r="W369" s="3">
-        <v>121.3</v>
+        <v>118.3</v>
       </c>
       <c r="X369" s="3">
-        <v>4012</v>
+        <v>2458</v>
       </c>
       <c r="Z369" t="s">
-        <v>599</v>
+        <v>731</v>
+      </c>
+      <c r="AA369" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB369" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD369" s="4">
+        <v>300</v>
       </c>
     </row>
     <row r="370" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C370" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D370" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E370" s="4" t="s">
-        <v>704</v>
+        <v>739</v>
+      </c>
+      <c r="G370" t="s">
+        <v>736</v>
+      </c>
+      <c r="J370" s="3">
+        <v>5</v>
       </c>
       <c r="L370" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q370" s="3">
-        <v>107.2</v>
-      </c>
-      <c r="R370" s="3">
-        <v>5650</v>
-      </c>
-      <c r="S370" s="3">
-        <v>147.1</v>
-      </c>
-      <c r="T370" s="3">
-        <v>3736</v>
+        <v>180</v>
       </c>
       <c r="U370" s="3">
-        <v>108.5</v>
+        <v>151.9</v>
       </c>
       <c r="V370" s="3">
-        <v>5746</v>
+        <v>4596</v>
       </c>
       <c r="W370" s="3">
-        <v>148.30000000000001</v>
+        <v>253</v>
       </c>
       <c r="X370" s="3">
-        <v>3810</v>
+        <v>3321</v>
       </c>
       <c r="Z370" t="s">
-        <v>110</v>
+        <v>737</v>
+      </c>
+      <c r="AA370" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB370" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD370" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="371" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C371" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D371" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="F371" s="2" t="s">
-        <v>147</v>
+        <v>607</v>
+      </c>
+      <c r="J371" s="3">
+        <v>5</v>
       </c>
       <c r="L371" s="3">
-        <v>285</v>
+        <v>125</v>
+      </c>
+      <c r="Q371" s="3">
+        <v>119</v>
+      </c>
+      <c r="R371" s="3">
+        <v>5516</v>
+      </c>
+      <c r="S371" s="3">
+        <v>169.3</v>
+      </c>
+      <c r="T371" s="3">
+        <v>3794</v>
       </c>
       <c r="U371" s="3">
-        <v>309.10000000000002</v>
+        <v>117.8</v>
       </c>
       <c r="V371" s="3">
-        <v>5360</v>
+        <v>5647</v>
       </c>
       <c r="W371" s="3">
-        <v>487</v>
+        <v>155</v>
       </c>
       <c r="X371" s="3">
-        <v>4061</v>
+        <v>5079</v>
+      </c>
+      <c r="Z371" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="372" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C372" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D372" t="s">
         <v>44</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>706</v>
+        <v>589</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H372" s="3" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="L372" s="3">
-        <v>116</v>
+        <v>139</v>
+      </c>
+      <c r="M372" s="1">
+        <v>167000</v>
       </c>
       <c r="U372" s="3">
-        <v>168.1</v>
+        <v>141.4</v>
       </c>
       <c r="V372" s="3">
-        <v>3725</v>
+        <v>6603</v>
       </c>
       <c r="W372" s="3">
+        <v>164.2</v>
+      </c>
+      <c r="X372" s="3">
+        <v>5340</v>
+      </c>
+      <c r="Z372" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA372" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB372" t="s">
         <v>369</v>
       </c>
-      <c r="X372" s="3">
-        <v>2941</v>
+      <c r="AD372" s="4">
+        <v>350</v>
       </c>
     </row>
     <row r="373" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C373" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D373" t="s">
-        <v>36</v>
-      </c>
-      <c r="E373" s="4" t="s">
-        <v>709</v>
+        <v>742</v>
+      </c>
+      <c r="E373" s="4">
+        <v>95</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="G373" t="s">
-        <v>710</v>
+        <v>748</v>
       </c>
       <c r="L373" s="3">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q373" s="3">
-        <v>141.4</v>
+        <v>201.8</v>
       </c>
       <c r="R373" s="3">
-        <v>5198</v>
+        <v>5839</v>
       </c>
       <c r="S373" s="3">
-        <v>214.6</v>
+        <v>307</v>
       </c>
       <c r="T373" s="3">
-        <v>3910</v>
+        <v>2772</v>
       </c>
       <c r="U373" s="3">
-        <v>145.19999999999999</v>
+        <v>227.5</v>
       </c>
       <c r="V373" s="3">
-        <v>5158</v>
+        <v>5702</v>
       </c>
       <c r="W373" s="3">
-        <v>219.6</v>
+        <v>381</v>
       </c>
       <c r="X373" s="3">
-        <v>3838</v>
-      </c>
-      <c r="Z373" t="s">
-        <v>707</v>
-      </c>
-      <c r="AA373" t="s">
-        <v>708</v>
-      </c>
-      <c r="AB373" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD373" s="4">
-        <v>650</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="374" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C374" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D374" t="s">
         <v>28</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>711</v>
+        <v>744</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G374" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="J374" s="3">
+        <v>6</v>
       </c>
       <c r="L374" s="3">
-        <v>150</v>
-      </c>
-      <c r="M374" s="1">
-        <v>250000</v>
+        <v>170</v>
+      </c>
+      <c r="Q374" s="3">
+        <v>173.9</v>
+      </c>
+      <c r="R374" s="3">
+        <v>5780</v>
+      </c>
+      <c r="S374" s="3">
+        <v>226.1</v>
+      </c>
+      <c r="T374" s="3">
+        <v>4666</v>
       </c>
       <c r="U374" s="3">
-        <v>152.5</v>
+        <v>174.6</v>
       </c>
       <c r="V374" s="3">
-        <v>3952</v>
+        <v>5804</v>
       </c>
       <c r="W374" s="3">
-        <v>324.8</v>
+        <v>228.6</v>
       </c>
       <c r="X374" s="3">
-        <v>2672</v>
+        <v>4669</v>
       </c>
       <c r="Z374" t="s">
-        <v>99</v>
+        <v>326</v>
       </c>
     </row>
     <row r="375" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C375" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D375" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G375" t="s">
-        <v>714</v>
+        <v>687</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="L375" s="3">
-        <v>147</v>
-      </c>
-      <c r="Q375" s="3">
-        <v>178.3</v>
-      </c>
-      <c r="R375" s="3">
-        <v>4540</v>
-      </c>
-      <c r="S375" s="3">
-        <v>315.2</v>
-      </c>
-      <c r="T375" s="3">
-        <v>3784</v>
+        <v>174</v>
       </c>
       <c r="U375" s="3">
-        <v>149</v>
+        <v>184.4</v>
       </c>
       <c r="V375" s="3">
-        <v>5088</v>
+        <v>6059</v>
       </c>
       <c r="W375" s="3">
-        <v>256.3</v>
+        <v>247.5</v>
       </c>
       <c r="X375" s="3">
-        <v>3222</v>
+        <v>4445</v>
       </c>
       <c r="Z375" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="AA375" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="AB375" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="AD375" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="376" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C376" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D376" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>298</v>
+        <v>463</v>
       </c>
       <c r="L376" s="3">
-        <v>55</v>
+        <v>231</v>
+      </c>
+      <c r="M376" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q376" s="3">
+        <v>205.8</v>
+      </c>
+      <c r="R376" s="3">
+        <v>6150</v>
+      </c>
+      <c r="S376" s="3">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="T376" s="3">
+        <v>4021</v>
       </c>
       <c r="U376" s="3">
-        <v>75.400000000000006</v>
+        <v>212.3</v>
       </c>
       <c r="V376" s="3">
-        <v>6471</v>
+        <v>6103</v>
       </c>
       <c r="W376" s="3">
-        <v>102.3</v>
+        <v>266.7</v>
       </c>
       <c r="X376" s="3">
-        <v>3908</v>
+        <v>5039</v>
+      </c>
+      <c r="Z376" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="377" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C377" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D377" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>716</v>
+        <v>752</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>373</v>
+        <v>211</v>
       </c>
       <c r="J377" s="3">
         <v>5</v>
       </c>
       <c r="L377" s="3">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="Q377" s="3">
-        <v>92.1</v>
+        <v>238.9</v>
       </c>
       <c r="R377" s="3">
-        <v>3973</v>
+        <v>5907</v>
       </c>
       <c r="S377" s="3">
-        <v>168.5</v>
+        <v>370.3</v>
       </c>
       <c r="T377" s="3">
-        <v>3702</v>
+        <v>4512</v>
       </c>
       <c r="U377" s="3">
-        <v>94</v>
+        <v>249.1</v>
       </c>
       <c r="V377" s="3">
-        <v>4062</v>
+        <v>4570</v>
       </c>
       <c r="W377" s="3">
-        <v>170.1</v>
+        <v>393.6</v>
       </c>
       <c r="X377" s="3">
-        <v>3731</v>
+        <v>4433</v>
       </c>
       <c r="Z377" t="s">
-        <v>110</v>
+        <v>750</v>
+      </c>
+      <c r="AA377" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB377" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD377" s="4">
+        <v>240</v>
       </c>
     </row>
     <row r="378" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C378" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D378" t="s">
-        <v>38</v>
-      </c>
-      <c r="E378" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="J378" s="3">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="E378" s="4">
+        <v>80</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L378" s="3">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="Q378" s="3">
-        <v>185.9</v>
+        <v>104.7</v>
       </c>
       <c r="R378" s="3">
-        <v>5885</v>
+        <v>5285</v>
       </c>
       <c r="S378" s="3">
-        <v>230.5</v>
+        <v>164.4</v>
       </c>
       <c r="T378" s="3">
-        <v>5266</v>
+        <v>3305</v>
       </c>
       <c r="U378" s="3">
-        <v>189.3</v>
+        <v>106.5</v>
       </c>
       <c r="V378" s="3">
-        <v>5956</v>
+        <v>5219</v>
       </c>
       <c r="W378" s="3">
-        <v>236.6</v>
+        <v>167.5</v>
       </c>
       <c r="X378" s="3">
-        <v>5217</v>
+        <v>3223</v>
       </c>
       <c r="Z378" t="s">
-        <v>47</v>
+        <v>753</v>
+      </c>
+      <c r="AA378" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB378" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD378" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="379" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B379">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="380" spans="2:30" x14ac:dyDescent="0.25">
@@ -15852,34 +15659,34 @@
         <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G380" t="s">
-        <v>576</v>
+        <v>693</v>
       </c>
       <c r="L380" s="3">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="U380" s="3">
-        <v>191.2</v>
+        <v>198.9</v>
       </c>
       <c r="V380" s="3">
-        <v>8095</v>
+        <v>4106</v>
       </c>
       <c r="W380" s="3">
-        <v>184</v>
+        <v>417.2</v>
       </c>
       <c r="X380" s="3">
-        <v>6394</v>
+        <v>2732</v>
       </c>
       <c r="Z380" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
     </row>
     <row r="381" spans="2:30" x14ac:dyDescent="0.25">
@@ -15887,52 +15694,34 @@
         <v>2</v>
       </c>
       <c r="D381" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="G381" t="s">
+        <v>696</v>
+      </c>
       <c r="L381" s="3">
-        <v>95</v>
-      </c>
-      <c r="Q381" s="3">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="R381" s="3">
-        <v>6130</v>
-      </c>
-      <c r="S381" s="3">
-        <v>89.8</v>
-      </c>
-      <c r="T381" s="3">
-        <v>6020</v>
+        <v>135</v>
       </c>
       <c r="U381" s="3">
-        <v>78.7</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="V381" s="3">
-        <v>6094</v>
+        <v>6642</v>
       </c>
       <c r="W381" s="3">
-        <v>91.7</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="X381" s="3">
-        <v>5966</v>
+        <v>6342</v>
       </c>
       <c r="Z381" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA381" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB381" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD381" s="4">
-        <v>100</v>
+        <v>552</v>
       </c>
     </row>
     <row r="382" spans="2:30" x14ac:dyDescent="0.25">
@@ -15940,61 +15729,40 @@
         <v>3</v>
       </c>
       <c r="D382" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>463</v>
+        <v>298</v>
       </c>
       <c r="G382" t="s">
-        <v>685</v>
-      </c>
-      <c r="J382" s="3">
-        <v>6</v>
+        <v>698</v>
       </c>
       <c r="L382" s="3">
         <v>231</v>
       </c>
       <c r="M382" s="1">
-        <v>377473</v>
-      </c>
-      <c r="Q382" s="3">
-        <v>199.6</v>
-      </c>
-      <c r="R382" s="3">
-        <v>6123</v>
-      </c>
-      <c r="S382" s="3">
-        <v>268.2</v>
-      </c>
-      <c r="T382" s="3">
-        <v>3625</v>
+        <v>157115</v>
+      </c>
+      <c r="N382" s="3">
+        <v>2004</v>
       </c>
       <c r="U382" s="3">
-        <v>202.2</v>
+        <v>199.3</v>
       </c>
       <c r="V382" s="3">
-        <v>6211</v>
+        <v>6844</v>
       </c>
       <c r="W382" s="3">
-        <v>269.60000000000002</v>
+        <v>173.9</v>
       </c>
       <c r="X382" s="3">
-        <v>3618</v>
+        <v>7611</v>
       </c>
       <c r="Z382" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA382" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB382" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD382" s="4">
-        <v>252</v>
+        <v>432</v>
       </c>
     </row>
     <row r="383" spans="2:30" x14ac:dyDescent="0.25">
@@ -16005,28 +15773,31 @@
         <v>36</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G383" t="s">
-        <v>576</v>
+        <v>208</v>
       </c>
       <c r="L383" s="3">
-        <v>240</v>
+        <v>115</v>
+      </c>
+      <c r="M383" s="1">
+        <v>396000</v>
       </c>
       <c r="U383" s="3">
-        <v>261.8</v>
+        <v>121.6</v>
       </c>
       <c r="V383" s="3">
-        <v>5721</v>
+        <v>6112</v>
       </c>
       <c r="W383" s="3">
-        <v>406.3</v>
+        <v>170.6</v>
       </c>
       <c r="X383" s="3">
-        <v>4044</v>
+        <v>4285</v>
+      </c>
+      <c r="Z383" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="384" spans="2:30" x14ac:dyDescent="0.25">
@@ -16036,47 +15807,38 @@
       <c r="D384" t="s">
         <v>52</v>
       </c>
+      <c r="E384" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="F384" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G384" t="s">
-        <v>424</v>
-      </c>
-      <c r="K384" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="L384" s="3">
-        <v>113</v>
-      </c>
-      <c r="M384" s="1">
-        <v>137872</v>
-      </c>
-      <c r="Q384" s="3">
-        <v>97</v>
-      </c>
-      <c r="R384" s="3">
-        <v>5372</v>
-      </c>
-      <c r="S384" s="3">
-        <v>168.8</v>
-      </c>
-      <c r="T384" s="3">
-        <v>3490</v>
+        <v>125</v>
       </c>
       <c r="U384" s="3">
-        <v>97.3</v>
+        <v>124.6</v>
       </c>
       <c r="V384" s="3">
-        <v>5749</v>
+        <v>6041</v>
       </c>
       <c r="W384" s="3">
-        <v>147.9</v>
+        <v>158.5</v>
       </c>
       <c r="X384" s="3">
-        <v>3325</v>
+        <v>3470</v>
       </c>
       <c r="Z384" t="s">
-        <v>104</v>
+        <v>701</v>
+      </c>
+      <c r="AA384" t="s">
+        <v>702</v>
+      </c>
+      <c r="AB384" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD384" s="4">
+        <v>380</v>
       </c>
     </row>
     <row r="385" spans="2:30" x14ac:dyDescent="0.25">
@@ -16084,40 +15846,34 @@
         <v>6</v>
       </c>
       <c r="D385" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J385" s="3">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="L385" s="3">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="M385" s="1">
-        <v>320000</v>
-      </c>
-      <c r="N385" s="3">
-        <v>1983</v>
+        <v>464568</v>
       </c>
       <c r="U385" s="3">
-        <v>186.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="V385" s="3">
-        <v>5977</v>
+        <v>5100</v>
       </c>
       <c r="W385" s="3">
-        <v>237.9</v>
+        <v>121.3</v>
       </c>
       <c r="X385" s="3">
-        <v>4499</v>
+        <v>4012</v>
       </c>
       <c r="Z385" t="s">
-        <v>195</v>
+        <v>599</v>
       </c>
     </row>
     <row r="386" spans="2:30" x14ac:dyDescent="0.25">
@@ -16125,44 +15881,40 @@
         <v>7</v>
       </c>
       <c r="D386" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F386" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J386" s="3">
-        <v>6</v>
+        <v>704</v>
       </c>
       <c r="L386" s="3">
-        <v>150</v>
-      </c>
-      <c r="M386" s="1"/>
+        <v>90</v>
+      </c>
       <c r="Q386" s="3">
-        <v>158.5</v>
+        <v>107.2</v>
       </c>
       <c r="R386" s="3">
-        <v>6233</v>
+        <v>5650</v>
       </c>
       <c r="S386" s="3">
-        <v>188.2</v>
+        <v>147.1</v>
       </c>
       <c r="T386" s="3">
-        <v>4832</v>
+        <v>3736</v>
       </c>
       <c r="U386" s="3">
-        <v>158.30000000000001</v>
+        <v>108.5</v>
       </c>
       <c r="V386" s="3">
-        <v>6308</v>
+        <v>5746</v>
       </c>
       <c r="W386" s="3">
-        <v>191.7</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="X386" s="3">
-        <v>4811</v>
+        <v>3810</v>
+      </c>
+      <c r="Z386" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="387" spans="2:30" x14ac:dyDescent="0.25">
@@ -16170,47 +15922,28 @@
         <v>8</v>
       </c>
       <c r="D387" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H387" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="L387" s="3">
-        <v>140</v>
-      </c>
-      <c r="M387" s="1"/>
-      <c r="Q387" s="3">
-        <v>197.4</v>
-      </c>
-      <c r="R387" s="3">
-        <v>4140</v>
-      </c>
-      <c r="S387" s="3">
-        <v>445.5</v>
-      </c>
-      <c r="T387" s="3">
-        <v>2125</v>
+        <v>285</v>
       </c>
       <c r="U387" s="3">
-        <v>197.4</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="V387" s="3">
-        <v>4141</v>
+        <v>5360</v>
       </c>
       <c r="W387" s="3">
-        <v>449.4</v>
+        <v>487</v>
       </c>
       <c r="X387" s="3">
-        <v>2171</v>
-      </c>
-      <c r="Z387" t="s">
-        <v>330</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="388" spans="2:30" x14ac:dyDescent="0.25">
@@ -16218,35 +15951,31 @@
         <v>9</v>
       </c>
       <c r="D388" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G388" t="s">
-        <v>690</v>
+        <v>342</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L388" s="3">
-        <v>200</v>
-      </c>
-      <c r="M388" s="1"/>
+        <v>116</v>
+      </c>
       <c r="U388" s="3">
-        <v>226.2</v>
+        <v>168.1</v>
       </c>
       <c r="V388" s="3">
-        <v>6399</v>
+        <v>3725</v>
       </c>
       <c r="W388" s="3">
-        <v>319.89999999999998</v>
+        <v>369</v>
       </c>
       <c r="X388" s="3">
-        <v>3371</v>
-      </c>
-      <c r="Z388" t="s">
-        <v>156</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="389" spans="2:30" x14ac:dyDescent="0.25">
@@ -16254,2169 +15983,2837 @@
         <v>10</v>
       </c>
       <c r="D389" t="s">
-        <v>691</v>
+        <v>36</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="G389" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="L389" s="3">
-        <v>245</v>
-      </c>
-      <c r="M389" s="1">
-        <v>8000</v>
+        <v>150</v>
+      </c>
+      <c r="Q389" s="3">
+        <v>141.4</v>
+      </c>
+      <c r="R389" s="3">
+        <v>5198</v>
+      </c>
+      <c r="S389" s="3">
+        <v>214.6</v>
+      </c>
+      <c r="T389" s="3">
+        <v>3910</v>
       </c>
       <c r="U389" s="3">
-        <v>302.3</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="V389" s="3">
-        <v>6386</v>
+        <v>5158</v>
       </c>
       <c r="W389" s="3">
-        <v>424.8</v>
+        <v>219.6</v>
       </c>
       <c r="X389" s="3">
-        <v>3147</v>
+        <v>3838</v>
       </c>
       <c r="Z389" t="s">
-        <v>386</v>
+        <v>707</v>
+      </c>
+      <c r="AA389" t="s">
+        <v>708</v>
+      </c>
+      <c r="AB389" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD389" s="4">
+        <v>650</v>
       </c>
     </row>
     <row r="390" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B390">
-        <v>4</v>
+      <c r="C390" s="4">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s">
+        <v>28</v>
+      </c>
+      <c r="E390" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="L390" s="3">
+        <v>150</v>
+      </c>
+      <c r="M390" s="1">
+        <v>250000</v>
+      </c>
+      <c r="U390" s="3">
+        <v>152.5</v>
+      </c>
+      <c r="V390" s="3">
+        <v>3952</v>
+      </c>
+      <c r="W390" s="3">
+        <v>324.8</v>
+      </c>
+      <c r="X390" s="3">
+        <v>2672</v>
+      </c>
+      <c r="Z390" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="391" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C391" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D391" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="F391" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G391" t="s">
+        <v>714</v>
+      </c>
+      <c r="L391" s="3">
         <v>147</v>
       </c>
-      <c r="G391" t="s">
-        <v>650</v>
-      </c>
-      <c r="K391" t="s">
-        <v>76</v>
-      </c>
-      <c r="L391" s="3">
-        <v>140</v>
-      </c>
       <c r="Q391" s="3">
-        <v>154.6</v>
+        <v>178.3</v>
       </c>
       <c r="R391" s="3">
-        <v>39115</v>
+        <v>4540</v>
       </c>
       <c r="S391" s="3">
-        <v>367.9</v>
+        <v>315.2</v>
       </c>
       <c r="T391" s="3">
-        <v>2264</v>
+        <v>3784</v>
       </c>
       <c r="U391" s="3">
-        <v>154.9</v>
+        <v>149</v>
       </c>
       <c r="V391" s="3">
-        <v>3982</v>
+        <v>5088</v>
       </c>
       <c r="W391" s="3">
-        <v>368.3</v>
+        <v>256.3</v>
       </c>
       <c r="X391" s="3">
-        <v>2346</v>
+        <v>3222</v>
       </c>
       <c r="Z391" t="s">
-        <v>110</v>
+        <v>712</v>
+      </c>
+      <c r="AA391" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB391" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD391" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="392" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C392" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D392" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>651</v>
+        <v>715</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="L392" s="3">
-        <v>241</v>
-      </c>
-      <c r="Q392" s="3">
-        <v>227.4</v>
-      </c>
-      <c r="R392" s="3">
-        <v>5706</v>
-      </c>
-      <c r="S392" s="3">
-        <v>329.2</v>
-      </c>
-      <c r="T392" s="3">
-        <v>3772</v>
+        <v>55</v>
       </c>
       <c r="U392" s="3">
-        <v>216.6</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="V392" s="3">
-        <v>5120</v>
+        <v>6471</v>
       </c>
       <c r="W392" s="3">
-        <v>327.39999999999998</v>
+        <v>102.3</v>
       </c>
       <c r="X392" s="3">
-        <v>3780</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="393" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C393" s="4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D393" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E393" s="4" t="s">
-        <v>652</v>
+        <v>716</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G393" t="s">
-        <v>653</v>
+        <v>373</v>
+      </c>
+      <c r="J393" s="3">
+        <v>5</v>
       </c>
       <c r="L393" s="3">
-        <v>122</v>
-      </c>
-      <c r="M393" s="1">
-        <v>197000</v>
+        <v>133</v>
+      </c>
+      <c r="Q393" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="R393" s="3">
+        <v>3973</v>
+      </c>
+      <c r="S393" s="3">
+        <v>168.5</v>
+      </c>
+      <c r="T393" s="3">
+        <v>3702</v>
       </c>
       <c r="U393" s="3">
-        <v>123.1</v>
+        <v>94</v>
       </c>
       <c r="V393" s="3">
-        <v>5319</v>
+        <v>4062</v>
       </c>
       <c r="W393" s="3">
-        <v>195</v>
+        <v>170.1</v>
       </c>
       <c r="X393" s="3">
-        <v>3891</v>
+        <v>3731</v>
       </c>
       <c r="Z393" t="s">
-        <v>386</v>
+        <v>110</v>
       </c>
     </row>
     <row r="394" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C394" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D394" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F394" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G394" t="s">
-        <v>655</v>
+        <v>717</v>
+      </c>
+      <c r="J394" s="3">
+        <v>6</v>
       </c>
       <c r="L394" s="3">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="Q394" s="3">
-        <v>126.6</v>
+        <v>185.9</v>
       </c>
       <c r="R394" s="3">
-        <v>5245</v>
+        <v>5885</v>
       </c>
       <c r="S394" s="3">
-        <v>225.8</v>
+        <v>230.5</v>
       </c>
       <c r="T394" s="3">
-        <v>3364</v>
+        <v>5266</v>
       </c>
       <c r="U394" s="3">
-        <v>138.80000000000001</v>
+        <v>189.3</v>
       </c>
       <c r="V394" s="3">
-        <v>5784</v>
+        <v>5956</v>
       </c>
       <c r="W394" s="3">
-        <v>2440</v>
+        <v>236.6</v>
       </c>
       <c r="X394" s="3">
-        <v>3011</v>
+        <v>5217</v>
       </c>
       <c r="Z394" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="395" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C395" s="4">
+      <c r="B395">
         <v>5</v>
-      </c>
-      <c r="D395" t="s">
-        <v>52</v>
-      </c>
-      <c r="E395" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F395" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G395" t="s">
-        <v>657</v>
-      </c>
-      <c r="L395" s="3">
-        <v>102</v>
-      </c>
-      <c r="M395" s="1">
-        <v>550881</v>
-      </c>
-      <c r="Q395" s="3">
-        <v>90.8</v>
-      </c>
-      <c r="R395" s="3">
-        <v>5587</v>
-      </c>
-      <c r="S395" s="3">
-        <v>127.1</v>
-      </c>
-      <c r="T395" s="3">
-        <v>4187</v>
-      </c>
-      <c r="U395" s="3">
-        <v>97.5</v>
-      </c>
-      <c r="V395" s="3">
-        <v>5617</v>
-      </c>
-      <c r="W395" s="3">
-        <v>137.19999999999999</v>
-      </c>
-      <c r="X395" s="3">
-        <v>4055</v>
-      </c>
-      <c r="Z395" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="396" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C396" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D396" t="s">
-        <v>52</v>
+        <v>412</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J396" s="3">
-        <v>5</v>
+        <v>147</v>
+      </c>
+      <c r="G396" t="s">
+        <v>576</v>
       </c>
       <c r="L396" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q396" s="3">
-        <v>113.3</v>
-      </c>
-      <c r="R396" s="3">
-        <v>6022</v>
-      </c>
-      <c r="S396" s="3">
-        <v>163.69999999999999</v>
-      </c>
-      <c r="T396" s="3">
-        <v>3992</v>
+        <v>200</v>
       </c>
       <c r="U396" s="3">
-        <v>117.4</v>
+        <v>191.2</v>
       </c>
       <c r="V396" s="3">
-        <v>5951</v>
+        <v>8095</v>
       </c>
       <c r="W396" s="3">
-        <v>168.2</v>
+        <v>184</v>
       </c>
       <c r="X396" s="3">
-        <v>3955</v>
+        <v>6394</v>
       </c>
       <c r="Z396" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="397" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C397" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D397" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="H397" s="3" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="L397" s="3">
-        <v>150</v>
-      </c>
-      <c r="M397" s="1">
-        <v>200000</v>
+        <v>95</v>
+      </c>
+      <c r="Q397" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="R397" s="3">
+        <v>6130</v>
+      </c>
+      <c r="S397" s="3">
+        <v>89.8</v>
+      </c>
+      <c r="T397" s="3">
+        <v>6020</v>
       </c>
       <c r="U397" s="3">
-        <v>148.30000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="V397" s="3">
-        <v>3922</v>
+        <v>6094</v>
       </c>
       <c r="W397" s="3">
-        <v>334.3</v>
+        <v>91.7</v>
       </c>
       <c r="X397" s="3">
-        <v>2422</v>
+        <v>5966</v>
       </c>
       <c r="Z397" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="AA397" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="AB397" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="AD397" s="4">
-        <v>490</v>
+        <v>100</v>
       </c>
     </row>
     <row r="398" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C398" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D398" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>663</v>
+        <v>463</v>
       </c>
       <c r="G398" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="J398" s="3">
-        <v>8</v>
-      </c>
-      <c r="N398" s="3">
-        <v>1969</v>
+        <v>6</v>
+      </c>
+      <c r="L398" s="3">
+        <v>231</v>
+      </c>
+      <c r="M398" s="1">
+        <v>377473</v>
       </c>
       <c r="Q398" s="3">
-        <v>328.3</v>
+        <v>199.6</v>
       </c>
       <c r="R398" s="3">
-        <v>4379</v>
+        <v>6123</v>
       </c>
       <c r="S398" s="3">
-        <v>552.79999999999995</v>
+        <v>268.2</v>
       </c>
       <c r="T398" s="3">
-        <v>4015</v>
+        <v>3625</v>
       </c>
       <c r="U398" s="3">
-        <v>339.5</v>
+        <v>202.2</v>
       </c>
       <c r="V398" s="3">
-        <v>5125</v>
+        <v>6211</v>
       </c>
       <c r="W398" s="3">
-        <v>559.9</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="X398" s="3">
-        <v>3873</v>
+        <v>3618</v>
+      </c>
+      <c r="Z398" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA398" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB398" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD398" s="4">
+        <v>252</v>
       </c>
     </row>
     <row r="399" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C399" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D399" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>607</v>
+        <v>686</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>373</v>
+        <v>147</v>
       </c>
       <c r="G399" t="s">
-        <v>667</v>
-      </c>
-      <c r="J399" s="3">
-        <v>5</v>
+        <v>576</v>
       </c>
       <c r="L399" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q399" s="3">
-        <v>107.3</v>
-      </c>
-      <c r="R399" s="3">
-        <v>5214</v>
-      </c>
-      <c r="S399" s="3">
-        <v>163</v>
-      </c>
-      <c r="T399" s="3">
-        <v>3028</v>
+        <v>240</v>
       </c>
       <c r="U399" s="3">
-        <v>113.6</v>
+        <v>261.8</v>
       </c>
       <c r="V399" s="3">
-        <v>5412</v>
+        <v>5721</v>
       </c>
       <c r="W399" s="3">
-        <v>169.7</v>
+        <v>406.3</v>
       </c>
       <c r="X399" s="3">
-        <v>3674</v>
-      </c>
-      <c r="Z399" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA399" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB399" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD399" s="4">
-        <v>580</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="400" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C400" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D400" t="s">
-        <v>28</v>
-      </c>
-      <c r="E400" s="4" t="s">
-        <v>668</v>
+        <v>52</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J400" s="3">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="G400" t="s">
+        <v>424</v>
+      </c>
+      <c r="K400" t="s">
+        <v>76</v>
       </c>
       <c r="L400" s="3">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="M400" s="1">
+        <v>137872</v>
       </c>
       <c r="Q400" s="3">
-        <v>178.2</v>
+        <v>97</v>
       </c>
       <c r="R400" s="3">
-        <v>6323</v>
+        <v>5372</v>
       </c>
       <c r="S400" s="3">
-        <v>213.5</v>
+        <v>168.8</v>
       </c>
       <c r="T400" s="3">
-        <v>5093</v>
+        <v>3490</v>
       </c>
       <c r="U400" s="3">
-        <v>179.5</v>
+        <v>97.3</v>
       </c>
       <c r="V400" s="3">
-        <v>6252</v>
+        <v>5749</v>
       </c>
       <c r="W400" s="3">
-        <v>216.8</v>
+        <v>147.9</v>
       </c>
       <c r="X400" s="3">
-        <v>5084</v>
+        <v>3325</v>
       </c>
       <c r="Z400" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
     </row>
     <row r="401" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C401" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D401" t="s">
         <v>44</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="G401" t="s">
-        <v>670</v>
+        <v>687</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J401" s="3">
+        <v>6</v>
       </c>
       <c r="L401" s="3">
-        <v>136</v>
+        <v>174</v>
+      </c>
+      <c r="M401" s="1">
+        <v>320000</v>
+      </c>
+      <c r="N401" s="3">
+        <v>1983</v>
       </c>
       <c r="U401" s="3">
-        <v>125.1</v>
+        <v>186.8</v>
       </c>
       <c r="V401" s="3">
-        <v>5351</v>
+        <v>5977</v>
       </c>
       <c r="W401" s="3">
-        <v>190.2</v>
+        <v>237.9</v>
       </c>
       <c r="X401" s="3">
-        <v>4523</v>
+        <v>4499</v>
       </c>
       <c r="Z401" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
     </row>
     <row r="402" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C402" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D402" t="s">
-        <v>671</v>
+        <v>28</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>672</v>
+        <v>464</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H402" s="3" t="s">
-        <v>46</v>
+        <v>147</v>
+      </c>
+      <c r="J402" s="3">
+        <v>6</v>
       </c>
       <c r="L402" s="3">
-        <v>145</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M402" s="1"/>
       <c r="Q402" s="3">
-        <v>145.6</v>
+        <v>158.5</v>
       </c>
       <c r="R402" s="3">
-        <v>3370</v>
+        <v>6233</v>
       </c>
       <c r="S402" s="3">
-        <v>383.7</v>
+        <v>188.2</v>
       </c>
       <c r="T402" s="3">
-        <v>2295</v>
+        <v>4832</v>
       </c>
       <c r="U402" s="3">
-        <v>147</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V402" s="3">
-        <v>3405</v>
+        <v>6308</v>
       </c>
       <c r="W402" s="3">
-        <v>386.1</v>
+        <v>191.7</v>
       </c>
       <c r="X402" s="3">
-        <v>2295</v>
-      </c>
-      <c r="Z402" t="s">
-        <v>64</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="403" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C403" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D403" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="E403" s="4" t="s">
+        <v>688</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>342</v>
+        <v>147</v>
+      </c>
+      <c r="H403" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L403" s="3">
-        <v>131</v>
-      </c>
-      <c r="M403" s="1">
-        <v>300000</v>
+        <v>140</v>
+      </c>
+      <c r="M403" s="1"/>
+      <c r="Q403" s="3">
+        <v>197.4</v>
+      </c>
+      <c r="R403" s="3">
+        <v>4140</v>
+      </c>
+      <c r="S403" s="3">
+        <v>445.5</v>
+      </c>
+      <c r="T403" s="3">
+        <v>2125</v>
       </c>
       <c r="U403" s="3">
-        <v>128.9</v>
+        <v>197.4</v>
       </c>
       <c r="V403" s="3">
-        <v>4106</v>
+        <v>4141</v>
       </c>
       <c r="W403" s="3">
-        <v>317.2</v>
+        <v>449.4</v>
       </c>
       <c r="X403" s="3">
-        <v>2094</v>
+        <v>2171</v>
       </c>
       <c r="Z403" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA403" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB403" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD403" s="4">
-        <v>180</v>
+        <v>330</v>
       </c>
     </row>
     <row r="404" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C404" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D404" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>475</v>
+        <v>689</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G404" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="L404" s="3">
-        <v>193</v>
-      </c>
-      <c r="M404" s="1">
-        <v>335000</v>
-      </c>
-      <c r="Q404" s="3">
-        <v>193.1</v>
-      </c>
-      <c r="R404" s="3">
-        <v>6562</v>
-      </c>
-      <c r="S404" s="3">
-        <v>262</v>
-      </c>
-      <c r="T404" s="3">
-        <v>195.3</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M404" s="1"/>
       <c r="U404" s="3">
-        <v>195.3</v>
+        <v>226.2</v>
       </c>
       <c r="V404" s="3">
-        <v>6605</v>
+        <v>6399</v>
       </c>
       <c r="W404" s="3">
-        <v>267.60000000000002</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="X404" s="3">
-        <v>3696</v>
+        <v>3371</v>
       </c>
       <c r="Z404" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA404" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB404" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD404" s="4">
-        <v>250</v>
+        <v>156</v>
       </c>
     </row>
     <row r="405" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B405">
-        <v>3</v>
+      <c r="C405" s="4">
+        <v>10</v>
+      </c>
+      <c r="D405" t="s">
+        <v>691</v>
+      </c>
+      <c r="E405" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G405" t="s">
+        <v>690</v>
+      </c>
+      <c r="L405" s="3">
+        <v>245</v>
+      </c>
+      <c r="M405" s="1">
+        <v>8000</v>
+      </c>
+      <c r="U405" s="3">
+        <v>302.3</v>
+      </c>
+      <c r="V405" s="3">
+        <v>6386</v>
+      </c>
+      <c r="W405" s="3">
+        <v>424.8</v>
+      </c>
+      <c r="X405" s="3">
+        <v>3147</v>
+      </c>
+      <c r="Z405" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="406" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C406" s="4">
-        <v>1</v>
-      </c>
-      <c r="D406" t="s">
-        <v>197</v>
-      </c>
-      <c r="E406" s="4">
-        <v>968</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L406" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q406" s="3">
-        <v>213.8</v>
-      </c>
-      <c r="R406" s="3">
-        <v>6430</v>
-      </c>
-      <c r="S406" s="3">
-        <v>272.3</v>
-      </c>
-      <c r="T406" s="3">
-        <v>4390</v>
-      </c>
-      <c r="U406" s="3">
-        <v>216.9</v>
-      </c>
-      <c r="V406" s="3">
-        <v>6411</v>
-      </c>
-      <c r="W406" s="3">
-        <v>276.2</v>
-      </c>
-      <c r="X406" s="3">
-        <v>4383</v>
-      </c>
-      <c r="Z406" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA406" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB406" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD406" s="4">
-        <v>400</v>
+      <c r="B406">
+        <v>4</v>
       </c>
     </row>
     <row r="407" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C407" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D407" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="G407" t="s">
-        <v>634</v>
+        <v>650</v>
+      </c>
+      <c r="K407" t="s">
+        <v>76</v>
       </c>
       <c r="L407" s="3">
-        <v>165</v>
+        <v>140</v>
+      </c>
+      <c r="Q407" s="3">
+        <v>154.6</v>
+      </c>
+      <c r="R407" s="3">
+        <v>39115</v>
+      </c>
+      <c r="S407" s="3">
+        <v>367.9</v>
+      </c>
+      <c r="T407" s="3">
+        <v>2264</v>
       </c>
       <c r="U407" s="3">
-        <v>205.7</v>
+        <v>154.9</v>
       </c>
       <c r="V407" s="3">
-        <v>5632</v>
+        <v>3982</v>
       </c>
       <c r="W407" s="3">
-        <v>328.8</v>
+        <v>368.3</v>
       </c>
       <c r="X407" s="3">
-        <v>3799</v>
+        <v>2346</v>
+      </c>
+      <c r="Z407" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="408" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C408" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D408" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="F408" s="2" t="s">
-        <v>147</v>
+        <v>651</v>
       </c>
       <c r="L408" s="3">
-        <v>230</v>
+        <v>241</v>
+      </c>
+      <c r="Q408" s="3">
+        <v>227.4</v>
+      </c>
+      <c r="R408" s="3">
+        <v>5706</v>
+      </c>
+      <c r="S408" s="3">
+        <v>329.2</v>
+      </c>
+      <c r="T408" s="3">
+        <v>3772</v>
       </c>
       <c r="U408" s="3">
-        <v>243.4</v>
+        <v>216.6</v>
       </c>
       <c r="V408" s="3">
-        <v>5400</v>
+        <v>5120</v>
       </c>
       <c r="W408" s="3">
-        <v>354.6</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="X408" s="3">
-        <v>3056</v>
-      </c>
-      <c r="Z408" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA408" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB408" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD408" s="4">
-        <v>70</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="409" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C409" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D409" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J409" s="3">
-        <v>5</v>
+        <v>206</v>
+      </c>
+      <c r="G409" t="s">
+        <v>653</v>
       </c>
       <c r="L409" s="3">
-        <v>305</v>
-      </c>
-      <c r="Q409" s="3">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="R409" s="3">
-        <v>6190</v>
-      </c>
-      <c r="S409" s="3">
-        <v>404.5</v>
-      </c>
-      <c r="T409" s="3">
-        <v>4616</v>
+        <v>122</v>
+      </c>
+      <c r="M409" s="1">
+        <v>197000</v>
       </c>
       <c r="U409" s="3">
-        <v>293.10000000000002</v>
+        <v>123.1</v>
       </c>
       <c r="V409" s="3">
-        <v>6708</v>
+        <v>5319</v>
       </c>
       <c r="W409" s="3">
-        <v>405.5</v>
+        <v>195</v>
       </c>
       <c r="X409" s="3">
-        <v>4650</v>
+        <v>3891</v>
       </c>
       <c r="Z409" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA409" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB409" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD409" s="4">
-        <v>70</v>
+        <v>386</v>
       </c>
     </row>
     <row r="410" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C410" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D410" t="s">
         <v>44</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>206</v>
+        <v>656</v>
+      </c>
+      <c r="G410" t="s">
+        <v>655</v>
       </c>
       <c r="L410" s="3">
-        <v>75</v>
-      </c>
-      <c r="M410" s="1">
-        <v>226000</v>
+        <v>115</v>
       </c>
       <c r="Q410" s="3">
-        <v>76.5</v>
+        <v>126.6</v>
       </c>
       <c r="R410" s="3">
-        <v>5116</v>
+        <v>5245</v>
       </c>
       <c r="S410" s="3">
-        <v>115.9</v>
+        <v>225.8</v>
       </c>
       <c r="T410" s="3">
-        <v>3629</v>
+        <v>3364</v>
       </c>
       <c r="U410" s="3">
-        <v>77.099999999999994</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="V410" s="3">
-        <v>4943</v>
+        <v>5784</v>
       </c>
       <c r="W410" s="3">
-        <v>115.9</v>
+        <v>2440</v>
       </c>
       <c r="X410" s="3">
-        <v>3522</v>
+        <v>3011</v>
       </c>
       <c r="Z410" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA410" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB410" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD410" s="4">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="411" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C411" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D411" t="s">
         <v>52</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>640</v>
+        <v>338</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>147</v>
+        <v>207</v>
+      </c>
+      <c r="G411" t="s">
+        <v>657</v>
       </c>
       <c r="L411" s="3">
-        <v>150</v>
+        <v>102</v>
+      </c>
+      <c r="M411" s="1">
+        <v>550881</v>
+      </c>
+      <c r="Q411" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="R411" s="3">
+        <v>5587</v>
+      </c>
+      <c r="S411" s="3">
+        <v>127.1</v>
+      </c>
+      <c r="T411" s="3">
+        <v>4187</v>
       </c>
       <c r="U411" s="3">
-        <v>186.1</v>
+        <v>97.5</v>
       </c>
       <c r="V411" s="3">
-        <v>3265</v>
+        <v>5617</v>
       </c>
       <c r="W411" s="3">
-        <v>451.4</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="X411" s="3">
-        <v>2059</v>
+        <v>4055</v>
       </c>
       <c r="Z411" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA411" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB411" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD411" s="4">
-        <v>220</v>
+        <v>152</v>
       </c>
     </row>
     <row r="412" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C412" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D412" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>643</v>
+        <v>607</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="J412" s="3">
-        <v>8</v>
-      </c>
-      <c r="K412" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="L412" s="3">
-        <v>306</v>
-      </c>
-      <c r="M412" s="1">
-        <v>303000</v>
+        <v>133</v>
       </c>
       <c r="Q412" s="3">
-        <v>248</v>
+        <v>113.3</v>
       </c>
       <c r="R412" s="3">
-        <v>5970</v>
+        <v>6022</v>
       </c>
       <c r="S412" s="3">
-        <v>339.7</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="T412" s="3">
-        <v>3305</v>
+        <v>3992</v>
       </c>
       <c r="U412" s="3">
-        <v>247.9</v>
+        <v>117.4</v>
       </c>
       <c r="V412" s="3">
-        <v>6245</v>
+        <v>5951</v>
       </c>
       <c r="W412" s="3">
-        <v>342.5</v>
+        <v>168.2</v>
       </c>
       <c r="X412" s="3">
-        <v>3314</v>
+        <v>3955</v>
       </c>
       <c r="Z412" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA412" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB412" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD412" s="4">
-        <v>30</v>
+        <v>386</v>
       </c>
     </row>
     <row r="413" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C413" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D413" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>413</v>
+        <v>660</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G413" t="s">
-        <v>644</v>
+        <v>661</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L413" s="3">
-        <v>125</v>
+        <v>150</v>
+      </c>
+      <c r="M413" s="1">
+        <v>200000</v>
       </c>
       <c r="U413" s="3">
-        <v>137</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="V413" s="3">
-        <v>7319</v>
+        <v>3922</v>
       </c>
       <c r="W413" s="3">
-        <v>134.5</v>
+        <v>334.3</v>
       </c>
       <c r="X413" s="3">
-        <v>7076</v>
+        <v>2422</v>
+      </c>
+      <c r="Z413" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB413" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD413" s="4">
+        <v>490</v>
       </c>
     </row>
     <row r="414" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C414" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D414" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>635</v>
+        <v>663</v>
+      </c>
+      <c r="G414" t="s">
+        <v>664</v>
       </c>
       <c r="J414" s="3">
         <v>8</v>
       </c>
-      <c r="L414" s="3">
-        <v>367</v>
+      <c r="N414" s="3">
+        <v>1969</v>
+      </c>
+      <c r="Q414" s="3">
+        <v>328.3</v>
+      </c>
+      <c r="R414" s="3">
+        <v>4379</v>
+      </c>
+      <c r="S414" s="3">
+        <v>552.79999999999995</v>
+      </c>
+      <c r="T414" s="3">
+        <v>4015</v>
       </c>
       <c r="U414" s="3">
-        <v>312.8</v>
+        <v>339.5</v>
       </c>
       <c r="V414" s="3">
-        <v>6550</v>
+        <v>5125</v>
       </c>
       <c r="W414" s="3">
-        <v>410.4</v>
+        <v>559.9</v>
       </c>
       <c r="X414" s="3">
-        <v>4479</v>
-      </c>
-      <c r="Z414" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA414" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB414" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD414" s="4">
-        <v>45</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="415" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C415" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D415" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E415" s="4" t="s">
-        <v>646</v>
+        <v>607</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>474</v>
+        <v>373</v>
       </c>
       <c r="G415" t="s">
-        <v>606</v>
+        <v>667</v>
+      </c>
+      <c r="J415" s="3">
+        <v>5</v>
       </c>
       <c r="L415" s="3">
-        <v>220</v>
-      </c>
-      <c r="N415" s="3">
-        <v>1981</v>
+        <v>133</v>
+      </c>
+      <c r="Q415" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="R415" s="3">
+        <v>5214</v>
+      </c>
+      <c r="S415" s="3">
+        <v>163</v>
+      </c>
+      <c r="T415" s="3">
+        <v>3028</v>
       </c>
       <c r="U415" s="3">
-        <v>190.7</v>
+        <v>113.6</v>
       </c>
       <c r="V415" s="3">
-        <v>6165</v>
+        <v>5412</v>
       </c>
       <c r="W415" s="3">
-        <v>280.89999999999998</v>
+        <v>169.7</v>
       </c>
       <c r="X415" s="3">
-        <v>4193</v>
+        <v>3674</v>
       </c>
       <c r="Z415" t="s">
-        <v>104</v>
+        <v>665</v>
       </c>
       <c r="AA415" t="s">
-        <v>105</v>
+        <v>666</v>
       </c>
       <c r="AB415" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AD415" s="4">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="416" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C416" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D416" t="s">
         <v>28</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
       <c r="J416" s="3">
         <v>6</v>
       </c>
       <c r="L416" s="3">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="Q416" s="3">
-        <v>336.6</v>
+        <v>178.2</v>
       </c>
       <c r="R416" s="3">
-        <v>5778</v>
+        <v>6323</v>
       </c>
       <c r="S416" s="3">
-        <v>550</v>
+        <v>213.5</v>
       </c>
       <c r="T416" s="3">
-        <v>4222</v>
+        <v>5093</v>
       </c>
       <c r="U416" s="3">
-        <v>341.5</v>
+        <v>179.5</v>
       </c>
       <c r="V416" s="3">
-        <v>4394</v>
+        <v>6252</v>
       </c>
       <c r="W416" s="3">
-        <v>557.29999999999995</v>
+        <v>216.8</v>
       </c>
       <c r="X416" s="3">
-        <v>4310</v>
+        <v>5084</v>
       </c>
       <c r="Z416" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA416" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB416" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD416" s="4">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="417" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B417">
-        <v>2</v>
+      <c r="C417" s="4">
+        <v>11</v>
+      </c>
+      <c r="D417" t="s">
+        <v>44</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="G417" t="s">
+        <v>670</v>
+      </c>
+      <c r="L417" s="3">
+        <v>136</v>
+      </c>
+      <c r="U417" s="3">
+        <v>125.1</v>
+      </c>
+      <c r="V417" s="3">
+        <v>5351</v>
+      </c>
+      <c r="W417" s="3">
+        <v>190.2</v>
+      </c>
+      <c r="X417" s="3">
+        <v>4523</v>
+      </c>
+      <c r="Z417" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="418" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C418" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D418" t="s">
-        <v>528</v>
+        <v>671</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>208</v>
+        <v>602</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L418" s="3">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q418" s="3">
-        <v>184.2</v>
+        <v>145.6</v>
       </c>
       <c r="R418" s="3">
-        <v>6393</v>
+        <v>3370</v>
       </c>
       <c r="S418" s="3">
-        <v>236.7</v>
+        <v>383.7</v>
       </c>
       <c r="T418" s="3">
-        <v>4499</v>
+        <v>2295</v>
       </c>
       <c r="U418" s="3">
-        <v>186.4</v>
+        <v>147</v>
       </c>
       <c r="V418" s="3">
-        <v>6385</v>
+        <v>3405</v>
       </c>
       <c r="W418" s="3">
-        <v>234.9</v>
+        <v>386.1</v>
       </c>
       <c r="X418" s="3">
-        <v>4542</v>
+        <v>2295</v>
       </c>
       <c r="Z418" t="s">
-        <v>596</v>
-      </c>
-      <c r="AA418" t="s">
-        <v>597</v>
-      </c>
-      <c r="AB418" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD418" s="4">
-        <v>385</v>
+        <v>64</v>
       </c>
     </row>
     <row r="419" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C419" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D419" t="s">
-        <v>106</v>
-      </c>
-      <c r="E419" s="4" t="s">
-        <v>601</v>
+        <v>52</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K419" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="L419" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q419" s="3">
-        <v>167</v>
-      </c>
-      <c r="R419" s="3">
-        <v>6189</v>
-      </c>
-      <c r="S419" s="3">
-        <v>226.7</v>
-      </c>
-      <c r="T419" s="3">
-        <v>3026</v>
+        <v>131</v>
+      </c>
+      <c r="M419" s="1">
+        <v>300000</v>
       </c>
       <c r="U419" s="3">
-        <v>167.6</v>
+        <v>128.9</v>
       </c>
       <c r="V419" s="3">
-        <v>6627</v>
+        <v>4106</v>
       </c>
       <c r="W419" s="3">
-        <v>232</v>
+        <v>317.2</v>
       </c>
       <c r="X419" s="3">
-        <v>3046</v>
+        <v>2094</v>
       </c>
       <c r="Z419" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="AA419" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="AB419" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD419" s="4">
-        <v>75</v>
+        <v>180</v>
       </c>
     </row>
     <row r="420" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C420" s="4">
+        <v>14</v>
+      </c>
+      <c r="D420" t="s">
+        <v>28</v>
+      </c>
+      <c r="E420" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G420" t="s">
+        <v>677</v>
+      </c>
+      <c r="L420" s="3">
+        <v>193</v>
+      </c>
+      <c r="M420" s="1">
+        <v>335000</v>
+      </c>
+      <c r="Q420" s="3">
+        <v>193.1</v>
+      </c>
+      <c r="R420" s="3">
+        <v>6562</v>
+      </c>
+      <c r="S420" s="3">
+        <v>262</v>
+      </c>
+      <c r="T420" s="3">
+        <v>195.3</v>
+      </c>
+      <c r="U420" s="3">
+        <v>195.3</v>
+      </c>
+      <c r="V420" s="3">
+        <v>6605</v>
+      </c>
+      <c r="W420" s="3">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="X420" s="3">
+        <v>3696</v>
+      </c>
+      <c r="Z420" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA420" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB420" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD420" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="421" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B421">
         <v>3</v>
-      </c>
-      <c r="D420" t="s">
-        <v>106</v>
-      </c>
-      <c r="E420" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G420" t="s">
-        <v>606</v>
-      </c>
-      <c r="K420" t="s">
-        <v>76</v>
-      </c>
-      <c r="L420" s="3">
-        <v>180</v>
-      </c>
-      <c r="U420" s="3">
-        <v>160.6</v>
-      </c>
-      <c r="V420" s="3">
-        <v>5334</v>
-      </c>
-      <c r="W420" s="3">
-        <v>200.5</v>
-      </c>
-      <c r="X420" s="3">
-        <v>4806</v>
-      </c>
-      <c r="Z420" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA420" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB420" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD420" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C421" s="4">
-        <v>4</v>
-      </c>
-      <c r="D421" t="s">
-        <v>52</v>
-      </c>
-      <c r="E421" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F421" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J421" s="3">
-        <v>6</v>
-      </c>
-      <c r="L421" s="3">
-        <v>150</v>
-      </c>
-      <c r="M421" s="1">
-        <v>293000</v>
-      </c>
-      <c r="U421" s="3">
-        <v>142.4</v>
-      </c>
-      <c r="V421" s="3">
-        <v>4907</v>
-      </c>
-      <c r="W421" s="3">
-        <v>234.4</v>
-      </c>
-      <c r="X421" s="3">
-        <v>3859</v>
-      </c>
-      <c r="Z421" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA421" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB421" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD421" s="4">
-        <v>413</v>
       </c>
     </row>
     <row r="422" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C422" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D422" t="s">
-        <v>44</v>
-      </c>
-      <c r="E422" s="4" t="s">
-        <v>608</v>
+        <v>197</v>
+      </c>
+      <c r="E422" s="4">
+        <v>968</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G422" t="s">
-        <v>609</v>
+        <v>463</v>
       </c>
       <c r="L422" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q422" s="3">
-        <v>122</v>
+        <v>213.8</v>
       </c>
       <c r="R422" s="3">
-        <v>6640</v>
+        <v>6430</v>
       </c>
       <c r="S422" s="3">
-        <v>149.1</v>
+        <v>272.3</v>
       </c>
       <c r="T422" s="3">
-        <v>3067</v>
+        <v>4390</v>
       </c>
       <c r="U422" s="3">
-        <v>130.1</v>
+        <v>216.9</v>
       </c>
       <c r="V422" s="3">
-        <v>6687</v>
+        <v>6411</v>
       </c>
       <c r="W422" s="3">
-        <v>154.9</v>
+        <v>276.2</v>
       </c>
       <c r="X422" s="3">
-        <v>3043</v>
+        <v>4383</v>
       </c>
       <c r="Z422" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
       <c r="AA422" t="s">
-        <v>553</v>
+        <v>633</v>
       </c>
       <c r="AB422" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AD422" s="4">
-        <v>120</v>
+        <v>400</v>
       </c>
     </row>
     <row r="423" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C423" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D423" t="s">
         <v>52</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J423" s="3">
-        <v>5</v>
-      </c>
-      <c r="K423" t="s">
-        <v>76</v>
+        <v>205</v>
+      </c>
+      <c r="G423" t="s">
+        <v>634</v>
       </c>
       <c r="L423" s="3">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="U423" s="3">
-        <v>115.1</v>
+        <v>205.7</v>
       </c>
       <c r="V423" s="3">
-        <v>6028</v>
+        <v>5632</v>
       </c>
       <c r="W423" s="3">
-        <v>169.6</v>
+        <v>328.8</v>
       </c>
       <c r="X423" s="3">
-        <v>2501</v>
-      </c>
-      <c r="Z423" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA423" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC423" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD423" s="4">
-        <v>650</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="424" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C424" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D424" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G424" t="s">
-        <v>615</v>
-      </c>
       <c r="L424" s="3">
-        <v>265</v>
-      </c>
-      <c r="Q424" s="3">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="R424" s="3">
-        <v>6022</v>
-      </c>
-      <c r="S424" s="3">
-        <v>375.1</v>
-      </c>
-      <c r="T424" s="3">
-        <v>3212</v>
+        <v>230</v>
       </c>
       <c r="U424" s="3">
-        <v>283.60000000000002</v>
+        <v>243.4</v>
       </c>
       <c r="V424" s="3">
-        <v>5525</v>
+        <v>5400</v>
       </c>
       <c r="W424" s="3">
-        <v>398.7</v>
+        <v>354.6</v>
       </c>
       <c r="X424" s="3">
-        <v>3621</v>
+        <v>3056</v>
       </c>
       <c r="Z424" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="AA424" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="AB424" t="s">
         <v>42</v>
       </c>
       <c r="AD424" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="425" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C425" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D425" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G425" t="s">
-        <v>618</v>
+        <v>638</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J425" s="3">
+        <v>5</v>
       </c>
       <c r="L425" s="3">
-        <v>129</v>
+        <v>305</v>
+      </c>
+      <c r="Q425" s="3">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="R425" s="3">
+        <v>6190</v>
+      </c>
+      <c r="S425" s="3">
+        <v>404.5</v>
+      </c>
+      <c r="T425" s="3">
+        <v>4616</v>
       </c>
       <c r="U425" s="3">
-        <v>181</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="V425" s="3">
-        <v>5896</v>
+        <v>6708</v>
       </c>
       <c r="W425" s="3">
-        <v>233</v>
+        <v>405.5</v>
       </c>
       <c r="X425" s="3">
-        <v>5296</v>
+        <v>4650</v>
       </c>
       <c r="Z425" t="s">
-        <v>616</v>
+        <v>446</v>
       </c>
       <c r="AA425" t="s">
-        <v>617</v>
+        <v>447</v>
       </c>
       <c r="AB425" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD425" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="426" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C426" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D426" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G426" t="s">
-        <v>623</v>
-      </c>
-      <c r="J426" s="3">
-        <v>5</v>
+        <v>206</v>
+      </c>
+      <c r="L426" s="3">
+        <v>75</v>
+      </c>
+      <c r="M426" s="1">
+        <v>226000</v>
+      </c>
+      <c r="Q426" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="R426" s="3">
+        <v>5116</v>
+      </c>
+      <c r="S426" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="T426" s="3">
+        <v>3629</v>
       </c>
       <c r="U426" s="3">
-        <v>227.8</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V426" s="3">
-        <v>5921</v>
+        <v>4943</v>
       </c>
       <c r="W426" s="3">
-        <v>343</v>
+        <v>115.9</v>
       </c>
       <c r="X426" s="3">
-        <v>4521</v>
+        <v>3522</v>
       </c>
       <c r="Z426" t="s">
-        <v>620</v>
+        <v>446</v>
       </c>
       <c r="AA426" t="s">
-        <v>621</v>
+        <v>447</v>
       </c>
       <c r="AB426" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD426" s="4">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="427" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C427" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D427" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>626</v>
+        <v>640</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="L427" s="3">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="U427" s="3">
-        <v>133.4</v>
+        <v>186.1</v>
       </c>
       <c r="V427" s="3">
-        <v>6587</v>
+        <v>3265</v>
       </c>
       <c r="W427" s="3">
-        <v>148.5</v>
+        <v>451.4</v>
       </c>
       <c r="X427" s="3">
-        <v>4539</v>
+        <v>2059</v>
       </c>
       <c r="Z427" t="s">
-        <v>624</v>
+        <v>189</v>
       </c>
       <c r="AA427" t="s">
-        <v>625</v>
+        <v>190</v>
       </c>
       <c r="AB427" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AD427" s="4">
-        <v>80</v>
+        <v>220</v>
       </c>
     </row>
     <row r="428" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C428" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D428" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G428" t="s">
-        <v>576</v>
-      </c>
-      <c r="H428" s="3" t="s">
-        <v>46</v>
+        <v>643</v>
+      </c>
+      <c r="J428" s="3">
+        <v>8</v>
+      </c>
+      <c r="K428" t="s">
+        <v>76</v>
       </c>
       <c r="L428" s="3">
-        <v>131</v>
+        <v>306</v>
+      </c>
+      <c r="M428" s="1">
+        <v>303000</v>
       </c>
       <c r="Q428" s="3">
-        <v>158.69999999999999</v>
+        <v>248</v>
       </c>
       <c r="R428" s="3">
-        <v>4020</v>
+        <v>5970</v>
       </c>
       <c r="S428" s="3">
-        <v>348.9</v>
+        <v>339.7</v>
       </c>
       <c r="T428" s="3">
-        <v>2359</v>
+        <v>3305</v>
       </c>
       <c r="U428" s="3">
-        <v>160.6</v>
+        <v>247.9</v>
       </c>
       <c r="V428" s="3">
-        <v>4049</v>
+        <v>6245</v>
       </c>
       <c r="W428" s="3">
-        <v>350.3</v>
+        <v>342.5</v>
       </c>
       <c r="X428" s="3">
-        <v>2430</v>
+        <v>3314</v>
       </c>
       <c r="Z428" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="AA428" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="AB428" t="s">
         <v>42</v>
       </c>
       <c r="AD428" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="429" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C429" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D429" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>630</v>
+        <v>413</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="G429" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="L429" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q429" s="3">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="R429" s="3">
-        <v>6258</v>
-      </c>
-      <c r="S429" s="3">
-        <v>449.1</v>
-      </c>
-      <c r="T429" s="3">
-        <v>3927</v>
+        <v>125</v>
       </c>
       <c r="U429" s="3">
-        <v>308.89999999999998</v>
+        <v>137</v>
       </c>
       <c r="V429" s="3">
-        <v>6376</v>
+        <v>7319</v>
       </c>
       <c r="W429" s="3">
-        <v>447.1</v>
+        <v>134.5</v>
       </c>
       <c r="X429" s="3">
-        <v>3904</v>
-      </c>
-      <c r="Z429" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA429" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB429" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD429" s="4">
-        <v>45</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="430" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C430" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D430" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K430" t="s">
-        <v>76</v>
+        <v>635</v>
+      </c>
+      <c r="J430" s="3">
+        <v>8</v>
       </c>
       <c r="L430" s="3">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="U430" s="3">
-        <v>205</v>
+        <v>312.8</v>
+      </c>
+      <c r="V430" s="3">
+        <v>6550</v>
       </c>
       <c r="W430" s="3">
-        <v>240</v>
+        <v>410.4</v>
+      </c>
+      <c r="X430" s="3">
+        <v>4479</v>
       </c>
       <c r="Z430" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="AA430" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="AB430" t="s">
         <v>42</v>
       </c>
       <c r="AD430" s="4">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="431" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B431">
-        <v>1</v>
+      <c r="C431" s="4">
+        <v>10</v>
+      </c>
+      <c r="D431" t="s">
+        <v>28</v>
+      </c>
+      <c r="E431" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G431" t="s">
+        <v>606</v>
+      </c>
+      <c r="L431" s="3">
+        <v>220</v>
+      </c>
+      <c r="N431" s="3">
+        <v>1981</v>
+      </c>
+      <c r="U431" s="3">
+        <v>190.7</v>
+      </c>
+      <c r="V431" s="3">
+        <v>6165</v>
+      </c>
+      <c r="W431" s="3">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="X431" s="3">
+        <v>4193</v>
+      </c>
+      <c r="Z431" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA431" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB431" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD431" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C432" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D432" t="s">
         <v>28</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>209</v>
+        <v>474</v>
       </c>
       <c r="J432" s="3">
         <v>6</v>
       </c>
       <c r="L432" s="3">
-        <v>193</v>
+        <v>306</v>
+      </c>
+      <c r="Q432" s="3">
+        <v>336.6</v>
+      </c>
+      <c r="R432" s="3">
+        <v>5778</v>
+      </c>
+      <c r="S432" s="3">
+        <v>550</v>
+      </c>
+      <c r="T432" s="3">
+        <v>4222</v>
       </c>
       <c r="U432" s="3">
-        <v>196.4</v>
+        <v>341.5</v>
       </c>
       <c r="V432" s="3">
-        <v>6004</v>
+        <v>4394</v>
       </c>
       <c r="W432" s="3">
-        <v>250</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="X432" s="3">
-        <v>4813</v>
+        <v>4310</v>
       </c>
       <c r="Z432" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="AA432" t="s">
-        <v>70</v>
+        <v>647</v>
       </c>
       <c r="AB432" t="s">
         <v>42</v>
       </c>
       <c r="AD432" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="433" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C434" s="4">
+        <v>1</v>
+      </c>
+      <c r="D434" t="s">
+        <v>528</v>
+      </c>
+      <c r="E434" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L434" s="3">
+        <v>169</v>
+      </c>
+      <c r="Q434" s="3">
+        <v>184.2</v>
+      </c>
+      <c r="R434" s="3">
+        <v>6393</v>
+      </c>
+      <c r="S434" s="3">
+        <v>236.7</v>
+      </c>
+      <c r="T434" s="3">
+        <v>4499</v>
+      </c>
+      <c r="U434" s="3">
+        <v>186.4</v>
+      </c>
+      <c r="V434" s="3">
+        <v>6385</v>
+      </c>
+      <c r="W434" s="3">
+        <v>234.9</v>
+      </c>
+      <c r="X434" s="3">
+        <v>4542</v>
+      </c>
+      <c r="Z434" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA434" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB434" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD434" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="435" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C435" s="4">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>106</v>
+      </c>
+      <c r="E435" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K435" t="s">
+        <v>76</v>
+      </c>
+      <c r="L435" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q435" s="3">
+        <v>167</v>
+      </c>
+      <c r="R435" s="3">
+        <v>6189</v>
+      </c>
+      <c r="S435" s="3">
+        <v>226.7</v>
+      </c>
+      <c r="T435" s="3">
+        <v>3026</v>
+      </c>
+      <c r="U435" s="3">
+        <v>167.6</v>
+      </c>
+      <c r="V435" s="3">
+        <v>6627</v>
+      </c>
+      <c r="W435" s="3">
+        <v>232</v>
+      </c>
+      <c r="X435" s="3">
+        <v>3046</v>
+      </c>
+      <c r="Z435" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA435" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB435" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD435" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C436" s="4">
+        <v>3</v>
+      </c>
+      <c r="D436" t="s">
+        <v>106</v>
+      </c>
+      <c r="E436" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G436" t="s">
+        <v>606</v>
+      </c>
+      <c r="K436" t="s">
+        <v>76</v>
+      </c>
+      <c r="L436" s="3">
+        <v>180</v>
+      </c>
+      <c r="U436" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V436" s="3">
+        <v>5334</v>
+      </c>
+      <c r="W436" s="3">
+        <v>200.5</v>
+      </c>
+      <c r="X436" s="3">
+        <v>4806</v>
+      </c>
+      <c r="Z436" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA436" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB436" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD436" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C437" s="4">
+        <v>4</v>
+      </c>
+      <c r="D437" t="s">
+        <v>52</v>
+      </c>
+      <c r="E437" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J437" s="3">
+        <v>6</v>
+      </c>
+      <c r="L437" s="3">
+        <v>150</v>
+      </c>
+      <c r="M437" s="1">
+        <v>293000</v>
+      </c>
+      <c r="U437" s="3">
+        <v>142.4</v>
+      </c>
+      <c r="V437" s="3">
+        <v>4907</v>
+      </c>
+      <c r="W437" s="3">
+        <v>234.4</v>
+      </c>
+      <c r="X437" s="3">
+        <v>3859</v>
+      </c>
+      <c r="Z437" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA437" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB437" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD437" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="438" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C438" s="4">
+        <v>5</v>
+      </c>
+      <c r="D438" t="s">
+        <v>44</v>
+      </c>
+      <c r="E438" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G438" t="s">
+        <v>609</v>
+      </c>
+      <c r="L438" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q438" s="3">
+        <v>122</v>
+      </c>
+      <c r="R438" s="3">
+        <v>6640</v>
+      </c>
+      <c r="S438" s="3">
+        <v>149.1</v>
+      </c>
+      <c r="T438" s="3">
+        <v>3067</v>
+      </c>
+      <c r="U438" s="3">
+        <v>130.1</v>
+      </c>
+      <c r="V438" s="3">
+        <v>6687</v>
+      </c>
+      <c r="W438" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="X438" s="3">
+        <v>3043</v>
+      </c>
+      <c r="Z438" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA438" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB438" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD438" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="439" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C439" s="4">
+        <v>6</v>
+      </c>
+      <c r="D439" t="s">
+        <v>52</v>
+      </c>
+      <c r="E439" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J439" s="3">
+        <v>5</v>
+      </c>
+      <c r="K439" t="s">
+        <v>76</v>
+      </c>
+      <c r="L439" s="3">
+        <v>136</v>
+      </c>
+      <c r="U439" s="3">
+        <v>115.1</v>
+      </c>
+      <c r="V439" s="3">
+        <v>6028</v>
+      </c>
+      <c r="W439" s="3">
+        <v>169.6</v>
+      </c>
+      <c r="X439" s="3">
+        <v>2501</v>
+      </c>
+      <c r="Z439" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA439" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC439" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD439" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="440" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C440" s="4">
+        <v>7</v>
+      </c>
+      <c r="D440" t="s">
+        <v>217</v>
+      </c>
+      <c r="E440" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G440" t="s">
+        <v>615</v>
+      </c>
+      <c r="L440" s="3">
+        <v>265</v>
+      </c>
+      <c r="Q440" s="3">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="R440" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S440" s="3">
+        <v>375.1</v>
+      </c>
+      <c r="T440" s="3">
+        <v>3212</v>
+      </c>
+      <c r="U440" s="3">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="V440" s="3">
+        <v>5525</v>
+      </c>
+      <c r="W440" s="3">
+        <v>398.7</v>
+      </c>
+      <c r="X440" s="3">
+        <v>3621</v>
+      </c>
+      <c r="Z440" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA440" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB440" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD440" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="441" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C441" s="4">
+        <v>8</v>
+      </c>
+      <c r="D441" t="s">
+        <v>28</v>
+      </c>
+      <c r="E441" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G441" t="s">
+        <v>618</v>
+      </c>
+      <c r="L441" s="3">
+        <v>129</v>
+      </c>
+      <c r="U441" s="3">
+        <v>181</v>
+      </c>
+      <c r="V441" s="3">
+        <v>5896</v>
+      </c>
+      <c r="W441" s="3">
+        <v>233</v>
+      </c>
+      <c r="X441" s="3">
+        <v>5296</v>
+      </c>
+      <c r="Z441" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA441" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB441" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD441" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="442" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C442" s="4">
+        <v>9</v>
+      </c>
+      <c r="D442" t="s">
+        <v>52</v>
+      </c>
+      <c r="E442" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G442" t="s">
+        <v>623</v>
+      </c>
+      <c r="J442" s="3">
+        <v>5</v>
+      </c>
+      <c r="U442" s="3">
+        <v>227.8</v>
+      </c>
+      <c r="V442" s="3">
+        <v>5921</v>
+      </c>
+      <c r="W442" s="3">
+        <v>343</v>
+      </c>
+      <c r="X442" s="3">
+        <v>4521</v>
+      </c>
+      <c r="Z442" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA442" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB442" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD442" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="443" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C443" s="4">
+        <v>10</v>
+      </c>
+      <c r="D443" t="s">
+        <v>217</v>
+      </c>
+      <c r="E443" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="L443" s="3">
+        <v>135</v>
+      </c>
+      <c r="U443" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="V443" s="3">
+        <v>6587</v>
+      </c>
+      <c r="W443" s="3">
+        <v>148.5</v>
+      </c>
+      <c r="X443" s="3">
+        <v>4539</v>
+      </c>
+      <c r="Z443" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA443" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB443" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD443" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="444" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C444" s="4">
+        <v>11</v>
+      </c>
+      <c r="D444" t="s">
+        <v>36</v>
+      </c>
+      <c r="E444" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G444" t="s">
+        <v>576</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L444" s="3">
+        <v>131</v>
+      </c>
+      <c r="Q444" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R444" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S444" s="3">
+        <v>348.9</v>
+      </c>
+      <c r="T444" s="3">
+        <v>2359</v>
+      </c>
+      <c r="U444" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V444" s="3">
+        <v>4049</v>
+      </c>
+      <c r="W444" s="3">
+        <v>350.3</v>
+      </c>
+      <c r="X444" s="3">
+        <v>2430</v>
+      </c>
+      <c r="Z444" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA444" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB444" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD444" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="445" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C445" s="4">
+        <v>12</v>
+      </c>
+      <c r="D445" t="s">
+        <v>44</v>
+      </c>
+      <c r="E445" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G445" t="s">
+        <v>576</v>
+      </c>
+      <c r="L445" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q445" s="3">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R445" s="3">
+        <v>6258</v>
+      </c>
+      <c r="S445" s="3">
+        <v>449.1</v>
+      </c>
+      <c r="T445" s="3">
+        <v>3927</v>
+      </c>
+      <c r="U445" s="3">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="V445" s="3">
+        <v>6376</v>
+      </c>
+      <c r="W445" s="3">
+        <v>447.1</v>
+      </c>
+      <c r="X445" s="3">
+        <v>3904</v>
+      </c>
+      <c r="Z445" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA445" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB445" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD445" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="446" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C446" s="4">
+        <v>13</v>
+      </c>
+      <c r="D446" t="s">
+        <v>28</v>
+      </c>
+      <c r="E446" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K446" t="s">
+        <v>76</v>
+      </c>
+      <c r="L446" s="3">
+        <v>193</v>
+      </c>
+      <c r="U446" s="3">
+        <v>205</v>
+      </c>
+      <c r="W446" s="3">
+        <v>240</v>
+      </c>
+      <c r="Z446" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA446" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB446" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD446" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C448" s="4">
+        <v>1</v>
+      </c>
+      <c r="D448" t="s">
+        <v>28</v>
+      </c>
+      <c r="E448" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J448" s="3">
+        <v>6</v>
+      </c>
+      <c r="L448" s="3">
+        <v>193</v>
+      </c>
+      <c r="U448" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V448" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W448" s="3">
+        <v>250</v>
+      </c>
+      <c r="X448" s="3">
+        <v>4813</v>
+      </c>
+      <c r="Z448" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA448" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB448" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD448" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="433" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C433" s="4">
+    <row r="449" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C449" s="4">
         <v>2</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D449" t="s">
         <v>44</v>
       </c>
-      <c r="E433" s="4" t="s">
+      <c r="E449" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="F433" s="2" t="s">
+      <c r="F449" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="L433" s="3">
+      <c r="L449" s="3">
         <v>160</v>
       </c>
-      <c r="Q433" s="3">
+      <c r="Q449" s="3">
         <v>161.19999999999999</v>
       </c>
-      <c r="R433" s="3">
+      <c r="R449" s="3">
         <v>25980</v>
       </c>
-      <c r="S433" s="3">
+      <c r="S449" s="3">
         <v>212.9</v>
       </c>
-      <c r="T433" s="3">
+      <c r="T449" s="3">
         <v>4710</v>
       </c>
-      <c r="U433" s="3">
+      <c r="U449" s="3">
         <v>162.9</v>
       </c>
-      <c r="V433" s="3">
+      <c r="V449" s="3">
         <v>6026</v>
       </c>
-      <c r="W433" s="3">
+      <c r="W449" s="3">
         <v>216.6</v>
       </c>
-      <c r="X433" s="3">
+      <c r="X449" s="3">
         <v>4748</v>
       </c>
-      <c r="Z433" t="s">
+      <c r="Z449" t="s">
         <v>312</v>
       </c>
-      <c r="AA433" t="s">
+      <c r="AA449" t="s">
         <v>313</v>
       </c>
-      <c r="AB433" t="s">
+      <c r="AB449" t="s">
         <v>112</v>
       </c>
-      <c r="AD433" s="4">
+      <c r="AD449" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="434" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C434" s="4">
+    <row r="450" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C450" s="4">
         <v>3</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D450" t="s">
         <v>38</v>
       </c>
-      <c r="E434" s="4" t="s">
+      <c r="E450" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F434" s="2" t="s">
+      <c r="F450" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G434" t="s">
+      <c r="G450" t="s">
         <v>588</v>
       </c>
-      <c r="L434" s="3">
+      <c r="L450" s="3">
         <v>250</v>
       </c>
-      <c r="Q434" s="3">
+      <c r="Q450" s="3">
         <v>268.3</v>
       </c>
-      <c r="R434" s="3">
+      <c r="R450" s="3">
         <v>5341</v>
       </c>
-      <c r="S434" s="3">
+      <c r="S450" s="3">
         <v>440.9</v>
       </c>
-      <c r="T434" s="3">
+      <c r="T450" s="3">
         <v>2638</v>
       </c>
-      <c r="U434" s="3">
+      <c r="U450" s="3">
         <v>268.2</v>
       </c>
-      <c r="V434" s="3">
+      <c r="V450" s="3">
         <v>5400</v>
       </c>
-      <c r="W434" s="3">
+      <c r="W450" s="3">
         <v>448.9</v>
       </c>
-      <c r="X434" s="3">
+      <c r="X450" s="3">
         <v>2646</v>
       </c>
-      <c r="Z434" t="s">
+      <c r="Z450" t="s">
         <v>215</v>
       </c>
-      <c r="AA434" t="s">
+      <c r="AA450" t="s">
         <v>216</v>
       </c>
-      <c r="AB434" t="s">
+      <c r="AB450" t="s">
         <v>42</v>
       </c>
-      <c r="AD434" s="4">
+      <c r="AD450" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C435" s="4">
+    <row r="451" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C451" s="4">
         <v>4</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D451" t="s">
         <v>44</v>
       </c>
-      <c r="E435" s="4" t="s">
+      <c r="E451" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="F435" s="2" t="s">
+      <c r="F451" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G435" t="s">
+      <c r="G451" t="s">
         <v>590</v>
       </c>
-      <c r="L435" s="3">
+      <c r="L451" s="3">
         <v>139</v>
       </c>
-      <c r="N435" s="3">
+      <c r="N451" s="3">
         <v>1986</v>
       </c>
-      <c r="Q435" s="3">
+      <c r="Q451" s="3">
         <v>209.1</v>
       </c>
-      <c r="R435" s="3">
+      <c r="R451" s="3">
         <v>7791</v>
       </c>
-      <c r="S435" s="3">
+      <c r="S451" s="3">
         <v>212</v>
       </c>
-      <c r="T435" s="3">
+      <c r="T451" s="3">
         <v>5755</v>
       </c>
-      <c r="U435" s="3">
+      <c r="U451" s="3">
         <v>208</v>
       </c>
-      <c r="V435" s="3">
+      <c r="V451" s="3">
         <v>7966</v>
       </c>
-      <c r="W435" s="3">
+      <c r="W451" s="3">
         <v>213.2</v>
       </c>
-      <c r="X435" s="3">
+      <c r="X451" s="3">
         <v>5807</v>
       </c>
     </row>
-    <row r="436" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C436" s="4">
+    <row r="452" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C452" s="4">
         <v>5</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D452" t="s">
         <v>44</v>
       </c>
-      <c r="E436" s="4" t="s">
+      <c r="E452" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="F436" s="2" t="s">
+      <c r="F452" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G436" t="s">
+      <c r="G452" t="s">
         <v>594</v>
       </c>
-      <c r="L436" s="3">
+      <c r="L452" s="3">
         <v>85</v>
       </c>
-      <c r="Q436" s="3">
+      <c r="Q452" s="3">
         <v>98.4</v>
       </c>
-      <c r="R436" s="3">
+      <c r="R452" s="3">
         <v>5085</v>
       </c>
-      <c r="S436" s="3">
+      <c r="S452" s="3">
         <v>160.1</v>
       </c>
-      <c r="T436" s="3">
+      <c r="T452" s="3">
         <v>3668</v>
       </c>
-      <c r="U436" s="3">
+      <c r="U452" s="3">
         <v>96.9</v>
       </c>
-      <c r="V436" s="3">
+      <c r="V452" s="3">
         <v>4993</v>
       </c>
-      <c r="W436" s="3">
+      <c r="W452" s="3">
         <v>159.5</v>
       </c>
-      <c r="X436" s="3">
+      <c r="X452" s="3">
         <v>3305</v>
       </c>
-      <c r="Z436" t="s">
+      <c r="Z452" t="s">
         <v>591</v>
       </c>
-      <c r="AA436" t="s">
+      <c r="AA452" t="s">
         <v>592</v>
       </c>
-      <c r="AB436" t="s">
+      <c r="AB452" t="s">
         <v>112</v>
       </c>
-      <c r="AD436" s="4">
+      <c r="AD452" s="4">
         <v>280</v>
       </c>
     </row>
-    <row r="437" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C437" s="4">
+    <row r="453" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C453" s="4">
         <v>6</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D453" t="s">
         <v>178</v>
       </c>
-      <c r="E437" s="4" t="s">
+      <c r="E453" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F437" s="2" t="s">
+      <c r="F453" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G437" t="s">
+      <c r="G453" t="s">
         <v>595</v>
       </c>
-      <c r="L437" s="3">
+      <c r="L453" s="3">
         <v>116</v>
       </c>
-      <c r="M437" s="1">
+      <c r="M453" s="1">
         <v>325000</v>
       </c>
-      <c r="Q437" s="3">
+      <c r="Q453" s="3">
         <v>109.7</v>
       </c>
-      <c r="R437" s="3">
+      <c r="R453" s="3">
         <v>6570</v>
       </c>
-      <c r="S437" s="3">
+      <c r="S453" s="3">
         <v>130</v>
       </c>
-      <c r="T437" s="3">
+      <c r="T453" s="3">
         <v>5181</v>
       </c>
-      <c r="U437" s="3">
+      <c r="U453" s="3">
         <v>111.1</v>
       </c>
-      <c r="V437" s="3">
+      <c r="V453" s="3">
         <v>6500</v>
       </c>
-      <c r="W437" s="3">
+      <c r="W453" s="3">
         <v>132.30000000000001</v>
       </c>
-      <c r="X437" s="3">
+      <c r="X453" s="3">
         <v>5179</v>
       </c>
-      <c r="Z437" t="s">
+      <c r="Z453" t="s">
         <v>47</v>
       </c>
-      <c r="AA437" t="s">
+      <c r="AA453" t="s">
         <v>48</v>
       </c>
-      <c r="AB437" t="s">
+      <c r="AB453" t="s">
         <v>42</v>
       </c>
-      <c r="AD437" s="4">
+      <c r="AD453" s="4">
         <v>36</v>
       </c>
     </row>

--- a/H77Dyno.xlsx
+++ b/H77Dyno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\SQL\Halle77Dyno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E88A5B-FE2E-41F3-9D3F-059E79CC5734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463512DF-B6DB-4546-B8B5-26BC5FF1B7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="875">
   <si>
     <t>Episode</t>
   </si>
@@ -2576,6 +2576,75 @@
   </si>
   <si>
     <t>Puma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volkswagen </t>
+  </si>
+  <si>
+    <t>Polo I</t>
+  </si>
+  <si>
+    <t>16V (6N Motor)</t>
+  </si>
+  <si>
+    <t>20V</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>(E46) 330ci</t>
+  </si>
+  <si>
+    <t>Bora VR5</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Aargau</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>Kadett ( E ) GSI 16V</t>
+  </si>
+  <si>
+    <t>Calibra Turbo Motor</t>
+  </si>
+  <si>
+    <t>19 (Cabrio)</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Marburg</t>
+  </si>
+  <si>
+    <t>(E92) 330</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>Octavia (RS) TFSI</t>
+  </si>
+  <si>
+    <t>Caterham</t>
+  </si>
+  <si>
+    <t>Fiesta MK-I</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>Nadines Auto, (ultra geile farbe)</t>
   </si>
 </sst>
 </file>
@@ -3427,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE453"/>
+  <dimension ref="A1:AE468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="C306" sqref="C306"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12749,96 +12818,152 @@
         <v>12</v>
       </c>
     </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B295">
-        <v>11</v>
+      <c r="C295" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C296" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C297" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C298" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C299" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C300" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C301" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C302" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C303" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C304" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C305" s="4">
-        <v>10</v>
+      <c r="B305">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C306" s="4">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>852</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G306" t="s">
+        <v>854</v>
+      </c>
+      <c r="L306" s="3">
+        <v>120</v>
+      </c>
+      <c r="U306" s="3">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="V306" s="3">
+        <v>6703</v>
+      </c>
+      <c r="W306" s="3">
+        <v>164.1</v>
+      </c>
+      <c r="X306" s="3">
+        <v>5671</v>
+      </c>
+      <c r="Z306" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B307">
-        <v>10</v>
+      <c r="C307" s="4">
+        <v>2</v>
+      </c>
+      <c r="D307" t="s">
+        <v>852</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G307" t="s">
+        <v>855</v>
+      </c>
+      <c r="L307" s="3">
+        <v>150</v>
+      </c>
+      <c r="U307" s="3">
+        <v>217.3</v>
+      </c>
+      <c r="V307" s="3">
+        <v>5777</v>
+      </c>
+      <c r="W307" s="3">
+        <v>313.60000000000002</v>
+      </c>
+      <c r="X307" s="3">
+        <v>3236</v>
+      </c>
+      <c r="Z307" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="308" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C308" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D308" t="s">
-        <v>36</v>
+        <v>852</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G308" t="s">
-        <v>827</v>
-      </c>
-      <c r="L308" s="3">
-        <v>150</v>
-      </c>
-      <c r="U308" s="3">
-        <v>151.80000000000001</v>
-      </c>
-      <c r="V308" s="3">
-        <v>6462</v>
-      </c>
-      <c r="W308" s="3">
-        <v>193.5</v>
-      </c>
-      <c r="X308" s="3">
-        <v>4946</v>
+        <v>405</v>
+      </c>
+      <c r="Q308" s="3">
+        <v>197.5</v>
+      </c>
+      <c r="R308" s="3">
+        <v>6087</v>
+      </c>
+      <c r="S308" s="3">
+        <v>265.2</v>
+      </c>
+      <c r="T308" s="3">
+        <v>4681</v>
       </c>
       <c r="Z308" t="s">
         <v>104</v>
@@ -12846,4498 +12971,4399 @@
     </row>
     <row r="309" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C309" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D309" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>828</v>
+        <v>857</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>208</v>
+        <v>463</v>
+      </c>
+      <c r="K309" t="s">
+        <v>856</v>
       </c>
       <c r="L309" s="3">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="U309" s="3">
-        <v>223.9</v>
+        <v>225.3</v>
       </c>
       <c r="V309" s="3">
-        <v>5101</v>
+        <v>6484</v>
       </c>
       <c r="W309" s="3">
-        <v>330</v>
+        <v>291.10000000000002</v>
       </c>
       <c r="X309" s="3">
-        <v>4611</v>
+        <v>3619</v>
+      </c>
+      <c r="Z309" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="310" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C310" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D310" t="s">
-        <v>44</v>
+        <v>852</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>829</v>
+        <v>858</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G310" t="s">
-        <v>320</v>
+        <v>373</v>
+      </c>
+      <c r="J310" s="3">
+        <v>5</v>
       </c>
       <c r="L310" s="3">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="U310" s="3">
-        <v>104</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="V310" s="3">
-        <v>5525</v>
+        <v>6441</v>
       </c>
       <c r="W310" s="3">
-        <v>145.5</v>
+        <v>196.4</v>
       </c>
       <c r="X310" s="3">
-        <v>4918</v>
+        <v>3835</v>
       </c>
       <c r="Z310" t="s">
-        <v>409</v>
+        <v>110</v>
       </c>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C311" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D311" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>607</v>
+        <v>861</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J311" s="3">
-        <v>5</v>
+        <v>463</v>
       </c>
       <c r="L311" s="3">
-        <v>133</v>
+        <v>231</v>
+      </c>
+      <c r="M311" s="1">
+        <v>76000</v>
       </c>
       <c r="Q311" s="3">
-        <v>121.1</v>
+        <v>231.6</v>
       </c>
       <c r="R311" s="3">
-        <v>5671</v>
+        <v>6302</v>
       </c>
       <c r="S311" s="3">
-        <v>173</v>
+        <v>300.8</v>
       </c>
       <c r="T311" s="3">
-        <v>3790</v>
+        <v>3496</v>
       </c>
       <c r="U311" s="3">
-        <v>117</v>
+        <v>235.7</v>
       </c>
       <c r="V311" s="3">
-        <v>5683</v>
+        <v>6458</v>
       </c>
       <c r="W311" s="3">
-        <v>163.80000000000001</v>
+        <v>306.89999999999998</v>
       </c>
       <c r="X311" s="3">
-        <v>2849</v>
+        <v>3494</v>
       </c>
       <c r="Z311" t="s">
-        <v>776</v>
+        <v>859</v>
+      </c>
+      <c r="AA311" t="s">
+        <v>860</v>
+      </c>
+      <c r="AC311" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD311" s="4">
+        <v>640</v>
       </c>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C312" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D312" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>298</v>
+        <v>862</v>
       </c>
       <c r="G312" t="s">
-        <v>840</v>
-      </c>
-      <c r="L312" s="3">
-        <v>90</v>
+        <v>863</v>
       </c>
       <c r="Q312" s="3">
-        <v>88.7</v>
+        <v>281.39999999999998</v>
       </c>
       <c r="R312" s="3">
-        <v>6115</v>
+        <v>4743</v>
       </c>
       <c r="S312" s="3">
-        <v>111.9</v>
+        <v>428.7</v>
       </c>
       <c r="T312" s="3">
-        <v>5265</v>
+        <v>4592</v>
       </c>
       <c r="U312" s="3">
-        <v>94.2</v>
+        <v>274.5</v>
       </c>
       <c r="V312" s="3">
-        <v>6580</v>
+        <v>5201</v>
       </c>
       <c r="W312" s="3">
-        <v>115.5</v>
+        <v>428.9</v>
       </c>
       <c r="X312" s="3">
-        <v>5273</v>
+        <v>4482</v>
+      </c>
+      <c r="Z312" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="313" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C313" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D313" t="s">
         <v>52</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>833</v>
+        <v>640</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="L313" s="3">
         <v>90</v>
       </c>
       <c r="U313" s="3">
-        <v>83.3</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="V313" s="3">
-        <v>5407</v>
+        <v>3301</v>
       </c>
       <c r="W313" s="3">
-        <v>137.4</v>
+        <v>321</v>
       </c>
       <c r="X313" s="3">
-        <v>3112</v>
-      </c>
-      <c r="Z313" t="s">
-        <v>831</v>
-      </c>
-      <c r="AA313" t="s">
-        <v>832</v>
-      </c>
-      <c r="AB313" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD313" s="4">
-        <v>490</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="314" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C314" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D314" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>836</v>
+        <v>864</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="L314" s="3">
-        <v>200</v>
+        <v>88</v>
+      </c>
+      <c r="N314" s="3">
+        <v>1992</v>
       </c>
       <c r="Q314" s="3">
-        <v>201.1</v>
+        <v>88.5</v>
       </c>
       <c r="R314" s="3">
-        <v>5268</v>
+        <v>5517</v>
       </c>
       <c r="S314" s="3">
-        <v>285.60000000000002</v>
+        <v>139.5</v>
       </c>
       <c r="T314" s="3">
-        <v>4682</v>
+        <v>3137</v>
       </c>
       <c r="U314" s="3">
-        <v>207.8</v>
+        <v>91.2</v>
       </c>
       <c r="V314" s="3">
-        <v>5347</v>
+        <v>5506</v>
       </c>
       <c r="W314" s="3">
-        <v>296</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="X314" s="3">
-        <v>4717</v>
+        <v>2968</v>
       </c>
       <c r="Z314" t="s">
-        <v>834</v>
-      </c>
-      <c r="AA314" t="s">
-        <v>835</v>
-      </c>
-      <c r="AB314" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD314" s="4">
-        <v>280</v>
+        <v>195</v>
       </c>
     </row>
     <row r="315" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C315" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D315" t="s">
-        <v>197</v>
-      </c>
-      <c r="E315" s="4">
-        <v>996</v>
+        <v>852</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>837</v>
+        <v>207</v>
       </c>
       <c r="L315" s="3">
-        <v>300</v>
+        <v>75</v>
+      </c>
+      <c r="M315" s="1">
+        <v>214000</v>
       </c>
       <c r="U315" s="3">
-        <v>284.60000000000002</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="V315" s="3">
-        <v>7078</v>
+        <v>5611</v>
       </c>
       <c r="W315" s="3">
-        <v>320.89999999999998</v>
+        <v>133.1</v>
       </c>
       <c r="X315" s="3">
-        <v>4904</v>
+        <v>2636</v>
       </c>
       <c r="Z315" t="s">
-        <v>370</v>
+        <v>77</v>
       </c>
     </row>
     <row r="316" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C316" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D316" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G316" t="s">
-        <v>576</v>
+        <v>862</v>
       </c>
       <c r="L316" s="3">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="U316" s="3">
-        <v>174.4</v>
+        <v>148.5</v>
       </c>
       <c r="V316" s="3">
-        <v>3189</v>
+        <v>6536</v>
       </c>
       <c r="W316" s="3">
-        <v>433</v>
+        <v>183</v>
       </c>
       <c r="X316" s="3">
-        <v>136.19999999999999</v>
+        <v>5115</v>
+      </c>
+      <c r="AC316" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="317" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C317" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D317" t="s">
-        <v>175</v>
-      </c>
-      <c r="E317" s="4" t="s">
-        <v>839</v>
+        <v>52</v>
+      </c>
+      <c r="E317" s="4">
+        <v>90</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>733</v>
+        <v>298</v>
+      </c>
+      <c r="K317" t="s">
+        <v>76</v>
       </c>
       <c r="L317" s="3">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="Q317" s="3">
+        <v>120.4</v>
+      </c>
+      <c r="R317" s="3">
+        <v>5636</v>
+      </c>
+      <c r="S317" s="3">
+        <v>174.9</v>
+      </c>
+      <c r="T317" s="3">
+        <v>3929</v>
       </c>
       <c r="U317" s="3">
-        <v>175.2</v>
+        <v>121.7</v>
       </c>
       <c r="V317" s="3">
-        <v>6390</v>
+        <v>5464</v>
       </c>
       <c r="W317" s="3">
-        <v>260</v>
+        <v>203.2</v>
       </c>
       <c r="X317" s="3">
-        <v>3481</v>
+        <v>2412</v>
+      </c>
+      <c r="Z317" t="s">
+        <v>865</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>866</v>
+      </c>
+      <c r="AB317" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD317" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="318" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C318" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D318" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="F318" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G318" t="s">
-        <v>842</v>
+        <v>867</v>
+      </c>
+      <c r="J318" s="3">
+        <v>6</v>
       </c>
       <c r="L318" s="3">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="U318" s="3">
-        <v>81.099999999999994</v>
+        <v>242.6</v>
       </c>
       <c r="V318" s="3">
-        <v>4722</v>
+        <v>6672</v>
       </c>
       <c r="W318" s="3">
-        <v>142.5</v>
+        <v>285.60000000000002</v>
       </c>
       <c r="X318" s="3">
-        <v>2987</v>
+        <v>3050</v>
       </c>
       <c r="Z318" t="s">
-        <v>620</v>
+        <v>514</v>
       </c>
     </row>
     <row r="319" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C319" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D319" t="s">
-        <v>44</v>
+        <v>691</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>829</v>
+        <v>870</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="G319" t="s">
+        <v>650</v>
       </c>
       <c r="L319" s="3">
-        <v>98</v>
+        <v>200</v>
+      </c>
+      <c r="Q319" s="3">
+        <v>220.9</v>
+      </c>
+      <c r="R319" s="3">
+        <v>5941</v>
+      </c>
+      <c r="S319" s="3">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="T319" s="3">
+        <v>3498</v>
       </c>
       <c r="U319" s="3">
-        <v>96.9</v>
+        <v>226.3</v>
       </c>
       <c r="V319" s="3">
-        <v>5839</v>
+        <v>5950</v>
       </c>
       <c r="W319" s="3">
-        <v>133.19999999999999</v>
+        <v>323.7</v>
       </c>
       <c r="X319" s="3">
-        <v>3122</v>
+        <v>3260</v>
       </c>
       <c r="Z319" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="AA319" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="AB319" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="AD319" s="4">
-        <v>230</v>
+        <v>490</v>
       </c>
     </row>
     <row r="320" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C320" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D320" t="s">
-        <v>44</v>
-      </c>
-      <c r="E320" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="F320" s="2" t="s">
-        <v>208</v>
+        <v>871</v>
       </c>
       <c r="L320" s="3">
-        <v>112</v>
-      </c>
-      <c r="N320" s="3">
-        <v>1983</v>
-      </c>
-      <c r="Q320" s="3">
-        <v>95.5</v>
-      </c>
-      <c r="R320" s="3">
-        <v>5410</v>
-      </c>
-      <c r="S320" s="3">
-        <v>148.4</v>
-      </c>
-      <c r="T320" s="3">
-        <v>3809</v>
+        <v>160</v>
       </c>
       <c r="U320" s="3">
-        <v>96.1</v>
+        <v>165.5</v>
       </c>
       <c r="V320" s="3">
-        <v>5667</v>
+        <v>6974</v>
       </c>
       <c r="W320" s="3">
-        <v>148.6</v>
+        <v>176.4</v>
       </c>
       <c r="X320" s="3">
-        <v>3841</v>
+        <v>4969</v>
       </c>
       <c r="Z320" t="s">
-        <v>784</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C321" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D321" t="s">
-        <v>52</v>
-      </c>
-      <c r="E321" s="4">
-        <v>90</v>
+        <v>38</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>872</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>373</v>
+        <v>873</v>
+      </c>
+      <c r="G321" t="s">
+        <v>874</v>
       </c>
       <c r="L321" s="3">
-        <v>133</v>
-      </c>
-      <c r="M321" s="1">
-        <v>303000</v>
+        <v>39</v>
       </c>
       <c r="U321" s="3">
-        <v>117.8</v>
+        <v>40.9</v>
       </c>
       <c r="V321" s="3">
-        <v>5548</v>
+        <v>5623</v>
       </c>
       <c r="W321" s="3">
-        <v>174.7</v>
+        <v>59.5</v>
       </c>
       <c r="X321" s="3">
-        <v>3887</v>
+        <v>2892</v>
       </c>
       <c r="Z321" t="s">
-        <v>253</v>
+        <v>104</v>
       </c>
     </row>
     <row r="322" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C322" s="4">
-        <v>15</v>
-      </c>
-      <c r="D322" t="s">
-        <v>44</v>
-      </c>
-      <c r="E322" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F322" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L322" s="3">
-        <v>211</v>
-      </c>
-      <c r="M322" s="1"/>
-      <c r="U322" s="3">
-        <v>242.3</v>
-      </c>
-      <c r="V322" s="3">
-        <v>6188</v>
-      </c>
-      <c r="W322" s="3">
-        <v>340.7</v>
-      </c>
-      <c r="X322" s="3">
-        <v>3863</v>
-      </c>
-      <c r="Z322" t="s">
-        <v>47</v>
+      <c r="B322">
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C323" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D323" t="s">
         <v>36</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>847</v>
+        <v>349</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="G323" t="s">
+        <v>827</v>
+      </c>
       <c r="L323" s="3">
-        <v>115</v>
-      </c>
-      <c r="M323" s="1"/>
+        <v>150</v>
+      </c>
       <c r="U323" s="3">
-        <v>117.5</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="V323" s="3">
-        <v>3625</v>
+        <v>6462</v>
       </c>
       <c r="W323" s="3">
-        <v>292.8</v>
+        <v>193.5</v>
       </c>
       <c r="X323" s="3">
-        <v>2547</v>
+        <v>4946</v>
       </c>
       <c r="Z323" t="s">
-        <v>449</v>
+        <v>104</v>
       </c>
     </row>
     <row r="324" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C324" s="4">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D324" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="L324" s="3">
-        <v>170</v>
-      </c>
-      <c r="M324" s="1"/>
+        <v>150</v>
+      </c>
       <c r="U324" s="3">
-        <v>163.6</v>
+        <v>223.9</v>
       </c>
       <c r="V324" s="3">
-        <v>6475</v>
+        <v>5101</v>
       </c>
       <c r="W324" s="3">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="X324" s="3">
-        <v>3884</v>
-      </c>
-      <c r="Z324" t="s">
-        <v>253</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="325" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C325" s="4">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D325" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>849</v>
+        <v>208</v>
+      </c>
+      <c r="G325" t="s">
+        <v>320</v>
       </c>
       <c r="L325" s="3">
-        <v>253</v>
-      </c>
-      <c r="M325" s="1"/>
+        <v>98</v>
+      </c>
       <c r="U325" s="3">
-        <v>308.39999999999998</v>
+        <v>104</v>
       </c>
       <c r="V325" s="3">
-        <v>4704</v>
+        <v>5525</v>
       </c>
       <c r="W325" s="3">
-        <v>540.5</v>
+        <v>145.5</v>
       </c>
       <c r="X325" s="3">
-        <v>3510</v>
+        <v>4918</v>
       </c>
       <c r="Z325" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
     </row>
     <row r="326" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C326" s="4">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D326" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>851</v>
+        <v>607</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>346</v>
+        <v>373</v>
+      </c>
+      <c r="J326" s="3">
+        <v>5</v>
       </c>
       <c r="L326" s="3">
-        <v>125</v>
-      </c>
-      <c r="M326" s="1">
-        <v>190000</v>
+        <v>133</v>
+      </c>
+      <c r="Q326" s="3">
+        <v>121.1</v>
+      </c>
+      <c r="R326" s="3">
+        <v>5671</v>
+      </c>
+      <c r="S326" s="3">
+        <v>173</v>
+      </c>
+      <c r="T326" s="3">
+        <v>3790</v>
       </c>
       <c r="U326" s="3">
-        <v>120.3</v>
+        <v>117</v>
       </c>
       <c r="V326" s="3">
-        <v>3436</v>
+        <v>5683</v>
       </c>
       <c r="W326" s="3">
-        <v>147.4</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="X326" s="3">
-        <v>4970</v>
+        <v>2849</v>
       </c>
       <c r="Z326" t="s">
-        <v>370</v>
+        <v>776</v>
       </c>
     </row>
     <row r="327" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B327">
-        <v>9</v>
+      <c r="C327" s="4">
+        <v>5</v>
+      </c>
+      <c r="D327" t="s">
+        <v>139</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G327" t="s">
+        <v>840</v>
+      </c>
+      <c r="L327" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q327" s="3">
+        <v>88.7</v>
+      </c>
+      <c r="R327" s="3">
+        <v>6115</v>
+      </c>
+      <c r="S327" s="3">
+        <v>111.9</v>
+      </c>
+      <c r="T327" s="3">
+        <v>5265</v>
+      </c>
+      <c r="U327" s="3">
+        <v>94.2</v>
+      </c>
+      <c r="V327" s="3">
+        <v>6580</v>
+      </c>
+      <c r="W327" s="3">
+        <v>115.5</v>
+      </c>
+      <c r="X327" s="3">
+        <v>5273</v>
       </c>
     </row>
     <row r="328" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C328" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D328" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>349</v>
+        <v>833</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G328" t="s">
-        <v>798</v>
+        <v>208</v>
       </c>
       <c r="L328" s="3">
-        <v>150</v>
-      </c>
-      <c r="Q328" s="3">
-        <v>139.6</v>
-      </c>
-      <c r="R328" s="3">
-        <v>5505</v>
-      </c>
-      <c r="S328" s="3">
-        <v>183.1</v>
-      </c>
-      <c r="T328" s="3">
-        <v>5132</v>
+        <v>90</v>
       </c>
       <c r="U328" s="3">
-        <v>141.30000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="V328" s="3">
-        <v>5883</v>
+        <v>5407</v>
       </c>
       <c r="W328" s="3">
-        <v>182.6</v>
+        <v>137.4</v>
       </c>
       <c r="X328" s="3">
-        <v>4890</v>
+        <v>3112</v>
       </c>
       <c r="Z328" t="s">
-        <v>104</v>
+        <v>831</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>832</v>
+      </c>
+      <c r="AB328" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD328" s="4">
+        <v>490</v>
       </c>
     </row>
     <row r="329" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C329" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D329" t="s">
         <v>52</v>
       </c>
-      <c r="E329" s="4">
-        <v>90</v>
+      <c r="E329" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J329" s="3">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="L329" s="3">
-        <v>136</v>
-      </c>
-      <c r="M329" s="1">
-        <v>67120</v>
+        <v>200</v>
+      </c>
+      <c r="Q329" s="3">
+        <v>201.1</v>
+      </c>
+      <c r="R329" s="3">
+        <v>5268</v>
+      </c>
+      <c r="S329" s="3">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="T329" s="3">
+        <v>4682</v>
       </c>
       <c r="U329" s="3">
-        <v>124.7</v>
+        <v>207.8</v>
       </c>
       <c r="V329" s="3">
-        <v>5532</v>
+        <v>5347</v>
       </c>
       <c r="W329" s="3">
-        <v>178.1</v>
+        <v>296</v>
       </c>
       <c r="X329" s="3">
-        <v>4061</v>
+        <v>4717</v>
       </c>
       <c r="Z329" t="s">
-        <v>796</v>
+        <v>834</v>
       </c>
       <c r="AA329" t="s">
-        <v>797</v>
+        <v>835</v>
       </c>
       <c r="AB329" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AD329" s="4">
-        <v>130</v>
+        <v>280</v>
       </c>
     </row>
     <row r="330" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C330" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D330" t="s">
-        <v>36</v>
-      </c>
-      <c r="E330" s="4" t="s">
-        <v>349</v>
+        <v>197</v>
+      </c>
+      <c r="E330" s="4">
+        <v>996</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>147</v>
+        <v>837</v>
       </c>
       <c r="L330" s="3">
-        <v>90</v>
-      </c>
-      <c r="N330" s="3">
-        <v>1978</v>
+        <v>300</v>
       </c>
       <c r="U330" s="3">
-        <v>97.6</v>
+        <v>284.60000000000002</v>
       </c>
       <c r="V330" s="3">
-        <v>4817</v>
+        <v>7078</v>
       </c>
       <c r="W330" s="3">
-        <v>150.9</v>
+        <v>320.89999999999998</v>
       </c>
       <c r="X330" s="3">
-        <v>4323</v>
+        <v>4904</v>
       </c>
       <c r="Z330" t="s">
-        <v>799</v>
-      </c>
-      <c r="AA330" t="s">
-        <v>800</v>
-      </c>
-      <c r="AB330" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD330" s="4">
-        <v>130</v>
+        <v>370</v>
       </c>
     </row>
     <row r="331" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C331" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D331" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>801</v>
+        <v>838</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>463</v>
+        <v>211</v>
+      </c>
+      <c r="G331" t="s">
+        <v>576</v>
       </c>
       <c r="L331" s="3">
-        <v>231</v>
-      </c>
-      <c r="Q331" s="3">
-        <v>213.7</v>
-      </c>
-      <c r="R331" s="3">
-        <v>6315</v>
-      </c>
-      <c r="S331" s="3">
-        <v>273.3</v>
-      </c>
-      <c r="T331" s="3">
-        <v>3658</v>
+        <v>131</v>
       </c>
       <c r="U331" s="3">
-        <v>217.7</v>
+        <v>174.4</v>
       </c>
       <c r="V331" s="3">
-        <v>6263</v>
+        <v>3189</v>
       </c>
       <c r="W331" s="3">
-        <v>277.3</v>
+        <v>433</v>
       </c>
       <c r="X331" s="3">
-        <v>3782</v>
-      </c>
-      <c r="Z331" t="s">
-        <v>796</v>
+        <v>136.19999999999999</v>
       </c>
     </row>
     <row r="332" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C332" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D332" t="s">
-        <v>528</v>
+        <v>175</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>598</v>
+        <v>839</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G332" t="s">
-        <v>802</v>
+        <v>733</v>
       </c>
       <c r="L332" s="3">
-        <v>169</v>
-      </c>
-      <c r="Q332" s="3">
-        <v>193.6</v>
-      </c>
-      <c r="R332" s="3">
-        <v>6975</v>
-      </c>
-      <c r="S332" s="3">
-        <v>198</v>
-      </c>
-      <c r="T332" s="3">
-        <v>6812</v>
+        <v>150</v>
       </c>
       <c r="U332" s="3">
-        <v>260.10000000000002</v>
+        <v>175.2</v>
       </c>
       <c r="V332" s="3">
-        <v>7050</v>
+        <v>6390</v>
       </c>
       <c r="W332" s="3">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="X332" s="3">
-        <v>6307</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="333" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C333" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D333" t="s">
-        <v>52</v>
-      </c>
-      <c r="E333" s="4">
-        <v>90</v>
+        <v>44</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>841</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>373</v>
+        <v>207</v>
       </c>
       <c r="G333" t="s">
-        <v>803</v>
-      </c>
-      <c r="J333" s="3">
-        <v>5</v>
+        <v>842</v>
       </c>
       <c r="L333" s="3">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="U333" s="3">
-        <v>133.9</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="V333" s="3">
-        <v>5159</v>
+        <v>4722</v>
       </c>
       <c r="W333" s="3">
-        <v>196.7</v>
+        <v>142.5</v>
       </c>
       <c r="X333" s="3">
-        <v>4218</v>
+        <v>2987</v>
       </c>
       <c r="Z333" t="s">
-        <v>804</v>
-      </c>
-      <c r="AA333" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB333" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD333" s="4">
-        <v>180</v>
+        <v>620</v>
       </c>
     </row>
     <row r="334" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C334" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D334" t="s">
         <v>44</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>208</v>
       </c>
       <c r="L334" s="3">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="U334" s="3">
-        <v>232.8</v>
+        <v>96.9</v>
       </c>
       <c r="V334" s="3">
-        <v>5634</v>
+        <v>5839</v>
       </c>
       <c r="W334" s="3">
-        <v>339.4</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="X334" s="3">
-        <v>3984</v>
+        <v>3122</v>
       </c>
       <c r="Z334" t="s">
-        <v>796</v>
+        <v>843</v>
+      </c>
+      <c r="AA334" t="s">
+        <v>844</v>
+      </c>
+      <c r="AB334" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD334" s="4">
+        <v>230</v>
       </c>
     </row>
     <row r="335" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C335" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D335" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>808</v>
+        <v>845</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="L335" s="3">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="N335" s="3">
+        <v>1983</v>
       </c>
       <c r="Q335" s="3">
-        <v>105.8</v>
+        <v>95.5</v>
       </c>
       <c r="R335" s="3">
-        <v>6004</v>
+        <v>5410</v>
       </c>
       <c r="S335" s="3">
-        <v>128</v>
+        <v>148.4</v>
       </c>
       <c r="T335" s="3">
-        <v>5335</v>
+        <v>3809</v>
       </c>
       <c r="U335" s="3">
-        <v>110.9</v>
+        <v>96.1</v>
       </c>
       <c r="V335" s="3">
-        <v>6327</v>
+        <v>5667</v>
       </c>
       <c r="W335" s="3">
-        <v>128.30000000000001</v>
+        <v>148.6</v>
       </c>
       <c r="X335" s="3">
-        <v>5208</v>
+        <v>3841</v>
       </c>
       <c r="Z335" t="s">
-        <v>806</v>
-      </c>
-      <c r="AA335" t="s">
-        <v>807</v>
-      </c>
-      <c r="AB335" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD335" s="4">
-        <v>220</v>
+        <v>784</v>
       </c>
     </row>
     <row r="336" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C336" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D336" t="s">
-        <v>44</v>
-      </c>
-      <c r="E336" s="4" t="s">
-        <v>811</v>
+        <v>52</v>
+      </c>
+      <c r="E336" s="4">
+        <v>90</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="L336" s="3">
-        <v>113</v>
+        <v>133</v>
+      </c>
+      <c r="M336" s="1">
+        <v>303000</v>
       </c>
       <c r="U336" s="3">
-        <v>133.6</v>
+        <v>117.8</v>
       </c>
       <c r="V336" s="3">
-        <v>6033</v>
+        <v>5548</v>
       </c>
       <c r="W336" s="3">
-        <v>186.4</v>
+        <v>174.7</v>
       </c>
       <c r="X336" s="3">
-        <v>3938</v>
+        <v>3887</v>
       </c>
       <c r="Z336" t="s">
-        <v>809</v>
-      </c>
-      <c r="AA336" t="s">
-        <v>810</v>
-      </c>
-      <c r="AB336" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD336" s="4">
-        <v>150</v>
+        <v>253</v>
       </c>
     </row>
     <row r="337" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C337" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D337" t="s">
         <v>44</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="L337" s="3">
-        <v>90</v>
-      </c>
-      <c r="M337" s="1">
-        <v>150000</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M337" s="1"/>
       <c r="U337" s="3">
-        <v>89.6</v>
+        <v>242.3</v>
       </c>
       <c r="V337" s="3">
-        <v>5695</v>
+        <v>6188</v>
       </c>
       <c r="W337" s="3">
-        <v>138.4</v>
+        <v>340.7</v>
       </c>
       <c r="X337" s="3">
-        <v>3460</v>
+        <v>3863</v>
       </c>
       <c r="Z337" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
     </row>
     <row r="338" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C338" s="4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D338" t="s">
         <v>36</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>813</v>
+        <v>847</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K338" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="L338" s="3">
-        <v>75</v>
-      </c>
-      <c r="M338" s="1">
-        <v>46000</v>
-      </c>
-      <c r="Q338" s="3">
-        <v>69.2</v>
-      </c>
-      <c r="R338" s="3">
-        <v>5864</v>
-      </c>
-      <c r="S338" s="3">
-        <v>104.4</v>
-      </c>
-      <c r="T338" s="3">
-        <v>3564</v>
+        <v>115</v>
+      </c>
+      <c r="M338" s="1"/>
+      <c r="U338" s="3">
+        <v>117.5</v>
+      </c>
+      <c r="V338" s="3">
+        <v>3625</v>
+      </c>
+      <c r="W338" s="3">
+        <v>292.8</v>
+      </c>
+      <c r="X338" s="3">
+        <v>2547</v>
       </c>
       <c r="Z338" t="s">
-        <v>242</v>
+        <v>449</v>
       </c>
     </row>
     <row r="339" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C339" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D339" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>814</v>
+        <v>848</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G339" t="s">
-        <v>650</v>
+        <v>147</v>
       </c>
       <c r="L339" s="3">
-        <v>102</v>
-      </c>
-      <c r="N339" s="3">
-        <v>2002</v>
-      </c>
-      <c r="Q339" s="3">
-        <v>99.4</v>
-      </c>
-      <c r="R339" s="3">
-        <v>3087</v>
-      </c>
-      <c r="S339" s="3">
-        <v>261.8</v>
-      </c>
-      <c r="T339" s="3">
-        <v>2356</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M339" s="1"/>
       <c r="U339" s="3">
-        <v>98</v>
+        <v>163.6</v>
       </c>
       <c r="V339" s="3">
-        <v>3080</v>
+        <v>6475</v>
       </c>
       <c r="W339" s="3">
-        <v>259.39999999999998</v>
+        <v>190</v>
       </c>
       <c r="X339" s="3">
-        <v>2341</v>
+        <v>3884</v>
       </c>
       <c r="Z339" t="s">
-        <v>430</v>
+        <v>253</v>
       </c>
     </row>
     <row r="340" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C340" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D340" t="s">
-        <v>818</v>
+        <v>82</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>817</v>
+        <v>850</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>733</v>
+        <v>849</v>
       </c>
       <c r="L340" s="3">
-        <v>69</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M340" s="1"/>
       <c r="U340" s="3">
-        <v>70.3</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="V340" s="3">
-        <v>5556</v>
+        <v>4704</v>
       </c>
       <c r="W340" s="3">
-        <v>111.7</v>
+        <v>540.5</v>
       </c>
       <c r="X340" s="3">
-        <v>2739</v>
+        <v>3510</v>
       </c>
       <c r="Z340" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA340" t="s">
-        <v>816</v>
-      </c>
-      <c r="AB340" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD340" s="4">
-        <v>170</v>
+        <v>499</v>
       </c>
     </row>
     <row r="341" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C341" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D341" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G341" t="s">
-        <v>820</v>
+        <v>346</v>
       </c>
       <c r="L341" s="3">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="M341" s="1">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="U341" s="3">
-        <v>171.8</v>
+        <v>120.3</v>
       </c>
       <c r="V341" s="3">
-        <v>6692</v>
+        <v>3436</v>
       </c>
       <c r="W341" s="3">
-        <v>194.2</v>
+        <v>147.4</v>
       </c>
       <c r="X341" s="3">
-        <v>5405</v>
+        <v>4970</v>
       </c>
       <c r="Z341" t="s">
-        <v>99</v>
+        <v>370</v>
       </c>
     </row>
     <row r="342" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C342" s="4">
-        <v>15</v>
-      </c>
-      <c r="D342" t="s">
-        <v>44</v>
-      </c>
-      <c r="E342" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G342" t="s">
-        <v>822</v>
-      </c>
-      <c r="L342" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q342" s="3">
-        <v>133.9</v>
-      </c>
-      <c r="R342" s="3">
-        <v>3748</v>
-      </c>
-      <c r="S342" s="3">
-        <v>305.39999999999998</v>
-      </c>
-      <c r="T342" s="3">
-        <v>2934</v>
-      </c>
-      <c r="U342" s="3">
-        <v>117</v>
-      </c>
-      <c r="V342" s="3">
-        <v>3393</v>
-      </c>
-      <c r="W342" s="3">
-        <v>274</v>
-      </c>
-      <c r="X342" s="3">
-        <v>2887</v>
-      </c>
-      <c r="Z342" t="s">
-        <v>591</v>
+      <c r="B342">
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C343" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>823</v>
+        <v>349</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G343" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
       <c r="L343" s="3">
-        <v>192</v>
+        <v>150</v>
+      </c>
+      <c r="Q343" s="3">
+        <v>139.6</v>
+      </c>
+      <c r="R343" s="3">
+        <v>5505</v>
+      </c>
+      <c r="S343" s="3">
+        <v>183.1</v>
+      </c>
+      <c r="T343" s="3">
+        <v>5132</v>
       </c>
       <c r="U343" s="3">
-        <v>171.1</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="V343" s="3">
-        <v>7187</v>
+        <v>5883</v>
       </c>
       <c r="W343" s="3">
-        <v>186.1</v>
+        <v>182.6</v>
       </c>
       <c r="X343" s="3">
-        <v>5015</v>
+        <v>4890</v>
       </c>
       <c r="Z343" t="s">
-        <v>438</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C344" s="4">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D344" t="s">
-        <v>28</v>
-      </c>
-      <c r="E344" s="4" t="s">
-        <v>825</v>
+        <v>52</v>
+      </c>
+      <c r="E344" s="4">
+        <v>90</v>
       </c>
       <c r="F344" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J344" s="3">
+        <v>5</v>
+      </c>
+      <c r="L344" s="3">
+        <v>136</v>
+      </c>
+      <c r="M344" s="1">
+        <v>67120</v>
+      </c>
+      <c r="U344" s="3">
+        <v>124.7</v>
+      </c>
+      <c r="V344" s="3">
+        <v>5532</v>
+      </c>
+      <c r="W344" s="3">
+        <v>178.1</v>
+      </c>
+      <c r="X344" s="3">
+        <v>4061</v>
+      </c>
+      <c r="Z344" t="s">
+        <v>796</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD344" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="345" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C345" s="4">
+        <v>3</v>
+      </c>
+      <c r="D345" t="s">
+        <v>36</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F345" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G344" t="s">
-        <v>826</v>
-      </c>
-      <c r="L344" s="3">
-        <v>192</v>
-      </c>
-      <c r="Q344" s="3">
-        <v>225.1</v>
-      </c>
-      <c r="R344" s="3">
-        <v>7656</v>
-      </c>
-      <c r="S344" s="3">
-        <v>225.3</v>
-      </c>
-      <c r="T344" s="3">
-        <v>6129</v>
-      </c>
-      <c r="U344" s="3">
-        <v>211</v>
-      </c>
-      <c r="V344" s="3">
-        <v>7226</v>
-      </c>
-      <c r="W344" s="3">
-        <v>223.4</v>
-      </c>
-      <c r="X344" s="3">
-        <v>6264</v>
-      </c>
-    </row>
-    <row r="345" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B345">
-        <v>8</v>
+      <c r="L345" s="3">
+        <v>90</v>
+      </c>
+      <c r="N345" s="3">
+        <v>1978</v>
+      </c>
+      <c r="U345" s="3">
+        <v>97.6</v>
+      </c>
+      <c r="V345" s="3">
+        <v>4817</v>
+      </c>
+      <c r="W345" s="3">
+        <v>150.9</v>
+      </c>
+      <c r="X345" s="3">
+        <v>4323</v>
+      </c>
+      <c r="Z345" t="s">
+        <v>799</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>800</v>
+      </c>
+      <c r="AB345" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD345" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="346" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C346" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D346" t="s">
-        <v>755</v>
-      </c>
-      <c r="E346" s="5" t="s">
-        <v>756</v>
+        <v>28</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>801</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>208</v>
+        <v>463</v>
       </c>
       <c r="L346" s="3">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="Q346" s="3">
-        <v>198.5</v>
+        <v>213.7</v>
       </c>
       <c r="R346" s="3">
-        <v>5691</v>
+        <v>6315</v>
       </c>
       <c r="S346" s="3">
-        <v>309.7</v>
+        <v>273.3</v>
       </c>
       <c r="T346" s="3">
-        <v>3550</v>
+        <v>3658</v>
       </c>
       <c r="U346" s="3">
-        <v>198.5</v>
+        <v>217.7</v>
       </c>
       <c r="V346" s="3">
-        <v>5691</v>
+        <v>6263</v>
       </c>
       <c r="W346" s="3">
-        <v>310</v>
+        <v>277.3</v>
       </c>
       <c r="X346" s="3">
-        <v>3550</v>
+        <v>3782</v>
       </c>
       <c r="Z346" t="s">
-        <v>757</v>
-      </c>
-      <c r="AA346" t="s">
-        <v>758</v>
-      </c>
-      <c r="AB346" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD346" s="4">
-        <v>20</v>
+        <v>796</v>
       </c>
     </row>
     <row r="347" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C347" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D347" t="s">
-        <v>755</v>
+        <v>528</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>762</v>
+        <v>598</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>761</v>
+        <v>208</v>
+      </c>
+      <c r="G347" t="s">
+        <v>802</v>
       </c>
       <c r="L347" s="3">
-        <v>230</v>
+        <v>169</v>
+      </c>
+      <c r="Q347" s="3">
+        <v>193.6</v>
+      </c>
+      <c r="R347" s="3">
+        <v>6975</v>
+      </c>
+      <c r="S347" s="3">
+        <v>198</v>
+      </c>
+      <c r="T347" s="3">
+        <v>6812</v>
       </c>
       <c r="U347" s="3">
-        <v>202.2</v>
+        <v>260.10000000000002</v>
       </c>
       <c r="V347" s="3">
-        <v>6248</v>
+        <v>7050</v>
       </c>
       <c r="W347" s="3">
-        <v>285.5</v>
+        <v>270</v>
       </c>
       <c r="X347" s="3">
-        <v>2321</v>
-      </c>
-      <c r="Z347" t="s">
-        <v>759</v>
-      </c>
-      <c r="AA347" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB347" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD347" s="4">
-        <v>440</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="348" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C348" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D348" t="s">
-        <v>44</v>
-      </c>
-      <c r="E348" s="4" t="s">
-        <v>95</v>
+        <v>52</v>
+      </c>
+      <c r="E348" s="4">
+        <v>90</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>208</v>
+        <v>373</v>
       </c>
       <c r="G348" t="s">
-        <v>495</v>
+        <v>803</v>
+      </c>
+      <c r="J348" s="3">
+        <v>5</v>
       </c>
       <c r="L348" s="3">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="U348" s="3">
-        <v>110.8</v>
+        <v>133.9</v>
       </c>
       <c r="V348" s="3">
-        <v>5532</v>
+        <v>5159</v>
       </c>
       <c r="W348" s="3">
-        <v>157.5</v>
+        <v>196.7</v>
       </c>
       <c r="X348" s="3">
-        <v>4544</v>
+        <v>4218</v>
       </c>
       <c r="Z348" t="s">
-        <v>728</v>
+        <v>804</v>
+      </c>
+      <c r="AA348" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB348" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD348" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="349" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C349" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>463</v>
+        <v>208</v>
       </c>
       <c r="L349" s="3">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="U349" s="3">
-        <v>220.2</v>
+        <v>232.8</v>
       </c>
       <c r="V349" s="3">
-        <v>6391</v>
+        <v>5634</v>
       </c>
       <c r="W349" s="3">
-        <v>277.10000000000002</v>
+        <v>339.4</v>
       </c>
       <c r="X349" s="3">
-        <v>4838</v>
+        <v>3984</v>
       </c>
       <c r="Z349" t="s">
-        <v>750</v>
+        <v>796</v>
       </c>
     </row>
     <row r="350" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C350" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D350" t="s">
-        <v>412</v>
+        <v>36</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>413</v>
+        <v>808</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G350" t="s">
-        <v>764</v>
+        <v>147</v>
       </c>
       <c r="L350" s="3">
-        <v>75</v>
+        <v>110</v>
+      </c>
+      <c r="Q350" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="R350" s="3">
+        <v>6004</v>
+      </c>
+      <c r="S350" s="3">
+        <v>128</v>
+      </c>
+      <c r="T350" s="3">
+        <v>5335</v>
       </c>
       <c r="U350" s="3">
-        <v>99.3</v>
+        <v>110.9</v>
       </c>
       <c r="V350" s="3">
-        <v>6677</v>
+        <v>6327</v>
       </c>
       <c r="W350" s="3">
-        <v>118.9</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="X350" s="3">
-        <v>5117</v>
+        <v>5208</v>
       </c>
       <c r="Z350" t="s">
-        <v>330</v>
+        <v>806</v>
+      </c>
+      <c r="AA350" t="s">
+        <v>807</v>
+      </c>
+      <c r="AB350" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD350" s="4">
+        <v>220</v>
       </c>
     </row>
     <row r="351" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C351" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D351" t="s">
-        <v>755</v>
+        <v>44</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J351" s="3">
-        <v>5</v>
+        <v>298</v>
       </c>
       <c r="L351" s="3">
-        <v>133</v>
-      </c>
-      <c r="M351" s="1">
-        <v>408000</v>
+        <v>113</v>
       </c>
       <c r="U351" s="3">
-        <v>113.3</v>
+        <v>133.6</v>
       </c>
       <c r="V351" s="3">
-        <v>5488</v>
+        <v>6033</v>
       </c>
       <c r="W351" s="3">
-        <v>159.9</v>
+        <v>186.4</v>
       </c>
       <c r="X351" s="3">
-        <v>4086</v>
+        <v>3938</v>
       </c>
       <c r="Z351" t="s">
-        <v>765</v>
+        <v>809</v>
       </c>
       <c r="AA351" t="s">
-        <v>766</v>
+        <v>810</v>
       </c>
       <c r="AB351" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="AD351" s="4">
-        <v>500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="352" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C352" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D352" t="s">
         <v>44</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="G352" t="s">
-        <v>320</v>
+        <v>812</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L352" s="3">
+        <v>90</v>
+      </c>
+      <c r="M352" s="1">
+        <v>150000</v>
       </c>
       <c r="U352" s="3">
-        <v>167.7</v>
+        <v>89.6</v>
       </c>
       <c r="V352" s="3">
-        <v>6970</v>
+        <v>5695</v>
       </c>
       <c r="W352" s="3">
-        <v>193.3</v>
+        <v>138.4</v>
       </c>
       <c r="X352" s="3">
-        <v>5425</v>
+        <v>3460</v>
       </c>
       <c r="Z352" t="s">
-        <v>767</v>
-      </c>
-      <c r="AA352" t="s">
-        <v>768</v>
-      </c>
-      <c r="AB352" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD352" s="4">
-        <v>280</v>
+        <v>229</v>
       </c>
     </row>
     <row r="353" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C353" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D353" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>770</v>
+        <v>813</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>147</v>
+        <v>207</v>
+      </c>
+      <c r="K353" t="s">
+        <v>76</v>
       </c>
       <c r="L353" s="3">
-        <v>143</v>
-      </c>
-      <c r="U353" s="3">
-        <v>143.9</v>
-      </c>
-      <c r="V353" s="3">
-        <v>6452</v>
-      </c>
-      <c r="W353" s="3">
-        <v>185</v>
-      </c>
-      <c r="X353" s="3">
-        <v>4607</v>
+        <v>75</v>
+      </c>
+      <c r="M353" s="1">
+        <v>46000</v>
+      </c>
+      <c r="Q353" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="R353" s="3">
+        <v>5864</v>
+      </c>
+      <c r="S353" s="3">
+        <v>104.4</v>
+      </c>
+      <c r="T353" s="3">
+        <v>3564</v>
       </c>
       <c r="Z353" t="s">
-        <v>392</v>
+        <v>242</v>
       </c>
     </row>
     <row r="354" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C354" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D354" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>574</v>
+        <v>211</v>
       </c>
       <c r="G354" t="s">
-        <v>772</v>
-      </c>
-      <c r="K354" t="s">
-        <v>76</v>
+        <v>650</v>
       </c>
       <c r="L354" s="3">
-        <v>150</v>
+        <v>102</v>
+      </c>
+      <c r="N354" s="3">
+        <v>2002</v>
       </c>
       <c r="Q354" s="3">
-        <v>120.4</v>
+        <v>99.4</v>
       </c>
       <c r="R354" s="3">
-        <v>5218</v>
+        <v>3087</v>
       </c>
       <c r="S354" s="3">
-        <v>179.6</v>
+        <v>261.8</v>
       </c>
       <c r="T354" s="3">
-        <v>4313</v>
+        <v>2356</v>
       </c>
       <c r="U354" s="3">
-        <v>120.5</v>
+        <v>98</v>
       </c>
       <c r="V354" s="3">
-        <v>5218</v>
+        <v>3080</v>
       </c>
       <c r="W354" s="3">
-        <v>176.7</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="X354" s="3">
-        <v>4385</v>
+        <v>2341</v>
       </c>
       <c r="Z354" t="s">
-        <v>324</v>
+        <v>430</v>
       </c>
     </row>
     <row r="355" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C355" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D355" t="s">
-        <v>114</v>
-      </c>
-      <c r="E355" s="4">
-        <v>155</v>
+        <v>818</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>817</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G355" t="s">
-        <v>320</v>
+        <v>733</v>
       </c>
       <c r="L355" s="3">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="U355" s="3">
-        <v>150.5</v>
+        <v>70.3</v>
       </c>
       <c r="V355" s="3">
-        <v>6299</v>
+        <v>5556</v>
       </c>
       <c r="W355" s="3">
-        <v>176.1</v>
+        <v>111.7</v>
       </c>
       <c r="X355" s="3">
-        <v>3586</v>
+        <v>2739</v>
       </c>
       <c r="Z355" t="s">
-        <v>195</v>
+        <v>815</v>
+      </c>
+      <c r="AA355" t="s">
+        <v>816</v>
+      </c>
+      <c r="AB355" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD355" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="356" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C356" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D356" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>775</v>
+        <v>819</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="J356" s="3">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="G356" t="s">
+        <v>820</v>
       </c>
       <c r="L356" s="3">
-        <v>272</v>
-      </c>
-      <c r="Q356" s="3">
-        <v>246.6</v>
-      </c>
-      <c r="R356" s="3">
-        <v>6838</v>
-      </c>
-      <c r="S356" s="3">
-        <v>289.8</v>
-      </c>
-      <c r="T356" s="3">
-        <v>3138</v>
+        <v>182</v>
+      </c>
+      <c r="M356" s="1">
+        <v>170000</v>
       </c>
       <c r="U356" s="3">
-        <v>238.8</v>
+        <v>171.8</v>
       </c>
       <c r="V356" s="3">
-        <v>6693</v>
+        <v>6692</v>
       </c>
       <c r="W356" s="3">
-        <v>279.89999999999998</v>
+        <v>194.2</v>
       </c>
       <c r="X356" s="3">
-        <v>3111</v>
+        <v>5405</v>
       </c>
       <c r="Z356" t="s">
-        <v>773</v>
-      </c>
-      <c r="AA356" t="s">
-        <v>774</v>
-      </c>
-      <c r="AB356" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD356" s="4">
-        <v>445</v>
+        <v>99</v>
       </c>
     </row>
     <row r="357" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C357" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D357" t="s">
-        <v>778</v>
+        <v>44</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>779</v>
+        <v>821</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>733</v>
+        <v>342</v>
+      </c>
+      <c r="G357" t="s">
+        <v>822</v>
       </c>
       <c r="L357" s="3">
-        <v>109</v>
+        <v>90</v>
+      </c>
+      <c r="Q357" s="3">
+        <v>133.9</v>
+      </c>
+      <c r="R357" s="3">
+        <v>3748</v>
+      </c>
+      <c r="S357" s="3">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="T357" s="3">
+        <v>2934</v>
       </c>
       <c r="U357" s="3">
-        <v>117.5</v>
+        <v>117</v>
       </c>
       <c r="V357" s="3">
-        <v>6165</v>
+        <v>3393</v>
       </c>
       <c r="W357" s="3">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="X357" s="3">
-        <v>4153</v>
+        <v>2887</v>
       </c>
       <c r="Z357" t="s">
-        <v>776</v>
-      </c>
-      <c r="AA357" t="s">
-        <v>777</v>
-      </c>
-      <c r="AB357" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD357" s="4">
-        <v>25</v>
+        <v>591</v>
       </c>
     </row>
     <row r="358" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C358" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D358" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>780</v>
+        <v>823</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="G358" t="s">
+        <v>824</v>
+      </c>
       <c r="L358" s="3">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="U358" s="3">
-        <v>108.5</v>
+        <v>171.1</v>
       </c>
       <c r="V358" s="3">
-        <v>6081</v>
+        <v>7187</v>
       </c>
       <c r="W358" s="3">
-        <v>141</v>
+        <v>186.1</v>
       </c>
       <c r="X358" s="3">
-        <v>3991</v>
+        <v>5015</v>
+      </c>
+      <c r="Z358" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="359" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C359" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D359" t="s">
         <v>28</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>783</v>
+        <v>825</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>373</v>
+        <v>147</v>
+      </c>
+      <c r="G359" t="s">
+        <v>826</v>
       </c>
       <c r="L359" s="3">
+        <v>192</v>
+      </c>
+      <c r="Q359" s="3">
+        <v>225.1</v>
+      </c>
+      <c r="R359" s="3">
+        <v>7656</v>
+      </c>
+      <c r="S359" s="3">
+        <v>225.3</v>
+      </c>
+      <c r="T359" s="3">
+        <v>6129</v>
+      </c>
+      <c r="U359" s="3">
+        <v>211</v>
+      </c>
+      <c r="V359" s="3">
+        <v>7226</v>
+      </c>
+      <c r="W359" s="3">
+        <v>223.4</v>
+      </c>
+      <c r="X359" s="3">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="360" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B360">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C361" s="4">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>755</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L361" s="3">
         <v>170</v>
       </c>
-      <c r="U359" s="3">
-        <v>168.9</v>
-      </c>
-      <c r="V359" s="3">
-        <v>5778</v>
-      </c>
-      <c r="W359" s="3">
-        <v>223.1</v>
-      </c>
-      <c r="X359" s="3">
-        <v>4721</v>
-      </c>
-      <c r="Z359" t="s">
-        <v>781</v>
-      </c>
-      <c r="AA359" t="s">
-        <v>782</v>
-      </c>
-      <c r="AB359" t="s">
+      <c r="Q361" s="3">
+        <v>198.5</v>
+      </c>
+      <c r="R361" s="3">
+        <v>5691</v>
+      </c>
+      <c r="S361" s="3">
+        <v>309.7</v>
+      </c>
+      <c r="T361" s="3">
+        <v>3550</v>
+      </c>
+      <c r="U361" s="3">
+        <v>198.5</v>
+      </c>
+      <c r="V361" s="3">
+        <v>5691</v>
+      </c>
+      <c r="W361" s="3">
+        <v>310</v>
+      </c>
+      <c r="X361" s="3">
+        <v>3550</v>
+      </c>
+      <c r="Z361" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA361" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB361" t="s">
         <v>42</v>
       </c>
-      <c r="AD359" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="360" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C360" s="4">
-        <v>15</v>
-      </c>
-      <c r="D360" t="s">
-        <v>28</v>
-      </c>
-      <c r="E360" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="F360" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L360" s="3">
-        <v>170</v>
-      </c>
-      <c r="U360" s="3">
-        <v>171</v>
-      </c>
-      <c r="V360" s="3">
-        <v>6157</v>
-      </c>
-      <c r="W360" s="3">
-        <v>213.7</v>
-      </c>
-      <c r="X360" s="3">
-        <v>5203</v>
-      </c>
-      <c r="Z360" t="s">
-        <v>784</v>
-      </c>
-      <c r="AA360" t="s">
-        <v>785</v>
-      </c>
-      <c r="AB360" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD360" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="361" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B361">
-        <v>7</v>
+      <c r="AD361" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="362" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C362" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D362" t="s">
-        <v>52</v>
+        <v>755</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>718</v>
+        <v>762</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J362" s="3">
-        <v>5</v>
+        <v>761</v>
       </c>
       <c r="L362" s="3">
-        <v>136</v>
-      </c>
-      <c r="Q362" s="3">
-        <v>123</v>
-      </c>
-      <c r="R362" s="3">
-        <v>5022</v>
-      </c>
-      <c r="S362" s="3">
-        <v>201.8</v>
-      </c>
-      <c r="T362" s="3">
-        <v>3539</v>
+        <v>230</v>
       </c>
       <c r="U362" s="3">
-        <v>121.3</v>
+        <v>202.2</v>
       </c>
       <c r="V362" s="3">
-        <v>4886</v>
+        <v>6248</v>
       </c>
       <c r="W362" s="3">
-        <v>198.9</v>
+        <v>285.5</v>
       </c>
       <c r="X362" s="3">
-        <v>3255</v>
+        <v>2321</v>
       </c>
       <c r="Z362" t="s">
-        <v>523</v>
+        <v>759</v>
+      </c>
+      <c r="AA362" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB362" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD362" s="4">
+        <v>440</v>
       </c>
     </row>
     <row r="363" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C363" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D363" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>719</v>
+        <v>95</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G363" t="s">
-        <v>720</v>
+        <v>495</v>
       </c>
       <c r="L363" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q363" s="3">
-        <v>139.30000000000001</v>
-      </c>
-      <c r="R363" s="3">
-        <v>5962</v>
-      </c>
-      <c r="S363" s="3">
-        <v>187.8</v>
-      </c>
-      <c r="T363" s="3">
-        <v>4474</v>
+        <v>98</v>
       </c>
       <c r="U363" s="3">
-        <v>140.80000000000001</v>
+        <v>110.8</v>
       </c>
       <c r="V363" s="3">
-        <v>5991</v>
+        <v>5532</v>
       </c>
       <c r="W363" s="3">
-        <v>190.9</v>
+        <v>157.5</v>
       </c>
       <c r="X363" s="3">
-        <v>4443</v>
+        <v>4544</v>
       </c>
       <c r="Z363" t="s">
-        <v>195</v>
+        <v>728</v>
       </c>
     </row>
     <row r="364" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C364" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D364" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>531</v>
+        <v>763</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>346</v>
+        <v>463</v>
       </c>
       <c r="L364" s="3">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="U364" s="3">
-        <v>64.3</v>
+        <v>220.2</v>
       </c>
       <c r="V364" s="3">
-        <v>4313</v>
+        <v>6391</v>
       </c>
       <c r="W364" s="3">
-        <v>123.7</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="X364" s="3">
-        <v>2182</v>
+        <v>4838</v>
       </c>
       <c r="Z364" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
     </row>
     <row r="365" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C365" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D365" t="s">
-        <v>723</v>
+        <v>412</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J365" s="3">
-        <v>6</v>
+        <v>206</v>
+      </c>
+      <c r="G365" t="s">
+        <v>764</v>
       </c>
       <c r="L365" s="3">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="U365" s="3">
-        <v>193.1</v>
+        <v>99.3</v>
       </c>
       <c r="V365" s="3">
-        <v>6068</v>
+        <v>6677</v>
       </c>
       <c r="W365" s="3">
-        <v>237.4</v>
+        <v>118.9</v>
       </c>
       <c r="X365" s="3">
-        <v>4703</v>
+        <v>5117</v>
       </c>
       <c r="Z365" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA365" t="s">
-        <v>722</v>
-      </c>
-      <c r="AB365" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD365" s="4">
-        <v>630</v>
+        <v>330</v>
       </c>
     </row>
     <row r="366" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C366" s="4">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>755</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J366" s="3">
         <v>5</v>
       </c>
-      <c r="D366" t="s">
-        <v>412</v>
-      </c>
-      <c r="E366" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="F366" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G366" t="s">
-        <v>724</v>
-      </c>
       <c r="L366" s="3">
-        <v>190</v>
-      </c>
-      <c r="Q366" s="3">
-        <v>185</v>
-      </c>
-      <c r="R366" s="3">
-        <v>6689</v>
-      </c>
-      <c r="S366" s="3">
-        <v>158.1</v>
-      </c>
-      <c r="T366" s="3">
-        <v>7544</v>
+        <v>133</v>
+      </c>
+      <c r="M366" s="1">
+        <v>408000</v>
       </c>
       <c r="U366" s="3">
-        <v>184.2</v>
+        <v>113.3</v>
       </c>
       <c r="V366" s="3">
-        <v>8500</v>
+        <v>5488</v>
       </c>
       <c r="W366" s="3">
-        <v>161.30000000000001</v>
+        <v>159.9</v>
       </c>
       <c r="X366" s="3">
-        <v>7376</v>
+        <v>4086</v>
       </c>
       <c r="Z366" t="s">
-        <v>215</v>
+        <v>765</v>
+      </c>
+      <c r="AA366" t="s">
+        <v>766</v>
+      </c>
+      <c r="AB366" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD366" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="367" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C367" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D367" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="L367" s="3">
-        <v>195</v>
-      </c>
-      <c r="Q367" s="3">
-        <v>193.4</v>
-      </c>
-      <c r="R367" s="3">
-        <v>7495</v>
-      </c>
-      <c r="S367" s="3">
-        <v>222.1</v>
-      </c>
-      <c r="T367" s="3">
-        <v>4933</v>
+        <v>769</v>
+      </c>
+      <c r="G367" t="s">
+        <v>320</v>
       </c>
       <c r="U367" s="3">
-        <v>191.2</v>
+        <v>167.7</v>
       </c>
       <c r="V367" s="3">
-        <v>7157</v>
+        <v>6970</v>
       </c>
       <c r="W367" s="3">
-        <v>223.4</v>
+        <v>193.3</v>
       </c>
       <c r="X367" s="3">
-        <v>4886</v>
+        <v>5425</v>
       </c>
       <c r="Z367" t="s">
-        <v>725</v>
+        <v>767</v>
+      </c>
+      <c r="AA367" t="s">
+        <v>768</v>
       </c>
       <c r="AB367" t="s">
-        <v>726</v>
-      </c>
-      <c r="AC367" t="s">
-        <v>611</v>
+        <v>112</v>
       </c>
       <c r="AD367" s="4">
-        <v>640</v>
+        <v>280</v>
       </c>
     </row>
     <row r="368" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C368" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D368" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>730</v>
+        <v>770</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G368" t="s">
-        <v>677</v>
-      </c>
       <c r="L368" s="3">
-        <v>156</v>
-      </c>
-      <c r="Q368" s="3">
-        <v>161.4</v>
-      </c>
-      <c r="R368" s="3">
-        <v>6432</v>
-      </c>
-      <c r="S368" s="3">
-        <v>201.3</v>
-      </c>
-      <c r="T368" s="3">
-        <v>4502</v>
+        <v>143</v>
+      </c>
+      <c r="U368" s="3">
+        <v>143.9</v>
+      </c>
+      <c r="V368" s="3">
+        <v>6452</v>
+      </c>
+      <c r="W368" s="3">
+        <v>185</v>
+      </c>
+      <c r="X368" s="3">
+        <v>4607</v>
       </c>
       <c r="Z368" t="s">
-        <v>728</v>
-      </c>
-      <c r="AA368" t="s">
-        <v>729</v>
-      </c>
-      <c r="AB368" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD368" s="4">
-        <v>210</v>
+        <v>392</v>
       </c>
     </row>
     <row r="369" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C369" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D369" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>734</v>
+        <v>771</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>733</v>
+        <v>574</v>
       </c>
       <c r="G369" t="s">
-        <v>735</v>
+        <v>772</v>
+      </c>
+      <c r="K369" t="s">
+        <v>76</v>
       </c>
       <c r="L369" s="3">
-        <v>90</v>
-      </c>
-      <c r="M369" s="1">
-        <v>850000</v>
+        <v>150</v>
       </c>
       <c r="Q369" s="3">
-        <v>84.9</v>
+        <v>120.4</v>
       </c>
       <c r="R369" s="3">
-        <v>5620</v>
+        <v>5218</v>
       </c>
       <c r="S369" s="3">
-        <v>127</v>
+        <v>179.6</v>
       </c>
       <c r="T369" s="3">
-        <v>2176</v>
+        <v>4313</v>
       </c>
       <c r="U369" s="3">
-        <v>80.900000000000006</v>
+        <v>120.5</v>
       </c>
       <c r="V369" s="3">
-        <v>553</v>
+        <v>5218</v>
       </c>
       <c r="W369" s="3">
-        <v>118.3</v>
+        <v>176.7</v>
       </c>
       <c r="X369" s="3">
-        <v>2458</v>
+        <v>4385</v>
       </c>
       <c r="Z369" t="s">
-        <v>731</v>
-      </c>
-      <c r="AA369" t="s">
-        <v>732</v>
-      </c>
-      <c r="AB369" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD369" s="4">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="370" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C370" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D370" t="s">
-        <v>44</v>
-      </c>
-      <c r="E370" s="4" t="s">
-        <v>739</v>
+        <v>114</v>
+      </c>
+      <c r="E370" s="4">
+        <v>155</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G370" t="s">
-        <v>736</v>
-      </c>
-      <c r="J370" s="3">
-        <v>5</v>
+        <v>320</v>
       </c>
       <c r="L370" s="3">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="U370" s="3">
-        <v>151.9</v>
+        <v>150.5</v>
       </c>
       <c r="V370" s="3">
-        <v>4596</v>
+        <v>6299</v>
       </c>
       <c r="W370" s="3">
-        <v>253</v>
+        <v>176.1</v>
       </c>
       <c r="X370" s="3">
-        <v>3321</v>
+        <v>3586</v>
       </c>
       <c r="Z370" t="s">
-        <v>737</v>
-      </c>
-      <c r="AA370" t="s">
-        <v>738</v>
-      </c>
-      <c r="AB370" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD370" s="4">
-        <v>600</v>
+        <v>195</v>
       </c>
     </row>
     <row r="371" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C371" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D371" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>607</v>
+        <v>775</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="J371" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L371" s="3">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="Q371" s="3">
-        <v>119</v>
+        <v>246.6</v>
       </c>
       <c r="R371" s="3">
-        <v>5516</v>
+        <v>6838</v>
       </c>
       <c r="S371" s="3">
-        <v>169.3</v>
+        <v>289.8</v>
       </c>
       <c r="T371" s="3">
-        <v>3794</v>
+        <v>3138</v>
       </c>
       <c r="U371" s="3">
-        <v>117.8</v>
+        <v>238.8</v>
       </c>
       <c r="V371" s="3">
-        <v>5647</v>
+        <v>6693</v>
       </c>
       <c r="W371" s="3">
-        <v>155</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="X371" s="3">
-        <v>5079</v>
+        <v>3111</v>
       </c>
       <c r="Z371" t="s">
-        <v>599</v>
+        <v>773</v>
+      </c>
+      <c r="AA371" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB371" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD371" s="4">
+        <v>445</v>
       </c>
     </row>
     <row r="372" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C372" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D372" t="s">
-        <v>44</v>
+        <v>778</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>589</v>
+        <v>779</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>208</v>
+        <v>733</v>
       </c>
       <c r="L372" s="3">
-        <v>139</v>
-      </c>
-      <c r="M372" s="1">
-        <v>167000</v>
+        <v>109</v>
       </c>
       <c r="U372" s="3">
-        <v>141.4</v>
+        <v>117.5</v>
       </c>
       <c r="V372" s="3">
-        <v>6603</v>
+        <v>6165</v>
       </c>
       <c r="W372" s="3">
-        <v>164.2</v>
+        <v>154</v>
       </c>
       <c r="X372" s="3">
-        <v>5340</v>
+        <v>4153</v>
       </c>
       <c r="Z372" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
       <c r="AA372" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="AB372" t="s">
-        <v>369</v>
+        <v>42</v>
       </c>
       <c r="AD372" s="4">
-        <v>350</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C373" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D373" t="s">
-        <v>742</v>
-      </c>
-      <c r="E373" s="4">
-        <v>95</v>
+        <v>38</v>
+      </c>
+      <c r="E373" s="4" t="s">
+        <v>780</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G373" t="s">
-        <v>748</v>
+        <v>147</v>
       </c>
       <c r="L373" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q373" s="3">
-        <v>201.8</v>
-      </c>
-      <c r="R373" s="3">
-        <v>5839</v>
-      </c>
-      <c r="S373" s="3">
-        <v>307</v>
-      </c>
-      <c r="T373" s="3">
-        <v>2772</v>
+        <v>80</v>
       </c>
       <c r="U373" s="3">
-        <v>227.5</v>
+        <v>108.5</v>
       </c>
       <c r="V373" s="3">
-        <v>5702</v>
+        <v>6081</v>
       </c>
       <c r="W373" s="3">
-        <v>381</v>
+        <v>141</v>
       </c>
       <c r="X373" s="3">
-        <v>3108</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="374" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C374" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D374" t="s">
         <v>28</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>744</v>
+        <v>783</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G374" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="J374" s="3">
-        <v>6</v>
-      </c>
       <c r="L374" s="3">
         <v>170</v>
       </c>
-      <c r="Q374" s="3">
-        <v>173.9</v>
-      </c>
-      <c r="R374" s="3">
-        <v>5780</v>
-      </c>
-      <c r="S374" s="3">
-        <v>226.1</v>
-      </c>
-      <c r="T374" s="3">
-        <v>4666</v>
-      </c>
       <c r="U374" s="3">
-        <v>174.6</v>
+        <v>168.9</v>
       </c>
       <c r="V374" s="3">
-        <v>5804</v>
+        <v>5778</v>
       </c>
       <c r="W374" s="3">
-        <v>228.6</v>
+        <v>223.1</v>
       </c>
       <c r="X374" s="3">
-        <v>4669</v>
+        <v>4721</v>
       </c>
       <c r="Z374" t="s">
-        <v>326</v>
+        <v>781</v>
+      </c>
+      <c r="AA374" t="s">
+        <v>782</v>
+      </c>
+      <c r="AB374" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD374" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="375" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C375" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D375" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L375" s="3">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="U375" s="3">
-        <v>184.4</v>
+        <v>171</v>
       </c>
       <c r="V375" s="3">
-        <v>6059</v>
+        <v>6157</v>
       </c>
       <c r="W375" s="3">
-        <v>247.5</v>
+        <v>213.7</v>
       </c>
       <c r="X375" s="3">
-        <v>4445</v>
+        <v>5203</v>
       </c>
       <c r="Z375" t="s">
-        <v>745</v>
+        <v>784</v>
       </c>
       <c r="AA375" t="s">
-        <v>746</v>
+        <v>785</v>
       </c>
       <c r="AB375" t="s">
         <v>126</v>
       </c>
       <c r="AD375" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="376" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C376" s="4">
-        <v>15</v>
-      </c>
-      <c r="D376" t="s">
-        <v>28</v>
-      </c>
-      <c r="E376" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="F376" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L376" s="3">
-        <v>231</v>
-      </c>
-      <c r="M376" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q376" s="3">
-        <v>205.8</v>
-      </c>
-      <c r="R376" s="3">
-        <v>6150</v>
-      </c>
-      <c r="S376" s="3">
-        <v>256.89999999999998</v>
-      </c>
-      <c r="T376" s="3">
-        <v>4021</v>
-      </c>
-      <c r="U376" s="3">
-        <v>212.3</v>
-      </c>
-      <c r="V376" s="3">
-        <v>6103</v>
-      </c>
-      <c r="W376" s="3">
-        <v>266.7</v>
-      </c>
-      <c r="X376" s="3">
-        <v>5039</v>
-      </c>
-      <c r="Z376" t="s">
-        <v>47</v>
+      <c r="B376">
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C377" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D377" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>211</v>
+        <v>373</v>
       </c>
       <c r="J377" s="3">
         <v>5</v>
       </c>
       <c r="L377" s="3">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="Q377" s="3">
-        <v>238.9</v>
+        <v>123</v>
       </c>
       <c r="R377" s="3">
-        <v>5907</v>
+        <v>5022</v>
       </c>
       <c r="S377" s="3">
-        <v>370.3</v>
+        <v>201.8</v>
       </c>
       <c r="T377" s="3">
-        <v>4512</v>
+        <v>3539</v>
       </c>
       <c r="U377" s="3">
-        <v>249.1</v>
+        <v>121.3</v>
       </c>
       <c r="V377" s="3">
-        <v>4570</v>
+        <v>4886</v>
       </c>
       <c r="W377" s="3">
-        <v>393.6</v>
+        <v>198.9</v>
       </c>
       <c r="X377" s="3">
-        <v>4433</v>
+        <v>3255</v>
       </c>
       <c r="Z377" t="s">
-        <v>750</v>
-      </c>
-      <c r="AA377" t="s">
-        <v>751</v>
-      </c>
-      <c r="AB377" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD377" s="4">
-        <v>240</v>
+        <v>523</v>
       </c>
     </row>
     <row r="378" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C378" s="4">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D378" t="s">
-        <v>52</v>
-      </c>
-      <c r="E378" s="4">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>719</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>147</v>
+        <v>211</v>
+      </c>
+      <c r="G378" t="s">
+        <v>720</v>
       </c>
       <c r="L378" s="3">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="Q378" s="3">
-        <v>104.7</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="R378" s="3">
-        <v>5285</v>
+        <v>5962</v>
       </c>
       <c r="S378" s="3">
-        <v>164.4</v>
+        <v>187.8</v>
       </c>
       <c r="T378" s="3">
-        <v>3305</v>
+        <v>4474</v>
       </c>
       <c r="U378" s="3">
-        <v>106.5</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="V378" s="3">
-        <v>5219</v>
+        <v>5991</v>
       </c>
       <c r="W378" s="3">
-        <v>167.5</v>
+        <v>190.9</v>
       </c>
       <c r="X378" s="3">
-        <v>3223</v>
+        <v>4443</v>
       </c>
       <c r="Z378" t="s">
-        <v>753</v>
-      </c>
-      <c r="AA378" t="s">
-        <v>754</v>
-      </c>
-      <c r="AB378" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD378" s="4">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="379" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B379">
-        <v>6</v>
+      <c r="C379" s="4">
+        <v>3</v>
+      </c>
+      <c r="D379" t="s">
+        <v>44</v>
+      </c>
+      <c r="E379" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L379" s="3">
+        <v>70</v>
+      </c>
+      <c r="U379" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="V379" s="3">
+        <v>4313</v>
+      </c>
+      <c r="W379" s="3">
+        <v>123.7</v>
+      </c>
+      <c r="X379" s="3">
+        <v>2182</v>
+      </c>
+      <c r="Z379" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="380" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C380" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D380" t="s">
-        <v>28</v>
+        <v>723</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>694</v>
+        <v>418</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G380" t="s">
-        <v>693</v>
+        <v>211</v>
+      </c>
+      <c r="J380" s="3">
+        <v>6</v>
       </c>
       <c r="L380" s="3">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="U380" s="3">
-        <v>198.9</v>
+        <v>193.1</v>
       </c>
       <c r="V380" s="3">
-        <v>4106</v>
+        <v>6068</v>
       </c>
       <c r="W380" s="3">
-        <v>417.2</v>
+        <v>237.4</v>
       </c>
       <c r="X380" s="3">
-        <v>2732</v>
+        <v>4703</v>
       </c>
       <c r="Z380" t="s">
-        <v>446</v>
+        <v>721</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD380" s="4">
+        <v>630</v>
       </c>
     </row>
     <row r="381" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C381" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D381" t="s">
-        <v>217</v>
+        <v>412</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>695</v>
+        <v>489</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>208</v>
       </c>
       <c r="G381" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="L381" s="3">
-        <v>135</v>
+        <v>190</v>
+      </c>
+      <c r="Q381" s="3">
+        <v>185</v>
+      </c>
+      <c r="R381" s="3">
+        <v>6689</v>
+      </c>
+      <c r="S381" s="3">
+        <v>158.1</v>
+      </c>
+      <c r="T381" s="3">
+        <v>7544</v>
       </c>
       <c r="U381" s="3">
-        <v>141.19999999999999</v>
+        <v>184.2</v>
       </c>
       <c r="V381" s="3">
-        <v>6642</v>
+        <v>8500</v>
       </c>
       <c r="W381" s="3">
-        <v>153.69999999999999</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="X381" s="3">
-        <v>6342</v>
+        <v>7376</v>
       </c>
       <c r="Z381" t="s">
-        <v>552</v>
+        <v>215</v>
       </c>
     </row>
     <row r="382" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C382" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D382" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="F382" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G382" t="s">
-        <v>698</v>
+        <v>727</v>
       </c>
       <c r="L382" s="3">
-        <v>231</v>
-      </c>
-      <c r="M382" s="1">
-        <v>157115</v>
-      </c>
-      <c r="N382" s="3">
-        <v>2004</v>
+        <v>195</v>
+      </c>
+      <c r="Q382" s="3">
+        <v>193.4</v>
+      </c>
+      <c r="R382" s="3">
+        <v>7495</v>
+      </c>
+      <c r="S382" s="3">
+        <v>222.1</v>
+      </c>
+      <c r="T382" s="3">
+        <v>4933</v>
       </c>
       <c r="U382" s="3">
-        <v>199.3</v>
+        <v>191.2</v>
       </c>
       <c r="V382" s="3">
-        <v>6844</v>
+        <v>7157</v>
       </c>
       <c r="W382" s="3">
-        <v>173.9</v>
+        <v>223.4</v>
       </c>
       <c r="X382" s="3">
-        <v>7611</v>
+        <v>4886</v>
       </c>
       <c r="Z382" t="s">
-        <v>432</v>
+        <v>725</v>
+      </c>
+      <c r="AB382" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC382" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD382" s="4">
+        <v>640</v>
       </c>
     </row>
     <row r="383" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C383" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D383" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="G383" t="s">
+        <v>677</v>
       </c>
       <c r="L383" s="3">
-        <v>115</v>
-      </c>
-      <c r="M383" s="1">
-        <v>396000</v>
-      </c>
-      <c r="U383" s="3">
-        <v>121.6</v>
-      </c>
-      <c r="V383" s="3">
-        <v>6112</v>
-      </c>
-      <c r="W383" s="3">
-        <v>170.6</v>
-      </c>
-      <c r="X383" s="3">
-        <v>4285</v>
+        <v>156</v>
+      </c>
+      <c r="Q383" s="3">
+        <v>161.4</v>
+      </c>
+      <c r="R383" s="3">
+        <v>6432</v>
+      </c>
+      <c r="S383" s="3">
+        <v>201.3</v>
+      </c>
+      <c r="T383" s="3">
+        <v>4502</v>
       </c>
       <c r="Z383" t="s">
-        <v>251</v>
+        <v>728</v>
+      </c>
+      <c r="AA383" t="s">
+        <v>729</v>
+      </c>
+      <c r="AB383" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD383" s="4">
+        <v>210</v>
       </c>
     </row>
     <row r="384" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C384" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D384" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>208</v>
+        <v>733</v>
+      </c>
+      <c r="G384" t="s">
+        <v>735</v>
       </c>
       <c r="L384" s="3">
-        <v>125</v>
+        <v>90</v>
+      </c>
+      <c r="M384" s="1">
+        <v>850000</v>
+      </c>
+      <c r="Q384" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="R384" s="3">
+        <v>5620</v>
+      </c>
+      <c r="S384" s="3">
+        <v>127</v>
+      </c>
+      <c r="T384" s="3">
+        <v>2176</v>
       </c>
       <c r="U384" s="3">
-        <v>124.6</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="V384" s="3">
-        <v>6041</v>
+        <v>553</v>
       </c>
       <c r="W384" s="3">
-        <v>158.5</v>
+        <v>118.3</v>
       </c>
       <c r="X384" s="3">
-        <v>3470</v>
+        <v>2458</v>
       </c>
       <c r="Z384" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="AA384" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="AB384" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="AD384" s="4">
-        <v>380</v>
+        <v>300</v>
       </c>
     </row>
     <row r="385" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C385" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D385" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="F385" s="2" t="s">
-        <v>206</v>
+        <v>739</v>
+      </c>
+      <c r="G385" t="s">
+        <v>736</v>
+      </c>
+      <c r="J385" s="3">
+        <v>5</v>
       </c>
       <c r="L385" s="3">
-        <v>75</v>
-      </c>
-      <c r="M385" s="1">
-        <v>464568</v>
+        <v>180</v>
       </c>
       <c r="U385" s="3">
-        <v>79.400000000000006</v>
+        <v>151.9</v>
       </c>
       <c r="V385" s="3">
-        <v>5100</v>
+        <v>4596</v>
       </c>
       <c r="W385" s="3">
-        <v>121.3</v>
+        <v>253</v>
       </c>
       <c r="X385" s="3">
-        <v>4012</v>
+        <v>3321</v>
       </c>
       <c r="Z385" t="s">
-        <v>599</v>
+        <v>737</v>
+      </c>
+      <c r="AA385" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB385" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD385" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="386" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C386" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D386" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>704</v>
+        <v>607</v>
+      </c>
+      <c r="J386" s="3">
+        <v>5</v>
       </c>
       <c r="L386" s="3">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q386" s="3">
-        <v>107.2</v>
+        <v>119</v>
       </c>
       <c r="R386" s="3">
-        <v>5650</v>
+        <v>5516</v>
       </c>
       <c r="S386" s="3">
-        <v>147.1</v>
+        <v>169.3</v>
       </c>
       <c r="T386" s="3">
-        <v>3736</v>
+        <v>3794</v>
       </c>
       <c r="U386" s="3">
-        <v>108.5</v>
+        <v>117.8</v>
       </c>
       <c r="V386" s="3">
-        <v>5746</v>
+        <v>5647</v>
       </c>
       <c r="W386" s="3">
-        <v>148.30000000000001</v>
+        <v>155</v>
       </c>
       <c r="X386" s="3">
-        <v>3810</v>
+        <v>5079</v>
       </c>
       <c r="Z386" t="s">
-        <v>110</v>
+        <v>599</v>
       </c>
     </row>
     <row r="387" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C387" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D387" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>705</v>
+        <v>589</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="L387" s="3">
-        <v>285</v>
+        <v>139</v>
+      </c>
+      <c r="M387" s="1">
+        <v>167000</v>
       </c>
       <c r="U387" s="3">
-        <v>309.10000000000002</v>
+        <v>141.4</v>
       </c>
       <c r="V387" s="3">
-        <v>5360</v>
+        <v>6603</v>
       </c>
       <c r="W387" s="3">
-        <v>487</v>
+        <v>164.2</v>
       </c>
       <c r="X387" s="3">
-        <v>4061</v>
+        <v>5340</v>
+      </c>
+      <c r="Z387" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA387" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB387" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD387" s="4">
+        <v>350</v>
       </c>
     </row>
     <row r="388" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C388" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D388" t="s">
-        <v>44</v>
-      </c>
-      <c r="E388" s="4" t="s">
-        <v>706</v>
+        <v>742</v>
+      </c>
+      <c r="E388" s="4">
+        <v>95</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H388" s="3" t="s">
-        <v>46</v>
+        <v>373</v>
+      </c>
+      <c r="G388" t="s">
+        <v>748</v>
       </c>
       <c r="L388" s="3">
-        <v>116</v>
+        <v>250</v>
+      </c>
+      <c r="Q388" s="3">
+        <v>201.8</v>
+      </c>
+      <c r="R388" s="3">
+        <v>5839</v>
+      </c>
+      <c r="S388" s="3">
+        <v>307</v>
+      </c>
+      <c r="T388" s="3">
+        <v>2772</v>
       </c>
       <c r="U388" s="3">
-        <v>168.1</v>
+        <v>227.5</v>
       </c>
       <c r="V388" s="3">
-        <v>3725</v>
+        <v>5702</v>
       </c>
       <c r="W388" s="3">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="X388" s="3">
-        <v>2941</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="389" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C389" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D389" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G389" t="s">
-        <v>710</v>
+        <v>373</v>
+      </c>
+      <c r="G389" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="J389" s="3">
+        <v>6</v>
       </c>
       <c r="L389" s="3">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Q389" s="3">
-        <v>141.4</v>
+        <v>173.9</v>
       </c>
       <c r="R389" s="3">
-        <v>5198</v>
+        <v>5780</v>
       </c>
       <c r="S389" s="3">
-        <v>214.6</v>
+        <v>226.1</v>
       </c>
       <c r="T389" s="3">
-        <v>3910</v>
+        <v>4666</v>
       </c>
       <c r="U389" s="3">
-        <v>145.19999999999999</v>
+        <v>174.6</v>
       </c>
       <c r="V389" s="3">
-        <v>5158</v>
+        <v>5804</v>
       </c>
       <c r="W389" s="3">
-        <v>219.6</v>
+        <v>228.6</v>
       </c>
       <c r="X389" s="3">
-        <v>3838</v>
+        <v>4669</v>
       </c>
       <c r="Z389" t="s">
-        <v>707</v>
-      </c>
-      <c r="AA389" t="s">
-        <v>708</v>
-      </c>
-      <c r="AB389" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD389" s="4">
-        <v>650</v>
+        <v>326</v>
       </c>
     </row>
     <row r="390" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C390" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D390" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>711</v>
+        <v>687</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="L390" s="3">
-        <v>150</v>
-      </c>
-      <c r="M390" s="1">
-        <v>250000</v>
+        <v>174</v>
       </c>
       <c r="U390" s="3">
-        <v>152.5</v>
+        <v>184.4</v>
       </c>
       <c r="V390" s="3">
-        <v>3952</v>
+        <v>6059</v>
       </c>
       <c r="W390" s="3">
-        <v>324.8</v>
+        <v>247.5</v>
       </c>
       <c r="X390" s="3">
-        <v>2672</v>
+        <v>4445</v>
       </c>
       <c r="Z390" t="s">
-        <v>99</v>
+        <v>745</v>
+      </c>
+      <c r="AA390" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB390" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD390" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="391" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C391" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D391" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G391" t="s">
-        <v>714</v>
+        <v>747</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="L391" s="3">
-        <v>147</v>
+        <v>231</v>
+      </c>
+      <c r="M391" t="s">
+        <v>749</v>
       </c>
       <c r="Q391" s="3">
-        <v>178.3</v>
+        <v>205.8</v>
       </c>
       <c r="R391" s="3">
-        <v>4540</v>
+        <v>6150</v>
       </c>
       <c r="S391" s="3">
-        <v>315.2</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="T391" s="3">
-        <v>3784</v>
+        <v>4021</v>
       </c>
       <c r="U391" s="3">
-        <v>149</v>
+        <v>212.3</v>
       </c>
       <c r="V391" s="3">
-        <v>5088</v>
+        <v>6103</v>
       </c>
       <c r="W391" s="3">
-        <v>256.3</v>
+        <v>266.7</v>
       </c>
       <c r="X391" s="3">
-        <v>3222</v>
+        <v>5039</v>
       </c>
       <c r="Z391" t="s">
-        <v>712</v>
-      </c>
-      <c r="AA391" t="s">
-        <v>713</v>
-      </c>
-      <c r="AB391" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD391" s="4">
-        <v>500</v>
+        <v>47</v>
       </c>
     </row>
     <row r="392" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C392" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D392" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>298</v>
+        <v>211</v>
+      </c>
+      <c r="J392" s="3">
+        <v>5</v>
       </c>
       <c r="L392" s="3">
-        <v>55</v>
+        <v>240</v>
+      </c>
+      <c r="Q392" s="3">
+        <v>238.9</v>
+      </c>
+      <c r="R392" s="3">
+        <v>5907</v>
+      </c>
+      <c r="S392" s="3">
+        <v>370.3</v>
+      </c>
+      <c r="T392" s="3">
+        <v>4512</v>
       </c>
       <c r="U392" s="3">
-        <v>75.400000000000006</v>
+        <v>249.1</v>
       </c>
       <c r="V392" s="3">
-        <v>6471</v>
+        <v>4570</v>
       </c>
       <c r="W392" s="3">
-        <v>102.3</v>
+        <v>393.6</v>
       </c>
       <c r="X392" s="3">
-        <v>3908</v>
+        <v>4433</v>
+      </c>
+      <c r="Z392" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA392" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB392" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD392" s="4">
+        <v>240</v>
       </c>
     </row>
     <row r="393" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C393" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D393" t="s">
         <v>52</v>
       </c>
-      <c r="E393" s="4" t="s">
-        <v>716</v>
+      <c r="E393" s="4">
+        <v>80</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J393" s="3">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="L393" s="3">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="Q393" s="3">
-        <v>92.1</v>
+        <v>104.7</v>
       </c>
       <c r="R393" s="3">
-        <v>3973</v>
+        <v>5285</v>
       </c>
       <c r="S393" s="3">
-        <v>168.5</v>
+        <v>164.4</v>
       </c>
       <c r="T393" s="3">
-        <v>3702</v>
+        <v>3305</v>
       </c>
       <c r="U393" s="3">
-        <v>94</v>
+        <v>106.5</v>
       </c>
       <c r="V393" s="3">
-        <v>4062</v>
+        <v>5219</v>
       </c>
       <c r="W393" s="3">
-        <v>170.1</v>
+        <v>167.5</v>
       </c>
       <c r="X393" s="3">
-        <v>3731</v>
+        <v>3223</v>
       </c>
       <c r="Z393" t="s">
-        <v>110</v>
+        <v>753</v>
+      </c>
+      <c r="AA393" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB393" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD393" s="4">
+        <v>180</v>
       </c>
     </row>
     <row r="394" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C394" s="4">
-        <v>15</v>
-      </c>
-      <c r="D394" t="s">
-        <v>38</v>
-      </c>
-      <c r="E394" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="J394" s="3">
+      <c r="B394">
         <v>6</v>
       </c>
-      <c r="L394" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q394" s="3">
-        <v>185.9</v>
-      </c>
-      <c r="R394" s="3">
-        <v>5885</v>
-      </c>
-      <c r="S394" s="3">
-        <v>230.5</v>
-      </c>
-      <c r="T394" s="3">
-        <v>5266</v>
-      </c>
-      <c r="U394" s="3">
-        <v>189.3</v>
-      </c>
-      <c r="V394" s="3">
-        <v>5956</v>
-      </c>
-      <c r="W394" s="3">
-        <v>236.6</v>
-      </c>
-      <c r="X394" s="3">
-        <v>5217</v>
-      </c>
-      <c r="Z394" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="395" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B395">
-        <v>5</v>
+      <c r="C395" s="4">
+        <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>28</v>
+      </c>
+      <c r="E395" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G395" t="s">
+        <v>693</v>
+      </c>
+      <c r="L395" s="3">
+        <v>185</v>
+      </c>
+      <c r="U395" s="3">
+        <v>198.9</v>
+      </c>
+      <c r="V395" s="3">
+        <v>4106</v>
+      </c>
+      <c r="W395" s="3">
+        <v>417.2</v>
+      </c>
+      <c r="X395" s="3">
+        <v>2732</v>
+      </c>
+      <c r="Z395" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="396" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C396" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D396" t="s">
-        <v>412</v>
+        <v>217</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="G396" t="s">
-        <v>576</v>
+        <v>696</v>
       </c>
       <c r="L396" s="3">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="U396" s="3">
-        <v>191.2</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="V396" s="3">
-        <v>8095</v>
+        <v>6642</v>
       </c>
       <c r="W396" s="3">
-        <v>184</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="X396" s="3">
-        <v>6394</v>
+        <v>6342</v>
       </c>
       <c r="Z396" t="s">
-        <v>409</v>
+        <v>552</v>
       </c>
     </row>
     <row r="397" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C397" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D397" t="s">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>208</v>
+        <v>298</v>
+      </c>
+      <c r="G397" t="s">
+        <v>698</v>
       </c>
       <c r="L397" s="3">
-        <v>95</v>
-      </c>
-      <c r="Q397" s="3">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="R397" s="3">
-        <v>6130</v>
-      </c>
-      <c r="S397" s="3">
-        <v>89.8</v>
-      </c>
-      <c r="T397" s="3">
-        <v>6020</v>
+        <v>231</v>
+      </c>
+      <c r="M397" s="1">
+        <v>157115</v>
+      </c>
+      <c r="N397" s="3">
+        <v>2004</v>
       </c>
       <c r="U397" s="3">
-        <v>78.7</v>
+        <v>199.3</v>
       </c>
       <c r="V397" s="3">
-        <v>6094</v>
+        <v>6844</v>
       </c>
       <c r="W397" s="3">
-        <v>91.7</v>
+        <v>173.9</v>
       </c>
       <c r="X397" s="3">
-        <v>5966</v>
+        <v>7611</v>
       </c>
       <c r="Z397" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA397" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB397" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD397" s="4">
-        <v>100</v>
+        <v>432</v>
       </c>
     </row>
     <row r="398" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C398" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D398" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G398" t="s">
-        <v>685</v>
-      </c>
-      <c r="J398" s="3">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="L398" s="3">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="M398" s="1">
-        <v>377473</v>
-      </c>
-      <c r="Q398" s="3">
-        <v>199.6</v>
-      </c>
-      <c r="R398" s="3">
-        <v>6123</v>
-      </c>
-      <c r="S398" s="3">
-        <v>268.2</v>
-      </c>
-      <c r="T398" s="3">
-        <v>3625</v>
+        <v>396000</v>
       </c>
       <c r="U398" s="3">
-        <v>202.2</v>
+        <v>121.6</v>
       </c>
       <c r="V398" s="3">
-        <v>6211</v>
+        <v>6112</v>
       </c>
       <c r="W398" s="3">
-        <v>269.60000000000002</v>
+        <v>170.6</v>
       </c>
       <c r="X398" s="3">
-        <v>3618</v>
+        <v>4285</v>
       </c>
       <c r="Z398" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA398" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB398" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD398" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="399" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C399" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D399" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G399" t="s">
-        <v>576</v>
+        <v>208</v>
       </c>
       <c r="L399" s="3">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="U399" s="3">
-        <v>261.8</v>
+        <v>124.6</v>
       </c>
       <c r="V399" s="3">
-        <v>5721</v>
+        <v>6041</v>
       </c>
       <c r="W399" s="3">
-        <v>406.3</v>
+        <v>158.5</v>
       </c>
       <c r="X399" s="3">
-        <v>4044</v>
+        <v>3470</v>
+      </c>
+      <c r="Z399" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA399" t="s">
+        <v>702</v>
+      </c>
+      <c r="AB399" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD399" s="4">
+        <v>380</v>
       </c>
     </row>
     <row r="400" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C400" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D400" t="s">
         <v>52</v>
       </c>
+      <c r="E400" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="F400" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G400" t="s">
-        <v>424</v>
-      </c>
-      <c r="K400" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="L400" s="3">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="M400" s="1">
-        <v>137872</v>
-      </c>
-      <c r="Q400" s="3">
-        <v>97</v>
-      </c>
-      <c r="R400" s="3">
-        <v>5372</v>
-      </c>
-      <c r="S400" s="3">
-        <v>168.8</v>
-      </c>
-      <c r="T400" s="3">
-        <v>3490</v>
+        <v>464568</v>
       </c>
       <c r="U400" s="3">
-        <v>97.3</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="V400" s="3">
-        <v>5749</v>
+        <v>5100</v>
       </c>
       <c r="W400" s="3">
-        <v>147.9</v>
+        <v>121.3</v>
       </c>
       <c r="X400" s="3">
-        <v>3325</v>
+        <v>4012</v>
       </c>
       <c r="Z400" t="s">
-        <v>104</v>
+        <v>599</v>
       </c>
     </row>
     <row r="401" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C401" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D401" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="F401" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J401" s="3">
-        <v>6</v>
+        <v>704</v>
       </c>
       <c r="L401" s="3">
-        <v>174</v>
-      </c>
-      <c r="M401" s="1">
-        <v>320000</v>
-      </c>
-      <c r="N401" s="3">
-        <v>1983</v>
+        <v>90</v>
+      </c>
+      <c r="Q401" s="3">
+        <v>107.2</v>
+      </c>
+      <c r="R401" s="3">
+        <v>5650</v>
+      </c>
+      <c r="S401" s="3">
+        <v>147.1</v>
+      </c>
+      <c r="T401" s="3">
+        <v>3736</v>
       </c>
       <c r="U401" s="3">
-        <v>186.8</v>
+        <v>108.5</v>
       </c>
       <c r="V401" s="3">
-        <v>5977</v>
+        <v>5746</v>
       </c>
       <c r="W401" s="3">
-        <v>237.9</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="X401" s="3">
-        <v>4499</v>
+        <v>3810</v>
       </c>
       <c r="Z401" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
     </row>
     <row r="402" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C402" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D402" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>464</v>
+        <v>705</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J402" s="3">
-        <v>6</v>
-      </c>
       <c r="L402" s="3">
-        <v>150</v>
-      </c>
-      <c r="M402" s="1"/>
-      <c r="Q402" s="3">
-        <v>158.5</v>
-      </c>
-      <c r="R402" s="3">
-        <v>6233</v>
-      </c>
-      <c r="S402" s="3">
-        <v>188.2</v>
-      </c>
-      <c r="T402" s="3">
-        <v>4832</v>
+        <v>285</v>
       </c>
       <c r="U402" s="3">
-        <v>158.30000000000001</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="V402" s="3">
-        <v>6308</v>
+        <v>5360</v>
       </c>
       <c r="W402" s="3">
-        <v>191.7</v>
+        <v>487</v>
       </c>
       <c r="X402" s="3">
-        <v>4811</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="403" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C403" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D403" t="s">
         <v>44</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="H403" s="3" t="s">
         <v>46</v>
       </c>
       <c r="L403" s="3">
-        <v>140</v>
-      </c>
-      <c r="M403" s="1"/>
-      <c r="Q403" s="3">
-        <v>197.4</v>
-      </c>
-      <c r="R403" s="3">
-        <v>4140</v>
-      </c>
-      <c r="S403" s="3">
-        <v>445.5</v>
-      </c>
-      <c r="T403" s="3">
-        <v>2125</v>
+        <v>116</v>
       </c>
       <c r="U403" s="3">
-        <v>197.4</v>
+        <v>168.1</v>
       </c>
       <c r="V403" s="3">
-        <v>4141</v>
+        <v>3725</v>
       </c>
       <c r="W403" s="3">
-        <v>449.4</v>
+        <v>369</v>
       </c>
       <c r="X403" s="3">
-        <v>2171</v>
-      </c>
-      <c r="Z403" t="s">
-        <v>330</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="404" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C404" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D404" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="G404" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="L404" s="3">
-        <v>200</v>
-      </c>
-      <c r="M404" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="Q404" s="3">
+        <v>141.4</v>
+      </c>
+      <c r="R404" s="3">
+        <v>5198</v>
+      </c>
+      <c r="S404" s="3">
+        <v>214.6</v>
+      </c>
+      <c r="T404" s="3">
+        <v>3910</v>
+      </c>
       <c r="U404" s="3">
-        <v>226.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="V404" s="3">
-        <v>6399</v>
+        <v>5158</v>
       </c>
       <c r="W404" s="3">
-        <v>319.89999999999998</v>
+        <v>219.6</v>
       </c>
       <c r="X404" s="3">
-        <v>3371</v>
+        <v>3838</v>
       </c>
       <c r="Z404" t="s">
-        <v>156</v>
+        <v>707</v>
+      </c>
+      <c r="AA404" t="s">
+        <v>708</v>
+      </c>
+      <c r="AB404" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD404" s="4">
+        <v>650</v>
       </c>
     </row>
     <row r="405" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C405" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D405" t="s">
-        <v>691</v>
+        <v>28</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="F405" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="L405" s="3">
+        <v>150</v>
+      </c>
+      <c r="M405" s="1">
+        <v>250000</v>
+      </c>
+      <c r="U405" s="3">
+        <v>152.5</v>
+      </c>
+      <c r="V405" s="3">
+        <v>3952</v>
+      </c>
+      <c r="W405" s="3">
+        <v>324.8</v>
+      </c>
+      <c r="X405" s="3">
+        <v>2672</v>
+      </c>
+      <c r="Z405" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="406" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C406" s="4">
+        <v>12</v>
+      </c>
+      <c r="D406" t="s">
+        <v>38</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G406" t="s">
+        <v>714</v>
+      </c>
+      <c r="L406" s="3">
         <v>147</v>
       </c>
-      <c r="G405" t="s">
-        <v>690</v>
-      </c>
-      <c r="L405" s="3">
-        <v>245</v>
-      </c>
-      <c r="M405" s="1">
-        <v>8000</v>
-      </c>
-      <c r="U405" s="3">
-        <v>302.3</v>
-      </c>
-      <c r="V405" s="3">
-        <v>6386</v>
-      </c>
-      <c r="W405" s="3">
-        <v>424.8</v>
-      </c>
-      <c r="X405" s="3">
-        <v>3147</v>
-      </c>
-      <c r="Z405" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="406" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B406">
-        <v>4</v>
+      <c r="Q406" s="3">
+        <v>178.3</v>
+      </c>
+      <c r="R406" s="3">
+        <v>4540</v>
+      </c>
+      <c r="S406" s="3">
+        <v>315.2</v>
+      </c>
+      <c r="T406" s="3">
+        <v>3784</v>
+      </c>
+      <c r="U406" s="3">
+        <v>149</v>
+      </c>
+      <c r="V406" s="3">
+        <v>5088</v>
+      </c>
+      <c r="W406" s="3">
+        <v>256.3</v>
+      </c>
+      <c r="X406" s="3">
+        <v>3222</v>
+      </c>
+      <c r="Z406" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA406" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB406" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD406" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="407" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C407" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D407" t="s">
         <v>44</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>649</v>
+        <v>715</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G407" t="s">
-        <v>650</v>
-      </c>
-      <c r="K407" t="s">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="L407" s="3">
-        <v>140</v>
-      </c>
-      <c r="Q407" s="3">
-        <v>154.6</v>
-      </c>
-      <c r="R407" s="3">
-        <v>39115</v>
-      </c>
-      <c r="S407" s="3">
-        <v>367.9</v>
-      </c>
-      <c r="T407" s="3">
-        <v>2264</v>
+        <v>55</v>
       </c>
       <c r="U407" s="3">
-        <v>154.9</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="V407" s="3">
-        <v>3982</v>
+        <v>6471</v>
       </c>
       <c r="W407" s="3">
-        <v>368.3</v>
+        <v>102.3</v>
       </c>
       <c r="X407" s="3">
-        <v>2346</v>
-      </c>
-      <c r="Z407" t="s">
-        <v>110</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="408" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C408" s="4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D408" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>651</v>
+        <v>716</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J408" s="3">
+        <v>5</v>
       </c>
       <c r="L408" s="3">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="Q408" s="3">
-        <v>227.4</v>
+        <v>92.1</v>
       </c>
       <c r="R408" s="3">
-        <v>5706</v>
+        <v>3973</v>
       </c>
       <c r="S408" s="3">
-        <v>329.2</v>
+        <v>168.5</v>
       </c>
       <c r="T408" s="3">
-        <v>3772</v>
+        <v>3702</v>
       </c>
       <c r="U408" s="3">
-        <v>216.6</v>
+        <v>94</v>
       </c>
       <c r="V408" s="3">
-        <v>5120</v>
+        <v>4062</v>
       </c>
       <c r="W408" s="3">
-        <v>327.39999999999998</v>
+        <v>170.1</v>
       </c>
       <c r="X408" s="3">
-        <v>3780</v>
+        <v>3731</v>
+      </c>
+      <c r="Z408" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="409" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C409" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D409" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="F409" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G409" t="s">
-        <v>653</v>
+        <v>717</v>
+      </c>
+      <c r="J409" s="3">
+        <v>6</v>
       </c>
       <c r="L409" s="3">
-        <v>122</v>
-      </c>
-      <c r="M409" s="1">
-        <v>197000</v>
+        <v>220</v>
+      </c>
+      <c r="Q409" s="3">
+        <v>185.9</v>
+      </c>
+      <c r="R409" s="3">
+        <v>5885</v>
+      </c>
+      <c r="S409" s="3">
+        <v>230.5</v>
+      </c>
+      <c r="T409" s="3">
+        <v>5266</v>
       </c>
       <c r="U409" s="3">
-        <v>123.1</v>
+        <v>189.3</v>
       </c>
       <c r="V409" s="3">
-        <v>5319</v>
+        <v>5956</v>
       </c>
       <c r="W409" s="3">
-        <v>195</v>
+        <v>236.6</v>
       </c>
       <c r="X409" s="3">
-        <v>3891</v>
+        <v>5217</v>
       </c>
       <c r="Z409" t="s">
-        <v>386</v>
+        <v>47</v>
       </c>
     </row>
     <row r="410" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C410" s="4">
-        <v>4</v>
-      </c>
-      <c r="D410" t="s">
-        <v>44</v>
-      </c>
-      <c r="E410" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F410" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G410" t="s">
-        <v>655</v>
-      </c>
-      <c r="L410" s="3">
-        <v>115</v>
-      </c>
-      <c r="Q410" s="3">
-        <v>126.6</v>
-      </c>
-      <c r="R410" s="3">
-        <v>5245</v>
-      </c>
-      <c r="S410" s="3">
-        <v>225.8</v>
-      </c>
-      <c r="T410" s="3">
-        <v>3364</v>
-      </c>
-      <c r="U410" s="3">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="V410" s="3">
-        <v>5784</v>
-      </c>
-      <c r="W410" s="3">
-        <v>2440</v>
-      </c>
-      <c r="X410" s="3">
-        <v>3011</v>
-      </c>
-      <c r="Z410" t="s">
-        <v>47</v>
+      <c r="B410">
+        <v>5</v>
       </c>
     </row>
     <row r="411" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C411" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D411" t="s">
-        <v>52</v>
+        <v>412</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>338</v>
+        <v>678</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="G411" t="s">
-        <v>657</v>
+        <v>576</v>
       </c>
       <c r="L411" s="3">
-        <v>102</v>
-      </c>
-      <c r="M411" s="1">
-        <v>550881</v>
-      </c>
-      <c r="Q411" s="3">
-        <v>90.8</v>
-      </c>
-      <c r="R411" s="3">
-        <v>5587</v>
-      </c>
-      <c r="S411" s="3">
-        <v>127.1</v>
-      </c>
-      <c r="T411" s="3">
-        <v>4187</v>
+        <v>200</v>
       </c>
       <c r="U411" s="3">
-        <v>97.5</v>
+        <v>191.2</v>
       </c>
       <c r="V411" s="3">
-        <v>5617</v>
+        <v>8095</v>
       </c>
       <c r="W411" s="3">
-        <v>137.19999999999999</v>
+        <v>184</v>
       </c>
       <c r="X411" s="3">
-        <v>4055</v>
+        <v>6394</v>
       </c>
       <c r="Z411" t="s">
-        <v>152</v>
+        <v>409</v>
       </c>
     </row>
     <row r="412" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C412" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D412" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J412" s="3">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="L412" s="3">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="Q412" s="3">
-        <v>113.3</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="R412" s="3">
-        <v>6022</v>
+        <v>6130</v>
       </c>
       <c r="S412" s="3">
-        <v>163.69999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="T412" s="3">
-        <v>3992</v>
+        <v>6020</v>
       </c>
       <c r="U412" s="3">
-        <v>117.4</v>
+        <v>78.7</v>
       </c>
       <c r="V412" s="3">
-        <v>5951</v>
+        <v>6094</v>
       </c>
       <c r="W412" s="3">
-        <v>168.2</v>
+        <v>91.7</v>
       </c>
       <c r="X412" s="3">
-        <v>3955</v>
+        <v>5966</v>
       </c>
       <c r="Z412" t="s">
-        <v>386</v>
+        <v>679</v>
+      </c>
+      <c r="AA412" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB412" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD412" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="413" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C413" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D413" t="s">
         <v>28</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="H413" s="3" t="s">
-        <v>46</v>
+        <v>463</v>
+      </c>
+      <c r="G413" t="s">
+        <v>685</v>
+      </c>
+      <c r="J413" s="3">
+        <v>6</v>
       </c>
       <c r="L413" s="3">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="M413" s="1">
-        <v>200000</v>
+        <v>377473</v>
+      </c>
+      <c r="Q413" s="3">
+        <v>199.6</v>
+      </c>
+      <c r="R413" s="3">
+        <v>6123</v>
+      </c>
+      <c r="S413" s="3">
+        <v>268.2</v>
+      </c>
+      <c r="T413" s="3">
+        <v>3625</v>
       </c>
       <c r="U413" s="3">
-        <v>148.30000000000001</v>
+        <v>202.2</v>
       </c>
       <c r="V413" s="3">
-        <v>3922</v>
+        <v>6211</v>
       </c>
       <c r="W413" s="3">
-        <v>334.3</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="X413" s="3">
-        <v>2422</v>
+        <v>3618</v>
       </c>
       <c r="Z413" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="AA413" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="AB413" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AD413" s="4">
-        <v>490</v>
+        <v>252</v>
       </c>
     </row>
     <row r="414" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C414" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D414" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>663</v>
+        <v>147</v>
       </c>
       <c r="G414" t="s">
-        <v>664</v>
-      </c>
-      <c r="J414" s="3">
-        <v>8</v>
-      </c>
-      <c r="N414" s="3">
-        <v>1969</v>
-      </c>
-      <c r="Q414" s="3">
-        <v>328.3</v>
-      </c>
-      <c r="R414" s="3">
-        <v>4379</v>
-      </c>
-      <c r="S414" s="3">
-        <v>552.79999999999995</v>
-      </c>
-      <c r="T414" s="3">
-        <v>4015</v>
+        <v>576</v>
+      </c>
+      <c r="L414" s="3">
+        <v>240</v>
       </c>
       <c r="U414" s="3">
-        <v>339.5</v>
+        <v>261.8</v>
       </c>
       <c r="V414" s="3">
-        <v>5125</v>
+        <v>5721</v>
       </c>
       <c r="W414" s="3">
-        <v>559.9</v>
+        <v>406.3</v>
       </c>
       <c r="X414" s="3">
-        <v>3873</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="415" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C415" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D415" t="s">
         <v>52</v>
       </c>
-      <c r="E415" s="4" t="s">
-        <v>607</v>
-      </c>
       <c r="F415" s="2" t="s">
-        <v>373</v>
+        <v>147</v>
       </c>
       <c r="G415" t="s">
-        <v>667</v>
-      </c>
-      <c r="J415" s="3">
-        <v>5</v>
+        <v>424</v>
+      </c>
+      <c r="K415" t="s">
+        <v>76</v>
       </c>
       <c r="L415" s="3">
-        <v>133</v>
+        <v>113</v>
+      </c>
+      <c r="M415" s="1">
+        <v>137872</v>
       </c>
       <c r="Q415" s="3">
-        <v>107.3</v>
+        <v>97</v>
       </c>
       <c r="R415" s="3">
-        <v>5214</v>
+        <v>5372</v>
       </c>
       <c r="S415" s="3">
-        <v>163</v>
+        <v>168.8</v>
       </c>
       <c r="T415" s="3">
-        <v>3028</v>
+        <v>3490</v>
       </c>
       <c r="U415" s="3">
-        <v>113.6</v>
+        <v>97.3</v>
       </c>
       <c r="V415" s="3">
-        <v>5412</v>
+        <v>5749</v>
       </c>
       <c r="W415" s="3">
-        <v>169.7</v>
+        <v>147.9</v>
       </c>
       <c r="X415" s="3">
-        <v>3674</v>
+        <v>3325</v>
       </c>
       <c r="Z415" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA415" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB415" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD415" s="4">
-        <v>580</v>
+        <v>104</v>
       </c>
     </row>
     <row r="416" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C416" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D416" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J416" s="3">
         <v>6</v>
       </c>
       <c r="L416" s="3">
-        <v>136</v>
-      </c>
-      <c r="Q416" s="3">
-        <v>178.2</v>
-      </c>
-      <c r="R416" s="3">
-        <v>6323</v>
-      </c>
-      <c r="S416" s="3">
-        <v>213.5</v>
-      </c>
-      <c r="T416" s="3">
-        <v>5093</v>
+        <v>174</v>
+      </c>
+      <c r="M416" s="1">
+        <v>320000</v>
+      </c>
+      <c r="N416" s="3">
+        <v>1983</v>
       </c>
       <c r="U416" s="3">
-        <v>179.5</v>
+        <v>186.8</v>
       </c>
       <c r="V416" s="3">
-        <v>6252</v>
+        <v>5977</v>
       </c>
       <c r="W416" s="3">
-        <v>216.8</v>
+        <v>237.9</v>
       </c>
       <c r="X416" s="3">
-        <v>5084</v>
+        <v>4499</v>
       </c>
       <c r="Z416" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
     </row>
     <row r="417" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C417" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D417" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E417" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="G417" t="s">
-        <v>670</v>
+        <v>464</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J417" s="3">
+        <v>6</v>
       </c>
       <c r="L417" s="3">
-        <v>136</v>
+        <v>150</v>
+      </c>
+      <c r="M417" s="1"/>
+      <c r="Q417" s="3">
+        <v>158.5</v>
+      </c>
+      <c r="R417" s="3">
+        <v>6233</v>
+      </c>
+      <c r="S417" s="3">
+        <v>188.2</v>
+      </c>
+      <c r="T417" s="3">
+        <v>4832</v>
       </c>
       <c r="U417" s="3">
-        <v>125.1</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V417" s="3">
-        <v>5351</v>
+        <v>6308</v>
       </c>
       <c r="W417" s="3">
-        <v>190.2</v>
+        <v>191.7</v>
       </c>
       <c r="X417" s="3">
-        <v>4523</v>
-      </c>
-      <c r="Z417" t="s">
-        <v>104</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="418" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C418" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D418" t="s">
-        <v>671</v>
+        <v>44</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>602</v>
+        <v>147</v>
       </c>
       <c r="H418" s="3" t="s">
         <v>46</v>
       </c>
       <c r="L418" s="3">
-        <v>145</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M418" s="1"/>
       <c r="Q418" s="3">
-        <v>145.6</v>
+        <v>197.4</v>
       </c>
       <c r="R418" s="3">
-        <v>3370</v>
+        <v>4140</v>
       </c>
       <c r="S418" s="3">
-        <v>383.7</v>
+        <v>445.5</v>
       </c>
       <c r="T418" s="3">
-        <v>2295</v>
+        <v>2125</v>
       </c>
       <c r="U418" s="3">
-        <v>147</v>
+        <v>197.4</v>
       </c>
       <c r="V418" s="3">
-        <v>3405</v>
+        <v>4141</v>
       </c>
       <c r="W418" s="3">
-        <v>386.1</v>
+        <v>449.4</v>
       </c>
       <c r="X418" s="3">
-        <v>2295</v>
+        <v>2171</v>
       </c>
       <c r="Z418" t="s">
-        <v>64</v>
+        <v>330</v>
       </c>
     </row>
     <row r="419" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C419" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D419" t="s">
         <v>52</v>
       </c>
+      <c r="E419" s="4" t="s">
+        <v>689</v>
+      </c>
       <c r="F419" s="2" t="s">
-        <v>342</v>
+        <v>147</v>
+      </c>
+      <c r="G419" t="s">
+        <v>690</v>
       </c>
       <c r="L419" s="3">
-        <v>131</v>
-      </c>
-      <c r="M419" s="1">
-        <v>300000</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M419" s="1"/>
       <c r="U419" s="3">
-        <v>128.9</v>
+        <v>226.2</v>
       </c>
       <c r="V419" s="3">
-        <v>4106</v>
+        <v>6399</v>
       </c>
       <c r="W419" s="3">
-        <v>317.2</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="X419" s="3">
-        <v>2094</v>
+        <v>3371</v>
       </c>
       <c r="Z419" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA419" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB419" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD419" s="4">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="420" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C420" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D420" t="s">
-        <v>28</v>
+        <v>691</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>475</v>
+        <v>692</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G420" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="L420" s="3">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="M420" s="1">
-        <v>335000</v>
-      </c>
-      <c r="Q420" s="3">
-        <v>193.1</v>
-      </c>
-      <c r="R420" s="3">
-        <v>6562</v>
-      </c>
-      <c r="S420" s="3">
-        <v>262</v>
-      </c>
-      <c r="T420" s="3">
-        <v>195.3</v>
+        <v>8000</v>
       </c>
       <c r="U420" s="3">
-        <v>195.3</v>
+        <v>302.3</v>
       </c>
       <c r="V420" s="3">
-        <v>6605</v>
+        <v>6386</v>
       </c>
       <c r="W420" s="3">
-        <v>267.60000000000002</v>
+        <v>424.8</v>
       </c>
       <c r="X420" s="3">
-        <v>3696</v>
+        <v>3147</v>
       </c>
       <c r="Z420" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA420" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB420" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD420" s="4">
-        <v>250</v>
+        <v>386</v>
       </c>
     </row>
     <row r="421" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B421">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="2:30" x14ac:dyDescent="0.25">
@@ -17345,52 +17371,49 @@
         <v>1</v>
       </c>
       <c r="D422" t="s">
-        <v>197</v>
-      </c>
-      <c r="E422" s="4">
-        <v>968</v>
+        <v>44</v>
+      </c>
+      <c r="E422" s="4" t="s">
+        <v>649</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>463</v>
+        <v>147</v>
+      </c>
+      <c r="G422" t="s">
+        <v>650</v>
+      </c>
+      <c r="K422" t="s">
+        <v>76</v>
       </c>
       <c r="L422" s="3">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="Q422" s="3">
-        <v>213.8</v>
+        <v>154.6</v>
       </c>
       <c r="R422" s="3">
-        <v>6430</v>
+        <v>39115</v>
       </c>
       <c r="S422" s="3">
-        <v>272.3</v>
+        <v>367.9</v>
       </c>
       <c r="T422" s="3">
-        <v>4390</v>
+        <v>2264</v>
       </c>
       <c r="U422" s="3">
-        <v>216.9</v>
+        <v>154.9</v>
       </c>
       <c r="V422" s="3">
-        <v>6411</v>
+        <v>3982</v>
       </c>
       <c r="W422" s="3">
-        <v>276.2</v>
+        <v>368.3</v>
       </c>
       <c r="X422" s="3">
-        <v>4383</v>
+        <v>2346</v>
       </c>
       <c r="Z422" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA422" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB422" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD422" s="4">
-        <v>400</v>
+        <v>110</v>
       </c>
     </row>
     <row r="423" spans="2:30" x14ac:dyDescent="0.25">
@@ -17398,31 +17421,37 @@
         <v>2</v>
       </c>
       <c r="D423" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="F423" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G423" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="L423" s="3">
-        <v>165</v>
+        <v>241</v>
+      </c>
+      <c r="Q423" s="3">
+        <v>227.4</v>
+      </c>
+      <c r="R423" s="3">
+        <v>5706</v>
+      </c>
+      <c r="S423" s="3">
+        <v>329.2</v>
+      </c>
+      <c r="T423" s="3">
+        <v>3772</v>
       </c>
       <c r="U423" s="3">
-        <v>205.7</v>
+        <v>216.6</v>
       </c>
       <c r="V423" s="3">
-        <v>5632</v>
+        <v>5120</v>
       </c>
       <c r="W423" s="3">
-        <v>328.8</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="X423" s="3">
-        <v>3799</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="424" spans="2:30" x14ac:dyDescent="0.25">
@@ -17433,37 +17462,34 @@
         <v>44</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>147</v>
+        <v>206</v>
+      </c>
+      <c r="G424" t="s">
+        <v>653</v>
       </c>
       <c r="L424" s="3">
-        <v>230</v>
+        <v>122</v>
+      </c>
+      <c r="M424" s="1">
+        <v>197000</v>
       </c>
       <c r="U424" s="3">
-        <v>243.4</v>
+        <v>123.1</v>
       </c>
       <c r="V424" s="3">
-        <v>5400</v>
+        <v>5319</v>
       </c>
       <c r="W424" s="3">
-        <v>354.6</v>
+        <v>195</v>
       </c>
       <c r="X424" s="3">
-        <v>3056</v>
+        <v>3891</v>
       </c>
       <c r="Z424" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA424" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB424" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD424" s="4">
-        <v>70</v>
+        <v>386</v>
       </c>
     </row>
     <row r="425" spans="2:30" x14ac:dyDescent="0.25">
@@ -17471,55 +17497,46 @@
         <v>4</v>
       </c>
       <c r="D425" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J425" s="3">
-        <v>5</v>
+        <v>656</v>
+      </c>
+      <c r="G425" t="s">
+        <v>655</v>
       </c>
       <c r="L425" s="3">
-        <v>305</v>
+        <v>115</v>
       </c>
       <c r="Q425" s="3">
-        <v>294.39999999999998</v>
+        <v>126.6</v>
       </c>
       <c r="R425" s="3">
-        <v>6190</v>
+        <v>5245</v>
       </c>
       <c r="S425" s="3">
-        <v>404.5</v>
+        <v>225.8</v>
       </c>
       <c r="T425" s="3">
-        <v>4616</v>
+        <v>3364</v>
       </c>
       <c r="U425" s="3">
-        <v>293.10000000000002</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="V425" s="3">
-        <v>6708</v>
+        <v>5784</v>
       </c>
       <c r="W425" s="3">
-        <v>405.5</v>
+        <v>2440</v>
       </c>
       <c r="X425" s="3">
-        <v>4650</v>
+        <v>3011</v>
       </c>
       <c r="Z425" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA425" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB425" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD425" s="4">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="426" spans="2:30" x14ac:dyDescent="0.25">
@@ -17527,55 +17544,49 @@
         <v>5</v>
       </c>
       <c r="D426" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>639</v>
+        <v>338</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="G426" t="s">
+        <v>657</v>
       </c>
       <c r="L426" s="3">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M426" s="1">
-        <v>226000</v>
+        <v>550881</v>
       </c>
       <c r="Q426" s="3">
-        <v>76.5</v>
+        <v>90.8</v>
       </c>
       <c r="R426" s="3">
-        <v>5116</v>
+        <v>5587</v>
       </c>
       <c r="S426" s="3">
-        <v>115.9</v>
+        <v>127.1</v>
       </c>
       <c r="T426" s="3">
-        <v>3629</v>
+        <v>4187</v>
       </c>
       <c r="U426" s="3">
-        <v>77.099999999999994</v>
+        <v>97.5</v>
       </c>
       <c r="V426" s="3">
-        <v>4943</v>
+        <v>5617</v>
       </c>
       <c r="W426" s="3">
-        <v>115.9</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="X426" s="3">
-        <v>3522</v>
+        <v>4055</v>
       </c>
       <c r="Z426" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA426" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB426" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD426" s="4">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="427" spans="2:30" x14ac:dyDescent="0.25">
@@ -17586,37 +17597,43 @@
         <v>52</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>147</v>
+        <v>373</v>
+      </c>
+      <c r="J427" s="3">
+        <v>5</v>
       </c>
       <c r="L427" s="3">
-        <v>150</v>
+        <v>133</v>
+      </c>
+      <c r="Q427" s="3">
+        <v>113.3</v>
+      </c>
+      <c r="R427" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S427" s="3">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="T427" s="3">
+        <v>3992</v>
       </c>
       <c r="U427" s="3">
-        <v>186.1</v>
+        <v>117.4</v>
       </c>
       <c r="V427" s="3">
-        <v>3265</v>
+        <v>5951</v>
       </c>
       <c r="W427" s="3">
-        <v>451.4</v>
+        <v>168.2</v>
       </c>
       <c r="X427" s="3">
-        <v>2059</v>
+        <v>3955</v>
       </c>
       <c r="Z427" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA427" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB427" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD427" s="4">
-        <v>220</v>
+        <v>386</v>
       </c>
     </row>
     <row r="428" spans="2:30" x14ac:dyDescent="0.25">
@@ -17624,58 +17641,46 @@
         <v>7</v>
       </c>
       <c r="D428" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="J428" s="3">
-        <v>8</v>
-      </c>
-      <c r="K428" t="s">
-        <v>76</v>
+        <v>660</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L428" s="3">
-        <v>306</v>
+        <v>150</v>
       </c>
       <c r="M428" s="1">
-        <v>303000</v>
-      </c>
-      <c r="Q428" s="3">
-        <v>248</v>
-      </c>
-      <c r="R428" s="3">
-        <v>5970</v>
-      </c>
-      <c r="S428" s="3">
-        <v>339.7</v>
-      </c>
-      <c r="T428" s="3">
-        <v>3305</v>
+        <v>200000</v>
       </c>
       <c r="U428" s="3">
-        <v>247.9</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="V428" s="3">
-        <v>6245</v>
+        <v>3922</v>
       </c>
       <c r="W428" s="3">
-        <v>342.5</v>
+        <v>334.3</v>
       </c>
       <c r="X428" s="3">
-        <v>3314</v>
+        <v>2422</v>
       </c>
       <c r="Z428" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="AA428" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="AB428" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AD428" s="4">
-        <v>30</v>
+        <v>490</v>
       </c>
     </row>
     <row r="429" spans="2:30" x14ac:dyDescent="0.25">
@@ -17683,31 +17688,46 @@
         <v>8</v>
       </c>
       <c r="D429" t="s">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="E429" s="4" t="s">
-        <v>413</v>
+        <v>662</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>207</v>
+        <v>663</v>
       </c>
       <c r="G429" t="s">
-        <v>644</v>
-      </c>
-      <c r="L429" s="3">
-        <v>125</v>
+        <v>664</v>
+      </c>
+      <c r="J429" s="3">
+        <v>8</v>
+      </c>
+      <c r="N429" s="3">
+        <v>1969</v>
+      </c>
+      <c r="Q429" s="3">
+        <v>328.3</v>
+      </c>
+      <c r="R429" s="3">
+        <v>4379</v>
+      </c>
+      <c r="S429" s="3">
+        <v>552.79999999999995</v>
+      </c>
+      <c r="T429" s="3">
+        <v>4015</v>
       </c>
       <c r="U429" s="3">
-        <v>137</v>
+        <v>339.5</v>
       </c>
       <c r="V429" s="3">
-        <v>7319</v>
+        <v>5125</v>
       </c>
       <c r="W429" s="3">
-        <v>134.5</v>
+        <v>559.9</v>
       </c>
       <c r="X429" s="3">
-        <v>7076</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="430" spans="2:30" x14ac:dyDescent="0.25">
@@ -17715,43 +17735,58 @@
         <v>9</v>
       </c>
       <c r="D430" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>635</v>
+        <v>373</v>
+      </c>
+      <c r="G430" t="s">
+        <v>667</v>
       </c>
       <c r="J430" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L430" s="3">
-        <v>367</v>
+        <v>133</v>
+      </c>
+      <c r="Q430" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="R430" s="3">
+        <v>5214</v>
+      </c>
+      <c r="S430" s="3">
+        <v>163</v>
+      </c>
+      <c r="T430" s="3">
+        <v>3028</v>
       </c>
       <c r="U430" s="3">
-        <v>312.8</v>
+        <v>113.6</v>
       </c>
       <c r="V430" s="3">
-        <v>6550</v>
+        <v>5412</v>
       </c>
       <c r="W430" s="3">
-        <v>410.4</v>
+        <v>169.7</v>
       </c>
       <c r="X430" s="3">
-        <v>4479</v>
+        <v>3674</v>
       </c>
       <c r="Z430" t="s">
-        <v>156</v>
+        <v>665</v>
       </c>
       <c r="AA430" t="s">
-        <v>157</v>
+        <v>666</v>
       </c>
       <c r="AB430" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AD430" s="4">
-        <v>45</v>
+        <v>580</v>
       </c>
     </row>
     <row r="431" spans="2:30" x14ac:dyDescent="0.25">
@@ -17762,43 +17797,43 @@
         <v>28</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G431" t="s">
-        <v>606</v>
+        <v>208</v>
+      </c>
+      <c r="J431" s="3">
+        <v>6</v>
       </c>
       <c r="L431" s="3">
-        <v>220</v>
-      </c>
-      <c r="N431" s="3">
-        <v>1981</v>
+        <v>136</v>
+      </c>
+      <c r="Q431" s="3">
+        <v>178.2</v>
+      </c>
+      <c r="R431" s="3">
+        <v>6323</v>
+      </c>
+      <c r="S431" s="3">
+        <v>213.5</v>
+      </c>
+      <c r="T431" s="3">
+        <v>5093</v>
       </c>
       <c r="U431" s="3">
-        <v>190.7</v>
+        <v>179.5</v>
       </c>
       <c r="V431" s="3">
-        <v>6165</v>
+        <v>6252</v>
       </c>
       <c r="W431" s="3">
-        <v>280.89999999999998</v>
+        <v>216.8</v>
       </c>
       <c r="X431" s="3">
-        <v>4193</v>
+        <v>5084</v>
       </c>
       <c r="Z431" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA431" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB431" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD431" s="4">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="432" spans="2:30" x14ac:dyDescent="0.25">
@@ -17806,645 +17841,582 @@
         <v>11</v>
       </c>
       <c r="D432" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="F432" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J432" s="3">
-        <v>6</v>
+        <v>669</v>
+      </c>
+      <c r="G432" t="s">
+        <v>670</v>
       </c>
       <c r="L432" s="3">
-        <v>306</v>
-      </c>
-      <c r="Q432" s="3">
-        <v>336.6</v>
-      </c>
-      <c r="R432" s="3">
-        <v>5778</v>
-      </c>
-      <c r="S432" s="3">
-        <v>550</v>
-      </c>
-      <c r="T432" s="3">
-        <v>4222</v>
+        <v>136</v>
       </c>
       <c r="U432" s="3">
-        <v>341.5</v>
+        <v>125.1</v>
       </c>
       <c r="V432" s="3">
-        <v>4394</v>
+        <v>5351</v>
       </c>
       <c r="W432" s="3">
-        <v>557.29999999999995</v>
+        <v>190.2</v>
       </c>
       <c r="X432" s="3">
-        <v>4310</v>
+        <v>4523</v>
       </c>
       <c r="Z432" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA432" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB432" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD432" s="4">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="433" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B433">
-        <v>2</v>
+      <c r="C433" s="4">
+        <v>12</v>
+      </c>
+      <c r="D433" t="s">
+        <v>671</v>
+      </c>
+      <c r="E433" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L433" s="3">
+        <v>145</v>
+      </c>
+      <c r="Q433" s="3">
+        <v>145.6</v>
+      </c>
+      <c r="R433" s="3">
+        <v>3370</v>
+      </c>
+      <c r="S433" s="3">
+        <v>383.7</v>
+      </c>
+      <c r="T433" s="3">
+        <v>2295</v>
+      </c>
+      <c r="U433" s="3">
+        <v>147</v>
+      </c>
+      <c r="V433" s="3">
+        <v>3405</v>
+      </c>
+      <c r="W433" s="3">
+        <v>386.1</v>
+      </c>
+      <c r="X433" s="3">
+        <v>2295</v>
+      </c>
+      <c r="Z433" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="434" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C434" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D434" t="s">
-        <v>528</v>
-      </c>
-      <c r="E434" s="4" t="s">
-        <v>598</v>
+        <v>52</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="L434" s="3">
-        <v>169</v>
-      </c>
-      <c r="Q434" s="3">
-        <v>184.2</v>
-      </c>
-      <c r="R434" s="3">
-        <v>6393</v>
-      </c>
-      <c r="S434" s="3">
-        <v>236.7</v>
-      </c>
-      <c r="T434" s="3">
-        <v>4499</v>
+        <v>131</v>
+      </c>
+      <c r="M434" s="1">
+        <v>300000</v>
       </c>
       <c r="U434" s="3">
-        <v>186.4</v>
+        <v>128.9</v>
       </c>
       <c r="V434" s="3">
-        <v>6385</v>
+        <v>4106</v>
       </c>
       <c r="W434" s="3">
-        <v>234.9</v>
+        <v>317.2</v>
       </c>
       <c r="X434" s="3">
-        <v>4542</v>
+        <v>2094</v>
       </c>
       <c r="Z434" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="AA434" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="AB434" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="AD434" s="4">
-        <v>385</v>
+        <v>180</v>
       </c>
     </row>
     <row r="435" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C435" s="4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D435" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E435" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="F435" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="K435" t="s">
-        <v>76</v>
+        <v>475</v>
+      </c>
+      <c r="G435" t="s">
+        <v>677</v>
       </c>
       <c r="L435" s="3">
-        <v>220</v>
+        <v>193</v>
+      </c>
+      <c r="M435" s="1">
+        <v>335000</v>
       </c>
       <c r="Q435" s="3">
-        <v>167</v>
+        <v>193.1</v>
       </c>
       <c r="R435" s="3">
-        <v>6189</v>
+        <v>6562</v>
       </c>
       <c r="S435" s="3">
-        <v>226.7</v>
+        <v>262</v>
       </c>
       <c r="T435" s="3">
-        <v>3026</v>
+        <v>195.3</v>
       </c>
       <c r="U435" s="3">
-        <v>167.6</v>
+        <v>195.3</v>
       </c>
       <c r="V435" s="3">
-        <v>6627</v>
+        <v>6605</v>
       </c>
       <c r="W435" s="3">
-        <v>232</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="X435" s="3">
-        <v>3046</v>
+        <v>3696</v>
       </c>
       <c r="Z435" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="AA435" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="AB435" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AD435" s="4">
-        <v>75</v>
+        <v>250</v>
       </c>
     </row>
     <row r="436" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C436" s="4">
+      <c r="B436">
         <v>3</v>
-      </c>
-      <c r="D436" t="s">
-        <v>106</v>
-      </c>
-      <c r="E436" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G436" t="s">
-        <v>606</v>
-      </c>
-      <c r="K436" t="s">
-        <v>76</v>
-      </c>
-      <c r="L436" s="3">
-        <v>180</v>
-      </c>
-      <c r="U436" s="3">
-        <v>160.6</v>
-      </c>
-      <c r="V436" s="3">
-        <v>5334</v>
-      </c>
-      <c r="W436" s="3">
-        <v>200.5</v>
-      </c>
-      <c r="X436" s="3">
-        <v>4806</v>
-      </c>
-      <c r="Z436" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA436" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB436" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD436" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="437" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C437" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>52</v>
-      </c>
-      <c r="E437" s="4" t="s">
-        <v>607</v>
+        <v>197</v>
+      </c>
+      <c r="E437" s="4">
+        <v>968</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J437" s="3">
-        <v>6</v>
+        <v>463</v>
       </c>
       <c r="L437" s="3">
-        <v>150</v>
-      </c>
-      <c r="M437" s="1">
-        <v>293000</v>
+        <v>240</v>
+      </c>
+      <c r="Q437" s="3">
+        <v>213.8</v>
+      </c>
+      <c r="R437" s="3">
+        <v>6430</v>
+      </c>
+      <c r="S437" s="3">
+        <v>272.3</v>
+      </c>
+      <c r="T437" s="3">
+        <v>4390</v>
       </c>
       <c r="U437" s="3">
-        <v>142.4</v>
+        <v>216.9</v>
       </c>
       <c r="V437" s="3">
-        <v>4907</v>
+        <v>6411</v>
       </c>
       <c r="W437" s="3">
-        <v>234.4</v>
+        <v>276.2</v>
       </c>
       <c r="X437" s="3">
-        <v>3859</v>
+        <v>4383</v>
       </c>
       <c r="Z437" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="AA437" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="AB437" t="s">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="AD437" s="4">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="438" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C438" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D438" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G438" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="L438" s="3">
-        <v>120</v>
-      </c>
-      <c r="Q438" s="3">
-        <v>122</v>
-      </c>
-      <c r="R438" s="3">
-        <v>6640</v>
-      </c>
-      <c r="S438" s="3">
-        <v>149.1</v>
-      </c>
-      <c r="T438" s="3">
-        <v>3067</v>
+        <v>165</v>
       </c>
       <c r="U438" s="3">
-        <v>130.1</v>
+        <v>205.7</v>
       </c>
       <c r="V438" s="3">
-        <v>6687</v>
+        <v>5632</v>
       </c>
       <c r="W438" s="3">
-        <v>154.9</v>
+        <v>328.8</v>
       </c>
       <c r="X438" s="3">
-        <v>3043</v>
-      </c>
-      <c r="Z438" t="s">
-        <v>552</v>
-      </c>
-      <c r="AA438" t="s">
-        <v>553</v>
-      </c>
-      <c r="AB438" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD438" s="4">
-        <v>120</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="439" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C439" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D439" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J439" s="3">
-        <v>5</v>
-      </c>
-      <c r="K439" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="L439" s="3">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="U439" s="3">
-        <v>115.1</v>
+        <v>243.4</v>
       </c>
       <c r="V439" s="3">
-        <v>6028</v>
+        <v>5400</v>
       </c>
       <c r="W439" s="3">
-        <v>169.6</v>
+        <v>354.6</v>
       </c>
       <c r="X439" s="3">
-        <v>2501</v>
+        <v>3056</v>
       </c>
       <c r="Z439" t="s">
-        <v>610</v>
+        <v>446</v>
       </c>
       <c r="AA439" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC439" t="s">
-        <v>611</v>
+        <v>447</v>
+      </c>
+      <c r="AB439" t="s">
+        <v>42</v>
       </c>
       <c r="AD439" s="4">
-        <v>650</v>
+        <v>70</v>
       </c>
     </row>
     <row r="440" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C440" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D440" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="E440" s="4" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G440" t="s">
-        <v>615</v>
+        <v>211</v>
+      </c>
+      <c r="J440" s="3">
+        <v>5</v>
       </c>
       <c r="L440" s="3">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="Q440" s="3">
-        <v>266.89999999999998</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="R440" s="3">
-        <v>6022</v>
+        <v>6190</v>
       </c>
       <c r="S440" s="3">
-        <v>375.1</v>
+        <v>404.5</v>
       </c>
       <c r="T440" s="3">
-        <v>3212</v>
+        <v>4616</v>
       </c>
       <c r="U440" s="3">
-        <v>283.60000000000002</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="V440" s="3">
-        <v>5525</v>
+        <v>6708</v>
       </c>
       <c r="W440" s="3">
-        <v>398.7</v>
+        <v>405.5</v>
       </c>
       <c r="X440" s="3">
-        <v>3621</v>
+        <v>4650</v>
       </c>
       <c r="Z440" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="AA440" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="AB440" t="s">
         <v>42</v>
       </c>
       <c r="AD440" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="441" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C441" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D441" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E441" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G441" t="s">
-        <v>618</v>
+        <v>639</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="L441" s="3">
-        <v>129</v>
+        <v>75</v>
+      </c>
+      <c r="M441" s="1">
+        <v>226000</v>
+      </c>
+      <c r="Q441" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="R441" s="3">
+        <v>5116</v>
+      </c>
+      <c r="S441" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="T441" s="3">
+        <v>3629</v>
       </c>
       <c r="U441" s="3">
-        <v>181</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="V441" s="3">
-        <v>5896</v>
+        <v>4943</v>
       </c>
       <c r="W441" s="3">
-        <v>233</v>
+        <v>115.9</v>
       </c>
       <c r="X441" s="3">
-        <v>5296</v>
+        <v>3522</v>
       </c>
       <c r="Z441" t="s">
-        <v>616</v>
+        <v>446</v>
       </c>
       <c r="AA441" t="s">
-        <v>617</v>
+        <v>447</v>
       </c>
       <c r="AB441" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AD441" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="442" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C442" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D442" t="s">
         <v>52</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G442" t="s">
-        <v>623</v>
-      </c>
-      <c r="J442" s="3">
-        <v>5</v>
+        <v>147</v>
+      </c>
+      <c r="L442" s="3">
+        <v>150</v>
       </c>
       <c r="U442" s="3">
-        <v>227.8</v>
+        <v>186.1</v>
       </c>
       <c r="V442" s="3">
-        <v>5921</v>
+        <v>3265</v>
       </c>
       <c r="W442" s="3">
-        <v>343</v>
+        <v>451.4</v>
       </c>
       <c r="X442" s="3">
-        <v>4521</v>
+        <v>2059</v>
       </c>
       <c r="Z442" t="s">
-        <v>620</v>
+        <v>189</v>
       </c>
       <c r="AA442" t="s">
-        <v>621</v>
+        <v>190</v>
       </c>
       <c r="AB442" t="s">
         <v>112</v>
       </c>
       <c r="AD442" s="4">
-        <v>130</v>
+        <v>220</v>
       </c>
     </row>
     <row r="443" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C443" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D443" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="E443" s="4" t="s">
-        <v>626</v>
+        <v>643</v>
+      </c>
+      <c r="J443" s="3">
+        <v>8</v>
+      </c>
+      <c r="K443" t="s">
+        <v>76</v>
       </c>
       <c r="L443" s="3">
-        <v>135</v>
+        <v>306</v>
+      </c>
+      <c r="M443" s="1">
+        <v>303000</v>
+      </c>
+      <c r="Q443" s="3">
+        <v>248</v>
+      </c>
+      <c r="R443" s="3">
+        <v>5970</v>
+      </c>
+      <c r="S443" s="3">
+        <v>339.7</v>
+      </c>
+      <c r="T443" s="3">
+        <v>3305</v>
       </c>
       <c r="U443" s="3">
-        <v>133.4</v>
+        <v>247.9</v>
       </c>
       <c r="V443" s="3">
-        <v>6587</v>
+        <v>6245</v>
       </c>
       <c r="W443" s="3">
-        <v>148.5</v>
+        <v>342.5</v>
       </c>
       <c r="X443" s="3">
-        <v>4539</v>
+        <v>3314</v>
       </c>
       <c r="Z443" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="AA443" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="AB443" t="s">
         <v>42</v>
       </c>
       <c r="AD443" s="4">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="444" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C444" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D444" t="s">
-        <v>36</v>
+        <v>412</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>629</v>
+        <v>413</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>346</v>
+        <v>207</v>
       </c>
       <c r="G444" t="s">
-        <v>576</v>
-      </c>
-      <c r="H444" s="3" t="s">
-        <v>46</v>
+        <v>644</v>
       </c>
       <c r="L444" s="3">
-        <v>131</v>
-      </c>
-      <c r="Q444" s="3">
-        <v>158.69999999999999</v>
-      </c>
-      <c r="R444" s="3">
-        <v>4020</v>
-      </c>
-      <c r="S444" s="3">
-        <v>348.9</v>
-      </c>
-      <c r="T444" s="3">
-        <v>2359</v>
+        <v>125</v>
       </c>
       <c r="U444" s="3">
-        <v>160.6</v>
+        <v>137</v>
       </c>
       <c r="V444" s="3">
-        <v>4049</v>
+        <v>7319</v>
       </c>
       <c r="W444" s="3">
-        <v>350.3</v>
+        <v>134.5</v>
       </c>
       <c r="X444" s="3">
-        <v>2430</v>
-      </c>
-      <c r="Z444" t="s">
-        <v>627</v>
-      </c>
-      <c r="AA444" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB444" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD444" s="4">
-        <v>40</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="445" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C445" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D445" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G445" t="s">
-        <v>576</v>
+        <v>635</v>
+      </c>
+      <c r="J445" s="3">
+        <v>8</v>
       </c>
       <c r="L445" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q445" s="3">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="R445" s="3">
-        <v>6258</v>
-      </c>
-      <c r="S445" s="3">
-        <v>449.1</v>
-      </c>
-      <c r="T445" s="3">
-        <v>3927</v>
+        <v>367</v>
       </c>
       <c r="U445" s="3">
-        <v>308.89999999999998</v>
+        <v>312.8</v>
       </c>
       <c r="V445" s="3">
-        <v>6376</v>
+        <v>6550</v>
       </c>
       <c r="W445" s="3">
-        <v>447.1</v>
+        <v>410.4</v>
       </c>
       <c r="X445" s="3">
-        <v>3904</v>
+        <v>4479</v>
       </c>
       <c r="Z445" t="s">
         <v>156</v>
@@ -18461,359 +18433,1064 @@
     </row>
     <row r="446" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C446" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D446" t="s">
         <v>28</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K446" t="s">
-        <v>76</v>
+        <v>474</v>
+      </c>
+      <c r="G446" t="s">
+        <v>606</v>
       </c>
       <c r="L446" s="3">
-        <v>193</v>
+        <v>220</v>
+      </c>
+      <c r="N446" s="3">
+        <v>1981</v>
       </c>
       <c r="U446" s="3">
-        <v>205</v>
+        <v>190.7</v>
+      </c>
+      <c r="V446" s="3">
+        <v>6165</v>
       </c>
       <c r="W446" s="3">
-        <v>240</v>
+        <v>280.89999999999998</v>
+      </c>
+      <c r="X446" s="3">
+        <v>4193</v>
       </c>
       <c r="Z446" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="AA446" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="AB446" t="s">
         <v>42</v>
       </c>
       <c r="AD446" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B447">
+      <c r="C447" s="4">
+        <v>11</v>
+      </c>
+      <c r="D447" t="s">
+        <v>28</v>
+      </c>
+      <c r="E447" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J447" s="3">
+        <v>6</v>
+      </c>
+      <c r="L447" s="3">
+        <v>306</v>
+      </c>
+      <c r="Q447" s="3">
+        <v>336.6</v>
+      </c>
+      <c r="R447" s="3">
+        <v>5778</v>
+      </c>
+      <c r="S447" s="3">
+        <v>550</v>
+      </c>
+      <c r="T447" s="3">
+        <v>4222</v>
+      </c>
+      <c r="U447" s="3">
+        <v>341.5</v>
+      </c>
+      <c r="V447" s="3">
+        <v>4394</v>
+      </c>
+      <c r="W447" s="3">
+        <v>557.29999999999995</v>
+      </c>
+      <c r="X447" s="3">
+        <v>4310</v>
+      </c>
+      <c r="Z447" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA447" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB447" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD447" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="448" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C449" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C448" s="4">
-        <v>1</v>
-      </c>
-      <c r="D448" t="s">
-        <v>28</v>
-      </c>
-      <c r="E448" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="F448" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J448" s="3">
-        <v>6</v>
-      </c>
-      <c r="L448" s="3">
-        <v>193</v>
-      </c>
-      <c r="U448" s="3">
-        <v>196.4</v>
-      </c>
-      <c r="V448" s="3">
-        <v>6004</v>
-      </c>
-      <c r="W448" s="3">
-        <v>250</v>
-      </c>
-      <c r="X448" s="3">
-        <v>4813</v>
-      </c>
-      <c r="Z448" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA448" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB448" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD448" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="449" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C449" s="4">
-        <v>2</v>
-      </c>
       <c r="D449" t="s">
-        <v>44</v>
+        <v>528</v>
       </c>
       <c r="E449" s="4" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>208</v>
       </c>
       <c r="L449" s="3">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q449" s="3">
-        <v>161.19999999999999</v>
+        <v>184.2</v>
       </c>
       <c r="R449" s="3">
-        <v>25980</v>
+        <v>6393</v>
       </c>
       <c r="S449" s="3">
-        <v>212.9</v>
+        <v>236.7</v>
       </c>
       <c r="T449" s="3">
-        <v>4710</v>
+        <v>4499</v>
       </c>
       <c r="U449" s="3">
-        <v>162.9</v>
+        <v>186.4</v>
       </c>
       <c r="V449" s="3">
-        <v>6026</v>
+        <v>6385</v>
       </c>
       <c r="W449" s="3">
-        <v>216.6</v>
+        <v>234.9</v>
       </c>
       <c r="X449" s="3">
-        <v>4748</v>
+        <v>4542</v>
       </c>
       <c r="Z449" t="s">
-        <v>312</v>
+        <v>596</v>
       </c>
       <c r="AA449" t="s">
-        <v>313</v>
+        <v>597</v>
       </c>
       <c r="AB449" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="AD449" s="4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="450" spans="3:30" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="450" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C450" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D450" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="E450" s="4" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G450" t="s">
-        <v>588</v>
+        <v>602</v>
+      </c>
+      <c r="K450" t="s">
+        <v>76</v>
       </c>
       <c r="L450" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Q450" s="3">
-        <v>268.3</v>
+        <v>167</v>
       </c>
       <c r="R450" s="3">
-        <v>5341</v>
+        <v>6189</v>
       </c>
       <c r="S450" s="3">
-        <v>440.9</v>
+        <v>226.7</v>
       </c>
       <c r="T450" s="3">
-        <v>2638</v>
+        <v>3026</v>
       </c>
       <c r="U450" s="3">
-        <v>268.2</v>
+        <v>167.6</v>
       </c>
       <c r="V450" s="3">
-        <v>5400</v>
+        <v>6627</v>
       </c>
       <c r="W450" s="3">
-        <v>448.9</v>
+        <v>232</v>
       </c>
       <c r="X450" s="3">
-        <v>2646</v>
+        <v>3046</v>
       </c>
       <c r="Z450" t="s">
-        <v>215</v>
+        <v>599</v>
       </c>
       <c r="AA450" t="s">
-        <v>216</v>
+        <v>600</v>
       </c>
       <c r="AB450" t="s">
         <v>42</v>
       </c>
       <c r="AD450" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="451" spans="3:30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="451" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C451" s="4">
+        <v>3</v>
+      </c>
+      <c r="D451" t="s">
+        <v>106</v>
+      </c>
+      <c r="E451" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G451" t="s">
+        <v>606</v>
+      </c>
+      <c r="K451" t="s">
+        <v>76</v>
+      </c>
+      <c r="L451" s="3">
+        <v>180</v>
+      </c>
+      <c r="U451" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V451" s="3">
+        <v>5334</v>
+      </c>
+      <c r="W451" s="3">
+        <v>200.5</v>
+      </c>
+      <c r="X451" s="3">
+        <v>4806</v>
+      </c>
+      <c r="Z451" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA451" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB451" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD451" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C452" s="4">
         <v>4</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D452" t="s">
+        <v>52</v>
+      </c>
+      <c r="E452" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J452" s="3">
+        <v>6</v>
+      </c>
+      <c r="L452" s="3">
+        <v>150</v>
+      </c>
+      <c r="M452" s="1">
+        <v>293000</v>
+      </c>
+      <c r="U452" s="3">
+        <v>142.4</v>
+      </c>
+      <c r="V452" s="3">
+        <v>4907</v>
+      </c>
+      <c r="W452" s="3">
+        <v>234.4</v>
+      </c>
+      <c r="X452" s="3">
+        <v>3859</v>
+      </c>
+      <c r="Z452" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA452" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB452" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD452" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="453" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C453" s="4">
+        <v>5</v>
+      </c>
+      <c r="D453" t="s">
         <v>44</v>
       </c>
-      <c r="E451" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="F451" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G451" t="s">
-        <v>590</v>
-      </c>
-      <c r="L451" s="3">
-        <v>139</v>
-      </c>
-      <c r="N451" s="3">
-        <v>1986</v>
-      </c>
-      <c r="Q451" s="3">
-        <v>209.1</v>
-      </c>
-      <c r="R451" s="3">
-        <v>7791</v>
-      </c>
-      <c r="S451" s="3">
-        <v>212</v>
-      </c>
-      <c r="T451" s="3">
-        <v>5755</v>
-      </c>
-      <c r="U451" s="3">
-        <v>208</v>
-      </c>
-      <c r="V451" s="3">
-        <v>7966</v>
-      </c>
-      <c r="W451" s="3">
-        <v>213.2</v>
-      </c>
-      <c r="X451" s="3">
-        <v>5807</v>
-      </c>
-    </row>
-    <row r="452" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C452" s="4">
-        <v>5</v>
-      </c>
-      <c r="D452" t="s">
-        <v>44</v>
-      </c>
-      <c r="E452" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="F452" s="2" t="s">
+      <c r="E453" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F453" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G452" t="s">
-        <v>594</v>
-      </c>
-      <c r="L452" s="3">
-        <v>85</v>
-      </c>
-      <c r="Q452" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="R452" s="3">
-        <v>5085</v>
-      </c>
-      <c r="S452" s="3">
-        <v>160.1</v>
-      </c>
-      <c r="T452" s="3">
-        <v>3668</v>
-      </c>
-      <c r="U452" s="3">
-        <v>96.9</v>
-      </c>
-      <c r="V452" s="3">
-        <v>4993</v>
-      </c>
-      <c r="W452" s="3">
-        <v>159.5</v>
-      </c>
-      <c r="X452" s="3">
-        <v>3305</v>
-      </c>
-      <c r="Z452" t="s">
-        <v>591</v>
-      </c>
-      <c r="AA452" t="s">
-        <v>592</v>
-      </c>
-      <c r="AB452" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD452" s="4">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="453" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C453" s="4">
-        <v>6</v>
-      </c>
-      <c r="D453" t="s">
-        <v>178</v>
-      </c>
-      <c r="E453" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F453" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="G453" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="L453" s="3">
-        <v>116</v>
-      </c>
-      <c r="M453" s="1">
-        <v>325000</v>
+        <v>120</v>
       </c>
       <c r="Q453" s="3">
-        <v>109.7</v>
+        <v>122</v>
       </c>
       <c r="R453" s="3">
-        <v>6570</v>
+        <v>6640</v>
       </c>
       <c r="S453" s="3">
-        <v>130</v>
+        <v>149.1</v>
       </c>
       <c r="T453" s="3">
-        <v>5181</v>
+        <v>3067</v>
       </c>
       <c r="U453" s="3">
-        <v>111.1</v>
+        <v>130.1</v>
       </c>
       <c r="V453" s="3">
-        <v>6500</v>
+        <v>6687</v>
       </c>
       <c r="W453" s="3">
-        <v>132.30000000000001</v>
+        <v>154.9</v>
       </c>
       <c r="X453" s="3">
-        <v>5179</v>
+        <v>3043</v>
       </c>
       <c r="Z453" t="s">
-        <v>47</v>
+        <v>552</v>
       </c>
       <c r="AA453" t="s">
-        <v>48</v>
+        <v>553</v>
       </c>
       <c r="AB453" t="s">
         <v>42</v>
       </c>
       <c r="AD453" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="454" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C454" s="4">
+        <v>6</v>
+      </c>
+      <c r="D454" t="s">
+        <v>52</v>
+      </c>
+      <c r="E454" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J454" s="3">
+        <v>5</v>
+      </c>
+      <c r="K454" t="s">
+        <v>76</v>
+      </c>
+      <c r="L454" s="3">
+        <v>136</v>
+      </c>
+      <c r="U454" s="3">
+        <v>115.1</v>
+      </c>
+      <c r="V454" s="3">
+        <v>6028</v>
+      </c>
+      <c r="W454" s="3">
+        <v>169.6</v>
+      </c>
+      <c r="X454" s="3">
+        <v>2501</v>
+      </c>
+      <c r="Z454" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA454" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC454" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD454" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="455" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C455" s="4">
+        <v>7</v>
+      </c>
+      <c r="D455" t="s">
+        <v>217</v>
+      </c>
+      <c r="E455" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G455" t="s">
+        <v>615</v>
+      </c>
+      <c r="L455" s="3">
+        <v>265</v>
+      </c>
+      <c r="Q455" s="3">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="R455" s="3">
+        <v>6022</v>
+      </c>
+      <c r="S455" s="3">
+        <v>375.1</v>
+      </c>
+      <c r="T455" s="3">
+        <v>3212</v>
+      </c>
+      <c r="U455" s="3">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="V455" s="3">
+        <v>5525</v>
+      </c>
+      <c r="W455" s="3">
+        <v>398.7</v>
+      </c>
+      <c r="X455" s="3">
+        <v>3621</v>
+      </c>
+      <c r="Z455" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA455" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB455" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD455" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="456" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C456" s="4">
+        <v>8</v>
+      </c>
+      <c r="D456" t="s">
+        <v>28</v>
+      </c>
+      <c r="E456" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G456" t="s">
+        <v>618</v>
+      </c>
+      <c r="L456" s="3">
+        <v>129</v>
+      </c>
+      <c r="U456" s="3">
+        <v>181</v>
+      </c>
+      <c r="V456" s="3">
+        <v>5896</v>
+      </c>
+      <c r="W456" s="3">
+        <v>233</v>
+      </c>
+      <c r="X456" s="3">
+        <v>5296</v>
+      </c>
+      <c r="Z456" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA456" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB456" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD456" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="457" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C457" s="4">
+        <v>9</v>
+      </c>
+      <c r="D457" t="s">
+        <v>52</v>
+      </c>
+      <c r="E457" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G457" t="s">
+        <v>623</v>
+      </c>
+      <c r="J457" s="3">
+        <v>5</v>
+      </c>
+      <c r="U457" s="3">
+        <v>227.8</v>
+      </c>
+      <c r="V457" s="3">
+        <v>5921</v>
+      </c>
+      <c r="W457" s="3">
+        <v>343</v>
+      </c>
+      <c r="X457" s="3">
+        <v>4521</v>
+      </c>
+      <c r="Z457" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA457" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB457" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD457" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="458" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C458" s="4">
+        <v>10</v>
+      </c>
+      <c r="D458" t="s">
+        <v>217</v>
+      </c>
+      <c r="E458" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="L458" s="3">
+        <v>135</v>
+      </c>
+      <c r="U458" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="V458" s="3">
+        <v>6587</v>
+      </c>
+      <c r="W458" s="3">
+        <v>148.5</v>
+      </c>
+      <c r="X458" s="3">
+        <v>4539</v>
+      </c>
+      <c r="Z458" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA458" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB458" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD458" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="459" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C459" s="4">
+        <v>11</v>
+      </c>
+      <c r="D459" t="s">
+        <v>36</v>
+      </c>
+      <c r="E459" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G459" t="s">
+        <v>576</v>
+      </c>
+      <c r="H459" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L459" s="3">
+        <v>131</v>
+      </c>
+      <c r="Q459" s="3">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="R459" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S459" s="3">
+        <v>348.9</v>
+      </c>
+      <c r="T459" s="3">
+        <v>2359</v>
+      </c>
+      <c r="U459" s="3">
+        <v>160.6</v>
+      </c>
+      <c r="V459" s="3">
+        <v>4049</v>
+      </c>
+      <c r="W459" s="3">
+        <v>350.3</v>
+      </c>
+      <c r="X459" s="3">
+        <v>2430</v>
+      </c>
+      <c r="Z459" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA459" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB459" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD459" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="460" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C460" s="4">
+        <v>12</v>
+      </c>
+      <c r="D460" t="s">
+        <v>44</v>
+      </c>
+      <c r="E460" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G460" t="s">
+        <v>576</v>
+      </c>
+      <c r="L460" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q460" s="3">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="R460" s="3">
+        <v>6258</v>
+      </c>
+      <c r="S460" s="3">
+        <v>449.1</v>
+      </c>
+      <c r="T460" s="3">
+        <v>3927</v>
+      </c>
+      <c r="U460" s="3">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="V460" s="3">
+        <v>6376</v>
+      </c>
+      <c r="W460" s="3">
+        <v>447.1</v>
+      </c>
+      <c r="X460" s="3">
+        <v>3904</v>
+      </c>
+      <c r="Z460" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA460" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB460" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD460" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="461" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C461" s="4">
+        <v>13</v>
+      </c>
+      <c r="D461" t="s">
+        <v>28</v>
+      </c>
+      <c r="E461" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K461" t="s">
+        <v>76</v>
+      </c>
+      <c r="L461" s="3">
+        <v>193</v>
+      </c>
+      <c r="U461" s="3">
+        <v>205</v>
+      </c>
+      <c r="W461" s="3">
+        <v>240</v>
+      </c>
+      <c r="Z461" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA461" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB461" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD461" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="462" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C463" s="4">
+        <v>1</v>
+      </c>
+      <c r="D463" t="s">
+        <v>28</v>
+      </c>
+      <c r="E463" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J463" s="3">
+        <v>6</v>
+      </c>
+      <c r="L463" s="3">
+        <v>193</v>
+      </c>
+      <c r="U463" s="3">
+        <v>196.4</v>
+      </c>
+      <c r="V463" s="3">
+        <v>6004</v>
+      </c>
+      <c r="W463" s="3">
+        <v>250</v>
+      </c>
+      <c r="X463" s="3">
+        <v>4813</v>
+      </c>
+      <c r="Z463" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA463" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB463" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD463" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="464" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C464" s="4">
+        <v>2</v>
+      </c>
+      <c r="D464" t="s">
+        <v>44</v>
+      </c>
+      <c r="E464" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L464" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q464" s="3">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="R464" s="3">
+        <v>25980</v>
+      </c>
+      <c r="S464" s="3">
+        <v>212.9</v>
+      </c>
+      <c r="T464" s="3">
+        <v>4710</v>
+      </c>
+      <c r="U464" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="V464" s="3">
+        <v>6026</v>
+      </c>
+      <c r="W464" s="3">
+        <v>216.6</v>
+      </c>
+      <c r="X464" s="3">
+        <v>4748</v>
+      </c>
+      <c r="Z464" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA464" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB464" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD464" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="465" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C465" s="4">
+        <v>3</v>
+      </c>
+      <c r="D465" t="s">
+        <v>38</v>
+      </c>
+      <c r="E465" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G465" t="s">
+        <v>588</v>
+      </c>
+      <c r="L465" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q465" s="3">
+        <v>268.3</v>
+      </c>
+      <c r="R465" s="3">
+        <v>5341</v>
+      </c>
+      <c r="S465" s="3">
+        <v>440.9</v>
+      </c>
+      <c r="T465" s="3">
+        <v>2638</v>
+      </c>
+      <c r="U465" s="3">
+        <v>268.2</v>
+      </c>
+      <c r="V465" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W465" s="3">
+        <v>448.9</v>
+      </c>
+      <c r="X465" s="3">
+        <v>2646</v>
+      </c>
+      <c r="Z465" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA465" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB465" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD465" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="466" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C466" s="4">
+        <v>4</v>
+      </c>
+      <c r="D466" t="s">
+        <v>44</v>
+      </c>
+      <c r="E466" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G466" t="s">
+        <v>590</v>
+      </c>
+      <c r="L466" s="3">
+        <v>139</v>
+      </c>
+      <c r="N466" s="3">
+        <v>1986</v>
+      </c>
+      <c r="Q466" s="3">
+        <v>209.1</v>
+      </c>
+      <c r="R466" s="3">
+        <v>7791</v>
+      </c>
+      <c r="S466" s="3">
+        <v>212</v>
+      </c>
+      <c r="T466" s="3">
+        <v>5755</v>
+      </c>
+      <c r="U466" s="3">
+        <v>208</v>
+      </c>
+      <c r="V466" s="3">
+        <v>7966</v>
+      </c>
+      <c r="W466" s="3">
+        <v>213.2</v>
+      </c>
+      <c r="X466" s="3">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="467" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C467" s="4">
+        <v>5</v>
+      </c>
+      <c r="D467" t="s">
+        <v>44</v>
+      </c>
+      <c r="E467" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G467" t="s">
+        <v>594</v>
+      </c>
+      <c r="L467" s="3">
+        <v>85</v>
+      </c>
+      <c r="Q467" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="R467" s="3">
+        <v>5085</v>
+      </c>
+      <c r="S467" s="3">
+        <v>160.1</v>
+      </c>
+      <c r="T467" s="3">
+        <v>3668</v>
+      </c>
+      <c r="U467" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="V467" s="3">
+        <v>4993</v>
+      </c>
+      <c r="W467" s="3">
+        <v>159.5</v>
+      </c>
+      <c r="X467" s="3">
+        <v>3305</v>
+      </c>
+      <c r="Z467" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA467" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB467" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD467" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="468" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C468" s="4">
+        <v>6</v>
+      </c>
+      <c r="D468" t="s">
+        <v>178</v>
+      </c>
+      <c r="E468" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G468" t="s">
+        <v>595</v>
+      </c>
+      <c r="L468" s="3">
+        <v>116</v>
+      </c>
+      <c r="M468" s="1">
+        <v>325000</v>
+      </c>
+      <c r="Q468" s="3">
+        <v>109.7</v>
+      </c>
+      <c r="R468" s="3">
+        <v>6570</v>
+      </c>
+      <c r="S468" s="3">
+        <v>130</v>
+      </c>
+      <c r="T468" s="3">
+        <v>5181</v>
+      </c>
+      <c r="U468" s="3">
+        <v>111.1</v>
+      </c>
+      <c r="V468" s="3">
+        <v>6500</v>
+      </c>
+      <c r="W468" s="3">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="X468" s="3">
+        <v>5179</v>
+      </c>
+      <c r="Z468" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA468" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB468" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD468" s="4">
         <v>36</v>
       </c>
     </row>
